--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64B7F33-6A54-4006-AA5F-758B835A8565}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADB8196-8469-47AC-8BAD-926B2FE2BEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,26 +20,20 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$493</definedName>
-    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$433</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$497</definedName>
+    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$436</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="928">
   <si>
     <t>1С</t>
   </si>
@@ -2802,6 +2796,27 @@
   </si>
   <si>
     <t>Бульмени хрустящие с мясом ТМ Горячая штучка ТС Бульмени ГШ сфера 0,22 кг  Поком</t>
+  </si>
+  <si>
+    <t>Бульмени Хрустящие с мясом 0,22 Горячая штучка</t>
+  </si>
+  <si>
+    <t>Пельмени Мясорубские с рубленой говядиной 0,7кг ТМ Стародворье  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Пирожки с мясом, картофелем и грибами 3,7кг ВЕС ТМ Зареченские  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Готовые чебупели острые с мясом ТМ Горячая штучка флоу-пак 0,24 кг  Поком</t>
+  </si>
+  <si>
+    <t>SU003887</t>
+  </si>
+  <si>
+    <t>P004969</t>
+  </si>
+  <si>
+    <t>Снеки «Готовые чебупели острые с мясом» Фикс.вес 0,24 ТМ «Горячая штучка»</t>
   </si>
 </sst>
 </file>
@@ -3037,7 +3052,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Лист1"/>
@@ -6057,11 +6072,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H493"/>
+  <dimension ref="A1:H497"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15446,7 +15461,7 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="10" t="s">
-        <v>723</v>
+        <v>923</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>724</v>
@@ -15467,28 +15482,28 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="10" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D403" s="4">
-        <v>4301135596</v>
+        <v>4301135402</v>
       </c>
       <c r="E403" s="3">
-        <v>4607111039613</v>
+        <v>4640242181493</v>
       </c>
       <c r="F403" s="5" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="G403" s="1"/>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="10" t="s">
-        <v>756</v>
+        <v>730</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>728</v>
@@ -15509,7 +15524,7 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="10" t="s">
-        <v>792</v>
+        <v>756</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>728</v>
@@ -15530,7 +15545,7 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="10" t="s">
-        <v>735</v>
+        <v>792</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>728</v>
@@ -15551,28 +15566,28 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="10" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="D407" s="4">
-        <v>4301190068</v>
+        <v>4301135596</v>
       </c>
       <c r="E407" s="3">
-        <v>4620207490365</v>
+        <v>4607111039613</v>
       </c>
       <c r="F407" s="5" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="G407" s="1"/>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="10" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>737</v>
@@ -15593,7 +15608,7 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="10" t="s">
-        <v>736</v>
+        <v>766</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>737</v>
@@ -15614,28 +15629,28 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="10" t="s">
-        <v>753</v>
+        <v>736</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D410" s="4">
-        <v>4301190070</v>
+        <v>4301190068</v>
       </c>
       <c r="E410" s="3">
-        <v>4620207490419</v>
+        <v>4620207490365</v>
       </c>
       <c r="F410" s="5" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G410" s="1"/>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="10" t="s">
-        <v>739</v>
+        <v>753</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>740</v>
@@ -15656,30 +15671,28 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="10" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="D412" s="4">
-        <v>4301071032</v>
+        <v>4301190070</v>
       </c>
       <c r="E412" s="3">
-        <v>4607111038999</v>
+        <v>4620207490419</v>
       </c>
       <c r="F412" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="G412" s="1">
-        <v>180</v>
-      </c>
+        <v>739</v>
+      </c>
+      <c r="G412" s="1"/>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="10" t="s">
-        <v>812</v>
+        <v>751</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>749</v>
@@ -15702,7 +15715,7 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="10" t="s">
-        <v>895</v>
+        <v>812</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>749</v>
@@ -15725,7 +15738,7 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="10" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>749</v>
@@ -15748,7 +15761,7 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="10" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>749</v>
@@ -15771,51 +15784,51 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="10" t="s">
-        <v>767</v>
+        <v>748</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>768</v>
+        <v>749</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="D417" s="4">
-        <v>4301135404</v>
+        <v>4301071032</v>
       </c>
       <c r="E417" s="3">
-        <v>4640242181516</v>
+        <v>4607111038999</v>
       </c>
       <c r="F417" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="G417" s="1"/>
+        <v>751</v>
+      </c>
+      <c r="G417" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="10" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D418" s="4">
-        <v>4301071090</v>
+        <v>4301135404</v>
       </c>
       <c r="E418" s="3">
-        <v>4620207490075</v>
+        <v>4640242181516</v>
       </c>
       <c r="F418" s="5" t="s">
-        <v>770</v>
-      </c>
-      <c r="G418" s="1">
-        <v>180</v>
-      </c>
+        <v>767</v>
+      </c>
+      <c r="G418" s="1"/>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="10" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
       <c r="B419" s="3" t="s">
         <v>771</v>
@@ -15838,22 +15851,22 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="10" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D420" s="4">
-        <v>4301071092</v>
+        <v>4301071090</v>
       </c>
       <c r="E420" s="3">
-        <v>4620207490174</v>
+        <v>4620207490075</v>
       </c>
       <c r="F420" s="5" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="G420" s="1">
         <v>180</v>
@@ -15861,7 +15874,7 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="10" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>774</v>
@@ -15884,7 +15897,7 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="10" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>774</v>
@@ -15907,22 +15920,22 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="10" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D423" s="4">
-        <v>4301071091</v>
+        <v>4301071092</v>
       </c>
       <c r="E423" s="3">
-        <v>4620207490044</v>
+        <v>4620207490174</v>
       </c>
       <c r="F423" s="5" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="G423" s="1">
         <v>180</v>
@@ -15930,7 +15943,7 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="10" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>777</v>
@@ -15953,70 +15966,72 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="10" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="D425" s="4">
-        <v>4301132044</v>
+        <v>4301071091</v>
       </c>
       <c r="E425" s="3">
-        <v>4607111036971</v>
+        <v>4620207490044</v>
       </c>
       <c r="F425" s="5" t="s">
-        <v>790</v>
-      </c>
-      <c r="G425" s="1"/>
+        <v>776</v>
+      </c>
+      <c r="G425" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="10" t="s">
-        <v>808</v>
+        <v>787</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>809</v>
+        <v>788</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>810</v>
+        <v>789</v>
       </c>
       <c r="D426" s="4">
-        <v>4301135127</v>
+        <v>4301132044</v>
       </c>
       <c r="E426" s="3">
-        <v>4607111036995</v>
+        <v>4607111036971</v>
       </c>
       <c r="F426" s="5" t="s">
-        <v>811</v>
+        <v>790</v>
       </c>
       <c r="G426" s="1"/>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="10" t="s">
-        <v>909</v>
+        <v>808</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>899</v>
+        <v>809</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>900</v>
+        <v>810</v>
       </c>
       <c r="D427" s="4">
-        <v>4301135670</v>
+        <v>4301135127</v>
       </c>
       <c r="E427" s="3">
-        <v>4620207490983</v>
+        <v>4607111036995</v>
       </c>
       <c r="F427" s="5" t="s">
-        <v>908</v>
+        <v>811</v>
       </c>
       <c r="G427" s="1"/>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="10" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>899</v>
@@ -16033,11 +16048,13 @@
       <c r="F428" s="5" t="s">
         <v>908</v>
       </c>
-      <c r="G428" s="1"/>
+      <c r="G428" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="10" t="s">
-        <v>898</v>
+        <v>920</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>899</v>
@@ -16060,49 +16077,53 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="10" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D430" s="4">
-        <v>4301071074</v>
+        <v>4301135670</v>
       </c>
       <c r="E430" s="3">
-        <v>4620207491157</v>
+        <v>4620207490983</v>
       </c>
       <c r="F430" s="5" t="s">
-        <v>901</v>
-      </c>
-      <c r="G430" s="1"/>
+        <v>908</v>
+      </c>
+      <c r="G430" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="10" t="s">
-        <v>916</v>
+        <v>898</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D431" s="4">
-        <v>4301071074</v>
+        <v>4301135670</v>
       </c>
       <c r="E431" s="3">
-        <v>4620207491157</v>
+        <v>4620207490983</v>
       </c>
       <c r="F431" s="5" t="s">
-        <v>901</v>
-      </c>
-      <c r="G431" s="1"/>
+        <v>908</v>
+      </c>
+      <c r="G431" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="10" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>902</v>
@@ -16122,95 +16143,86 @@
       <c r="G432" s="1"/>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A433" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="B433" s="18" t="s">
-        <v>630</v>
-      </c>
-      <c r="C433" s="18" t="s">
-        <v>631</v>
-      </c>
-      <c r="D433" s="19">
-        <v>4301071038</v>
-      </c>
-      <c r="E433" s="18">
-        <v>4607111039248</v>
-      </c>
-      <c r="F433" s="20" t="s">
-        <v>632</v>
-      </c>
-      <c r="G433" s="21"/>
-      <c r="H433" s="22" t="s">
-        <v>874</v>
-      </c>
+      <c r="A433" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="D433" s="4">
+        <v>4301071074</v>
+      </c>
+      <c r="E433" s="3">
+        <v>4620207491157</v>
+      </c>
+      <c r="F433" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="G433" s="1"/>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A434" s="17" t="s">
-        <v>814</v>
-      </c>
-      <c r="B434" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C434" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="D434" s="19">
-        <v>4301070981</v>
-      </c>
-      <c r="E434" s="18">
-        <v>4607111036728</v>
-      </c>
-      <c r="F434" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="G434" s="21"/>
-      <c r="H434" s="22" t="s">
-        <v>874</v>
-      </c>
+      <c r="A434" s="10" t="s">
+        <v>901</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="D434" s="4">
+        <v>4301071074</v>
+      </c>
+      <c r="E434" s="3">
+        <v>4620207491157</v>
+      </c>
+      <c r="F434" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="G434" s="1"/>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A435" s="17" t="s">
-        <v>815</v>
-      </c>
-      <c r="B435" s="18" t="s">
-        <v>638</v>
-      </c>
-      <c r="C435" s="18" t="s">
-        <v>639</v>
-      </c>
-      <c r="D435" s="19">
-        <v>4301071039</v>
-      </c>
-      <c r="E435" s="18">
-        <v>4607111039279</v>
-      </c>
-      <c r="F435" s="20" t="s">
-        <v>640</v>
-      </c>
-      <c r="G435" s="21"/>
-      <c r="H435" s="22" t="s">
-        <v>874</v>
-      </c>
+      <c r="A435" s="10" t="s">
+        <v>924</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="D435" s="4">
+        <v>4301135763</v>
+      </c>
+      <c r="E435" s="3">
+        <v>4620207491027</v>
+      </c>
+      <c r="F435" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="G435" s="1"/>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="17" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B436" s="18" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C436" s="18" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="D436" s="19">
-        <v>4301071051</v>
+        <v>4301071038</v>
       </c>
       <c r="E436" s="18">
-        <v>4607111039262</v>
+        <v>4607111039248</v>
       </c>
       <c r="F436" s="20" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="G436" s="21"/>
       <c r="H436" s="22" t="s">
@@ -16219,22 +16231,22 @@
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="17" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B437" s="18" t="s">
-        <v>293</v>
+        <v>106</v>
       </c>
       <c r="C437" s="18" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="D437" s="19">
-        <v>4301132080</v>
+        <v>4301070981</v>
       </c>
       <c r="E437" s="18">
-        <v>4640242180397</v>
+        <v>4607111036728</v>
       </c>
       <c r="F437" s="20" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="G437" s="21"/>
       <c r="H437" s="22" t="s">
@@ -16243,22 +16255,22 @@
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="17" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B438" s="18" t="s">
-        <v>113</v>
+        <v>638</v>
       </c>
       <c r="C438" s="18" t="s">
-        <v>531</v>
+        <v>639</v>
       </c>
       <c r="D438" s="19">
-        <v>4301071029</v>
+        <v>4301071039</v>
       </c>
       <c r="E438" s="18">
-        <v>4607111035899</v>
+        <v>4607111039279</v>
       </c>
       <c r="F438" s="20" t="s">
-        <v>114</v>
+        <v>640</v>
       </c>
       <c r="G438" s="21"/>
       <c r="H438" s="22" t="s">
@@ -16267,22 +16279,22 @@
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="17" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B439" s="18" t="s">
-        <v>302</v>
+        <v>626</v>
       </c>
       <c r="C439" s="18" t="s">
-        <v>303</v>
+        <v>627</v>
       </c>
       <c r="D439" s="19">
-        <v>4301136026</v>
+        <v>4301071051</v>
       </c>
       <c r="E439" s="18">
-        <v>4640242180236</v>
+        <v>4607111039262</v>
       </c>
       <c r="F439" s="20" t="s">
-        <v>304</v>
+        <v>628</v>
       </c>
       <c r="G439" s="21"/>
       <c r="H439" s="22" t="s">
@@ -16291,22 +16303,22 @@
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="17" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B440" s="18" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="C440" s="18" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="D440" s="19">
-        <v>4301070977</v>
+        <v>4301132080</v>
       </c>
       <c r="E440" s="18">
-        <v>4607111037411</v>
+        <v>4640242180397</v>
       </c>
       <c r="F440" s="20" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="G440" s="21"/>
       <c r="H440" s="22" t="s">
@@ -16315,22 +16327,22 @@
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="17" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B441" s="18" t="s">
-        <v>563</v>
+        <v>113</v>
       </c>
       <c r="C441" s="18" t="s">
-        <v>564</v>
+        <v>531</v>
       </c>
       <c r="D441" s="19">
-        <v>4301135375</v>
+        <v>4301071029</v>
       </c>
       <c r="E441" s="18">
-        <v>4640242181486</v>
+        <v>4607111035899</v>
       </c>
       <c r="F441" s="20" t="s">
-        <v>565</v>
+        <v>114</v>
       </c>
       <c r="G441" s="21"/>
       <c r="H441" s="22" t="s">
@@ -16339,22 +16351,22 @@
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="17" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B442" s="18" t="s">
-        <v>658</v>
+        <v>302</v>
       </c>
       <c r="C442" s="18" t="s">
-        <v>659</v>
+        <v>303</v>
       </c>
       <c r="D442" s="19">
-        <v>4301135578</v>
+        <v>4301136026</v>
       </c>
       <c r="E442" s="18">
-        <v>4607111033444</v>
+        <v>4640242180236</v>
       </c>
       <c r="F442" s="20" t="s">
-        <v>660</v>
+        <v>304</v>
       </c>
       <c r="G442" s="21"/>
       <c r="H442" s="22" t="s">
@@ -16363,22 +16375,22 @@
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="17" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B443" s="18" t="s">
-        <v>112</v>
+        <v>318</v>
       </c>
       <c r="C443" s="18" t="s">
-        <v>641</v>
+        <v>319</v>
       </c>
       <c r="D443" s="19">
-        <v>4301071050</v>
+        <v>4301070977</v>
       </c>
       <c r="E443" s="18">
-        <v>4607111036216</v>
+        <v>4607111037411</v>
       </c>
       <c r="F443" s="20" t="s">
-        <v>642</v>
+        <v>320</v>
       </c>
       <c r="G443" s="21"/>
       <c r="H443" s="22" t="s">
@@ -16387,22 +16399,22 @@
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="17" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B444" s="18" t="s">
-        <v>634</v>
+        <v>563</v>
       </c>
       <c r="C444" s="18" t="s">
-        <v>635</v>
+        <v>564</v>
       </c>
       <c r="D444" s="19">
-        <v>4301071049</v>
+        <v>4301135375</v>
       </c>
       <c r="E444" s="18">
-        <v>4607111039293</v>
+        <v>4640242181486</v>
       </c>
       <c r="F444" s="20" t="s">
-        <v>636</v>
+        <v>565</v>
       </c>
       <c r="G444" s="21"/>
       <c r="H444" s="22" t="s">
@@ -16411,22 +16423,22 @@
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="17" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B445" s="18" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="C445" s="18" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="D445" s="19">
-        <v>4301135532</v>
+        <v>4301135578</v>
       </c>
       <c r="E445" s="18">
-        <v>4607111033994</v>
+        <v>4607111033444</v>
       </c>
       <c r="F445" s="20" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="G445" s="21"/>
       <c r="H445" s="22" t="s">
@@ -16435,22 +16447,22 @@
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="17" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B446" s="18" t="s">
-        <v>669</v>
+        <v>112</v>
       </c>
       <c r="C446" s="18" t="s">
-        <v>670</v>
+        <v>641</v>
       </c>
       <c r="D446" s="19">
-        <v>4301135533</v>
+        <v>4301071050</v>
       </c>
       <c r="E446" s="18">
-        <v>4607111034014</v>
+        <v>4607111036216</v>
       </c>
       <c r="F446" s="20" t="s">
-        <v>671</v>
+        <v>642</v>
       </c>
       <c r="G446" s="21"/>
       <c r="H446" s="22" t="s">
@@ -16459,22 +16471,22 @@
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="17" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B447" s="18" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="C447" s="18" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="D447" s="19">
-        <v>4301135565</v>
+        <v>4301071049</v>
       </c>
       <c r="E447" s="18">
-        <v>4607111033451</v>
+        <v>4607111039293</v>
       </c>
       <c r="F447" s="20" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="G447" s="21"/>
       <c r="H447" s="22" t="s">
@@ -16483,22 +16495,22 @@
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="17" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B448" s="18" t="s">
-        <v>384</v>
+        <v>666</v>
       </c>
       <c r="C448" s="18" t="s">
-        <v>385</v>
+        <v>667</v>
       </c>
       <c r="D448" s="19">
-        <v>4301136029</v>
+        <v>4301135532</v>
       </c>
       <c r="E448" s="18">
-        <v>4640242180410</v>
+        <v>4607111033994</v>
       </c>
       <c r="F448" s="20" t="s">
-        <v>386</v>
+        <v>668</v>
       </c>
       <c r="G448" s="21"/>
       <c r="H448" s="22" t="s">
@@ -16507,22 +16519,22 @@
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="17" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B449" s="18" t="s">
-        <v>557</v>
+        <v>669</v>
       </c>
       <c r="C449" s="18" t="s">
-        <v>558</v>
+        <v>670</v>
       </c>
       <c r="D449" s="19">
-        <v>4301135394</v>
+        <v>4301135533</v>
       </c>
       <c r="E449" s="18">
-        <v>4640242181561</v>
+        <v>4607111034014</v>
       </c>
       <c r="F449" s="20" t="s">
-        <v>559</v>
+        <v>671</v>
       </c>
       <c r="G449" s="21"/>
       <c r="H449" s="22" t="s">
@@ -16531,22 +16543,22 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="17" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B450" s="18" t="s">
-        <v>609</v>
+        <v>646</v>
       </c>
       <c r="C450" s="18" t="s">
-        <v>610</v>
+        <v>647</v>
       </c>
       <c r="D450" s="19">
-        <v>4301135374</v>
+        <v>4301135565</v>
       </c>
       <c r="E450" s="18">
-        <v>4640242181424</v>
+        <v>4607111033451</v>
       </c>
       <c r="F450" s="20" t="s">
-        <v>611</v>
+        <v>648</v>
       </c>
       <c r="G450" s="21"/>
       <c r="H450" s="22" t="s">
@@ -16555,22 +16567,22 @@
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="17" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B451" s="18" t="s">
-        <v>875</v>
+        <v>384</v>
       </c>
       <c r="C451" s="18" t="s">
-        <v>876</v>
+        <v>385</v>
       </c>
       <c r="D451" s="19">
-        <v>4301132079</v>
+        <v>4301136029</v>
       </c>
       <c r="E451" s="18">
-        <v>4607111038487</v>
+        <v>4640242180410</v>
       </c>
       <c r="F451" s="20" t="s">
-        <v>427</v>
+        <v>386</v>
       </c>
       <c r="G451" s="21"/>
       <c r="H451" s="22" t="s">
@@ -16579,22 +16591,22 @@
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="17" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B452" s="18" t="s">
-        <v>164</v>
+        <v>557</v>
       </c>
       <c r="C452" s="18" t="s">
-        <v>644</v>
+        <v>558</v>
       </c>
       <c r="D452" s="19">
-        <v>4301071056</v>
+        <v>4301135394</v>
       </c>
       <c r="E452" s="18">
-        <v>4640242180250</v>
+        <v>4640242181561</v>
       </c>
       <c r="F452" s="20" t="s">
-        <v>645</v>
+        <v>559</v>
       </c>
       <c r="G452" s="21"/>
       <c r="H452" s="22" t="s">
@@ -16603,22 +16615,22 @@
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="17" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B453" s="18" t="s">
-        <v>299</v>
+        <v>609</v>
       </c>
       <c r="C453" s="18" t="s">
-        <v>300</v>
+        <v>610</v>
       </c>
       <c r="D453" s="19">
-        <v>4301136028</v>
+        <v>4301135374</v>
       </c>
       <c r="E453" s="18">
-        <v>4640242180304</v>
+        <v>4640242181424</v>
       </c>
       <c r="F453" s="20" t="s">
-        <v>301</v>
+        <v>611</v>
       </c>
       <c r="G453" s="21"/>
       <c r="H453" s="22" t="s">
@@ -16627,22 +16639,22 @@
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="17" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B454" s="18" t="s">
-        <v>109</v>
+        <v>875</v>
       </c>
       <c r="C454" s="18" t="s">
-        <v>110</v>
+        <v>876</v>
       </c>
       <c r="D454" s="19">
-        <v>4301070920</v>
+        <v>4301132079</v>
       </c>
       <c r="E454" s="18">
-        <v>4607111035929</v>
+        <v>4607111038487</v>
       </c>
       <c r="F454" s="20" t="s">
-        <v>111</v>
+        <v>427</v>
       </c>
       <c r="G454" s="21"/>
       <c r="H454" s="22" t="s">
@@ -16651,22 +16663,22 @@
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="17" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B455" s="18" t="s">
-        <v>763</v>
+        <v>164</v>
       </c>
       <c r="C455" s="18" t="s">
-        <v>764</v>
+        <v>644</v>
       </c>
       <c r="D455" s="19">
-        <v>4301135534</v>
+        <v>4301071056</v>
       </c>
       <c r="E455" s="18">
-        <v>4607111034199</v>
+        <v>4640242180250</v>
       </c>
       <c r="F455" s="20" t="s">
-        <v>765</v>
+        <v>645</v>
       </c>
       <c r="G455" s="21"/>
       <c r="H455" s="22" t="s">
@@ -16675,22 +16687,22 @@
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="17" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B456" s="18" t="s">
-        <v>760</v>
+        <v>299</v>
       </c>
       <c r="C456" s="18" t="s">
-        <v>761</v>
+        <v>300</v>
       </c>
       <c r="D456" s="19">
-        <v>4301132186</v>
+        <v>4301136028</v>
       </c>
       <c r="E456" s="18">
-        <v>4607111036520</v>
+        <v>4640242180304</v>
       </c>
       <c r="F456" s="20" t="s">
-        <v>762</v>
+        <v>301</v>
       </c>
       <c r="G456" s="21"/>
       <c r="H456" s="22" t="s">
@@ -16699,22 +16711,22 @@
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="17" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B457" s="18" t="s">
-        <v>622</v>
+        <v>109</v>
       </c>
       <c r="C457" s="18" t="s">
-        <v>623</v>
+        <v>110</v>
       </c>
       <c r="D457" s="19">
-        <v>4301071047</v>
+        <v>4301070920</v>
       </c>
       <c r="E457" s="18">
-        <v>4607111039330</v>
+        <v>4607111035929</v>
       </c>
       <c r="F457" s="20" t="s">
-        <v>624</v>
+        <v>111</v>
       </c>
       <c r="G457" s="21"/>
       <c r="H457" s="22" t="s">
@@ -16723,22 +16735,22 @@
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="17" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B458" s="18" t="s">
-        <v>877</v>
+        <v>763</v>
       </c>
       <c r="C458" s="18" t="s">
-        <v>878</v>
+        <v>764</v>
       </c>
       <c r="D458" s="19">
-        <v>4301131022</v>
+        <v>4301135534</v>
       </c>
       <c r="E458" s="18">
-        <v>4607111034120</v>
+        <v>4607111034199</v>
       </c>
       <c r="F458" s="20" t="s">
-        <v>125</v>
+        <v>765</v>
       </c>
       <c r="G458" s="21"/>
       <c r="H458" s="22" t="s">
@@ -16747,22 +16759,22 @@
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="17" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B459" s="18" t="s">
-        <v>712</v>
+        <v>760</v>
       </c>
       <c r="C459" s="18" t="s">
-        <v>713</v>
+        <v>761</v>
       </c>
       <c r="D459" s="19">
-        <v>4301135569</v>
+        <v>4301132186</v>
       </c>
       <c r="E459" s="18">
-        <v>4607111033628</v>
+        <v>4607111036520</v>
       </c>
       <c r="F459" s="20" t="s">
-        <v>714</v>
+        <v>762</v>
       </c>
       <c r="G459" s="21"/>
       <c r="H459" s="22" t="s">
@@ -16771,22 +16783,22 @@
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="17" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B460" s="18" t="s">
-        <v>567</v>
+        <v>622</v>
       </c>
       <c r="C460" s="18" t="s">
-        <v>568</v>
+        <v>623</v>
       </c>
       <c r="D460" s="19">
-        <v>4301135405</v>
+        <v>4301071047</v>
       </c>
       <c r="E460" s="18">
-        <v>4640242181523</v>
+        <v>4607111039330</v>
       </c>
       <c r="F460" s="20" t="s">
-        <v>569</v>
+        <v>624</v>
       </c>
       <c r="G460" s="21"/>
       <c r="H460" s="22" t="s">
@@ -16795,22 +16807,22 @@
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="17" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B461" s="18" t="s">
-        <v>724</v>
+        <v>877</v>
       </c>
       <c r="C461" s="18" t="s">
-        <v>725</v>
+        <v>878</v>
       </c>
       <c r="D461" s="19">
-        <v>4301135402</v>
+        <v>4301131022</v>
       </c>
       <c r="E461" s="18">
-        <v>4640242181493</v>
+        <v>4607111034120</v>
       </c>
       <c r="F461" s="20" t="s">
-        <v>723</v>
+        <v>125</v>
       </c>
       <c r="G461" s="21"/>
       <c r="H461" s="22" t="s">
@@ -16819,22 +16831,22 @@
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="17" t="s">
-        <v>842</v>
-      </c>
-      <c r="B462" s="3" t="s">
-        <v>904</v>
-      </c>
-      <c r="C462" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="D462" s="4">
-        <v>4301131042</v>
-      </c>
-      <c r="E462" s="3">
-        <v>4607111034137</v>
-      </c>
-      <c r="F462" s="5" t="s">
-        <v>906</v>
+        <v>839</v>
+      </c>
+      <c r="B462" s="18" t="s">
+        <v>712</v>
+      </c>
+      <c r="C462" s="18" t="s">
+        <v>713</v>
+      </c>
+      <c r="D462" s="19">
+        <v>4301135569</v>
+      </c>
+      <c r="E462" s="18">
+        <v>4607111033628</v>
+      </c>
+      <c r="F462" s="20" t="s">
+        <v>714</v>
       </c>
       <c r="G462" s="21"/>
       <c r="H462" s="22" t="s">
@@ -16843,22 +16855,22 @@
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="17" t="s">
-        <v>843</v>
-      </c>
-      <c r="B463" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="C463" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="D463" s="4">
-        <v>4301136077</v>
-      </c>
-      <c r="E463" s="3">
-        <v>4607025784319</v>
-      </c>
-      <c r="F463" s="5" t="s">
-        <v>912</v>
+        <v>840</v>
+      </c>
+      <c r="B463" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="C463" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="D463" s="19">
+        <v>4301135405</v>
+      </c>
+      <c r="E463" s="18">
+        <v>4640242181523</v>
+      </c>
+      <c r="F463" s="20" t="s">
+        <v>569</v>
       </c>
       <c r="G463" s="21"/>
       <c r="H463" s="22" t="s">
@@ -16867,22 +16879,22 @@
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="17" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B464" s="18" t="s">
-        <v>470</v>
+        <v>724</v>
       </c>
       <c r="C464" s="18" t="s">
-        <v>529</v>
+        <v>725</v>
       </c>
       <c r="D464" s="19">
-        <v>4301135275</v>
+        <v>4301135402</v>
       </c>
       <c r="E464" s="18">
-        <v>4607111034380</v>
+        <v>4640242181493</v>
       </c>
       <c r="F464" s="20" t="s">
-        <v>471</v>
+        <v>723</v>
       </c>
       <c r="G464" s="21"/>
       <c r="H464" s="22" t="s">
@@ -16891,22 +16903,22 @@
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="17" t="s">
-        <v>845</v>
-      </c>
-      <c r="B465" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="C465" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="D465" s="19">
-        <v>4301135277</v>
-      </c>
-      <c r="E465" s="18">
-        <v>4607111034397</v>
-      </c>
-      <c r="F465" s="20" t="s">
-        <v>480</v>
+        <v>842</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="C465" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="D465" s="4">
+        <v>4301131042</v>
+      </c>
+      <c r="E465" s="3">
+        <v>4607111034137</v>
+      </c>
+      <c r="F465" s="5" t="s">
+        <v>906</v>
       </c>
       <c r="G465" s="21"/>
       <c r="H465" s="22" t="s">
@@ -16915,22 +16927,22 @@
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="17" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>892</v>
+        <v>910</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>893</v>
+        <v>911</v>
       </c>
       <c r="D466" s="4">
-        <v>4301132179</v>
+        <v>4301136077</v>
       </c>
       <c r="E466" s="3">
-        <v>4607111035691</v>
+        <v>4607025784319</v>
       </c>
       <c r="F466" s="5" t="s">
-        <v>894</v>
+        <v>912</v>
       </c>
       <c r="G466" s="21"/>
       <c r="H466" s="22" t="s">
@@ -16939,22 +16951,22 @@
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="17" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B467" s="18" t="s">
-        <v>757</v>
+        <v>470</v>
       </c>
       <c r="C467" s="18" t="s">
-        <v>758</v>
+        <v>529</v>
       </c>
       <c r="D467" s="19">
-        <v>4301132185</v>
+        <v>4301135275</v>
       </c>
       <c r="E467" s="18">
-        <v>4607111036537</v>
+        <v>4607111034380</v>
       </c>
       <c r="F467" s="20" t="s">
-        <v>759</v>
+        <v>471</v>
       </c>
       <c r="G467" s="21"/>
       <c r="H467" s="22" t="s">
@@ -16963,22 +16975,22 @@
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="17" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B468" s="18" t="s">
-        <v>377</v>
+        <v>479</v>
       </c>
       <c r="C468" s="18" t="s">
-        <v>378</v>
+        <v>539</v>
       </c>
       <c r="D468" s="19">
-        <v>4301131019</v>
+        <v>4301135277</v>
       </c>
       <c r="E468" s="18">
-        <v>4640242180427</v>
+        <v>4607111034397</v>
       </c>
       <c r="F468" s="20" t="s">
-        <v>379</v>
+        <v>480</v>
       </c>
       <c r="G468" s="21"/>
       <c r="H468" s="22" t="s">
@@ -16987,22 +16999,22 @@
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="17" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>914</v>
+        <v>893</v>
       </c>
       <c r="D469" s="4">
-        <v>4301135571</v>
+        <v>4301132179</v>
       </c>
       <c r="E469" s="3">
-        <v>4607111035028</v>
+        <v>4607111035691</v>
       </c>
       <c r="F469" s="5" t="s">
-        <v>915</v>
+        <v>894</v>
       </c>
       <c r="G469" s="21"/>
       <c r="H469" s="22" t="s">
@@ -17011,46 +17023,46 @@
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="17" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B470" s="18" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="C470" s="18" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="D470" s="19">
-        <v>4301135575</v>
+        <v>4301132185</v>
       </c>
       <c r="E470" s="18">
-        <v>4607111035141</v>
+        <v>4607111036537</v>
       </c>
       <c r="F470" s="20" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="G470" s="21"/>
       <c r="H470" s="22" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="471" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="17" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B471" s="18" t="s">
-        <v>493</v>
+        <v>377</v>
       </c>
       <c r="C471" s="18" t="s">
-        <v>494</v>
+        <v>378</v>
       </c>
       <c r="D471" s="19">
-        <v>4301070960</v>
+        <v>4301131019</v>
       </c>
       <c r="E471" s="18">
-        <v>4607111038623</v>
+        <v>4640242180427</v>
       </c>
       <c r="F471" s="20" t="s">
-        <v>495</v>
+        <v>379</v>
       </c>
       <c r="G471" s="21"/>
       <c r="H471" s="22" t="s">
@@ -17059,22 +17071,22 @@
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="17" t="s">
-        <v>853</v>
-      </c>
-      <c r="B472" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="C472" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="D472" s="19">
-        <v>4301070966</v>
-      </c>
-      <c r="E472" s="18">
-        <v>4607111038135</v>
-      </c>
-      <c r="F472" s="20" t="s">
-        <v>369</v>
+        <v>849</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="D472" s="4">
+        <v>4301135571</v>
+      </c>
+      <c r="E472" s="3">
+        <v>4607111035028</v>
+      </c>
+      <c r="F472" s="5" t="s">
+        <v>915</v>
       </c>
       <c r="G472" s="21"/>
       <c r="H472" s="22" t="s">
@@ -17083,46 +17095,46 @@
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="17" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="B473" s="18" t="s">
-        <v>879</v>
+        <v>745</v>
       </c>
       <c r="C473" s="18" t="s">
-        <v>880</v>
+        <v>746</v>
       </c>
       <c r="D473" s="19">
-        <v>4301070990</v>
+        <v>4301135575</v>
       </c>
       <c r="E473" s="18">
-        <v>4607111038494</v>
+        <v>4607111035141</v>
       </c>
       <c r="F473" s="20" t="s">
-        <v>881</v>
+        <v>747</v>
       </c>
       <c r="G473" s="21"/>
       <c r="H473" s="22" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A474" s="17" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B474" s="18" t="s">
-        <v>154</v>
+        <v>493</v>
       </c>
       <c r="C474" s="18" t="s">
-        <v>155</v>
+        <v>494</v>
       </c>
       <c r="D474" s="19">
-        <v>4301070921</v>
+        <v>4301070960</v>
       </c>
       <c r="E474" s="18">
-        <v>4607111035905</v>
+        <v>4607111038623</v>
       </c>
       <c r="F474" s="20" t="s">
-        <v>156</v>
+        <v>495</v>
       </c>
       <c r="G474" s="21"/>
       <c r="H474" s="22" t="s">
@@ -17131,22 +17143,22 @@
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="17" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B475" s="18" t="s">
-        <v>561</v>
+        <v>370</v>
       </c>
       <c r="C475" s="18" t="s">
-        <v>562</v>
+        <v>371</v>
       </c>
       <c r="D475" s="19">
-        <v>4301135311</v>
+        <v>4301070966</v>
       </c>
       <c r="E475" s="18">
-        <v>4607111039095</v>
+        <v>4607111038135</v>
       </c>
       <c r="F475" s="20" t="s">
-        <v>560</v>
+        <v>369</v>
       </c>
       <c r="G475" s="21"/>
       <c r="H475" s="22" t="s">
@@ -17154,47 +17166,47 @@
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A476" s="17" t="s">
-        <v>857</v>
-      </c>
-      <c r="B476" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C476" s="18" t="s">
-        <v>533</v>
-      </c>
-      <c r="D476" s="19">
-        <v>4301135285</v>
-      </c>
-      <c r="E476" s="18">
-        <v>4607111036407</v>
-      </c>
-      <c r="F476" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="G476" s="21"/>
-      <c r="H476" s="22" t="s">
+      <c r="A476" s="10" t="s">
+        <v>922</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="D476" s="4">
+        <v>4301070990</v>
+      </c>
+      <c r="E476" s="3">
+        <v>4607111038494</v>
+      </c>
+      <c r="F476" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="G476" s="1"/>
+      <c r="H476" s="16" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="17" t="s">
-        <v>730</v>
+        <v>854</v>
       </c>
       <c r="B477" s="18" t="s">
-        <v>728</v>
+        <v>879</v>
       </c>
       <c r="C477" s="18" t="s">
-        <v>729</v>
+        <v>880</v>
       </c>
       <c r="D477" s="19">
-        <v>4301135596</v>
+        <v>4301070990</v>
       </c>
       <c r="E477" s="18">
-        <v>4607111039613</v>
+        <v>4607111038494</v>
       </c>
       <c r="F477" s="20" t="s">
-        <v>730</v>
+        <v>881</v>
       </c>
       <c r="G477" s="21"/>
       <c r="H477" s="22" t="s">
@@ -17203,22 +17215,22 @@
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="17" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B478" s="18" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="C478" s="18" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="D478" s="19">
-        <v>4301080153</v>
+        <v>4301070921</v>
       </c>
       <c r="E478" s="18">
-        <v>4607111036827</v>
+        <v>4607111035905</v>
       </c>
       <c r="F478" s="20" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="G478" s="21"/>
       <c r="H478" s="22" t="s">
@@ -17227,22 +17239,22 @@
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="17" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B479" s="18" t="s">
-        <v>742</v>
+        <v>561</v>
       </c>
       <c r="C479" s="18" t="s">
-        <v>743</v>
+        <v>562</v>
       </c>
       <c r="D479" s="19">
-        <v>4301135584</v>
+        <v>4301135311</v>
       </c>
       <c r="E479" s="18">
-        <v>4607111033659</v>
+        <v>4607111039095</v>
       </c>
       <c r="F479" s="20" t="s">
-        <v>744</v>
+        <v>560</v>
       </c>
       <c r="G479" s="21"/>
       <c r="H479" s="22" t="s">
@@ -17251,22 +17263,22 @@
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="17" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B480" s="18" t="s">
-        <v>683</v>
+        <v>185</v>
       </c>
       <c r="C480" s="18" t="s">
-        <v>684</v>
+        <v>533</v>
       </c>
       <c r="D480" s="19">
-        <v>4301071044</v>
+        <v>4301135285</v>
       </c>
       <c r="E480" s="18">
-        <v>4607111039385</v>
+        <v>4607111036407</v>
       </c>
       <c r="F480" s="20" t="s">
-        <v>685</v>
+        <v>186</v>
       </c>
       <c r="G480" s="21"/>
       <c r="H480" s="22" t="s">
@@ -17275,22 +17287,22 @@
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="17" t="s">
-        <v>861</v>
+        <v>730</v>
       </c>
       <c r="B481" s="18" t="s">
-        <v>700</v>
+        <v>728</v>
       </c>
       <c r="C481" s="18" t="s">
-        <v>701</v>
+        <v>729</v>
       </c>
       <c r="D481" s="19">
-        <v>4301071031</v>
+        <v>4301135596</v>
       </c>
       <c r="E481" s="18">
-        <v>4607111038982</v>
+        <v>4607111039613</v>
       </c>
       <c r="F481" s="20" t="s">
-        <v>702</v>
+        <v>730</v>
       </c>
       <c r="G481" s="21"/>
       <c r="H481" s="22" t="s">
@@ -17299,22 +17311,22 @@
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="17" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="B482" s="18" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="C482" s="18" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="D482" s="19">
-        <v>4301070917</v>
+        <v>4301080153</v>
       </c>
       <c r="E482" s="18">
-        <v>4607111035912</v>
+        <v>4607111036827</v>
       </c>
       <c r="F482" s="20" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="G482" s="21"/>
       <c r="H482" s="22" t="s">
@@ -17323,22 +17335,22 @@
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="17" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="B483" s="18" t="s">
-        <v>169</v>
+        <v>742</v>
       </c>
       <c r="C483" s="18" t="s">
-        <v>534</v>
+        <v>743</v>
       </c>
       <c r="D483" s="19">
-        <v>4301136042</v>
+        <v>4301135584</v>
       </c>
       <c r="E483" s="18">
-        <v>4607025784012</v>
+        <v>4607111033659</v>
       </c>
       <c r="F483" s="20" t="s">
-        <v>170</v>
+        <v>744</v>
       </c>
       <c r="G483" s="21"/>
       <c r="H483" s="22" t="s">
@@ -17347,70 +17359,70 @@
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="17" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="B484" s="18" t="s">
-        <v>618</v>
+        <v>683</v>
       </c>
       <c r="C484" s="18" t="s">
-        <v>619</v>
+        <v>684</v>
       </c>
       <c r="D484" s="19">
-        <v>4301071046</v>
+        <v>4301071044</v>
       </c>
       <c r="E484" s="18">
-        <v>4607111039354</v>
+        <v>4607111039385</v>
       </c>
       <c r="F484" s="20" t="s">
-        <v>620</v>
+        <v>685</v>
       </c>
       <c r="G484" s="21"/>
       <c r="H484" s="22" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="485" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="17" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B485" s="18" t="s">
-        <v>882</v>
+        <v>700</v>
       </c>
       <c r="C485" s="18" t="s">
-        <v>883</v>
+        <v>701</v>
       </c>
       <c r="D485" s="19">
-        <v>4301070959</v>
+        <v>4301071031</v>
       </c>
       <c r="E485" s="18">
-        <v>4607111038616</v>
+        <v>4607111038982</v>
       </c>
       <c r="F485" s="20" t="s">
-        <v>884</v>
+        <v>702</v>
       </c>
       <c r="G485" s="21"/>
       <c r="H485" s="22" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="486" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="17" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B486" s="18" t="s">
-        <v>885</v>
+        <v>181</v>
       </c>
       <c r="C486" s="18" t="s">
-        <v>886</v>
+        <v>182</v>
       </c>
       <c r="D486" s="19">
-        <v>4301070962</v>
+        <v>4301070917</v>
       </c>
       <c r="E486" s="18">
-        <v>4607111038609</v>
+        <v>4607111035912</v>
       </c>
       <c r="F486" s="20" t="s">
-        <v>887</v>
+        <v>183</v>
       </c>
       <c r="G486" s="21"/>
       <c r="H486" s="22" t="s">
@@ -17419,22 +17431,22 @@
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="17" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B487" s="18" t="s">
-        <v>254</v>
+        <v>169</v>
       </c>
       <c r="C487" s="18" t="s">
-        <v>255</v>
+        <v>534</v>
       </c>
       <c r="D487" s="19">
-        <v>4301070948</v>
+        <v>4301136042</v>
       </c>
       <c r="E487" s="18">
-        <v>4607111037022</v>
+        <v>4607025784012</v>
       </c>
       <c r="F487" s="20" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="G487" s="21"/>
       <c r="H487" s="22" t="s">
@@ -17443,70 +17455,70 @@
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="17" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="B488" s="18" t="s">
-        <v>717</v>
+        <v>618</v>
       </c>
       <c r="C488" s="18" t="s">
-        <v>718</v>
+        <v>619</v>
       </c>
       <c r="D488" s="19">
-        <v>4301135570</v>
+        <v>4301071046</v>
       </c>
       <c r="E488" s="18">
-        <v>4607111035806</v>
+        <v>4607111039354</v>
       </c>
       <c r="F488" s="20" t="s">
-        <v>719</v>
+        <v>620</v>
       </c>
       <c r="G488" s="21"/>
       <c r="H488" s="22" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A489" s="17" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="B489" s="18" t="s">
-        <v>749</v>
+        <v>882</v>
       </c>
       <c r="C489" s="18" t="s">
-        <v>750</v>
+        <v>883</v>
       </c>
       <c r="D489" s="19">
-        <v>4301071032</v>
+        <v>4301070959</v>
       </c>
       <c r="E489" s="18">
-        <v>4607111038999</v>
+        <v>4607111038616</v>
       </c>
       <c r="F489" s="20" t="s">
-        <v>751</v>
+        <v>884</v>
       </c>
       <c r="G489" s="21"/>
       <c r="H489" s="22" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A490" s="17" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B490" s="18" t="s">
-        <v>687</v>
+        <v>885</v>
       </c>
       <c r="C490" s="18" t="s">
-        <v>688</v>
+        <v>886</v>
       </c>
       <c r="D490" s="19">
-        <v>4301071045</v>
+        <v>4301070962</v>
       </c>
       <c r="E490" s="18">
-        <v>4607111039392</v>
+        <v>4607111038609</v>
       </c>
       <c r="F490" s="20" t="s">
-        <v>689</v>
+        <v>887</v>
       </c>
       <c r="G490" s="21"/>
       <c r="H490" s="22" t="s">
@@ -17515,22 +17527,22 @@
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="17" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="B491" s="18" t="s">
-        <v>489</v>
+        <v>254</v>
       </c>
       <c r="C491" s="18" t="s">
-        <v>490</v>
+        <v>255</v>
       </c>
       <c r="D491" s="19">
-        <v>4301070963</v>
+        <v>4301070948</v>
       </c>
       <c r="E491" s="18">
-        <v>4607111038630</v>
+        <v>4607111037022</v>
       </c>
       <c r="F491" s="20" t="s">
-        <v>491</v>
+        <v>152</v>
       </c>
       <c r="G491" s="21"/>
       <c r="H491" s="22" t="s">
@@ -17539,22 +17551,22 @@
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="17" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B492" s="18" t="s">
-        <v>600</v>
+        <v>717</v>
       </c>
       <c r="C492" s="18" t="s">
-        <v>601</v>
+        <v>718</v>
       </c>
       <c r="D492" s="19">
-        <v>4301071054</v>
+        <v>4301135570</v>
       </c>
       <c r="E492" s="18">
-        <v>4607111035639</v>
+        <v>4607111035806</v>
       </c>
       <c r="F492" s="20" t="s">
-        <v>602</v>
+        <v>719</v>
       </c>
       <c r="G492" s="21"/>
       <c r="H492" s="22" t="s">
@@ -17563,30 +17575,126 @@
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="17" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="B493" s="18" t="s">
-        <v>342</v>
+        <v>749</v>
       </c>
       <c r="C493" s="18" t="s">
-        <v>570</v>
+        <v>750</v>
       </c>
       <c r="D493" s="19">
-        <v>4301135540</v>
+        <v>4301071032</v>
       </c>
       <c r="E493" s="18">
-        <v>4607111035646</v>
+        <v>4607111038999</v>
       </c>
       <c r="F493" s="20" t="s">
-        <v>571</v>
+        <v>751</v>
       </c>
       <c r="G493" s="21"/>
       <c r="H493" s="22" t="s">
         <v>874</v>
       </c>
     </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A494" s="17" t="s">
+        <v>870</v>
+      </c>
+      <c r="B494" s="18" t="s">
+        <v>687</v>
+      </c>
+      <c r="C494" s="18" t="s">
+        <v>688</v>
+      </c>
+      <c r="D494" s="19">
+        <v>4301071045</v>
+      </c>
+      <c r="E494" s="18">
+        <v>4607111039392</v>
+      </c>
+      <c r="F494" s="20" t="s">
+        <v>689</v>
+      </c>
+      <c r="G494" s="21"/>
+      <c r="H494" s="22" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A495" s="17" t="s">
+        <v>871</v>
+      </c>
+      <c r="B495" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="C495" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="D495" s="19">
+        <v>4301070963</v>
+      </c>
+      <c r="E495" s="18">
+        <v>4607111038630</v>
+      </c>
+      <c r="F495" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="G495" s="21"/>
+      <c r="H495" s="22" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A496" s="17" t="s">
+        <v>872</v>
+      </c>
+      <c r="B496" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="C496" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="D496" s="19">
+        <v>4301071054</v>
+      </c>
+      <c r="E496" s="18">
+        <v>4607111035639</v>
+      </c>
+      <c r="F496" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="G496" s="21"/>
+      <c r="H496" s="22" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A497" s="17" t="s">
+        <v>873</v>
+      </c>
+      <c r="B497" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="C497" s="18" t="s">
+        <v>570</v>
+      </c>
+      <c r="D497" s="19">
+        <v>4301135540</v>
+      </c>
+      <c r="E497" s="18">
+        <v>4607111035646</v>
+      </c>
+      <c r="F497" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="G497" s="21"/>
+      <c r="H497" s="22" t="s">
+        <v>874</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F493" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+  <autoFilter ref="A1:F497" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F245">
       <sortCondition ref="A1:A176"/>
     </sortState>

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADB8196-8469-47AC-8BAD-926B2FE2BEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994CE2ED-ECB7-4754-A8D0-F77A59D519F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,20 +20,26 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$497</definedName>
-    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$436</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$499</definedName>
+    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$438</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="936">
   <si>
     <t>1С</t>
   </si>
@@ -2817,6 +2823,30 @@
   </si>
   <si>
     <t>Снеки «Готовые чебупели острые с мясом» Фикс.вес 0,24 ТМ «Горячая штучка»</t>
+  </si>
+  <si>
+    <t>Чебупицца Маргарита 0,2кг ТМ Горячая штучка ТС Foodgital  ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU003677</t>
+  </si>
+  <si>
+    <t>P004733</t>
+  </si>
+  <si>
+    <t>Снеки «Чебупицца Маргарита» Фикс.вес 0,2 ТС «Foodgital» ТМ «Горячая штучка»</t>
+  </si>
+  <si>
+    <t>Чебупицца со вкусом 4 сыра 0,2кг ТМ Горячая штучка ТС Foodgital  ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU003676</t>
+  </si>
+  <si>
+    <t>P004818</t>
+  </si>
+  <si>
+    <t>Снеки «Чебупицца со вкусом 4 сыра» Фикс.вес 0,2 ТС «Foodgital» ТМ «Горячая штучка»</t>
   </si>
 </sst>
 </file>
@@ -3052,7 +3082,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Лист1"/>
@@ -6072,11 +6102,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H497"/>
+  <dimension ref="A1:H499"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16206,71 +16236,65 @@
       <c r="G435" s="1"/>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A436" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="B436" s="18" t="s">
-        <v>630</v>
-      </c>
-      <c r="C436" s="18" t="s">
-        <v>631</v>
-      </c>
-      <c r="D436" s="19">
-        <v>4301071038</v>
-      </c>
-      <c r="E436" s="18">
-        <v>4607111039248</v>
-      </c>
-      <c r="F436" s="20" t="s">
-        <v>632</v>
-      </c>
-      <c r="G436" s="21"/>
-      <c r="H436" s="22" t="s">
-        <v>874</v>
-      </c>
+      <c r="A436" s="10" t="s">
+        <v>928</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="D436" s="4">
+        <v>4301135665</v>
+      </c>
+      <c r="E436" s="3">
+        <v>4607111039729</v>
+      </c>
+      <c r="F436" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="G436" s="1"/>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A437" s="17" t="s">
-        <v>814</v>
-      </c>
-      <c r="B437" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C437" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="D437" s="19">
-        <v>4301070981</v>
-      </c>
-      <c r="E437" s="18">
-        <v>4607111036728</v>
-      </c>
-      <c r="F437" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="G437" s="21"/>
-      <c r="H437" s="22" t="s">
-        <v>874</v>
-      </c>
+      <c r="A437" s="10" t="s">
+        <v>932</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="D437" s="4">
+        <v>4301135702</v>
+      </c>
+      <c r="E437" s="3">
+        <v>4620207490228</v>
+      </c>
+      <c r="F437" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="G437" s="1"/>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="17" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B438" s="18" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C438" s="18" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="D438" s="19">
-        <v>4301071039</v>
+        <v>4301071038</v>
       </c>
       <c r="E438" s="18">
-        <v>4607111039279</v>
+        <v>4607111039248</v>
       </c>
       <c r="F438" s="20" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="G438" s="21"/>
       <c r="H438" s="22" t="s">
@@ -16279,22 +16303,22 @@
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="17" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B439" s="18" t="s">
-        <v>626</v>
+        <v>106</v>
       </c>
       <c r="C439" s="18" t="s">
-        <v>627</v>
+        <v>261</v>
       </c>
       <c r="D439" s="19">
-        <v>4301071051</v>
+        <v>4301070981</v>
       </c>
       <c r="E439" s="18">
-        <v>4607111039262</v>
+        <v>4607111036728</v>
       </c>
       <c r="F439" s="20" t="s">
-        <v>628</v>
+        <v>262</v>
       </c>
       <c r="G439" s="21"/>
       <c r="H439" s="22" t="s">
@@ -16303,22 +16327,22 @@
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="17" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B440" s="18" t="s">
-        <v>293</v>
+        <v>638</v>
       </c>
       <c r="C440" s="18" t="s">
-        <v>294</v>
+        <v>639</v>
       </c>
       <c r="D440" s="19">
-        <v>4301132080</v>
+        <v>4301071039</v>
       </c>
       <c r="E440" s="18">
-        <v>4640242180397</v>
+        <v>4607111039279</v>
       </c>
       <c r="F440" s="20" t="s">
-        <v>295</v>
+        <v>640</v>
       </c>
       <c r="G440" s="21"/>
       <c r="H440" s="22" t="s">
@@ -16327,22 +16351,22 @@
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="17" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B441" s="18" t="s">
-        <v>113</v>
+        <v>626</v>
       </c>
       <c r="C441" s="18" t="s">
-        <v>531</v>
+        <v>627</v>
       </c>
       <c r="D441" s="19">
-        <v>4301071029</v>
+        <v>4301071051</v>
       </c>
       <c r="E441" s="18">
-        <v>4607111035899</v>
+        <v>4607111039262</v>
       </c>
       <c r="F441" s="20" t="s">
-        <v>114</v>
+        <v>628</v>
       </c>
       <c r="G441" s="21"/>
       <c r="H441" s="22" t="s">
@@ -16351,22 +16375,22 @@
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="17" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B442" s="18" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C442" s="18" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D442" s="19">
-        <v>4301136026</v>
+        <v>4301132080</v>
       </c>
       <c r="E442" s="18">
-        <v>4640242180236</v>
+        <v>4640242180397</v>
       </c>
       <c r="F442" s="20" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="G442" s="21"/>
       <c r="H442" s="22" t="s">
@@ -16375,22 +16399,22 @@
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="17" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B443" s="18" t="s">
-        <v>318</v>
+        <v>113</v>
       </c>
       <c r="C443" s="18" t="s">
-        <v>319</v>
+        <v>531</v>
       </c>
       <c r="D443" s="19">
-        <v>4301070977</v>
+        <v>4301071029</v>
       </c>
       <c r="E443" s="18">
-        <v>4607111037411</v>
+        <v>4607111035899</v>
       </c>
       <c r="F443" s="20" t="s">
-        <v>320</v>
+        <v>114</v>
       </c>
       <c r="G443" s="21"/>
       <c r="H443" s="22" t="s">
@@ -16399,22 +16423,22 @@
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="17" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B444" s="18" t="s">
-        <v>563</v>
+        <v>302</v>
       </c>
       <c r="C444" s="18" t="s">
-        <v>564</v>
+        <v>303</v>
       </c>
       <c r="D444" s="19">
-        <v>4301135375</v>
+        <v>4301136026</v>
       </c>
       <c r="E444" s="18">
-        <v>4640242181486</v>
+        <v>4640242180236</v>
       </c>
       <c r="F444" s="20" t="s">
-        <v>565</v>
+        <v>304</v>
       </c>
       <c r="G444" s="21"/>
       <c r="H444" s="22" t="s">
@@ -16423,22 +16447,22 @@
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="17" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B445" s="18" t="s">
-        <v>658</v>
+        <v>318</v>
       </c>
       <c r="C445" s="18" t="s">
-        <v>659</v>
+        <v>319</v>
       </c>
       <c r="D445" s="19">
-        <v>4301135578</v>
+        <v>4301070977</v>
       </c>
       <c r="E445" s="18">
-        <v>4607111033444</v>
+        <v>4607111037411</v>
       </c>
       <c r="F445" s="20" t="s">
-        <v>660</v>
+        <v>320</v>
       </c>
       <c r="G445" s="21"/>
       <c r="H445" s="22" t="s">
@@ -16447,22 +16471,22 @@
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="17" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B446" s="18" t="s">
-        <v>112</v>
+        <v>563</v>
       </c>
       <c r="C446" s="18" t="s">
-        <v>641</v>
+        <v>564</v>
       </c>
       <c r="D446" s="19">
-        <v>4301071050</v>
+        <v>4301135375</v>
       </c>
       <c r="E446" s="18">
-        <v>4607111036216</v>
+        <v>4640242181486</v>
       </c>
       <c r="F446" s="20" t="s">
-        <v>642</v>
+        <v>565</v>
       </c>
       <c r="G446" s="21"/>
       <c r="H446" s="22" t="s">
@@ -16471,22 +16495,22 @@
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="17" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B447" s="18" t="s">
-        <v>634</v>
+        <v>658</v>
       </c>
       <c r="C447" s="18" t="s">
-        <v>635</v>
+        <v>659</v>
       </c>
       <c r="D447" s="19">
-        <v>4301071049</v>
+        <v>4301135578</v>
       </c>
       <c r="E447" s="18">
-        <v>4607111039293</v>
+        <v>4607111033444</v>
       </c>
       <c r="F447" s="20" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="G447" s="21"/>
       <c r="H447" s="22" t="s">
@@ -16495,22 +16519,22 @@
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="17" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B448" s="18" t="s">
-        <v>666</v>
+        <v>112</v>
       </c>
       <c r="C448" s="18" t="s">
-        <v>667</v>
+        <v>641</v>
       </c>
       <c r="D448" s="19">
-        <v>4301135532</v>
+        <v>4301071050</v>
       </c>
       <c r="E448" s="18">
-        <v>4607111033994</v>
+        <v>4607111036216</v>
       </c>
       <c r="F448" s="20" t="s">
-        <v>668</v>
+        <v>642</v>
       </c>
       <c r="G448" s="21"/>
       <c r="H448" s="22" t="s">
@@ -16519,22 +16543,22 @@
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="17" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B449" s="18" t="s">
-        <v>669</v>
+        <v>634</v>
       </c>
       <c r="C449" s="18" t="s">
-        <v>670</v>
+        <v>635</v>
       </c>
       <c r="D449" s="19">
-        <v>4301135533</v>
+        <v>4301071049</v>
       </c>
       <c r="E449" s="18">
-        <v>4607111034014</v>
+        <v>4607111039293</v>
       </c>
       <c r="F449" s="20" t="s">
-        <v>671</v>
+        <v>636</v>
       </c>
       <c r="G449" s="21"/>
       <c r="H449" s="22" t="s">
@@ -16543,22 +16567,22 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="17" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B450" s="18" t="s">
-        <v>646</v>
+        <v>666</v>
       </c>
       <c r="C450" s="18" t="s">
-        <v>647</v>
+        <v>667</v>
       </c>
       <c r="D450" s="19">
-        <v>4301135565</v>
+        <v>4301135532</v>
       </c>
       <c r="E450" s="18">
-        <v>4607111033451</v>
+        <v>4607111033994</v>
       </c>
       <c r="F450" s="20" t="s">
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="G450" s="21"/>
       <c r="H450" s="22" t="s">
@@ -16567,22 +16591,22 @@
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="17" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B451" s="18" t="s">
-        <v>384</v>
+        <v>669</v>
       </c>
       <c r="C451" s="18" t="s">
-        <v>385</v>
+        <v>670</v>
       </c>
       <c r="D451" s="19">
-        <v>4301136029</v>
+        <v>4301135533</v>
       </c>
       <c r="E451" s="18">
-        <v>4640242180410</v>
+        <v>4607111034014</v>
       </c>
       <c r="F451" s="20" t="s">
-        <v>386</v>
+        <v>671</v>
       </c>
       <c r="G451" s="21"/>
       <c r="H451" s="22" t="s">
@@ -16591,22 +16615,22 @@
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="17" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B452" s="18" t="s">
-        <v>557</v>
+        <v>646</v>
       </c>
       <c r="C452" s="18" t="s">
-        <v>558</v>
+        <v>647</v>
       </c>
       <c r="D452" s="19">
-        <v>4301135394</v>
+        <v>4301135565</v>
       </c>
       <c r="E452" s="18">
-        <v>4640242181561</v>
+        <v>4607111033451</v>
       </c>
       <c r="F452" s="20" t="s">
-        <v>559</v>
+        <v>648</v>
       </c>
       <c r="G452" s="21"/>
       <c r="H452" s="22" t="s">
@@ -16615,22 +16639,22 @@
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="17" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B453" s="18" t="s">
-        <v>609</v>
+        <v>384</v>
       </c>
       <c r="C453" s="18" t="s">
-        <v>610</v>
+        <v>385</v>
       </c>
       <c r="D453" s="19">
-        <v>4301135374</v>
+        <v>4301136029</v>
       </c>
       <c r="E453" s="18">
-        <v>4640242181424</v>
+        <v>4640242180410</v>
       </c>
       <c r="F453" s="20" t="s">
-        <v>611</v>
+        <v>386</v>
       </c>
       <c r="G453" s="21"/>
       <c r="H453" s="22" t="s">
@@ -16639,22 +16663,22 @@
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="17" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B454" s="18" t="s">
-        <v>875</v>
+        <v>557</v>
       </c>
       <c r="C454" s="18" t="s">
-        <v>876</v>
+        <v>558</v>
       </c>
       <c r="D454" s="19">
-        <v>4301132079</v>
+        <v>4301135394</v>
       </c>
       <c r="E454" s="18">
-        <v>4607111038487</v>
+        <v>4640242181561</v>
       </c>
       <c r="F454" s="20" t="s">
-        <v>427</v>
+        <v>559</v>
       </c>
       <c r="G454" s="21"/>
       <c r="H454" s="22" t="s">
@@ -16663,22 +16687,22 @@
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="17" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B455" s="18" t="s">
-        <v>164</v>
+        <v>609</v>
       </c>
       <c r="C455" s="18" t="s">
-        <v>644</v>
+        <v>610</v>
       </c>
       <c r="D455" s="19">
-        <v>4301071056</v>
+        <v>4301135374</v>
       </c>
       <c r="E455" s="18">
-        <v>4640242180250</v>
+        <v>4640242181424</v>
       </c>
       <c r="F455" s="20" t="s">
-        <v>645</v>
+        <v>611</v>
       </c>
       <c r="G455" s="21"/>
       <c r="H455" s="22" t="s">
@@ -16687,22 +16711,22 @@
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="17" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B456" s="18" t="s">
-        <v>299</v>
+        <v>875</v>
       </c>
       <c r="C456" s="18" t="s">
-        <v>300</v>
+        <v>876</v>
       </c>
       <c r="D456" s="19">
-        <v>4301136028</v>
+        <v>4301132079</v>
       </c>
       <c r="E456" s="18">
-        <v>4640242180304</v>
+        <v>4607111038487</v>
       </c>
       <c r="F456" s="20" t="s">
-        <v>301</v>
+        <v>427</v>
       </c>
       <c r="G456" s="21"/>
       <c r="H456" s="22" t="s">
@@ -16711,22 +16735,22 @@
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="17" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B457" s="18" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="C457" s="18" t="s">
-        <v>110</v>
+        <v>644</v>
       </c>
       <c r="D457" s="19">
-        <v>4301070920</v>
+        <v>4301071056</v>
       </c>
       <c r="E457" s="18">
-        <v>4607111035929</v>
+        <v>4640242180250</v>
       </c>
       <c r="F457" s="20" t="s">
-        <v>111</v>
+        <v>645</v>
       </c>
       <c r="G457" s="21"/>
       <c r="H457" s="22" t="s">
@@ -16735,22 +16759,22 @@
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="17" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B458" s="18" t="s">
-        <v>763</v>
+        <v>299</v>
       </c>
       <c r="C458" s="18" t="s">
-        <v>764</v>
+        <v>300</v>
       </c>
       <c r="D458" s="19">
-        <v>4301135534</v>
+        <v>4301136028</v>
       </c>
       <c r="E458" s="18">
-        <v>4607111034199</v>
+        <v>4640242180304</v>
       </c>
       <c r="F458" s="20" t="s">
-        <v>765</v>
+        <v>301</v>
       </c>
       <c r="G458" s="21"/>
       <c r="H458" s="22" t="s">
@@ -16759,22 +16783,22 @@
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B459" s="18" t="s">
-        <v>760</v>
+        <v>109</v>
       </c>
       <c r="C459" s="18" t="s">
-        <v>761</v>
+        <v>110</v>
       </c>
       <c r="D459" s="19">
-        <v>4301132186</v>
+        <v>4301070920</v>
       </c>
       <c r="E459" s="18">
-        <v>4607111036520</v>
+        <v>4607111035929</v>
       </c>
       <c r="F459" s="20" t="s">
-        <v>762</v>
+        <v>111</v>
       </c>
       <c r="G459" s="21"/>
       <c r="H459" s="22" t="s">
@@ -16783,22 +16807,22 @@
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="17" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B460" s="18" t="s">
-        <v>622</v>
+        <v>763</v>
       </c>
       <c r="C460" s="18" t="s">
-        <v>623</v>
+        <v>764</v>
       </c>
       <c r="D460" s="19">
-        <v>4301071047</v>
+        <v>4301135534</v>
       </c>
       <c r="E460" s="18">
-        <v>4607111039330</v>
+        <v>4607111034199</v>
       </c>
       <c r="F460" s="20" t="s">
-        <v>624</v>
+        <v>765</v>
       </c>
       <c r="G460" s="21"/>
       <c r="H460" s="22" t="s">
@@ -16807,22 +16831,22 @@
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="17" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B461" s="18" t="s">
-        <v>877</v>
+        <v>760</v>
       </c>
       <c r="C461" s="18" t="s">
-        <v>878</v>
+        <v>761</v>
       </c>
       <c r="D461" s="19">
-        <v>4301131022</v>
+        <v>4301132186</v>
       </c>
       <c r="E461" s="18">
-        <v>4607111034120</v>
+        <v>4607111036520</v>
       </c>
       <c r="F461" s="20" t="s">
-        <v>125</v>
+        <v>762</v>
       </c>
       <c r="G461" s="21"/>
       <c r="H461" s="22" t="s">
@@ -16831,22 +16855,22 @@
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="17" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B462" s="18" t="s">
-        <v>712</v>
+        <v>622</v>
       </c>
       <c r="C462" s="18" t="s">
-        <v>713</v>
+        <v>623</v>
       </c>
       <c r="D462" s="19">
-        <v>4301135569</v>
+        <v>4301071047</v>
       </c>
       <c r="E462" s="18">
-        <v>4607111033628</v>
+        <v>4607111039330</v>
       </c>
       <c r="F462" s="20" t="s">
-        <v>714</v>
+        <v>624</v>
       </c>
       <c r="G462" s="21"/>
       <c r="H462" s="22" t="s">
@@ -16855,22 +16879,22 @@
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="17" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B463" s="18" t="s">
-        <v>567</v>
+        <v>877</v>
       </c>
       <c r="C463" s="18" t="s">
-        <v>568</v>
+        <v>878</v>
       </c>
       <c r="D463" s="19">
-        <v>4301135405</v>
+        <v>4301131022</v>
       </c>
       <c r="E463" s="18">
-        <v>4640242181523</v>
+        <v>4607111034120</v>
       </c>
       <c r="F463" s="20" t="s">
-        <v>569</v>
+        <v>125</v>
       </c>
       <c r="G463" s="21"/>
       <c r="H463" s="22" t="s">
@@ -16879,22 +16903,22 @@
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="17" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B464" s="18" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="C464" s="18" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="D464" s="19">
-        <v>4301135402</v>
+        <v>4301135569</v>
       </c>
       <c r="E464" s="18">
-        <v>4640242181493</v>
+        <v>4607111033628</v>
       </c>
       <c r="F464" s="20" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="G464" s="21"/>
       <c r="H464" s="22" t="s">
@@ -16903,22 +16927,22 @@
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="17" t="s">
-        <v>842</v>
-      </c>
-      <c r="B465" s="3" t="s">
-        <v>904</v>
-      </c>
-      <c r="C465" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="D465" s="4">
-        <v>4301131042</v>
-      </c>
-      <c r="E465" s="3">
-        <v>4607111034137</v>
-      </c>
-      <c r="F465" s="5" t="s">
-        <v>906</v>
+        <v>840</v>
+      </c>
+      <c r="B465" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="C465" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="D465" s="19">
+        <v>4301135405</v>
+      </c>
+      <c r="E465" s="18">
+        <v>4640242181523</v>
+      </c>
+      <c r="F465" s="20" t="s">
+        <v>569</v>
       </c>
       <c r="G465" s="21"/>
       <c r="H465" s="22" t="s">
@@ -16927,22 +16951,22 @@
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="17" t="s">
-        <v>843</v>
-      </c>
-      <c r="B466" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="C466" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="D466" s="4">
-        <v>4301136077</v>
-      </c>
-      <c r="E466" s="3">
-        <v>4607025784319</v>
-      </c>
-      <c r="F466" s="5" t="s">
-        <v>912</v>
+        <v>841</v>
+      </c>
+      <c r="B466" s="18" t="s">
+        <v>724</v>
+      </c>
+      <c r="C466" s="18" t="s">
+        <v>725</v>
+      </c>
+      <c r="D466" s="19">
+        <v>4301135402</v>
+      </c>
+      <c r="E466" s="18">
+        <v>4640242181493</v>
+      </c>
+      <c r="F466" s="20" t="s">
+        <v>723</v>
       </c>
       <c r="G466" s="21"/>
       <c r="H466" s="22" t="s">
@@ -16951,22 +16975,22 @@
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="17" t="s">
-        <v>844</v>
-      </c>
-      <c r="B467" s="18" t="s">
-        <v>470</v>
-      </c>
-      <c r="C467" s="18" t="s">
-        <v>529</v>
-      </c>
-      <c r="D467" s="19">
-        <v>4301135275</v>
-      </c>
-      <c r="E467" s="18">
-        <v>4607111034380</v>
-      </c>
-      <c r="F467" s="20" t="s">
-        <v>471</v>
+        <v>842</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="C467" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="D467" s="4">
+        <v>4301131042</v>
+      </c>
+      <c r="E467" s="3">
+        <v>4607111034137</v>
+      </c>
+      <c r="F467" s="5" t="s">
+        <v>906</v>
       </c>
       <c r="G467" s="21"/>
       <c r="H467" s="22" t="s">
@@ -16975,22 +16999,22 @@
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="17" t="s">
-        <v>845</v>
-      </c>
-      <c r="B468" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="C468" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="D468" s="19">
-        <v>4301135277</v>
-      </c>
-      <c r="E468" s="18">
-        <v>4607111034397</v>
-      </c>
-      <c r="F468" s="20" t="s">
-        <v>480</v>
+        <v>843</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="C468" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="D468" s="4">
+        <v>4301136077</v>
+      </c>
+      <c r="E468" s="3">
+        <v>4607025784319</v>
+      </c>
+      <c r="F468" s="5" t="s">
+        <v>912</v>
       </c>
       <c r="G468" s="21"/>
       <c r="H468" s="22" t="s">
@@ -16999,22 +17023,22 @@
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="17" t="s">
-        <v>846</v>
-      </c>
-      <c r="B469" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="C469" s="3" t="s">
-        <v>893</v>
-      </c>
-      <c r="D469" s="4">
-        <v>4301132179</v>
-      </c>
-      <c r="E469" s="3">
-        <v>4607111035691</v>
-      </c>
-      <c r="F469" s="5" t="s">
-        <v>894</v>
+        <v>844</v>
+      </c>
+      <c r="B469" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="C469" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="D469" s="19">
+        <v>4301135275</v>
+      </c>
+      <c r="E469" s="18">
+        <v>4607111034380</v>
+      </c>
+      <c r="F469" s="20" t="s">
+        <v>471</v>
       </c>
       <c r="G469" s="21"/>
       <c r="H469" s="22" t="s">
@@ -17023,22 +17047,22 @@
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="17" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B470" s="18" t="s">
-        <v>757</v>
+        <v>479</v>
       </c>
       <c r="C470" s="18" t="s">
-        <v>758</v>
+        <v>539</v>
       </c>
       <c r="D470" s="19">
-        <v>4301132185</v>
+        <v>4301135277</v>
       </c>
       <c r="E470" s="18">
-        <v>4607111036537</v>
+        <v>4607111034397</v>
       </c>
       <c r="F470" s="20" t="s">
-        <v>759</v>
+        <v>480</v>
       </c>
       <c r="G470" s="21"/>
       <c r="H470" s="22" t="s">
@@ -17047,22 +17071,22 @@
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="17" t="s">
-        <v>848</v>
-      </c>
-      <c r="B471" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="C471" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="D471" s="19">
-        <v>4301131019</v>
-      </c>
-      <c r="E471" s="18">
-        <v>4640242180427</v>
-      </c>
-      <c r="F471" s="20" t="s">
-        <v>379</v>
+        <v>846</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D471" s="4">
+        <v>4301132179</v>
+      </c>
+      <c r="E471" s="3">
+        <v>4607111035691</v>
+      </c>
+      <c r="F471" s="5" t="s">
+        <v>894</v>
       </c>
       <c r="G471" s="21"/>
       <c r="H471" s="22" t="s">
@@ -17071,22 +17095,22 @@
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="17" t="s">
-        <v>849</v>
-      </c>
-      <c r="B472" s="3" t="s">
-        <v>913</v>
-      </c>
-      <c r="C472" s="3" t="s">
-        <v>914</v>
-      </c>
-      <c r="D472" s="4">
-        <v>4301135571</v>
-      </c>
-      <c r="E472" s="3">
-        <v>4607111035028</v>
-      </c>
-      <c r="F472" s="5" t="s">
-        <v>915</v>
+        <v>847</v>
+      </c>
+      <c r="B472" s="18" t="s">
+        <v>757</v>
+      </c>
+      <c r="C472" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="D472" s="19">
+        <v>4301132185</v>
+      </c>
+      <c r="E472" s="18">
+        <v>4607111036537</v>
+      </c>
+      <c r="F472" s="20" t="s">
+        <v>759</v>
       </c>
       <c r="G472" s="21"/>
       <c r="H472" s="22" t="s">
@@ -17095,46 +17119,46 @@
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="17" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B473" s="18" t="s">
-        <v>745</v>
+        <v>377</v>
       </c>
       <c r="C473" s="18" t="s">
-        <v>746</v>
+        <v>378</v>
       </c>
       <c r="D473" s="19">
-        <v>4301135575</v>
+        <v>4301131019</v>
       </c>
       <c r="E473" s="18">
-        <v>4607111035141</v>
+        <v>4640242180427</v>
       </c>
       <c r="F473" s="20" t="s">
-        <v>747</v>
+        <v>379</v>
       </c>
       <c r="G473" s="21"/>
       <c r="H473" s="22" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="474" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="17" t="s">
-        <v>852</v>
-      </c>
-      <c r="B474" s="18" t="s">
-        <v>493</v>
-      </c>
-      <c r="C474" s="18" t="s">
-        <v>494</v>
-      </c>
-      <c r="D474" s="19">
-        <v>4301070960</v>
-      </c>
-      <c r="E474" s="18">
-        <v>4607111038623</v>
-      </c>
-      <c r="F474" s="20" t="s">
-        <v>495</v>
+        <v>849</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="C474" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="D474" s="4">
+        <v>4301135571</v>
+      </c>
+      <c r="E474" s="3">
+        <v>4607111035028</v>
+      </c>
+      <c r="F474" s="5" t="s">
+        <v>915</v>
       </c>
       <c r="G474" s="21"/>
       <c r="H474" s="22" t="s">
@@ -17143,70 +17167,70 @@
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="17" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B475" s="18" t="s">
-        <v>370</v>
+        <v>745</v>
       </c>
       <c r="C475" s="18" t="s">
-        <v>371</v>
+        <v>746</v>
       </c>
       <c r="D475" s="19">
-        <v>4301070966</v>
+        <v>4301135575</v>
       </c>
       <c r="E475" s="18">
-        <v>4607111038135</v>
+        <v>4607111035141</v>
       </c>
       <c r="F475" s="20" t="s">
-        <v>369</v>
+        <v>747</v>
       </c>
       <c r="G475" s="21"/>
       <c r="H475" s="22" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A476" s="10" t="s">
-        <v>922</v>
-      </c>
-      <c r="B476" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="C476" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="D476" s="4">
-        <v>4301070990</v>
-      </c>
-      <c r="E476" s="3">
-        <v>4607111038494</v>
-      </c>
-      <c r="F476" s="5" t="s">
-        <v>881</v>
-      </c>
-      <c r="G476" s="1"/>
-      <c r="H476" s="16" t="s">
+    <row r="476" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A476" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="B476" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="C476" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="D476" s="19">
+        <v>4301070960</v>
+      </c>
+      <c r="E476" s="18">
+        <v>4607111038623</v>
+      </c>
+      <c r="F476" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="G476" s="21"/>
+      <c r="H476" s="22" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="17" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B477" s="18" t="s">
-        <v>879</v>
+        <v>370</v>
       </c>
       <c r="C477" s="18" t="s">
-        <v>880</v>
+        <v>371</v>
       </c>
       <c r="D477" s="19">
-        <v>4301070990</v>
+        <v>4301070966</v>
       </c>
       <c r="E477" s="18">
-        <v>4607111038494</v>
+        <v>4607111038135</v>
       </c>
       <c r="F477" s="20" t="s">
-        <v>881</v>
+        <v>369</v>
       </c>
       <c r="G477" s="21"/>
       <c r="H477" s="22" t="s">
@@ -17214,47 +17238,47 @@
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A478" s="17" t="s">
-        <v>855</v>
-      </c>
-      <c r="B478" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C478" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D478" s="19">
-        <v>4301070921</v>
-      </c>
-      <c r="E478" s="18">
-        <v>4607111035905</v>
-      </c>
-      <c r="F478" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="G478" s="21"/>
-      <c r="H478" s="22" t="s">
+      <c r="A478" s="10" t="s">
+        <v>922</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="D478" s="4">
+        <v>4301070990</v>
+      </c>
+      <c r="E478" s="3">
+        <v>4607111038494</v>
+      </c>
+      <c r="F478" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="G478" s="1"/>
+      <c r="H478" s="16" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="17" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B479" s="18" t="s">
-        <v>561</v>
+        <v>879</v>
       </c>
       <c r="C479" s="18" t="s">
-        <v>562</v>
+        <v>880</v>
       </c>
       <c r="D479" s="19">
-        <v>4301135311</v>
+        <v>4301070990</v>
       </c>
       <c r="E479" s="18">
-        <v>4607111039095</v>
+        <v>4607111038494</v>
       </c>
       <c r="F479" s="20" t="s">
-        <v>560</v>
+        <v>881</v>
       </c>
       <c r="G479" s="21"/>
       <c r="H479" s="22" t="s">
@@ -17263,22 +17287,22 @@
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="17" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B480" s="18" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="C480" s="18" t="s">
-        <v>533</v>
+        <v>155</v>
       </c>
       <c r="D480" s="19">
-        <v>4301135285</v>
+        <v>4301070921</v>
       </c>
       <c r="E480" s="18">
-        <v>4607111036407</v>
+        <v>4607111035905</v>
       </c>
       <c r="F480" s="20" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="G480" s="21"/>
       <c r="H480" s="22" t="s">
@@ -17287,22 +17311,22 @@
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="17" t="s">
-        <v>730</v>
+        <v>856</v>
       </c>
       <c r="B481" s="18" t="s">
-        <v>728</v>
+        <v>561</v>
       </c>
       <c r="C481" s="18" t="s">
-        <v>729</v>
+        <v>562</v>
       </c>
       <c r="D481" s="19">
-        <v>4301135596</v>
+        <v>4301135311</v>
       </c>
       <c r="E481" s="18">
-        <v>4607111039613</v>
+        <v>4607111039095</v>
       </c>
       <c r="F481" s="20" t="s">
-        <v>730</v>
+        <v>560</v>
       </c>
       <c r="G481" s="21"/>
       <c r="H481" s="22" t="s">
@@ -17311,22 +17335,22 @@
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="17" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B482" s="18" t="s">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="C482" s="18" t="s">
-        <v>128</v>
+        <v>533</v>
       </c>
       <c r="D482" s="19">
-        <v>4301080153</v>
+        <v>4301135285</v>
       </c>
       <c r="E482" s="18">
-        <v>4607111036827</v>
+        <v>4607111036407</v>
       </c>
       <c r="F482" s="20" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="G482" s="21"/>
       <c r="H482" s="22" t="s">
@@ -17335,22 +17359,22 @@
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="17" t="s">
-        <v>859</v>
+        <v>730</v>
       </c>
       <c r="B483" s="18" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="C483" s="18" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="D483" s="19">
-        <v>4301135584</v>
+        <v>4301135596</v>
       </c>
       <c r="E483" s="18">
-        <v>4607111033659</v>
+        <v>4607111039613</v>
       </c>
       <c r="F483" s="20" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="G483" s="21"/>
       <c r="H483" s="22" t="s">
@@ -17359,22 +17383,22 @@
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="17" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B484" s="18" t="s">
-        <v>683</v>
+        <v>127</v>
       </c>
       <c r="C484" s="18" t="s">
-        <v>684</v>
+        <v>128</v>
       </c>
       <c r="D484" s="19">
-        <v>4301071044</v>
+        <v>4301080153</v>
       </c>
       <c r="E484" s="18">
-        <v>4607111039385</v>
+        <v>4607111036827</v>
       </c>
       <c r="F484" s="20" t="s">
-        <v>685</v>
+        <v>129</v>
       </c>
       <c r="G484" s="21"/>
       <c r="H484" s="22" t="s">
@@ -17383,22 +17407,22 @@
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="17" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B485" s="18" t="s">
-        <v>700</v>
+        <v>742</v>
       </c>
       <c r="C485" s="18" t="s">
-        <v>701</v>
+        <v>743</v>
       </c>
       <c r="D485" s="19">
-        <v>4301071031</v>
+        <v>4301135584</v>
       </c>
       <c r="E485" s="18">
-        <v>4607111038982</v>
+        <v>4607111033659</v>
       </c>
       <c r="F485" s="20" t="s">
-        <v>702</v>
+        <v>744</v>
       </c>
       <c r="G485" s="21"/>
       <c r="H485" s="22" t="s">
@@ -17407,22 +17431,22 @@
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="17" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B486" s="18" t="s">
-        <v>181</v>
+        <v>683</v>
       </c>
       <c r="C486" s="18" t="s">
-        <v>182</v>
+        <v>684</v>
       </c>
       <c r="D486" s="19">
-        <v>4301070917</v>
+        <v>4301071044</v>
       </c>
       <c r="E486" s="18">
-        <v>4607111035912</v>
+        <v>4607111039385</v>
       </c>
       <c r="F486" s="20" t="s">
-        <v>183</v>
+        <v>685</v>
       </c>
       <c r="G486" s="21"/>
       <c r="H486" s="22" t="s">
@@ -17431,22 +17455,22 @@
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="17" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B487" s="18" t="s">
-        <v>169</v>
+        <v>700</v>
       </c>
       <c r="C487" s="18" t="s">
-        <v>534</v>
+        <v>701</v>
       </c>
       <c r="D487" s="19">
-        <v>4301136042</v>
+        <v>4301071031</v>
       </c>
       <c r="E487" s="18">
-        <v>4607025784012</v>
+        <v>4607111038982</v>
       </c>
       <c r="F487" s="20" t="s">
-        <v>170</v>
+        <v>702</v>
       </c>
       <c r="G487" s="21"/>
       <c r="H487" s="22" t="s">
@@ -17455,118 +17479,118 @@
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="17" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B488" s="18" t="s">
-        <v>618</v>
+        <v>181</v>
       </c>
       <c r="C488" s="18" t="s">
-        <v>619</v>
+        <v>182</v>
       </c>
       <c r="D488" s="19">
-        <v>4301071046</v>
+        <v>4301070917</v>
       </c>
       <c r="E488" s="18">
-        <v>4607111039354</v>
+        <v>4607111035912</v>
       </c>
       <c r="F488" s="20" t="s">
-        <v>620</v>
+        <v>183</v>
       </c>
       <c r="G488" s="21"/>
       <c r="H488" s="22" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="489" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="17" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B489" s="18" t="s">
-        <v>882</v>
+        <v>169</v>
       </c>
       <c r="C489" s="18" t="s">
-        <v>883</v>
+        <v>534</v>
       </c>
       <c r="D489" s="19">
-        <v>4301070959</v>
+        <v>4301136042</v>
       </c>
       <c r="E489" s="18">
-        <v>4607111038616</v>
+        <v>4607025784012</v>
       </c>
       <c r="F489" s="20" t="s">
-        <v>884</v>
+        <v>170</v>
       </c>
       <c r="G489" s="21"/>
       <c r="H489" s="22" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="490" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="17" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B490" s="18" t="s">
-        <v>885</v>
+        <v>618</v>
       </c>
       <c r="C490" s="18" t="s">
-        <v>886</v>
+        <v>619</v>
       </c>
       <c r="D490" s="19">
-        <v>4301070962</v>
+        <v>4301071046</v>
       </c>
       <c r="E490" s="18">
-        <v>4607111038609</v>
+        <v>4607111039354</v>
       </c>
       <c r="F490" s="20" t="s">
-        <v>887</v>
+        <v>620</v>
       </c>
       <c r="G490" s="21"/>
       <c r="H490" s="22" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A491" s="17" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B491" s="18" t="s">
-        <v>254</v>
+        <v>882</v>
       </c>
       <c r="C491" s="18" t="s">
-        <v>255</v>
+        <v>883</v>
       </c>
       <c r="D491" s="19">
-        <v>4301070948</v>
+        <v>4301070959</v>
       </c>
       <c r="E491" s="18">
-        <v>4607111037022</v>
+        <v>4607111038616</v>
       </c>
       <c r="F491" s="20" t="s">
-        <v>152</v>
+        <v>884</v>
       </c>
       <c r="G491" s="21"/>
       <c r="H491" s="22" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A492" s="17" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B492" s="18" t="s">
-        <v>717</v>
+        <v>885</v>
       </c>
       <c r="C492" s="18" t="s">
-        <v>718</v>
+        <v>886</v>
       </c>
       <c r="D492" s="19">
-        <v>4301135570</v>
+        <v>4301070962</v>
       </c>
       <c r="E492" s="18">
-        <v>4607111035806</v>
+        <v>4607111038609</v>
       </c>
       <c r="F492" s="20" t="s">
-        <v>719</v>
+        <v>887</v>
       </c>
       <c r="G492" s="21"/>
       <c r="H492" s="22" t="s">
@@ -17575,22 +17599,22 @@
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="17" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B493" s="18" t="s">
-        <v>749</v>
+        <v>254</v>
       </c>
       <c r="C493" s="18" t="s">
-        <v>750</v>
+        <v>255</v>
       </c>
       <c r="D493" s="19">
-        <v>4301071032</v>
+        <v>4301070948</v>
       </c>
       <c r="E493" s="18">
-        <v>4607111038999</v>
+        <v>4607111037022</v>
       </c>
       <c r="F493" s="20" t="s">
-        <v>751</v>
+        <v>152</v>
       </c>
       <c r="G493" s="21"/>
       <c r="H493" s="22" t="s">
@@ -17599,22 +17623,22 @@
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="17" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B494" s="18" t="s">
-        <v>687</v>
+        <v>717</v>
       </c>
       <c r="C494" s="18" t="s">
-        <v>688</v>
+        <v>718</v>
       </c>
       <c r="D494" s="19">
-        <v>4301071045</v>
+        <v>4301135570</v>
       </c>
       <c r="E494" s="18">
-        <v>4607111039392</v>
+        <v>4607111035806</v>
       </c>
       <c r="F494" s="20" t="s">
-        <v>689</v>
+        <v>719</v>
       </c>
       <c r="G494" s="21"/>
       <c r="H494" s="22" t="s">
@@ -17623,22 +17647,22 @@
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="17" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B495" s="18" t="s">
-        <v>489</v>
+        <v>749</v>
       </c>
       <c r="C495" s="18" t="s">
-        <v>490</v>
+        <v>750</v>
       </c>
       <c r="D495" s="19">
-        <v>4301070963</v>
+        <v>4301071032</v>
       </c>
       <c r="E495" s="18">
-        <v>4607111038630</v>
+        <v>4607111038999</v>
       </c>
       <c r="F495" s="20" t="s">
-        <v>491</v>
+        <v>751</v>
       </c>
       <c r="G495" s="21"/>
       <c r="H495" s="22" t="s">
@@ -17647,22 +17671,22 @@
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="17" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B496" s="18" t="s">
-        <v>600</v>
+        <v>687</v>
       </c>
       <c r="C496" s="18" t="s">
-        <v>601</v>
+        <v>688</v>
       </c>
       <c r="D496" s="19">
-        <v>4301071054</v>
+        <v>4301071045</v>
       </c>
       <c r="E496" s="18">
-        <v>4607111035639</v>
+        <v>4607111039392</v>
       </c>
       <c r="F496" s="20" t="s">
-        <v>602</v>
+        <v>689</v>
       </c>
       <c r="G496" s="21"/>
       <c r="H496" s="22" t="s">
@@ -17671,30 +17695,78 @@
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="17" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B497" s="18" t="s">
-        <v>342</v>
+        <v>489</v>
       </c>
       <c r="C497" s="18" t="s">
-        <v>570</v>
+        <v>490</v>
       </c>
       <c r="D497" s="19">
-        <v>4301135540</v>
+        <v>4301070963</v>
       </c>
       <c r="E497" s="18">
-        <v>4607111035646</v>
+        <v>4607111038630</v>
       </c>
       <c r="F497" s="20" t="s">
-        <v>571</v>
+        <v>491</v>
       </c>
       <c r="G497" s="21"/>
       <c r="H497" s="22" t="s">
         <v>874</v>
       </c>
     </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A498" s="17" t="s">
+        <v>872</v>
+      </c>
+      <c r="B498" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="C498" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="D498" s="19">
+        <v>4301071054</v>
+      </c>
+      <c r="E498" s="18">
+        <v>4607111035639</v>
+      </c>
+      <c r="F498" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="G498" s="21"/>
+      <c r="H498" s="22" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A499" s="17" t="s">
+        <v>873</v>
+      </c>
+      <c r="B499" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="C499" s="18" t="s">
+        <v>570</v>
+      </c>
+      <c r="D499" s="19">
+        <v>4301135540</v>
+      </c>
+      <c r="E499" s="18">
+        <v>4607111035646</v>
+      </c>
+      <c r="F499" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="G499" s="21"/>
+      <c r="H499" s="22" t="s">
+        <v>874</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F497" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+  <autoFilter ref="A1:F499" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F245">
       <sortCondition ref="A1:A176"/>
     </sortState>

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994CE2ED-ECB7-4754-A8D0-F77A59D519F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961A2BB8-B9F9-43D6-BFDB-17FA8661101A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961A2BB8-B9F9-43D6-BFDB-17FA8661101A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BA2418-D9A8-46A7-9C71-9690E87EF87D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,8 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$499</definedName>
-    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$438</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$501</definedName>
+    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$440</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="938">
   <si>
     <t>1С</t>
   </si>
@@ -2847,6 +2847,12 @@
   </si>
   <si>
     <t>Снеки «Чебупицца со вкусом 4 сыра» Фикс.вес 0,2 ТС «Foodgital» ТМ «Горячая штучка»</t>
+  </si>
+  <si>
+    <t>Готовые чебупели острые с мясом ТМ Горячая штучка флоу-пак 0,24 кг</t>
+  </si>
+  <si>
+    <t>Готовые чебупели острые с мясом 0,24кг ТМ Горячая штучка  ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -6102,11 +6108,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H499"/>
+  <dimension ref="A1:H501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16216,7 +16222,7 @@
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="10" t="s">
-        <v>924</v>
+        <v>936</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>925</v>
@@ -16237,112 +16243,106 @@
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="10" t="s">
-        <v>928</v>
+        <v>937</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="D436" s="4">
-        <v>4301135665</v>
+        <v>4301135763</v>
       </c>
       <c r="E436" s="3">
-        <v>4607111039729</v>
+        <v>4620207491027</v>
       </c>
       <c r="F436" s="5" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="G436" s="1"/>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="10" t="s">
+        <v>924</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="D437" s="4">
+        <v>4301135763</v>
+      </c>
+      <c r="E437" s="3">
+        <v>4620207491027</v>
+      </c>
+      <c r="F437" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="G437" s="1"/>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A438" s="10" t="s">
+        <v>928</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="D438" s="4">
+        <v>4301135665</v>
+      </c>
+      <c r="E438" s="3">
+        <v>4607111039729</v>
+      </c>
+      <c r="F438" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="G438" s="1"/>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A439" s="10" t="s">
         <v>932</v>
       </c>
-      <c r="B437" s="3" t="s">
+      <c r="B439" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="C437" s="3" t="s">
+      <c r="C439" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="D437" s="4">
+      <c r="D439" s="4">
         <v>4301135702</v>
       </c>
-      <c r="E437" s="3">
+      <c r="E439" s="3">
         <v>4620207490228</v>
       </c>
-      <c r="F437" s="5" t="s">
+      <c r="F439" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="G437" s="1"/>
-    </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A438" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="B438" s="18" t="s">
-        <v>630</v>
-      </c>
-      <c r="C438" s="18" t="s">
-        <v>631</v>
-      </c>
-      <c r="D438" s="19">
-        <v>4301071038</v>
-      </c>
-      <c r="E438" s="18">
-        <v>4607111039248</v>
-      </c>
-      <c r="F438" s="20" t="s">
-        <v>632</v>
-      </c>
-      <c r="G438" s="21"/>
-      <c r="H438" s="22" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A439" s="17" t="s">
-        <v>814</v>
-      </c>
-      <c r="B439" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C439" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="D439" s="19">
-        <v>4301070981</v>
-      </c>
-      <c r="E439" s="18">
-        <v>4607111036728</v>
-      </c>
-      <c r="F439" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="G439" s="21"/>
-      <c r="H439" s="22" t="s">
-        <v>874</v>
-      </c>
+      <c r="G439" s="1"/>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="17" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B440" s="18" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C440" s="18" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="D440" s="19">
-        <v>4301071039</v>
+        <v>4301071038</v>
       </c>
       <c r="E440" s="18">
-        <v>4607111039279</v>
+        <v>4607111039248</v>
       </c>
       <c r="F440" s="20" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="G440" s="21"/>
       <c r="H440" s="22" t="s">
@@ -16351,22 +16351,22 @@
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="17" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B441" s="18" t="s">
-        <v>626</v>
+        <v>106</v>
       </c>
       <c r="C441" s="18" t="s">
-        <v>627</v>
+        <v>261</v>
       </c>
       <c r="D441" s="19">
-        <v>4301071051</v>
+        <v>4301070981</v>
       </c>
       <c r="E441" s="18">
-        <v>4607111039262</v>
+        <v>4607111036728</v>
       </c>
       <c r="F441" s="20" t="s">
-        <v>628</v>
+        <v>262</v>
       </c>
       <c r="G441" s="21"/>
       <c r="H441" s="22" t="s">
@@ -16375,22 +16375,22 @@
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="17" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B442" s="18" t="s">
-        <v>293</v>
+        <v>638</v>
       </c>
       <c r="C442" s="18" t="s">
-        <v>294</v>
+        <v>639</v>
       </c>
       <c r="D442" s="19">
-        <v>4301132080</v>
+        <v>4301071039</v>
       </c>
       <c r="E442" s="18">
-        <v>4640242180397</v>
+        <v>4607111039279</v>
       </c>
       <c r="F442" s="20" t="s">
-        <v>295</v>
+        <v>640</v>
       </c>
       <c r="G442" s="21"/>
       <c r="H442" s="22" t="s">
@@ -16399,22 +16399,22 @@
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="17" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B443" s="18" t="s">
-        <v>113</v>
+        <v>626</v>
       </c>
       <c r="C443" s="18" t="s">
-        <v>531</v>
+        <v>627</v>
       </c>
       <c r="D443" s="19">
-        <v>4301071029</v>
+        <v>4301071051</v>
       </c>
       <c r="E443" s="18">
-        <v>4607111035899</v>
+        <v>4607111039262</v>
       </c>
       <c r="F443" s="20" t="s">
-        <v>114</v>
+        <v>628</v>
       </c>
       <c r="G443" s="21"/>
       <c r="H443" s="22" t="s">
@@ -16423,22 +16423,22 @@
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="17" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B444" s="18" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C444" s="18" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D444" s="19">
-        <v>4301136026</v>
+        <v>4301132080</v>
       </c>
       <c r="E444" s="18">
-        <v>4640242180236</v>
+        <v>4640242180397</v>
       </c>
       <c r="F444" s="20" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="G444" s="21"/>
       <c r="H444" s="22" t="s">
@@ -16447,22 +16447,22 @@
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="17" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B445" s="18" t="s">
-        <v>318</v>
+        <v>113</v>
       </c>
       <c r="C445" s="18" t="s">
-        <v>319</v>
+        <v>531</v>
       </c>
       <c r="D445" s="19">
-        <v>4301070977</v>
+        <v>4301071029</v>
       </c>
       <c r="E445" s="18">
-        <v>4607111037411</v>
+        <v>4607111035899</v>
       </c>
       <c r="F445" s="20" t="s">
-        <v>320</v>
+        <v>114</v>
       </c>
       <c r="G445" s="21"/>
       <c r="H445" s="22" t="s">
@@ -16471,22 +16471,22 @@
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="17" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B446" s="18" t="s">
-        <v>563</v>
+        <v>302</v>
       </c>
       <c r="C446" s="18" t="s">
-        <v>564</v>
+        <v>303</v>
       </c>
       <c r="D446" s="19">
-        <v>4301135375</v>
+        <v>4301136026</v>
       </c>
       <c r="E446" s="18">
-        <v>4640242181486</v>
+        <v>4640242180236</v>
       </c>
       <c r="F446" s="20" t="s">
-        <v>565</v>
+        <v>304</v>
       </c>
       <c r="G446" s="21"/>
       <c r="H446" s="22" t="s">
@@ -16495,22 +16495,22 @@
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="17" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B447" s="18" t="s">
-        <v>658</v>
+        <v>318</v>
       </c>
       <c r="C447" s="18" t="s">
-        <v>659</v>
+        <v>319</v>
       </c>
       <c r="D447" s="19">
-        <v>4301135578</v>
+        <v>4301070977</v>
       </c>
       <c r="E447" s="18">
-        <v>4607111033444</v>
+        <v>4607111037411</v>
       </c>
       <c r="F447" s="20" t="s">
-        <v>660</v>
+        <v>320</v>
       </c>
       <c r="G447" s="21"/>
       <c r="H447" s="22" t="s">
@@ -16519,22 +16519,22 @@
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="17" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B448" s="18" t="s">
-        <v>112</v>
+        <v>563</v>
       </c>
       <c r="C448" s="18" t="s">
-        <v>641</v>
+        <v>564</v>
       </c>
       <c r="D448" s="19">
-        <v>4301071050</v>
+        <v>4301135375</v>
       </c>
       <c r="E448" s="18">
-        <v>4607111036216</v>
+        <v>4640242181486</v>
       </c>
       <c r="F448" s="20" t="s">
-        <v>642</v>
+        <v>565</v>
       </c>
       <c r="G448" s="21"/>
       <c r="H448" s="22" t="s">
@@ -16543,22 +16543,22 @@
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="17" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B449" s="18" t="s">
-        <v>634</v>
+        <v>658</v>
       </c>
       <c r="C449" s="18" t="s">
-        <v>635</v>
+        <v>659</v>
       </c>
       <c r="D449" s="19">
-        <v>4301071049</v>
+        <v>4301135578</v>
       </c>
       <c r="E449" s="18">
-        <v>4607111039293</v>
+        <v>4607111033444</v>
       </c>
       <c r="F449" s="20" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="G449" s="21"/>
       <c r="H449" s="22" t="s">
@@ -16567,22 +16567,22 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="17" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B450" s="18" t="s">
-        <v>666</v>
+        <v>112</v>
       </c>
       <c r="C450" s="18" t="s">
-        <v>667</v>
+        <v>641</v>
       </c>
       <c r="D450" s="19">
-        <v>4301135532</v>
+        <v>4301071050</v>
       </c>
       <c r="E450" s="18">
-        <v>4607111033994</v>
+        <v>4607111036216</v>
       </c>
       <c r="F450" s="20" t="s">
-        <v>668</v>
+        <v>642</v>
       </c>
       <c r="G450" s="21"/>
       <c r="H450" s="22" t="s">
@@ -16591,22 +16591,22 @@
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="17" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B451" s="18" t="s">
-        <v>669</v>
+        <v>634</v>
       </c>
       <c r="C451" s="18" t="s">
-        <v>670</v>
+        <v>635</v>
       </c>
       <c r="D451" s="19">
-        <v>4301135533</v>
+        <v>4301071049</v>
       </c>
       <c r="E451" s="18">
-        <v>4607111034014</v>
+        <v>4607111039293</v>
       </c>
       <c r="F451" s="20" t="s">
-        <v>671</v>
+        <v>636</v>
       </c>
       <c r="G451" s="21"/>
       <c r="H451" s="22" t="s">
@@ -16615,22 +16615,22 @@
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="17" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B452" s="18" t="s">
-        <v>646</v>
+        <v>666</v>
       </c>
       <c r="C452" s="18" t="s">
-        <v>647</v>
+        <v>667</v>
       </c>
       <c r="D452" s="19">
-        <v>4301135565</v>
+        <v>4301135532</v>
       </c>
       <c r="E452" s="18">
-        <v>4607111033451</v>
+        <v>4607111033994</v>
       </c>
       <c r="F452" s="20" t="s">
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="G452" s="21"/>
       <c r="H452" s="22" t="s">
@@ -16639,22 +16639,22 @@
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="17" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B453" s="18" t="s">
-        <v>384</v>
+        <v>669</v>
       </c>
       <c r="C453" s="18" t="s">
-        <v>385</v>
+        <v>670</v>
       </c>
       <c r="D453" s="19">
-        <v>4301136029</v>
+        <v>4301135533</v>
       </c>
       <c r="E453" s="18">
-        <v>4640242180410</v>
+        <v>4607111034014</v>
       </c>
       <c r="F453" s="20" t="s">
-        <v>386</v>
+        <v>671</v>
       </c>
       <c r="G453" s="21"/>
       <c r="H453" s="22" t="s">
@@ -16663,22 +16663,22 @@
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="17" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B454" s="18" t="s">
-        <v>557</v>
+        <v>646</v>
       </c>
       <c r="C454" s="18" t="s">
-        <v>558</v>
+        <v>647</v>
       </c>
       <c r="D454" s="19">
-        <v>4301135394</v>
+        <v>4301135565</v>
       </c>
       <c r="E454" s="18">
-        <v>4640242181561</v>
+        <v>4607111033451</v>
       </c>
       <c r="F454" s="20" t="s">
-        <v>559</v>
+        <v>648</v>
       </c>
       <c r="G454" s="21"/>
       <c r="H454" s="22" t="s">
@@ -16687,22 +16687,22 @@
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="17" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B455" s="18" t="s">
-        <v>609</v>
+        <v>384</v>
       </c>
       <c r="C455" s="18" t="s">
-        <v>610</v>
+        <v>385</v>
       </c>
       <c r="D455" s="19">
-        <v>4301135374</v>
+        <v>4301136029</v>
       </c>
       <c r="E455" s="18">
-        <v>4640242181424</v>
+        <v>4640242180410</v>
       </c>
       <c r="F455" s="20" t="s">
-        <v>611</v>
+        <v>386</v>
       </c>
       <c r="G455" s="21"/>
       <c r="H455" s="22" t="s">
@@ -16711,22 +16711,22 @@
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="17" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B456" s="18" t="s">
-        <v>875</v>
+        <v>557</v>
       </c>
       <c r="C456" s="18" t="s">
-        <v>876</v>
+        <v>558</v>
       </c>
       <c r="D456" s="19">
-        <v>4301132079</v>
+        <v>4301135394</v>
       </c>
       <c r="E456" s="18">
-        <v>4607111038487</v>
+        <v>4640242181561</v>
       </c>
       <c r="F456" s="20" t="s">
-        <v>427</v>
+        <v>559</v>
       </c>
       <c r="G456" s="21"/>
       <c r="H456" s="22" t="s">
@@ -16735,22 +16735,22 @@
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="17" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B457" s="18" t="s">
-        <v>164</v>
+        <v>609</v>
       </c>
       <c r="C457" s="18" t="s">
-        <v>644</v>
+        <v>610</v>
       </c>
       <c r="D457" s="19">
-        <v>4301071056</v>
+        <v>4301135374</v>
       </c>
       <c r="E457" s="18">
-        <v>4640242180250</v>
+        <v>4640242181424</v>
       </c>
       <c r="F457" s="20" t="s">
-        <v>645</v>
+        <v>611</v>
       </c>
       <c r="G457" s="21"/>
       <c r="H457" s="22" t="s">
@@ -16759,22 +16759,22 @@
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="17" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B458" s="18" t="s">
-        <v>299</v>
+        <v>875</v>
       </c>
       <c r="C458" s="18" t="s">
-        <v>300</v>
+        <v>876</v>
       </c>
       <c r="D458" s="19">
-        <v>4301136028</v>
+        <v>4301132079</v>
       </c>
       <c r="E458" s="18">
-        <v>4640242180304</v>
+        <v>4607111038487</v>
       </c>
       <c r="F458" s="20" t="s">
-        <v>301</v>
+        <v>427</v>
       </c>
       <c r="G458" s="21"/>
       <c r="H458" s="22" t="s">
@@ -16783,22 +16783,22 @@
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="17" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B459" s="18" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="C459" s="18" t="s">
-        <v>110</v>
+        <v>644</v>
       </c>
       <c r="D459" s="19">
-        <v>4301070920</v>
+        <v>4301071056</v>
       </c>
       <c r="E459" s="18">
-        <v>4607111035929</v>
+        <v>4640242180250</v>
       </c>
       <c r="F459" s="20" t="s">
-        <v>111</v>
+        <v>645</v>
       </c>
       <c r="G459" s="21"/>
       <c r="H459" s="22" t="s">
@@ -16807,22 +16807,22 @@
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="17" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B460" s="18" t="s">
-        <v>763</v>
+        <v>299</v>
       </c>
       <c r="C460" s="18" t="s">
-        <v>764</v>
+        <v>300</v>
       </c>
       <c r="D460" s="19">
-        <v>4301135534</v>
+        <v>4301136028</v>
       </c>
       <c r="E460" s="18">
-        <v>4607111034199</v>
+        <v>4640242180304</v>
       </c>
       <c r="F460" s="20" t="s">
-        <v>765</v>
+        <v>301</v>
       </c>
       <c r="G460" s="21"/>
       <c r="H460" s="22" t="s">
@@ -16831,22 +16831,22 @@
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B461" s="18" t="s">
-        <v>760</v>
+        <v>109</v>
       </c>
       <c r="C461" s="18" t="s">
-        <v>761</v>
+        <v>110</v>
       </c>
       <c r="D461" s="19">
-        <v>4301132186</v>
+        <v>4301070920</v>
       </c>
       <c r="E461" s="18">
-        <v>4607111036520</v>
+        <v>4607111035929</v>
       </c>
       <c r="F461" s="20" t="s">
-        <v>762</v>
+        <v>111</v>
       </c>
       <c r="G461" s="21"/>
       <c r="H461" s="22" t="s">
@@ -16855,22 +16855,22 @@
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="17" t="s">
-        <v>837</v>
-      </c>
-      <c r="B462" s="18" t="s">
-        <v>622</v>
-      </c>
-      <c r="C462" s="18" t="s">
-        <v>623</v>
-      </c>
-      <c r="D462" s="19">
-        <v>4301071047</v>
-      </c>
-      <c r="E462" s="18">
-        <v>4607111039330</v>
-      </c>
-      <c r="F462" s="20" t="s">
-        <v>624</v>
+        <v>835</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="D462" s="4">
+        <v>4301135534</v>
+      </c>
+      <c r="E462" s="3">
+        <v>4607111034199</v>
+      </c>
+      <c r="F462" s="5" t="s">
+        <v>765</v>
       </c>
       <c r="G462" s="21"/>
       <c r="H462" s="22" t="s">
@@ -16879,22 +16879,22 @@
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="17" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B463" s="18" t="s">
-        <v>877</v>
+        <v>760</v>
       </c>
       <c r="C463" s="18" t="s">
-        <v>878</v>
+        <v>761</v>
       </c>
       <c r="D463" s="19">
-        <v>4301131022</v>
+        <v>4301132186</v>
       </c>
       <c r="E463" s="18">
-        <v>4607111034120</v>
+        <v>4607111036520</v>
       </c>
       <c r="F463" s="20" t="s">
-        <v>125</v>
+        <v>762</v>
       </c>
       <c r="G463" s="21"/>
       <c r="H463" s="22" t="s">
@@ -16903,22 +16903,22 @@
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="17" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B464" s="18" t="s">
-        <v>712</v>
+        <v>622</v>
       </c>
       <c r="C464" s="18" t="s">
-        <v>713</v>
+        <v>623</v>
       </c>
       <c r="D464" s="19">
-        <v>4301135569</v>
+        <v>4301071047</v>
       </c>
       <c r="E464" s="18">
-        <v>4607111033628</v>
+        <v>4607111039330</v>
       </c>
       <c r="F464" s="20" t="s">
-        <v>714</v>
+        <v>624</v>
       </c>
       <c r="G464" s="21"/>
       <c r="H464" s="22" t="s">
@@ -16927,22 +16927,22 @@
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="17" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B465" s="18" t="s">
-        <v>567</v>
+        <v>877</v>
       </c>
       <c r="C465" s="18" t="s">
-        <v>568</v>
+        <v>878</v>
       </c>
       <c r="D465" s="19">
-        <v>4301135405</v>
+        <v>4301131022</v>
       </c>
       <c r="E465" s="18">
-        <v>4640242181523</v>
+        <v>4607111034120</v>
       </c>
       <c r="F465" s="20" t="s">
-        <v>569</v>
+        <v>125</v>
       </c>
       <c r="G465" s="21"/>
       <c r="H465" s="22" t="s">
@@ -16951,22 +16951,22 @@
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="17" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B466" s="18" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="C466" s="18" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="D466" s="19">
-        <v>4301135402</v>
+        <v>4301135569</v>
       </c>
       <c r="E466" s="18">
-        <v>4640242181493</v>
+        <v>4607111033628</v>
       </c>
       <c r="F466" s="20" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="G466" s="21"/>
       <c r="H466" s="22" t="s">
@@ -16975,22 +16975,22 @@
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="17" t="s">
-        <v>842</v>
-      </c>
-      <c r="B467" s="3" t="s">
-        <v>904</v>
-      </c>
-      <c r="C467" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="D467" s="4">
-        <v>4301131042</v>
-      </c>
-      <c r="E467" s="3">
-        <v>4607111034137</v>
-      </c>
-      <c r="F467" s="5" t="s">
-        <v>906</v>
+        <v>840</v>
+      </c>
+      <c r="B467" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="C467" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="D467" s="19">
+        <v>4301135405</v>
+      </c>
+      <c r="E467" s="18">
+        <v>4640242181523</v>
+      </c>
+      <c r="F467" s="20" t="s">
+        <v>569</v>
       </c>
       <c r="G467" s="21"/>
       <c r="H467" s="22" t="s">
@@ -16999,22 +16999,22 @@
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="17" t="s">
-        <v>843</v>
-      </c>
-      <c r="B468" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="C468" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="D468" s="4">
-        <v>4301136077</v>
-      </c>
-      <c r="E468" s="3">
-        <v>4607025784319</v>
-      </c>
-      <c r="F468" s="5" t="s">
-        <v>912</v>
+        <v>841</v>
+      </c>
+      <c r="B468" s="18" t="s">
+        <v>724</v>
+      </c>
+      <c r="C468" s="18" t="s">
+        <v>725</v>
+      </c>
+      <c r="D468" s="19">
+        <v>4301135402</v>
+      </c>
+      <c r="E468" s="18">
+        <v>4640242181493</v>
+      </c>
+      <c r="F468" s="20" t="s">
+        <v>723</v>
       </c>
       <c r="G468" s="21"/>
       <c r="H468" s="22" t="s">
@@ -17023,22 +17023,22 @@
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="17" t="s">
-        <v>844</v>
-      </c>
-      <c r="B469" s="18" t="s">
-        <v>470</v>
-      </c>
-      <c r="C469" s="18" t="s">
-        <v>529</v>
-      </c>
-      <c r="D469" s="19">
-        <v>4301135275</v>
-      </c>
-      <c r="E469" s="18">
-        <v>4607111034380</v>
-      </c>
-      <c r="F469" s="20" t="s">
-        <v>471</v>
+        <v>842</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="D469" s="4">
+        <v>4301131042</v>
+      </c>
+      <c r="E469" s="3">
+        <v>4607111034137</v>
+      </c>
+      <c r="F469" s="5" t="s">
+        <v>906</v>
       </c>
       <c r="G469" s="21"/>
       <c r="H469" s="22" t="s">
@@ -17047,22 +17047,22 @@
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="17" t="s">
-        <v>845</v>
-      </c>
-      <c r="B470" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="C470" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="D470" s="19">
-        <v>4301135277</v>
-      </c>
-      <c r="E470" s="18">
-        <v>4607111034397</v>
-      </c>
-      <c r="F470" s="20" t="s">
-        <v>480</v>
+        <v>843</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="D470" s="4">
+        <v>4301136077</v>
+      </c>
+      <c r="E470" s="3">
+        <v>4607025784319</v>
+      </c>
+      <c r="F470" s="5" t="s">
+        <v>912</v>
       </c>
       <c r="G470" s="21"/>
       <c r="H470" s="22" t="s">
@@ -17071,22 +17071,22 @@
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="17" t="s">
-        <v>846</v>
-      </c>
-      <c r="B471" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="C471" s="3" t="s">
-        <v>893</v>
-      </c>
-      <c r="D471" s="4">
-        <v>4301132179</v>
-      </c>
-      <c r="E471" s="3">
-        <v>4607111035691</v>
-      </c>
-      <c r="F471" s="5" t="s">
-        <v>894</v>
+        <v>844</v>
+      </c>
+      <c r="B471" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="C471" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="D471" s="19">
+        <v>4301135275</v>
+      </c>
+      <c r="E471" s="18">
+        <v>4607111034380</v>
+      </c>
+      <c r="F471" s="20" t="s">
+        <v>471</v>
       </c>
       <c r="G471" s="21"/>
       <c r="H471" s="22" t="s">
@@ -17095,22 +17095,22 @@
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="17" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B472" s="18" t="s">
-        <v>757</v>
+        <v>479</v>
       </c>
       <c r="C472" s="18" t="s">
-        <v>758</v>
+        <v>539</v>
       </c>
       <c r="D472" s="19">
-        <v>4301132185</v>
+        <v>4301135277</v>
       </c>
       <c r="E472" s="18">
-        <v>4607111036537</v>
+        <v>4607111034397</v>
       </c>
       <c r="F472" s="20" t="s">
-        <v>759</v>
+        <v>480</v>
       </c>
       <c r="G472" s="21"/>
       <c r="H472" s="22" t="s">
@@ -17119,22 +17119,22 @@
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="17" t="s">
-        <v>848</v>
-      </c>
-      <c r="B473" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="C473" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="D473" s="19">
-        <v>4301131019</v>
-      </c>
-      <c r="E473" s="18">
-        <v>4640242180427</v>
-      </c>
-      <c r="F473" s="20" t="s">
-        <v>379</v>
+        <v>846</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="C473" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D473" s="4">
+        <v>4301132179</v>
+      </c>
+      <c r="E473" s="3">
+        <v>4607111035691</v>
+      </c>
+      <c r="F473" s="5" t="s">
+        <v>894</v>
       </c>
       <c r="G473" s="21"/>
       <c r="H473" s="22" t="s">
@@ -17143,22 +17143,22 @@
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="17" t="s">
-        <v>849</v>
-      </c>
-      <c r="B474" s="3" t="s">
-        <v>913</v>
-      </c>
-      <c r="C474" s="3" t="s">
-        <v>914</v>
-      </c>
-      <c r="D474" s="4">
-        <v>4301135571</v>
-      </c>
-      <c r="E474" s="3">
-        <v>4607111035028</v>
-      </c>
-      <c r="F474" s="5" t="s">
-        <v>915</v>
+        <v>847</v>
+      </c>
+      <c r="B474" s="18" t="s">
+        <v>757</v>
+      </c>
+      <c r="C474" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="D474" s="19">
+        <v>4301132185</v>
+      </c>
+      <c r="E474" s="18">
+        <v>4607111036537</v>
+      </c>
+      <c r="F474" s="20" t="s">
+        <v>759</v>
       </c>
       <c r="G474" s="21"/>
       <c r="H474" s="22" t="s">
@@ -17167,46 +17167,46 @@
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="17" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B475" s="18" t="s">
-        <v>745</v>
+        <v>377</v>
       </c>
       <c r="C475" s="18" t="s">
-        <v>746</v>
+        <v>378</v>
       </c>
       <c r="D475" s="19">
-        <v>4301135575</v>
+        <v>4301131019</v>
       </c>
       <c r="E475" s="18">
-        <v>4607111035141</v>
+        <v>4640242180427</v>
       </c>
       <c r="F475" s="20" t="s">
-        <v>747</v>
+        <v>379</v>
       </c>
       <c r="G475" s="21"/>
       <c r="H475" s="22" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="476" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="17" t="s">
-        <v>852</v>
-      </c>
-      <c r="B476" s="18" t="s">
-        <v>493</v>
-      </c>
-      <c r="C476" s="18" t="s">
-        <v>494</v>
-      </c>
-      <c r="D476" s="19">
-        <v>4301070960</v>
-      </c>
-      <c r="E476" s="18">
-        <v>4607111038623</v>
-      </c>
-      <c r="F476" s="20" t="s">
-        <v>495</v>
+        <v>849</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="D476" s="4">
+        <v>4301135571</v>
+      </c>
+      <c r="E476" s="3">
+        <v>4607111035028</v>
+      </c>
+      <c r="F476" s="5" t="s">
+        <v>915</v>
       </c>
       <c r="G476" s="21"/>
       <c r="H476" s="22" t="s">
@@ -17215,70 +17215,70 @@
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="17" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B477" s="18" t="s">
-        <v>370</v>
+        <v>745</v>
       </c>
       <c r="C477" s="18" t="s">
-        <v>371</v>
+        <v>746</v>
       </c>
       <c r="D477" s="19">
-        <v>4301070966</v>
+        <v>4301135575</v>
       </c>
       <c r="E477" s="18">
-        <v>4607111038135</v>
+        <v>4607111035141</v>
       </c>
       <c r="F477" s="20" t="s">
-        <v>369</v>
+        <v>747</v>
       </c>
       <c r="G477" s="21"/>
       <c r="H477" s="22" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A478" s="10" t="s">
-        <v>922</v>
-      </c>
-      <c r="B478" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="C478" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="D478" s="4">
-        <v>4301070990</v>
-      </c>
-      <c r="E478" s="3">
-        <v>4607111038494</v>
-      </c>
-      <c r="F478" s="5" t="s">
-        <v>881</v>
-      </c>
-      <c r="G478" s="1"/>
-      <c r="H478" s="16" t="s">
+    <row r="478" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A478" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="B478" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="C478" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="D478" s="19">
+        <v>4301070960</v>
+      </c>
+      <c r="E478" s="18">
+        <v>4607111038623</v>
+      </c>
+      <c r="F478" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="G478" s="21"/>
+      <c r="H478" s="22" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="17" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B479" s="18" t="s">
-        <v>879</v>
+        <v>370</v>
       </c>
       <c r="C479" s="18" t="s">
-        <v>880</v>
+        <v>371</v>
       </c>
       <c r="D479" s="19">
-        <v>4301070990</v>
+        <v>4301070966</v>
       </c>
       <c r="E479" s="18">
-        <v>4607111038494</v>
+        <v>4607111038135</v>
       </c>
       <c r="F479" s="20" t="s">
-        <v>881</v>
+        <v>369</v>
       </c>
       <c r="G479" s="21"/>
       <c r="H479" s="22" t="s">
@@ -17286,47 +17286,47 @@
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A480" s="17" t="s">
-        <v>855</v>
-      </c>
-      <c r="B480" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C480" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D480" s="19">
-        <v>4301070921</v>
-      </c>
-      <c r="E480" s="18">
-        <v>4607111035905</v>
-      </c>
-      <c r="F480" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="G480" s="21"/>
-      <c r="H480" s="22" t="s">
+      <c r="A480" s="10" t="s">
+        <v>922</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="D480" s="4">
+        <v>4301070990</v>
+      </c>
+      <c r="E480" s="3">
+        <v>4607111038494</v>
+      </c>
+      <c r="F480" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="G480" s="1"/>
+      <c r="H480" s="16" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="17" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B481" s="18" t="s">
-        <v>561</v>
+        <v>879</v>
       </c>
       <c r="C481" s="18" t="s">
-        <v>562</v>
+        <v>880</v>
       </c>
       <c r="D481" s="19">
-        <v>4301135311</v>
+        <v>4301070990</v>
       </c>
       <c r="E481" s="18">
-        <v>4607111039095</v>
+        <v>4607111038494</v>
       </c>
       <c r="F481" s="20" t="s">
-        <v>560</v>
+        <v>881</v>
       </c>
       <c r="G481" s="21"/>
       <c r="H481" s="22" t="s">
@@ -17335,22 +17335,22 @@
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="17" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B482" s="18" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="C482" s="18" t="s">
-        <v>533</v>
+        <v>155</v>
       </c>
       <c r="D482" s="19">
-        <v>4301135285</v>
+        <v>4301070921</v>
       </c>
       <c r="E482" s="18">
-        <v>4607111036407</v>
+        <v>4607111035905</v>
       </c>
       <c r="F482" s="20" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="G482" s="21"/>
       <c r="H482" s="22" t="s">
@@ -17359,22 +17359,22 @@
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="17" t="s">
-        <v>730</v>
+        <v>856</v>
       </c>
       <c r="B483" s="18" t="s">
-        <v>728</v>
+        <v>561</v>
       </c>
       <c r="C483" s="18" t="s">
-        <v>729</v>
+        <v>562</v>
       </c>
       <c r="D483" s="19">
-        <v>4301135596</v>
+        <v>4301135311</v>
       </c>
       <c r="E483" s="18">
-        <v>4607111039613</v>
+        <v>4607111039095</v>
       </c>
       <c r="F483" s="20" t="s">
-        <v>730</v>
+        <v>560</v>
       </c>
       <c r="G483" s="21"/>
       <c r="H483" s="22" t="s">
@@ -17383,22 +17383,22 @@
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="17" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B484" s="18" t="s">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="C484" s="18" t="s">
-        <v>128</v>
+        <v>533</v>
       </c>
       <c r="D484" s="19">
-        <v>4301080153</v>
+        <v>4301135285</v>
       </c>
       <c r="E484" s="18">
-        <v>4607111036827</v>
+        <v>4607111036407</v>
       </c>
       <c r="F484" s="20" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="G484" s="21"/>
       <c r="H484" s="22" t="s">
@@ -17407,22 +17407,22 @@
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="17" t="s">
-        <v>859</v>
+        <v>730</v>
       </c>
       <c r="B485" s="18" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="C485" s="18" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="D485" s="19">
-        <v>4301135584</v>
+        <v>4301135596</v>
       </c>
       <c r="E485" s="18">
-        <v>4607111033659</v>
+        <v>4607111039613</v>
       </c>
       <c r="F485" s="20" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="G485" s="21"/>
       <c r="H485" s="22" t="s">
@@ -17431,22 +17431,22 @@
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="17" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B486" s="18" t="s">
-        <v>683</v>
+        <v>127</v>
       </c>
       <c r="C486" s="18" t="s">
-        <v>684</v>
+        <v>128</v>
       </c>
       <c r="D486" s="19">
-        <v>4301071044</v>
+        <v>4301080153</v>
       </c>
       <c r="E486" s="18">
-        <v>4607111039385</v>
+        <v>4607111036827</v>
       </c>
       <c r="F486" s="20" t="s">
-        <v>685</v>
+        <v>129</v>
       </c>
       <c r="G486" s="21"/>
       <c r="H486" s="22" t="s">
@@ -17455,22 +17455,22 @@
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="17" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B487" s="18" t="s">
-        <v>700</v>
+        <v>742</v>
       </c>
       <c r="C487" s="18" t="s">
-        <v>701</v>
+        <v>743</v>
       </c>
       <c r="D487" s="19">
-        <v>4301071031</v>
+        <v>4301135584</v>
       </c>
       <c r="E487" s="18">
-        <v>4607111038982</v>
+        <v>4607111033659</v>
       </c>
       <c r="F487" s="20" t="s">
-        <v>702</v>
+        <v>744</v>
       </c>
       <c r="G487" s="21"/>
       <c r="H487" s="22" t="s">
@@ -17479,22 +17479,22 @@
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="17" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B488" s="18" t="s">
-        <v>181</v>
+        <v>683</v>
       </c>
       <c r="C488" s="18" t="s">
-        <v>182</v>
+        <v>684</v>
       </c>
       <c r="D488" s="19">
-        <v>4301070917</v>
+        <v>4301071044</v>
       </c>
       <c r="E488" s="18">
-        <v>4607111035912</v>
+        <v>4607111039385</v>
       </c>
       <c r="F488" s="20" t="s">
-        <v>183</v>
+        <v>685</v>
       </c>
       <c r="G488" s="21"/>
       <c r="H488" s="22" t="s">
@@ -17503,22 +17503,22 @@
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="17" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B489" s="18" t="s">
-        <v>169</v>
+        <v>700</v>
       </c>
       <c r="C489" s="18" t="s">
-        <v>534</v>
+        <v>701</v>
       </c>
       <c r="D489" s="19">
-        <v>4301136042</v>
+        <v>4301071031</v>
       </c>
       <c r="E489" s="18">
-        <v>4607025784012</v>
+        <v>4607111038982</v>
       </c>
       <c r="F489" s="20" t="s">
-        <v>170</v>
+        <v>702</v>
       </c>
       <c r="G489" s="21"/>
       <c r="H489" s="22" t="s">
@@ -17527,118 +17527,118 @@
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="17" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B490" s="18" t="s">
-        <v>618</v>
+        <v>181</v>
       </c>
       <c r="C490" s="18" t="s">
-        <v>619</v>
+        <v>182</v>
       </c>
       <c r="D490" s="19">
-        <v>4301071046</v>
+        <v>4301070917</v>
       </c>
       <c r="E490" s="18">
-        <v>4607111039354</v>
+        <v>4607111035912</v>
       </c>
       <c r="F490" s="20" t="s">
-        <v>620</v>
+        <v>183</v>
       </c>
       <c r="G490" s="21"/>
       <c r="H490" s="22" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="491" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="17" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B491" s="18" t="s">
-        <v>882</v>
+        <v>169</v>
       </c>
       <c r="C491" s="18" t="s">
-        <v>883</v>
+        <v>534</v>
       </c>
       <c r="D491" s="19">
-        <v>4301070959</v>
+        <v>4301136042</v>
       </c>
       <c r="E491" s="18">
-        <v>4607111038616</v>
+        <v>4607025784012</v>
       </c>
       <c r="F491" s="20" t="s">
-        <v>884</v>
+        <v>170</v>
       </c>
       <c r="G491" s="21"/>
       <c r="H491" s="22" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="492" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="17" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B492" s="18" t="s">
-        <v>885</v>
+        <v>618</v>
       </c>
       <c r="C492" s="18" t="s">
-        <v>886</v>
+        <v>619</v>
       </c>
       <c r="D492" s="19">
-        <v>4301070962</v>
+        <v>4301071046</v>
       </c>
       <c r="E492" s="18">
-        <v>4607111038609</v>
+        <v>4607111039354</v>
       </c>
       <c r="F492" s="20" t="s">
-        <v>887</v>
+        <v>620</v>
       </c>
       <c r="G492" s="21"/>
       <c r="H492" s="22" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A493" s="17" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B493" s="18" t="s">
-        <v>254</v>
+        <v>882</v>
       </c>
       <c r="C493" s="18" t="s">
-        <v>255</v>
+        <v>883</v>
       </c>
       <c r="D493" s="19">
-        <v>4301070948</v>
+        <v>4301070959</v>
       </c>
       <c r="E493" s="18">
-        <v>4607111037022</v>
+        <v>4607111038616</v>
       </c>
       <c r="F493" s="20" t="s">
-        <v>152</v>
+        <v>884</v>
       </c>
       <c r="G493" s="21"/>
       <c r="H493" s="22" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A494" s="17" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B494" s="18" t="s">
-        <v>717</v>
+        <v>885</v>
       </c>
       <c r="C494" s="18" t="s">
-        <v>718</v>
+        <v>886</v>
       </c>
       <c r="D494" s="19">
-        <v>4301135570</v>
+        <v>4301070962</v>
       </c>
       <c r="E494" s="18">
-        <v>4607111035806</v>
+        <v>4607111038609</v>
       </c>
       <c r="F494" s="20" t="s">
-        <v>719</v>
+        <v>887</v>
       </c>
       <c r="G494" s="21"/>
       <c r="H494" s="22" t="s">
@@ -17647,22 +17647,22 @@
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="17" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B495" s="18" t="s">
-        <v>749</v>
+        <v>254</v>
       </c>
       <c r="C495" s="18" t="s">
-        <v>750</v>
+        <v>255</v>
       </c>
       <c r="D495" s="19">
-        <v>4301071032</v>
+        <v>4301070948</v>
       </c>
       <c r="E495" s="18">
-        <v>4607111038999</v>
+        <v>4607111037022</v>
       </c>
       <c r="F495" s="20" t="s">
-        <v>751</v>
+        <v>152</v>
       </c>
       <c r="G495" s="21"/>
       <c r="H495" s="22" t="s">
@@ -17671,22 +17671,22 @@
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="17" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B496" s="18" t="s">
-        <v>687</v>
+        <v>717</v>
       </c>
       <c r="C496" s="18" t="s">
-        <v>688</v>
+        <v>718</v>
       </c>
       <c r="D496" s="19">
-        <v>4301071045</v>
+        <v>4301135570</v>
       </c>
       <c r="E496" s="18">
-        <v>4607111039392</v>
+        <v>4607111035806</v>
       </c>
       <c r="F496" s="20" t="s">
-        <v>689</v>
+        <v>719</v>
       </c>
       <c r="G496" s="21"/>
       <c r="H496" s="22" t="s">
@@ -17695,22 +17695,22 @@
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="17" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B497" s="18" t="s">
-        <v>489</v>
+        <v>749</v>
       </c>
       <c r="C497" s="18" t="s">
-        <v>490</v>
+        <v>750</v>
       </c>
       <c r="D497" s="19">
-        <v>4301070963</v>
+        <v>4301071032</v>
       </c>
       <c r="E497" s="18">
-        <v>4607111038630</v>
+        <v>4607111038999</v>
       </c>
       <c r="F497" s="20" t="s">
-        <v>491</v>
+        <v>751</v>
       </c>
       <c r="G497" s="21"/>
       <c r="H497" s="22" t="s">
@@ -17719,22 +17719,22 @@
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="17" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B498" s="18" t="s">
-        <v>600</v>
+        <v>687</v>
       </c>
       <c r="C498" s="18" t="s">
-        <v>601</v>
+        <v>688</v>
       </c>
       <c r="D498" s="19">
-        <v>4301071054</v>
+        <v>4301071045</v>
       </c>
       <c r="E498" s="18">
-        <v>4607111035639</v>
+        <v>4607111039392</v>
       </c>
       <c r="F498" s="20" t="s">
-        <v>602</v>
+        <v>689</v>
       </c>
       <c r="G498" s="21"/>
       <c r="H498" s="22" t="s">
@@ -17743,30 +17743,78 @@
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="17" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B499" s="18" t="s">
-        <v>342</v>
+        <v>489</v>
       </c>
       <c r="C499" s="18" t="s">
-        <v>570</v>
+        <v>490</v>
       </c>
       <c r="D499" s="19">
-        <v>4301135540</v>
+        <v>4301070963</v>
       </c>
       <c r="E499" s="18">
-        <v>4607111035646</v>
+        <v>4607111038630</v>
       </c>
       <c r="F499" s="20" t="s">
-        <v>571</v>
+        <v>491</v>
       </c>
       <c r="G499" s="21"/>
       <c r="H499" s="22" t="s">
         <v>874</v>
       </c>
     </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A500" s="17" t="s">
+        <v>872</v>
+      </c>
+      <c r="B500" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="C500" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="D500" s="19">
+        <v>4301071054</v>
+      </c>
+      <c r="E500" s="18">
+        <v>4607111035639</v>
+      </c>
+      <c r="F500" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="G500" s="21"/>
+      <c r="H500" s="22" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A501" s="17" t="s">
+        <v>873</v>
+      </c>
+      <c r="B501" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="C501" s="18" t="s">
+        <v>570</v>
+      </c>
+      <c r="D501" s="19">
+        <v>4301135540</v>
+      </c>
+      <c r="E501" s="18">
+        <v>4607111035646</v>
+      </c>
+      <c r="F501" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="G501" s="21"/>
+      <c r="H501" s="22" t="s">
+        <v>874</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F499" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+  <autoFilter ref="A1:F501" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F245">
       <sortCondition ref="A1:A176"/>
     </sortState>

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BA2418-D9A8-46A7-9C71-9690E87EF87D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0F6552-B85D-483A-88F6-302DAB572352}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6112,7 +6112,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16713,19 +16713,19 @@
       <c r="A456" s="17" t="s">
         <v>829</v>
       </c>
-      <c r="B456" s="18" t="s">
+      <c r="B456" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="C456" s="18" t="s">
+      <c r="C456" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="D456" s="19">
+      <c r="D456" s="4">
         <v>4301135394</v>
       </c>
-      <c r="E456" s="18">
+      <c r="E456" s="3">
         <v>4640242181561</v>
       </c>
-      <c r="F456" s="20" t="s">
+      <c r="F456" s="5" t="s">
         <v>559</v>
       </c>
       <c r="G456" s="21"/>

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0F6552-B85D-483A-88F6-302DAB572352}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAAF956-B39D-4370-AED5-AE8CDA5723E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6112,7 +6112,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6808,7 +6808,7 @@
         <v>534</v>
       </c>
       <c r="D29" s="4">
-        <v>4301136042</v>
+        <v>4301136070</v>
       </c>
       <c r="E29" s="3">
         <v>4607025784012</v>
@@ -6832,7 +6832,7 @@
         <v>534</v>
       </c>
       <c r="D30" s="4">
-        <v>4301136042</v>
+        <v>4301136070</v>
       </c>
       <c r="E30" s="3">
         <v>4607025784012</v>
@@ -6856,7 +6856,7 @@
         <v>534</v>
       </c>
       <c r="D31" s="4">
-        <v>4301136042</v>
+        <v>4301136070</v>
       </c>
       <c r="E31" s="3">
         <v>4607025784012</v>
@@ -8201,7 +8201,7 @@
         <v>558</v>
       </c>
       <c r="D87" s="4">
-        <v>4301135394</v>
+        <v>4301135518</v>
       </c>
       <c r="E87" s="3">
         <v>4640242181561</v>
@@ -8227,7 +8227,7 @@
         <v>558</v>
       </c>
       <c r="D88" s="4">
-        <v>4301135394</v>
+        <v>4301135518</v>
       </c>
       <c r="E88" s="3">
         <v>4640242181561</v>
@@ -8253,7 +8253,7 @@
         <v>558</v>
       </c>
       <c r="D89" s="4">
-        <v>4301135394</v>
+        <v>4301135518</v>
       </c>
       <c r="E89" s="3">
         <v>4640242181561</v>
@@ -8279,7 +8279,7 @@
         <v>558</v>
       </c>
       <c r="D90" s="4">
-        <v>4301135394</v>
+        <v>4301135518</v>
       </c>
       <c r="E90" s="3">
         <v>4640242181561</v>
@@ -8305,7 +8305,7 @@
         <v>558</v>
       </c>
       <c r="D91" s="4">
-        <v>4301135394</v>
+        <v>4301135518</v>
       </c>
       <c r="E91" s="3">
         <v>4640242181561</v>
@@ -8331,7 +8331,7 @@
         <v>558</v>
       </c>
       <c r="D92" s="4">
-        <v>4301135394</v>
+        <v>4301135518</v>
       </c>
       <c r="E92" s="3">
         <v>4640242181561</v>
@@ -8354,7 +8354,7 @@
         <v>558</v>
       </c>
       <c r="D93" s="4">
-        <v>4301135394</v>
+        <v>4301135518</v>
       </c>
       <c r="E93" s="3">
         <v>4640242181561</v>
@@ -8377,7 +8377,7 @@
         <v>558</v>
       </c>
       <c r="D94" s="4">
-        <v>4301135394</v>
+        <v>4301135518</v>
       </c>
       <c r="E94" s="3">
         <v>4640242181561</v>
@@ -11207,7 +11207,7 @@
         <v>764</v>
       </c>
       <c r="D212" s="4">
-        <v>4301135534</v>
+        <v>4301135550</v>
       </c>
       <c r="E212" s="3">
         <v>4607111034199</v>
@@ -11231,7 +11231,7 @@
         <v>764</v>
       </c>
       <c r="D213" s="4">
-        <v>4301135534</v>
+        <v>4301135550</v>
       </c>
       <c r="E213" s="3">
         <v>4607111034199</v>
@@ -11255,7 +11255,7 @@
         <v>764</v>
       </c>
       <c r="D214" s="4">
-        <v>4301135534</v>
+        <v>4301135550</v>
       </c>
       <c r="E214" s="3">
         <v>4607111034199</v>
@@ -11279,7 +11279,7 @@
         <v>764</v>
       </c>
       <c r="D215" s="4">
-        <v>4301135534</v>
+        <v>4301135550</v>
       </c>
       <c r="E215" s="3">
         <v>4607111034199</v>
@@ -11806,7 +11806,7 @@
         <v>300</v>
       </c>
       <c r="D237" s="4">
-        <v>4301136028</v>
+        <v>4301136051</v>
       </c>
       <c r="E237" s="3">
         <v>4640242180304</v>
@@ -11830,7 +11830,7 @@
         <v>300</v>
       </c>
       <c r="D238" s="4">
-        <v>4301136028</v>
+        <v>4301136051</v>
       </c>
       <c r="E238" s="3">
         <v>4640242180304</v>
@@ -11854,7 +11854,7 @@
         <v>300</v>
       </c>
       <c r="D239" s="4">
-        <v>4301136028</v>
+        <v>4301136051</v>
       </c>
       <c r="E239" s="3">
         <v>4640242180304</v>
@@ -11878,7 +11878,7 @@
         <v>300</v>
       </c>
       <c r="D240" s="4">
-        <v>4301136028</v>
+        <v>4301136051</v>
       </c>
       <c r="E240" s="3">
         <v>4640242180304</v>
@@ -11902,7 +11902,7 @@
         <v>300</v>
       </c>
       <c r="D241" s="4">
-        <v>4301136028</v>
+        <v>4301136051</v>
       </c>
       <c r="E241" s="3">
         <v>4640242180304</v>
@@ -11926,7 +11926,7 @@
         <v>303</v>
       </c>
       <c r="D242" s="4">
-        <v>4301136026</v>
+        <v>4301136053</v>
       </c>
       <c r="E242" s="3">
         <v>4640242180236</v>
@@ -11950,7 +11950,7 @@
         <v>303</v>
       </c>
       <c r="D243" s="4">
-        <v>4301136026</v>
+        <v>4301136053</v>
       </c>
       <c r="E243" s="3">
         <v>4640242180236</v>
@@ -11974,7 +11974,7 @@
         <v>303</v>
       </c>
       <c r="D244" s="4">
-        <v>4301136026</v>
+        <v>4301136053</v>
       </c>
       <c r="E244" s="3">
         <v>4640242180236</v>
@@ -11998,7 +11998,7 @@
         <v>303</v>
       </c>
       <c r="D245" s="4">
-        <v>4301136026</v>
+        <v>4301136053</v>
       </c>
       <c r="E245" s="3">
         <v>4640242180236</v>
@@ -12166,7 +12166,7 @@
         <v>540</v>
       </c>
       <c r="D252" s="4">
-        <v>4301136039</v>
+        <v>4301136066</v>
       </c>
       <c r="E252" s="3">
         <v>4607111035370</v>
@@ -12190,7 +12190,7 @@
         <v>540</v>
       </c>
       <c r="D253" s="4">
-        <v>4301136039</v>
+        <v>4301136066</v>
       </c>
       <c r="E253" s="3">
         <v>4607111035370</v>
@@ -12214,7 +12214,7 @@
         <v>540</v>
       </c>
       <c r="D254" s="4">
-        <v>4301136039</v>
+        <v>4301136066</v>
       </c>
       <c r="E254" s="3">
         <v>4607111035370</v>
@@ -14240,7 +14240,7 @@
         <v>562</v>
       </c>
       <c r="D342" s="4">
-        <v>4301135311</v>
+        <v>4301135549</v>
       </c>
       <c r="E342" s="3">
         <v>4607111039095</v>
@@ -14261,7 +14261,7 @@
         <v>562</v>
       </c>
       <c r="D343" s="4">
-        <v>4301135311</v>
+        <v>4301135549</v>
       </c>
       <c r="E343" s="3">
         <v>4607111039095</v>
@@ -14282,7 +14282,7 @@
         <v>562</v>
       </c>
       <c r="D344" s="4">
-        <v>4301135311</v>
+        <v>4301135549</v>
       </c>
       <c r="E344" s="3">
         <v>4607111039095</v>
@@ -16473,19 +16473,19 @@
       <c r="A446" s="17" t="s">
         <v>819</v>
       </c>
-      <c r="B446" s="18" t="s">
+      <c r="B446" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="C446" s="18" t="s">
+      <c r="C446" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D446" s="19">
-        <v>4301136026</v>
-      </c>
-      <c r="E446" s="18">
+      <c r="D446" s="4">
+        <v>4301136053</v>
+      </c>
+      <c r="E446" s="3">
         <v>4640242180236</v>
       </c>
-      <c r="F446" s="20" t="s">
+      <c r="F446" s="5" t="s">
         <v>304</v>
       </c>
       <c r="G446" s="21"/>
@@ -16720,7 +16720,7 @@
         <v>558</v>
       </c>
       <c r="D456" s="4">
-        <v>4301135394</v>
+        <v>4301135518</v>
       </c>
       <c r="E456" s="3">
         <v>4640242181561</v>
@@ -16809,19 +16809,19 @@
       <c r="A460" s="17" t="s">
         <v>833</v>
       </c>
-      <c r="B460" s="18" t="s">
+      <c r="B460" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C460" s="18" t="s">
+      <c r="C460" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D460" s="19">
-        <v>4301136028</v>
-      </c>
-      <c r="E460" s="18">
+      <c r="D460" s="4">
+        <v>4301136051</v>
+      </c>
+      <c r="E460" s="3">
         <v>4640242180304</v>
       </c>
-      <c r="F460" s="20" t="s">
+      <c r="F460" s="5" t="s">
         <v>301</v>
       </c>
       <c r="G460" s="21"/>
@@ -16864,7 +16864,7 @@
         <v>764</v>
       </c>
       <c r="D462" s="4">
-        <v>4301135534</v>
+        <v>4301135550</v>
       </c>
       <c r="E462" s="3">
         <v>4607111034199</v>
@@ -17361,19 +17361,19 @@
       <c r="A483" s="17" t="s">
         <v>856</v>
       </c>
-      <c r="B483" s="18" t="s">
+      <c r="B483" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="C483" s="18" t="s">
+      <c r="C483" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="D483" s="19">
-        <v>4301135311</v>
-      </c>
-      <c r="E483" s="18">
+      <c r="D483" s="4">
+        <v>4301135549</v>
+      </c>
+      <c r="E483" s="3">
         <v>4607111039095</v>
       </c>
-      <c r="F483" s="20" t="s">
+      <c r="F483" s="5" t="s">
         <v>560</v>
       </c>
       <c r="G483" s="21"/>
@@ -17553,19 +17553,19 @@
       <c r="A491" s="17" t="s">
         <v>863</v>
       </c>
-      <c r="B491" s="18" t="s">
+      <c r="B491" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C491" s="18" t="s">
+      <c r="C491" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="D491" s="19">
-        <v>4301136042</v>
-      </c>
-      <c r="E491" s="18">
+      <c r="D491" s="4">
+        <v>4301136070</v>
+      </c>
+      <c r="E491" s="3">
         <v>4607025784012</v>
       </c>
-      <c r="F491" s="20" t="s">
+      <c r="F491" s="5" t="s">
         <v>170</v>
       </c>
       <c r="G491" s="21"/>

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DEADFB-4609-44BE-84AE-B0C94592B9DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1446C730-CCEA-467C-9A37-0F56DF54939A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,8 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$511</definedName>
-    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$450</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$516</definedName>
+    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$455</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="955">
   <si>
     <t>1С</t>
   </si>
@@ -2270,15 +2270,6 @@
     <t>Снеки «Бельмеши сочные с мясом» Фикс.вес 0,3 Пакет ТМ «Горячая штучка»</t>
   </si>
   <si>
-    <t>SU003594</t>
-  </si>
-  <si>
-    <t>P004599</t>
-  </si>
-  <si>
-    <t>Снеки «Чебупели с мясом без свинины» Фикс.вес 0,3 Пакет ТМ «Горячая штучка»</t>
-  </si>
-  <si>
     <t>Пельмени Бигбули #МЕГАВКУСИЩЕ с сочной грудинкой ТМ Горячая штучка 0,4 кг. ПОКОМ</t>
   </si>
   <si>
@@ -2877,6 +2868,42 @@
   </si>
   <si>
     <t>Пельмени «Зареченские» Весовые Сфера ТМ «No name» 5 кг</t>
+  </si>
+  <si>
+    <t>Снеки «Готовые чебупели с мясом» Фикс.вес 0,24 ТМ «Горячая штучка»</t>
+  </si>
+  <si>
+    <t>SU003892</t>
+  </si>
+  <si>
+    <t>P004974</t>
+  </si>
+  <si>
+    <t>SU002426</t>
+  </si>
+  <si>
+    <t>P004625</t>
+  </si>
+  <si>
+    <t>Снеки «Чебупели с мясом» ф/в 0,3 ТМ «Горячая штучка»</t>
+  </si>
+  <si>
+    <t>Пельмени «Мясные с говядиной» Фикс.вес 1 сфера ТМ «Стародворье»</t>
+  </si>
+  <si>
+    <t>SU003935</t>
+  </si>
+  <si>
+    <t>P005048</t>
+  </si>
+  <si>
+    <t>Наггетсы «Хрустящие с сочной курочкой» Фикс.вес 0,23 ТМ «Стародворье»</t>
+  </si>
+  <si>
+    <t>SU003930</t>
+  </si>
+  <si>
+    <t>P005043</t>
   </si>
 </sst>
 </file>
@@ -6132,7 +6159,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H511"/>
+  <dimension ref="A1:H516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6466,19 +6493,19 @@
         <v>221</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>743</v>
+        <v>946</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>744</v>
+        <v>947</v>
       </c>
       <c r="D14" s="4">
-        <v>4301135575</v>
+        <v>4301135595</v>
       </c>
       <c r="E14" s="3">
         <v>4607111035141</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>745</v>
+        <v>948</v>
       </c>
       <c r="G14" s="1">
         <f>VLOOKUP(E14,[1]Лист1!$D:$M,10,0)</f>
@@ -6490,19 +6517,19 @@
         <v>417</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>743</v>
+        <v>946</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>744</v>
+        <v>947</v>
       </c>
       <c r="D15" s="4">
-        <v>4301135575</v>
+        <v>4301135595</v>
       </c>
       <c r="E15" s="3">
         <v>4607111035141</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>745</v>
+        <v>948</v>
       </c>
       <c r="G15" s="1">
         <f>VLOOKUP(E15,[1]Лист1!$D:$M,10,0)</f>
@@ -6514,19 +6541,19 @@
         <v>423</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>743</v>
+        <v>946</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>744</v>
+        <v>947</v>
       </c>
       <c r="D16" s="4">
-        <v>4301135575</v>
+        <v>4301135595</v>
       </c>
       <c r="E16" s="3">
         <v>4607111035141</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>745</v>
+        <v>948</v>
       </c>
       <c r="G16" s="1">
         <f>VLOOKUP(E16,[1]Лист1!$D:$M,10,0)</f>
@@ -6538,19 +6565,19 @@
         <v>192</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>743</v>
+        <v>946</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>744</v>
+        <v>947</v>
       </c>
       <c r="D17" s="4">
-        <v>4301135575</v>
+        <v>4301135595</v>
       </c>
       <c r="E17" s="3">
         <v>4607111035141</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>745</v>
+        <v>948</v>
       </c>
       <c r="G17" s="1">
         <f>VLOOKUP(E17,[1]Лист1!$D:$M,10,0)</f>
@@ -6730,19 +6757,19 @@
         <v>405</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D25" s="4">
-        <v>4301136077</v>
+        <v>4301136079</v>
       </c>
       <c r="E25" s="3">
         <v>4607025784319</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="G25" s="1">
         <f>VLOOKUP(E25,[1]Лист1!$D:$M,10,0)</f>
@@ -6754,19 +6781,19 @@
         <v>426</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D26" s="4">
-        <v>4301136077</v>
+        <v>4301136079</v>
       </c>
       <c r="E26" s="3">
         <v>4607025784319</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="G26" s="1">
         <f>VLOOKUP(E26,[1]Лист1!$D:$M,10,0)</f>
@@ -6778,19 +6805,19 @@
         <v>512</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D27" s="4">
-        <v>4301136077</v>
+        <v>4301136079</v>
       </c>
       <c r="E27" s="3">
         <v>4607025784319</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="G27" s="1">
         <f>VLOOKUP(E27,[1]Лист1!$D:$M,10,0)</f>
@@ -6802,19 +6829,19 @@
         <v>195</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D28" s="4">
-        <v>4301136077</v>
+        <v>4301136079</v>
       </c>
       <c r="E28" s="3">
         <v>4607025784319</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="G28" s="1">
         <f>VLOOKUP(E28,[1]Лист1!$D:$M,10,0)</f>
@@ -8075,10 +8102,10 @@
         <v>119</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D81" s="4">
         <v>4301131046</v>
@@ -8087,7 +8114,7 @@
         <v>4607111034137</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="G81" s="1">
         <f>VLOOKUP(E81,[1]Лист1!$D:$M,10,0)</f>
@@ -8099,10 +8126,10 @@
         <v>124</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D82" s="4">
         <v>4301131046</v>
@@ -8111,7 +8138,7 @@
         <v>4607111034137</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="G82" s="1">
         <f>VLOOKUP(E82,[1]Лист1!$D:$M,10,0)</f>
@@ -8123,10 +8150,10 @@
         <v>200</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D83" s="4">
         <v>4301131046</v>
@@ -8135,7 +8162,7 @@
         <v>4607111034137</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="G83" s="1">
         <f>VLOOKUP(E83,[1]Лист1!$D:$M,10,0)</f>
@@ -8147,10 +8174,10 @@
         <v>120</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D84" s="4">
         <v>4301131047</v>
@@ -8159,7 +8186,7 @@
         <v>4607111034120</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="G84" s="1">
         <f>VLOOKUP(E84,[1]Лист1!$D:$M,10,0)</f>
@@ -8171,10 +8198,10 @@
         <v>125</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D85" s="4">
         <v>4301131047</v>
@@ -8183,7 +8210,7 @@
         <v>4607111034120</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="G85" s="1">
         <f>VLOOKUP(E85,[1]Лист1!$D:$M,10,0)</f>
@@ -8195,10 +8222,10 @@
         <v>201</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D86" s="4">
         <v>4301131047</v>
@@ -8207,7 +8234,7 @@
         <v>4607111034120</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="G86" s="1">
         <f>VLOOKUP(E86,[1]Лист1!$D:$M,10,0)</f>
@@ -8418,10 +8445,10 @@
         <v>222</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D95" s="4">
         <v>4301132186</v>
@@ -8430,7 +8457,7 @@
         <v>4607111036520</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G95" s="1">
         <v>180</v>
@@ -8441,10 +8468,10 @@
         <v>315</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D96" s="4">
         <v>4301132186</v>
@@ -8453,7 +8480,7 @@
         <v>4607111036520</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G96" s="1">
         <v>180</v>
@@ -8464,10 +8491,10 @@
         <v>449</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D97" s="4">
         <v>4301132186</v>
@@ -8476,7 +8503,7 @@
         <v>4607111036520</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G97" s="1">
         <v>180</v>
@@ -8487,10 +8514,10 @@
         <v>203</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D98" s="4">
         <v>4301132186</v>
@@ -8499,7 +8526,7 @@
         <v>4607111036520</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G98" s="1">
         <v>180</v>
@@ -8510,10 +8537,10 @@
         <v>432</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D99" s="4">
         <v>4301132184</v>
@@ -8522,7 +8549,7 @@
         <v>4607111036599</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="G99" s="1">
         <f>VLOOKUP(E99,[1]Лист1!$D:$M,10,0)</f>
@@ -8534,10 +8561,10 @@
         <v>223</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D100" s="4">
         <v>4301132184</v>
@@ -8546,7 +8573,7 @@
         <v>4607111036599</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="G100" s="1">
         <f>VLOOKUP(E100,[1]Лист1!$D:$M,10,0)</f>
@@ -8558,10 +8585,10 @@
         <v>204</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D101" s="4">
         <v>4301132184</v>
@@ -8570,7 +8597,7 @@
         <v>4607111036599</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="G101" s="1">
         <f>VLOOKUP(E101,[1]Лист1!$D:$M,10,0)</f>
@@ -8582,10 +8609,10 @@
         <v>407</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D102" s="4">
         <v>4301132188</v>
@@ -8594,7 +8621,7 @@
         <v>4607111036605</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="G102" s="1">
         <f>VLOOKUP(E102,[1]Лист1!$D:$M,10,0)</f>
@@ -8606,10 +8633,10 @@
         <v>224</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D103" s="4">
         <v>4301132188</v>
@@ -8618,7 +8645,7 @@
         <v>4607111036605</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="G103" s="1">
         <f>VLOOKUP(E103,[1]Лист1!$D:$M,10,0)</f>
@@ -8630,10 +8657,10 @@
         <v>205</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D104" s="4">
         <v>4301132188</v>
@@ -8642,7 +8669,7 @@
         <v>4607111036605</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="G104" s="1">
         <f>VLOOKUP(E104,[1]Лист1!$D:$M,10,0)</f>
@@ -8654,10 +8681,10 @@
         <v>206</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D105" s="4">
         <v>4301132179</v>
@@ -8666,7 +8693,7 @@
         <v>4607111035691</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="G105" s="1">
         <f>VLOOKUP(E105,[1]Лист1!$D:$M,10,0)</f>
@@ -8678,10 +8705,10 @@
         <v>98</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D106" s="4">
         <v>4301132179</v>
@@ -8690,7 +8717,7 @@
         <v>4607111035691</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="G106" s="1">
         <f>VLOOKUP(E106,[1]Лист1!$D:$M,10,0)</f>
@@ -8702,10 +8729,10 @@
         <v>655</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D107" s="4">
         <v>4301132179</v>
@@ -8714,7 +8741,7 @@
         <v>4607111035691</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="G107" s="1">
         <f>VLOOKUP(E107,[1]Лист1!$D:$M,10,0)</f>
@@ -8726,10 +8753,10 @@
         <v>77</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D108" s="4">
         <v>4301132179</v>
@@ -8738,7 +8765,7 @@
         <v>4607111035691</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="G108" s="1">
         <f>VLOOKUP(E108,[1]Лист1!$D:$M,10,0)</f>
@@ -8750,10 +8777,10 @@
         <v>99</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D109" s="4">
         <v>4301132190</v>
@@ -8762,7 +8789,7 @@
         <v>4607111036537</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="G109" s="1">
         <f>VLOOKUP(E109,[1]Лист1!$D:$M,10,0)</f>
@@ -8774,10 +8801,10 @@
         <v>708</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D110" s="4">
         <v>4301132190</v>
@@ -8786,7 +8813,7 @@
         <v>4607111036537</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="G110" s="1">
         <f>VLOOKUP(E110,[1]Лист1!$D:$M,10,0)</f>
@@ -8798,10 +8825,10 @@
         <v>78</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D111" s="4">
         <v>4301132190</v>
@@ -8810,7 +8837,7 @@
         <v>4607111036537</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="G111" s="1">
         <f>VLOOKUP(E111,[1]Лист1!$D:$M,10,0)</f>
@@ -8822,10 +8849,10 @@
         <v>663</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D112" s="4">
         <v>4301132182</v>
@@ -8834,7 +8861,7 @@
         <v>4607111035721</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="G112" s="1">
         <f>VLOOKUP(E112,[1]Лист1!$D:$M,10,0)</f>
@@ -8846,10 +8873,10 @@
         <v>720</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D113" s="4">
         <v>4301132182</v>
@@ -8858,7 +8885,7 @@
         <v>4607111035721</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="G113" s="1">
         <f>VLOOKUP(E113,[1]Лист1!$D:$M,10,0)</f>
@@ -8870,10 +8897,10 @@
         <v>79</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D114" s="4">
         <v>4301132182</v>
@@ -8882,7 +8909,7 @@
         <v>4607111035721</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="G114" s="1">
         <f>VLOOKUP(E114,[1]Лист1!$D:$M,10,0)</f>
@@ -8891,13 +8918,13 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D115" s="4">
         <v>4301132182</v>
@@ -8906,11 +8933,11 @@
         <v>4607111035721</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="G115" s="21"/>
       <c r="H115" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -10640,7 +10667,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>154</v>
@@ -10808,7 +10835,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>112</v>
@@ -11225,10 +11252,10 @@
         <v>189</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D212" s="4">
         <v>4301135550</v>
@@ -11237,7 +11264,7 @@
         <v>4607111034199</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="G212" s="1">
         <f>VLOOKUP(E212,[1]Лист1!$D:$M,10,0)</f>
@@ -11249,10 +11276,10 @@
         <v>115</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D213" s="4">
         <v>4301135550</v>
@@ -11261,7 +11288,7 @@
         <v>4607111034199</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="G213" s="1">
         <f>VLOOKUP(E213,[1]Лист1!$D:$M,10,0)</f>
@@ -11270,13 +11297,13 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D214" s="4">
         <v>4301135550</v>
@@ -11285,7 +11312,7 @@
         <v>4607111034199</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="G214" s="1">
         <f>VLOOKUP(E214,[1]Лист1!$D:$M,10,0)</f>
@@ -11297,10 +11324,10 @@
         <v>92</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D215" s="4">
         <v>4301135550</v>
@@ -11309,7 +11336,7 @@
         <v>4607111034199</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="G215" s="1">
         <f>VLOOKUP(E215,[1]Лист1!$D:$M,10,0)</f>
@@ -11509,7 +11536,7 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="10" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>185</v>
@@ -11653,7 +11680,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>667</v>
@@ -11749,7 +11776,7 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>664</v>
@@ -12523,7 +12550,7 @@
         <v>324</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="D266" s="4">
         <v>4301071062</v>
@@ -12532,7 +12559,7 @@
         <v>4607111036384</v>
       </c>
       <c r="F266" s="5" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="G266" s="1">
         <f>VLOOKUP(E266,[1]Лист1!$D:$M,10,0)</f>
@@ -12547,7 +12574,7 @@
         <v>324</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="D267" s="4">
         <v>4301071062</v>
@@ -12556,7 +12583,7 @@
         <v>4607111036384</v>
       </c>
       <c r="F267" s="5" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="G267" s="1">
         <f>VLOOKUP(E267,[1]Лист1!$D:$M,10,0)</f>
@@ -12568,10 +12595,10 @@
         <v>408</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D268" s="4">
         <v>4301135571</v>
@@ -12580,7 +12607,7 @@
         <v>4607111035028</v>
       </c>
       <c r="F268" s="5" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="G268" s="1">
         <f>VLOOKUP(E268,[1]Лист1!$D:$M,10,0)</f>
@@ -12592,10 +12619,10 @@
         <v>328</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D269" s="4">
         <v>4301135571</v>
@@ -12604,7 +12631,7 @@
         <v>4607111035028</v>
       </c>
       <c r="F269" s="5" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="G269" s="1">
         <f>VLOOKUP(E269,[1]Лист1!$D:$M,10,0)</f>
@@ -12613,13 +12640,13 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
-        <v>327</v>
+        <v>908</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D270" s="4">
         <v>4301135571</v>
@@ -12628,7 +12655,7 @@
         <v>4607111035028</v>
       </c>
       <c r="F270" s="5" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="G270" s="1">
         <f>VLOOKUP(E270,[1]Лист1!$D:$M,10,0)</f>
@@ -12637,22 +12664,22 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
-        <v>428</v>
+        <v>327</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>333</v>
+        <v>906</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>334</v>
+        <v>907</v>
       </c>
       <c r="D271" s="4">
-        <v>4301130006</v>
+        <v>4301135571</v>
       </c>
       <c r="E271" s="3">
-        <v>4607111034670</v>
+        <v>4607111035028</v>
       </c>
       <c r="F271" s="5" t="s">
-        <v>335</v>
+        <v>908</v>
       </c>
       <c r="G271" s="1">
         <f>VLOOKUP(E271,[1]Лист1!$D:$M,10,0)</f>
@@ -12661,7 +12688,7 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>333</v>
@@ -12685,7 +12712,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
-        <v>332</v>
+        <v>460</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>333</v>
@@ -12709,22 +12736,22 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
-        <v>430</v>
+        <v>332</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>598</v>
+        <v>333</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>599</v>
+        <v>334</v>
       </c>
       <c r="D274" s="4">
-        <v>4301071054</v>
+        <v>4301130006</v>
       </c>
       <c r="E274" s="3">
-        <v>4607111035639</v>
+        <v>4607111034670</v>
       </c>
       <c r="F274" s="5" t="s">
-        <v>600</v>
+        <v>335</v>
       </c>
       <c r="G274" s="1">
         <f>VLOOKUP(E274,[1]Лист1!$D:$M,10,0)</f>
@@ -12733,7 +12760,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
-        <v>338</v>
+        <v>430</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>598</v>
@@ -12757,22 +12784,22 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
-        <v>431</v>
+        <v>338</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>340</v>
+        <v>598</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="D276" s="4">
-        <v>4301135540</v>
+        <v>4301071054</v>
       </c>
       <c r="E276" s="3">
-        <v>4607111035646</v>
+        <v>4607111035639</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="G276" s="1">
         <f>VLOOKUP(E276,[1]Лист1!$D:$M,10,0)</f>
@@ -12781,7 +12808,7 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
-        <v>339</v>
+        <v>431</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>340</v>
@@ -12805,31 +12832,31 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
-        <v>652</v>
+        <v>339</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>353</v>
+        <v>568</v>
       </c>
       <c r="D278" s="4">
-        <v>4301080154</v>
+        <v>4301135540</v>
       </c>
       <c r="E278" s="3">
-        <v>4607111036834</v>
+        <v>4607111035646</v>
       </c>
       <c r="F278" s="5" t="s">
-        <v>354</v>
+        <v>569</v>
       </c>
       <c r="G278" s="1">
         <f>VLOOKUP(E278,[1]Лист1!$D:$M,10,0)</f>
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
-        <v>354</v>
+        <v>652</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>352</v>
@@ -12853,7 +12880,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>352</v>
@@ -12877,22 +12904,22 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D281" s="4">
-        <v>4301070941</v>
+        <v>4301080154</v>
       </c>
       <c r="E281" s="3">
-        <v>4607111036162</v>
+        <v>4607111036834</v>
       </c>
       <c r="F281" s="5" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G281" s="1">
         <f>VLOOKUP(E281,[1]Лист1!$D:$M,10,0)</f>
@@ -12901,46 +12928,46 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D282" s="4">
-        <v>4301070826</v>
+        <v>4301070941</v>
       </c>
       <c r="E282" s="3">
-        <v>4607111035752</v>
+        <v>4607111036162</v>
       </c>
       <c r="F282" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G282" s="1">
         <f>VLOOKUP(E282,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D283" s="4">
-        <v>4301070966</v>
+        <v>4301070826</v>
       </c>
       <c r="E283" s="3">
-        <v>4607111038135</v>
+        <v>4607111035752</v>
       </c>
       <c r="F283" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G283" s="1">
         <f>VLOOKUP(E283,[1]Лист1!$D:$M,10,0)</f>
@@ -12949,7 +12976,7 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>368</v>
@@ -12973,7 +13000,7 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
-        <v>367</v>
+        <v>451</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>368</v>
@@ -12997,55 +13024,55 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D286" s="4">
-        <v>4301070911</v>
+        <v>4301070966</v>
       </c>
       <c r="E286" s="3">
-        <v>4607111036278</v>
+        <v>4607111038135</v>
       </c>
       <c r="F286" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G286" s="1">
         <f>VLOOKUP(E286,[1]Лист1!$D:$M,10,0)</f>
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D287" s="4">
-        <v>4301131019</v>
+        <v>4301070911</v>
       </c>
       <c r="E287" s="3">
-        <v>4640242180427</v>
+        <v>4607111036278</v>
       </c>
       <c r="F287" s="5" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="G287" s="1">
         <f>VLOOKUP(E287,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>165</v>
+        <v>393</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>375</v>
@@ -13069,7 +13096,7 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
-        <v>377</v>
+        <v>165</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>375</v>
@@ -13093,7 +13120,7 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>375</v>
@@ -13117,22 +13144,22 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
-        <v>425</v>
+        <v>374</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>803</v>
+        <v>375</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>804</v>
+        <v>376</v>
       </c>
       <c r="D291" s="4">
-        <v>4301132170</v>
+        <v>4301131019</v>
       </c>
       <c r="E291" s="3">
-        <v>4607111038487</v>
+        <v>4640242180427</v>
       </c>
       <c r="F291" s="5" t="s">
-        <v>805</v>
+        <v>377</v>
       </c>
       <c r="G291" s="1">
         <f>VLOOKUP(E291,[1]Лист1!$D:$M,10,0)</f>
@@ -13141,13 +13168,13 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D292" s="4">
         <v>4301132170</v>
@@ -13156,7 +13183,7 @@
         <v>4607111038487</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G292" s="1">
         <f>VLOOKUP(E292,[1]Лист1!$D:$M,10,0)</f>
@@ -13165,13 +13192,13 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D293" s="4">
         <v>4301132170</v>
@@ -13180,7 +13207,7 @@
         <v>4607111038487</v>
       </c>
       <c r="F293" s="5" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G293" s="1">
         <f>VLOOKUP(E293,[1]Лист1!$D:$M,10,0)</f>
@@ -13189,13 +13216,13 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
-        <v>424</v>
+        <v>456</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D294" s="4">
         <v>4301132170</v>
@@ -13204,7 +13231,7 @@
         <v>4607111038487</v>
       </c>
       <c r="F294" s="5" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G294" s="1">
         <f>VLOOKUP(E294,[1]Лист1!$D:$M,10,0)</f>
@@ -13213,22 +13240,22 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>435</v>
+        <v>800</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>436</v>
+        <v>801</v>
       </c>
       <c r="D295" s="4">
-        <v>4301070884</v>
+        <v>4301132170</v>
       </c>
       <c r="E295" s="3">
-        <v>4607111036315</v>
+        <v>4607111038487</v>
       </c>
       <c r="F295" s="5" t="s">
-        <v>437</v>
+        <v>802</v>
       </c>
       <c r="G295" s="1">
         <f>VLOOKUP(E295,[1]Лист1!$D:$M,10,0)</f>
@@ -13237,7 +13264,7 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>435</v>
@@ -13261,22 +13288,22 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D297" s="4">
-        <v>4301133002</v>
+        <v>4301070884</v>
       </c>
       <c r="E297" s="3">
-        <v>4607111035783</v>
+        <v>4607111036315</v>
       </c>
       <c r="F297" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G297" s="1">
         <f>VLOOKUP(E297,[1]Лист1!$D:$M,10,0)</f>
@@ -13285,22 +13312,22 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D298" s="4">
-        <v>4301070958</v>
+        <v>4301133002</v>
       </c>
       <c r="E298" s="3">
-        <v>4607111038098</v>
+        <v>4607111035783</v>
       </c>
       <c r="F298" s="5" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G298" s="1">
         <f>VLOOKUP(E298,[1]Лист1!$D:$M,10,0)</f>
@@ -13309,30 +13336,31 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>517</v>
+        <v>447</v>
       </c>
       <c r="D299" s="4">
-        <v>4301135318</v>
+        <v>4301070958</v>
       </c>
       <c r="E299" s="3">
-        <v>4607111037480</v>
+        <v>4607111038098</v>
       </c>
       <c r="F299" s="5" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="G299" s="1">
+        <f>VLOOKUP(E299,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
-        <v>498</v>
+        <v>464</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>463</v>
@@ -13355,7 +13383,7 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
-        <v>462</v>
+        <v>498</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>463</v>
@@ -13378,22 +13406,22 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D302" s="4">
-        <v>4301135319</v>
+        <v>4301135318</v>
       </c>
       <c r="E302" s="3">
-        <v>4607111037473</v>
+        <v>4607111037480</v>
       </c>
       <c r="F302" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G302" s="1">
         <v>180</v>
@@ -13401,7 +13429,7 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>466</v>
@@ -13424,7 +13452,7 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>466</v>
@@ -13447,28 +13475,30 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>472</v>
+        <v>516</v>
       </c>
       <c r="D305" s="4">
-        <v>4301135198</v>
+        <v>4301135319</v>
       </c>
       <c r="E305" s="3">
-        <v>4640242180663</v>
+        <v>4607111037473</v>
       </c>
       <c r="F305" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="G305" s="1"/>
+        <v>467</v>
+      </c>
+      <c r="G305" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>471</v>
@@ -13489,51 +13519,49 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="D307" s="4">
-        <v>4301135317</v>
+        <v>4301135198</v>
       </c>
       <c r="E307" s="3">
-        <v>4607111039057</v>
+        <v>4640242180663</v>
       </c>
       <c r="F307" s="5" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="G307" s="1"/>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D308" s="4">
-        <v>4301070963</v>
+        <v>4301135317</v>
       </c>
       <c r="E308" s="3">
-        <v>4607111038630</v>
+        <v>4607111039057</v>
       </c>
       <c r="F308" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="G308" s="1">
-        <v>180</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="G308" s="1"/>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>487</v>
@@ -13554,24 +13582,24 @@
         <v>180</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D310" s="4">
-        <v>4301070960</v>
+        <v>4301070963</v>
       </c>
       <c r="E310" s="3">
-        <v>4607111038623</v>
+        <v>4607111038630</v>
       </c>
       <c r="F310" s="5" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G310" s="1">
         <v>180</v>
@@ -13579,7 +13607,7 @@
     </row>
     <row r="311" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>491</v>
@@ -13602,7 +13630,7 @@
     </row>
     <row r="312" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>491</v>
@@ -13625,7 +13653,7 @@
     </row>
     <row r="313" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>491</v>
@@ -13646,24 +13674,24 @@
         <v>180</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="B314" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="C314" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="D314" s="13">
-        <v>4301070997</v>
-      </c>
-      <c r="E314" s="14">
-        <v>4607111038586</v>
-      </c>
-      <c r="F314" s="15" t="s">
-        <v>497</v>
+        <v>490</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D314" s="4">
+        <v>4301070960</v>
+      </c>
+      <c r="E314" s="3">
+        <v>4607111038623</v>
+      </c>
+      <c r="F314" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="G314" s="1">
         <v>180</v>
@@ -13671,7 +13699,7 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B315" s="12" t="s">
         <v>495</v>
@@ -13694,7 +13722,7 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="B316" s="12" t="s">
         <v>495</v>
@@ -13717,7 +13745,7 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B317" s="12" t="s">
         <v>495</v>
@@ -13740,30 +13768,30 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="B318" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="D318" s="4">
-        <v>4301190046</v>
-      </c>
-      <c r="E318" s="3">
-        <v>4607111038951</v>
-      </c>
-      <c r="F318" s="5" t="s">
-        <v>511</v>
+        <v>494</v>
+      </c>
+      <c r="B318" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="C318" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="D318" s="13">
+        <v>4301070997</v>
+      </c>
+      <c r="E318" s="14">
+        <v>4607111038586</v>
+      </c>
+      <c r="F318" s="15" t="s">
+        <v>497</v>
       </c>
       <c r="G318" s="1">
-        <v>365</v>
+        <v>180</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>509</v>
@@ -13786,30 +13814,30 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D320" s="4">
-        <v>4301070996</v>
+        <v>4301190046</v>
       </c>
       <c r="E320" s="3">
-        <v>4607111038654</v>
+        <v>4607111038951</v>
       </c>
       <c r="F320" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G320" s="1">
-        <v>180</v>
+        <v>365</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>514</v>
@@ -13832,28 +13860,30 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
-        <v>551</v>
+        <v>513</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D322" s="4">
-        <v>4301071021</v>
+        <v>4301070996</v>
       </c>
       <c r="E322" s="3">
-        <v>4640242181325</v>
+        <v>4607111038654</v>
       </c>
       <c r="F322" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G322" s="1"/>
+        <v>513</v>
+      </c>
+      <c r="G322" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>520</v>
@@ -13874,7 +13904,7 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>520</v>
@@ -13895,7 +13925,7 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
-        <v>519</v>
+        <v>577</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>520</v>
@@ -13916,73 +13946,73 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D326" s="4">
-        <v>4301135309</v>
+        <v>4301071021</v>
       </c>
       <c r="E326" s="3">
-        <v>4640242181332</v>
+        <v>4640242181325</v>
       </c>
       <c r="F326" s="5" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G326" s="1"/>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>318</v>
+        <v>524</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>319</v>
+        <v>525</v>
       </c>
       <c r="D327" s="4">
-        <v>4301070977</v>
+        <v>4301135309</v>
       </c>
       <c r="E327" s="3">
-        <v>4607111037411</v>
+        <v>4640242181332</v>
       </c>
       <c r="F327" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="G327" s="1">
-        <f>VLOOKUP(E327,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="G327" s="1"/>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>534</v>
+        <v>318</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>535</v>
+        <v>319</v>
       </c>
       <c r="D328" s="4">
-        <v>4301071014</v>
+        <v>4301070977</v>
       </c>
       <c r="E328" s="3">
-        <v>4640242181264</v>
+        <v>4607111037411</v>
       </c>
       <c r="F328" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="G328" s="1"/>
+        <v>320</v>
+      </c>
+      <c r="G328" s="1">
+        <f>VLOOKUP(E328,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>534</v>
@@ -14003,28 +14033,28 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
-        <v>571</v>
+        <v>533</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D330" s="4">
-        <v>4301135310</v>
+        <v>4301071014</v>
       </c>
       <c r="E330" s="3">
-        <v>4640242181318</v>
+        <v>4640242181264</v>
       </c>
       <c r="F330" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G330" s="1"/>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
-        <v>611</v>
+        <v>571</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>540</v>
@@ -14045,7 +14075,7 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="10" t="s">
-        <v>539</v>
+        <v>611</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>540</v>
@@ -14066,28 +14096,28 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="10" t="s">
-        <v>572</v>
+        <v>539</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D333" s="4">
-        <v>4301135306</v>
+        <v>4301135310</v>
       </c>
       <c r="E333" s="3">
-        <v>4640242181578</v>
+        <v>4640242181318</v>
       </c>
       <c r="F333" s="5" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G333" s="1"/>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
-        <v>641</v>
+        <v>572</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>543</v>
@@ -14108,7 +14138,7 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="10" t="s">
-        <v>542</v>
+        <v>641</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>543</v>
@@ -14129,91 +14159,91 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="10" t="s">
-        <v>576</v>
-      </c>
-      <c r="B336" s="12" t="s">
-        <v>546</v>
-      </c>
-      <c r="C336" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="D336" s="13">
-        <v>4301135305</v>
-      </c>
-      <c r="E336" s="14">
-        <v>4640242181394</v>
-      </c>
-      <c r="F336" s="15" t="s">
-        <v>545</v>
+        <v>542</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="D336" s="4">
+        <v>4301135306</v>
+      </c>
+      <c r="E336" s="3">
+        <v>4640242181578</v>
+      </c>
+      <c r="F336" s="5" t="s">
+        <v>542</v>
       </c>
       <c r="G336" s="1"/>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="B337" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B337" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="C337" s="3" t="s">
+      <c r="C337" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="D337" s="4">
+      <c r="D337" s="13">
         <v>4301135305</v>
       </c>
-      <c r="E337" s="3">
+      <c r="E337" s="14">
         <v>4640242181394</v>
       </c>
-      <c r="F337" s="5" t="s">
-        <v>614</v>
+      <c r="F337" s="15" t="s">
+        <v>545</v>
       </c>
       <c r="G337" s="1"/>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="B338" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="B338" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="C338" s="12" t="s">
+      <c r="C338" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="D338" s="13">
+      <c r="D338" s="4">
         <v>4301135305</v>
       </c>
-      <c r="E338" s="14">
+      <c r="E338" s="3">
         <v>4640242181394</v>
       </c>
-      <c r="F338" s="15" t="s">
-        <v>545</v>
+      <c r="F338" s="5" t="s">
+        <v>614</v>
       </c>
       <c r="G338" s="1"/>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="B339" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="C339" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="D339" s="4">
-        <v>4301070993</v>
-      </c>
-      <c r="E339" s="3">
-        <v>4640242180670</v>
-      </c>
-      <c r="F339" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
+      </c>
+      <c r="B339" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="C339" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="D339" s="13">
+        <v>4301135305</v>
+      </c>
+      <c r="E339" s="14">
+        <v>4640242181394</v>
+      </c>
+      <c r="F339" s="15" t="s">
+        <v>545</v>
       </c>
       <c r="G339" s="1"/>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="10" t="s">
-        <v>610</v>
+        <v>588</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>549</v>
@@ -14234,7 +14264,7 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="10" t="s">
-        <v>548</v>
+        <v>610</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>549</v>
@@ -14255,28 +14285,28 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="10" t="s">
-        <v>586</v>
+        <v>548</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="D342" s="4">
-        <v>4301135549</v>
+        <v>4301070993</v>
       </c>
       <c r="E342" s="3">
-        <v>4607111039095</v>
+        <v>4640242180670</v>
       </c>
       <c r="F342" s="5" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="G342" s="1"/>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="10" t="s">
-        <v>784</v>
+        <v>586</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>559</v>
@@ -14297,7 +14327,7 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="10" t="s">
-        <v>558</v>
+        <v>781</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>559</v>
@@ -14318,91 +14348,91 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="10" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="D345" s="4">
-        <v>4301132104</v>
+        <v>4301135549</v>
       </c>
       <c r="E345" s="3">
-        <v>4640242181219</v>
+        <v>4607111039095</v>
       </c>
       <c r="F345" s="5" t="s">
-        <v>581</v>
+        <v>558</v>
       </c>
       <c r="G345" s="1"/>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="10" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D346" s="4">
-        <v>4301070991</v>
+        <v>4301132104</v>
       </c>
       <c r="E346" s="3">
-        <v>4607111038180</v>
+        <v>4640242181219</v>
       </c>
       <c r="F346" s="5" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G346" s="1"/>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="10" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>603</v>
+        <v>584</v>
       </c>
       <c r="D347" s="4">
-        <v>4301135304</v>
+        <v>4301070991</v>
       </c>
       <c r="E347" s="3">
-        <v>4640242181240</v>
+        <v>4607111038180</v>
       </c>
       <c r="F347" s="5" t="s">
-        <v>604</v>
+        <v>585</v>
       </c>
       <c r="G347" s="1"/>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="10" t="s">
-        <v>653</v>
+        <v>601</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D348" s="4">
-        <v>4301135374</v>
+        <v>4301135304</v>
       </c>
       <c r="E348" s="3">
-        <v>4640242181424</v>
+        <v>4640242181240</v>
       </c>
       <c r="F348" s="5" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="G348" s="1"/>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="10" t="s">
-        <v>612</v>
+        <v>653</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>607</v>
@@ -14423,7 +14453,7 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="10" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>607</v>
@@ -14444,7 +14474,7 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="10" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>607</v>
@@ -14465,28 +14495,28 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="10" t="s">
-        <v>695</v>
+        <v>606</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="D352" s="4">
-        <v>4301071046</v>
+        <v>4301135374</v>
       </c>
       <c r="E352" s="3">
-        <v>4607111039354</v>
+        <v>4640242181424</v>
       </c>
       <c r="F352" s="5" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="G352" s="1"/>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="10" t="s">
-        <v>618</v>
+        <v>695</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>616</v>
@@ -14507,7 +14537,7 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="10" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>616</v>
@@ -14528,28 +14558,28 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="10" t="s">
-        <v>696</v>
+        <v>615</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D355" s="4">
-        <v>4301071047</v>
+        <v>4301071046</v>
       </c>
       <c r="E355" s="3">
-        <v>4607111039330</v>
+        <v>4607111039354</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G355" s="1"/>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="10" t="s">
-        <v>753</v>
+        <v>696</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>620</v>
@@ -14570,7 +14600,7 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="10" t="s">
-        <v>622</v>
+        <v>750</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>620</v>
@@ -14591,7 +14621,7 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="10" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>620</v>
@@ -14612,28 +14642,28 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="10" t="s">
-        <v>677</v>
+        <v>619</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D359" s="4">
-        <v>4301071051</v>
+        <v>4301071047</v>
       </c>
       <c r="E359" s="3">
-        <v>4607111039262</v>
+        <v>4607111039330</v>
       </c>
       <c r="F359" s="5" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G359" s="1"/>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="10" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>624</v>
@@ -14654,7 +14684,7 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="10" t="s">
-        <v>626</v>
+        <v>690</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>624</v>
@@ -14675,7 +14705,7 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="10" t="s">
-        <v>729</v>
+        <v>626</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>624</v>
@@ -14696,7 +14726,7 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="10" t="s">
-        <v>623</v>
+        <v>729</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>624</v>
@@ -14717,28 +14747,28 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="10" t="s">
-        <v>676</v>
+        <v>623</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D364" s="4">
-        <v>4301071038</v>
+        <v>4301071051</v>
       </c>
       <c r="E364" s="3">
-        <v>4607111039248</v>
+        <v>4607111039262</v>
       </c>
       <c r="F364" s="5" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G364" s="1"/>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="10" t="s">
-        <v>702</v>
+        <v>676</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>628</v>
@@ -14759,7 +14789,7 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="10" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>628</v>
@@ -14780,7 +14810,7 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="10" t="s">
-        <v>630</v>
+        <v>691</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>628</v>
@@ -14801,7 +14831,7 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="10" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>628</v>
@@ -14822,28 +14852,28 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="10" t="s">
-        <v>679</v>
+        <v>627</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D369" s="4">
-        <v>4301071049</v>
+        <v>4301071038</v>
       </c>
       <c r="E369" s="3">
-        <v>4607111039293</v>
+        <v>4607111039248</v>
       </c>
       <c r="F369" s="5" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G369" s="1"/>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="10" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>632</v>
@@ -14864,7 +14894,7 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="10" t="s">
-        <v>634</v>
+        <v>692</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>632</v>
@@ -14885,7 +14915,7 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="10" t="s">
-        <v>730</v>
+        <v>634</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>632</v>
@@ -14906,7 +14936,7 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="10" t="s">
-        <v>631</v>
+        <v>730</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>632</v>
@@ -14927,28 +14957,28 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="10" t="s">
-        <v>678</v>
+        <v>631</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D374" s="4">
-        <v>4301071039</v>
+        <v>4301071049</v>
       </c>
       <c r="E374" s="3">
-        <v>4607111039279</v>
+        <v>4607111039293</v>
       </c>
       <c r="F374" s="5" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G374" s="1"/>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="10" t="s">
-        <v>703</v>
+        <v>678</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>636</v>
@@ -14969,7 +14999,7 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="10" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>636</v>
@@ -14990,7 +15020,7 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="10" t="s">
-        <v>638</v>
+        <v>693</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>636</v>
@@ -15011,7 +15041,7 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="10" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>636</v>
@@ -15032,28 +15062,28 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="10" t="s">
-        <v>662</v>
+        <v>635</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>660</v>
+        <v>636</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="D379" s="4">
-        <v>4301135696</v>
+        <v>4301071039</v>
       </c>
       <c r="E379" s="3">
-        <v>4620207490235</v>
+        <v>4607111039279</v>
       </c>
       <c r="F379" s="5" t="s">
-        <v>662</v>
+        <v>638</v>
       </c>
       <c r="G379" s="1"/>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="10" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>660</v>
@@ -15074,7 +15104,7 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="10" t="s">
-        <v>659</v>
+        <v>688</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>660</v>
@@ -15095,28 +15125,28 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="10" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="D382" s="4">
-        <v>4301135707</v>
+        <v>4301135696</v>
       </c>
       <c r="E382" s="3">
-        <v>4620207490198</v>
+        <v>4620207490235</v>
       </c>
       <c r="F382" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="G382" s="1"/>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="10" t="s">
-        <v>724</v>
+        <v>670</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>671</v>
@@ -15137,7 +15167,7 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="10" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>671</v>
@@ -15158,28 +15188,28 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="10" t="s">
-        <v>673</v>
+        <v>704</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D385" s="4">
-        <v>4301135697</v>
+        <v>4301135707</v>
       </c>
       <c r="E385" s="3">
-        <v>4620207490259</v>
+        <v>4620207490198</v>
       </c>
       <c r="F385" s="5" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="G385" s="1"/>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="10" t="s">
-        <v>732</v>
+        <v>673</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>674</v>
@@ -15200,7 +15230,7 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="10" t="s">
-        <v>705</v>
+        <v>732</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>674</v>
@@ -15221,28 +15251,28 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="10" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="D388" s="4">
-        <v>4301071044</v>
+        <v>4301135697</v>
       </c>
       <c r="E388" s="3">
-        <v>4607111039385</v>
+        <v>4620207490259</v>
       </c>
       <c r="F388" s="5" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="G388" s="1"/>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="10" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>681</v>
@@ -15263,7 +15293,7 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="10" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>681</v>
@@ -15284,7 +15314,7 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="10" t="s">
-        <v>893</v>
+        <v>683</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>681</v>
@@ -15305,7 +15335,7 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="10" t="s">
-        <v>680</v>
+        <v>890</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>681</v>
@@ -15326,28 +15356,28 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="10" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D393" s="4">
-        <v>4301071045</v>
+        <v>4301071044</v>
       </c>
       <c r="E393" s="3">
-        <v>4607111039392</v>
+        <v>4607111039385</v>
       </c>
       <c r="F393" s="5" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="G393" s="1"/>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="10" t="s">
-        <v>725</v>
+        <v>684</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>685</v>
@@ -15368,7 +15398,7 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="10" t="s">
-        <v>706</v>
+        <v>725</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>685</v>
@@ -15389,28 +15419,28 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="10" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="D396" s="4">
-        <v>4301071031</v>
+        <v>4301071045</v>
       </c>
       <c r="E396" s="3">
-        <v>4607111038982</v>
+        <v>4607111039392</v>
       </c>
       <c r="F396" s="5" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="G396" s="1"/>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="10" t="s">
-        <v>752</v>
+        <v>700</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>698</v>
@@ -15431,7 +15461,7 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="10" t="s">
-        <v>697</v>
+        <v>749</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>698</v>
@@ -15452,45 +15482,43 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="10" t="s">
-        <v>793</v>
+        <v>697</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>913</v>
+        <v>698</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>914</v>
+        <v>699</v>
       </c>
       <c r="D399" s="4">
-        <v>4301135573</v>
+        <v>4301071031</v>
       </c>
       <c r="E399" s="3">
-        <v>4607111036568</v>
+        <v>4607111038982</v>
       </c>
       <c r="F399" s="5" t="s">
-        <v>915</v>
-      </c>
-      <c r="G399" s="1">
-        <v>180</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="G399" s="1"/>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="10" t="s">
-        <v>887</v>
+        <v>790</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D400" s="4">
-        <v>4301135573</v>
+        <v>4301135591</v>
       </c>
       <c r="E400" s="3">
         <v>4607111036568</v>
       </c>
       <c r="F400" s="5" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="G400" s="1">
         <v>180</v>
@@ -15498,22 +15526,22 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="10" t="s">
-        <v>719</v>
+        <v>884</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D401" s="4">
-        <v>4301135573</v>
+        <v>4301135591</v>
       </c>
       <c r="E401" s="3">
         <v>4607111036568</v>
       </c>
       <c r="F401" s="5" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="G401" s="1">
         <v>180</v>
@@ -15521,28 +15549,30 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="10" t="s">
-        <v>919</v>
+        <v>719</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>722</v>
+        <v>910</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>723</v>
+        <v>911</v>
       </c>
       <c r="D402" s="4">
-        <v>4301135402</v>
+        <v>4301135591</v>
       </c>
       <c r="E402" s="3">
-        <v>4640242181493</v>
+        <v>4607111036568</v>
       </c>
       <c r="F402" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="G402" s="1"/>
+        <v>912</v>
+      </c>
+      <c r="G402" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="10" t="s">
-        <v>721</v>
+        <v>916</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>722</v>
@@ -15563,28 +15593,28 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="10" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D404" s="4">
-        <v>4301135607</v>
+        <v>4301135402</v>
       </c>
       <c r="E404" s="3">
-        <v>4607111039613</v>
+        <v>4640242181493</v>
       </c>
       <c r="F404" s="5" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="G404" s="1"/>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="10" t="s">
-        <v>754</v>
+        <v>728</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>726</v>
@@ -15605,7 +15635,7 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="10" t="s">
-        <v>790</v>
+        <v>751</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>726</v>
@@ -15626,7 +15656,7 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="10" t="s">
-        <v>733</v>
+        <v>787</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>726</v>
@@ -15647,28 +15677,28 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="10" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="D408" s="4">
-        <v>4301190068</v>
+        <v>4301135607</v>
       </c>
       <c r="E408" s="3">
-        <v>4620207490365</v>
+        <v>4607111039613</v>
       </c>
       <c r="F408" s="5" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="G408" s="1"/>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="10" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>735</v>
@@ -15689,7 +15719,7 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="10" t="s">
-        <v>734</v>
+        <v>761</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>735</v>
@@ -15710,28 +15740,28 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="10" t="s">
-        <v>751</v>
+        <v>734</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D411" s="4">
-        <v>4301190070</v>
+        <v>4301190068</v>
       </c>
       <c r="E411" s="3">
-        <v>4620207490419</v>
+        <v>4620207490365</v>
       </c>
       <c r="F411" s="5" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="G411" s="1"/>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="10" t="s">
-        <v>737</v>
+        <v>748</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>738</v>
@@ -15752,36 +15782,34 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="10" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="D413" s="4">
-        <v>4301071032</v>
+        <v>4301190070</v>
       </c>
       <c r="E413" s="3">
-        <v>4607111038999</v>
+        <v>4620207490419</v>
       </c>
       <c r="F413" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="G413" s="1">
-        <v>180</v>
-      </c>
+        <v>737</v>
+      </c>
+      <c r="G413" s="1"/>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="10" t="s">
-        <v>810</v>
+        <v>746</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D414" s="4">
         <v>4301071032</v>
@@ -15790,7 +15818,7 @@
         <v>4607111038999</v>
       </c>
       <c r="F414" s="5" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="G414" s="1">
         <v>180</v>
@@ -15798,13 +15826,13 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="10" t="s">
-        <v>891</v>
+        <v>807</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D415" s="4">
         <v>4301071032</v>
@@ -15813,7 +15841,7 @@
         <v>4607111038999</v>
       </c>
       <c r="F415" s="5" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="G415" s="1">
         <v>180</v>
@@ -15821,13 +15849,13 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="10" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D416" s="4">
         <v>4301071032</v>
@@ -15836,7 +15864,7 @@
         <v>4607111038999</v>
       </c>
       <c r="F416" s="5" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="G416" s="1">
         <v>180</v>
@@ -15844,13 +15872,13 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="10" t="s">
-        <v>746</v>
+        <v>889</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D417" s="4">
         <v>4301071032</v>
@@ -15859,7 +15887,7 @@
         <v>4607111038999</v>
       </c>
       <c r="F417" s="5" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="G417" s="1">
         <v>180</v>
@@ -15867,57 +15895,57 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="10" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>766</v>
+        <v>744</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>767</v>
+        <v>745</v>
       </c>
       <c r="D418" s="4">
-        <v>4301135404</v>
+        <v>4301071032</v>
       </c>
       <c r="E418" s="3">
-        <v>4640242181516</v>
+        <v>4607111038999</v>
       </c>
       <c r="F418" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="G418" s="1"/>
+        <v>746</v>
+      </c>
+      <c r="G418" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="10" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="D419" s="4">
-        <v>4301071090</v>
+        <v>4301135404</v>
       </c>
       <c r="E419" s="3">
-        <v>4620207490075</v>
+        <v>4640242181516</v>
       </c>
       <c r="F419" s="5" t="s">
-        <v>768</v>
-      </c>
-      <c r="G419" s="1">
-        <v>180</v>
-      </c>
+        <v>762</v>
+      </c>
+      <c r="G419" s="1"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="10" t="s">
-        <v>768</v>
+        <v>778</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D420" s="4">
         <v>4301071090</v>
@@ -15926,7 +15954,7 @@
         <v>4620207490075</v>
       </c>
       <c r="F420" s="5" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G420" s="1">
         <v>180</v>
@@ -15934,22 +15962,22 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="10" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="D421" s="4">
-        <v>4301071092</v>
+        <v>4301071090</v>
       </c>
       <c r="E421" s="3">
-        <v>4620207490174</v>
+        <v>4620207490075</v>
       </c>
       <c r="F421" s="5" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="G421" s="1">
         <v>180</v>
@@ -15957,13 +15985,13 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="10" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D422" s="4">
         <v>4301071092</v>
@@ -15972,7 +16000,7 @@
         <v>4620207490174</v>
       </c>
       <c r="F422" s="5" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="G422" s="1">
         <v>180</v>
@@ -15980,13 +16008,13 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="10" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D423" s="4">
         <v>4301071092</v>
@@ -15995,7 +16023,7 @@
         <v>4620207490174</v>
       </c>
       <c r="F423" s="5" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="G423" s="1">
         <v>180</v>
@@ -16003,22 +16031,22 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="10" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="D424" s="4">
-        <v>4301071091</v>
+        <v>4301071092</v>
       </c>
       <c r="E424" s="3">
-        <v>4620207490044</v>
+        <v>4620207490174</v>
       </c>
       <c r="F424" s="5" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G424" s="1">
         <v>180</v>
@@ -16026,13 +16054,13 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="10" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D425" s="4">
         <v>4301071091</v>
@@ -16041,7 +16069,7 @@
         <v>4620207490044</v>
       </c>
       <c r="F425" s="5" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="G425" s="1">
         <v>180</v>
@@ -16049,78 +16077,78 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="10" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="D426" s="4">
-        <v>4301132044</v>
+        <v>4301071091</v>
       </c>
       <c r="E426" s="3">
-        <v>4607111036971</v>
+        <v>4620207490044</v>
       </c>
       <c r="F426" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="G426" s="1"/>
+        <v>771</v>
+      </c>
+      <c r="G426" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="10" t="s">
-        <v>806</v>
+        <v>782</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>807</v>
+        <v>783</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>808</v>
+        <v>784</v>
       </c>
       <c r="D427" s="4">
-        <v>4301135127</v>
+        <v>4301132044</v>
       </c>
       <c r="E427" s="3">
-        <v>4607111036995</v>
+        <v>4607111036971</v>
       </c>
       <c r="F427" s="5" t="s">
-        <v>809</v>
+        <v>785</v>
       </c>
       <c r="G427" s="1"/>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="10" t="s">
-        <v>905</v>
+        <v>803</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>895</v>
+        <v>804</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>896</v>
+        <v>805</v>
       </c>
       <c r="D428" s="4">
-        <v>4301135670</v>
+        <v>4301135127</v>
       </c>
       <c r="E428" s="3">
-        <v>4620207490983</v>
+        <v>4607111036995</v>
       </c>
       <c r="F428" s="5" t="s">
-        <v>904</v>
-      </c>
-      <c r="G428" s="1">
-        <v>180</v>
-      </c>
+        <v>806</v>
+      </c>
+      <c r="G428" s="1"/>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="10" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D429" s="4">
         <v>4301135670</v>
@@ -16129,7 +16157,7 @@
         <v>4620207490983</v>
       </c>
       <c r="F429" s="5" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="G429" s="1">
         <v>180</v>
@@ -16137,13 +16165,13 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="10" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D430" s="4">
         <v>4301135670</v>
@@ -16152,7 +16180,7 @@
         <v>4620207490983</v>
       </c>
       <c r="F430" s="5" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="G430" s="1">
         <v>180</v>
@@ -16160,13 +16188,13 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="10" t="s">
-        <v>894</v>
+        <v>914</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D431" s="4">
         <v>4301135670</v>
@@ -16175,7 +16203,7 @@
         <v>4620207490983</v>
       </c>
       <c r="F431" s="5" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="G431" s="1">
         <v>180</v>
@@ -16183,34 +16211,36 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="10" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="D432" s="4">
-        <v>4301071074</v>
+        <v>4301135670</v>
       </c>
       <c r="E432" s="3">
-        <v>4620207491157</v>
+        <v>4620207490983</v>
       </c>
       <c r="F432" s="5" t="s">
-        <v>897</v>
-      </c>
-      <c r="G432" s="1"/>
+        <v>901</v>
+      </c>
+      <c r="G432" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="10" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D433" s="4">
         <v>4301071074</v>
@@ -16219,19 +16249,19 @@
         <v>4620207491157</v>
       </c>
       <c r="F433" s="5" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="G433" s="1"/>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="10" t="s">
-        <v>897</v>
+        <v>909</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D434" s="4">
         <v>4301071074</v>
@@ -16240,40 +16270,40 @@
         <v>4620207491157</v>
       </c>
       <c r="F434" s="5" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="G434" s="1"/>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="10" t="s">
-        <v>932</v>
+        <v>894</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>921</v>
+        <v>895</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>922</v>
+        <v>896</v>
       </c>
       <c r="D435" s="4">
-        <v>4301135763</v>
+        <v>4301071074</v>
       </c>
       <c r="E435" s="3">
-        <v>4620207491027</v>
+        <v>4620207491157</v>
       </c>
       <c r="F435" s="5" t="s">
-        <v>923</v>
+        <v>894</v>
       </c>
       <c r="G435" s="1"/>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="10" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D436" s="4">
         <v>4301135763</v>
@@ -16282,7 +16312,7 @@
         <v>4620207491027</v>
       </c>
       <c r="F436" s="5" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="G436" s="1"/>
     </row>
@@ -16291,10 +16321,10 @@
         <v>920</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D437" s="4">
         <v>4301135763</v>
@@ -16303,1782 +16333,1887 @@
         <v>4620207491027</v>
       </c>
       <c r="F437" s="5" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="G437" s="1"/>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="10" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="D438" s="4">
-        <v>4301135665</v>
+        <v>4301135763</v>
       </c>
       <c r="E438" s="3">
-        <v>4607111039729</v>
+        <v>4620207491027</v>
       </c>
       <c r="F438" s="5" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="G438" s="1"/>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="10" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="D439" s="4">
-        <v>4301135702</v>
+        <v>4301135763</v>
       </c>
       <c r="E439" s="3">
-        <v>4620207490228</v>
+        <v>4620207491027</v>
       </c>
       <c r="F439" s="5" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="G439" s="1"/>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="10" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>769</v>
+        <v>922</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>770</v>
+        <v>923</v>
       </c>
       <c r="D440" s="4">
-        <v>4301071090</v>
+        <v>4301135665</v>
       </c>
       <c r="E440" s="3">
-        <v>4620207490075</v>
+        <v>4607111039729</v>
       </c>
       <c r="F440" s="5" t="s">
-        <v>768</v>
+        <v>924</v>
       </c>
       <c r="G440" s="1"/>
-      <c r="H440" s="16" t="s">
-        <v>943</v>
-      </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="10" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>775</v>
+        <v>926</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>776</v>
+        <v>927</v>
       </c>
       <c r="D441" s="4">
-        <v>4301071091</v>
+        <v>4301135702</v>
       </c>
       <c r="E441" s="3">
-        <v>4620207490044</v>
+        <v>4620207490228</v>
       </c>
       <c r="F441" s="5" t="s">
-        <v>774</v>
+        <v>928</v>
       </c>
       <c r="G441" s="1"/>
-      <c r="H441" s="16" t="s">
-        <v>943</v>
-      </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="10" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>748</v>
+        <v>767</v>
       </c>
       <c r="D442" s="4">
-        <v>4301071032</v>
+        <v>4301071090</v>
       </c>
       <c r="E442" s="3">
-        <v>4607111038999</v>
+        <v>4620207490075</v>
       </c>
       <c r="F442" s="5" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="G442" s="1"/>
       <c r="H442" s="16" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="10" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>681</v>
+        <v>772</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>682</v>
+        <v>773</v>
       </c>
       <c r="D443" s="4">
-        <v>4301071044</v>
+        <v>4301071091</v>
       </c>
       <c r="E443" s="3">
-        <v>4607111039385</v>
+        <v>4620207490044</v>
       </c>
       <c r="F443" s="5" t="s">
-        <v>683</v>
+        <v>771</v>
       </c>
       <c r="G443" s="1"/>
       <c r="H443" s="16" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="10" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>628</v>
+        <v>744</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>629</v>
+        <v>745</v>
       </c>
       <c r="D444" s="4">
-        <v>4301071038</v>
+        <v>4301071032</v>
       </c>
       <c r="E444" s="3">
-        <v>4607111039248</v>
+        <v>4607111038999</v>
       </c>
       <c r="F444" s="5" t="s">
-        <v>630</v>
+        <v>746</v>
       </c>
       <c r="G444" s="1"/>
       <c r="H444" s="16" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="10" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>624</v>
+        <v>681</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>625</v>
+        <v>682</v>
       </c>
       <c r="D445" s="4">
-        <v>4301071051</v>
+        <v>4301071044</v>
       </c>
       <c r="E445" s="3">
-        <v>4607111039262</v>
+        <v>4607111039385</v>
       </c>
       <c r="F445" s="5" t="s">
-        <v>626</v>
+        <v>683</v>
       </c>
       <c r="G445" s="1"/>
       <c r="H445" s="16" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="10" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D446" s="4">
-        <v>4301071049</v>
+        <v>4301071038</v>
       </c>
       <c r="E446" s="3">
-        <v>4607111039293</v>
+        <v>4607111039248</v>
       </c>
       <c r="F446" s="5" t="s">
-        <v>942</v>
+        <v>630</v>
       </c>
       <c r="G446" s="1"/>
       <c r="H446" s="16" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="10" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="D447" s="4">
-        <v>4301071039</v>
+        <v>4301071051</v>
       </c>
       <c r="E447" s="3">
-        <v>4607111039279</v>
+        <v>4607111039262</v>
       </c>
       <c r="F447" s="5" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="G447" s="1"/>
       <c r="H447" s="16" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="10" t="s">
-        <v>658</v>
+        <v>937</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>656</v>
+        <v>632</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>657</v>
+        <v>633</v>
       </c>
       <c r="D448" s="4">
-        <v>4301135578</v>
+        <v>4301071049</v>
       </c>
       <c r="E448" s="3">
-        <v>4607111033444</v>
+        <v>4607111039293</v>
       </c>
       <c r="F448" s="5" t="s">
-        <v>658</v>
+        <v>939</v>
       </c>
       <c r="G448" s="1"/>
       <c r="H448" s="16" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="10" t="s">
-        <v>757</v>
+        <v>938</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>755</v>
+        <v>636</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>756</v>
+        <v>637</v>
       </c>
       <c r="D449" s="4">
-        <v>4301132190</v>
+        <v>4301071039</v>
       </c>
       <c r="E449" s="3">
-        <v>4607111036537</v>
+        <v>4607111039279</v>
       </c>
       <c r="F449" s="5" t="s">
-        <v>757</v>
+        <v>638</v>
       </c>
       <c r="G449" s="1"/>
       <c r="H449" s="16" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A450" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D450" s="4">
+        <v>4301135578</v>
+      </c>
+      <c r="E450" s="3">
+        <v>4607111033444</v>
+      </c>
+      <c r="F450" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="G450" s="1"/>
+      <c r="H450" s="16" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A451" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="D451" s="4">
+        <v>4301132190</v>
+      </c>
+      <c r="E451" s="3">
+        <v>4607111036537</v>
+      </c>
+      <c r="F451" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="G451" s="1"/>
+      <c r="H451" s="16" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A452" s="10" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A450" s="17" t="s">
-        <v>811</v>
-      </c>
-      <c r="B450" s="18" t="s">
-        <v>628</v>
-      </c>
-      <c r="C450" s="18" t="s">
-        <v>629</v>
-      </c>
-      <c r="D450" s="19">
-        <v>4301071038</v>
-      </c>
-      <c r="E450" s="18">
-        <v>4607111039248</v>
-      </c>
-      <c r="F450" s="20" t="s">
-        <v>630</v>
-      </c>
-      <c r="G450" s="21"/>
-      <c r="H450" s="22" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A451" s="17" t="s">
-        <v>812</v>
-      </c>
-      <c r="B451" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C451" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="D451" s="19">
-        <v>4301070981</v>
-      </c>
-      <c r="E451" s="18">
-        <v>4607111036728</v>
-      </c>
-      <c r="F451" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="G451" s="21"/>
-      <c r="H451" s="22" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A452" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="B452" s="18" t="s">
-        <v>636</v>
-      </c>
-      <c r="C452" s="18" t="s">
-        <v>637</v>
-      </c>
-      <c r="D452" s="19">
-        <v>4301071039</v>
-      </c>
-      <c r="E452" s="18">
-        <v>4607111039279</v>
-      </c>
-      <c r="F452" s="20" t="s">
-        <v>638</v>
-      </c>
-      <c r="G452" s="21"/>
-      <c r="H452" s="22" t="s">
-        <v>872</v>
-      </c>
+      <c r="B452" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="D452" s="4">
+        <v>4301135768</v>
+      </c>
+      <c r="E452" s="3">
+        <v>4620207491034</v>
+      </c>
+      <c r="F452" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="G452" s="1"/>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A453" s="17" t="s">
-        <v>814</v>
-      </c>
-      <c r="B453" s="18" t="s">
-        <v>624</v>
-      </c>
-      <c r="C453" s="18" t="s">
-        <v>625</v>
-      </c>
-      <c r="D453" s="19">
-        <v>4301071051</v>
-      </c>
-      <c r="E453" s="18">
-        <v>4607111039262</v>
-      </c>
-      <c r="F453" s="20" t="s">
-        <v>626</v>
-      </c>
-      <c r="G453" s="21"/>
-      <c r="H453" s="22" t="s">
-        <v>872</v>
-      </c>
+      <c r="A453" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="C453" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="D453" s="4">
+        <v>4301071097</v>
+      </c>
+      <c r="E453" s="3">
+        <v>4620207491096</v>
+      </c>
+      <c r="F453" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="G453" s="1"/>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A454" s="17" t="s">
-        <v>815</v>
-      </c>
-      <c r="B454" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="C454" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D454" s="19">
-        <v>4301132080</v>
-      </c>
-      <c r="E454" s="18">
-        <v>4640242180397</v>
-      </c>
-      <c r="F454" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="G454" s="21"/>
-      <c r="H454" s="22" t="s">
-        <v>872</v>
-      </c>
+      <c r="A454" s="10" t="s">
+        <v>952</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="D454" s="4">
+        <v>4301132227</v>
+      </c>
+      <c r="E454" s="3">
+        <v>4620207491133</v>
+      </c>
+      <c r="F454" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="G454" s="1"/>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="17" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="B455" s="18" t="s">
-        <v>113</v>
+        <v>628</v>
       </c>
       <c r="C455" s="18" t="s">
-        <v>529</v>
+        <v>629</v>
       </c>
       <c r="D455" s="19">
-        <v>4301071029</v>
+        <v>4301071038</v>
       </c>
       <c r="E455" s="18">
-        <v>4607111035899</v>
+        <v>4607111039248</v>
       </c>
       <c r="F455" s="20" t="s">
-        <v>114</v>
+        <v>630</v>
       </c>
       <c r="G455" s="21"/>
       <c r="H455" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="17" t="s">
-        <v>817</v>
-      </c>
-      <c r="B456" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C456" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D456" s="4">
-        <v>4301136053</v>
-      </c>
-      <c r="E456" s="3">
-        <v>4640242180236</v>
-      </c>
-      <c r="F456" s="5" t="s">
-        <v>304</v>
+        <v>809</v>
+      </c>
+      <c r="B456" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C456" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D456" s="19">
+        <v>4301070981</v>
+      </c>
+      <c r="E456" s="18">
+        <v>4607111036728</v>
+      </c>
+      <c r="F456" s="20" t="s">
+        <v>262</v>
       </c>
       <c r="G456" s="21"/>
       <c r="H456" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="17" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="B457" s="18" t="s">
-        <v>318</v>
+        <v>636</v>
       </c>
       <c r="C457" s="18" t="s">
-        <v>319</v>
+        <v>637</v>
       </c>
       <c r="D457" s="19">
-        <v>4301070977</v>
+        <v>4301071039</v>
       </c>
       <c r="E457" s="18">
-        <v>4607111037411</v>
+        <v>4607111039279</v>
       </c>
       <c r="F457" s="20" t="s">
-        <v>320</v>
+        <v>638</v>
       </c>
       <c r="G457" s="21"/>
       <c r="H457" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="17" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="B458" s="18" t="s">
-        <v>561</v>
+        <v>624</v>
       </c>
       <c r="C458" s="18" t="s">
-        <v>562</v>
+        <v>625</v>
       </c>
       <c r="D458" s="19">
-        <v>4301135375</v>
+        <v>4301071051</v>
       </c>
       <c r="E458" s="18">
-        <v>4640242181486</v>
+        <v>4607111039262</v>
       </c>
       <c r="F458" s="20" t="s">
-        <v>563</v>
+        <v>626</v>
       </c>
       <c r="G458" s="21"/>
       <c r="H458" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="17" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="B459" s="18" t="s">
-        <v>656</v>
+        <v>293</v>
       </c>
       <c r="C459" s="18" t="s">
-        <v>657</v>
+        <v>294</v>
       </c>
       <c r="D459" s="19">
-        <v>4301135578</v>
+        <v>4301132080</v>
       </c>
       <c r="E459" s="18">
-        <v>4607111033444</v>
+        <v>4640242180397</v>
       </c>
       <c r="F459" s="20" t="s">
-        <v>658</v>
+        <v>295</v>
       </c>
       <c r="G459" s="21"/>
       <c r="H459" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="17" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="B460" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C460" s="18" t="s">
-        <v>639</v>
+        <v>529</v>
       </c>
       <c r="D460" s="19">
-        <v>4301071050</v>
+        <v>4301071029</v>
       </c>
       <c r="E460" s="18">
-        <v>4607111036216</v>
+        <v>4607111035899</v>
       </c>
       <c r="F460" s="20" t="s">
-        <v>640</v>
+        <v>114</v>
       </c>
       <c r="G460" s="21"/>
       <c r="H460" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="17" t="s">
-        <v>822</v>
-      </c>
-      <c r="B461" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="C461" s="18" t="s">
-        <v>633</v>
-      </c>
-      <c r="D461" s="19">
-        <v>4301071049</v>
-      </c>
-      <c r="E461" s="18">
-        <v>4607111039293</v>
-      </c>
-      <c r="F461" s="20" t="s">
-        <v>634</v>
+        <v>814</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C461" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D461" s="4">
+        <v>4301136053</v>
+      </c>
+      <c r="E461" s="3">
+        <v>4640242180236</v>
+      </c>
+      <c r="F461" s="5" t="s">
+        <v>304</v>
       </c>
       <c r="G461" s="21"/>
       <c r="H461" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="17" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="B462" s="18" t="s">
-        <v>664</v>
+        <v>318</v>
       </c>
       <c r="C462" s="18" t="s">
-        <v>665</v>
+        <v>319</v>
       </c>
       <c r="D462" s="19">
-        <v>4301135532</v>
+        <v>4301070977</v>
       </c>
       <c r="E462" s="18">
-        <v>4607111033994</v>
+        <v>4607111037411</v>
       </c>
       <c r="F462" s="20" t="s">
-        <v>666</v>
+        <v>320</v>
       </c>
       <c r="G462" s="21"/>
       <c r="H462" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="17" t="s">
-        <v>824</v>
-      </c>
-      <c r="B463" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="C463" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D463" s="4">
-        <v>4301135555</v>
-      </c>
-      <c r="E463" s="3">
-        <v>4607111034014</v>
-      </c>
-      <c r="F463" s="5" t="s">
-        <v>669</v>
+        <v>816</v>
+      </c>
+      <c r="B463" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="C463" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="D463" s="19">
+        <v>4301135375</v>
+      </c>
+      <c r="E463" s="18">
+        <v>4640242181486</v>
+      </c>
+      <c r="F463" s="20" t="s">
+        <v>563</v>
       </c>
       <c r="G463" s="21"/>
       <c r="H463" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="17" t="s">
-        <v>825</v>
-      </c>
-      <c r="B464" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="C464" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="D464" s="4">
-        <v>4301135577</v>
-      </c>
-      <c r="E464" s="3">
-        <v>4607111033451</v>
-      </c>
-      <c r="F464" s="5" t="s">
-        <v>646</v>
+        <v>817</v>
+      </c>
+      <c r="B464" s="18" t="s">
+        <v>656</v>
+      </c>
+      <c r="C464" s="18" t="s">
+        <v>657</v>
+      </c>
+      <c r="D464" s="19">
+        <v>4301135578</v>
+      </c>
+      <c r="E464" s="18">
+        <v>4607111033444</v>
+      </c>
+      <c r="F464" s="20" t="s">
+        <v>658</v>
       </c>
       <c r="G464" s="21"/>
       <c r="H464" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="17" t="s">
-        <v>826</v>
-      </c>
-      <c r="B465" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C465" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D465" s="4">
-        <v>4301136052</v>
-      </c>
-      <c r="E465" s="3">
-        <v>4640242180410</v>
-      </c>
-      <c r="F465" s="5" t="s">
-        <v>384</v>
+        <v>818</v>
+      </c>
+      <c r="B465" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C465" s="18" t="s">
+        <v>639</v>
+      </c>
+      <c r="D465" s="19">
+        <v>4301071050</v>
+      </c>
+      <c r="E465" s="18">
+        <v>4607111036216</v>
+      </c>
+      <c r="F465" s="20" t="s">
+        <v>640</v>
       </c>
       <c r="G465" s="21"/>
       <c r="H465" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="17" t="s">
-        <v>827</v>
-      </c>
-      <c r="B466" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="C466" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="D466" s="4">
-        <v>4301135518</v>
-      </c>
-      <c r="E466" s="3">
-        <v>4640242181561</v>
-      </c>
-      <c r="F466" s="5" t="s">
-        <v>557</v>
+        <v>819</v>
+      </c>
+      <c r="B466" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="C466" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D466" s="19">
+        <v>4301071049</v>
+      </c>
+      <c r="E466" s="18">
+        <v>4607111039293</v>
+      </c>
+      <c r="F466" s="20" t="s">
+        <v>634</v>
       </c>
       <c r="G466" s="21"/>
       <c r="H466" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="17" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="B467" s="18" t="s">
-        <v>607</v>
+        <v>664</v>
       </c>
       <c r="C467" s="18" t="s">
-        <v>608</v>
+        <v>665</v>
       </c>
       <c r="D467" s="19">
-        <v>4301135374</v>
+        <v>4301135532</v>
       </c>
       <c r="E467" s="18">
-        <v>4640242181424</v>
+        <v>4607111033994</v>
       </c>
       <c r="F467" s="20" t="s">
-        <v>609</v>
+        <v>666</v>
       </c>
       <c r="G467" s="21"/>
       <c r="H467" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="17" t="s">
-        <v>829</v>
-      </c>
-      <c r="B468" s="18" t="s">
-        <v>873</v>
-      </c>
-      <c r="C468" s="18" t="s">
-        <v>874</v>
-      </c>
-      <c r="D468" s="19">
-        <v>4301132079</v>
-      </c>
-      <c r="E468" s="18">
-        <v>4607111038487</v>
-      </c>
-      <c r="F468" s="20" t="s">
-        <v>425</v>
+        <v>821</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C468" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D468" s="4">
+        <v>4301135555</v>
+      </c>
+      <c r="E468" s="3">
+        <v>4607111034014</v>
+      </c>
+      <c r="F468" s="5" t="s">
+        <v>669</v>
       </c>
       <c r="G468" s="21"/>
       <c r="H468" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="17" t="s">
-        <v>830</v>
-      </c>
-      <c r="B469" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="C469" s="18" t="s">
-        <v>642</v>
-      </c>
-      <c r="D469" s="19">
-        <v>4301071056</v>
-      </c>
-      <c r="E469" s="18">
-        <v>4640242180250</v>
-      </c>
-      <c r="F469" s="20" t="s">
-        <v>643</v>
+        <v>822</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="D469" s="4">
+        <v>4301135577</v>
+      </c>
+      <c r="E469" s="3">
+        <v>4607111033451</v>
+      </c>
+      <c r="F469" s="5" t="s">
+        <v>646</v>
       </c>
       <c r="G469" s="21"/>
       <c r="H469" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="17" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>299</v>
+        <v>382</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>300</v>
+        <v>383</v>
       </c>
       <c r="D470" s="4">
-        <v>4301136051</v>
+        <v>4301136052</v>
       </c>
       <c r="E470" s="3">
-        <v>4640242180304</v>
+        <v>4640242180410</v>
       </c>
       <c r="F470" s="5" t="s">
-        <v>301</v>
+        <v>384</v>
       </c>
       <c r="G470" s="21"/>
       <c r="H470" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="17" t="s">
-        <v>832</v>
-      </c>
-      <c r="B471" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C471" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D471" s="19">
-        <v>4301070920</v>
-      </c>
-      <c r="E471" s="18">
-        <v>4607111035929</v>
-      </c>
-      <c r="F471" s="20" t="s">
-        <v>111</v>
+        <v>824</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D471" s="4">
+        <v>4301135518</v>
+      </c>
+      <c r="E471" s="3">
+        <v>4640242181561</v>
+      </c>
+      <c r="F471" s="5" t="s">
+        <v>557</v>
       </c>
       <c r="G471" s="21"/>
       <c r="H471" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="17" t="s">
-        <v>833</v>
-      </c>
-      <c r="B472" s="3" t="s">
-        <v>761</v>
-      </c>
-      <c r="C472" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="D472" s="4">
-        <v>4301135550</v>
-      </c>
-      <c r="E472" s="3">
-        <v>4607111034199</v>
-      </c>
-      <c r="F472" s="5" t="s">
-        <v>763</v>
+        <v>825</v>
+      </c>
+      <c r="B472" s="18" t="s">
+        <v>607</v>
+      </c>
+      <c r="C472" s="18" t="s">
+        <v>608</v>
+      </c>
+      <c r="D472" s="19">
+        <v>4301135374</v>
+      </c>
+      <c r="E472" s="18">
+        <v>4640242181424</v>
+      </c>
+      <c r="F472" s="20" t="s">
+        <v>609</v>
       </c>
       <c r="G472" s="21"/>
       <c r="H472" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="17" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="B473" s="18" t="s">
-        <v>758</v>
+        <v>870</v>
       </c>
       <c r="C473" s="18" t="s">
-        <v>759</v>
+        <v>871</v>
       </c>
       <c r="D473" s="19">
-        <v>4301132186</v>
+        <v>4301132079</v>
       </c>
       <c r="E473" s="18">
-        <v>4607111036520</v>
+        <v>4607111038487</v>
       </c>
       <c r="F473" s="20" t="s">
-        <v>760</v>
+        <v>425</v>
       </c>
       <c r="G473" s="21"/>
       <c r="H473" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="17" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="B474" s="18" t="s">
-        <v>620</v>
+        <v>164</v>
       </c>
       <c r="C474" s="18" t="s">
-        <v>621</v>
+        <v>642</v>
       </c>
       <c r="D474" s="19">
-        <v>4301071047</v>
+        <v>4301071056</v>
       </c>
       <c r="E474" s="18">
-        <v>4607111039330</v>
+        <v>4640242180250</v>
       </c>
       <c r="F474" s="20" t="s">
-        <v>622</v>
+        <v>643</v>
       </c>
       <c r="G474" s="21"/>
       <c r="H474" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="17" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>800</v>
+        <v>299</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>801</v>
+        <v>300</v>
       </c>
       <c r="D475" s="4">
-        <v>4301131047</v>
+        <v>4301136051</v>
       </c>
       <c r="E475" s="3">
-        <v>4607111034120</v>
+        <v>4640242180304</v>
       </c>
       <c r="F475" s="5" t="s">
-        <v>802</v>
+        <v>301</v>
       </c>
       <c r="G475" s="21"/>
       <c r="H475" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="17" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="B476" s="18" t="s">
-        <v>710</v>
+        <v>109</v>
       </c>
       <c r="C476" s="18" t="s">
-        <v>711</v>
+        <v>110</v>
       </c>
       <c r="D476" s="19">
-        <v>4301135569</v>
+        <v>4301070920</v>
       </c>
       <c r="E476" s="18">
-        <v>4607111033628</v>
+        <v>4607111035929</v>
       </c>
       <c r="F476" s="20" t="s">
-        <v>712</v>
+        <v>111</v>
       </c>
       <c r="G476" s="21"/>
       <c r="H476" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="17" t="s">
-        <v>838</v>
-      </c>
-      <c r="B477" s="18" t="s">
-        <v>565</v>
-      </c>
-      <c r="C477" s="18" t="s">
-        <v>566</v>
-      </c>
-      <c r="D477" s="19">
-        <v>4301135405</v>
-      </c>
-      <c r="E477" s="18">
-        <v>4640242181523</v>
-      </c>
-      <c r="F477" s="20" t="s">
-        <v>567</v>
+        <v>830</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="D477" s="4">
+        <v>4301135550</v>
+      </c>
+      <c r="E477" s="3">
+        <v>4607111034199</v>
+      </c>
+      <c r="F477" s="5" t="s">
+        <v>760</v>
       </c>
       <c r="G477" s="21"/>
       <c r="H477" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="17" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="B478" s="18" t="s">
-        <v>722</v>
+        <v>755</v>
       </c>
       <c r="C478" s="18" t="s">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="D478" s="19">
-        <v>4301135402</v>
+        <v>4301132186</v>
       </c>
       <c r="E478" s="18">
-        <v>4640242181493</v>
+        <v>4607111036520</v>
       </c>
       <c r="F478" s="20" t="s">
-        <v>721</v>
+        <v>757</v>
       </c>
       <c r="G478" s="21"/>
       <c r="H478" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="17" t="s">
-        <v>840</v>
-      </c>
-      <c r="B479" s="3" t="s">
-        <v>900</v>
-      </c>
-      <c r="C479" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="D479" s="4">
-        <v>4301131046</v>
-      </c>
-      <c r="E479" s="3">
-        <v>4607111034137</v>
-      </c>
-      <c r="F479" s="5" t="s">
-        <v>902</v>
+        <v>832</v>
+      </c>
+      <c r="B479" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="C479" s="18" t="s">
+        <v>621</v>
+      </c>
+      <c r="D479" s="19">
+        <v>4301071047</v>
+      </c>
+      <c r="E479" s="18">
+        <v>4607111039330</v>
+      </c>
+      <c r="F479" s="20" t="s">
+        <v>622</v>
       </c>
       <c r="G479" s="21"/>
       <c r="H479" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="17" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>906</v>
+        <v>797</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>907</v>
+        <v>798</v>
       </c>
       <c r="D480" s="4">
-        <v>4301136077</v>
+        <v>4301131047</v>
       </c>
       <c r="E480" s="3">
-        <v>4607025784319</v>
+        <v>4607111034120</v>
       </c>
       <c r="F480" s="5" t="s">
-        <v>908</v>
+        <v>799</v>
       </c>
       <c r="G480" s="21"/>
       <c r="H480" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="17" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="B481" s="18" t="s">
-        <v>468</v>
+        <v>710</v>
       </c>
       <c r="C481" s="18" t="s">
-        <v>527</v>
+        <v>711</v>
       </c>
       <c r="D481" s="19">
-        <v>4301135275</v>
+        <v>4301135569</v>
       </c>
       <c r="E481" s="18">
-        <v>4607111034380</v>
+        <v>4607111033628</v>
       </c>
       <c r="F481" s="20" t="s">
-        <v>469</v>
+        <v>712</v>
       </c>
       <c r="G481" s="21"/>
       <c r="H481" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="17" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="B482" s="18" t="s">
-        <v>477</v>
+        <v>565</v>
       </c>
       <c r="C482" s="18" t="s">
-        <v>537</v>
+        <v>566</v>
       </c>
       <c r="D482" s="19">
-        <v>4301135277</v>
+        <v>4301135405</v>
       </c>
       <c r="E482" s="18">
-        <v>4607111034397</v>
+        <v>4640242181523</v>
       </c>
       <c r="F482" s="20" t="s">
-        <v>478</v>
+        <v>567</v>
       </c>
       <c r="G482" s="21"/>
       <c r="H482" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="17" t="s">
-        <v>844</v>
-      </c>
-      <c r="B483" s="3" t="s">
-        <v>888</v>
-      </c>
-      <c r="C483" s="3" t="s">
-        <v>889</v>
-      </c>
-      <c r="D483" s="4">
-        <v>4301132179</v>
-      </c>
-      <c r="E483" s="3">
-        <v>4607111035691</v>
-      </c>
-      <c r="F483" s="5" t="s">
-        <v>890</v>
+        <v>836</v>
+      </c>
+      <c r="B483" s="18" t="s">
+        <v>722</v>
+      </c>
+      <c r="C483" s="18" t="s">
+        <v>723</v>
+      </c>
+      <c r="D483" s="19">
+        <v>4301135402</v>
+      </c>
+      <c r="E483" s="18">
+        <v>4640242181493</v>
+      </c>
+      <c r="F483" s="20" t="s">
+        <v>721</v>
       </c>
       <c r="G483" s="21"/>
       <c r="H483" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="17" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>755</v>
+        <v>897</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>756</v>
+        <v>898</v>
       </c>
       <c r="D484" s="4">
-        <v>4301132190</v>
+        <v>4301131046</v>
       </c>
       <c r="E484" s="3">
-        <v>4607111036537</v>
+        <v>4607111034137</v>
       </c>
       <c r="F484" s="5" t="s">
-        <v>757</v>
+        <v>899</v>
       </c>
       <c r="G484" s="21"/>
       <c r="H484" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="17" t="s">
-        <v>846</v>
-      </c>
-      <c r="B485" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="C485" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="D485" s="19">
-        <v>4301131019</v>
-      </c>
-      <c r="E485" s="18">
-        <v>4640242180427</v>
-      </c>
-      <c r="F485" s="20" t="s">
-        <v>377</v>
+        <v>838</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="D485" s="4">
+        <v>4301136079</v>
+      </c>
+      <c r="E485" s="3">
+        <v>4607025784319</v>
+      </c>
+      <c r="F485" s="5" t="s">
+        <v>905</v>
       </c>
       <c r="G485" s="21"/>
       <c r="H485" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="17" t="s">
-        <v>847</v>
-      </c>
-      <c r="B486" s="3" t="s">
-        <v>909</v>
-      </c>
-      <c r="C486" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="D486" s="4">
-        <v>4301135571</v>
-      </c>
-      <c r="E486" s="3">
-        <v>4607111035028</v>
-      </c>
-      <c r="F486" s="5" t="s">
-        <v>911</v>
+        <v>839</v>
+      </c>
+      <c r="B486" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="C486" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="D486" s="19">
+        <v>4301135275</v>
+      </c>
+      <c r="E486" s="18">
+        <v>4607111034380</v>
+      </c>
+      <c r="F486" s="20" t="s">
+        <v>469</v>
       </c>
       <c r="G486" s="21"/>
       <c r="H486" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="17" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="B487" s="18" t="s">
-        <v>743</v>
+        <v>477</v>
       </c>
       <c r="C487" s="18" t="s">
-        <v>744</v>
+        <v>537</v>
       </c>
       <c r="D487" s="19">
-        <v>4301135575</v>
+        <v>4301135277</v>
       </c>
       <c r="E487" s="18">
-        <v>4607111035141</v>
+        <v>4607111034397</v>
       </c>
       <c r="F487" s="20" t="s">
-        <v>745</v>
+        <v>478</v>
       </c>
       <c r="G487" s="21"/>
       <c r="H487" s="22" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="488" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="17" t="s">
-        <v>850</v>
-      </c>
-      <c r="B488" s="18" t="s">
-        <v>491</v>
-      </c>
-      <c r="C488" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="D488" s="19">
-        <v>4301070960</v>
-      </c>
-      <c r="E488" s="18">
-        <v>4607111038623</v>
-      </c>
-      <c r="F488" s="20" t="s">
-        <v>493</v>
+        <v>841</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="D488" s="4">
+        <v>4301132179</v>
+      </c>
+      <c r="E488" s="3">
+        <v>4607111035691</v>
+      </c>
+      <c r="F488" s="5" t="s">
+        <v>887</v>
       </c>
       <c r="G488" s="21"/>
       <c r="H488" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="17" t="s">
-        <v>851</v>
-      </c>
-      <c r="B489" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="C489" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="D489" s="19">
-        <v>4301070966</v>
-      </c>
-      <c r="E489" s="18">
-        <v>4607111038135</v>
-      </c>
-      <c r="F489" s="20" t="s">
-        <v>367</v>
+        <v>842</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="D489" s="4">
+        <v>4301132190</v>
+      </c>
+      <c r="E489" s="3">
+        <v>4607111036537</v>
+      </c>
+      <c r="F489" s="5" t="s">
+        <v>754</v>
       </c>
       <c r="G489" s="21"/>
       <c r="H489" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A490" s="10" t="s">
-        <v>918</v>
-      </c>
-      <c r="B490" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="C490" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="D490" s="4">
-        <v>4301070990</v>
-      </c>
-      <c r="E490" s="3">
-        <v>4607111038494</v>
-      </c>
-      <c r="F490" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="G490" s="1"/>
-      <c r="H490" s="16" t="s">
-        <v>872</v>
+      <c r="A490" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="B490" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="C490" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="D490" s="19">
+        <v>4301131019</v>
+      </c>
+      <c r="E490" s="18">
+        <v>4640242180427</v>
+      </c>
+      <c r="F490" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="G490" s="21"/>
+      <c r="H490" s="22" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="17" t="s">
-        <v>852</v>
-      </c>
-      <c r="B491" s="18" t="s">
-        <v>875</v>
-      </c>
-      <c r="C491" s="18" t="s">
-        <v>876</v>
-      </c>
-      <c r="D491" s="19">
-        <v>4301070990</v>
-      </c>
-      <c r="E491" s="18">
-        <v>4607111038494</v>
-      </c>
-      <c r="F491" s="20" t="s">
-        <v>877</v>
+        <v>844</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D491" s="4">
+        <v>4301135571</v>
+      </c>
+      <c r="E491" s="3">
+        <v>4607111035028</v>
+      </c>
+      <c r="F491" s="5" t="s">
+        <v>908</v>
       </c>
       <c r="G491" s="21"/>
       <c r="H491" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="17" t="s">
-        <v>853</v>
-      </c>
-      <c r="B492" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C492" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D492" s="19">
-        <v>4301070921</v>
-      </c>
-      <c r="E492" s="18">
-        <v>4607111035905</v>
-      </c>
-      <c r="F492" s="20" t="s">
-        <v>156</v>
+        <v>845</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="D492" s="4">
+        <v>4301135595</v>
+      </c>
+      <c r="E492" s="3">
+        <v>4607111035141</v>
+      </c>
+      <c r="F492" s="5" t="s">
+        <v>948</v>
       </c>
       <c r="G492" s="21"/>
       <c r="H492" s="22" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A493" s="17" t="s">
-        <v>854</v>
-      </c>
-      <c r="B493" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C493" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="D493" s="4">
-        <v>4301135549</v>
-      </c>
-      <c r="E493" s="3">
-        <v>4607111039095</v>
-      </c>
-      <c r="F493" s="5" t="s">
-        <v>558</v>
+        <v>847</v>
+      </c>
+      <c r="B493" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="C493" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="D493" s="19">
+        <v>4301070960</v>
+      </c>
+      <c r="E493" s="18">
+        <v>4607111038623</v>
+      </c>
+      <c r="F493" s="20" t="s">
+        <v>493</v>
       </c>
       <c r="G493" s="21"/>
       <c r="H493" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="17" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="B494" s="18" t="s">
-        <v>185</v>
+        <v>368</v>
       </c>
       <c r="C494" s="18" t="s">
-        <v>531</v>
+        <v>369</v>
       </c>
       <c r="D494" s="19">
-        <v>4301135285</v>
+        <v>4301070966</v>
       </c>
       <c r="E494" s="18">
-        <v>4607111036407</v>
+        <v>4607111038135</v>
       </c>
       <c r="F494" s="20" t="s">
-        <v>186</v>
+        <v>367</v>
       </c>
       <c r="G494" s="21"/>
       <c r="H494" s="22" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A495" s="10" t="s">
+        <v>915</v>
+      </c>
+      <c r="B495" s="3" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A495" s="17" t="s">
-        <v>728</v>
-      </c>
-      <c r="B495" s="3" t="s">
-        <v>726</v>
-      </c>
       <c r="C495" s="3" t="s">
-        <v>727</v>
+        <v>873</v>
       </c>
       <c r="D495" s="4">
-        <v>4301135607</v>
+        <v>4301070990</v>
       </c>
       <c r="E495" s="3">
-        <v>4607111039613</v>
+        <v>4607111038494</v>
       </c>
       <c r="F495" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="G495" s="21"/>
-      <c r="H495" s="22" t="s">
-        <v>872</v>
+        <v>874</v>
+      </c>
+      <c r="G495" s="1"/>
+      <c r="H495" s="16" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="17" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="B496" s="18" t="s">
-        <v>127</v>
+        <v>872</v>
       </c>
       <c r="C496" s="18" t="s">
-        <v>128</v>
+        <v>873</v>
       </c>
       <c r="D496" s="19">
-        <v>4301080153</v>
+        <v>4301070990</v>
       </c>
       <c r="E496" s="18">
-        <v>4607111036827</v>
+        <v>4607111038494</v>
       </c>
       <c r="F496" s="20" t="s">
-        <v>129</v>
+        <v>874</v>
       </c>
       <c r="G496" s="21"/>
       <c r="H496" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="17" t="s">
-        <v>857</v>
-      </c>
-      <c r="B497" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="C497" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="D497" s="4">
-        <v>4301135574</v>
-      </c>
-      <c r="E497" s="3">
-        <v>4607111033659</v>
-      </c>
-      <c r="F497" s="5" t="s">
-        <v>742</v>
+        <v>850</v>
+      </c>
+      <c r="B497" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C497" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D497" s="19">
+        <v>4301070921</v>
+      </c>
+      <c r="E497" s="18">
+        <v>4607111035905</v>
+      </c>
+      <c r="F497" s="20" t="s">
+        <v>156</v>
       </c>
       <c r="G497" s="21"/>
       <c r="H497" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="17" t="s">
-        <v>858</v>
-      </c>
-      <c r="B498" s="18" t="s">
-        <v>681</v>
-      </c>
-      <c r="C498" s="18" t="s">
-        <v>682</v>
-      </c>
-      <c r="D498" s="19">
-        <v>4301071044</v>
-      </c>
-      <c r="E498" s="18">
-        <v>4607111039385</v>
-      </c>
-      <c r="F498" s="20" t="s">
-        <v>683</v>
+        <v>851</v>
+      </c>
+      <c r="B498" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C498" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="D498" s="4">
+        <v>4301135549</v>
+      </c>
+      <c r="E498" s="3">
+        <v>4607111039095</v>
+      </c>
+      <c r="F498" s="5" t="s">
+        <v>558</v>
       </c>
       <c r="G498" s="21"/>
       <c r="H498" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="17" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="B499" s="18" t="s">
-        <v>698</v>
+        <v>185</v>
       </c>
       <c r="C499" s="18" t="s">
-        <v>699</v>
+        <v>531</v>
       </c>
       <c r="D499" s="19">
-        <v>4301071031</v>
+        <v>4301135285</v>
       </c>
       <c r="E499" s="18">
-        <v>4607111038982</v>
+        <v>4607111036407</v>
       </c>
       <c r="F499" s="20" t="s">
-        <v>700</v>
+        <v>186</v>
       </c>
       <c r="G499" s="21"/>
       <c r="H499" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="17" t="s">
-        <v>860</v>
-      </c>
-      <c r="B500" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="C500" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="D500" s="19">
-        <v>4301070917</v>
-      </c>
-      <c r="E500" s="18">
-        <v>4607111035912</v>
-      </c>
-      <c r="F500" s="20" t="s">
-        <v>183</v>
+        <v>728</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="D500" s="4">
+        <v>4301135607</v>
+      </c>
+      <c r="E500" s="3">
+        <v>4607111039613</v>
+      </c>
+      <c r="F500" s="5" t="s">
+        <v>728</v>
       </c>
       <c r="G500" s="21"/>
       <c r="H500" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="17" t="s">
-        <v>861</v>
-      </c>
-      <c r="B501" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C501" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="D501" s="4">
-        <v>4301136070</v>
-      </c>
-      <c r="E501" s="3">
-        <v>4607025784012</v>
-      </c>
-      <c r="F501" s="5" t="s">
-        <v>170</v>
+        <v>853</v>
+      </c>
+      <c r="B501" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C501" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D501" s="19">
+        <v>4301080153</v>
+      </c>
+      <c r="E501" s="18">
+        <v>4607111036827</v>
+      </c>
+      <c r="F501" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="G501" s="21"/>
       <c r="H501" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="17" t="s">
-        <v>862</v>
-      </c>
-      <c r="B502" s="18" t="s">
-        <v>616</v>
-      </c>
-      <c r="C502" s="18" t="s">
-        <v>617</v>
-      </c>
-      <c r="D502" s="19">
-        <v>4301071046</v>
-      </c>
-      <c r="E502" s="18">
-        <v>4607111039354</v>
-      </c>
-      <c r="F502" s="20" t="s">
-        <v>618</v>
+        <v>854</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="C502" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="D502" s="4">
+        <v>4301135574</v>
+      </c>
+      <c r="E502" s="3">
+        <v>4607111033659</v>
+      </c>
+      <c r="F502" s="5" t="s">
+        <v>742</v>
       </c>
       <c r="G502" s="21"/>
       <c r="H502" s="22" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="503" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="17" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="B503" s="18" t="s">
-        <v>878</v>
+        <v>681</v>
       </c>
       <c r="C503" s="18" t="s">
-        <v>879</v>
+        <v>682</v>
       </c>
       <c r="D503" s="19">
-        <v>4301070959</v>
+        <v>4301071044</v>
       </c>
       <c r="E503" s="18">
-        <v>4607111038616</v>
+        <v>4607111039385</v>
       </c>
       <c r="F503" s="20" t="s">
-        <v>880</v>
+        <v>683</v>
       </c>
       <c r="G503" s="21"/>
       <c r="H503" s="22" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="504" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="17" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="B504" s="18" t="s">
-        <v>881</v>
+        <v>698</v>
       </c>
       <c r="C504" s="18" t="s">
-        <v>882</v>
+        <v>699</v>
       </c>
       <c r="D504" s="19">
-        <v>4301070962</v>
+        <v>4301071031</v>
       </c>
       <c r="E504" s="18">
-        <v>4607111038609</v>
+        <v>4607111038982</v>
       </c>
       <c r="F504" s="20" t="s">
-        <v>883</v>
+        <v>700</v>
       </c>
       <c r="G504" s="21"/>
       <c r="H504" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="17" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="B505" s="18" t="s">
-        <v>254</v>
+        <v>181</v>
       </c>
       <c r="C505" s="18" t="s">
-        <v>255</v>
+        <v>182</v>
       </c>
       <c r="D505" s="19">
-        <v>4301070948</v>
+        <v>4301070917</v>
       </c>
       <c r="E505" s="18">
-        <v>4607111037022</v>
+        <v>4607111035912</v>
       </c>
       <c r="F505" s="20" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="G505" s="21"/>
       <c r="H505" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="17" t="s">
-        <v>866</v>
-      </c>
-      <c r="B506" s="18" t="s">
-        <v>715</v>
-      </c>
-      <c r="C506" s="18" t="s">
-        <v>716</v>
-      </c>
-      <c r="D506" s="19">
-        <v>4301135570</v>
-      </c>
-      <c r="E506" s="18">
-        <v>4607111035806</v>
-      </c>
-      <c r="F506" s="20" t="s">
-        <v>717</v>
+        <v>858</v>
+      </c>
+      <c r="B506" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C506" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D506" s="4">
+        <v>4301136070</v>
+      </c>
+      <c r="E506" s="3">
+        <v>4607025784012</v>
+      </c>
+      <c r="F506" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="G506" s="21"/>
       <c r="H506" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="17" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="B507" s="18" t="s">
-        <v>747</v>
+        <v>616</v>
       </c>
       <c r="C507" s="18" t="s">
-        <v>748</v>
+        <v>617</v>
       </c>
       <c r="D507" s="19">
-        <v>4301071032</v>
+        <v>4301071046</v>
       </c>
       <c r="E507" s="18">
-        <v>4607111038999</v>
+        <v>4607111039354</v>
       </c>
       <c r="F507" s="20" t="s">
-        <v>749</v>
+        <v>618</v>
       </c>
       <c r="G507" s="21"/>
       <c r="H507" s="22" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A508" s="17" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="B508" s="18" t="s">
-        <v>685</v>
+        <v>875</v>
       </c>
       <c r="C508" s="18" t="s">
-        <v>686</v>
+        <v>876</v>
       </c>
       <c r="D508" s="19">
-        <v>4301071045</v>
+        <v>4301070959</v>
       </c>
       <c r="E508" s="18">
-        <v>4607111039392</v>
+        <v>4607111038616</v>
       </c>
       <c r="F508" s="20" t="s">
-        <v>687</v>
+        <v>877</v>
       </c>
       <c r="G508" s="21"/>
       <c r="H508" s="22" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A509" s="17" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="B509" s="18" t="s">
-        <v>487</v>
+        <v>878</v>
       </c>
       <c r="C509" s="18" t="s">
-        <v>488</v>
+        <v>879</v>
       </c>
       <c r="D509" s="19">
-        <v>4301070963</v>
+        <v>4301070962</v>
       </c>
       <c r="E509" s="18">
-        <v>4607111038630</v>
+        <v>4607111038609</v>
       </c>
       <c r="F509" s="20" t="s">
-        <v>489</v>
+        <v>880</v>
       </c>
       <c r="G509" s="21"/>
       <c r="H509" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="17" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="B510" s="18" t="s">
-        <v>598</v>
+        <v>254</v>
       </c>
       <c r="C510" s="18" t="s">
-        <v>599</v>
+        <v>255</v>
       </c>
       <c r="D510" s="19">
-        <v>4301071054</v>
+        <v>4301070948</v>
       </c>
       <c r="E510" s="18">
-        <v>4607111035639</v>
+        <v>4607111037022</v>
       </c>
       <c r="F510" s="20" t="s">
-        <v>600</v>
+        <v>152</v>
       </c>
       <c r="G510" s="21"/>
       <c r="H510" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="17" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="B511" s="18" t="s">
-        <v>340</v>
+        <v>715</v>
       </c>
       <c r="C511" s="18" t="s">
-        <v>568</v>
+        <v>716</v>
       </c>
       <c r="D511" s="19">
-        <v>4301135540</v>
+        <v>4301135570</v>
       </c>
       <c r="E511" s="18">
-        <v>4607111035646</v>
+        <v>4607111035806</v>
       </c>
       <c r="F511" s="20" t="s">
-        <v>569</v>
+        <v>717</v>
       </c>
       <c r="G511" s="21"/>
       <c r="H511" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A512" s="17" t="s">
+        <v>864</v>
+      </c>
+      <c r="B512" s="18" t="s">
+        <v>744</v>
+      </c>
+      <c r="C512" s="18" t="s">
+        <v>745</v>
+      </c>
+      <c r="D512" s="19">
+        <v>4301071032</v>
+      </c>
+      <c r="E512" s="18">
+        <v>4607111038999</v>
+      </c>
+      <c r="F512" s="20" t="s">
+        <v>746</v>
+      </c>
+      <c r="G512" s="21"/>
+      <c r="H512" s="22" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A513" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="B513" s="18" t="s">
+        <v>685</v>
+      </c>
+      <c r="C513" s="18" t="s">
+        <v>686</v>
+      </c>
+      <c r="D513" s="19">
+        <v>4301071045</v>
+      </c>
+      <c r="E513" s="18">
+        <v>4607111039392</v>
+      </c>
+      <c r="F513" s="20" t="s">
+        <v>687</v>
+      </c>
+      <c r="G513" s="21"/>
+      <c r="H513" s="22" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A514" s="17" t="s">
+        <v>866</v>
+      </c>
+      <c r="B514" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="C514" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="D514" s="19">
+        <v>4301070963</v>
+      </c>
+      <c r="E514" s="18">
+        <v>4607111038630</v>
+      </c>
+      <c r="F514" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="G514" s="21"/>
+      <c r="H514" s="22" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A515" s="17" t="s">
+        <v>867</v>
+      </c>
+      <c r="B515" s="18" t="s">
+        <v>598</v>
+      </c>
+      <c r="C515" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="D515" s="19">
+        <v>4301071054</v>
+      </c>
+      <c r="E515" s="18">
+        <v>4607111035639</v>
+      </c>
+      <c r="F515" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="G515" s="21"/>
+      <c r="H515" s="22" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A516" s="17" t="s">
+        <v>868</v>
+      </c>
+      <c r="B516" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="C516" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="D516" s="19">
+        <v>4301135540</v>
+      </c>
+      <c r="E516" s="18">
+        <v>4607111035646</v>
+      </c>
+      <c r="F516" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="G516" s="21"/>
+      <c r="H516" s="22" t="s">
+        <v>869</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F511" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+  <autoFilter ref="A1:F516" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F245">
       <sortCondition ref="A1:A176"/>
     </sortState>

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1446C730-CCEA-467C-9A37-0F56DF54939A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2762A36-143A-4A67-8CBB-6F995271A060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,10 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$516</definedName>
-    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$455</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$517</definedName>
+    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$456</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="956">
   <si>
     <t>1С</t>
   </si>
@@ -2904,6 +2904,9 @@
   </si>
   <si>
     <t>P005043</t>
+  </si>
+  <si>
+    <t>Пельмени Супермени со сливочным маслом, Горячая штучка 0,2кг    ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -6159,11 +6162,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H516"/>
+  <dimension ref="A1:H517"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12832,7 +12835,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
-        <v>339</v>
+        <v>955</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>340</v>
@@ -12856,31 +12859,31 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
-        <v>652</v>
+        <v>339</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>353</v>
+        <v>568</v>
       </c>
       <c r="D279" s="4">
-        <v>4301080154</v>
+        <v>4301135540</v>
       </c>
       <c r="E279" s="3">
-        <v>4607111036834</v>
+        <v>4607111035646</v>
       </c>
       <c r="F279" s="5" t="s">
-        <v>354</v>
+        <v>569</v>
       </c>
       <c r="G279" s="1">
         <f>VLOOKUP(E279,[1]Лист1!$D:$M,10,0)</f>
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
-        <v>354</v>
+        <v>652</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>352</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>352</v>
@@ -12928,22 +12931,22 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D282" s="4">
-        <v>4301070941</v>
+        <v>4301080154</v>
       </c>
       <c r="E282" s="3">
-        <v>4607111036162</v>
+        <v>4607111036834</v>
       </c>
       <c r="F282" s="5" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G282" s="1">
         <f>VLOOKUP(E282,[1]Лист1!$D:$M,10,0)</f>
@@ -12952,46 +12955,46 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D283" s="4">
-        <v>4301070826</v>
+        <v>4301070941</v>
       </c>
       <c r="E283" s="3">
-        <v>4607111035752</v>
+        <v>4607111036162</v>
       </c>
       <c r="F283" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G283" s="1">
         <f>VLOOKUP(E283,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D284" s="4">
-        <v>4301070966</v>
+        <v>4301070826</v>
       </c>
       <c r="E284" s="3">
-        <v>4607111038135</v>
+        <v>4607111035752</v>
       </c>
       <c r="F284" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G284" s="1">
         <f>VLOOKUP(E284,[1]Лист1!$D:$M,10,0)</f>
@@ -13000,7 +13003,7 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>368</v>
@@ -13024,7 +13027,7 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
-        <v>367</v>
+        <v>451</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>368</v>
@@ -13048,55 +13051,55 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D287" s="4">
-        <v>4301070911</v>
+        <v>4301070966</v>
       </c>
       <c r="E287" s="3">
-        <v>4607111036278</v>
+        <v>4607111038135</v>
       </c>
       <c r="F287" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G287" s="1">
         <f>VLOOKUP(E287,[1]Лист1!$D:$M,10,0)</f>
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D288" s="4">
-        <v>4301131019</v>
+        <v>4301070911</v>
       </c>
       <c r="E288" s="3">
-        <v>4640242180427</v>
+        <v>4607111036278</v>
       </c>
       <c r="F288" s="5" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="G288" s="1">
         <f>VLOOKUP(E288,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
-        <v>165</v>
+        <v>393</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>375</v>
@@ -13120,7 +13123,7 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
-        <v>377</v>
+        <v>165</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>375</v>
@@ -13144,7 +13147,7 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>375</v>
@@ -13168,22 +13171,22 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
-        <v>425</v>
+        <v>374</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>800</v>
+        <v>375</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>801</v>
+        <v>376</v>
       </c>
       <c r="D292" s="4">
-        <v>4301132170</v>
+        <v>4301131019</v>
       </c>
       <c r="E292" s="3">
-        <v>4607111038487</v>
+        <v>4640242180427</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>802</v>
+        <v>377</v>
       </c>
       <c r="G292" s="1">
         <f>VLOOKUP(E292,[1]Лист1!$D:$M,10,0)</f>
@@ -13192,7 +13195,7 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>800</v>
@@ -13216,7 +13219,7 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>800</v>
@@ -13240,7 +13243,7 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
-        <v>424</v>
+        <v>456</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>800</v>
@@ -13264,22 +13267,22 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>435</v>
+        <v>800</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>436</v>
+        <v>801</v>
       </c>
       <c r="D296" s="4">
-        <v>4301070884</v>
+        <v>4301132170</v>
       </c>
       <c r="E296" s="3">
-        <v>4607111036315</v>
+        <v>4607111038487</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>437</v>
+        <v>802</v>
       </c>
       <c r="G296" s="1">
         <f>VLOOKUP(E296,[1]Лист1!$D:$M,10,0)</f>
@@ -13288,7 +13291,7 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>435</v>
@@ -13312,22 +13315,22 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D298" s="4">
-        <v>4301133002</v>
+        <v>4301070884</v>
       </c>
       <c r="E298" s="3">
-        <v>4607111035783</v>
+        <v>4607111036315</v>
       </c>
       <c r="F298" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G298" s="1">
         <f>VLOOKUP(E298,[1]Лист1!$D:$M,10,0)</f>
@@ -13336,22 +13339,22 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D299" s="4">
-        <v>4301070958</v>
+        <v>4301133002</v>
       </c>
       <c r="E299" s="3">
-        <v>4607111038098</v>
+        <v>4607111035783</v>
       </c>
       <c r="F299" s="5" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G299" s="1">
         <f>VLOOKUP(E299,[1]Лист1!$D:$M,10,0)</f>
@@ -13360,30 +13363,31 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>517</v>
+        <v>447</v>
       </c>
       <c r="D300" s="4">
-        <v>4301135318</v>
+        <v>4301070958</v>
       </c>
       <c r="E300" s="3">
-        <v>4607111037480</v>
+        <v>4607111038098</v>
       </c>
       <c r="F300" s="5" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="G300" s="1">
+        <f>VLOOKUP(E300,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
-        <v>498</v>
+        <v>464</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>463</v>
@@ -13406,7 +13410,7 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
-        <v>462</v>
+        <v>498</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>463</v>
@@ -13429,22 +13433,22 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D303" s="4">
-        <v>4301135319</v>
+        <v>4301135318</v>
       </c>
       <c r="E303" s="3">
-        <v>4607111037473</v>
+        <v>4607111037480</v>
       </c>
       <c r="F303" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G303" s="1">
         <v>180</v>
@@ -13452,7 +13456,7 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>466</v>
@@ -13475,7 +13479,7 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>466</v>
@@ -13498,28 +13502,30 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>472</v>
+        <v>516</v>
       </c>
       <c r="D306" s="4">
-        <v>4301135198</v>
+        <v>4301135319</v>
       </c>
       <c r="E306" s="3">
-        <v>4640242180663</v>
+        <v>4607111037473</v>
       </c>
       <c r="F306" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="G306" s="1"/>
+        <v>467</v>
+      </c>
+      <c r="G306" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>471</v>
@@ -13540,51 +13546,49 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="D308" s="4">
-        <v>4301135317</v>
+        <v>4301135198</v>
       </c>
       <c r="E308" s="3">
-        <v>4607111039057</v>
+        <v>4640242180663</v>
       </c>
       <c r="F308" s="5" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="G308" s="1"/>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D309" s="4">
-        <v>4301070963</v>
+        <v>4301135317</v>
       </c>
       <c r="E309" s="3">
-        <v>4607111038630</v>
+        <v>4607111039057</v>
       </c>
       <c r="F309" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="G309" s="1">
-        <v>180</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="G309" s="1"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>487</v>
@@ -13605,24 +13609,24 @@
         <v>180</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D311" s="4">
-        <v>4301070960</v>
+        <v>4301070963</v>
       </c>
       <c r="E311" s="3">
-        <v>4607111038623</v>
+        <v>4607111038630</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G311" s="1">
         <v>180</v>
@@ -13630,7 +13634,7 @@
     </row>
     <row r="312" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>491</v>
@@ -13653,7 +13657,7 @@
     </row>
     <row r="313" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>491</v>
@@ -13676,7 +13680,7 @@
     </row>
     <row r="314" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>491</v>
@@ -13697,24 +13701,24 @@
         <v>180</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="B315" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="C315" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="D315" s="13">
-        <v>4301070997</v>
-      </c>
-      <c r="E315" s="14">
-        <v>4607111038586</v>
-      </c>
-      <c r="F315" s="15" t="s">
-        <v>497</v>
+        <v>490</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D315" s="4">
+        <v>4301070960</v>
+      </c>
+      <c r="E315" s="3">
+        <v>4607111038623</v>
+      </c>
+      <c r="F315" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="G315" s="1">
         <v>180</v>
@@ -13722,7 +13726,7 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B316" s="12" t="s">
         <v>495</v>
@@ -13745,7 +13749,7 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="B317" s="12" t="s">
         <v>495</v>
@@ -13768,7 +13772,7 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B318" s="12" t="s">
         <v>495</v>
@@ -13791,30 +13795,30 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="B319" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="C319" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="D319" s="4">
-        <v>4301190046</v>
-      </c>
-      <c r="E319" s="3">
-        <v>4607111038951</v>
-      </c>
-      <c r="F319" s="5" t="s">
-        <v>511</v>
+        <v>494</v>
+      </c>
+      <c r="B319" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="C319" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="D319" s="13">
+        <v>4301070997</v>
+      </c>
+      <c r="E319" s="14">
+        <v>4607111038586</v>
+      </c>
+      <c r="F319" s="15" t="s">
+        <v>497</v>
       </c>
       <c r="G319" s="1">
-        <v>365</v>
+        <v>180</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>509</v>
@@ -13837,30 +13841,30 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D321" s="4">
-        <v>4301070996</v>
+        <v>4301190046</v>
       </c>
       <c r="E321" s="3">
-        <v>4607111038654</v>
+        <v>4607111038951</v>
       </c>
       <c r="F321" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G321" s="1">
-        <v>180</v>
+        <v>365</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>514</v>
@@ -13883,28 +13887,30 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
-        <v>551</v>
+        <v>513</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D323" s="4">
-        <v>4301071021</v>
+        <v>4301070996</v>
       </c>
       <c r="E323" s="3">
-        <v>4640242181325</v>
+        <v>4607111038654</v>
       </c>
       <c r="F323" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G323" s="1"/>
+        <v>513</v>
+      </c>
+      <c r="G323" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>520</v>
@@ -13925,7 +13931,7 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>520</v>
@@ -13946,7 +13952,7 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
-        <v>519</v>
+        <v>577</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>520</v>
@@ -13967,73 +13973,73 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D327" s="4">
-        <v>4301135309</v>
+        <v>4301071021</v>
       </c>
       <c r="E327" s="3">
-        <v>4640242181332</v>
+        <v>4640242181325</v>
       </c>
       <c r="F327" s="5" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G327" s="1"/>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>318</v>
+        <v>524</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>319</v>
+        <v>525</v>
       </c>
       <c r="D328" s="4">
-        <v>4301070977</v>
+        <v>4301135309</v>
       </c>
       <c r="E328" s="3">
-        <v>4607111037411</v>
+        <v>4640242181332</v>
       </c>
       <c r="F328" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="G328" s="1">
-        <f>VLOOKUP(E328,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="G328" s="1"/>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>534</v>
+        <v>318</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>535</v>
+        <v>319</v>
       </c>
       <c r="D329" s="4">
-        <v>4301071014</v>
+        <v>4301070977</v>
       </c>
       <c r="E329" s="3">
-        <v>4640242181264</v>
+        <v>4607111037411</v>
       </c>
       <c r="F329" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="G329" s="1"/>
+        <v>320</v>
+      </c>
+      <c r="G329" s="1">
+        <f>VLOOKUP(E329,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>534</v>
@@ -14054,28 +14060,28 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
-        <v>571</v>
+        <v>533</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D331" s="4">
-        <v>4301135310</v>
+        <v>4301071014</v>
       </c>
       <c r="E331" s="3">
-        <v>4640242181318</v>
+        <v>4640242181264</v>
       </c>
       <c r="F331" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G331" s="1"/>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="10" t="s">
-        <v>611</v>
+        <v>571</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>540</v>
@@ -14096,7 +14102,7 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="10" t="s">
-        <v>539</v>
+        <v>611</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>540</v>
@@ -14117,28 +14123,28 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
-        <v>572</v>
+        <v>539</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D334" s="4">
-        <v>4301135306</v>
+        <v>4301135310</v>
       </c>
       <c r="E334" s="3">
-        <v>4640242181578</v>
+        <v>4640242181318</v>
       </c>
       <c r="F334" s="5" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G334" s="1"/>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="10" t="s">
-        <v>641</v>
+        <v>572</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>543</v>
@@ -14159,7 +14165,7 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="10" t="s">
-        <v>542</v>
+        <v>641</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>543</v>
@@ -14180,91 +14186,91 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
-        <v>576</v>
-      </c>
-      <c r="B337" s="12" t="s">
-        <v>546</v>
-      </c>
-      <c r="C337" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="D337" s="13">
-        <v>4301135305</v>
-      </c>
-      <c r="E337" s="14">
-        <v>4640242181394</v>
-      </c>
-      <c r="F337" s="15" t="s">
-        <v>545</v>
+        <v>542</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="D337" s="4">
+        <v>4301135306</v>
+      </c>
+      <c r="E337" s="3">
+        <v>4640242181578</v>
+      </c>
+      <c r="F337" s="5" t="s">
+        <v>542</v>
       </c>
       <c r="G337" s="1"/>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="B338" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B338" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="C338" s="3" t="s">
+      <c r="C338" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="D338" s="4">
+      <c r="D338" s="13">
         <v>4301135305</v>
       </c>
-      <c r="E338" s="3">
+      <c r="E338" s="14">
         <v>4640242181394</v>
       </c>
-      <c r="F338" s="5" t="s">
-        <v>614</v>
+      <c r="F338" s="15" t="s">
+        <v>545</v>
       </c>
       <c r="G338" s="1"/>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="B339" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="B339" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="C339" s="12" t="s">
+      <c r="C339" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="D339" s="13">
+      <c r="D339" s="4">
         <v>4301135305</v>
       </c>
-      <c r="E339" s="14">
+      <c r="E339" s="3">
         <v>4640242181394</v>
       </c>
-      <c r="F339" s="15" t="s">
-        <v>545</v>
+      <c r="F339" s="5" t="s">
+        <v>614</v>
       </c>
       <c r="G339" s="1"/>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="B340" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="C340" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="D340" s="4">
-        <v>4301070993</v>
-      </c>
-      <c r="E340" s="3">
-        <v>4640242180670</v>
-      </c>
-      <c r="F340" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
+      </c>
+      <c r="B340" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="C340" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="D340" s="13">
+        <v>4301135305</v>
+      </c>
+      <c r="E340" s="14">
+        <v>4640242181394</v>
+      </c>
+      <c r="F340" s="15" t="s">
+        <v>545</v>
       </c>
       <c r="G340" s="1"/>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="10" t="s">
-        <v>610</v>
+        <v>588</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>549</v>
@@ -14285,7 +14291,7 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="10" t="s">
-        <v>548</v>
+        <v>610</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>549</v>
@@ -14306,28 +14312,28 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="10" t="s">
-        <v>586</v>
+        <v>548</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="D343" s="4">
-        <v>4301135549</v>
+        <v>4301070993</v>
       </c>
       <c r="E343" s="3">
-        <v>4607111039095</v>
+        <v>4640242180670</v>
       </c>
       <c r="F343" s="5" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="G343" s="1"/>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="10" t="s">
-        <v>781</v>
+        <v>586</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>559</v>
@@ -14348,7 +14354,7 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="10" t="s">
-        <v>558</v>
+        <v>781</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>559</v>
@@ -14369,91 +14375,91 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="10" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="D346" s="4">
-        <v>4301132104</v>
+        <v>4301135549</v>
       </c>
       <c r="E346" s="3">
-        <v>4640242181219</v>
+        <v>4607111039095</v>
       </c>
       <c r="F346" s="5" t="s">
-        <v>581</v>
+        <v>558</v>
       </c>
       <c r="G346" s="1"/>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="10" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D347" s="4">
-        <v>4301070991</v>
+        <v>4301132104</v>
       </c>
       <c r="E347" s="3">
-        <v>4607111038180</v>
+        <v>4640242181219</v>
       </c>
       <c r="F347" s="5" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G347" s="1"/>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="10" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>603</v>
+        <v>584</v>
       </c>
       <c r="D348" s="4">
-        <v>4301135304</v>
+        <v>4301070991</v>
       </c>
       <c r="E348" s="3">
-        <v>4640242181240</v>
+        <v>4607111038180</v>
       </c>
       <c r="F348" s="5" t="s">
-        <v>604</v>
+        <v>585</v>
       </c>
       <c r="G348" s="1"/>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="10" t="s">
-        <v>653</v>
+        <v>601</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D349" s="4">
-        <v>4301135374</v>
+        <v>4301135304</v>
       </c>
       <c r="E349" s="3">
-        <v>4640242181424</v>
+        <v>4640242181240</v>
       </c>
       <c r="F349" s="5" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="G349" s="1"/>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="10" t="s">
-        <v>612</v>
+        <v>653</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>607</v>
@@ -14474,7 +14480,7 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="10" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>607</v>
@@ -14495,7 +14501,7 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="10" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>607</v>
@@ -14516,28 +14522,28 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="10" t="s">
-        <v>695</v>
+        <v>606</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="D353" s="4">
-        <v>4301071046</v>
+        <v>4301135374</v>
       </c>
       <c r="E353" s="3">
-        <v>4607111039354</v>
+        <v>4640242181424</v>
       </c>
       <c r="F353" s="5" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="G353" s="1"/>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="10" t="s">
-        <v>618</v>
+        <v>695</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>616</v>
@@ -14558,7 +14564,7 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="10" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>616</v>
@@ -14579,28 +14585,28 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="10" t="s">
-        <v>696</v>
+        <v>615</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D356" s="4">
-        <v>4301071047</v>
+        <v>4301071046</v>
       </c>
       <c r="E356" s="3">
-        <v>4607111039330</v>
+        <v>4607111039354</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G356" s="1"/>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="10" t="s">
-        <v>750</v>
+        <v>696</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>620</v>
@@ -14621,7 +14627,7 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="10" t="s">
-        <v>622</v>
+        <v>750</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>620</v>
@@ -14642,7 +14648,7 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="10" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>620</v>
@@ -14663,28 +14669,28 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="10" t="s">
-        <v>677</v>
+        <v>619</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D360" s="4">
-        <v>4301071051</v>
+        <v>4301071047</v>
       </c>
       <c r="E360" s="3">
-        <v>4607111039262</v>
+        <v>4607111039330</v>
       </c>
       <c r="F360" s="5" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G360" s="1"/>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="10" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>624</v>
@@ -14705,7 +14711,7 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="10" t="s">
-        <v>626</v>
+        <v>690</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>624</v>
@@ -14726,7 +14732,7 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="10" t="s">
-        <v>729</v>
+        <v>626</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>624</v>
@@ -14747,7 +14753,7 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="10" t="s">
-        <v>623</v>
+        <v>729</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>624</v>
@@ -14768,28 +14774,28 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="10" t="s">
-        <v>676</v>
+        <v>623</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D365" s="4">
-        <v>4301071038</v>
+        <v>4301071051</v>
       </c>
       <c r="E365" s="3">
-        <v>4607111039248</v>
+        <v>4607111039262</v>
       </c>
       <c r="F365" s="5" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G365" s="1"/>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="10" t="s">
-        <v>702</v>
+        <v>676</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>628</v>
@@ -14810,7 +14816,7 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="10" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>628</v>
@@ -14831,7 +14837,7 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="10" t="s">
-        <v>630</v>
+        <v>691</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>628</v>
@@ -14852,7 +14858,7 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="10" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>628</v>
@@ -14873,28 +14879,28 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="10" t="s">
-        <v>679</v>
+        <v>627</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D370" s="4">
-        <v>4301071049</v>
+        <v>4301071038</v>
       </c>
       <c r="E370" s="3">
-        <v>4607111039293</v>
+        <v>4607111039248</v>
       </c>
       <c r="F370" s="5" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G370" s="1"/>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="10" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>632</v>
@@ -14915,7 +14921,7 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="10" t="s">
-        <v>634</v>
+        <v>692</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>632</v>
@@ -14936,7 +14942,7 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="10" t="s">
-        <v>730</v>
+        <v>634</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>632</v>
@@ -14957,7 +14963,7 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="10" t="s">
-        <v>631</v>
+        <v>730</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>632</v>
@@ -14978,28 +14984,28 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="10" t="s">
-        <v>678</v>
+        <v>631</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D375" s="4">
-        <v>4301071039</v>
+        <v>4301071049</v>
       </c>
       <c r="E375" s="3">
-        <v>4607111039279</v>
+        <v>4607111039293</v>
       </c>
       <c r="F375" s="5" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G375" s="1"/>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="10" t="s">
-        <v>703</v>
+        <v>678</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>636</v>
@@ -15020,7 +15026,7 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="10" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>636</v>
@@ -15041,7 +15047,7 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="10" t="s">
-        <v>638</v>
+        <v>693</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>636</v>
@@ -15062,7 +15068,7 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="10" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>636</v>
@@ -15083,28 +15089,28 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="10" t="s">
-        <v>662</v>
+        <v>635</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>660</v>
+        <v>636</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="D380" s="4">
-        <v>4301135696</v>
+        <v>4301071039</v>
       </c>
       <c r="E380" s="3">
-        <v>4620207490235</v>
+        <v>4607111039279</v>
       </c>
       <c r="F380" s="5" t="s">
-        <v>662</v>
+        <v>638</v>
       </c>
       <c r="G380" s="1"/>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="10" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>660</v>
@@ -15125,7 +15131,7 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="10" t="s">
-        <v>659</v>
+        <v>688</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>660</v>
@@ -15146,28 +15152,28 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="10" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="D383" s="4">
-        <v>4301135707</v>
+        <v>4301135696</v>
       </c>
       <c r="E383" s="3">
-        <v>4620207490198</v>
+        <v>4620207490235</v>
       </c>
       <c r="F383" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="G383" s="1"/>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="10" t="s">
-        <v>724</v>
+        <v>670</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>671</v>
@@ -15188,7 +15194,7 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="10" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>671</v>
@@ -15209,28 +15215,28 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="10" t="s">
-        <v>673</v>
+        <v>704</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D386" s="4">
-        <v>4301135697</v>
+        <v>4301135707</v>
       </c>
       <c r="E386" s="3">
-        <v>4620207490259</v>
+        <v>4620207490198</v>
       </c>
       <c r="F386" s="5" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="G386" s="1"/>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="10" t="s">
-        <v>732</v>
+        <v>673</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>674</v>
@@ -15251,7 +15257,7 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="10" t="s">
-        <v>705</v>
+        <v>732</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>674</v>
@@ -15272,28 +15278,28 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="10" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="D389" s="4">
-        <v>4301071044</v>
+        <v>4301135697</v>
       </c>
       <c r="E389" s="3">
-        <v>4607111039385</v>
+        <v>4620207490259</v>
       </c>
       <c r="F389" s="5" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="G389" s="1"/>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="10" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>681</v>
@@ -15314,7 +15320,7 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="10" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>681</v>
@@ -15335,7 +15341,7 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="10" t="s">
-        <v>890</v>
+        <v>683</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>681</v>
@@ -15356,7 +15362,7 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="10" t="s">
-        <v>680</v>
+        <v>890</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>681</v>
@@ -15377,28 +15383,28 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="10" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D394" s="4">
-        <v>4301071045</v>
+        <v>4301071044</v>
       </c>
       <c r="E394" s="3">
-        <v>4607111039392</v>
+        <v>4607111039385</v>
       </c>
       <c r="F394" s="5" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="G394" s="1"/>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="10" t="s">
-        <v>725</v>
+        <v>684</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>685</v>
@@ -15419,7 +15425,7 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="10" t="s">
-        <v>706</v>
+        <v>725</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>685</v>
@@ -15440,28 +15446,28 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="10" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="D397" s="4">
-        <v>4301071031</v>
+        <v>4301071045</v>
       </c>
       <c r="E397" s="3">
-        <v>4607111038982</v>
+        <v>4607111039392</v>
       </c>
       <c r="F397" s="5" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="G397" s="1"/>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="10" t="s">
-        <v>749</v>
+        <v>700</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>698</v>
@@ -15482,7 +15488,7 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="10" t="s">
-        <v>697</v>
+        <v>749</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>698</v>
@@ -15503,30 +15509,28 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="10" t="s">
-        <v>790</v>
+        <v>697</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>910</v>
+        <v>698</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>911</v>
+        <v>699</v>
       </c>
       <c r="D400" s="4">
-        <v>4301135591</v>
+        <v>4301071031</v>
       </c>
       <c r="E400" s="3">
-        <v>4607111036568</v>
+        <v>4607111038982</v>
       </c>
       <c r="F400" s="5" t="s">
-        <v>912</v>
-      </c>
-      <c r="G400" s="1">
-        <v>180</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="G400" s="1"/>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="10" t="s">
-        <v>884</v>
+        <v>790</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>910</v>
@@ -15549,7 +15553,7 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="10" t="s">
-        <v>719</v>
+        <v>884</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>910</v>
@@ -15572,28 +15576,30 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="10" t="s">
-        <v>916</v>
+        <v>719</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>722</v>
+        <v>910</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>723</v>
+        <v>911</v>
       </c>
       <c r="D403" s="4">
-        <v>4301135402</v>
+        <v>4301135591</v>
       </c>
       <c r="E403" s="3">
-        <v>4640242181493</v>
+        <v>4607111036568</v>
       </c>
       <c r="F403" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="G403" s="1"/>
+        <v>912</v>
+      </c>
+      <c r="G403" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="10" t="s">
-        <v>721</v>
+        <v>916</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>722</v>
@@ -15614,28 +15620,28 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="10" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D405" s="4">
-        <v>4301135607</v>
+        <v>4301135402</v>
       </c>
       <c r="E405" s="3">
-        <v>4607111039613</v>
+        <v>4640242181493</v>
       </c>
       <c r="F405" s="5" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="G405" s="1"/>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="10" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>726</v>
@@ -15656,7 +15662,7 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="10" t="s">
-        <v>787</v>
+        <v>751</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>726</v>
@@ -15677,7 +15683,7 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="10" t="s">
-        <v>733</v>
+        <v>787</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>726</v>
@@ -15698,28 +15704,28 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="10" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="D409" s="4">
-        <v>4301190068</v>
+        <v>4301135607</v>
       </c>
       <c r="E409" s="3">
-        <v>4620207490365</v>
+        <v>4607111039613</v>
       </c>
       <c r="F409" s="5" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="G409" s="1"/>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="10" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>735</v>
@@ -15740,7 +15746,7 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="10" t="s">
-        <v>734</v>
+        <v>761</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>735</v>
@@ -15761,28 +15767,28 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="10" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D412" s="4">
-        <v>4301190070</v>
+        <v>4301190068</v>
       </c>
       <c r="E412" s="3">
-        <v>4620207490419</v>
+        <v>4620207490365</v>
       </c>
       <c r="F412" s="5" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="G412" s="1"/>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="10" t="s">
-        <v>737</v>
+        <v>748</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>738</v>
@@ -15803,30 +15809,28 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="10" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="D414" s="4">
-        <v>4301071032</v>
+        <v>4301190070</v>
       </c>
       <c r="E414" s="3">
-        <v>4607111038999</v>
+        <v>4620207490419</v>
       </c>
       <c r="F414" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="G414" s="1">
-        <v>180</v>
-      </c>
+        <v>737</v>
+      </c>
+      <c r="G414" s="1"/>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="10" t="s">
-        <v>807</v>
+        <v>746</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>744</v>
@@ -15849,7 +15853,7 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="10" t="s">
-        <v>888</v>
+        <v>807</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>744</v>
@@ -15872,7 +15876,7 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="10" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>744</v>
@@ -15895,7 +15899,7 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="10" t="s">
-        <v>743</v>
+        <v>889</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>744</v>
@@ -15918,51 +15922,51 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="10" t="s">
-        <v>762</v>
+        <v>743</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
       <c r="D419" s="4">
-        <v>4301135404</v>
+        <v>4301071032</v>
       </c>
       <c r="E419" s="3">
-        <v>4640242181516</v>
+        <v>4607111038999</v>
       </c>
       <c r="F419" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="G419" s="1"/>
+        <v>746</v>
+      </c>
+      <c r="G419" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="10" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D420" s="4">
-        <v>4301071090</v>
+        <v>4301135404</v>
       </c>
       <c r="E420" s="3">
-        <v>4620207490075</v>
+        <v>4640242181516</v>
       </c>
       <c r="F420" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="G420" s="1">
-        <v>180</v>
-      </c>
+        <v>762</v>
+      </c>
+      <c r="G420" s="1"/>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="10" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>766</v>
@@ -15985,22 +15989,22 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="10" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D422" s="4">
-        <v>4301071092</v>
+        <v>4301071090</v>
       </c>
       <c r="E422" s="3">
-        <v>4620207490174</v>
+        <v>4620207490075</v>
       </c>
       <c r="F422" s="5" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G422" s="1">
         <v>180</v>
@@ -16008,7 +16012,7 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="10" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>769</v>
@@ -16031,7 +16035,7 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="10" t="s">
-        <v>768</v>
+        <v>779</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>769</v>
@@ -16054,22 +16058,22 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="10" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D425" s="4">
-        <v>4301071091</v>
+        <v>4301071092</v>
       </c>
       <c r="E425" s="3">
-        <v>4620207490044</v>
+        <v>4620207490174</v>
       </c>
       <c r="F425" s="5" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="G425" s="1">
         <v>180</v>
@@ -16077,7 +16081,7 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="10" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>772</v>
@@ -16100,72 +16104,72 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="10" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="D427" s="4">
-        <v>4301132044</v>
+        <v>4301071091</v>
       </c>
       <c r="E427" s="3">
-        <v>4607111036971</v>
+        <v>4620207490044</v>
       </c>
       <c r="F427" s="5" t="s">
-        <v>785</v>
-      </c>
-      <c r="G427" s="1"/>
+        <v>771</v>
+      </c>
+      <c r="G427" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="10" t="s">
-        <v>803</v>
+        <v>782</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>804</v>
+        <v>783</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>805</v>
+        <v>784</v>
       </c>
       <c r="D428" s="4">
-        <v>4301135127</v>
+        <v>4301132044</v>
       </c>
       <c r="E428" s="3">
-        <v>4607111036995</v>
+        <v>4607111036971</v>
       </c>
       <c r="F428" s="5" t="s">
-        <v>806</v>
+        <v>785</v>
       </c>
       <c r="G428" s="1"/>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="10" t="s">
-        <v>902</v>
+        <v>803</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>892</v>
+        <v>804</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>893</v>
+        <v>805</v>
       </c>
       <c r="D429" s="4">
-        <v>4301135670</v>
+        <v>4301135127</v>
       </c>
       <c r="E429" s="3">
-        <v>4620207490983</v>
+        <v>4607111036995</v>
       </c>
       <c r="F429" s="5" t="s">
-        <v>901</v>
-      </c>
-      <c r="G429" s="1">
-        <v>180</v>
-      </c>
+        <v>806</v>
+      </c>
+      <c r="G429" s="1"/>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="10" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>892</v>
@@ -16188,7 +16192,7 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="10" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>892</v>
@@ -16211,7 +16215,7 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="10" t="s">
-        <v>891</v>
+        <v>914</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>892</v>
@@ -16234,28 +16238,30 @@
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="10" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D433" s="4">
-        <v>4301071074</v>
+        <v>4301135670</v>
       </c>
       <c r="E433" s="3">
-        <v>4620207491157</v>
+        <v>4620207490983</v>
       </c>
       <c r="F433" s="5" t="s">
-        <v>894</v>
-      </c>
-      <c r="G433" s="1"/>
+        <v>901</v>
+      </c>
+      <c r="G433" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="10" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>895</v>
@@ -16276,7 +16282,7 @@
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="10" t="s">
-        <v>894</v>
+        <v>909</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>895</v>
@@ -16297,28 +16303,28 @@
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="10" t="s">
-        <v>929</v>
+        <v>894</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>918</v>
+        <v>895</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>919</v>
+        <v>896</v>
       </c>
       <c r="D436" s="4">
-        <v>4301135763</v>
+        <v>4301071074</v>
       </c>
       <c r="E436" s="3">
-        <v>4620207491027</v>
+        <v>4620207491157</v>
       </c>
       <c r="F436" s="5" t="s">
-        <v>920</v>
+        <v>894</v>
       </c>
       <c r="G436" s="1"/>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="10" t="s">
-        <v>920</v>
+        <v>929</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>918</v>
@@ -16339,7 +16345,7 @@
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="10" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>918</v>
@@ -16360,7 +16366,7 @@
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="10" t="s">
-        <v>917</v>
+        <v>930</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>918</v>
@@ -16381,88 +16387,85 @@
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="10" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D440" s="4">
-        <v>4301135665</v>
+        <v>4301135763</v>
       </c>
       <c r="E440" s="3">
-        <v>4607111039729</v>
+        <v>4620207491027</v>
       </c>
       <c r="F440" s="5" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="G440" s="1"/>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="10" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="D441" s="4">
-        <v>4301135702</v>
+        <v>4301135665</v>
       </c>
       <c r="E441" s="3">
-        <v>4620207490228</v>
+        <v>4607111039729</v>
       </c>
       <c r="F441" s="5" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="G441" s="1"/>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="10" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>766</v>
+        <v>926</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>767</v>
+        <v>927</v>
       </c>
       <c r="D442" s="4">
-        <v>4301071090</v>
+        <v>4301135702</v>
       </c>
       <c r="E442" s="3">
-        <v>4620207490075</v>
+        <v>4620207490228</v>
       </c>
       <c r="F442" s="5" t="s">
-        <v>765</v>
+        <v>928</v>
       </c>
       <c r="G442" s="1"/>
-      <c r="H442" s="16" t="s">
-        <v>940</v>
-      </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="10" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="D443" s="4">
-        <v>4301071091</v>
+        <v>4301071090</v>
       </c>
       <c r="E443" s="3">
-        <v>4620207490044</v>
+        <v>4620207490075</v>
       </c>
       <c r="F443" s="5" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="G443" s="1"/>
       <c r="H443" s="16" t="s">
@@ -16471,22 +16474,22 @@
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="10" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>744</v>
+        <v>772</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>745</v>
+        <v>773</v>
       </c>
       <c r="D444" s="4">
-        <v>4301071032</v>
+        <v>4301071091</v>
       </c>
       <c r="E444" s="3">
-        <v>4607111038999</v>
+        <v>4620207490044</v>
       </c>
       <c r="F444" s="5" t="s">
-        <v>746</v>
+        <v>771</v>
       </c>
       <c r="G444" s="1"/>
       <c r="H444" s="16" t="s">
@@ -16495,22 +16498,22 @@
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="10" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>681</v>
+        <v>744</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>682</v>
+        <v>745</v>
       </c>
       <c r="D445" s="4">
-        <v>4301071044</v>
+        <v>4301071032</v>
       </c>
       <c r="E445" s="3">
-        <v>4607111039385</v>
+        <v>4607111038999</v>
       </c>
       <c r="F445" s="5" t="s">
-        <v>683</v>
+        <v>746</v>
       </c>
       <c r="G445" s="1"/>
       <c r="H445" s="16" t="s">
@@ -16519,22 +16522,22 @@
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="10" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>628</v>
+        <v>681</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>629</v>
+        <v>682</v>
       </c>
       <c r="D446" s="4">
-        <v>4301071038</v>
+        <v>4301071044</v>
       </c>
       <c r="E446" s="3">
-        <v>4607111039248</v>
+        <v>4607111039385</v>
       </c>
       <c r="F446" s="5" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="G446" s="1"/>
       <c r="H446" s="16" t="s">
@@ -16543,22 +16546,22 @@
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="10" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="D447" s="4">
-        <v>4301071051</v>
+        <v>4301071038</v>
       </c>
       <c r="E447" s="3">
-        <v>4607111039262</v>
+        <v>4607111039248</v>
       </c>
       <c r="F447" s="5" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="G447" s="1"/>
       <c r="H447" s="16" t="s">
@@ -16567,22 +16570,22 @@
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="10" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="D448" s="4">
-        <v>4301071049</v>
+        <v>4301071051</v>
       </c>
       <c r="E448" s="3">
-        <v>4607111039293</v>
+        <v>4607111039262</v>
       </c>
       <c r="F448" s="5" t="s">
-        <v>939</v>
+        <v>626</v>
       </c>
       <c r="G448" s="1"/>
       <c r="H448" s="16" t="s">
@@ -16591,22 +16594,22 @@
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="10" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D449" s="4">
-        <v>4301071039</v>
+        <v>4301071049</v>
       </c>
       <c r="E449" s="3">
-        <v>4607111039279</v>
+        <v>4607111039293</v>
       </c>
       <c r="F449" s="5" t="s">
-        <v>638</v>
+        <v>939</v>
       </c>
       <c r="G449" s="1"/>
       <c r="H449" s="16" t="s">
@@ -16615,22 +16618,22 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="10" t="s">
-        <v>658</v>
+        <v>938</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="D450" s="4">
-        <v>4301135578</v>
+        <v>4301071039</v>
       </c>
       <c r="E450" s="3">
-        <v>4607111033444</v>
+        <v>4607111039279</v>
       </c>
       <c r="F450" s="5" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="G450" s="1"/>
       <c r="H450" s="16" t="s">
@@ -16639,22 +16642,22 @@
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="10" t="s">
-        <v>754</v>
+        <v>658</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>752</v>
+        <v>656</v>
       </c>
       <c r="C451" s="3" t="s">
-        <v>753</v>
+        <v>657</v>
       </c>
       <c r="D451" s="4">
-        <v>4301132190</v>
+        <v>4301135578</v>
       </c>
       <c r="E451" s="3">
-        <v>4607111036537</v>
+        <v>4607111033444</v>
       </c>
       <c r="F451" s="5" t="s">
-        <v>754</v>
+        <v>658</v>
       </c>
       <c r="G451" s="1"/>
       <c r="H451" s="16" t="s">
@@ -16663,109 +16666,109 @@
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="10" t="s">
-        <v>943</v>
+        <v>754</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>944</v>
+        <v>752</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>945</v>
+        <v>753</v>
       </c>
       <c r="D452" s="4">
-        <v>4301135768</v>
+        <v>4301132190</v>
       </c>
       <c r="E452" s="3">
-        <v>4620207491034</v>
+        <v>4607111036537</v>
       </c>
       <c r="F452" s="5" t="s">
-        <v>943</v>
+        <v>754</v>
       </c>
       <c r="G452" s="1"/>
+      <c r="H452" s="16" t="s">
+        <v>940</v>
+      </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="10" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="D453" s="4">
-        <v>4301071097</v>
+        <v>4301135768</v>
       </c>
       <c r="E453" s="3">
-        <v>4620207491096</v>
+        <v>4620207491034</v>
       </c>
       <c r="F453" s="5" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="G453" s="1"/>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="D454" s="4">
+        <v>4301071097</v>
+      </c>
+      <c r="E454" s="3">
+        <v>4620207491096</v>
+      </c>
+      <c r="F454" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="G454" s="1"/>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A455" s="10" t="s">
         <v>952</v>
       </c>
-      <c r="B454" s="3" t="s">
+      <c r="B455" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="C454" s="3" t="s">
+      <c r="C455" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="D454" s="4">
+      <c r="D455" s="4">
         <v>4301132227</v>
       </c>
-      <c r="E454" s="3">
+      <c r="E455" s="3">
         <v>4620207491133</v>
       </c>
-      <c r="F454" s="5" t="s">
+      <c r="F455" s="5" t="s">
         <v>952</v>
       </c>
-      <c r="G454" s="1"/>
-    </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A455" s="17" t="s">
-        <v>808</v>
-      </c>
-      <c r="B455" s="18" t="s">
-        <v>628</v>
-      </c>
-      <c r="C455" s="18" t="s">
-        <v>629</v>
-      </c>
-      <c r="D455" s="19">
-        <v>4301071038</v>
-      </c>
-      <c r="E455" s="18">
-        <v>4607111039248</v>
-      </c>
-      <c r="F455" s="20" t="s">
-        <v>630</v>
-      </c>
-      <c r="G455" s="21"/>
-      <c r="H455" s="22" t="s">
-        <v>869</v>
-      </c>
+      <c r="G455" s="1"/>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="17" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B456" s="18" t="s">
-        <v>106</v>
+        <v>628</v>
       </c>
       <c r="C456" s="18" t="s">
-        <v>261</v>
+        <v>629</v>
       </c>
       <c r="D456" s="19">
-        <v>4301070981</v>
+        <v>4301071038</v>
       </c>
       <c r="E456" s="18">
-        <v>4607111036728</v>
+        <v>4607111039248</v>
       </c>
       <c r="F456" s="20" t="s">
-        <v>262</v>
+        <v>630</v>
       </c>
       <c r="G456" s="21"/>
       <c r="H456" s="22" t="s">
@@ -16774,22 +16777,22 @@
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="17" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B457" s="18" t="s">
-        <v>636</v>
+        <v>106</v>
       </c>
       <c r="C457" s="18" t="s">
-        <v>637</v>
+        <v>261</v>
       </c>
       <c r="D457" s="19">
-        <v>4301071039</v>
+        <v>4301070981</v>
       </c>
       <c r="E457" s="18">
-        <v>4607111039279</v>
+        <v>4607111036728</v>
       </c>
       <c r="F457" s="20" t="s">
-        <v>638</v>
+        <v>262</v>
       </c>
       <c r="G457" s="21"/>
       <c r="H457" s="22" t="s">
@@ -16798,22 +16801,22 @@
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="17" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B458" s="18" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="C458" s="18" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="D458" s="19">
-        <v>4301071051</v>
+        <v>4301071039</v>
       </c>
       <c r="E458" s="18">
-        <v>4607111039262</v>
+        <v>4607111039279</v>
       </c>
       <c r="F458" s="20" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="G458" s="21"/>
       <c r="H458" s="22" t="s">
@@ -16822,22 +16825,22 @@
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B459" s="18" t="s">
-        <v>293</v>
+        <v>624</v>
       </c>
       <c r="C459" s="18" t="s">
-        <v>294</v>
+        <v>625</v>
       </c>
       <c r="D459" s="19">
-        <v>4301132080</v>
+        <v>4301071051</v>
       </c>
       <c r="E459" s="18">
-        <v>4640242180397</v>
+        <v>4607111039262</v>
       </c>
       <c r="F459" s="20" t="s">
-        <v>295</v>
+        <v>626</v>
       </c>
       <c r="G459" s="21"/>
       <c r="H459" s="22" t="s">
@@ -16846,22 +16849,22 @@
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B460" s="18" t="s">
-        <v>113</v>
+        <v>293</v>
       </c>
       <c r="C460" s="18" t="s">
-        <v>529</v>
+        <v>294</v>
       </c>
       <c r="D460" s="19">
-        <v>4301071029</v>
+        <v>4301132080</v>
       </c>
       <c r="E460" s="18">
-        <v>4607111035899</v>
+        <v>4640242180397</v>
       </c>
       <c r="F460" s="20" t="s">
-        <v>114</v>
+        <v>295</v>
       </c>
       <c r="G460" s="21"/>
       <c r="H460" s="22" t="s">
@@ -16870,22 +16873,22 @@
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="17" t="s">
-        <v>814</v>
-      </c>
-      <c r="B461" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C461" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D461" s="4">
-        <v>4301136053</v>
-      </c>
-      <c r="E461" s="3">
-        <v>4640242180236</v>
-      </c>
-      <c r="F461" s="5" t="s">
-        <v>304</v>
+        <v>813</v>
+      </c>
+      <c r="B461" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C461" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="D461" s="19">
+        <v>4301071029</v>
+      </c>
+      <c r="E461" s="18">
+        <v>4607111035899</v>
+      </c>
+      <c r="F461" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="G461" s="21"/>
       <c r="H461" s="22" t="s">
@@ -16894,22 +16897,22 @@
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="17" t="s">
-        <v>815</v>
-      </c>
-      <c r="B462" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="C462" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="D462" s="19">
-        <v>4301070977</v>
-      </c>
-      <c r="E462" s="18">
-        <v>4607111037411</v>
-      </c>
-      <c r="F462" s="20" t="s">
-        <v>320</v>
+        <v>814</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D462" s="4">
+        <v>4301136053</v>
+      </c>
+      <c r="E462" s="3">
+        <v>4640242180236</v>
+      </c>
+      <c r="F462" s="5" t="s">
+        <v>304</v>
       </c>
       <c r="G462" s="21"/>
       <c r="H462" s="22" t="s">
@@ -16918,22 +16921,22 @@
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="17" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B463" s="18" t="s">
-        <v>561</v>
+        <v>318</v>
       </c>
       <c r="C463" s="18" t="s">
-        <v>562</v>
+        <v>319</v>
       </c>
       <c r="D463" s="19">
-        <v>4301135375</v>
+        <v>4301070977</v>
       </c>
       <c r="E463" s="18">
-        <v>4640242181486</v>
+        <v>4607111037411</v>
       </c>
       <c r="F463" s="20" t="s">
-        <v>563</v>
+        <v>320</v>
       </c>
       <c r="G463" s="21"/>
       <c r="H463" s="22" t="s">
@@ -16942,22 +16945,22 @@
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="17" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B464" s="18" t="s">
-        <v>656</v>
+        <v>561</v>
       </c>
       <c r="C464" s="18" t="s">
-        <v>657</v>
+        <v>562</v>
       </c>
       <c r="D464" s="19">
-        <v>4301135578</v>
+        <v>4301135375</v>
       </c>
       <c r="E464" s="18">
-        <v>4607111033444</v>
+        <v>4640242181486</v>
       </c>
       <c r="F464" s="20" t="s">
-        <v>658</v>
+        <v>563</v>
       </c>
       <c r="G464" s="21"/>
       <c r="H464" s="22" t="s">
@@ -16966,22 +16969,22 @@
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="17" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B465" s="18" t="s">
-        <v>112</v>
+        <v>656</v>
       </c>
       <c r="C465" s="18" t="s">
-        <v>639</v>
+        <v>657</v>
       </c>
       <c r="D465" s="19">
-        <v>4301071050</v>
+        <v>4301135578</v>
       </c>
       <c r="E465" s="18">
-        <v>4607111036216</v>
+        <v>4607111033444</v>
       </c>
       <c r="F465" s="20" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
       <c r="G465" s="21"/>
       <c r="H465" s="22" t="s">
@@ -16990,22 +16993,22 @@
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="17" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B466" s="18" t="s">
-        <v>632</v>
+        <v>112</v>
       </c>
       <c r="C466" s="18" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="D466" s="19">
-        <v>4301071049</v>
+        <v>4301071050</v>
       </c>
       <c r="E466" s="18">
-        <v>4607111039293</v>
+        <v>4607111036216</v>
       </c>
       <c r="F466" s="20" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="G466" s="21"/>
       <c r="H466" s="22" t="s">
@@ -17014,22 +17017,22 @@
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="17" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B467" s="18" t="s">
-        <v>664</v>
+        <v>632</v>
       </c>
       <c r="C467" s="18" t="s">
-        <v>665</v>
+        <v>633</v>
       </c>
       <c r="D467" s="19">
-        <v>4301135532</v>
+        <v>4301071049</v>
       </c>
       <c r="E467" s="18">
-        <v>4607111033994</v>
+        <v>4607111039293</v>
       </c>
       <c r="F467" s="20" t="s">
-        <v>666</v>
+        <v>634</v>
       </c>
       <c r="G467" s="21"/>
       <c r="H467" s="22" t="s">
@@ -17038,22 +17041,22 @@
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="17" t="s">
-        <v>821</v>
-      </c>
-      <c r="B468" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="C468" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D468" s="4">
-        <v>4301135555</v>
-      </c>
-      <c r="E468" s="3">
-        <v>4607111034014</v>
-      </c>
-      <c r="F468" s="5" t="s">
-        <v>669</v>
+        <v>820</v>
+      </c>
+      <c r="B468" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="C468" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="D468" s="19">
+        <v>4301135532</v>
+      </c>
+      <c r="E468" s="18">
+        <v>4607111033994</v>
+      </c>
+      <c r="F468" s="20" t="s">
+        <v>666</v>
       </c>
       <c r="G468" s="21"/>
       <c r="H468" s="22" t="s">
@@ -17062,22 +17065,22 @@
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>645</v>
+        <v>668</v>
       </c>
       <c r="D469" s="4">
-        <v>4301135577</v>
+        <v>4301135555</v>
       </c>
       <c r="E469" s="3">
-        <v>4607111033451</v>
+        <v>4607111034014</v>
       </c>
       <c r="F469" s="5" t="s">
-        <v>646</v>
+        <v>669</v>
       </c>
       <c r="G469" s="21"/>
       <c r="H469" s="22" t="s">
@@ -17086,22 +17089,22 @@
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>382</v>
+        <v>644</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>383</v>
+        <v>645</v>
       </c>
       <c r="D470" s="4">
-        <v>4301136052</v>
+        <v>4301135577</v>
       </c>
       <c r="E470" s="3">
-        <v>4640242180410</v>
+        <v>4607111033451</v>
       </c>
       <c r="F470" s="5" t="s">
-        <v>384</v>
+        <v>646</v>
       </c>
       <c r="G470" s="21"/>
       <c r="H470" s="22" t="s">
@@ -17110,22 +17113,22 @@
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>555</v>
+        <v>382</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>556</v>
+        <v>383</v>
       </c>
       <c r="D471" s="4">
-        <v>4301135518</v>
+        <v>4301136052</v>
       </c>
       <c r="E471" s="3">
-        <v>4640242181561</v>
+        <v>4640242180410</v>
       </c>
       <c r="F471" s="5" t="s">
-        <v>557</v>
+        <v>384</v>
       </c>
       <c r="G471" s="21"/>
       <c r="H471" s="22" t="s">
@@ -17134,22 +17137,22 @@
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="17" t="s">
-        <v>825</v>
-      </c>
-      <c r="B472" s="18" t="s">
-        <v>607</v>
-      </c>
-      <c r="C472" s="18" t="s">
-        <v>608</v>
-      </c>
-      <c r="D472" s="19">
-        <v>4301135374</v>
-      </c>
-      <c r="E472" s="18">
-        <v>4640242181424</v>
-      </c>
-      <c r="F472" s="20" t="s">
-        <v>609</v>
+        <v>824</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D472" s="4">
+        <v>4301135518</v>
+      </c>
+      <c r="E472" s="3">
+        <v>4640242181561</v>
+      </c>
+      <c r="F472" s="5" t="s">
+        <v>557</v>
       </c>
       <c r="G472" s="21"/>
       <c r="H472" s="22" t="s">
@@ -17158,22 +17161,22 @@
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="17" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B473" s="18" t="s">
-        <v>870</v>
+        <v>607</v>
       </c>
       <c r="C473" s="18" t="s">
-        <v>871</v>
+        <v>608</v>
       </c>
       <c r="D473" s="19">
-        <v>4301132079</v>
+        <v>4301135374</v>
       </c>
       <c r="E473" s="18">
-        <v>4607111038487</v>
+        <v>4640242181424</v>
       </c>
       <c r="F473" s="20" t="s">
-        <v>425</v>
+        <v>609</v>
       </c>
       <c r="G473" s="21"/>
       <c r="H473" s="22" t="s">
@@ -17182,22 +17185,22 @@
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="17" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B474" s="18" t="s">
-        <v>164</v>
+        <v>870</v>
       </c>
       <c r="C474" s="18" t="s">
-        <v>642</v>
+        <v>871</v>
       </c>
       <c r="D474" s="19">
-        <v>4301071056</v>
+        <v>4301132079</v>
       </c>
       <c r="E474" s="18">
-        <v>4640242180250</v>
+        <v>4607111038487</v>
       </c>
       <c r="F474" s="20" t="s">
-        <v>643</v>
+        <v>425</v>
       </c>
       <c r="G474" s="21"/>
       <c r="H474" s="22" t="s">
@@ -17206,22 +17209,22 @@
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="17" t="s">
-        <v>828</v>
-      </c>
-      <c r="B475" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C475" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D475" s="4">
-        <v>4301136051</v>
-      </c>
-      <c r="E475" s="3">
-        <v>4640242180304</v>
-      </c>
-      <c r="F475" s="5" t="s">
-        <v>301</v>
+        <v>827</v>
+      </c>
+      <c r="B475" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C475" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="D475" s="19">
+        <v>4301071056</v>
+      </c>
+      <c r="E475" s="18">
+        <v>4640242180250</v>
+      </c>
+      <c r="F475" s="20" t="s">
+        <v>643</v>
       </c>
       <c r="G475" s="21"/>
       <c r="H475" s="22" t="s">
@@ -17230,22 +17233,22 @@
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="17" t="s">
-        <v>829</v>
-      </c>
-      <c r="B476" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C476" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D476" s="19">
-        <v>4301070920</v>
-      </c>
-      <c r="E476" s="18">
-        <v>4607111035929</v>
-      </c>
-      <c r="F476" s="20" t="s">
-        <v>111</v>
+        <v>828</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D476" s="4">
+        <v>4301136051</v>
+      </c>
+      <c r="E476" s="3">
+        <v>4640242180304</v>
+      </c>
+      <c r="F476" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="G476" s="21"/>
       <c r="H476" s="22" t="s">
@@ -17254,22 +17257,22 @@
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="17" t="s">
-        <v>830</v>
-      </c>
-      <c r="B477" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="C477" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="D477" s="4">
-        <v>4301135550</v>
-      </c>
-      <c r="E477" s="3">
-        <v>4607111034199</v>
-      </c>
-      <c r="F477" s="5" t="s">
-        <v>760</v>
+        <v>829</v>
+      </c>
+      <c r="B477" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C477" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D477" s="19">
+        <v>4301070920</v>
+      </c>
+      <c r="E477" s="18">
+        <v>4607111035929</v>
+      </c>
+      <c r="F477" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="G477" s="21"/>
       <c r="H477" s="22" t="s">
@@ -17278,22 +17281,22 @@
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="17" t="s">
-        <v>831</v>
-      </c>
-      <c r="B478" s="18" t="s">
-        <v>755</v>
-      </c>
-      <c r="C478" s="18" t="s">
-        <v>756</v>
-      </c>
-      <c r="D478" s="19">
-        <v>4301132186</v>
-      </c>
-      <c r="E478" s="18">
-        <v>4607111036520</v>
-      </c>
-      <c r="F478" s="20" t="s">
-        <v>757</v>
+        <v>830</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="D478" s="4">
+        <v>4301135550</v>
+      </c>
+      <c r="E478" s="3">
+        <v>4607111034199</v>
+      </c>
+      <c r="F478" s="5" t="s">
+        <v>760</v>
       </c>
       <c r="G478" s="21"/>
       <c r="H478" s="22" t="s">
@@ -17302,22 +17305,22 @@
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="17" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B479" s="18" t="s">
-        <v>620</v>
+        <v>755</v>
       </c>
       <c r="C479" s="18" t="s">
-        <v>621</v>
+        <v>756</v>
       </c>
       <c r="D479" s="19">
-        <v>4301071047</v>
+        <v>4301132186</v>
       </c>
       <c r="E479" s="18">
-        <v>4607111039330</v>
+        <v>4607111036520</v>
       </c>
       <c r="F479" s="20" t="s">
-        <v>622</v>
+        <v>757</v>
       </c>
       <c r="G479" s="21"/>
       <c r="H479" s="22" t="s">
@@ -17326,22 +17329,22 @@
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="17" t="s">
-        <v>833</v>
-      </c>
-      <c r="B480" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="C480" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="D480" s="4">
-        <v>4301131047</v>
-      </c>
-      <c r="E480" s="3">
-        <v>4607111034120</v>
-      </c>
-      <c r="F480" s="5" t="s">
-        <v>799</v>
+        <v>832</v>
+      </c>
+      <c r="B480" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="C480" s="18" t="s">
+        <v>621</v>
+      </c>
+      <c r="D480" s="19">
+        <v>4301071047</v>
+      </c>
+      <c r="E480" s="18">
+        <v>4607111039330</v>
+      </c>
+      <c r="F480" s="20" t="s">
+        <v>622</v>
       </c>
       <c r="G480" s="21"/>
       <c r="H480" s="22" t="s">
@@ -17350,22 +17353,22 @@
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="17" t="s">
-        <v>834</v>
-      </c>
-      <c r="B481" s="18" t="s">
-        <v>710</v>
-      </c>
-      <c r="C481" s="18" t="s">
-        <v>711</v>
-      </c>
-      <c r="D481" s="19">
-        <v>4301135569</v>
-      </c>
-      <c r="E481" s="18">
-        <v>4607111033628</v>
-      </c>
-      <c r="F481" s="20" t="s">
-        <v>712</v>
+        <v>833</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="D481" s="4">
+        <v>4301131047</v>
+      </c>
+      <c r="E481" s="3">
+        <v>4607111034120</v>
+      </c>
+      <c r="F481" s="5" t="s">
+        <v>799</v>
       </c>
       <c r="G481" s="21"/>
       <c r="H481" s="22" t="s">
@@ -17374,22 +17377,22 @@
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="17" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B482" s="18" t="s">
-        <v>565</v>
+        <v>710</v>
       </c>
       <c r="C482" s="18" t="s">
-        <v>566</v>
+        <v>711</v>
       </c>
       <c r="D482" s="19">
-        <v>4301135405</v>
+        <v>4301135569</v>
       </c>
       <c r="E482" s="18">
-        <v>4640242181523</v>
+        <v>4607111033628</v>
       </c>
       <c r="F482" s="20" t="s">
-        <v>567</v>
+        <v>712</v>
       </c>
       <c r="G482" s="21"/>
       <c r="H482" s="22" t="s">
@@ -17398,22 +17401,22 @@
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="17" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B483" s="18" t="s">
-        <v>722</v>
+        <v>565</v>
       </c>
       <c r="C483" s="18" t="s">
-        <v>723</v>
+        <v>566</v>
       </c>
       <c r="D483" s="19">
-        <v>4301135402</v>
+        <v>4301135405</v>
       </c>
       <c r="E483" s="18">
-        <v>4640242181493</v>
+        <v>4640242181523</v>
       </c>
       <c r="F483" s="20" t="s">
-        <v>721</v>
+        <v>567</v>
       </c>
       <c r="G483" s="21"/>
       <c r="H483" s="22" t="s">
@@ -17422,22 +17425,22 @@
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="17" t="s">
-        <v>837</v>
-      </c>
-      <c r="B484" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="C484" s="3" t="s">
-        <v>898</v>
-      </c>
-      <c r="D484" s="4">
-        <v>4301131046</v>
-      </c>
-      <c r="E484" s="3">
-        <v>4607111034137</v>
-      </c>
-      <c r="F484" s="5" t="s">
-        <v>899</v>
+        <v>836</v>
+      </c>
+      <c r="B484" s="18" t="s">
+        <v>722</v>
+      </c>
+      <c r="C484" s="18" t="s">
+        <v>723</v>
+      </c>
+      <c r="D484" s="19">
+        <v>4301135402</v>
+      </c>
+      <c r="E484" s="18">
+        <v>4640242181493</v>
+      </c>
+      <c r="F484" s="20" t="s">
+        <v>721</v>
       </c>
       <c r="G484" s="21"/>
       <c r="H484" s="22" t="s">
@@ -17446,22 +17449,22 @@
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="17" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="D485" s="4">
-        <v>4301136079</v>
+        <v>4301131046</v>
       </c>
       <c r="E485" s="3">
-        <v>4607025784319</v>
+        <v>4607111034137</v>
       </c>
       <c r="F485" s="5" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="G485" s="21"/>
       <c r="H485" s="22" t="s">
@@ -17470,22 +17473,22 @@
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="17" t="s">
-        <v>839</v>
-      </c>
-      <c r="B486" s="18" t="s">
-        <v>468</v>
-      </c>
-      <c r="C486" s="18" t="s">
-        <v>527</v>
-      </c>
-      <c r="D486" s="19">
-        <v>4301135275</v>
-      </c>
-      <c r="E486" s="18">
-        <v>4607111034380</v>
-      </c>
-      <c r="F486" s="20" t="s">
-        <v>469</v>
+        <v>838</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="C486" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="D486" s="4">
+        <v>4301136079</v>
+      </c>
+      <c r="E486" s="3">
+        <v>4607025784319</v>
+      </c>
+      <c r="F486" s="5" t="s">
+        <v>905</v>
       </c>
       <c r="G486" s="21"/>
       <c r="H486" s="22" t="s">
@@ -17494,22 +17497,22 @@
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="17" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B487" s="18" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="C487" s="18" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="D487" s="19">
-        <v>4301135277</v>
+        <v>4301135275</v>
       </c>
       <c r="E487" s="18">
-        <v>4607111034397</v>
+        <v>4607111034380</v>
       </c>
       <c r="F487" s="20" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G487" s="21"/>
       <c r="H487" s="22" t="s">
@@ -17518,22 +17521,22 @@
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="17" t="s">
-        <v>841</v>
-      </c>
-      <c r="B488" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="C488" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="D488" s="4">
-        <v>4301132179</v>
-      </c>
-      <c r="E488" s="3">
-        <v>4607111035691</v>
-      </c>
-      <c r="F488" s="5" t="s">
-        <v>887</v>
+        <v>840</v>
+      </c>
+      <c r="B488" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C488" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="D488" s="19">
+        <v>4301135277</v>
+      </c>
+      <c r="E488" s="18">
+        <v>4607111034397</v>
+      </c>
+      <c r="F488" s="20" t="s">
+        <v>478</v>
       </c>
       <c r="G488" s="21"/>
       <c r="H488" s="22" t="s">
@@ -17542,22 +17545,22 @@
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="17" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>752</v>
+        <v>885</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>753</v>
+        <v>886</v>
       </c>
       <c r="D489" s="4">
-        <v>4301132190</v>
+        <v>4301132179</v>
       </c>
       <c r="E489" s="3">
-        <v>4607111036537</v>
+        <v>4607111035691</v>
       </c>
       <c r="F489" s="5" t="s">
-        <v>754</v>
+        <v>887</v>
       </c>
       <c r="G489" s="21"/>
       <c r="H489" s="22" t="s">
@@ -17566,22 +17569,22 @@
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="17" t="s">
-        <v>843</v>
-      </c>
-      <c r="B490" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="C490" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="D490" s="19">
-        <v>4301131019</v>
-      </c>
-      <c r="E490" s="18">
-        <v>4640242180427</v>
-      </c>
-      <c r="F490" s="20" t="s">
-        <v>377</v>
+        <v>842</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="D490" s="4">
+        <v>4301132190</v>
+      </c>
+      <c r="E490" s="3">
+        <v>4607111036537</v>
+      </c>
+      <c r="F490" s="5" t="s">
+        <v>754</v>
       </c>
       <c r="G490" s="21"/>
       <c r="H490" s="22" t="s">
@@ -17590,22 +17593,22 @@
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="17" t="s">
-        <v>844</v>
-      </c>
-      <c r="B491" s="3" t="s">
-        <v>906</v>
-      </c>
-      <c r="C491" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="D491" s="4">
-        <v>4301135571</v>
-      </c>
-      <c r="E491" s="3">
-        <v>4607111035028</v>
-      </c>
-      <c r="F491" s="5" t="s">
-        <v>908</v>
+        <v>843</v>
+      </c>
+      <c r="B491" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="C491" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="D491" s="19">
+        <v>4301131019</v>
+      </c>
+      <c r="E491" s="18">
+        <v>4640242180427</v>
+      </c>
+      <c r="F491" s="20" t="s">
+        <v>377</v>
       </c>
       <c r="G491" s="21"/>
       <c r="H491" s="22" t="s">
@@ -17614,70 +17617,70 @@
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="17" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>946</v>
+        <v>906</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>947</v>
+        <v>907</v>
       </c>
       <c r="D492" s="4">
-        <v>4301135595</v>
+        <v>4301135571</v>
       </c>
       <c r="E492" s="3">
-        <v>4607111035141</v>
+        <v>4607111035028</v>
       </c>
       <c r="F492" s="5" t="s">
-        <v>948</v>
+        <v>908</v>
       </c>
       <c r="G492" s="21"/>
       <c r="H492" s="22" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="493" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="17" t="s">
-        <v>847</v>
-      </c>
-      <c r="B493" s="18" t="s">
-        <v>491</v>
-      </c>
-      <c r="C493" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="D493" s="19">
-        <v>4301070960</v>
-      </c>
-      <c r="E493" s="18">
-        <v>4607111038623</v>
-      </c>
-      <c r="F493" s="20" t="s">
-        <v>493</v>
+        <v>845</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="D493" s="4">
+        <v>4301135595</v>
+      </c>
+      <c r="E493" s="3">
+        <v>4607111035141</v>
+      </c>
+      <c r="F493" s="5" t="s">
+        <v>948</v>
       </c>
       <c r="G493" s="21"/>
       <c r="H493" s="22" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A494" s="17" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B494" s="18" t="s">
-        <v>368</v>
+        <v>491</v>
       </c>
       <c r="C494" s="18" t="s">
-        <v>369</v>
+        <v>492</v>
       </c>
       <c r="D494" s="19">
-        <v>4301070966</v>
+        <v>4301070960</v>
       </c>
       <c r="E494" s="18">
-        <v>4607111038135</v>
+        <v>4607111038623</v>
       </c>
       <c r="F494" s="20" t="s">
-        <v>367</v>
+        <v>493</v>
       </c>
       <c r="G494" s="21"/>
       <c r="H494" s="22" t="s">
@@ -17685,71 +17688,71 @@
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A495" s="10" t="s">
+      <c r="A495" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="B495" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="C495" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="D495" s="19">
+        <v>4301070966</v>
+      </c>
+      <c r="E495" s="18">
+        <v>4607111038135</v>
+      </c>
+      <c r="F495" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="G495" s="21"/>
+      <c r="H495" s="22" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A496" s="10" t="s">
         <v>915</v>
       </c>
-      <c r="B495" s="3" t="s">
+      <c r="B496" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="C495" s="3" t="s">
+      <c r="C496" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="D495" s="4">
+      <c r="D496" s="4">
         <v>4301070990</v>
       </c>
-      <c r="E495" s="3">
+      <c r="E496" s="3">
         <v>4607111038494</v>
       </c>
-      <c r="F495" s="5" t="s">
+      <c r="F496" s="5" t="s">
         <v>874</v>
       </c>
-      <c r="G495" s="1"/>
-      <c r="H495" s="16" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A496" s="17" t="s">
-        <v>849</v>
-      </c>
-      <c r="B496" s="18" t="s">
-        <v>872</v>
-      </c>
-      <c r="C496" s="18" t="s">
-        <v>873</v>
-      </c>
-      <c r="D496" s="19">
-        <v>4301070990</v>
-      </c>
-      <c r="E496" s="18">
-        <v>4607111038494</v>
-      </c>
-      <c r="F496" s="20" t="s">
-        <v>874</v>
-      </c>
-      <c r="G496" s="21"/>
-      <c r="H496" s="22" t="s">
+      <c r="G496" s="1"/>
+      <c r="H496" s="16" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="17" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B497" s="18" t="s">
-        <v>154</v>
+        <v>872</v>
       </c>
       <c r="C497" s="18" t="s">
-        <v>155</v>
+        <v>873</v>
       </c>
       <c r="D497" s="19">
-        <v>4301070921</v>
+        <v>4301070990</v>
       </c>
       <c r="E497" s="18">
-        <v>4607111035905</v>
+        <v>4607111038494</v>
       </c>
       <c r="F497" s="20" t="s">
-        <v>156</v>
+        <v>874</v>
       </c>
       <c r="G497" s="21"/>
       <c r="H497" s="22" t="s">
@@ -17758,22 +17761,22 @@
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="17" t="s">
-        <v>851</v>
-      </c>
-      <c r="B498" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C498" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="D498" s="4">
-        <v>4301135549</v>
-      </c>
-      <c r="E498" s="3">
-        <v>4607111039095</v>
-      </c>
-      <c r="F498" s="5" t="s">
-        <v>558</v>
+        <v>850</v>
+      </c>
+      <c r="B498" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C498" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D498" s="19">
+        <v>4301070921</v>
+      </c>
+      <c r="E498" s="18">
+        <v>4607111035905</v>
+      </c>
+      <c r="F498" s="20" t="s">
+        <v>156</v>
       </c>
       <c r="G498" s="21"/>
       <c r="H498" s="22" t="s">
@@ -17782,22 +17785,22 @@
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="17" t="s">
-        <v>852</v>
-      </c>
-      <c r="B499" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C499" s="18" t="s">
-        <v>531</v>
-      </c>
-      <c r="D499" s="19">
-        <v>4301135285</v>
-      </c>
-      <c r="E499" s="18">
-        <v>4607111036407</v>
-      </c>
-      <c r="F499" s="20" t="s">
-        <v>186</v>
+        <v>851</v>
+      </c>
+      <c r="B499" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C499" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="D499" s="4">
+        <v>4301135549</v>
+      </c>
+      <c r="E499" s="3">
+        <v>4607111039095</v>
+      </c>
+      <c r="F499" s="5" t="s">
+        <v>558</v>
       </c>
       <c r="G499" s="21"/>
       <c r="H499" s="22" t="s">
@@ -17806,22 +17809,22 @@
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="17" t="s">
-        <v>728</v>
-      </c>
-      <c r="B500" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="C500" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="D500" s="4">
-        <v>4301135607</v>
-      </c>
-      <c r="E500" s="3">
-        <v>4607111039613</v>
-      </c>
-      <c r="F500" s="5" t="s">
-        <v>728</v>
+        <v>852</v>
+      </c>
+      <c r="B500" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C500" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="D500" s="19">
+        <v>4301135285</v>
+      </c>
+      <c r="E500" s="18">
+        <v>4607111036407</v>
+      </c>
+      <c r="F500" s="20" t="s">
+        <v>186</v>
       </c>
       <c r="G500" s="21"/>
       <c r="H500" s="22" t="s">
@@ -17830,22 +17833,22 @@
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="17" t="s">
-        <v>853</v>
-      </c>
-      <c r="B501" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C501" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D501" s="19">
-        <v>4301080153</v>
-      </c>
-      <c r="E501" s="18">
-        <v>4607111036827</v>
-      </c>
-      <c r="F501" s="20" t="s">
-        <v>129</v>
+        <v>728</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="D501" s="4">
+        <v>4301135607</v>
+      </c>
+      <c r="E501" s="3">
+        <v>4607111039613</v>
+      </c>
+      <c r="F501" s="5" t="s">
+        <v>728</v>
       </c>
       <c r="G501" s="21"/>
       <c r="H501" s="22" t="s">
@@ -17854,22 +17857,22 @@
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="17" t="s">
-        <v>854</v>
-      </c>
-      <c r="B502" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="C502" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="D502" s="4">
-        <v>4301135574</v>
-      </c>
-      <c r="E502" s="3">
-        <v>4607111033659</v>
-      </c>
-      <c r="F502" s="5" t="s">
-        <v>742</v>
+        <v>853</v>
+      </c>
+      <c r="B502" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C502" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D502" s="19">
+        <v>4301080153</v>
+      </c>
+      <c r="E502" s="18">
+        <v>4607111036827</v>
+      </c>
+      <c r="F502" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="G502" s="21"/>
       <c r="H502" s="22" t="s">
@@ -17878,22 +17881,22 @@
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="17" t="s">
-        <v>855</v>
-      </c>
-      <c r="B503" s="18" t="s">
-        <v>681</v>
-      </c>
-      <c r="C503" s="18" t="s">
-        <v>682</v>
-      </c>
-      <c r="D503" s="19">
-        <v>4301071044</v>
-      </c>
-      <c r="E503" s="18">
-        <v>4607111039385</v>
-      </c>
-      <c r="F503" s="20" t="s">
-        <v>683</v>
+        <v>854</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="D503" s="4">
+        <v>4301135574</v>
+      </c>
+      <c r="E503" s="3">
+        <v>4607111033659</v>
+      </c>
+      <c r="F503" s="5" t="s">
+        <v>742</v>
       </c>
       <c r="G503" s="21"/>
       <c r="H503" s="22" t="s">
@@ -17902,22 +17905,22 @@
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="17" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B504" s="18" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="C504" s="18" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="D504" s="19">
-        <v>4301071031</v>
+        <v>4301071044</v>
       </c>
       <c r="E504" s="18">
-        <v>4607111038982</v>
+        <v>4607111039385</v>
       </c>
       <c r="F504" s="20" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="G504" s="21"/>
       <c r="H504" s="22" t="s">
@@ -17926,22 +17929,22 @@
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="17" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B505" s="18" t="s">
-        <v>181</v>
+        <v>698</v>
       </c>
       <c r="C505" s="18" t="s">
-        <v>182</v>
+        <v>699</v>
       </c>
       <c r="D505" s="19">
-        <v>4301070917</v>
+        <v>4301071031</v>
       </c>
       <c r="E505" s="18">
-        <v>4607111035912</v>
+        <v>4607111038982</v>
       </c>
       <c r="F505" s="20" t="s">
-        <v>183</v>
+        <v>700</v>
       </c>
       <c r="G505" s="21"/>
       <c r="H505" s="22" t="s">
@@ -17950,22 +17953,22 @@
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="17" t="s">
-        <v>858</v>
-      </c>
-      <c r="B506" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C506" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="D506" s="4">
-        <v>4301136070</v>
-      </c>
-      <c r="E506" s="3">
-        <v>4607025784012</v>
-      </c>
-      <c r="F506" s="5" t="s">
-        <v>170</v>
+        <v>857</v>
+      </c>
+      <c r="B506" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C506" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D506" s="19">
+        <v>4301070917</v>
+      </c>
+      <c r="E506" s="18">
+        <v>4607111035912</v>
+      </c>
+      <c r="F506" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="G506" s="21"/>
       <c r="H506" s="22" t="s">
@@ -17974,46 +17977,46 @@
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="17" t="s">
-        <v>859</v>
-      </c>
-      <c r="B507" s="18" t="s">
-        <v>616</v>
-      </c>
-      <c r="C507" s="18" t="s">
-        <v>617</v>
-      </c>
-      <c r="D507" s="19">
-        <v>4301071046</v>
-      </c>
-      <c r="E507" s="18">
-        <v>4607111039354</v>
-      </c>
-      <c r="F507" s="20" t="s">
-        <v>618</v>
+        <v>858</v>
+      </c>
+      <c r="B507" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C507" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D507" s="4">
+        <v>4301136070</v>
+      </c>
+      <c r="E507" s="3">
+        <v>4607025784012</v>
+      </c>
+      <c r="F507" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="G507" s="21"/>
       <c r="H507" s="22" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="508" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B508" s="18" t="s">
-        <v>875</v>
+        <v>616</v>
       </c>
       <c r="C508" s="18" t="s">
-        <v>876</v>
+        <v>617</v>
       </c>
       <c r="D508" s="19">
-        <v>4301070959</v>
+        <v>4301071046</v>
       </c>
       <c r="E508" s="18">
-        <v>4607111038616</v>
+        <v>4607111039354</v>
       </c>
       <c r="F508" s="20" t="s">
-        <v>877</v>
+        <v>618</v>
       </c>
       <c r="G508" s="21"/>
       <c r="H508" s="22" t="s">
@@ -18022,46 +18025,46 @@
     </row>
     <row r="509" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A509" s="17" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B509" s="18" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C509" s="18" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D509" s="19">
-        <v>4301070962</v>
+        <v>4301070959</v>
       </c>
       <c r="E509" s="18">
-        <v>4607111038609</v>
+        <v>4607111038616</v>
       </c>
       <c r="F509" s="20" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="G509" s="21"/>
       <c r="H509" s="22" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A510" s="17" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B510" s="18" t="s">
-        <v>254</v>
+        <v>878</v>
       </c>
       <c r="C510" s="18" t="s">
-        <v>255</v>
+        <v>879</v>
       </c>
       <c r="D510" s="19">
-        <v>4301070948</v>
+        <v>4301070962</v>
       </c>
       <c r="E510" s="18">
-        <v>4607111037022</v>
+        <v>4607111038609</v>
       </c>
       <c r="F510" s="20" t="s">
-        <v>152</v>
+        <v>880</v>
       </c>
       <c r="G510" s="21"/>
       <c r="H510" s="22" t="s">
@@ -18070,22 +18073,22 @@
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="17" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B511" s="18" t="s">
-        <v>715</v>
+        <v>254</v>
       </c>
       <c r="C511" s="18" t="s">
-        <v>716</v>
+        <v>255</v>
       </c>
       <c r="D511" s="19">
-        <v>4301135570</v>
+        <v>4301070948</v>
       </c>
       <c r="E511" s="18">
-        <v>4607111035806</v>
+        <v>4607111037022</v>
       </c>
       <c r="F511" s="20" t="s">
-        <v>717</v>
+        <v>152</v>
       </c>
       <c r="G511" s="21"/>
       <c r="H511" s="22" t="s">
@@ -18094,22 +18097,22 @@
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="17" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B512" s="18" t="s">
-        <v>744</v>
+        <v>715</v>
       </c>
       <c r="C512" s="18" t="s">
-        <v>745</v>
+        <v>716</v>
       </c>
       <c r="D512" s="19">
-        <v>4301071032</v>
+        <v>4301135570</v>
       </c>
       <c r="E512" s="18">
-        <v>4607111038999</v>
+        <v>4607111035806</v>
       </c>
       <c r="F512" s="20" t="s">
-        <v>746</v>
+        <v>717</v>
       </c>
       <c r="G512" s="21"/>
       <c r="H512" s="22" t="s">
@@ -18118,22 +18121,22 @@
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="17" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B513" s="18" t="s">
-        <v>685</v>
+        <v>744</v>
       </c>
       <c r="C513" s="18" t="s">
-        <v>686</v>
+        <v>745</v>
       </c>
       <c r="D513" s="19">
-        <v>4301071045</v>
+        <v>4301071032</v>
       </c>
       <c r="E513" s="18">
-        <v>4607111039392</v>
+        <v>4607111038999</v>
       </c>
       <c r="F513" s="20" t="s">
-        <v>687</v>
+        <v>746</v>
       </c>
       <c r="G513" s="21"/>
       <c r="H513" s="22" t="s">
@@ -18142,22 +18145,22 @@
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="17" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B514" s="18" t="s">
-        <v>487</v>
+        <v>685</v>
       </c>
       <c r="C514" s="18" t="s">
-        <v>488</v>
+        <v>686</v>
       </c>
       <c r="D514" s="19">
-        <v>4301070963</v>
+        <v>4301071045</v>
       </c>
       <c r="E514" s="18">
-        <v>4607111038630</v>
+        <v>4607111039392</v>
       </c>
       <c r="F514" s="20" t="s">
-        <v>489</v>
+        <v>687</v>
       </c>
       <c r="G514" s="21"/>
       <c r="H514" s="22" t="s">
@@ -18166,22 +18169,22 @@
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="17" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B515" s="18" t="s">
-        <v>598</v>
+        <v>487</v>
       </c>
       <c r="C515" s="18" t="s">
-        <v>599</v>
+        <v>488</v>
       </c>
       <c r="D515" s="19">
-        <v>4301071054</v>
+        <v>4301070963</v>
       </c>
       <c r="E515" s="18">
-        <v>4607111035639</v>
+        <v>4607111038630</v>
       </c>
       <c r="F515" s="20" t="s">
-        <v>600</v>
+        <v>489</v>
       </c>
       <c r="G515" s="21"/>
       <c r="H515" s="22" t="s">
@@ -18190,30 +18193,54 @@
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="17" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B516" s="18" t="s">
-        <v>340</v>
+        <v>598</v>
       </c>
       <c r="C516" s="18" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="D516" s="19">
-        <v>4301135540</v>
+        <v>4301071054</v>
       </c>
       <c r="E516" s="18">
-        <v>4607111035646</v>
+        <v>4607111035639</v>
       </c>
       <c r="F516" s="20" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="G516" s="21"/>
       <c r="H516" s="22" t="s">
         <v>869</v>
       </c>
     </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A517" s="17" t="s">
+        <v>868</v>
+      </c>
+      <c r="B517" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="C517" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="D517" s="19">
+        <v>4301135540</v>
+      </c>
+      <c r="E517" s="18">
+        <v>4607111035646</v>
+      </c>
+      <c r="F517" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="G517" s="21"/>
+      <c r="H517" s="22" t="s">
+        <v>869</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F516" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+  <autoFilter ref="A1:F517" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F245">
       <sortCondition ref="A1:A176"/>
     </sortState>

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2762A36-143A-4A67-8CBB-6F995271A060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DB753A-D64A-41EC-A206-CF59865E57BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,8 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$517</definedName>
-    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$456</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$518</definedName>
+    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$457</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="957">
   <si>
     <t>1С</t>
   </si>
@@ -2907,6 +2907,9 @@
   </si>
   <si>
     <t>Пельмени Супермени со сливочным маслом, Горячая штучка 0,2кг    ПОКОМ</t>
+  </si>
+  <si>
+    <t>Наггетсы Хрустящие ТМ Стародворье с сочной курочкой 0,23 кг  ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -6162,7 +6165,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H517"/>
+  <dimension ref="A1:H518"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16732,7 +16735,7 @@
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="10" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>953</v>
@@ -16752,47 +16755,44 @@
       <c r="G455" s="1"/>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A456" s="17" t="s">
-        <v>808</v>
-      </c>
-      <c r="B456" s="18" t="s">
-        <v>628</v>
-      </c>
-      <c r="C456" s="18" t="s">
-        <v>629</v>
-      </c>
-      <c r="D456" s="19">
-        <v>4301071038</v>
-      </c>
-      <c r="E456" s="18">
-        <v>4607111039248</v>
-      </c>
-      <c r="F456" s="20" t="s">
-        <v>630</v>
-      </c>
-      <c r="G456" s="21"/>
-      <c r="H456" s="22" t="s">
-        <v>869</v>
-      </c>
+      <c r="A456" s="10" t="s">
+        <v>952</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="D456" s="4">
+        <v>4301132227</v>
+      </c>
+      <c r="E456" s="3">
+        <v>4620207491133</v>
+      </c>
+      <c r="F456" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="G456" s="1"/>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="17" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B457" s="18" t="s">
-        <v>106</v>
+        <v>628</v>
       </c>
       <c r="C457" s="18" t="s">
-        <v>261</v>
+        <v>629</v>
       </c>
       <c r="D457" s="19">
-        <v>4301070981</v>
+        <v>4301071038</v>
       </c>
       <c r="E457" s="18">
-        <v>4607111036728</v>
+        <v>4607111039248</v>
       </c>
       <c r="F457" s="20" t="s">
-        <v>262</v>
+        <v>630</v>
       </c>
       <c r="G457" s="21"/>
       <c r="H457" s="22" t="s">
@@ -16801,22 +16801,22 @@
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="17" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B458" s="18" t="s">
-        <v>636</v>
+        <v>106</v>
       </c>
       <c r="C458" s="18" t="s">
-        <v>637</v>
+        <v>261</v>
       </c>
       <c r="D458" s="19">
-        <v>4301071039</v>
+        <v>4301070981</v>
       </c>
       <c r="E458" s="18">
-        <v>4607111039279</v>
+        <v>4607111036728</v>
       </c>
       <c r="F458" s="20" t="s">
-        <v>638</v>
+        <v>262</v>
       </c>
       <c r="G458" s="21"/>
       <c r="H458" s="22" t="s">
@@ -16825,22 +16825,22 @@
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="17" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B459" s="18" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="C459" s="18" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="D459" s="19">
-        <v>4301071051</v>
+        <v>4301071039</v>
       </c>
       <c r="E459" s="18">
-        <v>4607111039262</v>
+        <v>4607111039279</v>
       </c>
       <c r="F459" s="20" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="G459" s="21"/>
       <c r="H459" s="22" t="s">
@@ -16849,22 +16849,22 @@
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B460" s="18" t="s">
-        <v>293</v>
+        <v>624</v>
       </c>
       <c r="C460" s="18" t="s">
-        <v>294</v>
+        <v>625</v>
       </c>
       <c r="D460" s="19">
-        <v>4301132080</v>
+        <v>4301071051</v>
       </c>
       <c r="E460" s="18">
-        <v>4640242180397</v>
+        <v>4607111039262</v>
       </c>
       <c r="F460" s="20" t="s">
-        <v>295</v>
+        <v>626</v>
       </c>
       <c r="G460" s="21"/>
       <c r="H460" s="22" t="s">
@@ -16873,22 +16873,22 @@
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B461" s="18" t="s">
-        <v>113</v>
+        <v>293</v>
       </c>
       <c r="C461" s="18" t="s">
-        <v>529</v>
+        <v>294</v>
       </c>
       <c r="D461" s="19">
-        <v>4301071029</v>
+        <v>4301132080</v>
       </c>
       <c r="E461" s="18">
-        <v>4607111035899</v>
+        <v>4640242180397</v>
       </c>
       <c r="F461" s="20" t="s">
-        <v>114</v>
+        <v>295</v>
       </c>
       <c r="G461" s="21"/>
       <c r="H461" s="22" t="s">
@@ -16897,22 +16897,22 @@
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="17" t="s">
-        <v>814</v>
-      </c>
-      <c r="B462" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C462" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D462" s="4">
-        <v>4301136053</v>
-      </c>
-      <c r="E462" s="3">
-        <v>4640242180236</v>
-      </c>
-      <c r="F462" s="5" t="s">
-        <v>304</v>
+        <v>813</v>
+      </c>
+      <c r="B462" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C462" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="D462" s="19">
+        <v>4301071029</v>
+      </c>
+      <c r="E462" s="18">
+        <v>4607111035899</v>
+      </c>
+      <c r="F462" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="G462" s="21"/>
       <c r="H462" s="22" t="s">
@@ -16921,22 +16921,22 @@
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="17" t="s">
-        <v>815</v>
-      </c>
-      <c r="B463" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="C463" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="D463" s="19">
-        <v>4301070977</v>
-      </c>
-      <c r="E463" s="18">
-        <v>4607111037411</v>
-      </c>
-      <c r="F463" s="20" t="s">
-        <v>320</v>
+        <v>814</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C463" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D463" s="4">
+        <v>4301136053</v>
+      </c>
+      <c r="E463" s="3">
+        <v>4640242180236</v>
+      </c>
+      <c r="F463" s="5" t="s">
+        <v>304</v>
       </c>
       <c r="G463" s="21"/>
       <c r="H463" s="22" t="s">
@@ -16945,22 +16945,22 @@
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="17" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B464" s="18" t="s">
-        <v>561</v>
+        <v>318</v>
       </c>
       <c r="C464" s="18" t="s">
-        <v>562</v>
+        <v>319</v>
       </c>
       <c r="D464" s="19">
-        <v>4301135375</v>
+        <v>4301070977</v>
       </c>
       <c r="E464" s="18">
-        <v>4640242181486</v>
+        <v>4607111037411</v>
       </c>
       <c r="F464" s="20" t="s">
-        <v>563</v>
+        <v>320</v>
       </c>
       <c r="G464" s="21"/>
       <c r="H464" s="22" t="s">
@@ -16969,22 +16969,22 @@
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="17" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B465" s="18" t="s">
-        <v>656</v>
+        <v>561</v>
       </c>
       <c r="C465" s="18" t="s">
-        <v>657</v>
+        <v>562</v>
       </c>
       <c r="D465" s="19">
-        <v>4301135578</v>
+        <v>4301135375</v>
       </c>
       <c r="E465" s="18">
-        <v>4607111033444</v>
+        <v>4640242181486</v>
       </c>
       <c r="F465" s="20" t="s">
-        <v>658</v>
+        <v>563</v>
       </c>
       <c r="G465" s="21"/>
       <c r="H465" s="22" t="s">
@@ -16993,22 +16993,22 @@
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="17" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B466" s="18" t="s">
-        <v>112</v>
+        <v>656</v>
       </c>
       <c r="C466" s="18" t="s">
-        <v>639</v>
+        <v>657</v>
       </c>
       <c r="D466" s="19">
-        <v>4301071050</v>
+        <v>4301135578</v>
       </c>
       <c r="E466" s="18">
-        <v>4607111036216</v>
+        <v>4607111033444</v>
       </c>
       <c r="F466" s="20" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
       <c r="G466" s="21"/>
       <c r="H466" s="22" t="s">
@@ -17017,22 +17017,22 @@
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="17" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B467" s="18" t="s">
-        <v>632</v>
+        <v>112</v>
       </c>
       <c r="C467" s="18" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="D467" s="19">
-        <v>4301071049</v>
+        <v>4301071050</v>
       </c>
       <c r="E467" s="18">
-        <v>4607111039293</v>
+        <v>4607111036216</v>
       </c>
       <c r="F467" s="20" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="G467" s="21"/>
       <c r="H467" s="22" t="s">
@@ -17041,22 +17041,22 @@
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="17" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B468" s="18" t="s">
-        <v>664</v>
+        <v>632</v>
       </c>
       <c r="C468" s="18" t="s">
-        <v>665</v>
+        <v>633</v>
       </c>
       <c r="D468" s="19">
-        <v>4301135532</v>
+        <v>4301071049</v>
       </c>
       <c r="E468" s="18">
-        <v>4607111033994</v>
+        <v>4607111039293</v>
       </c>
       <c r="F468" s="20" t="s">
-        <v>666</v>
+        <v>634</v>
       </c>
       <c r="G468" s="21"/>
       <c r="H468" s="22" t="s">
@@ -17065,22 +17065,22 @@
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="17" t="s">
-        <v>821</v>
-      </c>
-      <c r="B469" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="C469" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D469" s="4">
-        <v>4301135555</v>
-      </c>
-      <c r="E469" s="3">
-        <v>4607111034014</v>
-      </c>
-      <c r="F469" s="5" t="s">
-        <v>669</v>
+        <v>820</v>
+      </c>
+      <c r="B469" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="C469" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="D469" s="19">
+        <v>4301135532</v>
+      </c>
+      <c r="E469" s="18">
+        <v>4607111033994</v>
+      </c>
+      <c r="F469" s="20" t="s">
+        <v>666</v>
       </c>
       <c r="G469" s="21"/>
       <c r="H469" s="22" t="s">
@@ -17089,22 +17089,22 @@
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>645</v>
+        <v>668</v>
       </c>
       <c r="D470" s="4">
-        <v>4301135577</v>
+        <v>4301135555</v>
       </c>
       <c r="E470" s="3">
-        <v>4607111033451</v>
+        <v>4607111034014</v>
       </c>
       <c r="F470" s="5" t="s">
-        <v>646</v>
+        <v>669</v>
       </c>
       <c r="G470" s="21"/>
       <c r="H470" s="22" t="s">
@@ -17113,22 +17113,22 @@
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>382</v>
+        <v>644</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>383</v>
+        <v>645</v>
       </c>
       <c r="D471" s="4">
-        <v>4301136052</v>
+        <v>4301135577</v>
       </c>
       <c r="E471" s="3">
-        <v>4640242180410</v>
+        <v>4607111033451</v>
       </c>
       <c r="F471" s="5" t="s">
-        <v>384</v>
+        <v>646</v>
       </c>
       <c r="G471" s="21"/>
       <c r="H471" s="22" t="s">
@@ -17137,22 +17137,22 @@
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>555</v>
+        <v>382</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>556</v>
+        <v>383</v>
       </c>
       <c r="D472" s="4">
-        <v>4301135518</v>
+        <v>4301136052</v>
       </c>
       <c r="E472" s="3">
-        <v>4640242181561</v>
+        <v>4640242180410</v>
       </c>
       <c r="F472" s="5" t="s">
-        <v>557</v>
+        <v>384</v>
       </c>
       <c r="G472" s="21"/>
       <c r="H472" s="22" t="s">
@@ -17161,22 +17161,22 @@
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="17" t="s">
-        <v>825</v>
-      </c>
-      <c r="B473" s="18" t="s">
-        <v>607</v>
-      </c>
-      <c r="C473" s="18" t="s">
-        <v>608</v>
-      </c>
-      <c r="D473" s="19">
-        <v>4301135374</v>
-      </c>
-      <c r="E473" s="18">
-        <v>4640242181424</v>
-      </c>
-      <c r="F473" s="20" t="s">
-        <v>609</v>
+        <v>824</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C473" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D473" s="4">
+        <v>4301135518</v>
+      </c>
+      <c r="E473" s="3">
+        <v>4640242181561</v>
+      </c>
+      <c r="F473" s="5" t="s">
+        <v>557</v>
       </c>
       <c r="G473" s="21"/>
       <c r="H473" s="22" t="s">
@@ -17185,22 +17185,22 @@
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="17" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B474" s="18" t="s">
-        <v>870</v>
+        <v>607</v>
       </c>
       <c r="C474" s="18" t="s">
-        <v>871</v>
+        <v>608</v>
       </c>
       <c r="D474" s="19">
-        <v>4301132079</v>
+        <v>4301135374</v>
       </c>
       <c r="E474" s="18">
-        <v>4607111038487</v>
+        <v>4640242181424</v>
       </c>
       <c r="F474" s="20" t="s">
-        <v>425</v>
+        <v>609</v>
       </c>
       <c r="G474" s="21"/>
       <c r="H474" s="22" t="s">
@@ -17209,22 +17209,22 @@
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="17" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B475" s="18" t="s">
-        <v>164</v>
+        <v>870</v>
       </c>
       <c r="C475" s="18" t="s">
-        <v>642</v>
+        <v>871</v>
       </c>
       <c r="D475" s="19">
-        <v>4301071056</v>
+        <v>4301132079</v>
       </c>
       <c r="E475" s="18">
-        <v>4640242180250</v>
+        <v>4607111038487</v>
       </c>
       <c r="F475" s="20" t="s">
-        <v>643</v>
+        <v>425</v>
       </c>
       <c r="G475" s="21"/>
       <c r="H475" s="22" t="s">
@@ -17233,22 +17233,22 @@
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="17" t="s">
-        <v>828</v>
-      </c>
-      <c r="B476" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C476" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D476" s="4">
-        <v>4301136051</v>
-      </c>
-      <c r="E476" s="3">
-        <v>4640242180304</v>
-      </c>
-      <c r="F476" s="5" t="s">
-        <v>301</v>
+        <v>827</v>
+      </c>
+      <c r="B476" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C476" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="D476" s="19">
+        <v>4301071056</v>
+      </c>
+      <c r="E476" s="18">
+        <v>4640242180250</v>
+      </c>
+      <c r="F476" s="20" t="s">
+        <v>643</v>
       </c>
       <c r="G476" s="21"/>
       <c r="H476" s="22" t="s">
@@ -17257,22 +17257,22 @@
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="17" t="s">
-        <v>829</v>
-      </c>
-      <c r="B477" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C477" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D477" s="19">
-        <v>4301070920</v>
-      </c>
-      <c r="E477" s="18">
-        <v>4607111035929</v>
-      </c>
-      <c r="F477" s="20" t="s">
-        <v>111</v>
+        <v>828</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D477" s="4">
+        <v>4301136051</v>
+      </c>
+      <c r="E477" s="3">
+        <v>4640242180304</v>
+      </c>
+      <c r="F477" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="G477" s="21"/>
       <c r="H477" s="22" t="s">
@@ -17281,22 +17281,22 @@
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="17" t="s">
-        <v>830</v>
-      </c>
-      <c r="B478" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="C478" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="D478" s="4">
-        <v>4301135550</v>
-      </c>
-      <c r="E478" s="3">
-        <v>4607111034199</v>
-      </c>
-      <c r="F478" s="5" t="s">
-        <v>760</v>
+        <v>829</v>
+      </c>
+      <c r="B478" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C478" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D478" s="19">
+        <v>4301070920</v>
+      </c>
+      <c r="E478" s="18">
+        <v>4607111035929</v>
+      </c>
+      <c r="F478" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="G478" s="21"/>
       <c r="H478" s="22" t="s">
@@ -17305,22 +17305,22 @@
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="17" t="s">
-        <v>831</v>
-      </c>
-      <c r="B479" s="18" t="s">
-        <v>755</v>
-      </c>
-      <c r="C479" s="18" t="s">
-        <v>756</v>
-      </c>
-      <c r="D479" s="19">
-        <v>4301132186</v>
-      </c>
-      <c r="E479" s="18">
-        <v>4607111036520</v>
-      </c>
-      <c r="F479" s="20" t="s">
-        <v>757</v>
+        <v>830</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="D479" s="4">
+        <v>4301135550</v>
+      </c>
+      <c r="E479" s="3">
+        <v>4607111034199</v>
+      </c>
+      <c r="F479" s="5" t="s">
+        <v>760</v>
       </c>
       <c r="G479" s="21"/>
       <c r="H479" s="22" t="s">
@@ -17329,22 +17329,22 @@
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="17" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B480" s="18" t="s">
-        <v>620</v>
+        <v>755</v>
       </c>
       <c r="C480" s="18" t="s">
-        <v>621</v>
+        <v>756</v>
       </c>
       <c r="D480" s="19">
-        <v>4301071047</v>
+        <v>4301132186</v>
       </c>
       <c r="E480" s="18">
-        <v>4607111039330</v>
+        <v>4607111036520</v>
       </c>
       <c r="F480" s="20" t="s">
-        <v>622</v>
+        <v>757</v>
       </c>
       <c r="G480" s="21"/>
       <c r="H480" s="22" t="s">
@@ -17353,22 +17353,22 @@
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="17" t="s">
-        <v>833</v>
-      </c>
-      <c r="B481" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="C481" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="D481" s="4">
-        <v>4301131047</v>
-      </c>
-      <c r="E481" s="3">
-        <v>4607111034120</v>
-      </c>
-      <c r="F481" s="5" t="s">
-        <v>799</v>
+        <v>832</v>
+      </c>
+      <c r="B481" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="C481" s="18" t="s">
+        <v>621</v>
+      </c>
+      <c r="D481" s="19">
+        <v>4301071047</v>
+      </c>
+      <c r="E481" s="18">
+        <v>4607111039330</v>
+      </c>
+      <c r="F481" s="20" t="s">
+        <v>622</v>
       </c>
       <c r="G481" s="21"/>
       <c r="H481" s="22" t="s">
@@ -17377,22 +17377,22 @@
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="17" t="s">
-        <v>834</v>
-      </c>
-      <c r="B482" s="18" t="s">
-        <v>710</v>
-      </c>
-      <c r="C482" s="18" t="s">
-        <v>711</v>
-      </c>
-      <c r="D482" s="19">
-        <v>4301135569</v>
-      </c>
-      <c r="E482" s="18">
-        <v>4607111033628</v>
-      </c>
-      <c r="F482" s="20" t="s">
-        <v>712</v>
+        <v>833</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="D482" s="4">
+        <v>4301131047</v>
+      </c>
+      <c r="E482" s="3">
+        <v>4607111034120</v>
+      </c>
+      <c r="F482" s="5" t="s">
+        <v>799</v>
       </c>
       <c r="G482" s="21"/>
       <c r="H482" s="22" t="s">
@@ -17401,22 +17401,22 @@
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="17" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B483" s="18" t="s">
-        <v>565</v>
+        <v>710</v>
       </c>
       <c r="C483" s="18" t="s">
-        <v>566</v>
+        <v>711</v>
       </c>
       <c r="D483" s="19">
-        <v>4301135405</v>
+        <v>4301135569</v>
       </c>
       <c r="E483" s="18">
-        <v>4640242181523</v>
+        <v>4607111033628</v>
       </c>
       <c r="F483" s="20" t="s">
-        <v>567</v>
+        <v>712</v>
       </c>
       <c r="G483" s="21"/>
       <c r="H483" s="22" t="s">
@@ -17425,22 +17425,22 @@
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="17" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B484" s="18" t="s">
-        <v>722</v>
+        <v>565</v>
       </c>
       <c r="C484" s="18" t="s">
-        <v>723</v>
+        <v>566</v>
       </c>
       <c r="D484" s="19">
-        <v>4301135402</v>
+        <v>4301135405</v>
       </c>
       <c r="E484" s="18">
-        <v>4640242181493</v>
+        <v>4640242181523</v>
       </c>
       <c r="F484" s="20" t="s">
-        <v>721</v>
+        <v>567</v>
       </c>
       <c r="G484" s="21"/>
       <c r="H484" s="22" t="s">
@@ -17449,22 +17449,22 @@
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="17" t="s">
-        <v>837</v>
-      </c>
-      <c r="B485" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="C485" s="3" t="s">
-        <v>898</v>
-      </c>
-      <c r="D485" s="4">
-        <v>4301131046</v>
-      </c>
-      <c r="E485" s="3">
-        <v>4607111034137</v>
-      </c>
-      <c r="F485" s="5" t="s">
-        <v>899</v>
+        <v>836</v>
+      </c>
+      <c r="B485" s="18" t="s">
+        <v>722</v>
+      </c>
+      <c r="C485" s="18" t="s">
+        <v>723</v>
+      </c>
+      <c r="D485" s="19">
+        <v>4301135402</v>
+      </c>
+      <c r="E485" s="18">
+        <v>4640242181493</v>
+      </c>
+      <c r="F485" s="20" t="s">
+        <v>721</v>
       </c>
       <c r="G485" s="21"/>
       <c r="H485" s="22" t="s">
@@ -17473,22 +17473,22 @@
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="17" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="D486" s="4">
-        <v>4301136079</v>
+        <v>4301131046</v>
       </c>
       <c r="E486" s="3">
-        <v>4607025784319</v>
+        <v>4607111034137</v>
       </c>
       <c r="F486" s="5" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="G486" s="21"/>
       <c r="H486" s="22" t="s">
@@ -17497,22 +17497,22 @@
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="17" t="s">
-        <v>839</v>
-      </c>
-      <c r="B487" s="18" t="s">
-        <v>468</v>
-      </c>
-      <c r="C487" s="18" t="s">
-        <v>527</v>
-      </c>
-      <c r="D487" s="19">
-        <v>4301135275</v>
-      </c>
-      <c r="E487" s="18">
-        <v>4607111034380</v>
-      </c>
-      <c r="F487" s="20" t="s">
-        <v>469</v>
+        <v>838</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="D487" s="4">
+        <v>4301136079</v>
+      </c>
+      <c r="E487" s="3">
+        <v>4607025784319</v>
+      </c>
+      <c r="F487" s="5" t="s">
+        <v>905</v>
       </c>
       <c r="G487" s="21"/>
       <c r="H487" s="22" t="s">
@@ -17521,22 +17521,22 @@
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="17" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B488" s="18" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="C488" s="18" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="D488" s="19">
-        <v>4301135277</v>
+        <v>4301135275</v>
       </c>
       <c r="E488" s="18">
-        <v>4607111034397</v>
+        <v>4607111034380</v>
       </c>
       <c r="F488" s="20" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G488" s="21"/>
       <c r="H488" s="22" t="s">
@@ -17545,22 +17545,22 @@
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="17" t="s">
-        <v>841</v>
-      </c>
-      <c r="B489" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="C489" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="D489" s="4">
-        <v>4301132179</v>
-      </c>
-      <c r="E489" s="3">
-        <v>4607111035691</v>
-      </c>
-      <c r="F489" s="5" t="s">
-        <v>887</v>
+        <v>840</v>
+      </c>
+      <c r="B489" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C489" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="D489" s="19">
+        <v>4301135277</v>
+      </c>
+      <c r="E489" s="18">
+        <v>4607111034397</v>
+      </c>
+      <c r="F489" s="20" t="s">
+        <v>478</v>
       </c>
       <c r="G489" s="21"/>
       <c r="H489" s="22" t="s">
@@ -17569,22 +17569,22 @@
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="17" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>752</v>
+        <v>885</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>753</v>
+        <v>886</v>
       </c>
       <c r="D490" s="4">
-        <v>4301132190</v>
+        <v>4301132179</v>
       </c>
       <c r="E490" s="3">
-        <v>4607111036537</v>
+        <v>4607111035691</v>
       </c>
       <c r="F490" s="5" t="s">
-        <v>754</v>
+        <v>887</v>
       </c>
       <c r="G490" s="21"/>
       <c r="H490" s="22" t="s">
@@ -17593,22 +17593,22 @@
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="17" t="s">
-        <v>843</v>
-      </c>
-      <c r="B491" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="C491" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="D491" s="19">
-        <v>4301131019</v>
-      </c>
-      <c r="E491" s="18">
-        <v>4640242180427</v>
-      </c>
-      <c r="F491" s="20" t="s">
-        <v>377</v>
+        <v>842</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="D491" s="4">
+        <v>4301132190</v>
+      </c>
+      <c r="E491" s="3">
+        <v>4607111036537</v>
+      </c>
+      <c r="F491" s="5" t="s">
+        <v>754</v>
       </c>
       <c r="G491" s="21"/>
       <c r="H491" s="22" t="s">
@@ -17617,22 +17617,22 @@
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="17" t="s">
-        <v>844</v>
-      </c>
-      <c r="B492" s="3" t="s">
-        <v>906</v>
-      </c>
-      <c r="C492" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="D492" s="4">
-        <v>4301135571</v>
-      </c>
-      <c r="E492" s="3">
-        <v>4607111035028</v>
-      </c>
-      <c r="F492" s="5" t="s">
-        <v>908</v>
+        <v>843</v>
+      </c>
+      <c r="B492" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="C492" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="D492" s="19">
+        <v>4301131019</v>
+      </c>
+      <c r="E492" s="18">
+        <v>4640242180427</v>
+      </c>
+      <c r="F492" s="20" t="s">
+        <v>377</v>
       </c>
       <c r="G492" s="21"/>
       <c r="H492" s="22" t="s">
@@ -17641,70 +17641,70 @@
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="17" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>946</v>
+        <v>906</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>947</v>
+        <v>907</v>
       </c>
       <c r="D493" s="4">
-        <v>4301135595</v>
+        <v>4301135571</v>
       </c>
       <c r="E493" s="3">
-        <v>4607111035141</v>
+        <v>4607111035028</v>
       </c>
       <c r="F493" s="5" t="s">
-        <v>948</v>
+        <v>908</v>
       </c>
       <c r="G493" s="21"/>
       <c r="H493" s="22" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="494" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="17" t="s">
-        <v>847</v>
-      </c>
-      <c r="B494" s="18" t="s">
-        <v>491</v>
-      </c>
-      <c r="C494" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="D494" s="19">
-        <v>4301070960</v>
-      </c>
-      <c r="E494" s="18">
-        <v>4607111038623</v>
-      </c>
-      <c r="F494" s="20" t="s">
-        <v>493</v>
+        <v>845</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="D494" s="4">
+        <v>4301135595</v>
+      </c>
+      <c r="E494" s="3">
+        <v>4607111035141</v>
+      </c>
+      <c r="F494" s="5" t="s">
+        <v>948</v>
       </c>
       <c r="G494" s="21"/>
       <c r="H494" s="22" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A495" s="17" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B495" s="18" t="s">
-        <v>368</v>
+        <v>491</v>
       </c>
       <c r="C495" s="18" t="s">
-        <v>369</v>
+        <v>492</v>
       </c>
       <c r="D495" s="19">
-        <v>4301070966</v>
+        <v>4301070960</v>
       </c>
       <c r="E495" s="18">
-        <v>4607111038135</v>
+        <v>4607111038623</v>
       </c>
       <c r="F495" s="20" t="s">
-        <v>367</v>
+        <v>493</v>
       </c>
       <c r="G495" s="21"/>
       <c r="H495" s="22" t="s">
@@ -17712,71 +17712,71 @@
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A496" s="10" t="s">
+      <c r="A496" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="B496" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="C496" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="D496" s="19">
+        <v>4301070966</v>
+      </c>
+      <c r="E496" s="18">
+        <v>4607111038135</v>
+      </c>
+      <c r="F496" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="G496" s="21"/>
+      <c r="H496" s="22" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A497" s="10" t="s">
         <v>915</v>
       </c>
-      <c r="B496" s="3" t="s">
+      <c r="B497" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="C496" s="3" t="s">
+      <c r="C497" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="D496" s="4">
+      <c r="D497" s="4">
         <v>4301070990</v>
       </c>
-      <c r="E496" s="3">
+      <c r="E497" s="3">
         <v>4607111038494</v>
       </c>
-      <c r="F496" s="5" t="s">
+      <c r="F497" s="5" t="s">
         <v>874</v>
       </c>
-      <c r="G496" s="1"/>
-      <c r="H496" s="16" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A497" s="17" t="s">
-        <v>849</v>
-      </c>
-      <c r="B497" s="18" t="s">
-        <v>872</v>
-      </c>
-      <c r="C497" s="18" t="s">
-        <v>873</v>
-      </c>
-      <c r="D497" s="19">
-        <v>4301070990</v>
-      </c>
-      <c r="E497" s="18">
-        <v>4607111038494</v>
-      </c>
-      <c r="F497" s="20" t="s">
-        <v>874</v>
-      </c>
-      <c r="G497" s="21"/>
-      <c r="H497" s="22" t="s">
+      <c r="G497" s="1"/>
+      <c r="H497" s="16" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="17" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B498" s="18" t="s">
-        <v>154</v>
+        <v>872</v>
       </c>
       <c r="C498" s="18" t="s">
-        <v>155</v>
+        <v>873</v>
       </c>
       <c r="D498" s="19">
-        <v>4301070921</v>
+        <v>4301070990</v>
       </c>
       <c r="E498" s="18">
-        <v>4607111035905</v>
+        <v>4607111038494</v>
       </c>
       <c r="F498" s="20" t="s">
-        <v>156</v>
+        <v>874</v>
       </c>
       <c r="G498" s="21"/>
       <c r="H498" s="22" t="s">
@@ -17785,22 +17785,22 @@
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="17" t="s">
-        <v>851</v>
-      </c>
-      <c r="B499" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C499" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="D499" s="4">
-        <v>4301135549</v>
-      </c>
-      <c r="E499" s="3">
-        <v>4607111039095</v>
-      </c>
-      <c r="F499" s="5" t="s">
-        <v>558</v>
+        <v>850</v>
+      </c>
+      <c r="B499" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C499" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D499" s="19">
+        <v>4301070921</v>
+      </c>
+      <c r="E499" s="18">
+        <v>4607111035905</v>
+      </c>
+      <c r="F499" s="20" t="s">
+        <v>156</v>
       </c>
       <c r="G499" s="21"/>
       <c r="H499" s="22" t="s">
@@ -17809,22 +17809,22 @@
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="17" t="s">
-        <v>852</v>
-      </c>
-      <c r="B500" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C500" s="18" t="s">
-        <v>531</v>
-      </c>
-      <c r="D500" s="19">
-        <v>4301135285</v>
-      </c>
-      <c r="E500" s="18">
-        <v>4607111036407</v>
-      </c>
-      <c r="F500" s="20" t="s">
-        <v>186</v>
+        <v>851</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="D500" s="4">
+        <v>4301135549</v>
+      </c>
+      <c r="E500" s="3">
+        <v>4607111039095</v>
+      </c>
+      <c r="F500" s="5" t="s">
+        <v>558</v>
       </c>
       <c r="G500" s="21"/>
       <c r="H500" s="22" t="s">
@@ -17833,22 +17833,22 @@
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="17" t="s">
-        <v>728</v>
-      </c>
-      <c r="B501" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="C501" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="D501" s="4">
-        <v>4301135607</v>
-      </c>
-      <c r="E501" s="3">
-        <v>4607111039613</v>
-      </c>
-      <c r="F501" s="5" t="s">
-        <v>728</v>
+        <v>852</v>
+      </c>
+      <c r="B501" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C501" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="D501" s="19">
+        <v>4301135285</v>
+      </c>
+      <c r="E501" s="18">
+        <v>4607111036407</v>
+      </c>
+      <c r="F501" s="20" t="s">
+        <v>186</v>
       </c>
       <c r="G501" s="21"/>
       <c r="H501" s="22" t="s">
@@ -17857,22 +17857,22 @@
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="17" t="s">
-        <v>853</v>
-      </c>
-      <c r="B502" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C502" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D502" s="19">
-        <v>4301080153</v>
-      </c>
-      <c r="E502" s="18">
-        <v>4607111036827</v>
-      </c>
-      <c r="F502" s="20" t="s">
-        <v>129</v>
+        <v>728</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="C502" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="D502" s="4">
+        <v>4301135607</v>
+      </c>
+      <c r="E502" s="3">
+        <v>4607111039613</v>
+      </c>
+      <c r="F502" s="5" t="s">
+        <v>728</v>
       </c>
       <c r="G502" s="21"/>
       <c r="H502" s="22" t="s">
@@ -17881,22 +17881,22 @@
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="17" t="s">
-        <v>854</v>
-      </c>
-      <c r="B503" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="C503" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="D503" s="4">
-        <v>4301135574</v>
-      </c>
-      <c r="E503" s="3">
-        <v>4607111033659</v>
-      </c>
-      <c r="F503" s="5" t="s">
-        <v>742</v>
+        <v>853</v>
+      </c>
+      <c r="B503" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C503" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D503" s="19">
+        <v>4301080153</v>
+      </c>
+      <c r="E503" s="18">
+        <v>4607111036827</v>
+      </c>
+      <c r="F503" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="G503" s="21"/>
       <c r="H503" s="22" t="s">
@@ -17905,22 +17905,22 @@
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="17" t="s">
-        <v>855</v>
-      </c>
-      <c r="B504" s="18" t="s">
-        <v>681</v>
-      </c>
-      <c r="C504" s="18" t="s">
-        <v>682</v>
-      </c>
-      <c r="D504" s="19">
-        <v>4301071044</v>
-      </c>
-      <c r="E504" s="18">
-        <v>4607111039385</v>
-      </c>
-      <c r="F504" s="20" t="s">
-        <v>683</v>
+        <v>854</v>
+      </c>
+      <c r="B504" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="C504" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="D504" s="4">
+        <v>4301135574</v>
+      </c>
+      <c r="E504" s="3">
+        <v>4607111033659</v>
+      </c>
+      <c r="F504" s="5" t="s">
+        <v>742</v>
       </c>
       <c r="G504" s="21"/>
       <c r="H504" s="22" t="s">
@@ -17929,22 +17929,22 @@
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="17" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B505" s="18" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="C505" s="18" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="D505" s="19">
-        <v>4301071031</v>
+        <v>4301071044</v>
       </c>
       <c r="E505" s="18">
-        <v>4607111038982</v>
+        <v>4607111039385</v>
       </c>
       <c r="F505" s="20" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="G505" s="21"/>
       <c r="H505" s="22" t="s">
@@ -17953,22 +17953,22 @@
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="17" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B506" s="18" t="s">
-        <v>181</v>
+        <v>698</v>
       </c>
       <c r="C506" s="18" t="s">
-        <v>182</v>
+        <v>699</v>
       </c>
       <c r="D506" s="19">
-        <v>4301070917</v>
+        <v>4301071031</v>
       </c>
       <c r="E506" s="18">
-        <v>4607111035912</v>
+        <v>4607111038982</v>
       </c>
       <c r="F506" s="20" t="s">
-        <v>183</v>
+        <v>700</v>
       </c>
       <c r="G506" s="21"/>
       <c r="H506" s="22" t="s">
@@ -17977,22 +17977,22 @@
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="17" t="s">
-        <v>858</v>
-      </c>
-      <c r="B507" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C507" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="D507" s="4">
-        <v>4301136070</v>
-      </c>
-      <c r="E507" s="3">
-        <v>4607025784012</v>
-      </c>
-      <c r="F507" s="5" t="s">
-        <v>170</v>
+        <v>857</v>
+      </c>
+      <c r="B507" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C507" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D507" s="19">
+        <v>4301070917</v>
+      </c>
+      <c r="E507" s="18">
+        <v>4607111035912</v>
+      </c>
+      <c r="F507" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="G507" s="21"/>
       <c r="H507" s="22" t="s">
@@ -18001,46 +18001,46 @@
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="17" t="s">
-        <v>859</v>
-      </c>
-      <c r="B508" s="18" t="s">
-        <v>616</v>
-      </c>
-      <c r="C508" s="18" t="s">
-        <v>617</v>
-      </c>
-      <c r="D508" s="19">
-        <v>4301071046</v>
-      </c>
-      <c r="E508" s="18">
-        <v>4607111039354</v>
-      </c>
-      <c r="F508" s="20" t="s">
-        <v>618</v>
+        <v>858</v>
+      </c>
+      <c r="B508" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C508" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D508" s="4">
+        <v>4301136070</v>
+      </c>
+      <c r="E508" s="3">
+        <v>4607025784012</v>
+      </c>
+      <c r="F508" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="G508" s="21"/>
       <c r="H508" s="22" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="509" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B509" s="18" t="s">
-        <v>875</v>
+        <v>616</v>
       </c>
       <c r="C509" s="18" t="s">
-        <v>876</v>
+        <v>617</v>
       </c>
       <c r="D509" s="19">
-        <v>4301070959</v>
+        <v>4301071046</v>
       </c>
       <c r="E509" s="18">
-        <v>4607111038616</v>
+        <v>4607111039354</v>
       </c>
       <c r="F509" s="20" t="s">
-        <v>877</v>
+        <v>618</v>
       </c>
       <c r="G509" s="21"/>
       <c r="H509" s="22" t="s">
@@ -18049,46 +18049,46 @@
     </row>
     <row r="510" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A510" s="17" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B510" s="18" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C510" s="18" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D510" s="19">
-        <v>4301070962</v>
+        <v>4301070959</v>
       </c>
       <c r="E510" s="18">
-        <v>4607111038609</v>
+        <v>4607111038616</v>
       </c>
       <c r="F510" s="20" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="G510" s="21"/>
       <c r="H510" s="22" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A511" s="17" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B511" s="18" t="s">
-        <v>254</v>
+        <v>878</v>
       </c>
       <c r="C511" s="18" t="s">
-        <v>255</v>
+        <v>879</v>
       </c>
       <c r="D511" s="19">
-        <v>4301070948</v>
+        <v>4301070962</v>
       </c>
       <c r="E511" s="18">
-        <v>4607111037022</v>
+        <v>4607111038609</v>
       </c>
       <c r="F511" s="20" t="s">
-        <v>152</v>
+        <v>880</v>
       </c>
       <c r="G511" s="21"/>
       <c r="H511" s="22" t="s">
@@ -18097,22 +18097,22 @@
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="17" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B512" s="18" t="s">
-        <v>715</v>
+        <v>254</v>
       </c>
       <c r="C512" s="18" t="s">
-        <v>716</v>
+        <v>255</v>
       </c>
       <c r="D512" s="19">
-        <v>4301135570</v>
+        <v>4301070948</v>
       </c>
       <c r="E512" s="18">
-        <v>4607111035806</v>
+        <v>4607111037022</v>
       </c>
       <c r="F512" s="20" t="s">
-        <v>717</v>
+        <v>152</v>
       </c>
       <c r="G512" s="21"/>
       <c r="H512" s="22" t="s">
@@ -18121,22 +18121,22 @@
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="17" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B513" s="18" t="s">
-        <v>744</v>
+        <v>715</v>
       </c>
       <c r="C513" s="18" t="s">
-        <v>745</v>
+        <v>716</v>
       </c>
       <c r="D513" s="19">
-        <v>4301071032</v>
+        <v>4301135570</v>
       </c>
       <c r="E513" s="18">
-        <v>4607111038999</v>
+        <v>4607111035806</v>
       </c>
       <c r="F513" s="20" t="s">
-        <v>746</v>
+        <v>717</v>
       </c>
       <c r="G513" s="21"/>
       <c r="H513" s="22" t="s">
@@ -18145,22 +18145,22 @@
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="17" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B514" s="18" t="s">
-        <v>685</v>
+        <v>744</v>
       </c>
       <c r="C514" s="18" t="s">
-        <v>686</v>
+        <v>745</v>
       </c>
       <c r="D514" s="19">
-        <v>4301071045</v>
+        <v>4301071032</v>
       </c>
       <c r="E514" s="18">
-        <v>4607111039392</v>
+        <v>4607111038999</v>
       </c>
       <c r="F514" s="20" t="s">
-        <v>687</v>
+        <v>746</v>
       </c>
       <c r="G514" s="21"/>
       <c r="H514" s="22" t="s">
@@ -18169,22 +18169,22 @@
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="17" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B515" s="18" t="s">
-        <v>487</v>
+        <v>685</v>
       </c>
       <c r="C515" s="18" t="s">
-        <v>488</v>
+        <v>686</v>
       </c>
       <c r="D515" s="19">
-        <v>4301070963</v>
+        <v>4301071045</v>
       </c>
       <c r="E515" s="18">
-        <v>4607111038630</v>
+        <v>4607111039392</v>
       </c>
       <c r="F515" s="20" t="s">
-        <v>489</v>
+        <v>687</v>
       </c>
       <c r="G515" s="21"/>
       <c r="H515" s="22" t="s">
@@ -18193,22 +18193,22 @@
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="17" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B516" s="18" t="s">
-        <v>598</v>
+        <v>487</v>
       </c>
       <c r="C516" s="18" t="s">
-        <v>599</v>
+        <v>488</v>
       </c>
       <c r="D516" s="19">
-        <v>4301071054</v>
+        <v>4301070963</v>
       </c>
       <c r="E516" s="18">
-        <v>4607111035639</v>
+        <v>4607111038630</v>
       </c>
       <c r="F516" s="20" t="s">
-        <v>600</v>
+        <v>489</v>
       </c>
       <c r="G516" s="21"/>
       <c r="H516" s="22" t="s">
@@ -18217,30 +18217,54 @@
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="17" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B517" s="18" t="s">
-        <v>340</v>
+        <v>598</v>
       </c>
       <c r="C517" s="18" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="D517" s="19">
-        <v>4301135540</v>
+        <v>4301071054</v>
       </c>
       <c r="E517" s="18">
-        <v>4607111035646</v>
+        <v>4607111035639</v>
       </c>
       <c r="F517" s="20" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="G517" s="21"/>
       <c r="H517" s="22" t="s">
         <v>869</v>
       </c>
     </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A518" s="17" t="s">
+        <v>868</v>
+      </c>
+      <c r="B518" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="C518" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="D518" s="19">
+        <v>4301135540</v>
+      </c>
+      <c r="E518" s="18">
+        <v>4607111035646</v>
+      </c>
+      <c r="F518" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="G518" s="21"/>
+      <c r="H518" s="22" t="s">
+        <v>869</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F517" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+  <autoFilter ref="A1:F518" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F245">
       <sortCondition ref="A1:A176"/>
     </sortState>

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DB753A-D64A-41EC-A206-CF59865E57BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB992144-CFE1-4E6A-8AE4-FEDCA0339CCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,8 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$518</definedName>
-    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$457</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$519</definedName>
+    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$458</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="958">
   <si>
     <t>1С</t>
   </si>
@@ -2910,6 +2910,9 @@
   </si>
   <si>
     <t>Наггетсы Хрустящие ТМ Стародворье с сочной курочкой 0,23 кг  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Пельмени Мясные с говядиной ТМ Стародворье сфера флоу-пак 1 кг  ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -6165,11 +6168,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H518"/>
+  <dimension ref="A1:H519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16714,7 +16717,7 @@
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="10" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="B454" s="3" t="s">
         <v>950</v>
@@ -16735,28 +16738,28 @@
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="10" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="D455" s="4">
-        <v>4301132227</v>
+        <v>4301071097</v>
       </c>
       <c r="E455" s="3">
-        <v>4620207491133</v>
+        <v>4620207491096</v>
       </c>
       <c r="F455" s="5" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G455" s="1"/>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="10" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>953</v>
@@ -16776,47 +16779,44 @@
       <c r="G456" s="1"/>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A457" s="17" t="s">
-        <v>808</v>
-      </c>
-      <c r="B457" s="18" t="s">
-        <v>628</v>
-      </c>
-      <c r="C457" s="18" t="s">
-        <v>629</v>
-      </c>
-      <c r="D457" s="19">
-        <v>4301071038</v>
-      </c>
-      <c r="E457" s="18">
-        <v>4607111039248</v>
-      </c>
-      <c r="F457" s="20" t="s">
-        <v>630</v>
-      </c>
-      <c r="G457" s="21"/>
-      <c r="H457" s="22" t="s">
-        <v>869</v>
-      </c>
+      <c r="A457" s="10" t="s">
+        <v>952</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="C457" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="D457" s="4">
+        <v>4301132227</v>
+      </c>
+      <c r="E457" s="3">
+        <v>4620207491133</v>
+      </c>
+      <c r="F457" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="G457" s="1"/>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="17" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B458" s="18" t="s">
-        <v>106</v>
+        <v>628</v>
       </c>
       <c r="C458" s="18" t="s">
-        <v>261</v>
+        <v>629</v>
       </c>
       <c r="D458" s="19">
-        <v>4301070981</v>
+        <v>4301071038</v>
       </c>
       <c r="E458" s="18">
-        <v>4607111036728</v>
+        <v>4607111039248</v>
       </c>
       <c r="F458" s="20" t="s">
-        <v>262</v>
+        <v>630</v>
       </c>
       <c r="G458" s="21"/>
       <c r="H458" s="22" t="s">
@@ -16825,22 +16825,22 @@
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="17" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B459" s="18" t="s">
-        <v>636</v>
+        <v>106</v>
       </c>
       <c r="C459" s="18" t="s">
-        <v>637</v>
+        <v>261</v>
       </c>
       <c r="D459" s="19">
-        <v>4301071039</v>
+        <v>4301070981</v>
       </c>
       <c r="E459" s="18">
-        <v>4607111039279</v>
+        <v>4607111036728</v>
       </c>
       <c r="F459" s="20" t="s">
-        <v>638</v>
+        <v>262</v>
       </c>
       <c r="G459" s="21"/>
       <c r="H459" s="22" t="s">
@@ -16849,22 +16849,22 @@
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="17" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B460" s="18" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="C460" s="18" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="D460" s="19">
-        <v>4301071051</v>
+        <v>4301071039</v>
       </c>
       <c r="E460" s="18">
-        <v>4607111039262</v>
+        <v>4607111039279</v>
       </c>
       <c r="F460" s="20" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="G460" s="21"/>
       <c r="H460" s="22" t="s">
@@ -16873,22 +16873,22 @@
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B461" s="18" t="s">
-        <v>293</v>
+        <v>624</v>
       </c>
       <c r="C461" s="18" t="s">
-        <v>294</v>
+        <v>625</v>
       </c>
       <c r="D461" s="19">
-        <v>4301132080</v>
+        <v>4301071051</v>
       </c>
       <c r="E461" s="18">
-        <v>4640242180397</v>
+        <v>4607111039262</v>
       </c>
       <c r="F461" s="20" t="s">
-        <v>295</v>
+        <v>626</v>
       </c>
       <c r="G461" s="21"/>
       <c r="H461" s="22" t="s">
@@ -16897,22 +16897,22 @@
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B462" s="18" t="s">
-        <v>113</v>
+        <v>293</v>
       </c>
       <c r="C462" s="18" t="s">
-        <v>529</v>
+        <v>294</v>
       </c>
       <c r="D462" s="19">
-        <v>4301071029</v>
+        <v>4301132080</v>
       </c>
       <c r="E462" s="18">
-        <v>4607111035899</v>
+        <v>4640242180397</v>
       </c>
       <c r="F462" s="20" t="s">
-        <v>114</v>
+        <v>295</v>
       </c>
       <c r="G462" s="21"/>
       <c r="H462" s="22" t="s">
@@ -16921,22 +16921,22 @@
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="17" t="s">
-        <v>814</v>
-      </c>
-      <c r="B463" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C463" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D463" s="4">
-        <v>4301136053</v>
-      </c>
-      <c r="E463" s="3">
-        <v>4640242180236</v>
-      </c>
-      <c r="F463" s="5" t="s">
-        <v>304</v>
+        <v>813</v>
+      </c>
+      <c r="B463" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C463" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="D463" s="19">
+        <v>4301071029</v>
+      </c>
+      <c r="E463" s="18">
+        <v>4607111035899</v>
+      </c>
+      <c r="F463" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="G463" s="21"/>
       <c r="H463" s="22" t="s">
@@ -16945,22 +16945,22 @@
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="17" t="s">
-        <v>815</v>
-      </c>
-      <c r="B464" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="C464" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="D464" s="19">
-        <v>4301070977</v>
-      </c>
-      <c r="E464" s="18">
-        <v>4607111037411</v>
-      </c>
-      <c r="F464" s="20" t="s">
-        <v>320</v>
+        <v>814</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C464" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D464" s="4">
+        <v>4301136053</v>
+      </c>
+      <c r="E464" s="3">
+        <v>4640242180236</v>
+      </c>
+      <c r="F464" s="5" t="s">
+        <v>304</v>
       </c>
       <c r="G464" s="21"/>
       <c r="H464" s="22" t="s">
@@ -16969,22 +16969,22 @@
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="17" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B465" s="18" t="s">
-        <v>561</v>
+        <v>318</v>
       </c>
       <c r="C465" s="18" t="s">
-        <v>562</v>
+        <v>319</v>
       </c>
       <c r="D465" s="19">
-        <v>4301135375</v>
+        <v>4301070977</v>
       </c>
       <c r="E465" s="18">
-        <v>4640242181486</v>
+        <v>4607111037411</v>
       </c>
       <c r="F465" s="20" t="s">
-        <v>563</v>
+        <v>320</v>
       </c>
       <c r="G465" s="21"/>
       <c r="H465" s="22" t="s">
@@ -16993,22 +16993,22 @@
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="17" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B466" s="18" t="s">
-        <v>656</v>
+        <v>561</v>
       </c>
       <c r="C466" s="18" t="s">
-        <v>657</v>
+        <v>562</v>
       </c>
       <c r="D466" s="19">
-        <v>4301135578</v>
+        <v>4301135375</v>
       </c>
       <c r="E466" s="18">
-        <v>4607111033444</v>
+        <v>4640242181486</v>
       </c>
       <c r="F466" s="20" t="s">
-        <v>658</v>
+        <v>563</v>
       </c>
       <c r="G466" s="21"/>
       <c r="H466" s="22" t="s">
@@ -17017,22 +17017,22 @@
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="17" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B467" s="18" t="s">
-        <v>112</v>
+        <v>656</v>
       </c>
       <c r="C467" s="18" t="s">
-        <v>639</v>
+        <v>657</v>
       </c>
       <c r="D467" s="19">
-        <v>4301071050</v>
+        <v>4301135578</v>
       </c>
       <c r="E467" s="18">
-        <v>4607111036216</v>
+        <v>4607111033444</v>
       </c>
       <c r="F467" s="20" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
       <c r="G467" s="21"/>
       <c r="H467" s="22" t="s">
@@ -17041,22 +17041,22 @@
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="17" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B468" s="18" t="s">
-        <v>632</v>
+        <v>112</v>
       </c>
       <c r="C468" s="18" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="D468" s="19">
-        <v>4301071049</v>
+        <v>4301071050</v>
       </c>
       <c r="E468" s="18">
-        <v>4607111039293</v>
+        <v>4607111036216</v>
       </c>
       <c r="F468" s="20" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="G468" s="21"/>
       <c r="H468" s="22" t="s">
@@ -17065,22 +17065,22 @@
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="17" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B469" s="18" t="s">
-        <v>664</v>
+        <v>632</v>
       </c>
       <c r="C469" s="18" t="s">
-        <v>665</v>
+        <v>633</v>
       </c>
       <c r="D469" s="19">
-        <v>4301135532</v>
+        <v>4301071049</v>
       </c>
       <c r="E469" s="18">
-        <v>4607111033994</v>
+        <v>4607111039293</v>
       </c>
       <c r="F469" s="20" t="s">
-        <v>666</v>
+        <v>634</v>
       </c>
       <c r="G469" s="21"/>
       <c r="H469" s="22" t="s">
@@ -17089,22 +17089,22 @@
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="17" t="s">
-        <v>821</v>
-      </c>
-      <c r="B470" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="C470" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="D470" s="4">
-        <v>4301135555</v>
-      </c>
-      <c r="E470" s="3">
-        <v>4607111034014</v>
-      </c>
-      <c r="F470" s="5" t="s">
-        <v>669</v>
+        <v>820</v>
+      </c>
+      <c r="B470" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="C470" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="D470" s="19">
+        <v>4301135532</v>
+      </c>
+      <c r="E470" s="18">
+        <v>4607111033994</v>
+      </c>
+      <c r="F470" s="20" t="s">
+        <v>666</v>
       </c>
       <c r="G470" s="21"/>
       <c r="H470" s="22" t="s">
@@ -17113,22 +17113,22 @@
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>645</v>
+        <v>668</v>
       </c>
       <c r="D471" s="4">
-        <v>4301135577</v>
+        <v>4301135555</v>
       </c>
       <c r="E471" s="3">
-        <v>4607111033451</v>
+        <v>4607111034014</v>
       </c>
       <c r="F471" s="5" t="s">
-        <v>646</v>
+        <v>669</v>
       </c>
       <c r="G471" s="21"/>
       <c r="H471" s="22" t="s">
@@ -17137,22 +17137,22 @@
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>382</v>
+        <v>644</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>383</v>
+        <v>645</v>
       </c>
       <c r="D472" s="4">
-        <v>4301136052</v>
+        <v>4301135577</v>
       </c>
       <c r="E472" s="3">
-        <v>4640242180410</v>
+        <v>4607111033451</v>
       </c>
       <c r="F472" s="5" t="s">
-        <v>384</v>
+        <v>646</v>
       </c>
       <c r="G472" s="21"/>
       <c r="H472" s="22" t="s">
@@ -17161,22 +17161,22 @@
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>555</v>
+        <v>382</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>556</v>
+        <v>383</v>
       </c>
       <c r="D473" s="4">
-        <v>4301135518</v>
+        <v>4301136052</v>
       </c>
       <c r="E473" s="3">
-        <v>4640242181561</v>
+        <v>4640242180410</v>
       </c>
       <c r="F473" s="5" t="s">
-        <v>557</v>
+        <v>384</v>
       </c>
       <c r="G473" s="21"/>
       <c r="H473" s="22" t="s">
@@ -17185,22 +17185,22 @@
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="17" t="s">
-        <v>825</v>
-      </c>
-      <c r="B474" s="18" t="s">
-        <v>607</v>
-      </c>
-      <c r="C474" s="18" t="s">
-        <v>608</v>
-      </c>
-      <c r="D474" s="19">
-        <v>4301135374</v>
-      </c>
-      <c r="E474" s="18">
-        <v>4640242181424</v>
-      </c>
-      <c r="F474" s="20" t="s">
-        <v>609</v>
+        <v>824</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C474" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D474" s="4">
+        <v>4301135518</v>
+      </c>
+      <c r="E474" s="3">
+        <v>4640242181561</v>
+      </c>
+      <c r="F474" s="5" t="s">
+        <v>557</v>
       </c>
       <c r="G474" s="21"/>
       <c r="H474" s="22" t="s">
@@ -17209,22 +17209,22 @@
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="17" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B475" s="18" t="s">
-        <v>870</v>
+        <v>607</v>
       </c>
       <c r="C475" s="18" t="s">
-        <v>871</v>
+        <v>608</v>
       </c>
       <c r="D475" s="19">
-        <v>4301132079</v>
+        <v>4301135374</v>
       </c>
       <c r="E475" s="18">
-        <v>4607111038487</v>
+        <v>4640242181424</v>
       </c>
       <c r="F475" s="20" t="s">
-        <v>425</v>
+        <v>609</v>
       </c>
       <c r="G475" s="21"/>
       <c r="H475" s="22" t="s">
@@ -17233,22 +17233,22 @@
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="17" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B476" s="18" t="s">
-        <v>164</v>
+        <v>870</v>
       </c>
       <c r="C476" s="18" t="s">
-        <v>642</v>
+        <v>871</v>
       </c>
       <c r="D476" s="19">
-        <v>4301071056</v>
+        <v>4301132079</v>
       </c>
       <c r="E476" s="18">
-        <v>4640242180250</v>
+        <v>4607111038487</v>
       </c>
       <c r="F476" s="20" t="s">
-        <v>643</v>
+        <v>425</v>
       </c>
       <c r="G476" s="21"/>
       <c r="H476" s="22" t="s">
@@ -17257,22 +17257,22 @@
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="17" t="s">
-        <v>828</v>
-      </c>
-      <c r="B477" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C477" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D477" s="4">
-        <v>4301136051</v>
-      </c>
-      <c r="E477" s="3">
-        <v>4640242180304</v>
-      </c>
-      <c r="F477" s="5" t="s">
-        <v>301</v>
+        <v>827</v>
+      </c>
+      <c r="B477" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C477" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="D477" s="19">
+        <v>4301071056</v>
+      </c>
+      <c r="E477" s="18">
+        <v>4640242180250</v>
+      </c>
+      <c r="F477" s="20" t="s">
+        <v>643</v>
       </c>
       <c r="G477" s="21"/>
       <c r="H477" s="22" t="s">
@@ -17281,22 +17281,22 @@
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="17" t="s">
-        <v>829</v>
-      </c>
-      <c r="B478" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C478" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D478" s="19">
-        <v>4301070920</v>
-      </c>
-      <c r="E478" s="18">
-        <v>4607111035929</v>
-      </c>
-      <c r="F478" s="20" t="s">
-        <v>111</v>
+        <v>828</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D478" s="4">
+        <v>4301136051</v>
+      </c>
+      <c r="E478" s="3">
+        <v>4640242180304</v>
+      </c>
+      <c r="F478" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="G478" s="21"/>
       <c r="H478" s="22" t="s">
@@ -17305,22 +17305,22 @@
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="17" t="s">
-        <v>830</v>
-      </c>
-      <c r="B479" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="C479" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="D479" s="4">
-        <v>4301135550</v>
-      </c>
-      <c r="E479" s="3">
-        <v>4607111034199</v>
-      </c>
-      <c r="F479" s="5" t="s">
-        <v>760</v>
+        <v>829</v>
+      </c>
+      <c r="B479" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C479" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D479" s="19">
+        <v>4301070920</v>
+      </c>
+      <c r="E479" s="18">
+        <v>4607111035929</v>
+      </c>
+      <c r="F479" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="G479" s="21"/>
       <c r="H479" s="22" t="s">
@@ -17329,22 +17329,22 @@
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="17" t="s">
-        <v>831</v>
-      </c>
-      <c r="B480" s="18" t="s">
-        <v>755</v>
-      </c>
-      <c r="C480" s="18" t="s">
-        <v>756</v>
-      </c>
-      <c r="D480" s="19">
-        <v>4301132186</v>
-      </c>
-      <c r="E480" s="18">
-        <v>4607111036520</v>
-      </c>
-      <c r="F480" s="20" t="s">
-        <v>757</v>
+        <v>830</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="D480" s="4">
+        <v>4301135550</v>
+      </c>
+      <c r="E480" s="3">
+        <v>4607111034199</v>
+      </c>
+      <c r="F480" s="5" t="s">
+        <v>760</v>
       </c>
       <c r="G480" s="21"/>
       <c r="H480" s="22" t="s">
@@ -17353,22 +17353,22 @@
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="17" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B481" s="18" t="s">
-        <v>620</v>
+        <v>755</v>
       </c>
       <c r="C481" s="18" t="s">
-        <v>621</v>
+        <v>756</v>
       </c>
       <c r="D481" s="19">
-        <v>4301071047</v>
+        <v>4301132186</v>
       </c>
       <c r="E481" s="18">
-        <v>4607111039330</v>
+        <v>4607111036520</v>
       </c>
       <c r="F481" s="20" t="s">
-        <v>622</v>
+        <v>757</v>
       </c>
       <c r="G481" s="21"/>
       <c r="H481" s="22" t="s">
@@ -17377,22 +17377,22 @@
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="17" t="s">
-        <v>833</v>
-      </c>
-      <c r="B482" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="C482" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="D482" s="4">
-        <v>4301131047</v>
-      </c>
-      <c r="E482" s="3">
-        <v>4607111034120</v>
-      </c>
-      <c r="F482" s="5" t="s">
-        <v>799</v>
+        <v>832</v>
+      </c>
+      <c r="B482" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="C482" s="18" t="s">
+        <v>621</v>
+      </c>
+      <c r="D482" s="19">
+        <v>4301071047</v>
+      </c>
+      <c r="E482" s="18">
+        <v>4607111039330</v>
+      </c>
+      <c r="F482" s="20" t="s">
+        <v>622</v>
       </c>
       <c r="G482" s="21"/>
       <c r="H482" s="22" t="s">
@@ -17401,22 +17401,22 @@
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="17" t="s">
-        <v>834</v>
-      </c>
-      <c r="B483" s="18" t="s">
-        <v>710</v>
-      </c>
-      <c r="C483" s="18" t="s">
-        <v>711</v>
-      </c>
-      <c r="D483" s="19">
-        <v>4301135569</v>
-      </c>
-      <c r="E483" s="18">
-        <v>4607111033628</v>
-      </c>
-      <c r="F483" s="20" t="s">
-        <v>712</v>
+        <v>833</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="D483" s="4">
+        <v>4301131047</v>
+      </c>
+      <c r="E483" s="3">
+        <v>4607111034120</v>
+      </c>
+      <c r="F483" s="5" t="s">
+        <v>799</v>
       </c>
       <c r="G483" s="21"/>
       <c r="H483" s="22" t="s">
@@ -17425,22 +17425,22 @@
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="17" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B484" s="18" t="s">
-        <v>565</v>
+        <v>710</v>
       </c>
       <c r="C484" s="18" t="s">
-        <v>566</v>
+        <v>711</v>
       </c>
       <c r="D484" s="19">
-        <v>4301135405</v>
+        <v>4301135569</v>
       </c>
       <c r="E484" s="18">
-        <v>4640242181523</v>
+        <v>4607111033628</v>
       </c>
       <c r="F484" s="20" t="s">
-        <v>567</v>
+        <v>712</v>
       </c>
       <c r="G484" s="21"/>
       <c r="H484" s="22" t="s">
@@ -17449,22 +17449,22 @@
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="17" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B485" s="18" t="s">
-        <v>722</v>
+        <v>565</v>
       </c>
       <c r="C485" s="18" t="s">
-        <v>723</v>
+        <v>566</v>
       </c>
       <c r="D485" s="19">
-        <v>4301135402</v>
+        <v>4301135405</v>
       </c>
       <c r="E485" s="18">
-        <v>4640242181493</v>
+        <v>4640242181523</v>
       </c>
       <c r="F485" s="20" t="s">
-        <v>721</v>
+        <v>567</v>
       </c>
       <c r="G485" s="21"/>
       <c r="H485" s="22" t="s">
@@ -17473,22 +17473,22 @@
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="17" t="s">
-        <v>837</v>
-      </c>
-      <c r="B486" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="C486" s="3" t="s">
-        <v>898</v>
-      </c>
-      <c r="D486" s="4">
-        <v>4301131046</v>
-      </c>
-      <c r="E486" s="3">
-        <v>4607111034137</v>
-      </c>
-      <c r="F486" s="5" t="s">
-        <v>899</v>
+        <v>836</v>
+      </c>
+      <c r="B486" s="18" t="s">
+        <v>722</v>
+      </c>
+      <c r="C486" s="18" t="s">
+        <v>723</v>
+      </c>
+      <c r="D486" s="19">
+        <v>4301135402</v>
+      </c>
+      <c r="E486" s="18">
+        <v>4640242181493</v>
+      </c>
+      <c r="F486" s="20" t="s">
+        <v>721</v>
       </c>
       <c r="G486" s="21"/>
       <c r="H486" s="22" t="s">
@@ -17497,22 +17497,22 @@
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="17" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="D487" s="4">
-        <v>4301136079</v>
+        <v>4301131046</v>
       </c>
       <c r="E487" s="3">
-        <v>4607025784319</v>
+        <v>4607111034137</v>
       </c>
       <c r="F487" s="5" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="G487" s="21"/>
       <c r="H487" s="22" t="s">
@@ -17521,22 +17521,22 @@
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="17" t="s">
-        <v>839</v>
-      </c>
-      <c r="B488" s="18" t="s">
-        <v>468</v>
-      </c>
-      <c r="C488" s="18" t="s">
-        <v>527</v>
-      </c>
-      <c r="D488" s="19">
-        <v>4301135275</v>
-      </c>
-      <c r="E488" s="18">
-        <v>4607111034380</v>
-      </c>
-      <c r="F488" s="20" t="s">
-        <v>469</v>
+        <v>838</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="D488" s="4">
+        <v>4301136079</v>
+      </c>
+      <c r="E488" s="3">
+        <v>4607025784319</v>
+      </c>
+      <c r="F488" s="5" t="s">
+        <v>905</v>
       </c>
       <c r="G488" s="21"/>
       <c r="H488" s="22" t="s">
@@ -17545,22 +17545,22 @@
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="17" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B489" s="18" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="C489" s="18" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="D489" s="19">
-        <v>4301135277</v>
+        <v>4301135275</v>
       </c>
       <c r="E489" s="18">
-        <v>4607111034397</v>
+        <v>4607111034380</v>
       </c>
       <c r="F489" s="20" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G489" s="21"/>
       <c r="H489" s="22" t="s">
@@ -17569,22 +17569,22 @@
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="17" t="s">
-        <v>841</v>
-      </c>
-      <c r="B490" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="C490" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="D490" s="4">
-        <v>4301132179</v>
-      </c>
-      <c r="E490" s="3">
-        <v>4607111035691</v>
-      </c>
-      <c r="F490" s="5" t="s">
-        <v>887</v>
+        <v>840</v>
+      </c>
+      <c r="B490" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="C490" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="D490" s="19">
+        <v>4301135277</v>
+      </c>
+      <c r="E490" s="18">
+        <v>4607111034397</v>
+      </c>
+      <c r="F490" s="20" t="s">
+        <v>478</v>
       </c>
       <c r="G490" s="21"/>
       <c r="H490" s="22" t="s">
@@ -17593,22 +17593,22 @@
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="17" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>752</v>
+        <v>885</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>753</v>
+        <v>886</v>
       </c>
       <c r="D491" s="4">
-        <v>4301132190</v>
+        <v>4301132179</v>
       </c>
       <c r="E491" s="3">
-        <v>4607111036537</v>
+        <v>4607111035691</v>
       </c>
       <c r="F491" s="5" t="s">
-        <v>754</v>
+        <v>887</v>
       </c>
       <c r="G491" s="21"/>
       <c r="H491" s="22" t="s">
@@ -17617,22 +17617,22 @@
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="17" t="s">
-        <v>843</v>
-      </c>
-      <c r="B492" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="C492" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="D492" s="19">
-        <v>4301131019</v>
-      </c>
-      <c r="E492" s="18">
-        <v>4640242180427</v>
-      </c>
-      <c r="F492" s="20" t="s">
-        <v>377</v>
+        <v>842</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="D492" s="4">
+        <v>4301132190</v>
+      </c>
+      <c r="E492" s="3">
+        <v>4607111036537</v>
+      </c>
+      <c r="F492" s="5" t="s">
+        <v>754</v>
       </c>
       <c r="G492" s="21"/>
       <c r="H492" s="22" t="s">
@@ -17641,22 +17641,22 @@
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="17" t="s">
-        <v>844</v>
-      </c>
-      <c r="B493" s="3" t="s">
-        <v>906</v>
-      </c>
-      <c r="C493" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="D493" s="4">
-        <v>4301135571</v>
-      </c>
-      <c r="E493" s="3">
-        <v>4607111035028</v>
-      </c>
-      <c r="F493" s="5" t="s">
-        <v>908</v>
+        <v>843</v>
+      </c>
+      <c r="B493" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="C493" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="D493" s="19">
+        <v>4301131019</v>
+      </c>
+      <c r="E493" s="18">
+        <v>4640242180427</v>
+      </c>
+      <c r="F493" s="20" t="s">
+        <v>377</v>
       </c>
       <c r="G493" s="21"/>
       <c r="H493" s="22" t="s">
@@ -17665,70 +17665,70 @@
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="17" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>946</v>
+        <v>906</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>947</v>
+        <v>907</v>
       </c>
       <c r="D494" s="4">
-        <v>4301135595</v>
+        <v>4301135571</v>
       </c>
       <c r="E494" s="3">
-        <v>4607111035141</v>
+        <v>4607111035028</v>
       </c>
       <c r="F494" s="5" t="s">
-        <v>948</v>
+        <v>908</v>
       </c>
       <c r="G494" s="21"/>
       <c r="H494" s="22" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="495" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="17" t="s">
-        <v>847</v>
-      </c>
-      <c r="B495" s="18" t="s">
-        <v>491</v>
-      </c>
-      <c r="C495" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="D495" s="19">
-        <v>4301070960</v>
-      </c>
-      <c r="E495" s="18">
-        <v>4607111038623</v>
-      </c>
-      <c r="F495" s="20" t="s">
-        <v>493</v>
+        <v>845</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="D495" s="4">
+        <v>4301135595</v>
+      </c>
+      <c r="E495" s="3">
+        <v>4607111035141</v>
+      </c>
+      <c r="F495" s="5" t="s">
+        <v>948</v>
       </c>
       <c r="G495" s="21"/>
       <c r="H495" s="22" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A496" s="17" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B496" s="18" t="s">
-        <v>368</v>
+        <v>491</v>
       </c>
       <c r="C496" s="18" t="s">
-        <v>369</v>
+        <v>492</v>
       </c>
       <c r="D496" s="19">
-        <v>4301070966</v>
+        <v>4301070960</v>
       </c>
       <c r="E496" s="18">
-        <v>4607111038135</v>
+        <v>4607111038623</v>
       </c>
       <c r="F496" s="20" t="s">
-        <v>367</v>
+        <v>493</v>
       </c>
       <c r="G496" s="21"/>
       <c r="H496" s="22" t="s">
@@ -17736,71 +17736,71 @@
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A497" s="10" t="s">
+      <c r="A497" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="B497" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="C497" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="D497" s="19">
+        <v>4301070966</v>
+      </c>
+      <c r="E497" s="18">
+        <v>4607111038135</v>
+      </c>
+      <c r="F497" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="G497" s="21"/>
+      <c r="H497" s="22" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A498" s="10" t="s">
         <v>915</v>
       </c>
-      <c r="B497" s="3" t="s">
+      <c r="B498" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="C497" s="3" t="s">
+      <c r="C498" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="D497" s="4">
+      <c r="D498" s="4">
         <v>4301070990</v>
       </c>
-      <c r="E497" s="3">
+      <c r="E498" s="3">
         <v>4607111038494</v>
       </c>
-      <c r="F497" s="5" t="s">
+      <c r="F498" s="5" t="s">
         <v>874</v>
       </c>
-      <c r="G497" s="1"/>
-      <c r="H497" s="16" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A498" s="17" t="s">
-        <v>849</v>
-      </c>
-      <c r="B498" s="18" t="s">
-        <v>872</v>
-      </c>
-      <c r="C498" s="18" t="s">
-        <v>873</v>
-      </c>
-      <c r="D498" s="19">
-        <v>4301070990</v>
-      </c>
-      <c r="E498" s="18">
-        <v>4607111038494</v>
-      </c>
-      <c r="F498" s="20" t="s">
-        <v>874</v>
-      </c>
-      <c r="G498" s="21"/>
-      <c r="H498" s="22" t="s">
+      <c r="G498" s="1"/>
+      <c r="H498" s="16" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="17" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B499" s="18" t="s">
-        <v>154</v>
+        <v>872</v>
       </c>
       <c r="C499" s="18" t="s">
-        <v>155</v>
+        <v>873</v>
       </c>
       <c r="D499" s="19">
-        <v>4301070921</v>
+        <v>4301070990</v>
       </c>
       <c r="E499" s="18">
-        <v>4607111035905</v>
+        <v>4607111038494</v>
       </c>
       <c r="F499" s="20" t="s">
-        <v>156</v>
+        <v>874</v>
       </c>
       <c r="G499" s="21"/>
       <c r="H499" s="22" t="s">
@@ -17809,22 +17809,22 @@
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="17" t="s">
-        <v>851</v>
-      </c>
-      <c r="B500" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C500" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="D500" s="4">
-        <v>4301135549</v>
-      </c>
-      <c r="E500" s="3">
-        <v>4607111039095</v>
-      </c>
-      <c r="F500" s="5" t="s">
-        <v>558</v>
+        <v>850</v>
+      </c>
+      <c r="B500" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C500" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D500" s="19">
+        <v>4301070921</v>
+      </c>
+      <c r="E500" s="18">
+        <v>4607111035905</v>
+      </c>
+      <c r="F500" s="20" t="s">
+        <v>156</v>
       </c>
       <c r="G500" s="21"/>
       <c r="H500" s="22" t="s">
@@ -17833,22 +17833,22 @@
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="17" t="s">
-        <v>852</v>
-      </c>
-      <c r="B501" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C501" s="18" t="s">
-        <v>531</v>
-      </c>
-      <c r="D501" s="19">
-        <v>4301135285</v>
-      </c>
-      <c r="E501" s="18">
-        <v>4607111036407</v>
-      </c>
-      <c r="F501" s="20" t="s">
-        <v>186</v>
+        <v>851</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="D501" s="4">
+        <v>4301135549</v>
+      </c>
+      <c r="E501" s="3">
+        <v>4607111039095</v>
+      </c>
+      <c r="F501" s="5" t="s">
+        <v>558</v>
       </c>
       <c r="G501" s="21"/>
       <c r="H501" s="22" t="s">
@@ -17857,22 +17857,22 @@
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="17" t="s">
-        <v>728</v>
-      </c>
-      <c r="B502" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="C502" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="D502" s="4">
-        <v>4301135607</v>
-      </c>
-      <c r="E502" s="3">
-        <v>4607111039613</v>
-      </c>
-      <c r="F502" s="5" t="s">
-        <v>728</v>
+        <v>852</v>
+      </c>
+      <c r="B502" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C502" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="D502" s="19">
+        <v>4301135285</v>
+      </c>
+      <c r="E502" s="18">
+        <v>4607111036407</v>
+      </c>
+      <c r="F502" s="20" t="s">
+        <v>186</v>
       </c>
       <c r="G502" s="21"/>
       <c r="H502" s="22" t="s">
@@ -17881,22 +17881,22 @@
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="17" t="s">
-        <v>853</v>
-      </c>
-      <c r="B503" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C503" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D503" s="19">
-        <v>4301080153</v>
-      </c>
-      <c r="E503" s="18">
-        <v>4607111036827</v>
-      </c>
-      <c r="F503" s="20" t="s">
-        <v>129</v>
+        <v>728</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="D503" s="4">
+        <v>4301135607</v>
+      </c>
+      <c r="E503" s="3">
+        <v>4607111039613</v>
+      </c>
+      <c r="F503" s="5" t="s">
+        <v>728</v>
       </c>
       <c r="G503" s="21"/>
       <c r="H503" s="22" t="s">
@@ -17905,22 +17905,22 @@
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="17" t="s">
-        <v>854</v>
-      </c>
-      <c r="B504" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="C504" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="D504" s="4">
-        <v>4301135574</v>
-      </c>
-      <c r="E504" s="3">
-        <v>4607111033659</v>
-      </c>
-      <c r="F504" s="5" t="s">
-        <v>742</v>
+        <v>853</v>
+      </c>
+      <c r="B504" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C504" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D504" s="19">
+        <v>4301080153</v>
+      </c>
+      <c r="E504" s="18">
+        <v>4607111036827</v>
+      </c>
+      <c r="F504" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="G504" s="21"/>
       <c r="H504" s="22" t="s">
@@ -17929,22 +17929,22 @@
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="17" t="s">
-        <v>855</v>
-      </c>
-      <c r="B505" s="18" t="s">
-        <v>681</v>
-      </c>
-      <c r="C505" s="18" t="s">
-        <v>682</v>
-      </c>
-      <c r="D505" s="19">
-        <v>4301071044</v>
-      </c>
-      <c r="E505" s="18">
-        <v>4607111039385</v>
-      </c>
-      <c r="F505" s="20" t="s">
-        <v>683</v>
+        <v>854</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="C505" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="D505" s="4">
+        <v>4301135574</v>
+      </c>
+      <c r="E505" s="3">
+        <v>4607111033659</v>
+      </c>
+      <c r="F505" s="5" t="s">
+        <v>742</v>
       </c>
       <c r="G505" s="21"/>
       <c r="H505" s="22" t="s">
@@ -17953,22 +17953,22 @@
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="17" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B506" s="18" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="C506" s="18" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="D506" s="19">
-        <v>4301071031</v>
+        <v>4301071044</v>
       </c>
       <c r="E506" s="18">
-        <v>4607111038982</v>
+        <v>4607111039385</v>
       </c>
       <c r="F506" s="20" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="G506" s="21"/>
       <c r="H506" s="22" t="s">
@@ -17977,22 +17977,22 @@
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="17" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B507" s="18" t="s">
-        <v>181</v>
+        <v>698</v>
       </c>
       <c r="C507" s="18" t="s">
-        <v>182</v>
+        <v>699</v>
       </c>
       <c r="D507" s="19">
-        <v>4301070917</v>
+        <v>4301071031</v>
       </c>
       <c r="E507" s="18">
-        <v>4607111035912</v>
+        <v>4607111038982</v>
       </c>
       <c r="F507" s="20" t="s">
-        <v>183</v>
+        <v>700</v>
       </c>
       <c r="G507" s="21"/>
       <c r="H507" s="22" t="s">
@@ -18001,22 +18001,22 @@
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="17" t="s">
-        <v>858</v>
-      </c>
-      <c r="B508" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C508" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="D508" s="4">
-        <v>4301136070</v>
-      </c>
-      <c r="E508" s="3">
-        <v>4607025784012</v>
-      </c>
-      <c r="F508" s="5" t="s">
-        <v>170</v>
+        <v>857</v>
+      </c>
+      <c r="B508" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C508" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D508" s="19">
+        <v>4301070917</v>
+      </c>
+      <c r="E508" s="18">
+        <v>4607111035912</v>
+      </c>
+      <c r="F508" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="G508" s="21"/>
       <c r="H508" s="22" t="s">
@@ -18025,46 +18025,46 @@
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="17" t="s">
-        <v>859</v>
-      </c>
-      <c r="B509" s="18" t="s">
-        <v>616</v>
-      </c>
-      <c r="C509" s="18" t="s">
-        <v>617</v>
-      </c>
-      <c r="D509" s="19">
-        <v>4301071046</v>
-      </c>
-      <c r="E509" s="18">
-        <v>4607111039354</v>
-      </c>
-      <c r="F509" s="20" t="s">
-        <v>618</v>
+        <v>858</v>
+      </c>
+      <c r="B509" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C509" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D509" s="4">
+        <v>4301136070</v>
+      </c>
+      <c r="E509" s="3">
+        <v>4607025784012</v>
+      </c>
+      <c r="F509" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="G509" s="21"/>
       <c r="H509" s="22" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="510" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B510" s="18" t="s">
-        <v>875</v>
+        <v>616</v>
       </c>
       <c r="C510" s="18" t="s">
-        <v>876</v>
+        <v>617</v>
       </c>
       <c r="D510" s="19">
-        <v>4301070959</v>
+        <v>4301071046</v>
       </c>
       <c r="E510" s="18">
-        <v>4607111038616</v>
+        <v>4607111039354</v>
       </c>
       <c r="F510" s="20" t="s">
-        <v>877</v>
+        <v>618</v>
       </c>
       <c r="G510" s="21"/>
       <c r="H510" s="22" t="s">
@@ -18073,46 +18073,46 @@
     </row>
     <row r="511" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A511" s="17" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B511" s="18" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C511" s="18" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D511" s="19">
-        <v>4301070962</v>
+        <v>4301070959</v>
       </c>
       <c r="E511" s="18">
-        <v>4607111038609</v>
+        <v>4607111038616</v>
       </c>
       <c r="F511" s="20" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="G511" s="21"/>
       <c r="H511" s="22" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A512" s="17" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B512" s="18" t="s">
-        <v>254</v>
+        <v>878</v>
       </c>
       <c r="C512" s="18" t="s">
-        <v>255</v>
+        <v>879</v>
       </c>
       <c r="D512" s="19">
-        <v>4301070948</v>
+        <v>4301070962</v>
       </c>
       <c r="E512" s="18">
-        <v>4607111037022</v>
+        <v>4607111038609</v>
       </c>
       <c r="F512" s="20" t="s">
-        <v>152</v>
+        <v>880</v>
       </c>
       <c r="G512" s="21"/>
       <c r="H512" s="22" t="s">
@@ -18121,22 +18121,22 @@
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="17" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B513" s="18" t="s">
-        <v>715</v>
+        <v>254</v>
       </c>
       <c r="C513" s="18" t="s">
-        <v>716</v>
+        <v>255</v>
       </c>
       <c r="D513" s="19">
-        <v>4301135570</v>
+        <v>4301070948</v>
       </c>
       <c r="E513" s="18">
-        <v>4607111035806</v>
+        <v>4607111037022</v>
       </c>
       <c r="F513" s="20" t="s">
-        <v>717</v>
+        <v>152</v>
       </c>
       <c r="G513" s="21"/>
       <c r="H513" s="22" t="s">
@@ -18145,22 +18145,22 @@
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="17" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B514" s="18" t="s">
-        <v>744</v>
+        <v>715</v>
       </c>
       <c r="C514" s="18" t="s">
-        <v>745</v>
+        <v>716</v>
       </c>
       <c r="D514" s="19">
-        <v>4301071032</v>
+        <v>4301135570</v>
       </c>
       <c r="E514" s="18">
-        <v>4607111038999</v>
+        <v>4607111035806</v>
       </c>
       <c r="F514" s="20" t="s">
-        <v>746</v>
+        <v>717</v>
       </c>
       <c r="G514" s="21"/>
       <c r="H514" s="22" t="s">
@@ -18169,22 +18169,22 @@
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="17" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B515" s="18" t="s">
-        <v>685</v>
+        <v>744</v>
       </c>
       <c r="C515" s="18" t="s">
-        <v>686</v>
+        <v>745</v>
       </c>
       <c r="D515" s="19">
-        <v>4301071045</v>
+        <v>4301071032</v>
       </c>
       <c r="E515" s="18">
-        <v>4607111039392</v>
+        <v>4607111038999</v>
       </c>
       <c r="F515" s="20" t="s">
-        <v>687</v>
+        <v>746</v>
       </c>
       <c r="G515" s="21"/>
       <c r="H515" s="22" t="s">
@@ -18193,22 +18193,22 @@
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="17" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B516" s="18" t="s">
-        <v>487</v>
+        <v>685</v>
       </c>
       <c r="C516" s="18" t="s">
-        <v>488</v>
+        <v>686</v>
       </c>
       <c r="D516" s="19">
-        <v>4301070963</v>
+        <v>4301071045</v>
       </c>
       <c r="E516" s="18">
-        <v>4607111038630</v>
+        <v>4607111039392</v>
       </c>
       <c r="F516" s="20" t="s">
-        <v>489</v>
+        <v>687</v>
       </c>
       <c r="G516" s="21"/>
       <c r="H516" s="22" t="s">
@@ -18217,22 +18217,22 @@
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="17" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B517" s="18" t="s">
-        <v>598</v>
+        <v>487</v>
       </c>
       <c r="C517" s="18" t="s">
-        <v>599</v>
+        <v>488</v>
       </c>
       <c r="D517" s="19">
-        <v>4301071054</v>
+        <v>4301070963</v>
       </c>
       <c r="E517" s="18">
-        <v>4607111035639</v>
+        <v>4607111038630</v>
       </c>
       <c r="F517" s="20" t="s">
-        <v>600</v>
+        <v>489</v>
       </c>
       <c r="G517" s="21"/>
       <c r="H517" s="22" t="s">
@@ -18241,30 +18241,54 @@
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="17" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B518" s="18" t="s">
-        <v>340</v>
+        <v>598</v>
       </c>
       <c r="C518" s="18" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="D518" s="19">
-        <v>4301135540</v>
+        <v>4301071054</v>
       </c>
       <c r="E518" s="18">
-        <v>4607111035646</v>
+        <v>4607111035639</v>
       </c>
       <c r="F518" s="20" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="G518" s="21"/>
       <c r="H518" s="22" t="s">
         <v>869</v>
       </c>
     </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A519" s="17" t="s">
+        <v>868</v>
+      </c>
+      <c r="B519" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="C519" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="D519" s="19">
+        <v>4301135540</v>
+      </c>
+      <c r="E519" s="18">
+        <v>4607111035646</v>
+      </c>
+      <c r="F519" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="G519" s="21"/>
+      <c r="H519" s="22" t="s">
+        <v>869</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F518" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+  <autoFilter ref="A1:F519" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F245">
       <sortCondition ref="A1:A176"/>
     </sortState>

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB992144-CFE1-4E6A-8AE4-FEDCA0339CCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59729DE6-7611-45DE-8B32-6817D9F220E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="958">
   <si>
     <t>1С</t>
   </si>
@@ -1472,12 +1472,6 @@
     <t>«Чебупай сочное яблоко» Фикс.вес 0,2 Лоток ТМ «Горячая штучка»</t>
   </si>
   <si>
-    <t>SU000195</t>
-  </si>
-  <si>
-    <t>«Круггетсы Сочные» Фикс.вес 0,25 ф/п ТМ «Горячая штучка»</t>
-  </si>
-  <si>
     <t>Жар-ладушки с клубникой и вишней ТМ Зареченские ВЕС ПОКОМ</t>
   </si>
   <si>
@@ -1652,9 +1646,6 @@
     <t>Пельмени «Домашние» 0,7 сфера ТМ «Зареченские»</t>
   </si>
   <si>
-    <t>P004097</t>
-  </si>
-  <si>
     <t>P004122</t>
   </si>
   <si>
@@ -1973,15 +1964,6 @@
     <t>Пельмени «Хинкали Классические» Весовые ТМ «Зареченские» 5 кг</t>
   </si>
   <si>
-    <t>SU003609</t>
-  </si>
-  <si>
-    <t>P004584</t>
-  </si>
-  <si>
-    <t>Снеки «Чебупели с ветчиной и сыром» Фикс.вес 0,3 Пакет ТМ «Горячая штучка»</t>
-  </si>
-  <si>
     <t>SU003510</t>
   </si>
   <si>
@@ -2009,12 +1991,6 @@
     <t>Наггетсы из печи 0,25кг ТМ Вязанка замор.  ПОКОМ</t>
   </si>
   <si>
-    <t>SU003604</t>
-  </si>
-  <si>
-    <t>P004605</t>
-  </si>
-  <si>
     <t>Снеки «Чебупели сочные с мясом» Фикс.вес 0,3 Пакет ТМ «Горячая штучка»</t>
   </si>
   <si>
@@ -2879,15 +2855,6 @@
     <t>P004974</t>
   </si>
   <si>
-    <t>SU002426</t>
-  </si>
-  <si>
-    <t>P004625</t>
-  </si>
-  <si>
-    <t>Снеки «Чебупели с мясом» ф/в 0,3 ТМ «Горячая штучка»</t>
-  </si>
-  <si>
     <t>Пельмени «Мясные с говядиной» Фикс.вес 1 сфера ТМ «Стародворье»</t>
   </si>
   <si>
@@ -2913,6 +2880,39 @@
   </si>
   <si>
     <t>Пельмени Мясные с говядиной ТМ Стародворье сфера флоу-пак 1 кг  ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU003889</t>
+  </si>
+  <si>
+    <t>P004971</t>
+  </si>
+  <si>
+    <t>Снеки «Готовые чебупели с ветчиной и сыром» Фикс.вес 0,24 ТМ «Горячая штучка»</t>
+  </si>
+  <si>
+    <t>ротация завода 0,3==0,24</t>
+  </si>
+  <si>
+    <t>SU003870</t>
+  </si>
+  <si>
+    <t>P004953</t>
+  </si>
+  <si>
+    <t>Снеки «Круггетсы сочные» Фикс.вес 0,2 ТМ «Горячая штучка»</t>
+  </si>
+  <si>
+    <t>SU003884</t>
+  </si>
+  <si>
+    <t>P004966</t>
+  </si>
+  <si>
+    <t>Снеки «Готовые чебупели сочные с мясом» Фикс.вес 0,24 ТМ «Горячая штучка»</t>
+  </si>
+  <si>
+    <t>ротация завода 0,25==0,2</t>
   </si>
 </sst>
 </file>
@@ -6172,7 +6172,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6186,7 +6186,7 @@
     <col min="8" max="8" width="42.7109375" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>309</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>350</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>129</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>422</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>126</v>
       </c>
@@ -6329,15 +6329,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>330</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="D7" s="4">
         <v>4301135574</v>
@@ -6346,22 +6346,22 @@
         <v>4607111033659</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="G7" s="1">
         <f>VLOOKUP(E7,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>343</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="D8" s="4">
         <v>4301135574</v>
@@ -6370,22 +6370,22 @@
         <v>4607111033659</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="G8" s="1">
         <f>VLOOKUP(E8,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>220</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="D9" s="4">
         <v>4301135574</v>
@@ -6394,22 +6394,22 @@
         <v>4607111033659</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="G9" s="1">
         <f>VLOOKUP(E9,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>188</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="D10" s="4">
         <v>4301135574</v>
@@ -6418,262 +6418,292 @@
         <v>4607111033659</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="G10" s="1">
         <f>VLOOKUP(E10,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>644</v>
+        <v>947</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>645</v>
+        <v>948</v>
       </c>
       <c r="D11" s="4">
-        <v>4301135577</v>
+        <v>4301135793</v>
       </c>
       <c r="E11" s="3">
-        <v>4607111033451</v>
+        <v>4620207491003</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="G11" s="1">
+        <v>949</v>
+      </c>
+      <c r="G11" s="1" t="e">
         <f>VLOOKUP(E11,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>96</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>644</v>
+        <v>947</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>645</v>
+        <v>948</v>
       </c>
       <c r="D12" s="4">
-        <v>4301135577</v>
+        <v>4301135793</v>
       </c>
       <c r="E12" s="3">
-        <v>4607111033451</v>
+        <v>4620207491003</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="G12" s="1">
+        <v>949</v>
+      </c>
+      <c r="G12" s="1" t="e">
         <f>VLOOKUP(E12,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>191</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>644</v>
+        <v>947</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>645</v>
+        <v>948</v>
       </c>
       <c r="D13" s="4">
-        <v>4301135577</v>
+        <v>4301135793</v>
       </c>
       <c r="E13" s="3">
-        <v>4607111033451</v>
+        <v>4620207491003</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="G13" s="1">
+        <v>949</v>
+      </c>
+      <c r="G13" s="1" t="e">
         <f>VLOOKUP(E13,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>221</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="D14" s="4">
-        <v>4301135595</v>
+        <v>4301135768</v>
       </c>
       <c r="E14" s="3">
-        <v>4607111035141</v>
+        <v>4620207491034</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="G14" s="1">
+        <v>935</v>
+      </c>
+      <c r="G14" s="1" t="e">
         <f>VLOOKUP(E14,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>417</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="D15" s="4">
-        <v>4301135595</v>
+        <v>4301135768</v>
       </c>
       <c r="E15" s="3">
-        <v>4607111035141</v>
+        <v>4620207491034</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="G15" s="1">
+        <v>935</v>
+      </c>
+      <c r="G15" s="1" t="e">
         <f>VLOOKUP(E15,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>423</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="D16" s="4">
-        <v>4301135595</v>
+        <v>4301135768</v>
       </c>
       <c r="E16" s="3">
-        <v>4607111035141</v>
+        <v>4620207491034</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="G16" s="1">
+        <v>935</v>
+      </c>
+      <c r="G16" s="1" t="e">
         <f>VLOOKUP(E16,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>192</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="D17" s="4">
-        <v>4301135595</v>
+        <v>4301135768</v>
       </c>
       <c r="E17" s="3">
-        <v>4607111035141</v>
+        <v>4620207491034</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="G17" s="1">
+        <v>935</v>
+      </c>
+      <c r="G17" s="1" t="e">
         <f>VLOOKUP(E17,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>656</v>
+        <v>954</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>657</v>
+        <v>955</v>
       </c>
       <c r="D18" s="4">
-        <v>4301135578</v>
+        <v>4301135760</v>
       </c>
       <c r="E18" s="3">
-        <v>4607111033444</v>
+        <v>4620207491010</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="G18" s="1">
+        <v>956</v>
+      </c>
+      <c r="G18" s="1" t="e">
         <f>VLOOKUP(E18,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>97</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>656</v>
+        <v>954</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>657</v>
+        <v>955</v>
       </c>
       <c r="D19" s="4">
-        <v>4301135578</v>
+        <v>4301135760</v>
       </c>
       <c r="E19" s="3">
-        <v>4607111033444</v>
+        <v>4620207491010</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="G19" s="1">
+        <v>956</v>
+      </c>
+      <c r="G19" s="1" t="e">
         <f>VLOOKUP(E19,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>193</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>656</v>
+        <v>954</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>657</v>
+        <v>955</v>
       </c>
       <c r="D20" s="4">
-        <v>4301135578</v>
+        <v>4301135760</v>
       </c>
       <c r="E20" s="3">
-        <v>4607111033444</v>
+        <v>4620207491010</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="G20" s="1">
+        <v>956</v>
+      </c>
+      <c r="G20" s="1" t="e">
         <f>VLOOKUP(E20,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="D21" s="4">
         <v>4301135569</v>
@@ -6682,22 +6712,22 @@
         <v>4607111033628</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="G21" s="1">
         <f>VLOOKUP(E21,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>190</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="D22" s="4">
         <v>4301135569</v>
@@ -6706,22 +6736,22 @@
         <v>4607111033628</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="G22" s="1">
         <f>VLOOKUP(E22,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>131</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="D23" s="4">
         <v>4301135569</v>
@@ -6730,22 +6760,22 @@
         <v>4607111033628</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="G23" s="1">
         <f>VLOOKUP(E23,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="D24" s="4">
         <v>4301135569</v>
@@ -6754,22 +6784,22 @@
         <v>4607111033628</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="G24" s="1">
         <f>VLOOKUP(E24,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>405</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="D25" s="4">
         <v>4301136079</v>
@@ -6778,22 +6808,22 @@
         <v>4607025784319</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="G25" s="1">
         <f>VLOOKUP(E25,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>426</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="D26" s="4">
         <v>4301136079</v>
@@ -6802,22 +6832,22 @@
         <v>4607025784319</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="G26" s="1">
         <f>VLOOKUP(E26,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="D27" s="4">
         <v>4301136079</v>
@@ -6826,22 +6856,22 @@
         <v>4607025784319</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="G27" s="1">
         <f>VLOOKUP(E27,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>195</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="D28" s="4">
         <v>4301136079</v>
@@ -6850,14 +6880,14 @@
         <v>4607025784319</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="G28" s="1">
         <f>VLOOKUP(E28,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>194</v>
       </c>
@@ -6865,7 +6895,7 @@
         <v>169</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D29" s="4">
         <v>4301136070</v>
@@ -6881,7 +6911,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>170</v>
       </c>
@@ -6889,7 +6919,7 @@
         <v>169</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D30" s="4">
         <v>4301136070</v>
@@ -6905,7 +6935,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>171</v>
       </c>
@@ -6913,7 +6943,7 @@
         <v>169</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D31" s="4">
         <v>4301136070</v>
@@ -6929,7 +6959,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>394</v>
       </c>
@@ -7003,13 +7033,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D35" s="4">
         <v>4301135405</v>
@@ -7018,7 +7048,7 @@
         <v>4640242181523</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G35" s="1">
         <v>180</v>
@@ -7026,13 +7056,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D36" s="4">
         <v>4301135405</v>
@@ -7041,7 +7071,7 @@
         <v>4640242181523</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G36" s="1">
         <v>180</v>
@@ -7049,13 +7079,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D37" s="4">
         <v>4301135405</v>
@@ -7064,7 +7094,7 @@
         <v>4640242181523</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G37" s="1">
         <v>180</v>
@@ -7072,13 +7102,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D38" s="4">
         <v>4301135405</v>
@@ -7087,7 +7117,7 @@
         <v>4640242181523</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G38" s="1">
         <v>180</v>
@@ -7098,10 +7128,10 @@
         <v>133</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D39" s="4">
         <v>4301135405</v>
@@ -7110,13 +7140,13 @@
         <v>4640242181523</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G39" s="1">
         <v>180</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -7124,10 +7154,10 @@
         <v>412</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D40" s="4">
         <v>4301135405</v>
@@ -7136,24 +7166,24 @@
         <v>4640242181523</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G40" s="1">
         <v>180</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D41" s="4">
         <v>4301135405</v>
@@ -7162,13 +7192,13 @@
         <v>4640242181523</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G41" s="1">
         <v>180</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -7176,10 +7206,10 @@
         <v>117</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D42" s="4">
         <v>4301135405</v>
@@ -7188,13 +7218,13 @@
         <v>4640242181523</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G42" s="1">
         <v>180</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -7271,7 +7301,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>283</v>
@@ -7295,7 +7325,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>283</v>
@@ -7418,10 +7448,10 @@
         <v>397</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D52" s="4">
         <v>4301135375</v>
@@ -7430,7 +7460,7 @@
         <v>4640242181486</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G52" s="1">
         <v>180</v>
@@ -7441,10 +7471,10 @@
         <v>400</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D53" s="4">
         <v>4301135375</v>
@@ -7453,7 +7483,7 @@
         <v>4640242181486</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G53" s="1">
         <v>180</v>
@@ -7464,10 +7494,10 @@
         <v>411</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D54" s="4">
         <v>4301135375</v>
@@ -7476,7 +7506,7 @@
         <v>4640242181486</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G54" s="1">
         <v>180</v>
@@ -7487,10 +7517,10 @@
         <v>289</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D55" s="4">
         <v>4301135375</v>
@@ -7499,7 +7529,7 @@
         <v>4640242181486</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G55" s="1">
         <v>180</v>
@@ -7507,13 +7537,13 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D56" s="4">
         <v>4301135375</v>
@@ -7522,7 +7552,7 @@
         <v>4640242181486</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G56" s="1">
         <v>180</v>
@@ -7530,13 +7560,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D57" s="4">
         <v>4301135375</v>
@@ -7545,7 +7575,7 @@
         <v>4640242181486</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G57" s="1">
         <v>180</v>
@@ -7556,10 +7586,10 @@
         <v>136</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D58" s="4">
         <v>4301135375</v>
@@ -7568,7 +7598,7 @@
         <v>4640242181486</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G58" s="1">
         <v>180</v>
@@ -7579,10 +7609,10 @@
         <v>137</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D59" s="4">
         <v>4301135403</v>
@@ -7591,13 +7621,13 @@
         <v>4640242181509</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G59" s="1">
         <v>180</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7605,10 +7635,10 @@
         <v>396</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D60" s="4">
         <v>4301135403</v>
@@ -7617,13 +7647,13 @@
         <v>4640242181509</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G60" s="1">
         <v>180</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7631,10 +7661,10 @@
         <v>399</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D61" s="4">
         <v>4301135403</v>
@@ -7643,13 +7673,13 @@
         <v>4640242181509</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G61" s="1">
         <v>180</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7657,10 +7687,10 @@
         <v>118</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D62" s="4">
         <v>4301135403</v>
@@ -7669,24 +7699,24 @@
         <v>4640242181509</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G62" s="1">
         <v>180</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D63" s="4">
         <v>4301135403</v>
@@ -7695,19 +7725,19 @@
         <v>4640242181509</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D64" s="4">
         <v>4301135403</v>
@@ -7716,13 +7746,13 @@
         <v>4640242181509</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G64" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>91</v>
       </c>
@@ -7746,7 +7776,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>310</v>
       </c>
@@ -7770,7 +7800,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>389</v>
       </c>
@@ -7794,7 +7824,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>380</v>
       </c>
@@ -7818,7 +7848,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>298</v>
       </c>
@@ -7842,7 +7872,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>196</v>
       </c>
@@ -7866,7 +7896,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>197</v>
       </c>
@@ -7890,7 +7920,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>444</v>
       </c>
@@ -7914,7 +7944,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>172</v>
       </c>
@@ -7938,7 +7968,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>198</v>
       </c>
@@ -7946,7 +7976,7 @@
         <v>468</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D74" s="4">
         <v>4301135275</v>
@@ -7962,15 +7992,15 @@
         <v>180</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>468</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D75" s="4">
         <v>4301135275</v>
@@ -7986,7 +8016,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>138</v>
       </c>
@@ -7994,7 +8024,7 @@
         <v>468</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D76" s="4">
         <v>4301135275</v>
@@ -8010,100 +8040,112 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>233</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>477</v>
+        <v>951</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>537</v>
+        <v>952</v>
       </c>
       <c r="D77" s="4">
-        <v>4301135277</v>
+        <v>4301135778</v>
       </c>
       <c r="E77" s="3">
-        <v>4607111034397</v>
+        <v>4620207490853</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="G77" s="1">
+        <v>953</v>
+      </c>
+      <c r="G77" s="1" t="e">
         <f>VLOOKUP(E77,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="H77" s="16" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>199</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>477</v>
+        <v>951</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>537</v>
+        <v>952</v>
       </c>
       <c r="D78" s="4">
-        <v>4301135277</v>
+        <v>4301135778</v>
       </c>
       <c r="E78" s="3">
-        <v>4607111034397</v>
+        <v>4620207490853</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="G78" s="1">
+        <v>953</v>
+      </c>
+      <c r="G78" s="1" t="e">
         <f>VLOOKUP(E78,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="H78" s="16" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>477</v>
+        <v>951</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>537</v>
+        <v>952</v>
       </c>
       <c r="D79" s="4">
-        <v>4301135277</v>
+        <v>4301135778</v>
       </c>
       <c r="E79" s="3">
-        <v>4607111034397</v>
+        <v>4620207490853</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="G79" s="1">
+        <v>953</v>
+      </c>
+      <c r="G79" s="1" t="e">
         <f>VLOOKUP(E79,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="H79" s="16" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>477</v>
+        <v>951</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>537</v>
+        <v>952</v>
       </c>
       <c r="D80" s="4">
-        <v>4301135277</v>
+        <v>4301135778</v>
       </c>
       <c r="E80" s="3">
-        <v>4607111034397</v>
+        <v>4620207490853</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="G80" s="1">
+        <v>953</v>
+      </c>
+      <c r="G80" s="1" t="e">
         <f>VLOOKUP(E80,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>#N/A</v>
+      </c>
+      <c r="H80" s="16" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -8111,10 +8153,10 @@
         <v>119</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="D81" s="4">
         <v>4301131046</v>
@@ -8123,7 +8165,7 @@
         <v>4607111034137</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="G81" s="1">
         <f>VLOOKUP(E81,[1]Лист1!$D:$M,10,0)</f>
@@ -8135,10 +8177,10 @@
         <v>124</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="D82" s="4">
         <v>4301131046</v>
@@ -8147,7 +8189,7 @@
         <v>4607111034137</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="G82" s="1">
         <f>VLOOKUP(E82,[1]Лист1!$D:$M,10,0)</f>
@@ -8159,10 +8201,10 @@
         <v>200</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="D83" s="4">
         <v>4301131046</v>
@@ -8171,7 +8213,7 @@
         <v>4607111034137</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="G83" s="1">
         <f>VLOOKUP(E83,[1]Лист1!$D:$M,10,0)</f>
@@ -8183,10 +8225,10 @@
         <v>120</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D84" s="4">
         <v>4301131047</v>
@@ -8195,7 +8237,7 @@
         <v>4607111034120</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="G84" s="1">
         <f>VLOOKUP(E84,[1]Лист1!$D:$M,10,0)</f>
@@ -8207,10 +8249,10 @@
         <v>125</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D85" s="4">
         <v>4301131047</v>
@@ -8219,7 +8261,7 @@
         <v>4607111034120</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="G85" s="1">
         <f>VLOOKUP(E85,[1]Лист1!$D:$M,10,0)</f>
@@ -8231,10 +8273,10 @@
         <v>201</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D86" s="4">
         <v>4301131047</v>
@@ -8243,7 +8285,7 @@
         <v>4607111034120</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="G86" s="1">
         <f>VLOOKUP(E86,[1]Лист1!$D:$M,10,0)</f>
@@ -8255,10 +8297,10 @@
         <v>202</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D87" s="4">
         <v>4301135518</v>
@@ -8267,13 +8309,13 @@
         <v>4640242181561</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G87" s="1">
         <v>180</v>
       </c>
       <c r="H87" s="16" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8281,10 +8323,10 @@
         <v>231</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D88" s="4">
         <v>4301135518</v>
@@ -8293,13 +8335,13 @@
         <v>4640242181561</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G88" s="1">
         <v>180</v>
       </c>
       <c r="H88" s="16" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8307,10 +8349,10 @@
         <v>345</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D89" s="4">
         <v>4301135518</v>
@@ -8319,13 +8361,13 @@
         <v>4640242181561</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G89" s="1">
         <v>180</v>
       </c>
       <c r="H89" s="16" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8333,10 +8375,10 @@
         <v>373</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D90" s="4">
         <v>4301135518</v>
@@ -8345,13 +8387,13 @@
         <v>4640242181561</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G90" s="1">
         <v>180</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8359,10 +8401,10 @@
         <v>76</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D91" s="4">
         <v>4301135518</v>
@@ -8371,24 +8413,24 @@
         <v>4640242181561</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G91" s="1">
         <v>180</v>
       </c>
       <c r="H91" s="16" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D92" s="4">
         <v>4301135518</v>
@@ -8397,7 +8439,7 @@
         <v>4640242181561</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G92" s="1">
         <v>180</v>
@@ -8405,13 +8447,13 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D93" s="4">
         <v>4301135518</v>
@@ -8420,7 +8462,7 @@
         <v>4640242181561</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G93" s="1">
         <v>180</v>
@@ -8428,13 +8470,13 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D94" s="4">
         <v>4301135518</v>
@@ -8443,7 +8485,7 @@
         <v>4640242181561</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G94" s="1">
         <v>180</v>
@@ -8454,10 +8496,10 @@
         <v>222</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="D95" s="4">
         <v>4301132186</v>
@@ -8466,7 +8508,7 @@
         <v>4607111036520</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="G95" s="1">
         <v>180</v>
@@ -8477,10 +8519,10 @@
         <v>315</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="D96" s="4">
         <v>4301132186</v>
@@ -8489,7 +8531,7 @@
         <v>4607111036520</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="G96" s="1">
         <v>180</v>
@@ -8500,10 +8542,10 @@
         <v>449</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="D97" s="4">
         <v>4301132186</v>
@@ -8512,7 +8554,7 @@
         <v>4607111036520</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="G97" s="1">
         <v>180</v>
@@ -8523,10 +8565,10 @@
         <v>203</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="D98" s="4">
         <v>4301132186</v>
@@ -8535,7 +8577,7 @@
         <v>4607111036520</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="G98" s="1">
         <v>180</v>
@@ -8546,10 +8588,10 @@
         <v>432</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="D99" s="4">
         <v>4301132184</v>
@@ -8558,7 +8600,7 @@
         <v>4607111036599</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="G99" s="1">
         <f>VLOOKUP(E99,[1]Лист1!$D:$M,10,0)</f>
@@ -8570,10 +8612,10 @@
         <v>223</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="D100" s="4">
         <v>4301132184</v>
@@ -8582,7 +8624,7 @@
         <v>4607111036599</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="G100" s="1">
         <f>VLOOKUP(E100,[1]Лист1!$D:$M,10,0)</f>
@@ -8594,10 +8636,10 @@
         <v>204</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="D101" s="4">
         <v>4301132184</v>
@@ -8606,7 +8648,7 @@
         <v>4607111036599</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="G101" s="1">
         <f>VLOOKUP(E101,[1]Лист1!$D:$M,10,0)</f>
@@ -8618,10 +8660,10 @@
         <v>407</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="D102" s="4">
         <v>4301132188</v>
@@ -8630,7 +8672,7 @@
         <v>4607111036605</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="G102" s="1">
         <f>VLOOKUP(E102,[1]Лист1!$D:$M,10,0)</f>
@@ -8642,10 +8684,10 @@
         <v>224</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="D103" s="4">
         <v>4301132188</v>
@@ -8654,7 +8696,7 @@
         <v>4607111036605</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="G103" s="1">
         <f>VLOOKUP(E103,[1]Лист1!$D:$M,10,0)</f>
@@ -8666,10 +8708,10 @@
         <v>205</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="D104" s="4">
         <v>4301132188</v>
@@ -8678,7 +8720,7 @@
         <v>4607111036605</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="G104" s="1">
         <f>VLOOKUP(E104,[1]Лист1!$D:$M,10,0)</f>
@@ -8690,10 +8732,10 @@
         <v>206</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="D105" s="4">
         <v>4301132179</v>
@@ -8702,7 +8744,7 @@
         <v>4607111035691</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="G105" s="1">
         <f>VLOOKUP(E105,[1]Лист1!$D:$M,10,0)</f>
@@ -8714,10 +8756,10 @@
         <v>98</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="D106" s="4">
         <v>4301132179</v>
@@ -8726,7 +8768,7 @@
         <v>4607111035691</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="G106" s="1">
         <f>VLOOKUP(E106,[1]Лист1!$D:$M,10,0)</f>
@@ -8735,13 +8777,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="D107" s="4">
         <v>4301132179</v>
@@ -8750,7 +8792,7 @@
         <v>4607111035691</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="G107" s="1">
         <f>VLOOKUP(E107,[1]Лист1!$D:$M,10,0)</f>
@@ -8762,10 +8804,10 @@
         <v>77</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="D108" s="4">
         <v>4301132179</v>
@@ -8774,7 +8816,7 @@
         <v>4607111035691</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="G108" s="1">
         <f>VLOOKUP(E108,[1]Лист1!$D:$M,10,0)</f>
@@ -8786,10 +8828,10 @@
         <v>99</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="D109" s="4">
         <v>4301132190</v>
@@ -8798,7 +8840,7 @@
         <v>4607111036537</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="G109" s="1">
         <f>VLOOKUP(E109,[1]Лист1!$D:$M,10,0)</f>
@@ -8807,13 +8849,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="D110" s="4">
         <v>4301132190</v>
@@ -8822,7 +8864,7 @@
         <v>4607111036537</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="G110" s="1">
         <f>VLOOKUP(E110,[1]Лист1!$D:$M,10,0)</f>
@@ -8834,10 +8876,10 @@
         <v>78</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="D111" s="4">
         <v>4301132190</v>
@@ -8846,7 +8888,7 @@
         <v>4607111036537</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="G111" s="1">
         <f>VLOOKUP(E111,[1]Лист1!$D:$M,10,0)</f>
@@ -8855,13 +8897,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="D112" s="4">
         <v>4301132182</v>
@@ -8870,7 +8912,7 @@
         <v>4607111035721</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="G112" s="1">
         <f>VLOOKUP(E112,[1]Лист1!$D:$M,10,0)</f>
@@ -8879,13 +8921,13 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="D113" s="4">
         <v>4301132182</v>
@@ -8894,7 +8936,7 @@
         <v>4607111035721</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="G113" s="1">
         <f>VLOOKUP(E113,[1]Лист1!$D:$M,10,0)</f>
@@ -8906,10 +8948,10 @@
         <v>79</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="D114" s="4">
         <v>4301132182</v>
@@ -8918,7 +8960,7 @@
         <v>4607111035721</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="G114" s="1">
         <f>VLOOKUP(E114,[1]Лист1!$D:$M,10,0)</f>
@@ -8927,13 +8969,13 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="D115" s="4">
         <v>4301132182</v>
@@ -8942,11 +8984,11 @@
         <v>4607111035721</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="G115" s="21"/>
       <c r="H115" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -9074,10 +9116,10 @@
         <v>337</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="D121" s="4">
         <v>4301135570</v>
@@ -9086,7 +9128,7 @@
         <v>4607111035806</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="G121" s="1">
         <f>VLOOKUP(E121,[1]Лист1!$D:$M,10,0)</f>
@@ -9098,10 +9140,10 @@
         <v>344</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="D122" s="4">
         <v>4301135570</v>
@@ -9110,7 +9152,7 @@
         <v>4607111035806</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="G122" s="1">
         <f>VLOOKUP(E122,[1]Лист1!$D:$M,10,0)</f>
@@ -9122,10 +9164,10 @@
         <v>418</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="D123" s="4">
         <v>4301135570</v>
@@ -9134,7 +9176,7 @@
         <v>4607111035806</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="G123" s="1">
         <f>VLOOKUP(E123,[1]Лист1!$D:$M,10,0)</f>
@@ -9146,10 +9188,10 @@
         <v>427</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="D124" s="4">
         <v>4301135570</v>
@@ -9158,7 +9200,7 @@
         <v>4607111035806</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="G124" s="1">
         <f>VLOOKUP(E124,[1]Лист1!$D:$M,10,0)</f>
@@ -9167,13 +9209,13 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="D125" s="4">
         <v>4301135570</v>
@@ -9182,7 +9224,7 @@
         <v>4607111035806</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="G125" s="1">
         <f>VLOOKUP(E125,[1]Лист1!$D:$M,10,0)</f>
@@ -9194,10 +9236,10 @@
         <v>207</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="D126" s="4">
         <v>4301135570</v>
@@ -9206,7 +9248,7 @@
         <v>4607111035806</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="G126" s="1">
         <f>VLOOKUP(E126,[1]Лист1!$D:$M,10,0)</f>
@@ -9917,7 +9959,7 @@
         <v>144</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D156" s="4">
         <v>4301070969</v>
@@ -9940,7 +9982,7 @@
         <v>144</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D157" s="4">
         <v>4301070969</v>
@@ -9963,7 +10005,7 @@
         <v>144</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D158" s="4">
         <v>4301070969</v>
@@ -9986,7 +10028,7 @@
         <v>103</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D159" s="4">
         <v>4301070968</v>
@@ -10316,7 +10358,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>106</v>
@@ -10340,7 +10382,7 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>106</v>
@@ -10364,7 +10406,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>106</v>
@@ -10676,7 +10718,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>154</v>
@@ -10826,7 +10868,7 @@
         <v>112</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D194" s="4">
         <v>4301071050</v>
@@ -10835,7 +10877,7 @@
         <v>4607111036216</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G194" s="1">
         <f>VLOOKUP(E194,[1]Лист1!$D:$M,10,0)</f>
@@ -10844,13 +10886,13 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D195" s="4">
         <v>4301071050</v>
@@ -10859,7 +10901,7 @@
         <v>4607111036216</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G195" s="1">
         <f>VLOOKUP(E195,[1]Лист1!$D:$M,10,0)</f>
@@ -10868,13 +10910,13 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D196" s="4">
         <v>4301071050</v>
@@ -10883,7 +10925,7 @@
         <v>4607111036216</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G196" s="1">
         <f>VLOOKUP(E196,[1]Лист1!$D:$M,10,0)</f>
@@ -10898,7 +10940,7 @@
         <v>112</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D197" s="4">
         <v>4301071050</v>
@@ -10907,7 +10949,7 @@
         <v>4607111036216</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G197" s="1">
         <f>VLOOKUP(E197,[1]Лист1!$D:$M,10,0)</f>
@@ -10922,7 +10964,7 @@
         <v>113</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D198" s="4">
         <v>4301071029</v>
@@ -10946,7 +10988,7 @@
         <v>113</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D199" s="4">
         <v>4301071029</v>
@@ -10988,13 +11030,13 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D201" s="4">
         <v>4301071000</v>
@@ -11003,7 +11045,7 @@
         <v>4607111038708</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G201" s="1"/>
     </row>
@@ -11012,10 +11054,10 @@
         <v>158</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D202" s="4">
         <v>4301071000</v>
@@ -11024,7 +11066,7 @@
         <v>4607111038708</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G202" s="1" t="e">
         <f>VLOOKUP(E202,[1]Лист1!$D:$M,10,0)</f>
@@ -11036,10 +11078,10 @@
         <v>232</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D203" s="4">
         <v>4301135504</v>
@@ -11048,13 +11090,13 @@
         <v>4640242181554</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="G203" s="1">
         <v>180</v>
       </c>
       <c r="H203" s="16" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -11062,10 +11104,10 @@
         <v>391</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D204" s="4">
         <v>4301135504</v>
@@ -11074,13 +11116,13 @@
         <v>4640242181554</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="G204" s="1">
         <v>180</v>
       </c>
       <c r="H204" s="16" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -11088,10 +11130,10 @@
         <v>409</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D205" s="4">
         <v>4301135504</v>
@@ -11100,13 +11142,13 @@
         <v>4640242181554</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="G205" s="1">
         <v>180</v>
       </c>
       <c r="H205" s="16" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -11114,10 +11156,10 @@
         <v>402</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D206" s="4">
         <v>4301135504</v>
@@ -11126,13 +11168,13 @@
         <v>4640242181554</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="G206" s="1">
         <v>180</v>
       </c>
       <c r="H206" s="16" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -11140,10 +11182,10 @@
         <v>162</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D207" s="4">
         <v>4301135504</v>
@@ -11152,24 +11194,24 @@
         <v>4640242181554</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="G207" s="1">
         <v>180</v>
       </c>
       <c r="H207" s="16" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D208" s="4">
         <v>4301135504</v>
@@ -11178,7 +11220,7 @@
         <v>4640242181554</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="G208" s="1">
         <v>180</v>
@@ -11192,7 +11234,7 @@
         <v>164</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D209" s="4">
         <v>4301071056</v>
@@ -11201,7 +11243,7 @@
         <v>4640242180250</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="G209" s="1">
         <f>VLOOKUP(E209,[1]Лист1!$D:$M,10,0)</f>
@@ -11216,7 +11258,7 @@
         <v>164</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D210" s="4">
         <v>4301071056</v>
@@ -11225,7 +11267,7 @@
         <v>4640242180250</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="G210" s="1">
         <f>VLOOKUP(E210,[1]Лист1!$D:$M,10,0)</f>
@@ -11240,7 +11282,7 @@
         <v>164</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D211" s="4">
         <v>4301071056</v>
@@ -11249,7 +11291,7 @@
         <v>4640242180250</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="G211" s="1">
         <f>VLOOKUP(E211,[1]Лист1!$D:$M,10,0)</f>
@@ -11261,10 +11303,10 @@
         <v>189</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="D212" s="4">
         <v>4301135550</v>
@@ -11273,7 +11315,7 @@
         <v>4607111034199</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="G212" s="1">
         <f>VLOOKUP(E212,[1]Лист1!$D:$M,10,0)</f>
@@ -11285,10 +11327,10 @@
         <v>115</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="D213" s="4">
         <v>4301135550</v>
@@ -11297,7 +11339,7 @@
         <v>4607111034199</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="G213" s="1">
         <f>VLOOKUP(E213,[1]Лист1!$D:$M,10,0)</f>
@@ -11306,13 +11348,13 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="D214" s="4">
         <v>4301135550</v>
@@ -11321,7 +11363,7 @@
         <v>4607111034199</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="G214" s="1">
         <f>VLOOKUP(E214,[1]Лист1!$D:$M,10,0)</f>
@@ -11333,10 +11375,10 @@
         <v>92</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="D215" s="4">
         <v>4301135550</v>
@@ -11345,7 +11387,7 @@
         <v>4607111034199</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="G215" s="1">
         <f>VLOOKUP(E215,[1]Лист1!$D:$M,10,0)</f>
@@ -11545,13 +11587,13 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="10" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>185</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D224" s="4">
         <v>4301135285</v>
@@ -11575,7 +11617,7 @@
         <v>185</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D225" s="4">
         <v>4301135285</v>
@@ -11599,7 +11641,7 @@
         <v>185</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D226" s="4">
         <v>4301135285</v>
@@ -11623,7 +11665,7 @@
         <v>185</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D227" s="4">
         <v>4301135285</v>
@@ -11644,10 +11686,10 @@
         <v>93</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="D228" s="4">
         <v>4301135555</v>
@@ -11656,7 +11698,7 @@
         <v>4607111034014</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="G228" s="1">
         <f>VLOOKUP(E228,[1]Лист1!$D:$M,10,0)</f>
@@ -11668,10 +11710,10 @@
         <v>349</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="D229" s="4">
         <v>4301135555</v>
@@ -11680,7 +11722,7 @@
         <v>4607111034014</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="G229" s="1">
         <f>VLOOKUP(E229,[1]Лист1!$D:$M,10,0)</f>
@@ -11689,13 +11731,13 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="D230" s="4">
         <v>4301135555</v>
@@ -11704,7 +11746,7 @@
         <v>4607111034014</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="G230" s="1">
         <f>VLOOKUP(E230,[1]Лист1!$D:$M,10,0)</f>
@@ -11713,13 +11755,13 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="10" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="D231" s="4">
         <v>4301135555</v>
@@ -11728,7 +11770,7 @@
         <v>4607111034014</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="G231" s="1">
         <f>VLOOKUP(E231,[1]Лист1!$D:$M,10,0)</f>
@@ -11740,10 +11782,10 @@
         <v>218</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="D232" s="4">
         <v>4301135555</v>
@@ -11752,7 +11794,7 @@
         <v>4607111034014</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="G232" s="1">
         <f>VLOOKUP(E232,[1]Лист1!$D:$M,10,0)</f>
@@ -11764,10 +11806,10 @@
         <v>219</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="D233" s="4">
         <v>4301135532</v>
@@ -11776,7 +11818,7 @@
         <v>4607111033994</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="G233" s="1">
         <f>VLOOKUP(E233,[1]Лист1!$D:$M,10,0)</f>
@@ -11785,13 +11827,13 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="D234" s="4">
         <v>4301135532</v>
@@ -11800,7 +11842,7 @@
         <v>4607111033994</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="G234" s="1">
         <f>VLOOKUP(E234,[1]Лист1!$D:$M,10,0)</f>
@@ -11812,10 +11854,10 @@
         <v>116</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="D235" s="4">
         <v>4301135532</v>
@@ -11824,7 +11866,7 @@
         <v>4607111033994</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="G235" s="1">
         <f>VLOOKUP(E235,[1]Лист1!$D:$M,10,0)</f>
@@ -11836,10 +11878,10 @@
         <v>94</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="D236" s="4">
         <v>4301135532</v>
@@ -11848,7 +11890,7 @@
         <v>4607111033994</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="G236" s="1">
         <f>VLOOKUP(E236,[1]Лист1!$D:$M,10,0)</f>
@@ -11929,7 +11971,7 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>299</v>
@@ -12223,7 +12265,7 @@
         <v>242</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D252" s="4">
         <v>4301136066</v>
@@ -12247,7 +12289,7 @@
         <v>242</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D253" s="4">
         <v>4301136066</v>
@@ -12271,7 +12313,7 @@
         <v>242</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D254" s="4">
         <v>4301136066</v>
@@ -12505,7 +12547,7 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>318</v>
@@ -12559,7 +12601,7 @@
         <v>324</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="D266" s="4">
         <v>4301071062</v>
@@ -12568,7 +12610,7 @@
         <v>4607111036384</v>
       </c>
       <c r="F266" s="5" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="G266" s="1">
         <f>VLOOKUP(E266,[1]Лист1!$D:$M,10,0)</f>
@@ -12583,7 +12625,7 @@
         <v>324</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="D267" s="4">
         <v>4301071062</v>
@@ -12592,7 +12634,7 @@
         <v>4607111036384</v>
       </c>
       <c r="F267" s="5" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="G267" s="1">
         <f>VLOOKUP(E267,[1]Лист1!$D:$M,10,0)</f>
@@ -12604,10 +12646,10 @@
         <v>408</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="D268" s="4">
         <v>4301135571</v>
@@ -12616,7 +12658,7 @@
         <v>4607111035028</v>
       </c>
       <c r="F268" s="5" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="G268" s="1">
         <f>VLOOKUP(E268,[1]Лист1!$D:$M,10,0)</f>
@@ -12628,10 +12670,10 @@
         <v>328</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="D269" s="4">
         <v>4301135571</v>
@@ -12640,7 +12682,7 @@
         <v>4607111035028</v>
       </c>
       <c r="F269" s="5" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="G269" s="1">
         <f>VLOOKUP(E269,[1]Лист1!$D:$M,10,0)</f>
@@ -12649,13 +12691,13 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="D270" s="4">
         <v>4301135571</v>
@@ -12664,7 +12706,7 @@
         <v>4607111035028</v>
       </c>
       <c r="F270" s="5" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="G270" s="1">
         <f>VLOOKUP(E270,[1]Лист1!$D:$M,10,0)</f>
@@ -12676,10 +12718,10 @@
         <v>327</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="D271" s="4">
         <v>4301135571</v>
@@ -12688,7 +12730,7 @@
         <v>4607111035028</v>
       </c>
       <c r="F271" s="5" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="G271" s="1">
         <f>VLOOKUP(E271,[1]Лист1!$D:$M,10,0)</f>
@@ -12772,10 +12814,10 @@
         <v>430</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D275" s="4">
         <v>4301071054</v>
@@ -12784,7 +12826,7 @@
         <v>4607111035639</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G275" s="1">
         <f>VLOOKUP(E275,[1]Лист1!$D:$M,10,0)</f>
@@ -12796,10 +12838,10 @@
         <v>338</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D276" s="4">
         <v>4301071054</v>
@@ -12808,7 +12850,7 @@
         <v>4607111035639</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G276" s="1">
         <f>VLOOKUP(E276,[1]Лист1!$D:$M,10,0)</f>
@@ -12823,7 +12865,7 @@
         <v>340</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D277" s="4">
         <v>4301135540</v>
@@ -12832,7 +12874,7 @@
         <v>4607111035646</v>
       </c>
       <c r="F277" s="5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G277" s="1">
         <f>VLOOKUP(E277,[1]Лист1!$D:$M,10,0)</f>
@@ -12841,13 +12883,13 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>340</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D278" s="4">
         <v>4301135540</v>
@@ -12856,7 +12898,7 @@
         <v>4607111035646</v>
       </c>
       <c r="F278" s="5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G278" s="1">
         <f>VLOOKUP(E278,[1]Лист1!$D:$M,10,0)</f>
@@ -12871,7 +12913,7 @@
         <v>340</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D279" s="4">
         <v>4301135540</v>
@@ -12880,7 +12922,7 @@
         <v>4607111035646</v>
       </c>
       <c r="F279" s="5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G279" s="1">
         <f>VLOOKUP(E279,[1]Лист1!$D:$M,10,0)</f>
@@ -12889,7 +12931,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>352</v>
@@ -13204,10 +13246,10 @@
         <v>425</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="D293" s="4">
         <v>4301132170</v>
@@ -13216,7 +13258,7 @@
         <v>4607111038487</v>
       </c>
       <c r="F293" s="5" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="G293" s="1">
         <f>VLOOKUP(E293,[1]Лист1!$D:$M,10,0)</f>
@@ -13228,10 +13270,10 @@
         <v>453</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="D294" s="4">
         <v>4301132170</v>
@@ -13240,7 +13282,7 @@
         <v>4607111038487</v>
       </c>
       <c r="F294" s="5" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="G294" s="1">
         <f>VLOOKUP(E294,[1]Лист1!$D:$M,10,0)</f>
@@ -13252,10 +13294,10 @@
         <v>456</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="D295" s="4">
         <v>4301132170</v>
@@ -13264,7 +13306,7 @@
         <v>4607111038487</v>
       </c>
       <c r="F295" s="5" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="G295" s="1">
         <f>VLOOKUP(E295,[1]Лист1!$D:$M,10,0)</f>
@@ -13276,10 +13318,10 @@
         <v>424</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="D296" s="4">
         <v>4301132170</v>
@@ -13288,7 +13330,7 @@
         <v>4607111038487</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="G296" s="1">
         <f>VLOOKUP(E296,[1]Лист1!$D:$M,10,0)</f>
@@ -13399,7 +13441,7 @@
         <v>463</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D301" s="4">
         <v>4301135318</v>
@@ -13416,13 +13458,13 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>463</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D302" s="4">
         <v>4301135318</v>
@@ -13445,7 +13487,7 @@
         <v>463</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D303" s="4">
         <v>4301135318</v>
@@ -13468,7 +13510,7 @@
         <v>466</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D304" s="4">
         <v>4301135319</v>
@@ -13485,13 +13527,13 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>466</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D305" s="4">
         <v>4301135319</v>
@@ -13514,7 +13556,7 @@
         <v>466</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D306" s="4">
         <v>4301135319</v>
@@ -13573,13 +13615,13 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C309" s="3" t="s">
         <v>482</v>
-      </c>
-      <c r="B309" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C309" s="3" t="s">
-        <v>484</v>
       </c>
       <c r="D309" s="4">
         <v>4301135317</v>
@@ -13588,19 +13630,19 @@
         <v>4607111039057</v>
       </c>
       <c r="F309" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G309" s="1"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D310" s="4">
         <v>4301070963</v>
@@ -13609,7 +13651,7 @@
         <v>4607111038630</v>
       </c>
       <c r="F310" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G310" s="1">
         <v>180</v>
@@ -13617,13 +13659,13 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C311" s="3" t="s">
         <v>486</v>
-      </c>
-      <c r="B311" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="C311" s="3" t="s">
-        <v>488</v>
       </c>
       <c r="D311" s="4">
         <v>4301070963</v>
@@ -13632,7 +13674,7 @@
         <v>4607111038630</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G311" s="1">
         <v>180</v>
@@ -13640,13 +13682,13 @@
     </row>
     <row r="312" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D312" s="4">
         <v>4301070960</v>
@@ -13655,7 +13697,7 @@
         <v>4607111038623</v>
       </c>
       <c r="F312" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G312" s="1">
         <v>180</v>
@@ -13663,13 +13705,13 @@
     </row>
     <row r="313" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D313" s="4">
         <v>4301070960</v>
@@ -13678,7 +13720,7 @@
         <v>4607111038623</v>
       </c>
       <c r="F313" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G313" s="1">
         <v>180</v>
@@ -13686,13 +13728,13 @@
     </row>
     <row r="314" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D314" s="4">
         <v>4301070960</v>
@@ -13701,7 +13743,7 @@
         <v>4607111038623</v>
       </c>
       <c r="F314" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G314" s="1">
         <v>180</v>
@@ -13709,13 +13751,13 @@
     </row>
     <row r="315" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C315" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="B315" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="C315" s="3" t="s">
-        <v>492</v>
       </c>
       <c r="D315" s="4">
         <v>4301070960</v>
@@ -13724,7 +13766,7 @@
         <v>4607111038623</v>
       </c>
       <c r="F315" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G315" s="1">
         <v>180</v>
@@ -13732,13 +13774,13 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B316" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C316" s="12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D316" s="13">
         <v>4301070997</v>
@@ -13747,7 +13789,7 @@
         <v>4607111038586</v>
       </c>
       <c r="F316" s="15" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G316" s="1">
         <v>180</v>
@@ -13755,13 +13797,13 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B317" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C317" s="12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D317" s="13">
         <v>4301070997</v>
@@ -13770,7 +13812,7 @@
         <v>4607111038586</v>
       </c>
       <c r="F317" s="15" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G317" s="1">
         <v>180</v>
@@ -13778,13 +13820,13 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B318" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C318" s="12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D318" s="13">
         <v>4301070997</v>
@@ -13793,7 +13835,7 @@
         <v>4607111038586</v>
       </c>
       <c r="F318" s="15" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G318" s="1">
         <v>180</v>
@@ -13801,13 +13843,13 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="B319" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="C319" s="12" t="s">
         <v>494</v>
-      </c>
-      <c r="B319" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="C319" s="12" t="s">
-        <v>496</v>
       </c>
       <c r="D319" s="13">
         <v>4301070997</v>
@@ -13816,7 +13858,7 @@
         <v>4607111038586</v>
       </c>
       <c r="F319" s="15" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G319" s="1">
         <v>180</v>
@@ -13824,13 +13866,13 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D320" s="4">
         <v>4301190046</v>
@@ -13839,7 +13881,7 @@
         <v>4607111038951</v>
       </c>
       <c r="F320" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G320" s="1">
         <v>365</v>
@@ -13847,13 +13889,13 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C321" s="3" t="s">
         <v>508</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="C321" s="3" t="s">
-        <v>510</v>
       </c>
       <c r="D321" s="4">
         <v>4301190046</v>
@@ -13862,7 +13904,7 @@
         <v>4607111038951</v>
       </c>
       <c r="F321" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G321" s="1">
         <v>365</v>
@@ -13870,13 +13912,13 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D322" s="4">
         <v>4301070996</v>
@@ -13885,7 +13927,7 @@
         <v>4607111038654</v>
       </c>
       <c r="F322" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G322" s="1">
         <v>180</v>
@@ -13893,13 +13935,13 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C323" s="3" t="s">
         <v>513</v>
-      </c>
-      <c r="B323" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="C323" s="3" t="s">
-        <v>515</v>
       </c>
       <c r="D323" s="4">
         <v>4301070996</v>
@@ -13908,7 +13950,7 @@
         <v>4607111038654</v>
       </c>
       <c r="F323" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G323" s="1">
         <v>180</v>
@@ -13916,13 +13958,13 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D324" s="4">
         <v>4301071021</v>
@@ -13931,19 +13973,19 @@
         <v>4640242181325</v>
       </c>
       <c r="F324" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G324" s="1"/>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D325" s="4">
         <v>4301071021</v>
@@ -13952,19 +13994,19 @@
         <v>4640242181325</v>
       </c>
       <c r="F325" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G325" s="1"/>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D326" s="4">
         <v>4301071021</v>
@@ -13973,19 +14015,19 @@
         <v>4640242181325</v>
       </c>
       <c r="F326" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G326" s="1"/>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C327" s="3" t="s">
         <v>519</v>
-      </c>
-      <c r="B327" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="C327" s="3" t="s">
-        <v>521</v>
       </c>
       <c r="D327" s="4">
         <v>4301071021</v>
@@ -13994,19 +14036,19 @@
         <v>4640242181325</v>
       </c>
       <c r="F327" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G327" s="1"/>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C328" s="3" t="s">
         <v>523</v>
-      </c>
-      <c r="B328" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="C328" s="3" t="s">
-        <v>525</v>
       </c>
       <c r="D328" s="4">
         <v>4301135309</v>
@@ -14015,13 +14057,13 @@
         <v>4640242181332</v>
       </c>
       <c r="F328" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G328" s="1"/>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>318</v>
@@ -14045,13 +14087,13 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D330" s="4">
         <v>4301071014</v>
@@ -14060,19 +14102,19 @@
         <v>4640242181264</v>
       </c>
       <c r="F330" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G330" s="1"/>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C331" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="B331" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C331" s="3" t="s">
-        <v>535</v>
       </c>
       <c r="D331" s="4">
         <v>4301071014</v>
@@ -14081,19 +14123,19 @@
         <v>4640242181264</v>
       </c>
       <c r="F331" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G331" s="1"/>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="10" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D332" s="4">
         <v>4301135310</v>
@@ -14102,19 +14144,19 @@
         <v>4640242181318</v>
       </c>
       <c r="F332" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G332" s="1"/>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="10" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D333" s="4">
         <v>4301135310</v>
@@ -14123,19 +14165,19 @@
         <v>4640242181318</v>
       </c>
       <c r="F333" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G333" s="1"/>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D334" s="4">
         <v>4301135310</v>
@@ -14144,19 +14186,19 @@
         <v>4640242181318</v>
       </c>
       <c r="F334" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G334" s="1"/>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="10" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D335" s="4">
         <v>4301135306</v>
@@ -14165,19 +14207,19 @@
         <v>4640242181578</v>
       </c>
       <c r="F335" s="5" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G335" s="1"/>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="10" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D336" s="4">
         <v>4301135306</v>
@@ -14186,19 +14228,19 @@
         <v>4640242181578</v>
       </c>
       <c r="F336" s="5" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G336" s="1"/>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D337" s="4">
         <v>4301135306</v>
@@ -14207,19 +14249,19 @@
         <v>4640242181578</v>
       </c>
       <c r="F337" s="5" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G337" s="1"/>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="10" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B338" s="12" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C338" s="12" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D338" s="13">
         <v>4301135305</v>
@@ -14228,19 +14270,19 @@
         <v>4640242181394</v>
       </c>
       <c r="F338" s="15" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="G338" s="1"/>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="10" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D339" s="4">
         <v>4301135305</v>
@@ -14249,19 +14291,19 @@
         <v>4640242181394</v>
       </c>
       <c r="F339" s="5" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G339" s="1"/>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="10" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B340" s="12" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C340" s="12" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D340" s="13">
         <v>4301135305</v>
@@ -14270,19 +14312,19 @@
         <v>4640242181394</v>
       </c>
       <c r="F340" s="15" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="G340" s="1"/>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="10" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D341" s="4">
         <v>4301070993</v>
@@ -14291,19 +14333,19 @@
         <v>4640242180670</v>
       </c>
       <c r="F341" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G341" s="1"/>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="10" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D342" s="4">
         <v>4301070993</v>
@@ -14312,19 +14354,19 @@
         <v>4640242180670</v>
       </c>
       <c r="F342" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G342" s="1"/>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="10" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D343" s="4">
         <v>4301070993</v>
@@ -14333,19 +14375,19 @@
         <v>4640242180670</v>
       </c>
       <c r="F343" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G343" s="1"/>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="10" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D344" s="4">
         <v>4301135549</v>
@@ -14354,19 +14396,19 @@
         <v>4607111039095</v>
       </c>
       <c r="F344" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G344" s="1"/>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="10" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D345" s="4">
         <v>4301135549</v>
@@ -14375,19 +14417,19 @@
         <v>4607111039095</v>
       </c>
       <c r="F345" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G345" s="1"/>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="10" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D346" s="4">
         <v>4301135549</v>
@@ -14396,19 +14438,19 @@
         <v>4607111039095</v>
       </c>
       <c r="F346" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G346" s="1"/>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="10" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D347" s="4">
         <v>4301132104</v>
@@ -14417,19 +14459,19 @@
         <v>4640242181219</v>
       </c>
       <c r="F347" s="5" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G347" s="1"/>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="10" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D348" s="4">
         <v>4301070991</v>
@@ -14438,19 +14480,19 @@
         <v>4607111038180</v>
       </c>
       <c r="F348" s="5" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G348" s="1"/>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="10" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D349" s="4">
         <v>4301135304</v>
@@ -14459,19 +14501,19 @@
         <v>4640242181240</v>
       </c>
       <c r="F349" s="5" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G349" s="1"/>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="10" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D350" s="4">
         <v>4301135374</v>
@@ -14480,19 +14522,19 @@
         <v>4640242181424</v>
       </c>
       <c r="F350" s="5" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G350" s="1"/>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="10" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D351" s="4">
         <v>4301135374</v>
@@ -14501,19 +14543,19 @@
         <v>4640242181424</v>
       </c>
       <c r="F351" s="5" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G351" s="1"/>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="10" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D352" s="4">
         <v>4301135374</v>
@@ -14522,19 +14564,19 @@
         <v>4640242181424</v>
       </c>
       <c r="F352" s="5" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G352" s="1"/>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="10" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D353" s="4">
         <v>4301135374</v>
@@ -14543,19 +14585,19 @@
         <v>4640242181424</v>
       </c>
       <c r="F353" s="5" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G353" s="1"/>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="10" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D354" s="4">
         <v>4301071046</v>
@@ -14564,19 +14606,19 @@
         <v>4607111039354</v>
       </c>
       <c r="F354" s="5" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G354" s="1"/>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="10" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D355" s="4">
         <v>4301071046</v>
@@ -14585,19 +14627,19 @@
         <v>4607111039354</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G355" s="1"/>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D356" s="4">
         <v>4301071046</v>
@@ -14606,19 +14648,19 @@
         <v>4607111039354</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G356" s="1"/>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="10" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D357" s="4">
         <v>4301071047</v>
@@ -14627,19 +14669,19 @@
         <v>4607111039330</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G357" s="1"/>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="10" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D358" s="4">
         <v>4301071047</v>
@@ -14648,19 +14690,19 @@
         <v>4607111039330</v>
       </c>
       <c r="F358" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G358" s="1"/>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="10" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D359" s="4">
         <v>4301071047</v>
@@ -14669,19 +14711,19 @@
         <v>4607111039330</v>
       </c>
       <c r="F359" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G359" s="1"/>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="10" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D360" s="4">
         <v>4301071047</v>
@@ -14690,19 +14732,19 @@
         <v>4607111039330</v>
       </c>
       <c r="F360" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G360" s="1"/>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="10" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D361" s="4">
         <v>4301071051</v>
@@ -14711,19 +14753,19 @@
         <v>4607111039262</v>
       </c>
       <c r="F361" s="5" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G361" s="1"/>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="10" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D362" s="4">
         <v>4301071051</v>
@@ -14732,19 +14774,19 @@
         <v>4607111039262</v>
       </c>
       <c r="F362" s="5" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G362" s="1"/>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="10" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D363" s="4">
         <v>4301071051</v>
@@ -14753,19 +14795,19 @@
         <v>4607111039262</v>
       </c>
       <c r="F363" s="5" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G363" s="1"/>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="10" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D364" s="4">
         <v>4301071051</v>
@@ -14774,19 +14816,19 @@
         <v>4607111039262</v>
       </c>
       <c r="F364" s="5" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G364" s="1"/>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D365" s="4">
         <v>4301071051</v>
@@ -14795,19 +14837,19 @@
         <v>4607111039262</v>
       </c>
       <c r="F365" s="5" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G365" s="1"/>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="10" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D366" s="4">
         <v>4301071038</v>
@@ -14816,19 +14858,19 @@
         <v>4607111039248</v>
       </c>
       <c r="F366" s="5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G366" s="1"/>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="10" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D367" s="4">
         <v>4301071038</v>
@@ -14837,19 +14879,19 @@
         <v>4607111039248</v>
       </c>
       <c r="F367" s="5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G367" s="1"/>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="10" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D368" s="4">
         <v>4301071038</v>
@@ -14858,19 +14900,19 @@
         <v>4607111039248</v>
       </c>
       <c r="F368" s="5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G368" s="1"/>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="10" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D369" s="4">
         <v>4301071038</v>
@@ -14879,19 +14921,19 @@
         <v>4607111039248</v>
       </c>
       <c r="F369" s="5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G369" s="1"/>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="10" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D370" s="4">
         <v>4301071038</v>
@@ -14900,19 +14942,19 @@
         <v>4607111039248</v>
       </c>
       <c r="F370" s="5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G370" s="1"/>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="10" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D371" s="4">
         <v>4301071049</v>
@@ -14921,19 +14963,19 @@
         <v>4607111039293</v>
       </c>
       <c r="F371" s="5" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G371" s="1"/>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="10" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D372" s="4">
         <v>4301071049</v>
@@ -14942,19 +14984,19 @@
         <v>4607111039293</v>
       </c>
       <c r="F372" s="5" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G372" s="1"/>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="10" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D373" s="4">
         <v>4301071049</v>
@@ -14963,19 +15005,19 @@
         <v>4607111039293</v>
       </c>
       <c r="F373" s="5" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G373" s="1"/>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="10" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D374" s="4">
         <v>4301071049</v>
@@ -14984,19 +15026,19 @@
         <v>4607111039293</v>
       </c>
       <c r="F374" s="5" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G374" s="1"/>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="10" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D375" s="4">
         <v>4301071049</v>
@@ -15005,19 +15047,19 @@
         <v>4607111039293</v>
       </c>
       <c r="F375" s="5" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G375" s="1"/>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="10" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D376" s="4">
         <v>4301071039</v>
@@ -15026,19 +15068,19 @@
         <v>4607111039279</v>
       </c>
       <c r="F376" s="5" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G376" s="1"/>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="10" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D377" s="4">
         <v>4301071039</v>
@@ -15047,19 +15089,19 @@
         <v>4607111039279</v>
       </c>
       <c r="F377" s="5" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G377" s="1"/>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="10" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D378" s="4">
         <v>4301071039</v>
@@ -15068,19 +15110,19 @@
         <v>4607111039279</v>
       </c>
       <c r="F378" s="5" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G378" s="1"/>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="10" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D379" s="4">
         <v>4301071039</v>
@@ -15089,19 +15131,19 @@
         <v>4607111039279</v>
       </c>
       <c r="F379" s="5" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G379" s="1"/>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="10" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D380" s="4">
         <v>4301071039</v>
@@ -15110,19 +15152,19 @@
         <v>4607111039279</v>
       </c>
       <c r="F380" s="5" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G380" s="1"/>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="10" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="D381" s="4">
         <v>4301135696</v>
@@ -15131,19 +15173,19 @@
         <v>4620207490235</v>
       </c>
       <c r="F381" s="5" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="G381" s="1"/>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="10" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="D382" s="4">
         <v>4301135696</v>
@@ -15152,19 +15194,19 @@
         <v>4620207490235</v>
       </c>
       <c r="F382" s="5" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="G382" s="1"/>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="10" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="D383" s="4">
         <v>4301135696</v>
@@ -15173,19 +15215,19 @@
         <v>4620207490235</v>
       </c>
       <c r="F383" s="5" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="G383" s="1"/>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="10" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="D384" s="4">
         <v>4301135707</v>
@@ -15194,19 +15236,19 @@
         <v>4620207490198</v>
       </c>
       <c r="F384" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="G384" s="1"/>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="10" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="D385" s="4">
         <v>4301135707</v>
@@ -15215,19 +15257,19 @@
         <v>4620207490198</v>
       </c>
       <c r="F385" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="G385" s="1"/>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="10" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="D386" s="4">
         <v>4301135707</v>
@@ -15236,19 +15278,19 @@
         <v>4620207490198</v>
       </c>
       <c r="F386" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="G386" s="1"/>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="10" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="D387" s="4">
         <v>4301135697</v>
@@ -15257,19 +15299,19 @@
         <v>4620207490259</v>
       </c>
       <c r="F387" s="5" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="G387" s="1"/>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="10" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="D388" s="4">
         <v>4301135697</v>
@@ -15278,19 +15320,19 @@
         <v>4620207490259</v>
       </c>
       <c r="F388" s="5" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="G388" s="1"/>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="10" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="D389" s="4">
         <v>4301135697</v>
@@ -15299,19 +15341,19 @@
         <v>4620207490259</v>
       </c>
       <c r="F389" s="5" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="G389" s="1"/>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="10" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="D390" s="4">
         <v>4301071044</v>
@@ -15320,19 +15362,19 @@
         <v>4607111039385</v>
       </c>
       <c r="F390" s="5" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="G390" s="1"/>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="10" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="D391" s="4">
         <v>4301071044</v>
@@ -15341,19 +15383,19 @@
         <v>4607111039385</v>
       </c>
       <c r="F391" s="5" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="G391" s="1"/>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="10" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="D392" s="4">
         <v>4301071044</v>
@@ -15362,19 +15404,19 @@
         <v>4607111039385</v>
       </c>
       <c r="F392" s="5" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="G392" s="1"/>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="10" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="D393" s="4">
         <v>4301071044</v>
@@ -15383,19 +15425,19 @@
         <v>4607111039385</v>
       </c>
       <c r="F393" s="5" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="G393" s="1"/>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="10" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="D394" s="4">
         <v>4301071044</v>
@@ -15404,19 +15446,19 @@
         <v>4607111039385</v>
       </c>
       <c r="F394" s="5" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="G394" s="1"/>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="10" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="D395" s="4">
         <v>4301071045</v>
@@ -15425,19 +15467,19 @@
         <v>4607111039392</v>
       </c>
       <c r="F395" s="5" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="G395" s="1"/>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="10" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="D396" s="4">
         <v>4301071045</v>
@@ -15446,19 +15488,19 @@
         <v>4607111039392</v>
       </c>
       <c r="F396" s="5" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="G396" s="1"/>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="10" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="D397" s="4">
         <v>4301071045</v>
@@ -15467,19 +15509,19 @@
         <v>4607111039392</v>
       </c>
       <c r="F397" s="5" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="G397" s="1"/>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="10" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="D398" s="4">
         <v>4301071031</v>
@@ -15488,19 +15530,19 @@
         <v>4607111038982</v>
       </c>
       <c r="F398" s="5" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="G398" s="1"/>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="10" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="D399" s="4">
         <v>4301071031</v>
@@ -15509,19 +15551,19 @@
         <v>4607111038982</v>
       </c>
       <c r="F399" s="5" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="G399" s="1"/>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="10" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="D400" s="4">
         <v>4301071031</v>
@@ -15530,19 +15572,19 @@
         <v>4607111038982</v>
       </c>
       <c r="F400" s="5" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="G400" s="1"/>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="10" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="D401" s="4">
         <v>4301135591</v>
@@ -15551,7 +15593,7 @@
         <v>4607111036568</v>
       </c>
       <c r="F401" s="5" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="G401" s="1">
         <v>180</v>
@@ -15559,13 +15601,13 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="10" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="D402" s="4">
         <v>4301135591</v>
@@ -15574,7 +15616,7 @@
         <v>4607111036568</v>
       </c>
       <c r="F402" s="5" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="G402" s="1">
         <v>180</v>
@@ -15582,13 +15624,13 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="10" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="D403" s="4">
         <v>4301135591</v>
@@ -15597,7 +15639,7 @@
         <v>4607111036568</v>
       </c>
       <c r="F403" s="5" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="G403" s="1">
         <v>180</v>
@@ -15605,13 +15647,13 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="10" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="D404" s="4">
         <v>4301135402</v>
@@ -15620,19 +15662,19 @@
         <v>4640242181493</v>
       </c>
       <c r="F404" s="5" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="G404" s="1"/>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="10" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="D405" s="4">
         <v>4301135402</v>
@@ -15641,19 +15683,19 @@
         <v>4640242181493</v>
       </c>
       <c r="F405" s="5" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="G405" s="1"/>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="10" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="D406" s="4">
         <v>4301135607</v>
@@ -15662,19 +15704,19 @@
         <v>4607111039613</v>
       </c>
       <c r="F406" s="5" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="G406" s="1"/>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="10" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="D407" s="4">
         <v>4301135607</v>
@@ -15683,19 +15725,19 @@
         <v>4607111039613</v>
       </c>
       <c r="F407" s="5" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="G407" s="1"/>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="10" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="D408" s="4">
         <v>4301135607</v>
@@ -15704,19 +15746,19 @@
         <v>4607111039613</v>
       </c>
       <c r="F408" s="5" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="G408" s="1"/>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="10" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="D409" s="4">
         <v>4301135607</v>
@@ -15725,19 +15767,19 @@
         <v>4607111039613</v>
       </c>
       <c r="F409" s="5" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="G409" s="1"/>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="10" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="D410" s="4">
         <v>4301190068</v>
@@ -15746,19 +15788,19 @@
         <v>4620207490365</v>
       </c>
       <c r="F410" s="5" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="G410" s="1"/>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="10" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="D411" s="4">
         <v>4301190068</v>
@@ -15767,19 +15809,19 @@
         <v>4620207490365</v>
       </c>
       <c r="F411" s="5" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="G411" s="1"/>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="10" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="D412" s="4">
         <v>4301190068</v>
@@ -15788,19 +15830,19 @@
         <v>4620207490365</v>
       </c>
       <c r="F412" s="5" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="G412" s="1"/>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="10" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="D413" s="4">
         <v>4301190070</v>
@@ -15809,19 +15851,19 @@
         <v>4620207490419</v>
       </c>
       <c r="F413" s="5" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="G413" s="1"/>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="10" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="D414" s="4">
         <v>4301190070</v>
@@ -15830,19 +15872,19 @@
         <v>4620207490419</v>
       </c>
       <c r="F414" s="5" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="G414" s="1"/>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="10" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="D415" s="4">
         <v>4301071032</v>
@@ -15851,7 +15893,7 @@
         <v>4607111038999</v>
       </c>
       <c r="F415" s="5" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="G415" s="1">
         <v>180</v>
@@ -15859,13 +15901,13 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="10" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="D416" s="4">
         <v>4301071032</v>
@@ -15874,7 +15916,7 @@
         <v>4607111038999</v>
       </c>
       <c r="F416" s="5" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="G416" s="1">
         <v>180</v>
@@ -15882,13 +15924,13 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="10" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="D417" s="4">
         <v>4301071032</v>
@@ -15897,7 +15939,7 @@
         <v>4607111038999</v>
       </c>
       <c r="F417" s="5" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="G417" s="1">
         <v>180</v>
@@ -15905,13 +15947,13 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="10" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="D418" s="4">
         <v>4301071032</v>
@@ -15920,7 +15962,7 @@
         <v>4607111038999</v>
       </c>
       <c r="F418" s="5" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="G418" s="1">
         <v>180</v>
@@ -15928,13 +15970,13 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="10" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="D419" s="4">
         <v>4301071032</v>
@@ -15943,7 +15985,7 @@
         <v>4607111038999</v>
       </c>
       <c r="F419" s="5" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="G419" s="1">
         <v>180</v>
@@ -15951,13 +15993,13 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="10" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="D420" s="4">
         <v>4301135404</v>
@@ -15966,19 +16008,19 @@
         <v>4640242181516</v>
       </c>
       <c r="F420" s="5" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="G420" s="1"/>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="10" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="D421" s="4">
         <v>4301071090</v>
@@ -15987,7 +16029,7 @@
         <v>4620207490075</v>
       </c>
       <c r="F421" s="5" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="G421" s="1">
         <v>180</v>
@@ -15995,13 +16037,13 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="10" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="D422" s="4">
         <v>4301071090</v>
@@ -16010,7 +16052,7 @@
         <v>4620207490075</v>
       </c>
       <c r="F422" s="5" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="G422" s="1">
         <v>180</v>
@@ -16018,13 +16060,13 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="10" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D423" s="4">
         <v>4301071092</v>
@@ -16033,7 +16075,7 @@
         <v>4620207490174</v>
       </c>
       <c r="F423" s="5" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="G423" s="1">
         <v>180</v>
@@ -16041,13 +16083,13 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="10" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D424" s="4">
         <v>4301071092</v>
@@ -16056,7 +16098,7 @@
         <v>4620207490174</v>
       </c>
       <c r="F424" s="5" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="G424" s="1">
         <v>180</v>
@@ -16064,13 +16106,13 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="10" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D425" s="4">
         <v>4301071092</v>
@@ -16079,7 +16121,7 @@
         <v>4620207490174</v>
       </c>
       <c r="F425" s="5" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="G425" s="1">
         <v>180</v>
@@ -16087,13 +16129,13 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="10" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="D426" s="4">
         <v>4301071091</v>
@@ -16102,7 +16144,7 @@
         <v>4620207490044</v>
       </c>
       <c r="F426" s="5" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="G426" s="1">
         <v>180</v>
@@ -16110,13 +16152,13 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="10" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="D427" s="4">
         <v>4301071091</v>
@@ -16125,7 +16167,7 @@
         <v>4620207490044</v>
       </c>
       <c r="F427" s="5" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="G427" s="1">
         <v>180</v>
@@ -16133,13 +16175,13 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="10" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="D428" s="4">
         <v>4301132044</v>
@@ -16148,19 +16190,19 @@
         <v>4607111036971</v>
       </c>
       <c r="F428" s="5" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="G428" s="1"/>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="10" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="D429" s="4">
         <v>4301135127</v>
@@ -16169,19 +16211,19 @@
         <v>4607111036995</v>
       </c>
       <c r="F429" s="5" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="G429" s="1"/>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="10" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="D430" s="4">
         <v>4301135670</v>
@@ -16190,7 +16232,7 @@
         <v>4620207490983</v>
       </c>
       <c r="F430" s="5" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="G430" s="1">
         <v>180</v>
@@ -16198,13 +16240,13 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="10" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="D431" s="4">
         <v>4301135670</v>
@@ -16213,7 +16255,7 @@
         <v>4620207490983</v>
       </c>
       <c r="F431" s="5" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="G431" s="1">
         <v>180</v>
@@ -16221,13 +16263,13 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="10" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="D432" s="4">
         <v>4301135670</v>
@@ -16236,7 +16278,7 @@
         <v>4620207490983</v>
       </c>
       <c r="F432" s="5" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="G432" s="1">
         <v>180</v>
@@ -16244,13 +16286,13 @@
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="10" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="D433" s="4">
         <v>4301135670</v>
@@ -16259,7 +16301,7 @@
         <v>4620207490983</v>
       </c>
       <c r="F433" s="5" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="G433" s="1">
         <v>180</v>
@@ -16267,13 +16309,13 @@
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="10" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="D434" s="4">
         <v>4301071074</v>
@@ -16282,19 +16324,19 @@
         <v>4620207491157</v>
       </c>
       <c r="F434" s="5" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="G434" s="1"/>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="10" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="D435" s="4">
         <v>4301071074</v>
@@ -16303,19 +16345,19 @@
         <v>4620207491157</v>
       </c>
       <c r="F435" s="5" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="G435" s="1"/>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="10" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="D436" s="4">
         <v>4301071074</v>
@@ -16324,19 +16366,19 @@
         <v>4620207491157</v>
       </c>
       <c r="F436" s="5" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="G436" s="1"/>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="10" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="D437" s="4">
         <v>4301135763</v>
@@ -16345,19 +16387,19 @@
         <v>4620207491027</v>
       </c>
       <c r="F437" s="5" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="G437" s="1"/>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="10" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="D438" s="4">
         <v>4301135763</v>
@@ -16366,19 +16408,19 @@
         <v>4620207491027</v>
       </c>
       <c r="F438" s="5" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="G438" s="1"/>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="10" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="D439" s="4">
         <v>4301135763</v>
@@ -16387,19 +16429,19 @@
         <v>4620207491027</v>
       </c>
       <c r="F439" s="5" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="G439" s="1"/>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="10" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="D440" s="4">
         <v>4301135763</v>
@@ -16408,19 +16450,19 @@
         <v>4620207491027</v>
       </c>
       <c r="F440" s="5" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="G440" s="1"/>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="10" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="D441" s="4">
         <v>4301135665</v>
@@ -16429,19 +16471,19 @@
         <v>4607111039729</v>
       </c>
       <c r="F441" s="5" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="G441" s="1"/>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="10" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="D442" s="4">
         <v>4301135702</v>
@@ -16450,19 +16492,19 @@
         <v>4620207490228</v>
       </c>
       <c r="F442" s="5" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="G442" s="1"/>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="10" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="D443" s="4">
         <v>4301071090</v>
@@ -16471,22 +16513,22 @@
         <v>4620207490075</v>
       </c>
       <c r="F443" s="5" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="G443" s="1"/>
       <c r="H443" s="16" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="10" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="D444" s="4">
         <v>4301071091</v>
@@ -16495,22 +16537,22 @@
         <v>4620207490044</v>
       </c>
       <c r="F444" s="5" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="G444" s="1"/>
       <c r="H444" s="16" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="10" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="D445" s="4">
         <v>4301071032</v>
@@ -16519,22 +16561,22 @@
         <v>4607111038999</v>
       </c>
       <c r="F445" s="5" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="G445" s="1"/>
       <c r="H445" s="16" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="10" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="D446" s="4">
         <v>4301071044</v>
@@ -16543,22 +16585,22 @@
         <v>4607111039385</v>
       </c>
       <c r="F446" s="5" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="G446" s="1"/>
       <c r="H446" s="16" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="10" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D447" s="4">
         <v>4301071038</v>
@@ -16567,22 +16609,22 @@
         <v>4607111039248</v>
       </c>
       <c r="F447" s="5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G447" s="1"/>
       <c r="H447" s="16" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="10" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D448" s="4">
         <v>4301071051</v>
@@ -16591,22 +16633,22 @@
         <v>4607111039262</v>
       </c>
       <c r="F448" s="5" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G448" s="1"/>
       <c r="H448" s="16" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="10" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D449" s="4">
         <v>4301071049</v>
@@ -16615,22 +16657,22 @@
         <v>4607111039293</v>
       </c>
       <c r="F449" s="5" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="G449" s="1"/>
       <c r="H449" s="16" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="10" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D450" s="4">
         <v>4301071039</v>
@@ -16639,46 +16681,46 @@
         <v>4607111039279</v>
       </c>
       <c r="F450" s="5" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G450" s="1"/>
       <c r="H450" s="16" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="10" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>656</v>
+        <v>954</v>
       </c>
       <c r="C451" s="3" t="s">
-        <v>657</v>
+        <v>955</v>
       </c>
       <c r="D451" s="4">
-        <v>4301135578</v>
+        <v>4301135760</v>
       </c>
       <c r="E451" s="3">
-        <v>4607111033444</v>
+        <v>4620207491010</v>
       </c>
       <c r="F451" s="5" t="s">
-        <v>658</v>
+        <v>956</v>
       </c>
       <c r="G451" s="1"/>
       <c r="H451" s="16" t="s">
-        <v>940</v>
+        <v>950</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="10" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="D452" s="4">
         <v>4301132190</v>
@@ -16687,22 +16729,22 @@
         <v>4607111036537</v>
       </c>
       <c r="F452" s="5" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="G452" s="1"/>
       <c r="H452" s="16" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="10" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="D453" s="4">
         <v>4301135768</v>
@@ -16711,19 +16753,19 @@
         <v>4620207491034</v>
       </c>
       <c r="F453" s="5" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="G453" s="1"/>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="10" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="D454" s="4">
         <v>4301071097</v>
@@ -16732,19 +16774,19 @@
         <v>4620207491096</v>
       </c>
       <c r="F454" s="5" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="G454" s="1"/>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="10" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="D455" s="4">
         <v>4301071097</v>
@@ -16753,19 +16795,19 @@
         <v>4620207491096</v>
       </c>
       <c r="F455" s="5" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="G455" s="1"/>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="10" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="D456" s="4">
         <v>4301132227</v>
@@ -16774,19 +16816,19 @@
         <v>4620207491133</v>
       </c>
       <c r="F456" s="5" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="G456" s="1"/>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="10" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="D457" s="4">
         <v>4301132227</v>
@@ -16795,19 +16837,19 @@
         <v>4620207491133</v>
       </c>
       <c r="F457" s="5" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="G457" s="1"/>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="17" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="B458" s="18" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C458" s="18" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D458" s="19">
         <v>4301071038</v>
@@ -16816,16 +16858,16 @@
         <v>4607111039248</v>
       </c>
       <c r="F458" s="20" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G458" s="21"/>
       <c r="H458" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="17" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="B459" s="18" t="s">
         <v>106</v>
@@ -16844,18 +16886,18 @@
       </c>
       <c r="G459" s="21"/>
       <c r="H459" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="17" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="B460" s="18" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C460" s="18" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D460" s="19">
         <v>4301071039</v>
@@ -16864,22 +16906,22 @@
         <v>4607111039279</v>
       </c>
       <c r="F460" s="20" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G460" s="21"/>
       <c r="H460" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="17" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="B461" s="18" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C461" s="18" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D461" s="19">
         <v>4301071051</v>
@@ -16888,16 +16930,16 @@
         <v>4607111039262</v>
       </c>
       <c r="F461" s="20" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G461" s="21"/>
       <c r="H461" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="17" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="B462" s="18" t="s">
         <v>293</v>
@@ -16916,18 +16958,18 @@
       </c>
       <c r="G462" s="21"/>
       <c r="H462" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="17" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="B463" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C463" s="18" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D463" s="19">
         <v>4301071029</v>
@@ -16940,12 +16982,12 @@
       </c>
       <c r="G463" s="21"/>
       <c r="H463" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="17" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="B464" s="3" t="s">
         <v>302</v>
@@ -16964,12 +17006,12 @@
       </c>
       <c r="G464" s="21"/>
       <c r="H464" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="17" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="B465" s="18" t="s">
         <v>318</v>
@@ -16988,18 +17030,18 @@
       </c>
       <c r="G465" s="21"/>
       <c r="H465" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="17" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="B466" s="18" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C466" s="18" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D466" s="19">
         <v>4301135375</v>
@@ -17008,46 +17050,46 @@
         <v>4640242181486</v>
       </c>
       <c r="F466" s="20" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G466" s="21"/>
       <c r="H466" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="17" t="s">
-        <v>817</v>
-      </c>
-      <c r="B467" s="18" t="s">
-        <v>656</v>
-      </c>
-      <c r="C467" s="18" t="s">
-        <v>657</v>
-      </c>
-      <c r="D467" s="19">
-        <v>4301135578</v>
-      </c>
-      <c r="E467" s="18">
-        <v>4607111033444</v>
-      </c>
-      <c r="F467" s="20" t="s">
-        <v>658</v>
+        <v>809</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="C467" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="D467" s="4">
+        <v>4301135760</v>
+      </c>
+      <c r="E467" s="3">
+        <v>4620207491010</v>
+      </c>
+      <c r="F467" s="5" t="s">
+        <v>956</v>
       </c>
       <c r="G467" s="21"/>
-      <c r="H467" s="22" t="s">
-        <v>869</v>
+      <c r="H467" s="16" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="17" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="B468" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C468" s="18" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D468" s="19">
         <v>4301071050</v>
@@ -17056,22 +17098,22 @@
         <v>4607111036216</v>
       </c>
       <c r="F468" s="20" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G468" s="21"/>
       <c r="H468" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="17" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="B469" s="18" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C469" s="18" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D469" s="19">
         <v>4301071049</v>
@@ -17080,22 +17122,22 @@
         <v>4607111039293</v>
       </c>
       <c r="F469" s="20" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G469" s="21"/>
       <c r="H469" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="17" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="B470" s="18" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="C470" s="18" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="D470" s="19">
         <v>4301135532</v>
@@ -17104,22 +17146,22 @@
         <v>4607111033994</v>
       </c>
       <c r="F470" s="20" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="G470" s="21"/>
       <c r="H470" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="17" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="D471" s="4">
         <v>4301135555</v>
@@ -17128,40 +17170,40 @@
         <v>4607111034014</v>
       </c>
       <c r="F471" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="G471" s="21"/>
       <c r="H471" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="17" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>644</v>
+        <v>947</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>645</v>
+        <v>948</v>
       </c>
       <c r="D472" s="4">
-        <v>4301135577</v>
+        <v>4301135793</v>
       </c>
       <c r="E472" s="3">
-        <v>4607111033451</v>
+        <v>4620207491003</v>
       </c>
       <c r="F472" s="5" t="s">
-        <v>646</v>
+        <v>949</v>
       </c>
       <c r="G472" s="21"/>
-      <c r="H472" s="22" t="s">
-        <v>869</v>
+      <c r="H472" s="16" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="17" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>382</v>
@@ -17180,18 +17222,18 @@
       </c>
       <c r="G473" s="21"/>
       <c r="H473" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="17" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D474" s="4">
         <v>4301135518</v>
@@ -17200,22 +17242,22 @@
         <v>4640242181561</v>
       </c>
       <c r="F474" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G474" s="21"/>
       <c r="H474" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="17" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="B475" s="18" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C475" s="18" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D475" s="19">
         <v>4301135374</v>
@@ -17224,22 +17266,22 @@
         <v>4640242181424</v>
       </c>
       <c r="F475" s="20" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G475" s="21"/>
       <c r="H475" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="17" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="B476" s="18" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="C476" s="18" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="D476" s="19">
         <v>4301132079</v>
@@ -17252,18 +17294,18 @@
       </c>
       <c r="G476" s="21"/>
       <c r="H476" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="17" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="B477" s="18" t="s">
         <v>164</v>
       </c>
       <c r="C477" s="18" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D477" s="19">
         <v>4301071056</v>
@@ -17272,16 +17314,16 @@
         <v>4640242180250</v>
       </c>
       <c r="F477" s="20" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="G477" s="21"/>
       <c r="H477" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="17" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>299</v>
@@ -17300,12 +17342,12 @@
       </c>
       <c r="G478" s="21"/>
       <c r="H478" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="17" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="B479" s="18" t="s">
         <v>109</v>
@@ -17324,18 +17366,18 @@
       </c>
       <c r="G479" s="21"/>
       <c r="H479" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="17" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="D480" s="4">
         <v>4301135550</v>
@@ -17344,22 +17386,22 @@
         <v>4607111034199</v>
       </c>
       <c r="F480" s="5" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="G480" s="21"/>
       <c r="H480" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="17" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="B481" s="18" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C481" s="18" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="D481" s="19">
         <v>4301132186</v>
@@ -17368,22 +17410,22 @@
         <v>4607111036520</v>
       </c>
       <c r="F481" s="20" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="G481" s="21"/>
       <c r="H481" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="17" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="B482" s="18" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C482" s="18" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D482" s="19">
         <v>4301071047</v>
@@ -17392,22 +17434,22 @@
         <v>4607111039330</v>
       </c>
       <c r="F482" s="20" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G482" s="21"/>
       <c r="H482" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="17" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D483" s="4">
         <v>4301131047</v>
@@ -17416,22 +17458,22 @@
         <v>4607111034120</v>
       </c>
       <c r="F483" s="5" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="G483" s="21"/>
       <c r="H483" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="17" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="B484" s="18" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="C484" s="18" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="D484" s="19">
         <v>4301135569</v>
@@ -17440,22 +17482,22 @@
         <v>4607111033628</v>
       </c>
       <c r="F484" s="20" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="G484" s="21"/>
       <c r="H484" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="17" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="B485" s="18" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C485" s="18" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D485" s="19">
         <v>4301135405</v>
@@ -17464,22 +17506,22 @@
         <v>4640242181523</v>
       </c>
       <c r="F485" s="20" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G485" s="21"/>
       <c r="H485" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="17" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="B486" s="18" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="C486" s="18" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="D486" s="19">
         <v>4301135402</v>
@@ -17488,22 +17530,22 @@
         <v>4640242181493</v>
       </c>
       <c r="F486" s="20" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="G486" s="21"/>
       <c r="H486" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="17" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="D487" s="4">
         <v>4301131046</v>
@@ -17512,22 +17554,22 @@
         <v>4607111034137</v>
       </c>
       <c r="F487" s="5" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="G487" s="21"/>
       <c r="H487" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="17" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="D488" s="4">
         <v>4301136079</v>
@@ -17536,22 +17578,22 @@
         <v>4607025784319</v>
       </c>
       <c r="F488" s="5" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="G488" s="21"/>
       <c r="H488" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="17" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="B489" s="18" t="s">
         <v>468</v>
       </c>
       <c r="C489" s="18" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D489" s="19">
         <v>4301135275</v>
@@ -17564,42 +17606,42 @@
       </c>
       <c r="G489" s="21"/>
       <c r="H489" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="17" t="s">
-        <v>840</v>
-      </c>
-      <c r="B490" s="18" t="s">
-        <v>477</v>
-      </c>
-      <c r="C490" s="18" t="s">
-        <v>537</v>
-      </c>
-      <c r="D490" s="19">
-        <v>4301135277</v>
-      </c>
-      <c r="E490" s="18">
-        <v>4607111034397</v>
-      </c>
-      <c r="F490" s="20" t="s">
-        <v>478</v>
+        <v>832</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="D490" s="4">
+        <v>4301135778</v>
+      </c>
+      <c r="E490" s="3">
+        <v>4620207490853</v>
+      </c>
+      <c r="F490" s="5" t="s">
+        <v>953</v>
       </c>
       <c r="G490" s="21"/>
-      <c r="H490" s="22" t="s">
-        <v>869</v>
+      <c r="H490" s="16" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="17" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="D491" s="4">
         <v>4301132179</v>
@@ -17608,22 +17650,22 @@
         <v>4607111035691</v>
       </c>
       <c r="F491" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="G491" s="21"/>
       <c r="H491" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="17" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="D492" s="4">
         <v>4301132190</v>
@@ -17632,16 +17674,16 @@
         <v>4607111036537</v>
       </c>
       <c r="F492" s="5" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="G492" s="21"/>
       <c r="H492" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="17" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="B493" s="18" t="s">
         <v>375</v>
@@ -17660,18 +17702,18 @@
       </c>
       <c r="G493" s="21"/>
       <c r="H493" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="17" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="D494" s="4">
         <v>4301135571</v>
@@ -17680,46 +17722,46 @@
         <v>4607111035028</v>
       </c>
       <c r="F494" s="5" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="G494" s="21"/>
       <c r="H494" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="17" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="D495" s="4">
-        <v>4301135595</v>
+        <v>4301135768</v>
       </c>
       <c r="E495" s="3">
-        <v>4607111035141</v>
+        <v>4620207491034</v>
       </c>
       <c r="F495" s="5" t="s">
-        <v>948</v>
+        <v>935</v>
       </c>
       <c r="G495" s="21"/>
-      <c r="H495" s="22" t="s">
-        <v>869</v>
+      <c r="H495" s="16" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="496" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A496" s="17" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="B496" s="18" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C496" s="18" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D496" s="19">
         <v>4301070960</v>
@@ -17728,16 +17770,16 @@
         <v>4607111038623</v>
       </c>
       <c r="F496" s="20" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G496" s="21"/>
       <c r="H496" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="17" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="B497" s="18" t="s">
         <v>368</v>
@@ -17756,18 +17798,18 @@
       </c>
       <c r="G497" s="21"/>
       <c r="H497" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="10" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="D498" s="4">
         <v>4301070990</v>
@@ -17776,22 +17818,22 @@
         <v>4607111038494</v>
       </c>
       <c r="F498" s="5" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="G498" s="1"/>
       <c r="H498" s="16" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="17" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="B499" s="18" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C499" s="18" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="D499" s="19">
         <v>4301070990</v>
@@ -17800,16 +17842,16 @@
         <v>4607111038494</v>
       </c>
       <c r="F499" s="20" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="G499" s="21"/>
       <c r="H499" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="17" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="B500" s="18" t="s">
         <v>154</v>
@@ -17828,18 +17870,18 @@
       </c>
       <c r="G500" s="21"/>
       <c r="H500" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="17" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D501" s="4">
         <v>4301135549</v>
@@ -17848,22 +17890,22 @@
         <v>4607111039095</v>
       </c>
       <c r="F501" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G501" s="21"/>
       <c r="H501" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="17" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="B502" s="18" t="s">
         <v>185</v>
       </c>
       <c r="C502" s="18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D502" s="19">
         <v>4301135285</v>
@@ -17876,18 +17918,18 @@
       </c>
       <c r="G502" s="21"/>
       <c r="H502" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="17" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="D503" s="4">
         <v>4301135607</v>
@@ -17896,16 +17938,16 @@
         <v>4607111039613</v>
       </c>
       <c r="F503" s="5" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="G503" s="21"/>
       <c r="H503" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="17" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="B504" s="18" t="s">
         <v>127</v>
@@ -17924,18 +17966,18 @@
       </c>
       <c r="G504" s="21"/>
       <c r="H504" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="17" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="D505" s="4">
         <v>4301135574</v>
@@ -17944,22 +17986,22 @@
         <v>4607111033659</v>
       </c>
       <c r="F505" s="5" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="G505" s="21"/>
       <c r="H505" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="17" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="B506" s="18" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="C506" s="18" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="D506" s="19">
         <v>4301071044</v>
@@ -17968,22 +18010,22 @@
         <v>4607111039385</v>
       </c>
       <c r="F506" s="20" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="G506" s="21"/>
       <c r="H506" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="17" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="B507" s="18" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="C507" s="18" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="D507" s="19">
         <v>4301071031</v>
@@ -17992,16 +18034,16 @@
         <v>4607111038982</v>
       </c>
       <c r="F507" s="20" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="G507" s="21"/>
       <c r="H507" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="17" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="B508" s="18" t="s">
         <v>181</v>
@@ -18020,18 +18062,18 @@
       </c>
       <c r="G508" s="21"/>
       <c r="H508" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="17" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="B509" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D509" s="4">
         <v>4301136070</v>
@@ -18044,18 +18086,18 @@
       </c>
       <c r="G509" s="21"/>
       <c r="H509" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="17" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="B510" s="18" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C510" s="18" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D510" s="19">
         <v>4301071046</v>
@@ -18064,22 +18106,22 @@
         <v>4607111039354</v>
       </c>
       <c r="F510" s="20" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G510" s="21"/>
       <c r="H510" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="511" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A511" s="17" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="B511" s="18" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="C511" s="18" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="D511" s="19">
         <v>4301070959</v>
@@ -18088,22 +18130,22 @@
         <v>4607111038616</v>
       </c>
       <c r="F511" s="20" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="G511" s="21"/>
       <c r="H511" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="512" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A512" s="17" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="B512" s="18" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="C512" s="18" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="D512" s="19">
         <v>4301070962</v>
@@ -18112,16 +18154,16 @@
         <v>4607111038609</v>
       </c>
       <c r="F512" s="20" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="G512" s="21"/>
       <c r="H512" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="17" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="B513" s="18" t="s">
         <v>254</v>
@@ -18140,18 +18182,18 @@
       </c>
       <c r="G513" s="21"/>
       <c r="H513" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="17" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="B514" s="18" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="C514" s="18" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="D514" s="19">
         <v>4301135570</v>
@@ -18160,22 +18202,22 @@
         <v>4607111035806</v>
       </c>
       <c r="F514" s="20" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="G514" s="21"/>
       <c r="H514" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="17" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="B515" s="18" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="C515" s="18" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="D515" s="19">
         <v>4301071032</v>
@@ -18184,22 +18226,22 @@
         <v>4607111038999</v>
       </c>
       <c r="F515" s="20" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="G515" s="21"/>
       <c r="H515" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="17" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="B516" s="18" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="C516" s="18" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="D516" s="19">
         <v>4301071045</v>
@@ -18208,22 +18250,22 @@
         <v>4607111039392</v>
       </c>
       <c r="F516" s="20" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="G516" s="21"/>
       <c r="H516" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="17" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="B517" s="18" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C517" s="18" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D517" s="19">
         <v>4301070963</v>
@@ -18232,22 +18274,22 @@
         <v>4607111038630</v>
       </c>
       <c r="F517" s="20" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G517" s="21"/>
       <c r="H517" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="17" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="B518" s="18" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C518" s="18" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D518" s="19">
         <v>4301071054</v>
@@ -18256,22 +18298,22 @@
         <v>4607111035639</v>
       </c>
       <c r="F518" s="20" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G518" s="21"/>
       <c r="H518" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="17" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="B519" s="18" t="s">
         <v>340</v>
       </c>
       <c r="C519" s="18" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D519" s="19">
         <v>4301135540</v>
@@ -18280,11 +18322,11 @@
         <v>4607111035646</v>
       </c>
       <c r="F519" s="20" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G519" s="21"/>
       <c r="H519" s="22" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
   </sheetData>

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CB6BC0-B810-480E-BC95-C16605812A5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1097CA8-8421-4C3B-9185-115658ED0B78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,8 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$523</definedName>
-    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$462</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$524</definedName>
+    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$463</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2271" uniqueCount="966">
   <si>
     <t>1С</t>
   </si>
@@ -2925,6 +2925,18 @@
   </si>
   <si>
     <t>Готовые чебупели с мясом ТМ Горячая штучка 0,24 кг  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Круггетсы с сырным соусом ТМ Горячая штучка ТС Круггетсы флоу-пак 0,2 кг  ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU003872</t>
+  </si>
+  <si>
+    <t>P004956</t>
+  </si>
+  <si>
+    <t>Снеки «Круггетсы с сырным соусом» Фикс.вес 0,2 ТМ «Горячая штучка»</t>
   </si>
 </sst>
 </file>
@@ -6180,11 +6192,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H523"/>
+  <dimension ref="A1:H524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16938,47 +16950,44 @@
       <c r="G461" s="1"/>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A462" s="17" t="s">
-        <v>800</v>
-      </c>
-      <c r="B462" s="18" t="s">
-        <v>625</v>
-      </c>
-      <c r="C462" s="18" t="s">
-        <v>626</v>
-      </c>
-      <c r="D462" s="19">
-        <v>4301071038</v>
-      </c>
-      <c r="E462" s="18">
-        <v>4607111039248</v>
-      </c>
-      <c r="F462" s="20" t="s">
-        <v>627</v>
-      </c>
-      <c r="G462" s="21"/>
-      <c r="H462" s="22" t="s">
-        <v>861</v>
-      </c>
+      <c r="A462" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="D462" s="4">
+        <v>4301135753</v>
+      </c>
+      <c r="E462" s="3">
+        <v>4620207490914</v>
+      </c>
+      <c r="F462" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="G462" s="1"/>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="17" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B463" s="18" t="s">
-        <v>106</v>
+        <v>625</v>
       </c>
       <c r="C463" s="18" t="s">
-        <v>261</v>
+        <v>626</v>
       </c>
       <c r="D463" s="19">
-        <v>4301070981</v>
+        <v>4301071038</v>
       </c>
       <c r="E463" s="18">
-        <v>4607111036728</v>
+        <v>4607111039248</v>
       </c>
       <c r="F463" s="20" t="s">
-        <v>262</v>
+        <v>627</v>
       </c>
       <c r="G463" s="21"/>
       <c r="H463" s="22" t="s">
@@ -16987,22 +16996,22 @@
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="17" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B464" s="18" t="s">
-        <v>633</v>
+        <v>106</v>
       </c>
       <c r="C464" s="18" t="s">
-        <v>634</v>
+        <v>261</v>
       </c>
       <c r="D464" s="19">
-        <v>4301071039</v>
+        <v>4301070981</v>
       </c>
       <c r="E464" s="18">
-        <v>4607111039279</v>
+        <v>4607111036728</v>
       </c>
       <c r="F464" s="20" t="s">
-        <v>635</v>
+        <v>262</v>
       </c>
       <c r="G464" s="21"/>
       <c r="H464" s="22" t="s">
@@ -17011,22 +17020,22 @@
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="17" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B465" s="18" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="C465" s="18" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="D465" s="19">
-        <v>4301071051</v>
+        <v>4301071039</v>
       </c>
       <c r="E465" s="18">
-        <v>4607111039262</v>
+        <v>4607111039279</v>
       </c>
       <c r="F465" s="20" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="G465" s="21"/>
       <c r="H465" s="22" t="s">
@@ -17035,22 +17044,22 @@
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="17" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B466" s="18" t="s">
-        <v>293</v>
+        <v>621</v>
       </c>
       <c r="C466" s="18" t="s">
-        <v>294</v>
+        <v>622</v>
       </c>
       <c r="D466" s="19">
-        <v>4301132080</v>
+        <v>4301071051</v>
       </c>
       <c r="E466" s="18">
-        <v>4640242180397</v>
+        <v>4607111039262</v>
       </c>
       <c r="F466" s="20" t="s">
-        <v>295</v>
+        <v>623</v>
       </c>
       <c r="G466" s="21"/>
       <c r="H466" s="22" t="s">
@@ -17059,22 +17068,22 @@
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="17" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B467" s="18" t="s">
-        <v>113</v>
+        <v>293</v>
       </c>
       <c r="C467" s="18" t="s">
-        <v>527</v>
+        <v>294</v>
       </c>
       <c r="D467" s="19">
-        <v>4301071029</v>
+        <v>4301132080</v>
       </c>
       <c r="E467" s="18">
-        <v>4607111035899</v>
+        <v>4640242180397</v>
       </c>
       <c r="F467" s="20" t="s">
-        <v>114</v>
+        <v>295</v>
       </c>
       <c r="G467" s="21"/>
       <c r="H467" s="22" t="s">
@@ -17083,22 +17092,22 @@
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="17" t="s">
-        <v>806</v>
-      </c>
-      <c r="B468" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C468" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D468" s="4">
-        <v>4301136053</v>
-      </c>
-      <c r="E468" s="3">
-        <v>4640242180236</v>
-      </c>
-      <c r="F468" s="5" t="s">
-        <v>304</v>
+        <v>805</v>
+      </c>
+      <c r="B468" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C468" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="D468" s="19">
+        <v>4301071029</v>
+      </c>
+      <c r="E468" s="18">
+        <v>4607111035899</v>
+      </c>
+      <c r="F468" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="G468" s="21"/>
       <c r="H468" s="22" t="s">
@@ -17107,22 +17116,22 @@
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="17" t="s">
-        <v>807</v>
-      </c>
-      <c r="B469" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="C469" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="D469" s="19">
-        <v>4301070977</v>
-      </c>
-      <c r="E469" s="18">
-        <v>4607111037411</v>
-      </c>
-      <c r="F469" s="20" t="s">
-        <v>320</v>
+        <v>806</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D469" s="4">
+        <v>4301136053</v>
+      </c>
+      <c r="E469" s="3">
+        <v>4640242180236</v>
+      </c>
+      <c r="F469" s="5" t="s">
+        <v>304</v>
       </c>
       <c r="G469" s="21"/>
       <c r="H469" s="22" t="s">
@@ -17131,22 +17140,22 @@
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="17" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B470" s="18" t="s">
-        <v>558</v>
+        <v>318</v>
       </c>
       <c r="C470" s="18" t="s">
-        <v>559</v>
+        <v>319</v>
       </c>
       <c r="D470" s="19">
-        <v>4301135375</v>
+        <v>4301070977</v>
       </c>
       <c r="E470" s="18">
-        <v>4640242181486</v>
+        <v>4607111037411</v>
       </c>
       <c r="F470" s="20" t="s">
-        <v>560</v>
+        <v>320</v>
       </c>
       <c r="G470" s="21"/>
       <c r="H470" s="22" t="s">
@@ -17155,70 +17164,70 @@
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="17" t="s">
-        <v>809</v>
-      </c>
-      <c r="B471" s="3" t="s">
-        <v>954</v>
-      </c>
-      <c r="C471" s="3" t="s">
-        <v>955</v>
-      </c>
-      <c r="D471" s="4">
-        <v>4301135760</v>
-      </c>
-      <c r="E471" s="3">
-        <v>4620207491010</v>
-      </c>
-      <c r="F471" s="5" t="s">
-        <v>956</v>
+        <v>808</v>
+      </c>
+      <c r="B471" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="C471" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D471" s="19">
+        <v>4301135375</v>
+      </c>
+      <c r="E471" s="18">
+        <v>4640242181486</v>
+      </c>
+      <c r="F471" s="20" t="s">
+        <v>560</v>
       </c>
       <c r="G471" s="21"/>
-      <c r="H471" s="16" t="s">
-        <v>950</v>
+      <c r="H471" s="22" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="17" t="s">
-        <v>810</v>
-      </c>
-      <c r="B472" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C472" s="18" t="s">
-        <v>636</v>
-      </c>
-      <c r="D472" s="19">
-        <v>4301071050</v>
-      </c>
-      <c r="E472" s="18">
-        <v>4607111036216</v>
-      </c>
-      <c r="F472" s="20" t="s">
-        <v>637</v>
+        <v>809</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="D472" s="4">
+        <v>4301135760</v>
+      </c>
+      <c r="E472" s="3">
+        <v>4620207491010</v>
+      </c>
+      <c r="F472" s="5" t="s">
+        <v>956</v>
       </c>
       <c r="G472" s="21"/>
-      <c r="H472" s="22" t="s">
-        <v>861</v>
+      <c r="H472" s="16" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="17" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B473" s="18" t="s">
-        <v>629</v>
+        <v>112</v>
       </c>
       <c r="C473" s="18" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="D473" s="19">
-        <v>4301071049</v>
+        <v>4301071050</v>
       </c>
       <c r="E473" s="18">
-        <v>4607111039293</v>
+        <v>4607111036216</v>
       </c>
       <c r="F473" s="20" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="G473" s="21"/>
       <c r="H473" s="22" t="s">
@@ -17227,22 +17236,22 @@
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B474" s="18" t="s">
-        <v>656</v>
+        <v>629</v>
       </c>
       <c r="C474" s="18" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="D474" s="19">
-        <v>4301135532</v>
+        <v>4301071049</v>
       </c>
       <c r="E474" s="18">
-        <v>4607111033994</v>
+        <v>4607111039293</v>
       </c>
       <c r="F474" s="20" t="s">
-        <v>658</v>
+        <v>631</v>
       </c>
       <c r="G474" s="21"/>
       <c r="H474" s="22" t="s">
@@ -17251,22 +17260,22 @@
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="B475" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="C475" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="D475" s="4">
-        <v>4301135555</v>
-      </c>
-      <c r="E475" s="3">
-        <v>4607111034014</v>
-      </c>
-      <c r="F475" s="5" t="s">
-        <v>661</v>
+        <v>812</v>
+      </c>
+      <c r="B475" s="18" t="s">
+        <v>656</v>
+      </c>
+      <c r="C475" s="18" t="s">
+        <v>657</v>
+      </c>
+      <c r="D475" s="19">
+        <v>4301135532</v>
+      </c>
+      <c r="E475" s="18">
+        <v>4607111033994</v>
+      </c>
+      <c r="F475" s="20" t="s">
+        <v>658</v>
       </c>
       <c r="G475" s="21"/>
       <c r="H475" s="22" t="s">
@@ -17275,70 +17284,70 @@
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>947</v>
+        <v>659</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>948</v>
+        <v>660</v>
       </c>
       <c r="D476" s="4">
-        <v>4301135793</v>
+        <v>4301135555</v>
       </c>
       <c r="E476" s="3">
-        <v>4620207491003</v>
+        <v>4607111034014</v>
       </c>
       <c r="F476" s="5" t="s">
-        <v>949</v>
+        <v>661</v>
       </c>
       <c r="G476" s="21"/>
-      <c r="H476" s="16" t="s">
-        <v>950</v>
+      <c r="H476" s="22" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="17" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>382</v>
+        <v>947</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>383</v>
+        <v>948</v>
       </c>
       <c r="D477" s="4">
-        <v>4301136052</v>
+        <v>4301135793</v>
       </c>
       <c r="E477" s="3">
-        <v>4640242180410</v>
+        <v>4620207491003</v>
       </c>
       <c r="F477" s="5" t="s">
-        <v>384</v>
+        <v>949</v>
       </c>
       <c r="G477" s="21"/>
-      <c r="H477" s="22" t="s">
-        <v>861</v>
+      <c r="H477" s="16" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="17" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>552</v>
+        <v>382</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>553</v>
+        <v>383</v>
       </c>
       <c r="D478" s="4">
-        <v>4301135518</v>
+        <v>4301136052</v>
       </c>
       <c r="E478" s="3">
-        <v>4640242181561</v>
+        <v>4640242180410</v>
       </c>
       <c r="F478" s="5" t="s">
-        <v>554</v>
+        <v>384</v>
       </c>
       <c r="G478" s="21"/>
       <c r="H478" s="22" t="s">
@@ -17347,22 +17356,22 @@
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="17" t="s">
-        <v>817</v>
-      </c>
-      <c r="B479" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="C479" s="18" t="s">
-        <v>605</v>
-      </c>
-      <c r="D479" s="19">
-        <v>4301135374</v>
-      </c>
-      <c r="E479" s="18">
-        <v>4640242181424</v>
-      </c>
-      <c r="F479" s="20" t="s">
-        <v>606</v>
+        <v>816</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D479" s="4">
+        <v>4301135518</v>
+      </c>
+      <c r="E479" s="3">
+        <v>4640242181561</v>
+      </c>
+      <c r="F479" s="5" t="s">
+        <v>554</v>
       </c>
       <c r="G479" s="21"/>
       <c r="H479" s="22" t="s">
@@ -17371,22 +17380,22 @@
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="17" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B480" s="18" t="s">
-        <v>862</v>
+        <v>604</v>
       </c>
       <c r="C480" s="18" t="s">
-        <v>863</v>
+        <v>605</v>
       </c>
       <c r="D480" s="19">
-        <v>4301132079</v>
+        <v>4301135374</v>
       </c>
       <c r="E480" s="18">
-        <v>4607111038487</v>
+        <v>4640242181424</v>
       </c>
       <c r="F480" s="20" t="s">
-        <v>425</v>
+        <v>606</v>
       </c>
       <c r="G480" s="21"/>
       <c r="H480" s="22" t="s">
@@ -17395,22 +17404,22 @@
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="17" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B481" s="18" t="s">
-        <v>164</v>
+        <v>862</v>
       </c>
       <c r="C481" s="18" t="s">
-        <v>639</v>
+        <v>863</v>
       </c>
       <c r="D481" s="19">
-        <v>4301071056</v>
+        <v>4301132079</v>
       </c>
       <c r="E481" s="18">
-        <v>4640242180250</v>
+        <v>4607111038487</v>
       </c>
       <c r="F481" s="20" t="s">
-        <v>640</v>
+        <v>425</v>
       </c>
       <c r="G481" s="21"/>
       <c r="H481" s="22" t="s">
@@ -17419,22 +17428,22 @@
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="17" t="s">
-        <v>820</v>
-      </c>
-      <c r="B482" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C482" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D482" s="4">
-        <v>4301136051</v>
-      </c>
-      <c r="E482" s="3">
-        <v>4640242180304</v>
-      </c>
-      <c r="F482" s="5" t="s">
-        <v>301</v>
+        <v>819</v>
+      </c>
+      <c r="B482" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C482" s="18" t="s">
+        <v>639</v>
+      </c>
+      <c r="D482" s="19">
+        <v>4301071056</v>
+      </c>
+      <c r="E482" s="18">
+        <v>4640242180250</v>
+      </c>
+      <c r="F482" s="20" t="s">
+        <v>640</v>
       </c>
       <c r="G482" s="21"/>
       <c r="H482" s="22" t="s">
@@ -17443,22 +17452,22 @@
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="17" t="s">
-        <v>821</v>
-      </c>
-      <c r="B483" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C483" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D483" s="19">
-        <v>4301070920</v>
-      </c>
-      <c r="E483" s="18">
-        <v>4607111035929</v>
-      </c>
-      <c r="F483" s="20" t="s">
-        <v>111</v>
+        <v>820</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D483" s="4">
+        <v>4301136051</v>
+      </c>
+      <c r="E483" s="3">
+        <v>4640242180304</v>
+      </c>
+      <c r="F483" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="G483" s="21"/>
       <c r="H483" s="22" t="s">
@@ -17467,22 +17476,22 @@
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="17" t="s">
-        <v>822</v>
-      </c>
-      <c r="B484" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="C484" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="D484" s="4">
-        <v>4301135550</v>
-      </c>
-      <c r="E484" s="3">
-        <v>4607111034199</v>
-      </c>
-      <c r="F484" s="5" t="s">
-        <v>752</v>
+        <v>821</v>
+      </c>
+      <c r="B484" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C484" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D484" s="19">
+        <v>4301070920</v>
+      </c>
+      <c r="E484" s="18">
+        <v>4607111035929</v>
+      </c>
+      <c r="F484" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="G484" s="21"/>
       <c r="H484" s="22" t="s">
@@ -17491,22 +17500,22 @@
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="17" t="s">
-        <v>823</v>
-      </c>
-      <c r="B485" s="18" t="s">
-        <v>747</v>
-      </c>
-      <c r="C485" s="18" t="s">
-        <v>748</v>
-      </c>
-      <c r="D485" s="19">
-        <v>4301132186</v>
-      </c>
-      <c r="E485" s="18">
-        <v>4607111036520</v>
-      </c>
-      <c r="F485" s="20" t="s">
-        <v>749</v>
+        <v>822</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="D485" s="4">
+        <v>4301135550</v>
+      </c>
+      <c r="E485" s="3">
+        <v>4607111034199</v>
+      </c>
+      <c r="F485" s="5" t="s">
+        <v>752</v>
       </c>
       <c r="G485" s="21"/>
       <c r="H485" s="22" t="s">
@@ -17515,22 +17524,22 @@
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B486" s="18" t="s">
-        <v>617</v>
+        <v>747</v>
       </c>
       <c r="C486" s="18" t="s">
-        <v>618</v>
+        <v>748</v>
       </c>
       <c r="D486" s="19">
-        <v>4301071047</v>
+        <v>4301132186</v>
       </c>
       <c r="E486" s="18">
-        <v>4607111039330</v>
+        <v>4607111036520</v>
       </c>
       <c r="F486" s="20" t="s">
-        <v>619</v>
+        <v>749</v>
       </c>
       <c r="G486" s="21"/>
       <c r="H486" s="22" t="s">
@@ -17539,22 +17548,22 @@
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="17" t="s">
-        <v>825</v>
-      </c>
-      <c r="B487" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="C487" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="D487" s="4">
-        <v>4301131047</v>
-      </c>
-      <c r="E487" s="3">
-        <v>4607111034120</v>
-      </c>
-      <c r="F487" s="5" t="s">
-        <v>791</v>
+        <v>824</v>
+      </c>
+      <c r="B487" s="18" t="s">
+        <v>617</v>
+      </c>
+      <c r="C487" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="D487" s="19">
+        <v>4301071047</v>
+      </c>
+      <c r="E487" s="18">
+        <v>4607111039330</v>
+      </c>
+      <c r="F487" s="20" t="s">
+        <v>619</v>
       </c>
       <c r="G487" s="21"/>
       <c r="H487" s="22" t="s">
@@ -17563,22 +17572,22 @@
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="17" t="s">
-        <v>826</v>
-      </c>
-      <c r="B488" s="18" t="s">
-        <v>702</v>
-      </c>
-      <c r="C488" s="18" t="s">
-        <v>703</v>
-      </c>
-      <c r="D488" s="19">
-        <v>4301135569</v>
-      </c>
-      <c r="E488" s="18">
-        <v>4607111033628</v>
-      </c>
-      <c r="F488" s="20" t="s">
-        <v>704</v>
+        <v>825</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="D488" s="4">
+        <v>4301131047</v>
+      </c>
+      <c r="E488" s="3">
+        <v>4607111034120</v>
+      </c>
+      <c r="F488" s="5" t="s">
+        <v>791</v>
       </c>
       <c r="G488" s="21"/>
       <c r="H488" s="22" t="s">
@@ -17587,22 +17596,22 @@
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="17" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B489" s="18" t="s">
-        <v>562</v>
+        <v>702</v>
       </c>
       <c r="C489" s="18" t="s">
-        <v>563</v>
+        <v>703</v>
       </c>
       <c r="D489" s="19">
-        <v>4301135405</v>
+        <v>4301135569</v>
       </c>
       <c r="E489" s="18">
-        <v>4640242181523</v>
+        <v>4607111033628</v>
       </c>
       <c r="F489" s="20" t="s">
-        <v>564</v>
+        <v>704</v>
       </c>
       <c r="G489" s="21"/>
       <c r="H489" s="22" t="s">
@@ -17611,22 +17620,22 @@
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="17" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B490" s="18" t="s">
-        <v>714</v>
+        <v>562</v>
       </c>
       <c r="C490" s="18" t="s">
-        <v>715</v>
+        <v>563</v>
       </c>
       <c r="D490" s="19">
-        <v>4301135402</v>
+        <v>4301135405</v>
       </c>
       <c r="E490" s="18">
-        <v>4640242181493</v>
+        <v>4640242181523</v>
       </c>
       <c r="F490" s="20" t="s">
-        <v>713</v>
+        <v>564</v>
       </c>
       <c r="G490" s="21"/>
       <c r="H490" s="22" t="s">
@@ -17635,22 +17644,22 @@
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="17" t="s">
-        <v>829</v>
-      </c>
-      <c r="B491" s="3" t="s">
-        <v>889</v>
-      </c>
-      <c r="C491" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="D491" s="4">
-        <v>4301131046</v>
-      </c>
-      <c r="E491" s="3">
-        <v>4607111034137</v>
-      </c>
-      <c r="F491" s="5" t="s">
-        <v>891</v>
+        <v>828</v>
+      </c>
+      <c r="B491" s="18" t="s">
+        <v>714</v>
+      </c>
+      <c r="C491" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="D491" s="19">
+        <v>4301135402</v>
+      </c>
+      <c r="E491" s="18">
+        <v>4640242181493</v>
+      </c>
+      <c r="F491" s="20" t="s">
+        <v>713</v>
       </c>
       <c r="G491" s="21"/>
       <c r="H491" s="22" t="s">
@@ -17659,22 +17668,22 @@
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="17" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="D492" s="4">
-        <v>4301136079</v>
+        <v>4301131046</v>
       </c>
       <c r="E492" s="3">
-        <v>4607025784319</v>
+        <v>4607111034137</v>
       </c>
       <c r="F492" s="5" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="G492" s="21"/>
       <c r="H492" s="22" t="s">
@@ -17683,22 +17692,22 @@
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="17" t="s">
-        <v>831</v>
-      </c>
-      <c r="B493" s="18" t="s">
-        <v>468</v>
-      </c>
-      <c r="C493" s="18" t="s">
-        <v>525</v>
-      </c>
-      <c r="D493" s="19">
-        <v>4301135275</v>
-      </c>
-      <c r="E493" s="18">
-        <v>4607111034380</v>
-      </c>
-      <c r="F493" s="20" t="s">
-        <v>469</v>
+        <v>830</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="D493" s="4">
+        <v>4301136079</v>
+      </c>
+      <c r="E493" s="3">
+        <v>4607025784319</v>
+      </c>
+      <c r="F493" s="5" t="s">
+        <v>897</v>
       </c>
       <c r="G493" s="21"/>
       <c r="H493" s="22" t="s">
@@ -17707,70 +17716,70 @@
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="17" t="s">
-        <v>832</v>
-      </c>
-      <c r="B494" s="3" t="s">
-        <v>951</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>952</v>
-      </c>
-      <c r="D494" s="4">
-        <v>4301135778</v>
-      </c>
-      <c r="E494" s="3">
-        <v>4620207490853</v>
-      </c>
-      <c r="F494" s="5" t="s">
-        <v>953</v>
+        <v>831</v>
+      </c>
+      <c r="B494" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="C494" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="D494" s="19">
+        <v>4301135275</v>
+      </c>
+      <c r="E494" s="18">
+        <v>4607111034380</v>
+      </c>
+      <c r="F494" s="20" t="s">
+        <v>469</v>
       </c>
       <c r="G494" s="21"/>
-      <c r="H494" s="16" t="s">
-        <v>957</v>
+      <c r="H494" s="22" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="17" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>877</v>
+        <v>951</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>878</v>
+        <v>952</v>
       </c>
       <c r="D495" s="4">
-        <v>4301132179</v>
+        <v>4301135778</v>
       </c>
       <c r="E495" s="3">
-        <v>4607111035691</v>
+        <v>4620207490853</v>
       </c>
       <c r="F495" s="5" t="s">
-        <v>879</v>
+        <v>953</v>
       </c>
       <c r="G495" s="21"/>
-      <c r="H495" s="22" t="s">
-        <v>861</v>
+      <c r="H495" s="16" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="17" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>744</v>
+        <v>877</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>745</v>
+        <v>878</v>
       </c>
       <c r="D496" s="4">
-        <v>4301132190</v>
+        <v>4301132179</v>
       </c>
       <c r="E496" s="3">
-        <v>4607111036537</v>
+        <v>4607111035691</v>
       </c>
       <c r="F496" s="5" t="s">
-        <v>746</v>
+        <v>879</v>
       </c>
       <c r="G496" s="21"/>
       <c r="H496" s="22" t="s">
@@ -17779,22 +17788,22 @@
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="17" t="s">
-        <v>835</v>
-      </c>
-      <c r="B497" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="C497" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="D497" s="19">
-        <v>4301131019</v>
-      </c>
-      <c r="E497" s="18">
-        <v>4640242180427</v>
-      </c>
-      <c r="F497" s="20" t="s">
-        <v>377</v>
+        <v>834</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="D497" s="4">
+        <v>4301132190</v>
+      </c>
+      <c r="E497" s="3">
+        <v>4607111036537</v>
+      </c>
+      <c r="F497" s="5" t="s">
+        <v>746</v>
       </c>
       <c r="G497" s="21"/>
       <c r="H497" s="22" t="s">
@@ -17803,22 +17812,22 @@
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="17" t="s">
-        <v>836</v>
-      </c>
-      <c r="B498" s="3" t="s">
-        <v>898</v>
-      </c>
-      <c r="C498" s="3" t="s">
-        <v>899</v>
-      </c>
-      <c r="D498" s="4">
-        <v>4301135571</v>
-      </c>
-      <c r="E498" s="3">
-        <v>4607111035028</v>
-      </c>
-      <c r="F498" s="5" t="s">
-        <v>900</v>
+        <v>835</v>
+      </c>
+      <c r="B498" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="C498" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="D498" s="19">
+        <v>4301131019</v>
+      </c>
+      <c r="E498" s="18">
+        <v>4640242180427</v>
+      </c>
+      <c r="F498" s="20" t="s">
+        <v>377</v>
       </c>
       <c r="G498" s="21"/>
       <c r="H498" s="22" t="s">
@@ -17827,70 +17836,70 @@
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="17" t="s">
+        <v>836</v>
+      </c>
+      <c r="B499" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="C499" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="D499" s="4">
+        <v>4301135571</v>
+      </c>
+      <c r="E499" s="3">
+        <v>4607111035028</v>
+      </c>
+      <c r="F499" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="G499" s="21"/>
+      <c r="H499" s="22" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A500" s="17" t="s">
         <v>837</v>
       </c>
-      <c r="B499" s="3" t="s">
+      <c r="B500" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="C499" s="3" t="s">
+      <c r="C500" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="D499" s="4">
+      <c r="D500" s="4">
         <v>4301135768</v>
       </c>
-      <c r="E499" s="3">
+      <c r="E500" s="3">
         <v>4620207491034</v>
       </c>
-      <c r="F499" s="5" t="s">
+      <c r="F500" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="G499" s="21"/>
-      <c r="H499" s="16" t="s">
+      <c r="G500" s="21"/>
+      <c r="H500" s="16" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="500" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A500" s="17" t="s">
+    <row r="501" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A501" s="17" t="s">
         <v>839</v>
       </c>
-      <c r="B500" s="18" t="s">
+      <c r="B501" s="18" t="s">
         <v>489</v>
       </c>
-      <c r="C500" s="18" t="s">
+      <c r="C501" s="18" t="s">
         <v>490</v>
       </c>
-      <c r="D500" s="19">
+      <c r="D501" s="19">
         <v>4301070960</v>
       </c>
-      <c r="E500" s="18">
+      <c r="E501" s="18">
         <v>4607111038623</v>
       </c>
-      <c r="F500" s="20" t="s">
+      <c r="F501" s="20" t="s">
         <v>491</v>
-      </c>
-      <c r="G500" s="21"/>
-      <c r="H500" s="22" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A501" s="17" t="s">
-        <v>840</v>
-      </c>
-      <c r="B501" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="C501" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="D501" s="19">
-        <v>4301070966</v>
-      </c>
-      <c r="E501" s="18">
-        <v>4607111038135</v>
-      </c>
-      <c r="F501" s="20" t="s">
-        <v>367</v>
       </c>
       <c r="G501" s="21"/>
       <c r="H501" s="22" t="s">
@@ -17898,71 +17907,71 @@
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A502" s="10" t="s">
+      <c r="A502" s="17" t="s">
+        <v>840</v>
+      </c>
+      <c r="B502" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="C502" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="D502" s="19">
+        <v>4301070966</v>
+      </c>
+      <c r="E502" s="18">
+        <v>4607111038135</v>
+      </c>
+      <c r="F502" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="G502" s="21"/>
+      <c r="H502" s="22" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A503" s="10" t="s">
         <v>907</v>
       </c>
-      <c r="B502" s="3" t="s">
+      <c r="B503" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="C502" s="3" t="s">
+      <c r="C503" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="D502" s="4">
+      <c r="D503" s="4">
         <v>4301070990</v>
       </c>
-      <c r="E502" s="3">
+      <c r="E503" s="3">
         <v>4607111038494</v>
       </c>
-      <c r="F502" s="5" t="s">
+      <c r="F503" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="G502" s="1"/>
-      <c r="H502" s="16" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A503" s="17" t="s">
-        <v>841</v>
-      </c>
-      <c r="B503" s="18" t="s">
-        <v>864</v>
-      </c>
-      <c r="C503" s="18" t="s">
-        <v>865</v>
-      </c>
-      <c r="D503" s="19">
-        <v>4301070990</v>
-      </c>
-      <c r="E503" s="18">
-        <v>4607111038494</v>
-      </c>
-      <c r="F503" s="20" t="s">
-        <v>866</v>
-      </c>
-      <c r="G503" s="21"/>
-      <c r="H503" s="22" t="s">
+      <c r="G503" s="1"/>
+      <c r="H503" s="16" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="17" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B504" s="18" t="s">
-        <v>154</v>
+        <v>864</v>
       </c>
       <c r="C504" s="18" t="s">
-        <v>155</v>
+        <v>865</v>
       </c>
       <c r="D504" s="19">
-        <v>4301070921</v>
+        <v>4301070990</v>
       </c>
       <c r="E504" s="18">
-        <v>4607111035905</v>
+        <v>4607111038494</v>
       </c>
       <c r="F504" s="20" t="s">
-        <v>156</v>
+        <v>866</v>
       </c>
       <c r="G504" s="21"/>
       <c r="H504" s="22" t="s">
@@ -17971,22 +17980,22 @@
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="17" t="s">
-        <v>843</v>
-      </c>
-      <c r="B505" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="C505" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="D505" s="4">
-        <v>4301135549</v>
-      </c>
-      <c r="E505" s="3">
-        <v>4607111039095</v>
-      </c>
-      <c r="F505" s="5" t="s">
-        <v>555</v>
+        <v>842</v>
+      </c>
+      <c r="B505" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C505" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D505" s="19">
+        <v>4301070921</v>
+      </c>
+      <c r="E505" s="18">
+        <v>4607111035905</v>
+      </c>
+      <c r="F505" s="20" t="s">
+        <v>156</v>
       </c>
       <c r="G505" s="21"/>
       <c r="H505" s="22" t="s">
@@ -17995,22 +18004,22 @@
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="17" t="s">
-        <v>844</v>
-      </c>
-      <c r="B506" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C506" s="18" t="s">
-        <v>529</v>
-      </c>
-      <c r="D506" s="19">
-        <v>4301135285</v>
-      </c>
-      <c r="E506" s="18">
-        <v>4607111036407</v>
-      </c>
-      <c r="F506" s="20" t="s">
-        <v>186</v>
+        <v>843</v>
+      </c>
+      <c r="B506" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C506" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D506" s="4">
+        <v>4301135549</v>
+      </c>
+      <c r="E506" s="3">
+        <v>4607111039095</v>
+      </c>
+      <c r="F506" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="G506" s="21"/>
       <c r="H506" s="22" t="s">
@@ -18019,22 +18028,22 @@
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="17" t="s">
-        <v>720</v>
-      </c>
-      <c r="B507" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="C507" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="D507" s="4">
-        <v>4301135607</v>
-      </c>
-      <c r="E507" s="3">
-        <v>4607111039613</v>
-      </c>
-      <c r="F507" s="5" t="s">
-        <v>720</v>
+        <v>844</v>
+      </c>
+      <c r="B507" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C507" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="D507" s="19">
+        <v>4301135285</v>
+      </c>
+      <c r="E507" s="18">
+        <v>4607111036407</v>
+      </c>
+      <c r="F507" s="20" t="s">
+        <v>186</v>
       </c>
       <c r="G507" s="21"/>
       <c r="H507" s="22" t="s">
@@ -18043,22 +18052,22 @@
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="17" t="s">
-        <v>845</v>
-      </c>
-      <c r="B508" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C508" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D508" s="19">
-        <v>4301080153</v>
-      </c>
-      <c r="E508" s="18">
-        <v>4607111036827</v>
-      </c>
-      <c r="F508" s="20" t="s">
-        <v>129</v>
+        <v>720</v>
+      </c>
+      <c r="B508" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="C508" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="D508" s="4">
+        <v>4301135607</v>
+      </c>
+      <c r="E508" s="3">
+        <v>4607111039613</v>
+      </c>
+      <c r="F508" s="5" t="s">
+        <v>720</v>
       </c>
       <c r="G508" s="21"/>
       <c r="H508" s="22" t="s">
@@ -18067,22 +18076,22 @@
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="17" t="s">
-        <v>846</v>
-      </c>
-      <c r="B509" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="C509" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="D509" s="4">
-        <v>4301135574</v>
-      </c>
-      <c r="E509" s="3">
-        <v>4607111033659</v>
-      </c>
-      <c r="F509" s="5" t="s">
-        <v>734</v>
+        <v>845</v>
+      </c>
+      <c r="B509" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C509" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D509" s="19">
+        <v>4301080153</v>
+      </c>
+      <c r="E509" s="18">
+        <v>4607111036827</v>
+      </c>
+      <c r="F509" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="G509" s="21"/>
       <c r="H509" s="22" t="s">
@@ -18091,22 +18100,22 @@
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="17" t="s">
-        <v>847</v>
-      </c>
-      <c r="B510" s="18" t="s">
-        <v>673</v>
-      </c>
-      <c r="C510" s="18" t="s">
-        <v>674</v>
-      </c>
-      <c r="D510" s="19">
-        <v>4301071044</v>
-      </c>
-      <c r="E510" s="18">
-        <v>4607111039385</v>
-      </c>
-      <c r="F510" s="20" t="s">
-        <v>675</v>
+        <v>846</v>
+      </c>
+      <c r="B510" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="C510" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="D510" s="4">
+        <v>4301135574</v>
+      </c>
+      <c r="E510" s="3">
+        <v>4607111033659</v>
+      </c>
+      <c r="F510" s="5" t="s">
+        <v>734</v>
       </c>
       <c r="G510" s="21"/>
       <c r="H510" s="22" t="s">
@@ -18115,22 +18124,22 @@
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="17" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B511" s="18" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="C511" s="18" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="D511" s="19">
-        <v>4301071031</v>
+        <v>4301071044</v>
       </c>
       <c r="E511" s="18">
-        <v>4607111038982</v>
+        <v>4607111039385</v>
       </c>
       <c r="F511" s="20" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G511" s="21"/>
       <c r="H511" s="22" t="s">
@@ -18139,22 +18148,22 @@
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B512" s="18" t="s">
-        <v>181</v>
+        <v>690</v>
       </c>
       <c r="C512" s="18" t="s">
-        <v>182</v>
+        <v>691</v>
       </c>
       <c r="D512" s="19">
-        <v>4301070917</v>
+        <v>4301071031</v>
       </c>
       <c r="E512" s="18">
-        <v>4607111035912</v>
+        <v>4607111038982</v>
       </c>
       <c r="F512" s="20" t="s">
-        <v>183</v>
+        <v>692</v>
       </c>
       <c r="G512" s="21"/>
       <c r="H512" s="22" t="s">
@@ -18163,22 +18172,22 @@
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="17" t="s">
-        <v>850</v>
-      </c>
-      <c r="B513" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C513" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="D513" s="4">
-        <v>4301136070</v>
-      </c>
-      <c r="E513" s="3">
-        <v>4607025784012</v>
-      </c>
-      <c r="F513" s="5" t="s">
-        <v>170</v>
+        <v>849</v>
+      </c>
+      <c r="B513" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C513" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D513" s="19">
+        <v>4301070917</v>
+      </c>
+      <c r="E513" s="18">
+        <v>4607111035912</v>
+      </c>
+      <c r="F513" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="G513" s="21"/>
       <c r="H513" s="22" t="s">
@@ -18187,46 +18196,46 @@
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="17" t="s">
-        <v>851</v>
-      </c>
-      <c r="B514" s="18" t="s">
-        <v>613</v>
-      </c>
-      <c r="C514" s="18" t="s">
-        <v>614</v>
-      </c>
-      <c r="D514" s="19">
-        <v>4301071046</v>
-      </c>
-      <c r="E514" s="18">
-        <v>4607111039354</v>
-      </c>
-      <c r="F514" s="20" t="s">
-        <v>615</v>
+        <v>850</v>
+      </c>
+      <c r="B514" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C514" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="D514" s="4">
+        <v>4301136070</v>
+      </c>
+      <c r="E514" s="3">
+        <v>4607025784012</v>
+      </c>
+      <c r="F514" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="G514" s="21"/>
       <c r="H514" s="22" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="515" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="17" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B515" s="18" t="s">
-        <v>867</v>
+        <v>613</v>
       </c>
       <c r="C515" s="18" t="s">
-        <v>868</v>
+        <v>614</v>
       </c>
       <c r="D515" s="19">
-        <v>4301070959</v>
+        <v>4301071046</v>
       </c>
       <c r="E515" s="18">
-        <v>4607111038616</v>
+        <v>4607111039354</v>
       </c>
       <c r="F515" s="20" t="s">
-        <v>869</v>
+        <v>615</v>
       </c>
       <c r="G515" s="21"/>
       <c r="H515" s="22" t="s">
@@ -18235,46 +18244,46 @@
     </row>
     <row r="516" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A516" s="17" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B516" s="18" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C516" s="18" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D516" s="19">
-        <v>4301070962</v>
+        <v>4301070959</v>
       </c>
       <c r="E516" s="18">
-        <v>4607111038609</v>
+        <v>4607111038616</v>
       </c>
       <c r="F516" s="20" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="G516" s="21"/>
       <c r="H516" s="22" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A517" s="17" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B517" s="18" t="s">
-        <v>254</v>
+        <v>870</v>
       </c>
       <c r="C517" s="18" t="s">
-        <v>255</v>
+        <v>871</v>
       </c>
       <c r="D517" s="19">
-        <v>4301070948</v>
+        <v>4301070962</v>
       </c>
       <c r="E517" s="18">
-        <v>4607111037022</v>
+        <v>4607111038609</v>
       </c>
       <c r="F517" s="20" t="s">
-        <v>152</v>
+        <v>872</v>
       </c>
       <c r="G517" s="21"/>
       <c r="H517" s="22" t="s">
@@ -18283,22 +18292,22 @@
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="17" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B518" s="18" t="s">
-        <v>707</v>
+        <v>254</v>
       </c>
       <c r="C518" s="18" t="s">
-        <v>708</v>
+        <v>255</v>
       </c>
       <c r="D518" s="19">
-        <v>4301135570</v>
+        <v>4301070948</v>
       </c>
       <c r="E518" s="18">
-        <v>4607111035806</v>
+        <v>4607111037022</v>
       </c>
       <c r="F518" s="20" t="s">
-        <v>709</v>
+        <v>152</v>
       </c>
       <c r="G518" s="21"/>
       <c r="H518" s="22" t="s">
@@ -18307,22 +18316,22 @@
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="17" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B519" s="18" t="s">
-        <v>736</v>
+        <v>707</v>
       </c>
       <c r="C519" s="18" t="s">
-        <v>737</v>
+        <v>708</v>
       </c>
       <c r="D519" s="19">
-        <v>4301071032</v>
+        <v>4301135570</v>
       </c>
       <c r="E519" s="18">
-        <v>4607111038999</v>
+        <v>4607111035806</v>
       </c>
       <c r="F519" s="20" t="s">
-        <v>738</v>
+        <v>709</v>
       </c>
       <c r="G519" s="21"/>
       <c r="H519" s="22" t="s">
@@ -18331,22 +18340,22 @@
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="17" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B520" s="18" t="s">
-        <v>677</v>
+        <v>736</v>
       </c>
       <c r="C520" s="18" t="s">
-        <v>678</v>
+        <v>737</v>
       </c>
       <c r="D520" s="19">
-        <v>4301071045</v>
+        <v>4301071032</v>
       </c>
       <c r="E520" s="18">
-        <v>4607111039392</v>
+        <v>4607111038999</v>
       </c>
       <c r="F520" s="20" t="s">
-        <v>679</v>
+        <v>738</v>
       </c>
       <c r="G520" s="21"/>
       <c r="H520" s="22" t="s">
@@ -18355,22 +18364,22 @@
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="17" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B521" s="18" t="s">
-        <v>485</v>
+        <v>677</v>
       </c>
       <c r="C521" s="18" t="s">
-        <v>486</v>
+        <v>678</v>
       </c>
       <c r="D521" s="19">
-        <v>4301070963</v>
+        <v>4301071045</v>
       </c>
       <c r="E521" s="18">
-        <v>4607111038630</v>
+        <v>4607111039392</v>
       </c>
       <c r="F521" s="20" t="s">
-        <v>487</v>
+        <v>679</v>
       </c>
       <c r="G521" s="21"/>
       <c r="H521" s="22" t="s">
@@ -18379,22 +18388,22 @@
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="17" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B522" s="18" t="s">
-        <v>595</v>
+        <v>485</v>
       </c>
       <c r="C522" s="18" t="s">
-        <v>596</v>
+        <v>486</v>
       </c>
       <c r="D522" s="19">
-        <v>4301071054</v>
+        <v>4301070963</v>
       </c>
       <c r="E522" s="18">
-        <v>4607111035639</v>
+        <v>4607111038630</v>
       </c>
       <c r="F522" s="20" t="s">
-        <v>597</v>
+        <v>487</v>
       </c>
       <c r="G522" s="21"/>
       <c r="H522" s="22" t="s">
@@ -18403,30 +18412,54 @@
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B523" s="18" t="s">
-        <v>340</v>
+        <v>595</v>
       </c>
       <c r="C523" s="18" t="s">
-        <v>565</v>
+        <v>596</v>
       </c>
       <c r="D523" s="19">
-        <v>4301135540</v>
+        <v>4301071054</v>
       </c>
       <c r="E523" s="18">
-        <v>4607111035646</v>
+        <v>4607111035639</v>
       </c>
       <c r="F523" s="20" t="s">
-        <v>566</v>
+        <v>597</v>
       </c>
       <c r="G523" s="21"/>
       <c r="H523" s="22" t="s">
         <v>861</v>
       </c>
     </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A524" s="17" t="s">
+        <v>860</v>
+      </c>
+      <c r="B524" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="C524" s="18" t="s">
+        <v>565</v>
+      </c>
+      <c r="D524" s="19">
+        <v>4301135540</v>
+      </c>
+      <c r="E524" s="18">
+        <v>4607111035646</v>
+      </c>
+      <c r="F524" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="G524" s="21"/>
+      <c r="H524" s="22" t="s">
+        <v>861</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F523" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+  <autoFilter ref="A1:F524" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F249">
       <sortCondition ref="A1:A180"/>
     </sortState>

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1097CA8-8421-4C3B-9185-115658ED0B78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DFD873-58C7-41A7-8895-F046E57941E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,8 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$524</definedName>
-    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$463</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$525</definedName>
+    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$464</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2271" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="967">
   <si>
     <t>1С</t>
   </si>
@@ -2937,6 +2937,9 @@
   </si>
   <si>
     <t>Снеки «Круггетсы с сырным соусом» Фикс.вес 0,2 ТМ «Горячая штучка»</t>
+  </si>
+  <si>
+    <t>Круггетсы сочные ТМ Горячая штучка ТС Круггетсы флоу-пак  0,2 кг.  ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -6192,11 +6195,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H524"/>
+  <dimension ref="A1:H525"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8237,7 +8240,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
-        <v>959</v>
+        <v>966</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>951</v>
@@ -8258,31 +8261,28 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>119</v>
+        <v>959</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>889</v>
+        <v>951</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>890</v>
+        <v>952</v>
       </c>
       <c r="D85" s="4">
-        <v>4301131046</v>
+        <v>4301135778</v>
       </c>
       <c r="E85" s="3">
-        <v>4607111034137</v>
+        <v>4620207490853</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>891</v>
-      </c>
-      <c r="G85" s="1">
-        <f>VLOOKUP(E85,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
-      </c>
+        <v>953</v>
+      </c>
+      <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>889</v>
@@ -8306,7 +8306,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>889</v>
@@ -8330,22 +8330,22 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>789</v>
+        <v>889</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>790</v>
+        <v>890</v>
       </c>
       <c r="D88" s="4">
-        <v>4301131047</v>
+        <v>4301131046</v>
       </c>
       <c r="E88" s="3">
-        <v>4607111034120</v>
+        <v>4607111034137</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>791</v>
+        <v>891</v>
       </c>
       <c r="G88" s="1">
         <f>VLOOKUP(E88,[1]Лист1!$D:$M,10,0)</f>
@@ -8354,7 +8354,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>789</v>
@@ -8378,7 +8378,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>789</v>
@@ -8400,35 +8400,33 @@
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>552</v>
+        <v>789</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>553</v>
+        <v>790</v>
       </c>
       <c r="D91" s="4">
-        <v>4301135518</v>
+        <v>4301131047</v>
       </c>
       <c r="E91" s="3">
-        <v>4640242181561</v>
+        <v>4607111034120</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>554</v>
+        <v>791</v>
       </c>
       <c r="G91" s="1">
-        <v>180</v>
-      </c>
-      <c r="H91" s="16" t="s">
-        <v>591</v>
+        <f>VLOOKUP(E91,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>552</v>
@@ -8454,7 +8452,7 @@
     </row>
     <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>345</v>
+        <v>231</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>552</v>
@@ -8480,7 +8478,7 @@
     </row>
     <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>552</v>
@@ -8506,7 +8504,7 @@
     </row>
     <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>76</v>
+        <v>373</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>552</v>
@@ -8530,9 +8528,9 @@
         <v>591</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>554</v>
+        <v>76</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>552</v>
@@ -8552,10 +8550,13 @@
       <c r="G96" s="1">
         <v>180</v>
       </c>
+      <c r="H96" s="16" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>593</v>
+        <v>554</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>552</v>
@@ -8578,7 +8579,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>552</v>
@@ -8601,22 +8602,22 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>222</v>
+        <v>592</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>747</v>
+        <v>552</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>748</v>
+        <v>553</v>
       </c>
       <c r="D99" s="4">
-        <v>4301132186</v>
+        <v>4301135518</v>
       </c>
       <c r="E99" s="3">
-        <v>4607111036520</v>
+        <v>4640242181561</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>749</v>
+        <v>554</v>
       </c>
       <c r="G99" s="1">
         <v>180</v>
@@ -8624,7 +8625,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>315</v>
+        <v>222</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>747</v>
@@ -8647,7 +8648,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
-        <v>449</v>
+        <v>315</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>747</v>
@@ -8670,7 +8671,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>203</v>
+        <v>449</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>747</v>
@@ -8693,31 +8694,30 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
-        <v>432</v>
+        <v>203</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>787</v>
+        <v>747</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>788</v>
+        <v>748</v>
       </c>
       <c r="D103" s="4">
-        <v>4301132184</v>
+        <v>4301132186</v>
       </c>
       <c r="E103" s="3">
-        <v>4607111036599</v>
+        <v>4607111036520</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>778</v>
+        <v>749</v>
       </c>
       <c r="G103" s="1">
-        <f>VLOOKUP(E103,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>223</v>
+        <v>432</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>787</v>
@@ -8741,7 +8741,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>787</v>
@@ -8765,22 +8765,22 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>407</v>
+        <v>204</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>767</v>
+        <v>787</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>768</v>
+        <v>788</v>
       </c>
       <c r="D106" s="4">
-        <v>4301132188</v>
+        <v>4301132184</v>
       </c>
       <c r="E106" s="3">
-        <v>4607111036605</v>
+        <v>4607111036599</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="G106" s="1">
         <f>VLOOKUP(E106,[1]Лист1!$D:$M,10,0)</f>
@@ -8789,7 +8789,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>224</v>
+        <v>407</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>767</v>
@@ -8813,7 +8813,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>767</v>
@@ -8837,22 +8837,22 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>877</v>
+        <v>767</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>878</v>
+        <v>768</v>
       </c>
       <c r="D109" s="4">
-        <v>4301132179</v>
+        <v>4301132188</v>
       </c>
       <c r="E109" s="3">
-        <v>4607111035691</v>
+        <v>4607111036605</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>879</v>
+        <v>769</v>
       </c>
       <c r="G109" s="1">
         <f>VLOOKUP(E109,[1]Лист1!$D:$M,10,0)</f>
@@ -8861,7 +8861,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>877</v>
@@ -8885,7 +8885,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>649</v>
+        <v>98</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>877</v>
@@ -8909,7 +8909,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>77</v>
+        <v>649</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>877</v>
@@ -8933,22 +8933,22 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>744</v>
+        <v>877</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>745</v>
+        <v>878</v>
       </c>
       <c r="D113" s="4">
-        <v>4301132190</v>
+        <v>4301132179</v>
       </c>
       <c r="E113" s="3">
-        <v>4607111036537</v>
+        <v>4607111035691</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>746</v>
+        <v>879</v>
       </c>
       <c r="G113" s="1">
         <f>VLOOKUP(E113,[1]Лист1!$D:$M,10,0)</f>
@@ -8957,7 +8957,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
-        <v>700</v>
+        <v>99</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>744</v>
@@ -8981,7 +8981,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
-        <v>78</v>
+        <v>700</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>744</v>
@@ -9005,22 +9005,22 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>655</v>
+        <v>78</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>873</v>
+        <v>744</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>874</v>
+        <v>745</v>
       </c>
       <c r="D116" s="4">
-        <v>4301132182</v>
+        <v>4301132190</v>
       </c>
       <c r="E116" s="3">
-        <v>4607111035721</v>
+        <v>4607111036537</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>875</v>
+        <v>746</v>
       </c>
       <c r="G116" s="1">
         <f>VLOOKUP(E116,[1]Лист1!$D:$M,10,0)</f>
@@ -9029,7 +9029,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
-        <v>712</v>
+        <v>655</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>873</v>
@@ -9053,7 +9053,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
-        <v>79</v>
+        <v>712</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>873</v>
@@ -9076,8 +9076,8 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="17" t="s">
-        <v>838</v>
+      <c r="A119" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>873</v>
@@ -9094,38 +9094,38 @@
       <c r="F119" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="G119" s="21"/>
-      <c r="H119" s="22" t="s">
+      <c r="G119" s="1">
+        <f>VLOOKUP(E119,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="17" t="s">
+        <v>838</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="D120" s="4">
+        <v>4301132182</v>
+      </c>
+      <c r="E120" s="3">
+        <v>4607111035721</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="G120" s="21"/>
+      <c r="H120" s="22" t="s">
         <v>861</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D120" s="4">
-        <v>4301132080</v>
-      </c>
-      <c r="E120" s="3">
-        <v>4640242180397</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="G120" s="1">
-        <f>VLOOKUP(E120,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>293</v>
@@ -9149,7 +9149,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>293</v>
@@ -9173,7 +9173,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>295</v>
+        <v>390</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>293</v>
@@ -9197,7 +9197,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>293</v>
@@ -9221,22 +9221,22 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
-        <v>337</v>
+        <v>80</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>707</v>
+        <v>293</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>708</v>
+        <v>294</v>
       </c>
       <c r="D125" s="4">
-        <v>4301135570</v>
+        <v>4301132080</v>
       </c>
       <c r="E125" s="3">
-        <v>4607111035806</v>
+        <v>4640242180397</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>709</v>
+        <v>295</v>
       </c>
       <c r="G125" s="1">
         <f>VLOOKUP(E125,[1]Лист1!$D:$M,10,0)</f>
@@ -9245,7 +9245,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>707</v>
@@ -9269,7 +9269,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>418</v>
+        <v>344</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>707</v>
@@ -9293,7 +9293,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>707</v>
@@ -9317,7 +9317,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
-        <v>710</v>
+        <v>427</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>707</v>
@@ -9341,7 +9341,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
-        <v>207</v>
+        <v>710</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>707</v>
@@ -9365,22 +9365,22 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
-        <v>316</v>
+        <v>207</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>225</v>
+        <v>707</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>226</v>
+        <v>708</v>
       </c>
       <c r="D131" s="4">
-        <v>4301070865</v>
+        <v>4301135570</v>
       </c>
       <c r="E131" s="3">
-        <v>4607111036285</v>
+        <v>4607111035806</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>227</v>
+        <v>709</v>
       </c>
       <c r="G131" s="1">
         <f>VLOOKUP(E131,[1]Лист1!$D:$M,10,0)</f>
@@ -9389,7 +9389,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
-        <v>357</v>
+        <v>316</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>225</v>
@@ -9413,7 +9413,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
-        <v>227</v>
+        <v>357</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>225</v>
@@ -9437,7 +9437,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
-        <v>420</v>
+        <v>227</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>225</v>
@@ -9461,7 +9461,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
-        <v>209</v>
+        <v>420</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>225</v>
@@ -9485,22 +9485,22 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>146</v>
+        <v>225</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="D136" s="4">
-        <v>4301070970</v>
+        <v>4301070865</v>
       </c>
       <c r="E136" s="3">
-        <v>4607111037091</v>
+        <v>4607111036285</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="G136" s="1">
         <f>VLOOKUP(E136,[1]Лист1!$D:$M,10,0)</f>
@@ -9509,7 +9509,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>146</v>
@@ -9533,7 +9533,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
-        <v>273</v>
+        <v>145</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>146</v>
@@ -9557,7 +9557,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
-        <v>457</v>
+        <v>273</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>146</v>
@@ -9581,7 +9581,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
-        <v>210</v>
+        <v>457</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>146</v>
@@ -9605,22 +9605,22 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
-        <v>87</v>
+        <v>210</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="D141" s="4">
-        <v>4301070973</v>
+        <v>4301070970</v>
       </c>
       <c r="E141" s="3">
-        <v>4607111033987</v>
+        <v>4607111037091</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="G141" s="1">
         <f>VLOOKUP(E141,[1]Лист1!$D:$M,10,0)</f>
@@ -9629,7 +9629,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
-        <v>271</v>
+        <v>87</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>108</v>
@@ -9653,7 +9653,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
-        <v>212</v>
+        <v>271</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>108</v>
@@ -9677,22 +9677,22 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
-        <v>356</v>
+        <v>212</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>229</v>
+        <v>270</v>
       </c>
       <c r="D144" s="4">
-        <v>4301070861</v>
+        <v>4301070973</v>
       </c>
       <c r="E144" s="3">
-        <v>4607111036308</v>
+        <v>4607111033987</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
       <c r="G144" s="1">
         <f>VLOOKUP(E144,[1]Лист1!$D:$M,10,0)</f>
@@ -9701,7 +9701,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
-        <v>419</v>
+        <v>356</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>228</v>
@@ -9725,7 +9725,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
-        <v>213</v>
+        <v>419</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>228</v>
@@ -9749,22 +9749,22 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>101</v>
+        <v>229</v>
       </c>
       <c r="D147" s="4">
-        <v>4301070864</v>
+        <v>4301070861</v>
       </c>
       <c r="E147" s="3">
-        <v>4607111036292</v>
+        <v>4607111036308</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>102</v>
+        <v>230</v>
       </c>
       <c r="G147" s="1">
         <f>VLOOKUP(E147,[1]Лист1!$D:$M,10,0)</f>
@@ -9773,7 +9773,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
-        <v>358</v>
+        <v>81</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>100</v>
@@ -9797,7 +9797,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
-        <v>102</v>
+        <v>358</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>100</v>
@@ -9821,7 +9821,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
-        <v>214</v>
+        <v>102</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>100</v>
@@ -9845,22 +9845,22 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
-        <v>86</v>
+        <v>214</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>266</v>
+        <v>101</v>
       </c>
       <c r="D151" s="4">
-        <v>4301070974</v>
+        <v>4301070864</v>
       </c>
       <c r="E151" s="3">
-        <v>4607111034151</v>
+        <v>4607111036292</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>267</v>
+        <v>102</v>
       </c>
       <c r="G151" s="1">
         <f>VLOOKUP(E151,[1]Лист1!$D:$M,10,0)</f>
@@ -9869,7 +9869,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
-        <v>267</v>
+        <v>86</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>107</v>
@@ -9893,7 +9893,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>107</v>
@@ -9917,22 +9917,22 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>454</v>
+        <v>266</v>
       </c>
       <c r="D154" s="4">
-        <v>4301070989</v>
+        <v>4301070974</v>
       </c>
       <c r="E154" s="3">
-        <v>4607111037190</v>
+        <v>4607111034151</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>455</v>
+        <v>267</v>
       </c>
       <c r="G154" s="1">
         <f>VLOOKUP(E154,[1]Лист1!$D:$M,10,0)</f>
@@ -9941,7 +9941,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
-        <v>438</v>
+        <v>208</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>140</v>
@@ -9965,7 +9965,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
-        <v>139</v>
+        <v>438</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>140</v>
@@ -9989,22 +9989,22 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
-        <v>215</v>
+        <v>139</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>278</v>
+        <v>454</v>
       </c>
       <c r="D157" s="4">
-        <v>4301070972</v>
+        <v>4301070989</v>
       </c>
       <c r="E157" s="3">
-        <v>4607111037183</v>
+        <v>4607111037190</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>279</v>
+        <v>455</v>
       </c>
       <c r="G157" s="1">
         <f>VLOOKUP(E157,[1]Лист1!$D:$M,10,0)</f>
@@ -10013,7 +10013,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
-        <v>421</v>
+        <v>215</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>142</v>
@@ -10037,7 +10037,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
-        <v>141</v>
+        <v>421</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>142</v>
@@ -10061,30 +10061,31 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
-        <v>433</v>
+        <v>141</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>594</v>
+        <v>278</v>
       </c>
       <c r="D160" s="4">
-        <v>4301070969</v>
+        <v>4301070972</v>
       </c>
       <c r="E160" s="3">
-        <v>4607111036858</v>
+        <v>4607111037183</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G160" s="1">
+        <f>VLOOKUP(E160,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>144</v>
@@ -10107,7 +10108,7 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
-        <v>143</v>
+        <v>450</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>144</v>
@@ -10130,46 +10131,45 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>571</v>
+        <v>594</v>
       </c>
       <c r="D163" s="4">
-        <v>4301070968</v>
+        <v>4301070969</v>
       </c>
       <c r="E163" s="3">
-        <v>4607111036889</v>
+        <v>4607111036858</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>403</v>
+        <v>280</v>
       </c>
       <c r="G163" s="1">
-        <f>VLOOKUP(E163,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>385</v>
+        <v>571</v>
       </c>
       <c r="D164" s="4">
-        <v>4301070971</v>
+        <v>4301070968</v>
       </c>
       <c r="E164" s="3">
-        <v>4607111036902</v>
+        <v>4607111036889</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="G164" s="1">
         <f>VLOOKUP(E164,[1]Лист1!$D:$M,10,0)</f>
@@ -10178,7 +10178,7 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>272</v>
+        <v>150</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>149</v>
@@ -10202,7 +10202,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
-        <v>148</v>
+        <v>272</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>149</v>
@@ -10226,22 +10226,22 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
-        <v>235</v>
+        <v>148</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>259</v>
+        <v>385</v>
       </c>
       <c r="D167" s="4">
-        <v>4301070976</v>
+        <v>4301070971</v>
       </c>
       <c r="E167" s="3">
-        <v>4607111034144</v>
+        <v>4607111036902</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>260</v>
+        <v>386</v>
       </c>
       <c r="G167" s="1">
         <f>VLOOKUP(E167,[1]Лист1!$D:$M,10,0)</f>
@@ -10250,7 +10250,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>104</v>
@@ -10274,7 +10274,7 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>104</v>
@@ -10298,7 +10298,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
-        <v>83</v>
+        <v>260</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>104</v>
@@ -10322,22 +10322,22 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
-        <v>234</v>
+        <v>83</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D171" s="4">
-        <v>4301070975</v>
+        <v>4301070976</v>
       </c>
       <c r="E171" s="3">
-        <v>4607111033970</v>
+        <v>4607111034144</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="G171" s="1">
         <f>VLOOKUP(E171,[1]Лист1!$D:$M,10,0)</f>
@@ -10346,7 +10346,7 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>105</v>
@@ -10370,7 +10370,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
-        <v>322</v>
+        <v>211</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>105</v>
@@ -10394,7 +10394,7 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>105</v>
@@ -10418,7 +10418,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
-        <v>84</v>
+        <v>269</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>105</v>
@@ -10442,22 +10442,22 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
-        <v>321</v>
+        <v>84</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D176" s="4">
-        <v>4301070981</v>
+        <v>4301070975</v>
       </c>
       <c r="E176" s="3">
-        <v>4607111036728</v>
+        <v>4607111033970</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="G176" s="1">
         <f>VLOOKUP(E176,[1]Лист1!$D:$M,10,0)</f>
@@ -10466,7 +10466,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
-        <v>551</v>
+        <v>321</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>106</v>
@@ -10490,7 +10490,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>106</v>
@@ -10514,7 +10514,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
-        <v>701</v>
+        <v>570</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>106</v>
@@ -10538,7 +10538,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
-        <v>85</v>
+        <v>701</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>106</v>
@@ -10562,22 +10562,22 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
-        <v>331</v>
+        <v>85</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>174</v>
+        <v>261</v>
       </c>
       <c r="D181" s="4">
-        <v>4301071010</v>
+        <v>4301070981</v>
       </c>
       <c r="E181" s="3">
-        <v>4607111037701</v>
+        <v>4607111036728</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="G181" s="1">
         <f>VLOOKUP(E181,[1]Лист1!$D:$M,10,0)</f>
@@ -10586,7 +10586,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
-        <v>398</v>
+        <v>331</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>173</v>
@@ -10610,7 +10610,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
-        <v>176</v>
+        <v>398</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>173</v>
@@ -10634,31 +10634,31 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="10" t="s">
-        <v>429</v>
+        <v>176</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D184" s="4">
-        <v>4301070870</v>
+        <v>4301071010</v>
       </c>
       <c r="E184" s="3">
-        <v>4607111036711</v>
+        <v>4607111037701</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G184" s="1">
         <f>VLOOKUP(E184,[1]Лист1!$D:$M,10,0)</f>
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="10" t="s">
-        <v>180</v>
+        <v>429</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>177</v>
@@ -10682,31 +10682,31 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>254</v>
+        <v>177</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>255</v>
+        <v>178</v>
       </c>
       <c r="D186" s="4">
-        <v>4301070948</v>
+        <v>4301070870</v>
       </c>
       <c r="E186" s="3">
-        <v>4607111037022</v>
+        <v>4607111036711</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="G186" s="1">
         <f>VLOOKUP(E186,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
-        <v>256</v>
+        <v>152</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>254</v>
@@ -10730,7 +10730,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
-        <v>151</v>
+        <v>256</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>254</v>
@@ -10754,22 +10754,22 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>109</v>
+        <v>254</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>110</v>
+        <v>255</v>
       </c>
       <c r="D189" s="4">
-        <v>4301070920</v>
+        <v>4301070948</v>
       </c>
       <c r="E189" s="3">
-        <v>4607111035929</v>
+        <v>4607111037022</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="G189" s="1">
         <f>VLOOKUP(E189,[1]Лист1!$D:$M,10,0)</f>
@@ -10778,7 +10778,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="10" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>109</v>
@@ -10802,22 +10802,22 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="D191" s="4">
-        <v>4301070921</v>
+        <v>4301070920</v>
       </c>
       <c r="E191" s="3">
-        <v>4607111035905</v>
+        <v>4607111035929</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="G191" s="1">
         <f>VLOOKUP(E191,[1]Лист1!$D:$M,10,0)</f>
@@ -10826,7 +10826,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
-        <v>780</v>
+        <v>153</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>154</v>
@@ -10850,7 +10850,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
-        <v>156</v>
+        <v>780</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>154</v>
@@ -10874,22 +10874,22 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="D194" s="4">
-        <v>4301070917</v>
+        <v>4301070921</v>
       </c>
       <c r="E194" s="3">
-        <v>4607111035912</v>
+        <v>4607111035905</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="G194" s="1">
         <f>VLOOKUP(E194,[1]Лист1!$D:$M,10,0)</f>
@@ -10898,7 +10898,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
-        <v>275</v>
+        <v>183</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>181</v>
@@ -10922,7 +10922,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>181</v>
@@ -10946,7 +10946,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
-        <v>184</v>
+        <v>308</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>181</v>
@@ -10970,22 +10970,22 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>636</v>
+        <v>182</v>
       </c>
       <c r="D198" s="4">
-        <v>4301071050</v>
+        <v>4301070917</v>
       </c>
       <c r="E198" s="3">
-        <v>4607111036216</v>
+        <v>4607111035912</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>637</v>
+        <v>183</v>
       </c>
       <c r="G198" s="1">
         <f>VLOOKUP(E198,[1]Лист1!$D:$M,10,0)</f>
@@ -10994,7 +10994,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
-        <v>781</v>
+        <v>157</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>112</v>
@@ -11018,7 +11018,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
-        <v>681</v>
+        <v>781</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>112</v>
@@ -11042,7 +11042,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
-        <v>89</v>
+        <v>681</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>112</v>
@@ -11066,22 +11066,22 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>527</v>
+        <v>636</v>
       </c>
       <c r="D202" s="4">
-        <v>4301071029</v>
+        <v>4301071050</v>
       </c>
       <c r="E202" s="3">
-        <v>4607111035899</v>
+        <v>4607111036216</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>114</v>
+        <v>637</v>
       </c>
       <c r="G202" s="1">
         <f>VLOOKUP(E202,[1]Лист1!$D:$M,10,0)</f>
@@ -11090,7 +11090,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>113</v>
@@ -11114,22 +11114,22 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>160</v>
+        <v>527</v>
       </c>
       <c r="D204" s="4">
-        <v>4301070873</v>
+        <v>4301071029</v>
       </c>
       <c r="E204" s="3">
-        <v>4607111035080</v>
+        <v>4607111035899</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="G204" s="1">
         <f>VLOOKUP(E204,[1]Лист1!$D:$M,10,0)</f>
@@ -11138,28 +11138,31 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
-        <v>528</v>
+        <v>161</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>498</v>
+        <v>159</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>499</v>
+        <v>160</v>
       </c>
       <c r="D205" s="4">
-        <v>4301071000</v>
+        <v>4301070873</v>
       </c>
       <c r="E205" s="3">
-        <v>4607111038708</v>
+        <v>4607111035080</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="G205" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="G205" s="1">
+        <f>VLOOKUP(E205,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
-        <v>158</v>
+        <v>528</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>498</v>
@@ -11176,40 +11179,35 @@
       <c r="F206" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="G206" s="1" t="e">
-        <f>VLOOKUP(E206,[1]Лист1!$D:$M,10,0)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="G206" s="1"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>641</v>
+        <v>498</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>642</v>
+        <v>499</v>
       </c>
       <c r="D207" s="4">
-        <v>4301135504</v>
+        <v>4301071000</v>
       </c>
       <c r="E207" s="3">
-        <v>4640242181554</v>
+        <v>4607111038708</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="G207" s="1">
-        <v>180</v>
-      </c>
-      <c r="H207" s="16" t="s">
-        <v>644</v>
+        <v>500</v>
+      </c>
+      <c r="G207" s="1" t="e">
+        <f>VLOOKUP(E207,[1]Лист1!$D:$M,10,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
-        <v>391</v>
+        <v>232</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>641</v>
@@ -11235,7 +11233,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>641</v>
@@ -11261,7 +11259,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>641</v>
@@ -11287,7 +11285,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
-        <v>162</v>
+        <v>402</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>641</v>
@@ -11313,7 +11311,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
-        <v>645</v>
+        <v>162</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>641</v>
@@ -11333,34 +11331,36 @@
       <c r="G212" s="1">
         <v>180</v>
       </c>
+      <c r="H212" s="16" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
-        <v>410</v>
+        <v>645</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>164</v>
+        <v>641</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="D213" s="4">
-        <v>4301071056</v>
+        <v>4301135504</v>
       </c>
       <c r="E213" s="3">
-        <v>4640242180250</v>
+        <v>4640242181554</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="G213" s="1">
-        <f>VLOOKUP(E213,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>164</v>
@@ -11384,7 +11384,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
-        <v>163</v>
+        <v>387</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>164</v>
@@ -11408,22 +11408,22 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>750</v>
+        <v>164</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>751</v>
+        <v>639</v>
       </c>
       <c r="D216" s="4">
-        <v>4301135550</v>
+        <v>4301071056</v>
       </c>
       <c r="E216" s="3">
-        <v>4607111034199</v>
+        <v>4640242180250</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>752</v>
+        <v>640</v>
       </c>
       <c r="G216" s="1">
         <f>VLOOKUP(E216,[1]Лист1!$D:$M,10,0)</f>
@@ -11432,7 +11432,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>750</v>
@@ -11456,7 +11456,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
-        <v>783</v>
+        <v>115</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>750</v>
@@ -11480,7 +11480,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
-        <v>92</v>
+        <v>783</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>750</v>
@@ -11504,31 +11504,31 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
-        <v>244</v>
+        <v>92</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>263</v>
+        <v>750</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>264</v>
+        <v>751</v>
       </c>
       <c r="D220" s="4">
-        <v>4301131018</v>
+        <v>4301135550</v>
       </c>
       <c r="E220" s="3">
-        <v>4607111037930</v>
+        <v>4607111034199</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="G220" s="1" t="e">
+        <v>752</v>
+      </c>
+      <c r="G220" s="1">
         <f>VLOOKUP(E220,[1]Лист1!$D:$M,10,0)</f>
-        <v>#N/A</v>
+        <v>180</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
-        <v>336</v>
+        <v>244</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>263</v>
@@ -11552,30 +11552,31 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>474</v>
+        <v>263</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>475</v>
+        <v>264</v>
       </c>
       <c r="D222" s="4">
-        <v>4301190022</v>
+        <v>4301131018</v>
       </c>
       <c r="E222" s="3">
-        <v>4607111037053</v>
+        <v>4607111037930</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="G222" s="1">
-        <v>365</v>
+        <v>265</v>
+      </c>
+      <c r="G222" s="1" t="e">
+        <f>VLOOKUP(E222,[1]Лист1!$D:$M,10,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
-        <v>341</v>
+        <v>166</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>474</v>
@@ -11593,13 +11594,12 @@
         <v>476</v>
       </c>
       <c r="G223" s="1">
-        <f>VLOOKUP(E223,[1]Лист1!$D:$M,10,0)</f>
         <v>365</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="10" t="s">
-        <v>121</v>
+        <v>341</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>474</v>
@@ -11623,22 +11623,22 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>413</v>
+        <v>474</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>414</v>
+        <v>475</v>
       </c>
       <c r="D225" s="4">
-        <v>4301190023</v>
+        <v>4301190022</v>
       </c>
       <c r="E225" s="3">
-        <v>4607111037060</v>
+        <v>4607111037053</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>415</v>
+        <v>476</v>
       </c>
       <c r="G225" s="1">
         <f>VLOOKUP(E225,[1]Лист1!$D:$M,10,0)</f>
@@ -11647,7 +11647,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
-        <v>342</v>
+        <v>167</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>413</v>
@@ -11671,7 +11671,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
-        <v>122</v>
+        <v>342</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>413</v>
@@ -11695,31 +11695,31 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
-        <v>784</v>
+        <v>122</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>185</v>
+        <v>413</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>529</v>
+        <v>414</v>
       </c>
       <c r="D228" s="4">
-        <v>4301135285</v>
+        <v>4301190023</v>
       </c>
       <c r="E228" s="3">
-        <v>4607111036407</v>
+        <v>4607111037060</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>186</v>
+        <v>415</v>
       </c>
       <c r="G228" s="1">
         <f>VLOOKUP(E228,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>365</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
-        <v>443</v>
+        <v>784</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>185</v>
@@ -11743,7 +11743,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
-        <v>186</v>
+        <v>443</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>185</v>
@@ -11767,7 +11767,7 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>185</v>
@@ -11791,22 +11791,22 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="10" t="s">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>659</v>
+        <v>185</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>660</v>
+        <v>529</v>
       </c>
       <c r="D232" s="4">
-        <v>4301135555</v>
+        <v>4301135285</v>
       </c>
       <c r="E232" s="3">
-        <v>4607111034014</v>
+        <v>4607111036407</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>661</v>
+        <v>186</v>
       </c>
       <c r="G232" s="1">
         <f>VLOOKUP(E232,[1]Лист1!$D:$M,10,0)</f>
@@ -11815,7 +11815,7 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="10" t="s">
-        <v>349</v>
+        <v>93</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>659</v>
@@ -11839,7 +11839,7 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="s">
-        <v>786</v>
+        <v>349</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>659</v>
@@ -11863,7 +11863,7 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
-        <v>705</v>
+        <v>786</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>659</v>
@@ -11887,7 +11887,7 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
-        <v>218</v>
+        <v>705</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>659</v>
@@ -11911,22 +11911,22 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="D237" s="4">
-        <v>4301135532</v>
+        <v>4301135555</v>
       </c>
       <c r="E237" s="3">
-        <v>4607111033994</v>
+        <v>4607111034014</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="G237" s="1">
         <f>VLOOKUP(E237,[1]Лист1!$D:$M,10,0)</f>
@@ -11935,7 +11935,7 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
-        <v>785</v>
+        <v>219</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>656</v>
@@ -11959,7 +11959,7 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
-        <v>116</v>
+        <v>785</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>656</v>
@@ -11983,7 +11983,7 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>656</v>
@@ -12007,22 +12007,22 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>299</v>
+        <v>656</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>300</v>
+        <v>657</v>
       </c>
       <c r="D241" s="4">
-        <v>4301136051</v>
+        <v>4301135532</v>
       </c>
       <c r="E241" s="3">
-        <v>4640242180304</v>
+        <v>4607111033994</v>
       </c>
       <c r="F241" s="5" t="s">
-        <v>301</v>
+        <v>658</v>
       </c>
       <c r="G241" s="1">
         <f>VLOOKUP(E241,[1]Лист1!$D:$M,10,0)</f>
@@ -12031,7 +12031,7 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="10" t="s">
-        <v>347</v>
+        <v>168</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>299</v>
@@ -12055,7 +12055,7 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
-        <v>416</v>
+        <v>347</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>299</v>
@@ -12079,7 +12079,7 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
-        <v>497</v>
+        <v>416</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>299</v>
@@ -12103,7 +12103,7 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
-        <v>123</v>
+        <v>497</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>299</v>
@@ -12127,22 +12127,22 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
-        <v>346</v>
+        <v>123</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D246" s="4">
-        <v>4301136053</v>
+        <v>4301136051</v>
       </c>
       <c r="E246" s="3">
-        <v>4640242180236</v>
+        <v>4640242180304</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G246" s="1">
         <f>VLOOKUP(E246,[1]Лист1!$D:$M,10,0)</f>
@@ -12151,7 +12151,7 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>302</v>
@@ -12175,7 +12175,7 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>302</v>
@@ -12199,7 +12199,7 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
-        <v>95</v>
+        <v>378</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>302</v>
@@ -12223,22 +12223,22 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
-        <v>276</v>
+        <v>95</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>236</v>
+        <v>302</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>237</v>
+        <v>303</v>
       </c>
       <c r="D250" s="4">
-        <v>4301070915</v>
+        <v>4301136053</v>
       </c>
       <c r="E250" s="3">
-        <v>4607111035882</v>
+        <v>4640242180236</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>238</v>
+        <v>304</v>
       </c>
       <c r="G250" s="1">
         <f>VLOOKUP(E250,[1]Лист1!$D:$M,10,0)</f>
@@ -12247,7 +12247,7 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>236</v>
@@ -12271,7 +12271,7 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
-        <v>238</v>
+        <v>325</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>236</v>
@@ -12295,22 +12295,22 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
-        <v>326</v>
+        <v>238</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D253" s="4">
-        <v>4301070874</v>
+        <v>4301070915</v>
       </c>
       <c r="E253" s="3">
-        <v>4607111035332</v>
+        <v>4607111035882</v>
       </c>
       <c r="F253" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G253" s="1">
         <f>VLOOKUP(E253,[1]Лист1!$D:$M,10,0)</f>
@@ -12319,7 +12319,7 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
-        <v>404</v>
+        <v>326</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>239</v>
@@ -12343,7 +12343,7 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
-        <v>241</v>
+        <v>404</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>239</v>
@@ -12367,22 +12367,22 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>535</v>
+        <v>240</v>
       </c>
       <c r="D256" s="4">
-        <v>4301136066</v>
+        <v>4301070874</v>
       </c>
       <c r="E256" s="3">
-        <v>4607111035370</v>
+        <v>4607111035332</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G256" s="1">
         <f>VLOOKUP(E256,[1]Лист1!$D:$M,10,0)</f>
@@ -12391,7 +12391,7 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
-        <v>329</v>
+        <v>258</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>242</v>
@@ -12415,7 +12415,7 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
-        <v>243</v>
+        <v>329</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>242</v>
@@ -12439,31 +12439,31 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>246</v>
+        <v>535</v>
       </c>
       <c r="D259" s="4">
-        <v>4301051320</v>
+        <v>4301136066</v>
       </c>
       <c r="E259" s="3">
-        <v>4680115881334</v>
+        <v>4607111035370</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G259" s="1">
         <f>VLOOKUP(E259,[1]Лист1!$D:$M,10,0)</f>
-        <v>365</v>
+        <v>180</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>245</v>
@@ -12487,7 +12487,7 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>245</v>
@@ -12511,22 +12511,22 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D262" s="4">
-        <v>4301051319</v>
+        <v>4301051320</v>
       </c>
       <c r="E262" s="3">
-        <v>4680115881204</v>
+        <v>4680115881334</v>
       </c>
       <c r="F262" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G262" s="1">
         <f>VLOOKUP(E262,[1]Лист1!$D:$M,10,0)</f>
@@ -12535,46 +12535,46 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>305</v>
+        <v>249</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>306</v>
+        <v>250</v>
       </c>
       <c r="D263" s="4">
-        <v>4301136027</v>
+        <v>4301051319</v>
       </c>
       <c r="E263" s="3">
-        <v>4640242180298</v>
+        <v>4680115881204</v>
       </c>
       <c r="F263" s="5" t="s">
-        <v>307</v>
+        <v>251</v>
       </c>
       <c r="G263" s="1">
         <f>VLOOKUP(E263,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>365</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
-        <v>406</v>
+        <v>277</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D264" s="4">
-        <v>4301130003</v>
+        <v>4301136027</v>
       </c>
       <c r="E264" s="3">
-        <v>4607111034687</v>
+        <v>4640242180298</v>
       </c>
       <c r="F264" s="5" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G264" s="1">
         <f>VLOOKUP(E264,[1]Лист1!$D:$M,10,0)</f>
@@ -12583,7 +12583,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
-        <v>461</v>
+        <v>406</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>312</v>
@@ -12607,7 +12607,7 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
-        <v>311</v>
+        <v>461</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>312</v>
@@ -12631,22 +12631,22 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D267" s="4">
-        <v>4301070977</v>
+        <v>4301130003</v>
       </c>
       <c r="E267" s="3">
-        <v>4607111037411</v>
+        <v>4607111034687</v>
       </c>
       <c r="F267" s="5" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G267" s="1">
         <f>VLOOKUP(E267,[1]Лист1!$D:$M,10,0)</f>
@@ -12655,7 +12655,7 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
-        <v>723</v>
+        <v>320</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>318</v>
@@ -12679,7 +12679,7 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
-        <v>317</v>
+        <v>723</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>318</v>
@@ -12703,22 +12703,22 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>933</v>
+        <v>319</v>
       </c>
       <c r="D270" s="4">
-        <v>4301071062</v>
+        <v>4301070977</v>
       </c>
       <c r="E270" s="3">
-        <v>4607111036384</v>
+        <v>4607111037411</v>
       </c>
       <c r="F270" s="5" t="s">
-        <v>934</v>
+        <v>320</v>
       </c>
       <c r="G270" s="1">
         <f>VLOOKUP(E270,[1]Лист1!$D:$M,10,0)</f>
@@ -12727,7 +12727,7 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>324</v>
@@ -12751,22 +12751,22 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
-        <v>408</v>
+        <v>323</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>898</v>
+        <v>324</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>899</v>
+        <v>933</v>
       </c>
       <c r="D272" s="4">
-        <v>4301135571</v>
+        <v>4301071062</v>
       </c>
       <c r="E272" s="3">
-        <v>4607111035028</v>
+        <v>4607111036384</v>
       </c>
       <c r="F272" s="5" t="s">
-        <v>900</v>
+        <v>934</v>
       </c>
       <c r="G272" s="1">
         <f>VLOOKUP(E272,[1]Лист1!$D:$M,10,0)</f>
@@ -12775,7 +12775,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
-        <v>328</v>
+        <v>408</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>898</v>
@@ -12799,7 +12799,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
-        <v>900</v>
+        <v>328</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>898</v>
@@ -12823,7 +12823,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
-        <v>327</v>
+        <v>900</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>898</v>
@@ -12847,22 +12847,22 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
-        <v>428</v>
+        <v>327</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>333</v>
+        <v>898</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>334</v>
+        <v>899</v>
       </c>
       <c r="D276" s="4">
-        <v>4301130006</v>
+        <v>4301135571</v>
       </c>
       <c r="E276" s="3">
-        <v>4607111034670</v>
+        <v>4607111035028</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>335</v>
+        <v>900</v>
       </c>
       <c r="G276" s="1">
         <f>VLOOKUP(E276,[1]Лист1!$D:$M,10,0)</f>
@@ -12871,7 +12871,7 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>333</v>
@@ -12895,7 +12895,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
-        <v>332</v>
+        <v>460</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>333</v>
@@ -12919,22 +12919,22 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
-        <v>430</v>
+        <v>332</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>595</v>
+        <v>333</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>596</v>
+        <v>334</v>
       </c>
       <c r="D279" s="4">
-        <v>4301071054</v>
+        <v>4301130006</v>
       </c>
       <c r="E279" s="3">
-        <v>4607111035639</v>
+        <v>4607111034670</v>
       </c>
       <c r="F279" s="5" t="s">
-        <v>597</v>
+        <v>335</v>
       </c>
       <c r="G279" s="1">
         <f>VLOOKUP(E279,[1]Лист1!$D:$M,10,0)</f>
@@ -12943,7 +12943,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
-        <v>338</v>
+        <v>430</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>595</v>
@@ -12967,22 +12967,22 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
-        <v>431</v>
+        <v>338</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>340</v>
+        <v>595</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>565</v>
+        <v>596</v>
       </c>
       <c r="D281" s="4">
-        <v>4301135540</v>
+        <v>4301071054</v>
       </c>
       <c r="E281" s="3">
-        <v>4607111035646</v>
+        <v>4607111035639</v>
       </c>
       <c r="F281" s="5" t="s">
-        <v>566</v>
+        <v>597</v>
       </c>
       <c r="G281" s="1">
         <f>VLOOKUP(E281,[1]Лист1!$D:$M,10,0)</f>
@@ -12991,7 +12991,7 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
-        <v>944</v>
+        <v>431</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>340</v>
@@ -13015,7 +13015,7 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
-        <v>339</v>
+        <v>944</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>340</v>
@@ -13039,31 +13039,31 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
-        <v>646</v>
+        <v>339</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>353</v>
+        <v>565</v>
       </c>
       <c r="D284" s="4">
-        <v>4301080154</v>
+        <v>4301135540</v>
       </c>
       <c r="E284" s="3">
-        <v>4607111036834</v>
+        <v>4607111035646</v>
       </c>
       <c r="F284" s="5" t="s">
-        <v>354</v>
+        <v>566</v>
       </c>
       <c r="G284" s="1">
         <f>VLOOKUP(E284,[1]Лист1!$D:$M,10,0)</f>
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
-        <v>354</v>
+        <v>646</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>352</v>
@@ -13087,7 +13087,7 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>352</v>
@@ -13111,22 +13111,22 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D287" s="4">
-        <v>4301070941</v>
+        <v>4301080154</v>
       </c>
       <c r="E287" s="3">
-        <v>4607111036162</v>
+        <v>4607111036834</v>
       </c>
       <c r="F287" s="5" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G287" s="1">
         <f>VLOOKUP(E287,[1]Лист1!$D:$M,10,0)</f>
@@ -13135,46 +13135,46 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D288" s="4">
-        <v>4301070826</v>
+        <v>4301070941</v>
       </c>
       <c r="E288" s="3">
-        <v>4607111035752</v>
+        <v>4607111036162</v>
       </c>
       <c r="F288" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G288" s="1">
         <f>VLOOKUP(E288,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D289" s="4">
-        <v>4301070966</v>
+        <v>4301070826</v>
       </c>
       <c r="E289" s="3">
-        <v>4607111038135</v>
+        <v>4607111035752</v>
       </c>
       <c r="F289" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G289" s="1">
         <f>VLOOKUP(E289,[1]Лист1!$D:$M,10,0)</f>
@@ -13183,7 +13183,7 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>368</v>
@@ -13207,7 +13207,7 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
-        <v>367</v>
+        <v>451</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>368</v>
@@ -13231,55 +13231,55 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D292" s="4">
-        <v>4301070911</v>
+        <v>4301070966</v>
       </c>
       <c r="E292" s="3">
-        <v>4607111036278</v>
+        <v>4607111038135</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G292" s="1">
         <f>VLOOKUP(E292,[1]Лист1!$D:$M,10,0)</f>
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D293" s="4">
-        <v>4301131019</v>
+        <v>4301070911</v>
       </c>
       <c r="E293" s="3">
-        <v>4640242180427</v>
+        <v>4607111036278</v>
       </c>
       <c r="F293" s="5" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="G293" s="1">
         <f>VLOOKUP(E293,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
-        <v>165</v>
+        <v>393</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>375</v>
@@ -13303,7 +13303,7 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
-        <v>377</v>
+        <v>165</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>375</v>
@@ -13327,7 +13327,7 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>375</v>
@@ -13351,22 +13351,22 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
-        <v>425</v>
+        <v>374</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>792</v>
+        <v>375</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>793</v>
+        <v>376</v>
       </c>
       <c r="D297" s="4">
-        <v>4301132170</v>
+        <v>4301131019</v>
       </c>
       <c r="E297" s="3">
-        <v>4607111038487</v>
+        <v>4640242180427</v>
       </c>
       <c r="F297" s="5" t="s">
-        <v>794</v>
+        <v>377</v>
       </c>
       <c r="G297" s="1">
         <f>VLOOKUP(E297,[1]Лист1!$D:$M,10,0)</f>
@@ -13375,7 +13375,7 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>792</v>
@@ -13399,7 +13399,7 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>792</v>
@@ -13423,7 +13423,7 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
-        <v>424</v>
+        <v>456</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>792</v>
@@ -13447,22 +13447,22 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>435</v>
+        <v>792</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>436</v>
+        <v>793</v>
       </c>
       <c r="D301" s="4">
-        <v>4301070884</v>
+        <v>4301132170</v>
       </c>
       <c r="E301" s="3">
-        <v>4607111036315</v>
+        <v>4607111038487</v>
       </c>
       <c r="F301" s="5" t="s">
-        <v>437</v>
+        <v>794</v>
       </c>
       <c r="G301" s="1">
         <f>VLOOKUP(E301,[1]Лист1!$D:$M,10,0)</f>
@@ -13471,7 +13471,7 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>435</v>
@@ -13495,22 +13495,22 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D303" s="4">
-        <v>4301133002</v>
+        <v>4301070884</v>
       </c>
       <c r="E303" s="3">
-        <v>4607111035783</v>
+        <v>4607111036315</v>
       </c>
       <c r="F303" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G303" s="1">
         <f>VLOOKUP(E303,[1]Лист1!$D:$M,10,0)</f>
@@ -13519,22 +13519,22 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D304" s="4">
-        <v>4301070958</v>
+        <v>4301133002</v>
       </c>
       <c r="E304" s="3">
-        <v>4607111038098</v>
+        <v>4607111035783</v>
       </c>
       <c r="F304" s="5" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G304" s="1">
         <f>VLOOKUP(E304,[1]Лист1!$D:$M,10,0)</f>
@@ -13543,30 +13543,31 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>515</v>
+        <v>447</v>
       </c>
       <c r="D305" s="4">
-        <v>4301135318</v>
+        <v>4301070958</v>
       </c>
       <c r="E305" s="3">
-        <v>4607111037480</v>
+        <v>4607111038098</v>
       </c>
       <c r="F305" s="5" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="G305" s="1">
+        <f>VLOOKUP(E305,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
-        <v>496</v>
+        <v>464</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>463</v>
@@ -13589,7 +13590,7 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>463</v>
@@ -13612,22 +13613,22 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D308" s="4">
-        <v>4301135319</v>
+        <v>4301135318</v>
       </c>
       <c r="E308" s="3">
-        <v>4607111037473</v>
+        <v>4607111037480</v>
       </c>
       <c r="F308" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G308" s="1">
         <v>180</v>
@@ -13635,7 +13636,7 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>466</v>
@@ -13658,7 +13659,7 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>466</v>
@@ -13681,28 +13682,30 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>472</v>
+        <v>514</v>
       </c>
       <c r="D311" s="4">
-        <v>4301135198</v>
+        <v>4301135319</v>
       </c>
       <c r="E311" s="3">
-        <v>4640242180663</v>
+        <v>4607111037473</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="G311" s="1"/>
+        <v>467</v>
+      </c>
+      <c r="G311" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>471</v>
@@ -13723,51 +13726,49 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="D313" s="4">
-        <v>4301135317</v>
+        <v>4301135198</v>
       </c>
       <c r="E313" s="3">
-        <v>4607111039057</v>
+        <v>4640242180663</v>
       </c>
       <c r="F313" s="5" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="G313" s="1"/>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D314" s="4">
-        <v>4301070963</v>
+        <v>4301135317</v>
       </c>
       <c r="E314" s="3">
-        <v>4607111038630</v>
+        <v>4607111039057</v>
       </c>
       <c r="F314" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="G314" s="1">
-        <v>180</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="G314" s="1"/>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>485</v>
@@ -13788,24 +13789,24 @@
         <v>180</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D316" s="4">
-        <v>4301070960</v>
+        <v>4301070963</v>
       </c>
       <c r="E316" s="3">
-        <v>4607111038623</v>
+        <v>4607111038630</v>
       </c>
       <c r="F316" s="5" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G316" s="1">
         <v>180</v>
@@ -13813,7 +13814,7 @@
     </row>
     <row r="317" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>489</v>
@@ -13836,7 +13837,7 @@
     </row>
     <row r="318" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>489</v>
@@ -13859,7 +13860,7 @@
     </row>
     <row r="319" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>489</v>
@@ -13880,24 +13881,24 @@
         <v>180</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="B320" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="C320" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="D320" s="13">
-        <v>4301070997</v>
-      </c>
-      <c r="E320" s="14">
-        <v>4607111038586</v>
-      </c>
-      <c r="F320" s="15" t="s">
-        <v>495</v>
+        <v>488</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D320" s="4">
+        <v>4301070960</v>
+      </c>
+      <c r="E320" s="3">
+        <v>4607111038623</v>
+      </c>
+      <c r="F320" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="G320" s="1">
         <v>180</v>
@@ -13905,7 +13906,7 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B321" s="12" t="s">
         <v>493</v>
@@ -13928,7 +13929,7 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="B322" s="12" t="s">
         <v>493</v>
@@ -13951,7 +13952,7 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B323" s="12" t="s">
         <v>493</v>
@@ -13974,30 +13975,30 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="B324" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="C324" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="D324" s="4">
-        <v>4301190046</v>
-      </c>
-      <c r="E324" s="3">
-        <v>4607111038951</v>
-      </c>
-      <c r="F324" s="5" t="s">
-        <v>509</v>
+        <v>492</v>
+      </c>
+      <c r="B324" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="C324" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="D324" s="13">
+        <v>4301070997</v>
+      </c>
+      <c r="E324" s="14">
+        <v>4607111038586</v>
+      </c>
+      <c r="F324" s="15" t="s">
+        <v>495</v>
       </c>
       <c r="G324" s="1">
-        <v>365</v>
+        <v>180</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>507</v>
@@ -14020,30 +14021,30 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D326" s="4">
-        <v>4301070996</v>
+        <v>4301190046</v>
       </c>
       <c r="E326" s="3">
-        <v>4607111038654</v>
+        <v>4607111038951</v>
       </c>
       <c r="F326" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G326" s="1">
-        <v>180</v>
+        <v>365</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>512</v>
@@ -14066,28 +14067,30 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
-        <v>548</v>
+        <v>511</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D328" s="4">
-        <v>4301071021</v>
+        <v>4301070996</v>
       </c>
       <c r="E328" s="3">
-        <v>4640242181325</v>
+        <v>4607111038654</v>
       </c>
       <c r="F328" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="G328" s="1"/>
+        <v>511</v>
+      </c>
+      <c r="G328" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>518</v>
@@ -14108,7 +14111,7 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>518</v>
@@ -14129,7 +14132,7 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
-        <v>517</v>
+        <v>574</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>518</v>
@@ -14150,73 +14153,73 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="10" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D332" s="4">
-        <v>4301135309</v>
+        <v>4301071021</v>
       </c>
       <c r="E332" s="3">
-        <v>4640242181332</v>
+        <v>4640242181325</v>
       </c>
       <c r="F332" s="5" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G332" s="1"/>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="10" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>318</v>
+        <v>522</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>319</v>
+        <v>523</v>
       </c>
       <c r="D333" s="4">
-        <v>4301070977</v>
+        <v>4301135309</v>
       </c>
       <c r="E333" s="3">
-        <v>4607111037411</v>
+        <v>4640242181332</v>
       </c>
       <c r="F333" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="G333" s="1">
-        <f>VLOOKUP(E333,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="G333" s="1"/>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>532</v>
+        <v>318</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>533</v>
+        <v>319</v>
       </c>
       <c r="D334" s="4">
-        <v>4301071014</v>
+        <v>4301070977</v>
       </c>
       <c r="E334" s="3">
-        <v>4640242181264</v>
+        <v>4607111037411</v>
       </c>
       <c r="F334" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="G334" s="1"/>
+        <v>320</v>
+      </c>
+      <c r="G334" s="1">
+        <f>VLOOKUP(E334,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="10" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>532</v>
@@ -14237,28 +14240,28 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="10" t="s">
-        <v>568</v>
+        <v>531</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D336" s="4">
-        <v>4301135310</v>
+        <v>4301071014</v>
       </c>
       <c r="E336" s="3">
-        <v>4640242181318</v>
+        <v>4640242181264</v>
       </c>
       <c r="F336" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G336" s="1"/>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
-        <v>608</v>
+        <v>568</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>537</v>
@@ -14279,7 +14282,7 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="10" t="s">
-        <v>536</v>
+        <v>608</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>537</v>
@@ -14300,28 +14303,28 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="10" t="s">
-        <v>569</v>
+        <v>536</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D339" s="4">
-        <v>4301135306</v>
+        <v>4301135310</v>
       </c>
       <c r="E339" s="3">
-        <v>4640242181578</v>
+        <v>4640242181318</v>
       </c>
       <c r="F339" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G339" s="1"/>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="10" t="s">
-        <v>638</v>
+        <v>569</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>540</v>
@@ -14342,7 +14345,7 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="10" t="s">
-        <v>539</v>
+        <v>638</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>540</v>
@@ -14363,91 +14366,91 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="10" t="s">
-        <v>573</v>
-      </c>
-      <c r="B342" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="C342" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="D342" s="13">
-        <v>4301135305</v>
-      </c>
-      <c r="E342" s="14">
-        <v>4640242181394</v>
-      </c>
-      <c r="F342" s="15" t="s">
-        <v>542</v>
+        <v>539</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D342" s="4">
+        <v>4301135306</v>
+      </c>
+      <c r="E342" s="3">
+        <v>4640242181578</v>
+      </c>
+      <c r="F342" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="G342" s="1"/>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="B343" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B343" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="C343" s="3" t="s">
+      <c r="C343" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="D343" s="4">
+      <c r="D343" s="13">
         <v>4301135305</v>
       </c>
-      <c r="E343" s="3">
+      <c r="E343" s="14">
         <v>4640242181394</v>
       </c>
-      <c r="F343" s="5" t="s">
-        <v>611</v>
+      <c r="F343" s="15" t="s">
+        <v>542</v>
       </c>
       <c r="G343" s="1"/>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="B344" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="B344" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="C344" s="12" t="s">
+      <c r="C344" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="D344" s="13">
+      <c r="D344" s="4">
         <v>4301135305</v>
       </c>
-      <c r="E344" s="14">
+      <c r="E344" s="3">
         <v>4640242181394</v>
       </c>
-      <c r="F344" s="15" t="s">
-        <v>542</v>
+      <c r="F344" s="5" t="s">
+        <v>611</v>
       </c>
       <c r="G344" s="1"/>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="B345" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="C345" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="D345" s="4">
-        <v>4301070993</v>
-      </c>
-      <c r="E345" s="3">
-        <v>4640242180670</v>
-      </c>
-      <c r="F345" s="5" t="s">
-        <v>545</v>
+        <v>542</v>
+      </c>
+      <c r="B345" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="C345" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="D345" s="13">
+        <v>4301135305</v>
+      </c>
+      <c r="E345" s="14">
+        <v>4640242181394</v>
+      </c>
+      <c r="F345" s="15" t="s">
+        <v>542</v>
       </c>
       <c r="G345" s="1"/>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="10" t="s">
-        <v>607</v>
+        <v>585</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>546</v>
@@ -14468,7 +14471,7 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="10" t="s">
-        <v>545</v>
+        <v>607</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>546</v>
@@ -14489,28 +14492,28 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="10" t="s">
-        <v>583</v>
+        <v>545</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="D348" s="4">
-        <v>4301135549</v>
+        <v>4301070993</v>
       </c>
       <c r="E348" s="3">
-        <v>4607111039095</v>
+        <v>4640242180670</v>
       </c>
       <c r="F348" s="5" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="G348" s="1"/>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="10" t="s">
-        <v>773</v>
+        <v>583</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>556</v>
@@ -14531,7 +14534,7 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="10" t="s">
-        <v>555</v>
+        <v>773</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>556</v>
@@ -14552,91 +14555,91 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="10" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="D351" s="4">
-        <v>4301132104</v>
+        <v>4301135549</v>
       </c>
       <c r="E351" s="3">
-        <v>4640242181219</v>
+        <v>4607111039095</v>
       </c>
       <c r="F351" s="5" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="G351" s="1"/>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="10" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D352" s="4">
-        <v>4301070991</v>
+        <v>4301132104</v>
       </c>
       <c r="E352" s="3">
-        <v>4607111038180</v>
+        <v>4640242181219</v>
       </c>
       <c r="F352" s="5" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G352" s="1"/>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="10" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>600</v>
+        <v>581</v>
       </c>
       <c r="D353" s="4">
-        <v>4301135304</v>
+        <v>4301070991</v>
       </c>
       <c r="E353" s="3">
-        <v>4640242181240</v>
+        <v>4607111038180</v>
       </c>
       <c r="F353" s="5" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="G353" s="1"/>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="10" t="s">
-        <v>647</v>
+        <v>598</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D354" s="4">
-        <v>4301135374</v>
+        <v>4301135304</v>
       </c>
       <c r="E354" s="3">
-        <v>4640242181424</v>
+        <v>4640242181240</v>
       </c>
       <c r="F354" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G354" s="1"/>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="10" t="s">
-        <v>609</v>
+        <v>647</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>604</v>
@@ -14657,7 +14660,7 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="10" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>604</v>
@@ -14678,7 +14681,7 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="10" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>604</v>
@@ -14699,28 +14702,28 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="10" t="s">
-        <v>687</v>
+        <v>603</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="D358" s="4">
-        <v>4301071046</v>
+        <v>4301135374</v>
       </c>
       <c r="E358" s="3">
-        <v>4607111039354</v>
+        <v>4640242181424</v>
       </c>
       <c r="F358" s="5" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="G358" s="1"/>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="10" t="s">
-        <v>615</v>
+        <v>687</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>613</v>
@@ -14741,7 +14744,7 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="10" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>613</v>
@@ -14762,28 +14765,28 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="10" t="s">
-        <v>688</v>
+        <v>612</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D361" s="4">
-        <v>4301071047</v>
+        <v>4301071046</v>
       </c>
       <c r="E361" s="3">
-        <v>4607111039330</v>
+        <v>4607111039354</v>
       </c>
       <c r="F361" s="5" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="G361" s="1"/>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="10" t="s">
-        <v>742</v>
+        <v>688</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>617</v>
@@ -14804,7 +14807,7 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="10" t="s">
-        <v>619</v>
+        <v>742</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>617</v>
@@ -14825,7 +14828,7 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="10" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>617</v>
@@ -14846,28 +14849,28 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="10" t="s">
-        <v>669</v>
+        <v>616</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D365" s="4">
-        <v>4301071051</v>
+        <v>4301071047</v>
       </c>
       <c r="E365" s="3">
-        <v>4607111039262</v>
+        <v>4607111039330</v>
       </c>
       <c r="F365" s="5" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G365" s="1"/>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="10" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>621</v>
@@ -14888,7 +14891,7 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="10" t="s">
-        <v>623</v>
+        <v>682</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>621</v>
@@ -14909,7 +14912,7 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="10" t="s">
-        <v>721</v>
+        <v>623</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>621</v>
@@ -14930,7 +14933,7 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="10" t="s">
-        <v>620</v>
+        <v>721</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>621</v>
@@ -14951,28 +14954,28 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="10" t="s">
-        <v>668</v>
+        <v>620</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D370" s="4">
-        <v>4301071038</v>
+        <v>4301071051</v>
       </c>
       <c r="E370" s="3">
-        <v>4607111039248</v>
+        <v>4607111039262</v>
       </c>
       <c r="F370" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G370" s="1"/>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="10" t="s">
-        <v>694</v>
+        <v>668</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>625</v>
@@ -14993,7 +14996,7 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="10" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>625</v>
@@ -15014,7 +15017,7 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="10" t="s">
-        <v>627</v>
+        <v>683</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>625</v>
@@ -15035,7 +15038,7 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="10" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>625</v>
@@ -15056,28 +15059,28 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="10" t="s">
-        <v>671</v>
+        <v>624</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D375" s="4">
-        <v>4301071049</v>
+        <v>4301071038</v>
       </c>
       <c r="E375" s="3">
-        <v>4607111039293</v>
+        <v>4607111039248</v>
       </c>
       <c r="F375" s="5" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="G375" s="1"/>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="10" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>629</v>
@@ -15098,7 +15101,7 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="10" t="s">
-        <v>631</v>
+        <v>684</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>629</v>
@@ -15119,7 +15122,7 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="10" t="s">
-        <v>722</v>
+        <v>631</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>629</v>
@@ -15140,7 +15143,7 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="10" t="s">
-        <v>628</v>
+        <v>722</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>629</v>
@@ -15161,28 +15164,28 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="10" t="s">
-        <v>670</v>
+        <v>628</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D380" s="4">
-        <v>4301071039</v>
+        <v>4301071049</v>
       </c>
       <c r="E380" s="3">
-        <v>4607111039279</v>
+        <v>4607111039293</v>
       </c>
       <c r="F380" s="5" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="G380" s="1"/>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="10" t="s">
-        <v>695</v>
+        <v>670</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>633</v>
@@ -15203,7 +15206,7 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="10" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>633</v>
@@ -15224,7 +15227,7 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="10" t="s">
-        <v>635</v>
+        <v>685</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>633</v>
@@ -15245,7 +15248,7 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="10" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>633</v>
@@ -15266,28 +15269,28 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="10" t="s">
-        <v>654</v>
+        <v>632</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>652</v>
+        <v>633</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>653</v>
+        <v>634</v>
       </c>
       <c r="D385" s="4">
-        <v>4301135696</v>
+        <v>4301071039</v>
       </c>
       <c r="E385" s="3">
-        <v>4620207490235</v>
+        <v>4607111039279</v>
       </c>
       <c r="F385" s="5" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
       <c r="G385" s="1"/>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="10" t="s">
-        <v>680</v>
+        <v>654</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>652</v>
@@ -15308,7 +15311,7 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="10" t="s">
-        <v>651</v>
+        <v>680</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>652</v>
@@ -15329,28 +15332,28 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="10" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="D388" s="4">
-        <v>4301135707</v>
+        <v>4301135696</v>
       </c>
       <c r="E388" s="3">
-        <v>4620207490198</v>
+        <v>4620207490235</v>
       </c>
       <c r="F388" s="5" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="G388" s="1"/>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="10" t="s">
-        <v>716</v>
+        <v>662</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>663</v>
@@ -15371,7 +15374,7 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="10" t="s">
-        <v>696</v>
+        <v>716</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>663</v>
@@ -15392,28 +15395,28 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="10" t="s">
-        <v>665</v>
+        <v>696</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D391" s="4">
-        <v>4301135697</v>
+        <v>4301135707</v>
       </c>
       <c r="E391" s="3">
-        <v>4620207490259</v>
+        <v>4620207490198</v>
       </c>
       <c r="F391" s="5" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="G391" s="1"/>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="10" t="s">
-        <v>724</v>
+        <v>665</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>666</v>
@@ -15434,7 +15437,7 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="10" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>666</v>
@@ -15455,28 +15458,28 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="10" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="D394" s="4">
-        <v>4301071044</v>
+        <v>4301135697</v>
       </c>
       <c r="E394" s="3">
-        <v>4607111039385</v>
+        <v>4620207490259</v>
       </c>
       <c r="F394" s="5" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="G394" s="1"/>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="10" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>673</v>
@@ -15497,7 +15500,7 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="10" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>673</v>
@@ -15518,7 +15521,7 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="10" t="s">
-        <v>882</v>
+        <v>675</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>673</v>
@@ -15539,7 +15542,7 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="10" t="s">
-        <v>672</v>
+        <v>882</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>673</v>
@@ -15560,28 +15563,28 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="10" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D399" s="4">
-        <v>4301071045</v>
+        <v>4301071044</v>
       </c>
       <c r="E399" s="3">
-        <v>4607111039392</v>
+        <v>4607111039385</v>
       </c>
       <c r="F399" s="5" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="G399" s="1"/>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="10" t="s">
-        <v>717</v>
+        <v>676</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>677</v>
@@ -15602,7 +15605,7 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="10" t="s">
-        <v>698</v>
+        <v>717</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>677</v>
@@ -15623,28 +15626,28 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="10" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="D402" s="4">
-        <v>4301071031</v>
+        <v>4301071045</v>
       </c>
       <c r="E402" s="3">
-        <v>4607111038982</v>
+        <v>4607111039392</v>
       </c>
       <c r="F402" s="5" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="G402" s="1"/>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="10" t="s">
-        <v>741</v>
+        <v>692</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>690</v>
@@ -15665,7 +15668,7 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="10" t="s">
-        <v>689</v>
+        <v>741</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>690</v>
@@ -15686,30 +15689,28 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="10" t="s">
-        <v>782</v>
+        <v>689</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>902</v>
+        <v>690</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>903</v>
+        <v>691</v>
       </c>
       <c r="D405" s="4">
-        <v>4301135591</v>
+        <v>4301071031</v>
       </c>
       <c r="E405" s="3">
-        <v>4607111036568</v>
+        <v>4607111038982</v>
       </c>
       <c r="F405" s="5" t="s">
-        <v>904</v>
-      </c>
-      <c r="G405" s="1">
-        <v>180</v>
-      </c>
+        <v>692</v>
+      </c>
+      <c r="G405" s="1"/>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="10" t="s">
-        <v>876</v>
+        <v>782</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>902</v>
@@ -15732,7 +15733,7 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="10" t="s">
-        <v>711</v>
+        <v>876</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>902</v>
@@ -15755,28 +15756,30 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="10" t="s">
-        <v>908</v>
+        <v>711</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>714</v>
+        <v>902</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>715</v>
+        <v>903</v>
       </c>
       <c r="D408" s="4">
-        <v>4301135402</v>
+        <v>4301135591</v>
       </c>
       <c r="E408" s="3">
-        <v>4640242181493</v>
+        <v>4607111036568</v>
       </c>
       <c r="F408" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="G408" s="1"/>
+        <v>904</v>
+      </c>
+      <c r="G408" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="10" t="s">
-        <v>713</v>
+        <v>908</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>714</v>
@@ -15797,28 +15800,28 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="10" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D410" s="4">
-        <v>4301135607</v>
+        <v>4301135402</v>
       </c>
       <c r="E410" s="3">
-        <v>4607111039613</v>
+        <v>4640242181493</v>
       </c>
       <c r="F410" s="5" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="G410" s="1"/>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="10" t="s">
-        <v>743</v>
+        <v>720</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>718</v>
@@ -15839,7 +15842,7 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="10" t="s">
-        <v>779</v>
+        <v>743</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>718</v>
@@ -15860,7 +15863,7 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="10" t="s">
-        <v>725</v>
+        <v>779</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>718</v>
@@ -15881,28 +15884,28 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="10" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="D414" s="4">
-        <v>4301190068</v>
+        <v>4301135607</v>
       </c>
       <c r="E414" s="3">
-        <v>4620207490365</v>
+        <v>4607111039613</v>
       </c>
       <c r="F414" s="5" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="G414" s="1"/>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="10" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>727</v>
@@ -15923,7 +15926,7 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="10" t="s">
-        <v>726</v>
+        <v>753</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>727</v>
@@ -15944,28 +15947,28 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="10" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D417" s="4">
-        <v>4301190070</v>
+        <v>4301190068</v>
       </c>
       <c r="E417" s="3">
-        <v>4620207490419</v>
+        <v>4620207490365</v>
       </c>
       <c r="F417" s="5" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="G417" s="1"/>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="10" t="s">
-        <v>729</v>
+        <v>740</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>730</v>
@@ -15986,30 +15989,28 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="10" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="D419" s="4">
-        <v>4301071032</v>
+        <v>4301190070</v>
       </c>
       <c r="E419" s="3">
-        <v>4607111038999</v>
+        <v>4620207490419</v>
       </c>
       <c r="F419" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="G419" s="1">
-        <v>180</v>
-      </c>
+        <v>729</v>
+      </c>
+      <c r="G419" s="1"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="10" t="s">
-        <v>799</v>
+        <v>738</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>736</v>
@@ -16032,7 +16033,7 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="10" t="s">
-        <v>880</v>
+        <v>799</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>736</v>
@@ -16055,7 +16056,7 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="10" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>736</v>
@@ -16078,7 +16079,7 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="10" t="s">
-        <v>735</v>
+        <v>881</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>736</v>
@@ -16101,51 +16102,51 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="10" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>756</v>
+        <v>737</v>
       </c>
       <c r="D424" s="4">
-        <v>4301135404</v>
+        <v>4301071032</v>
       </c>
       <c r="E424" s="3">
-        <v>4640242181516</v>
+        <v>4607111038999</v>
       </c>
       <c r="F424" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="G424" s="1"/>
+        <v>738</v>
+      </c>
+      <c r="G424" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="10" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D425" s="4">
-        <v>4301071090</v>
+        <v>4301135404</v>
       </c>
       <c r="E425" s="3">
-        <v>4620207490075</v>
+        <v>4640242181516</v>
       </c>
       <c r="F425" s="5" t="s">
-        <v>757</v>
-      </c>
-      <c r="G425" s="1">
-        <v>180</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="G425" s="1"/>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="10" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>758</v>
@@ -16168,22 +16169,22 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="10" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D427" s="4">
-        <v>4301071092</v>
+        <v>4301071090</v>
       </c>
       <c r="E427" s="3">
-        <v>4620207490174</v>
+        <v>4620207490075</v>
       </c>
       <c r="F427" s="5" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G427" s="1">
         <v>180</v>
@@ -16191,7 +16192,7 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="10" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>761</v>
@@ -16214,7 +16215,7 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="10" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>761</v>
@@ -16237,22 +16238,22 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="10" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D430" s="4">
-        <v>4301071091</v>
+        <v>4301071092</v>
       </c>
       <c r="E430" s="3">
-        <v>4620207490044</v>
+        <v>4620207490174</v>
       </c>
       <c r="F430" s="5" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="G430" s="1">
         <v>180</v>
@@ -16260,7 +16261,7 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="10" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>764</v>
@@ -16283,72 +16284,72 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="10" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="D432" s="4">
-        <v>4301132044</v>
+        <v>4301071091</v>
       </c>
       <c r="E432" s="3">
-        <v>4607111036971</v>
+        <v>4620207490044</v>
       </c>
       <c r="F432" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="G432" s="1"/>
+        <v>763</v>
+      </c>
+      <c r="G432" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="10" t="s">
-        <v>795</v>
+        <v>774</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>796</v>
+        <v>775</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>797</v>
+        <v>776</v>
       </c>
       <c r="D433" s="4">
-        <v>4301135127</v>
+        <v>4301132044</v>
       </c>
       <c r="E433" s="3">
-        <v>4607111036995</v>
+        <v>4607111036971</v>
       </c>
       <c r="F433" s="5" t="s">
-        <v>798</v>
+        <v>777</v>
       </c>
       <c r="G433" s="1"/>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="10" t="s">
-        <v>894</v>
+        <v>795</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>884</v>
+        <v>796</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>885</v>
+        <v>797</v>
       </c>
       <c r="D434" s="4">
-        <v>4301135670</v>
+        <v>4301135127</v>
       </c>
       <c r="E434" s="3">
-        <v>4620207490983</v>
+        <v>4607111036995</v>
       </c>
       <c r="F434" s="5" t="s">
-        <v>893</v>
-      </c>
-      <c r="G434" s="1">
-        <v>180</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="G434" s="1"/>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="10" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>884</v>
@@ -16371,7 +16372,7 @@
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="10" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>884</v>
@@ -16394,7 +16395,7 @@
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="10" t="s">
-        <v>883</v>
+        <v>906</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>884</v>
@@ -16417,28 +16418,30 @@
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="10" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D438" s="4">
-        <v>4301071074</v>
+        <v>4301135670</v>
       </c>
       <c r="E438" s="3">
-        <v>4620207491157</v>
+        <v>4620207490983</v>
       </c>
       <c r="F438" s="5" t="s">
-        <v>886</v>
-      </c>
-      <c r="G438" s="1"/>
+        <v>893</v>
+      </c>
+      <c r="G438" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="10" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>887</v>
@@ -16459,7 +16462,7 @@
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="10" t="s">
-        <v>886</v>
+        <v>901</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>887</v>
@@ -16480,28 +16483,28 @@
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="10" t="s">
-        <v>921</v>
+        <v>886</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>910</v>
+        <v>887</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>911</v>
+        <v>888</v>
       </c>
       <c r="D441" s="4">
-        <v>4301135763</v>
+        <v>4301071074</v>
       </c>
       <c r="E441" s="3">
-        <v>4620207491027</v>
+        <v>4620207491157</v>
       </c>
       <c r="F441" s="5" t="s">
-        <v>912</v>
+        <v>886</v>
       </c>
       <c r="G441" s="1"/>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="10" t="s">
-        <v>912</v>
+        <v>921</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>910</v>
@@ -16522,7 +16525,7 @@
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="10" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="B443" s="3" t="s">
         <v>910</v>
@@ -16543,7 +16546,7 @@
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="10" t="s">
-        <v>909</v>
+        <v>922</v>
       </c>
       <c r="B444" s="3" t="s">
         <v>910</v>
@@ -16564,88 +16567,85 @@
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="10" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D445" s="4">
-        <v>4301135665</v>
+        <v>4301135763</v>
       </c>
       <c r="E445" s="3">
-        <v>4607111039729</v>
+        <v>4620207491027</v>
       </c>
       <c r="F445" s="5" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="G445" s="1"/>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="10" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D446" s="4">
-        <v>4301135702</v>
+        <v>4301135665</v>
       </c>
       <c r="E446" s="3">
-        <v>4620207490228</v>
+        <v>4607111039729</v>
       </c>
       <c r="F446" s="5" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="G446" s="1"/>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="10" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>758</v>
+        <v>918</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>759</v>
+        <v>919</v>
       </c>
       <c r="D447" s="4">
-        <v>4301071090</v>
+        <v>4301135702</v>
       </c>
       <c r="E447" s="3">
-        <v>4620207490075</v>
+        <v>4620207490228</v>
       </c>
       <c r="F447" s="5" t="s">
-        <v>757</v>
+        <v>920</v>
       </c>
       <c r="G447" s="1"/>
-      <c r="H447" s="16" t="s">
-        <v>932</v>
-      </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="D448" s="4">
-        <v>4301071091</v>
+        <v>4301071090</v>
       </c>
       <c r="E448" s="3">
-        <v>4620207490044</v>
+        <v>4620207490075</v>
       </c>
       <c r="F448" s="5" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="G448" s="1"/>
       <c r="H448" s="16" t="s">
@@ -16654,22 +16654,22 @@
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="10" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>736</v>
+        <v>764</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>737</v>
+        <v>765</v>
       </c>
       <c r="D449" s="4">
-        <v>4301071032</v>
+        <v>4301071091</v>
       </c>
       <c r="E449" s="3">
-        <v>4607111038999</v>
+        <v>4620207490044</v>
       </c>
       <c r="F449" s="5" t="s">
-        <v>738</v>
+        <v>763</v>
       </c>
       <c r="G449" s="1"/>
       <c r="H449" s="16" t="s">
@@ -16678,22 +16678,22 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="10" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>673</v>
+        <v>736</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>674</v>
+        <v>737</v>
       </c>
       <c r="D450" s="4">
-        <v>4301071044</v>
+        <v>4301071032</v>
       </c>
       <c r="E450" s="3">
-        <v>4607111039385</v>
+        <v>4607111038999</v>
       </c>
       <c r="F450" s="5" t="s">
-        <v>675</v>
+        <v>738</v>
       </c>
       <c r="G450" s="1"/>
       <c r="H450" s="16" t="s">
@@ -16702,22 +16702,22 @@
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="10" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>625</v>
+        <v>673</v>
       </c>
       <c r="C451" s="3" t="s">
-        <v>626</v>
+        <v>674</v>
       </c>
       <c r="D451" s="4">
-        <v>4301071038</v>
+        <v>4301071044</v>
       </c>
       <c r="E451" s="3">
-        <v>4607111039248</v>
+        <v>4607111039385</v>
       </c>
       <c r="F451" s="5" t="s">
-        <v>627</v>
+        <v>675</v>
       </c>
       <c r="G451" s="1"/>
       <c r="H451" s="16" t="s">
@@ -16726,22 +16726,22 @@
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="10" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D452" s="4">
-        <v>4301071051</v>
+        <v>4301071038</v>
       </c>
       <c r="E452" s="3">
-        <v>4607111039262</v>
+        <v>4607111039248</v>
       </c>
       <c r="F452" s="5" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="G452" s="1"/>
       <c r="H452" s="16" t="s">
@@ -16750,22 +16750,22 @@
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="10" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="D453" s="4">
-        <v>4301071049</v>
+        <v>4301071051</v>
       </c>
       <c r="E453" s="3">
-        <v>4607111039293</v>
+        <v>4607111039262</v>
       </c>
       <c r="F453" s="5" t="s">
-        <v>931</v>
+        <v>623</v>
       </c>
       <c r="G453" s="1"/>
       <c r="H453" s="16" t="s">
@@ -16774,22 +16774,22 @@
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D454" s="4">
-        <v>4301071039</v>
+        <v>4301071049</v>
       </c>
       <c r="E454" s="3">
-        <v>4607111039279</v>
+        <v>4607111039293</v>
       </c>
       <c r="F454" s="5" t="s">
-        <v>635</v>
+        <v>931</v>
       </c>
       <c r="G454" s="1"/>
       <c r="H454" s="16" t="s">
@@ -16798,97 +16798,100 @@
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="10" t="s">
-        <v>650</v>
+        <v>930</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>954</v>
+        <v>633</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>955</v>
+        <v>634</v>
       </c>
       <c r="D455" s="4">
-        <v>4301135760</v>
+        <v>4301071039</v>
       </c>
       <c r="E455" s="3">
-        <v>4620207491010</v>
+        <v>4607111039279</v>
       </c>
       <c r="F455" s="5" t="s">
-        <v>956</v>
+        <v>635</v>
       </c>
       <c r="G455" s="1"/>
       <c r="H455" s="16" t="s">
-        <v>950</v>
+        <v>932</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="10" t="s">
-        <v>746</v>
+        <v>650</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>744</v>
+        <v>954</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>745</v>
+        <v>955</v>
       </c>
       <c r="D456" s="4">
-        <v>4301132190</v>
+        <v>4301135760</v>
       </c>
       <c r="E456" s="3">
-        <v>4607111036537</v>
+        <v>4620207491010</v>
       </c>
       <c r="F456" s="5" t="s">
-        <v>746</v>
+        <v>956</v>
       </c>
       <c r="G456" s="1"/>
       <c r="H456" s="16" t="s">
-        <v>932</v>
+        <v>950</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="10" t="s">
-        <v>935</v>
+        <v>746</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>936</v>
+        <v>744</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>937</v>
+        <v>745</v>
       </c>
       <c r="D457" s="4">
-        <v>4301135768</v>
+        <v>4301132190</v>
       </c>
       <c r="E457" s="3">
-        <v>4620207491034</v>
+        <v>4607111036537</v>
       </c>
       <c r="F457" s="5" t="s">
-        <v>935</v>
+        <v>746</v>
       </c>
       <c r="G457" s="1"/>
+      <c r="H457" s="16" t="s">
+        <v>932</v>
+      </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="10" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D458" s="4">
-        <v>4301071097</v>
+        <v>4301135768</v>
       </c>
       <c r="E458" s="3">
-        <v>4620207491096</v>
+        <v>4620207491034</v>
       </c>
       <c r="F458" s="5" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="G458" s="1"/>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="10" t="s">
-        <v>938</v>
+        <v>946</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>939</v>
@@ -16909,28 +16912,28 @@
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="10" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D460" s="4">
-        <v>4301132227</v>
+        <v>4301071097</v>
       </c>
       <c r="E460" s="3">
-        <v>4620207491133</v>
+        <v>4620207491096</v>
       </c>
       <c r="F460" s="5" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="G460" s="1"/>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="10" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>942</v>
@@ -16951,67 +16954,64 @@
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="10" t="s">
+        <v>941</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="D462" s="4">
+        <v>4301132227</v>
+      </c>
+      <c r="E462" s="3">
+        <v>4620207491133</v>
+      </c>
+      <c r="F462" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="G462" s="1"/>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A463" s="10" t="s">
         <v>962</v>
       </c>
-      <c r="B462" s="3" t="s">
+      <c r="B463" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="C462" s="3" t="s">
+      <c r="C463" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="D462" s="4">
+      <c r="D463" s="4">
         <v>4301135753</v>
       </c>
-      <c r="E462" s="3">
+      <c r="E463" s="3">
         <v>4620207490914</v>
       </c>
-      <c r="F462" s="5" t="s">
+      <c r="F463" s="5" t="s">
         <v>965</v>
       </c>
-      <c r="G462" s="1"/>
-    </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A463" s="17" t="s">
-        <v>800</v>
-      </c>
-      <c r="B463" s="18" t="s">
-        <v>625</v>
-      </c>
-      <c r="C463" s="18" t="s">
-        <v>626</v>
-      </c>
-      <c r="D463" s="19">
-        <v>4301071038</v>
-      </c>
-      <c r="E463" s="18">
-        <v>4607111039248</v>
-      </c>
-      <c r="F463" s="20" t="s">
-        <v>627</v>
-      </c>
-      <c r="G463" s="21"/>
-      <c r="H463" s="22" t="s">
-        <v>861</v>
-      </c>
+      <c r="G463" s="1"/>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="17" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B464" s="18" t="s">
-        <v>106</v>
+        <v>625</v>
       </c>
       <c r="C464" s="18" t="s">
-        <v>261</v>
+        <v>626</v>
       </c>
       <c r="D464" s="19">
-        <v>4301070981</v>
+        <v>4301071038</v>
       </c>
       <c r="E464" s="18">
-        <v>4607111036728</v>
+        <v>4607111039248</v>
       </c>
       <c r="F464" s="20" t="s">
-        <v>262</v>
+        <v>627</v>
       </c>
       <c r="G464" s="21"/>
       <c r="H464" s="22" t="s">
@@ -17020,22 +17020,22 @@
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="17" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B465" s="18" t="s">
-        <v>633</v>
+        <v>106</v>
       </c>
       <c r="C465" s="18" t="s">
-        <v>634</v>
+        <v>261</v>
       </c>
       <c r="D465" s="19">
-        <v>4301071039</v>
+        <v>4301070981</v>
       </c>
       <c r="E465" s="18">
-        <v>4607111039279</v>
+        <v>4607111036728</v>
       </c>
       <c r="F465" s="20" t="s">
-        <v>635</v>
+        <v>262</v>
       </c>
       <c r="G465" s="21"/>
       <c r="H465" s="22" t="s">
@@ -17044,22 +17044,22 @@
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="17" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B466" s="18" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="C466" s="18" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="D466" s="19">
-        <v>4301071051</v>
+        <v>4301071039</v>
       </c>
       <c r="E466" s="18">
-        <v>4607111039262</v>
+        <v>4607111039279</v>
       </c>
       <c r="F466" s="20" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="G466" s="21"/>
       <c r="H466" s="22" t="s">
@@ -17068,22 +17068,22 @@
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="17" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B467" s="18" t="s">
-        <v>293</v>
+        <v>621</v>
       </c>
       <c r="C467" s="18" t="s">
-        <v>294</v>
+        <v>622</v>
       </c>
       <c r="D467" s="19">
-        <v>4301132080</v>
+        <v>4301071051</v>
       </c>
       <c r="E467" s="18">
-        <v>4640242180397</v>
+        <v>4607111039262</v>
       </c>
       <c r="F467" s="20" t="s">
-        <v>295</v>
+        <v>623</v>
       </c>
       <c r="G467" s="21"/>
       <c r="H467" s="22" t="s">
@@ -17092,22 +17092,22 @@
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="17" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B468" s="18" t="s">
-        <v>113</v>
+        <v>293</v>
       </c>
       <c r="C468" s="18" t="s">
-        <v>527</v>
+        <v>294</v>
       </c>
       <c r="D468" s="19">
-        <v>4301071029</v>
+        <v>4301132080</v>
       </c>
       <c r="E468" s="18">
-        <v>4607111035899</v>
+        <v>4640242180397</v>
       </c>
       <c r="F468" s="20" t="s">
-        <v>114</v>
+        <v>295</v>
       </c>
       <c r="G468" s="21"/>
       <c r="H468" s="22" t="s">
@@ -17116,22 +17116,22 @@
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="17" t="s">
-        <v>806</v>
-      </c>
-      <c r="B469" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C469" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D469" s="4">
-        <v>4301136053</v>
-      </c>
-      <c r="E469" s="3">
-        <v>4640242180236</v>
-      </c>
-      <c r="F469" s="5" t="s">
-        <v>304</v>
+        <v>805</v>
+      </c>
+      <c r="B469" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C469" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="D469" s="19">
+        <v>4301071029</v>
+      </c>
+      <c r="E469" s="18">
+        <v>4607111035899</v>
+      </c>
+      <c r="F469" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="G469" s="21"/>
       <c r="H469" s="22" t="s">
@@ -17140,22 +17140,22 @@
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="17" t="s">
-        <v>807</v>
-      </c>
-      <c r="B470" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="C470" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="D470" s="19">
-        <v>4301070977</v>
-      </c>
-      <c r="E470" s="18">
-        <v>4607111037411</v>
-      </c>
-      <c r="F470" s="20" t="s">
-        <v>320</v>
+        <v>806</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D470" s="4">
+        <v>4301136053</v>
+      </c>
+      <c r="E470" s="3">
+        <v>4640242180236</v>
+      </c>
+      <c r="F470" s="5" t="s">
+        <v>304</v>
       </c>
       <c r="G470" s="21"/>
       <c r="H470" s="22" t="s">
@@ -17164,22 +17164,22 @@
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="17" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B471" s="18" t="s">
-        <v>558</v>
+        <v>318</v>
       </c>
       <c r="C471" s="18" t="s">
-        <v>559</v>
+        <v>319</v>
       </c>
       <c r="D471" s="19">
-        <v>4301135375</v>
+        <v>4301070977</v>
       </c>
       <c r="E471" s="18">
-        <v>4640242181486</v>
+        <v>4607111037411</v>
       </c>
       <c r="F471" s="20" t="s">
-        <v>560</v>
+        <v>320</v>
       </c>
       <c r="G471" s="21"/>
       <c r="H471" s="22" t="s">
@@ -17188,70 +17188,70 @@
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="17" t="s">
-        <v>809</v>
-      </c>
-      <c r="B472" s="3" t="s">
-        <v>954</v>
-      </c>
-      <c r="C472" s="3" t="s">
-        <v>955</v>
-      </c>
-      <c r="D472" s="4">
-        <v>4301135760</v>
-      </c>
-      <c r="E472" s="3">
-        <v>4620207491010</v>
-      </c>
-      <c r="F472" s="5" t="s">
-        <v>956</v>
+        <v>808</v>
+      </c>
+      <c r="B472" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="C472" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D472" s="19">
+        <v>4301135375</v>
+      </c>
+      <c r="E472" s="18">
+        <v>4640242181486</v>
+      </c>
+      <c r="F472" s="20" t="s">
+        <v>560</v>
       </c>
       <c r="G472" s="21"/>
-      <c r="H472" s="16" t="s">
-        <v>950</v>
+      <c r="H472" s="22" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="17" t="s">
-        <v>810</v>
-      </c>
-      <c r="B473" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C473" s="18" t="s">
-        <v>636</v>
-      </c>
-      <c r="D473" s="19">
-        <v>4301071050</v>
-      </c>
-      <c r="E473" s="18">
-        <v>4607111036216</v>
-      </c>
-      <c r="F473" s="20" t="s">
-        <v>637</v>
+        <v>809</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="C473" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="D473" s="4">
+        <v>4301135760</v>
+      </c>
+      <c r="E473" s="3">
+        <v>4620207491010</v>
+      </c>
+      <c r="F473" s="5" t="s">
+        <v>956</v>
       </c>
       <c r="G473" s="21"/>
-      <c r="H473" s="22" t="s">
-        <v>861</v>
+      <c r="H473" s="16" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="17" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B474" s="18" t="s">
-        <v>629</v>
+        <v>112</v>
       </c>
       <c r="C474" s="18" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="D474" s="19">
-        <v>4301071049</v>
+        <v>4301071050</v>
       </c>
       <c r="E474" s="18">
-        <v>4607111039293</v>
+        <v>4607111036216</v>
       </c>
       <c r="F474" s="20" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="G474" s="21"/>
       <c r="H474" s="22" t="s">
@@ -17260,22 +17260,22 @@
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B475" s="18" t="s">
-        <v>656</v>
+        <v>629</v>
       </c>
       <c r="C475" s="18" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="D475" s="19">
-        <v>4301135532</v>
+        <v>4301071049</v>
       </c>
       <c r="E475" s="18">
-        <v>4607111033994</v>
+        <v>4607111039293</v>
       </c>
       <c r="F475" s="20" t="s">
-        <v>658</v>
+        <v>631</v>
       </c>
       <c r="G475" s="21"/>
       <c r="H475" s="22" t="s">
@@ -17284,22 +17284,22 @@
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="B476" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="C476" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="D476" s="4">
-        <v>4301135555</v>
-      </c>
-      <c r="E476" s="3">
-        <v>4607111034014</v>
-      </c>
-      <c r="F476" s="5" t="s">
-        <v>661</v>
+        <v>812</v>
+      </c>
+      <c r="B476" s="18" t="s">
+        <v>656</v>
+      </c>
+      <c r="C476" s="18" t="s">
+        <v>657</v>
+      </c>
+      <c r="D476" s="19">
+        <v>4301135532</v>
+      </c>
+      <c r="E476" s="18">
+        <v>4607111033994</v>
+      </c>
+      <c r="F476" s="20" t="s">
+        <v>658</v>
       </c>
       <c r="G476" s="21"/>
       <c r="H476" s="22" t="s">
@@ -17308,70 +17308,70 @@
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>947</v>
+        <v>659</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>948</v>
+        <v>660</v>
       </c>
       <c r="D477" s="4">
-        <v>4301135793</v>
+        <v>4301135555</v>
       </c>
       <c r="E477" s="3">
-        <v>4620207491003</v>
+        <v>4607111034014</v>
       </c>
       <c r="F477" s="5" t="s">
-        <v>949</v>
+        <v>661</v>
       </c>
       <c r="G477" s="21"/>
-      <c r="H477" s="16" t="s">
-        <v>950</v>
+      <c r="H477" s="22" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="17" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>382</v>
+        <v>947</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>383</v>
+        <v>948</v>
       </c>
       <c r="D478" s="4">
-        <v>4301136052</v>
+        <v>4301135793</v>
       </c>
       <c r="E478" s="3">
-        <v>4640242180410</v>
+        <v>4620207491003</v>
       </c>
       <c r="F478" s="5" t="s">
-        <v>384</v>
+        <v>949</v>
       </c>
       <c r="G478" s="21"/>
-      <c r="H478" s="22" t="s">
-        <v>861</v>
+      <c r="H478" s="16" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="17" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>552</v>
+        <v>382</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>553</v>
+        <v>383</v>
       </c>
       <c r="D479" s="4">
-        <v>4301135518</v>
+        <v>4301136052</v>
       </c>
       <c r="E479" s="3">
-        <v>4640242181561</v>
+        <v>4640242180410</v>
       </c>
       <c r="F479" s="5" t="s">
-        <v>554</v>
+        <v>384</v>
       </c>
       <c r="G479" s="21"/>
       <c r="H479" s="22" t="s">
@@ -17380,22 +17380,22 @@
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="17" t="s">
-        <v>817</v>
-      </c>
-      <c r="B480" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="C480" s="18" t="s">
-        <v>605</v>
-      </c>
-      <c r="D480" s="19">
-        <v>4301135374</v>
-      </c>
-      <c r="E480" s="18">
-        <v>4640242181424</v>
-      </c>
-      <c r="F480" s="20" t="s">
-        <v>606</v>
+        <v>816</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D480" s="4">
+        <v>4301135518</v>
+      </c>
+      <c r="E480" s="3">
+        <v>4640242181561</v>
+      </c>
+      <c r="F480" s="5" t="s">
+        <v>554</v>
       </c>
       <c r="G480" s="21"/>
       <c r="H480" s="22" t="s">
@@ -17404,22 +17404,22 @@
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="17" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B481" s="18" t="s">
-        <v>862</v>
+        <v>604</v>
       </c>
       <c r="C481" s="18" t="s">
-        <v>863</v>
+        <v>605</v>
       </c>
       <c r="D481" s="19">
-        <v>4301132079</v>
+        <v>4301135374</v>
       </c>
       <c r="E481" s="18">
-        <v>4607111038487</v>
+        <v>4640242181424</v>
       </c>
       <c r="F481" s="20" t="s">
-        <v>425</v>
+        <v>606</v>
       </c>
       <c r="G481" s="21"/>
       <c r="H481" s="22" t="s">
@@ -17428,22 +17428,22 @@
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="17" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B482" s="18" t="s">
-        <v>164</v>
+        <v>862</v>
       </c>
       <c r="C482" s="18" t="s">
-        <v>639</v>
+        <v>863</v>
       </c>
       <c r="D482" s="19">
-        <v>4301071056</v>
+        <v>4301132079</v>
       </c>
       <c r="E482" s="18">
-        <v>4640242180250</v>
+        <v>4607111038487</v>
       </c>
       <c r="F482" s="20" t="s">
-        <v>640</v>
+        <v>425</v>
       </c>
       <c r="G482" s="21"/>
       <c r="H482" s="22" t="s">
@@ -17452,22 +17452,22 @@
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="17" t="s">
-        <v>820</v>
-      </c>
-      <c r="B483" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C483" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D483" s="4">
-        <v>4301136051</v>
-      </c>
-      <c r="E483" s="3">
-        <v>4640242180304</v>
-      </c>
-      <c r="F483" s="5" t="s">
-        <v>301</v>
+        <v>819</v>
+      </c>
+      <c r="B483" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C483" s="18" t="s">
+        <v>639</v>
+      </c>
+      <c r="D483" s="19">
+        <v>4301071056</v>
+      </c>
+      <c r="E483" s="18">
+        <v>4640242180250</v>
+      </c>
+      <c r="F483" s="20" t="s">
+        <v>640</v>
       </c>
       <c r="G483" s="21"/>
       <c r="H483" s="22" t="s">
@@ -17476,22 +17476,22 @@
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="17" t="s">
-        <v>821</v>
-      </c>
-      <c r="B484" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C484" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D484" s="19">
-        <v>4301070920</v>
-      </c>
-      <c r="E484" s="18">
-        <v>4607111035929</v>
-      </c>
-      <c r="F484" s="20" t="s">
-        <v>111</v>
+        <v>820</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D484" s="4">
+        <v>4301136051</v>
+      </c>
+      <c r="E484" s="3">
+        <v>4640242180304</v>
+      </c>
+      <c r="F484" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="G484" s="21"/>
       <c r="H484" s="22" t="s">
@@ -17500,22 +17500,22 @@
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="17" t="s">
-        <v>822</v>
-      </c>
-      <c r="B485" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="C485" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="D485" s="4">
-        <v>4301135550</v>
-      </c>
-      <c r="E485" s="3">
-        <v>4607111034199</v>
-      </c>
-      <c r="F485" s="5" t="s">
-        <v>752</v>
+        <v>821</v>
+      </c>
+      <c r="B485" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C485" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D485" s="19">
+        <v>4301070920</v>
+      </c>
+      <c r="E485" s="18">
+        <v>4607111035929</v>
+      </c>
+      <c r="F485" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="G485" s="21"/>
       <c r="H485" s="22" t="s">
@@ -17524,22 +17524,22 @@
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="17" t="s">
-        <v>823</v>
-      </c>
-      <c r="B486" s="18" t="s">
-        <v>747</v>
-      </c>
-      <c r="C486" s="18" t="s">
-        <v>748</v>
-      </c>
-      <c r="D486" s="19">
-        <v>4301132186</v>
-      </c>
-      <c r="E486" s="18">
-        <v>4607111036520</v>
-      </c>
-      <c r="F486" s="20" t="s">
-        <v>749</v>
+        <v>822</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="C486" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="D486" s="4">
+        <v>4301135550</v>
+      </c>
+      <c r="E486" s="3">
+        <v>4607111034199</v>
+      </c>
+      <c r="F486" s="5" t="s">
+        <v>752</v>
       </c>
       <c r="G486" s="21"/>
       <c r="H486" s="22" t="s">
@@ -17548,22 +17548,22 @@
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B487" s="18" t="s">
-        <v>617</v>
+        <v>747</v>
       </c>
       <c r="C487" s="18" t="s">
-        <v>618</v>
+        <v>748</v>
       </c>
       <c r="D487" s="19">
-        <v>4301071047</v>
+        <v>4301132186</v>
       </c>
       <c r="E487" s="18">
-        <v>4607111039330</v>
+        <v>4607111036520</v>
       </c>
       <c r="F487" s="20" t="s">
-        <v>619</v>
+        <v>749</v>
       </c>
       <c r="G487" s="21"/>
       <c r="H487" s="22" t="s">
@@ -17572,22 +17572,22 @@
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="17" t="s">
-        <v>825</v>
-      </c>
-      <c r="B488" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="C488" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="D488" s="4">
-        <v>4301131047</v>
-      </c>
-      <c r="E488" s="3">
-        <v>4607111034120</v>
-      </c>
-      <c r="F488" s="5" t="s">
-        <v>791</v>
+        <v>824</v>
+      </c>
+      <c r="B488" s="18" t="s">
+        <v>617</v>
+      </c>
+      <c r="C488" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="D488" s="19">
+        <v>4301071047</v>
+      </c>
+      <c r="E488" s="18">
+        <v>4607111039330</v>
+      </c>
+      <c r="F488" s="20" t="s">
+        <v>619</v>
       </c>
       <c r="G488" s="21"/>
       <c r="H488" s="22" t="s">
@@ -17596,22 +17596,22 @@
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="17" t="s">
-        <v>826</v>
-      </c>
-      <c r="B489" s="18" t="s">
-        <v>702</v>
-      </c>
-      <c r="C489" s="18" t="s">
-        <v>703</v>
-      </c>
-      <c r="D489" s="19">
-        <v>4301135569</v>
-      </c>
-      <c r="E489" s="18">
-        <v>4607111033628</v>
-      </c>
-      <c r="F489" s="20" t="s">
-        <v>704</v>
+        <v>825</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="D489" s="4">
+        <v>4301131047</v>
+      </c>
+      <c r="E489" s="3">
+        <v>4607111034120</v>
+      </c>
+      <c r="F489" s="5" t="s">
+        <v>791</v>
       </c>
       <c r="G489" s="21"/>
       <c r="H489" s="22" t="s">
@@ -17620,22 +17620,22 @@
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="17" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B490" s="18" t="s">
-        <v>562</v>
+        <v>702</v>
       </c>
       <c r="C490" s="18" t="s">
-        <v>563</v>
+        <v>703</v>
       </c>
       <c r="D490" s="19">
-        <v>4301135405</v>
+        <v>4301135569</v>
       </c>
       <c r="E490" s="18">
-        <v>4640242181523</v>
+        <v>4607111033628</v>
       </c>
       <c r="F490" s="20" t="s">
-        <v>564</v>
+        <v>704</v>
       </c>
       <c r="G490" s="21"/>
       <c r="H490" s="22" t="s">
@@ -17644,22 +17644,22 @@
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="17" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B491" s="18" t="s">
-        <v>714</v>
+        <v>562</v>
       </c>
       <c r="C491" s="18" t="s">
-        <v>715</v>
+        <v>563</v>
       </c>
       <c r="D491" s="19">
-        <v>4301135402</v>
+        <v>4301135405</v>
       </c>
       <c r="E491" s="18">
-        <v>4640242181493</v>
+        <v>4640242181523</v>
       </c>
       <c r="F491" s="20" t="s">
-        <v>713</v>
+        <v>564</v>
       </c>
       <c r="G491" s="21"/>
       <c r="H491" s="22" t="s">
@@ -17668,22 +17668,22 @@
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="17" t="s">
-        <v>829</v>
-      </c>
-      <c r="B492" s="3" t="s">
-        <v>889</v>
-      </c>
-      <c r="C492" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="D492" s="4">
-        <v>4301131046</v>
-      </c>
-      <c r="E492" s="3">
-        <v>4607111034137</v>
-      </c>
-      <c r="F492" s="5" t="s">
-        <v>891</v>
+        <v>828</v>
+      </c>
+      <c r="B492" s="18" t="s">
+        <v>714</v>
+      </c>
+      <c r="C492" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="D492" s="19">
+        <v>4301135402</v>
+      </c>
+      <c r="E492" s="18">
+        <v>4640242181493</v>
+      </c>
+      <c r="F492" s="20" t="s">
+        <v>713</v>
       </c>
       <c r="G492" s="21"/>
       <c r="H492" s="22" t="s">
@@ -17692,22 +17692,22 @@
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="17" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="D493" s="4">
-        <v>4301136079</v>
+        <v>4301131046</v>
       </c>
       <c r="E493" s="3">
-        <v>4607025784319</v>
+        <v>4607111034137</v>
       </c>
       <c r="F493" s="5" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="G493" s="21"/>
       <c r="H493" s="22" t="s">
@@ -17716,22 +17716,22 @@
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="17" t="s">
-        <v>831</v>
-      </c>
-      <c r="B494" s="18" t="s">
-        <v>468</v>
-      </c>
-      <c r="C494" s="18" t="s">
-        <v>525</v>
-      </c>
-      <c r="D494" s="19">
-        <v>4301135275</v>
-      </c>
-      <c r="E494" s="18">
-        <v>4607111034380</v>
-      </c>
-      <c r="F494" s="20" t="s">
-        <v>469</v>
+        <v>830</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="D494" s="4">
+        <v>4301136079</v>
+      </c>
+      <c r="E494" s="3">
+        <v>4607025784319</v>
+      </c>
+      <c r="F494" s="5" t="s">
+        <v>897</v>
       </c>
       <c r="G494" s="21"/>
       <c r="H494" s="22" t="s">
@@ -17740,70 +17740,70 @@
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="17" t="s">
-        <v>832</v>
-      </c>
-      <c r="B495" s="3" t="s">
-        <v>951</v>
-      </c>
-      <c r="C495" s="3" t="s">
-        <v>952</v>
-      </c>
-      <c r="D495" s="4">
-        <v>4301135778</v>
-      </c>
-      <c r="E495" s="3">
-        <v>4620207490853</v>
-      </c>
-      <c r="F495" s="5" t="s">
-        <v>953</v>
+        <v>831</v>
+      </c>
+      <c r="B495" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="C495" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="D495" s="19">
+        <v>4301135275</v>
+      </c>
+      <c r="E495" s="18">
+        <v>4607111034380</v>
+      </c>
+      <c r="F495" s="20" t="s">
+        <v>469</v>
       </c>
       <c r="G495" s="21"/>
-      <c r="H495" s="16" t="s">
-        <v>957</v>
+      <c r="H495" s="22" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="17" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>877</v>
+        <v>951</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>878</v>
+        <v>952</v>
       </c>
       <c r="D496" s="4">
-        <v>4301132179</v>
+        <v>4301135778</v>
       </c>
       <c r="E496" s="3">
-        <v>4607111035691</v>
+        <v>4620207490853</v>
       </c>
       <c r="F496" s="5" t="s">
-        <v>879</v>
+        <v>953</v>
       </c>
       <c r="G496" s="21"/>
-      <c r="H496" s="22" t="s">
-        <v>861</v>
+      <c r="H496" s="16" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="17" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>744</v>
+        <v>877</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>745</v>
+        <v>878</v>
       </c>
       <c r="D497" s="4">
-        <v>4301132190</v>
+        <v>4301132179</v>
       </c>
       <c r="E497" s="3">
-        <v>4607111036537</v>
+        <v>4607111035691</v>
       </c>
       <c r="F497" s="5" t="s">
-        <v>746</v>
+        <v>879</v>
       </c>
       <c r="G497" s="21"/>
       <c r="H497" s="22" t="s">
@@ -17812,22 +17812,22 @@
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="17" t="s">
-        <v>835</v>
-      </c>
-      <c r="B498" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="C498" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="D498" s="19">
-        <v>4301131019</v>
-      </c>
-      <c r="E498" s="18">
-        <v>4640242180427</v>
-      </c>
-      <c r="F498" s="20" t="s">
-        <v>377</v>
+        <v>834</v>
+      </c>
+      <c r="B498" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C498" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="D498" s="4">
+        <v>4301132190</v>
+      </c>
+      <c r="E498" s="3">
+        <v>4607111036537</v>
+      </c>
+      <c r="F498" s="5" t="s">
+        <v>746</v>
       </c>
       <c r="G498" s="21"/>
       <c r="H498" s="22" t="s">
@@ -17836,22 +17836,22 @@
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="17" t="s">
-        <v>836</v>
-      </c>
-      <c r="B499" s="3" t="s">
-        <v>898</v>
-      </c>
-      <c r="C499" s="3" t="s">
-        <v>899</v>
-      </c>
-      <c r="D499" s="4">
-        <v>4301135571</v>
-      </c>
-      <c r="E499" s="3">
-        <v>4607111035028</v>
-      </c>
-      <c r="F499" s="5" t="s">
-        <v>900</v>
+        <v>835</v>
+      </c>
+      <c r="B499" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="C499" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="D499" s="19">
+        <v>4301131019</v>
+      </c>
+      <c r="E499" s="18">
+        <v>4640242180427</v>
+      </c>
+      <c r="F499" s="20" t="s">
+        <v>377</v>
       </c>
       <c r="G499" s="21"/>
       <c r="H499" s="22" t="s">
@@ -17860,70 +17860,70 @@
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="17" t="s">
+        <v>836</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="D500" s="4">
+        <v>4301135571</v>
+      </c>
+      <c r="E500" s="3">
+        <v>4607111035028</v>
+      </c>
+      <c r="F500" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="G500" s="21"/>
+      <c r="H500" s="22" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A501" s="17" t="s">
         <v>837</v>
       </c>
-      <c r="B500" s="3" t="s">
+      <c r="B501" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="C500" s="3" t="s">
+      <c r="C501" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="D500" s="4">
+      <c r="D501" s="4">
         <v>4301135768</v>
       </c>
-      <c r="E500" s="3">
+      <c r="E501" s="3">
         <v>4620207491034</v>
       </c>
-      <c r="F500" s="5" t="s">
+      <c r="F501" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="G500" s="21"/>
-      <c r="H500" s="16" t="s">
+      <c r="G501" s="21"/>
+      <c r="H501" s="16" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="501" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A501" s="17" t="s">
+    <row r="502" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A502" s="17" t="s">
         <v>839</v>
       </c>
-      <c r="B501" s="18" t="s">
+      <c r="B502" s="18" t="s">
         <v>489</v>
       </c>
-      <c r="C501" s="18" t="s">
+      <c r="C502" s="18" t="s">
         <v>490</v>
       </c>
-      <c r="D501" s="19">
+      <c r="D502" s="19">
         <v>4301070960</v>
       </c>
-      <c r="E501" s="18">
+      <c r="E502" s="18">
         <v>4607111038623</v>
       </c>
-      <c r="F501" s="20" t="s">
+      <c r="F502" s="20" t="s">
         <v>491</v>
-      </c>
-      <c r="G501" s="21"/>
-      <c r="H501" s="22" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A502" s="17" t="s">
-        <v>840</v>
-      </c>
-      <c r="B502" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="C502" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="D502" s="19">
-        <v>4301070966</v>
-      </c>
-      <c r="E502" s="18">
-        <v>4607111038135</v>
-      </c>
-      <c r="F502" s="20" t="s">
-        <v>367</v>
       </c>
       <c r="G502" s="21"/>
       <c r="H502" s="22" t="s">
@@ -17931,71 +17931,71 @@
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A503" s="10" t="s">
+      <c r="A503" s="17" t="s">
+        <v>840</v>
+      </c>
+      <c r="B503" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="C503" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="D503" s="19">
+        <v>4301070966</v>
+      </c>
+      <c r="E503" s="18">
+        <v>4607111038135</v>
+      </c>
+      <c r="F503" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="G503" s="21"/>
+      <c r="H503" s="22" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A504" s="10" t="s">
         <v>907</v>
       </c>
-      <c r="B503" s="3" t="s">
+      <c r="B504" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="C503" s="3" t="s">
+      <c r="C504" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="D503" s="4">
+      <c r="D504" s="4">
         <v>4301070990</v>
       </c>
-      <c r="E503" s="3">
+      <c r="E504" s="3">
         <v>4607111038494</v>
       </c>
-      <c r="F503" s="5" t="s">
+      <c r="F504" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="G503" s="1"/>
-      <c r="H503" s="16" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A504" s="17" t="s">
-        <v>841</v>
-      </c>
-      <c r="B504" s="18" t="s">
-        <v>864</v>
-      </c>
-      <c r="C504" s="18" t="s">
-        <v>865</v>
-      </c>
-      <c r="D504" s="19">
-        <v>4301070990</v>
-      </c>
-      <c r="E504" s="18">
-        <v>4607111038494</v>
-      </c>
-      <c r="F504" s="20" t="s">
-        <v>866</v>
-      </c>
-      <c r="G504" s="21"/>
-      <c r="H504" s="22" t="s">
+      <c r="G504" s="1"/>
+      <c r="H504" s="16" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="17" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B505" s="18" t="s">
-        <v>154</v>
+        <v>864</v>
       </c>
       <c r="C505" s="18" t="s">
-        <v>155</v>
+        <v>865</v>
       </c>
       <c r="D505" s="19">
-        <v>4301070921</v>
+        <v>4301070990</v>
       </c>
       <c r="E505" s="18">
-        <v>4607111035905</v>
+        <v>4607111038494</v>
       </c>
       <c r="F505" s="20" t="s">
-        <v>156</v>
+        <v>866</v>
       </c>
       <c r="G505" s="21"/>
       <c r="H505" s="22" t="s">
@@ -18004,22 +18004,22 @@
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="17" t="s">
-        <v>843</v>
-      </c>
-      <c r="B506" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="C506" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="D506" s="4">
-        <v>4301135549</v>
-      </c>
-      <c r="E506" s="3">
-        <v>4607111039095</v>
-      </c>
-      <c r="F506" s="5" t="s">
-        <v>555</v>
+        <v>842</v>
+      </c>
+      <c r="B506" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C506" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D506" s="19">
+        <v>4301070921</v>
+      </c>
+      <c r="E506" s="18">
+        <v>4607111035905</v>
+      </c>
+      <c r="F506" s="20" t="s">
+        <v>156</v>
       </c>
       <c r="G506" s="21"/>
       <c r="H506" s="22" t="s">
@@ -18028,22 +18028,22 @@
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="17" t="s">
-        <v>844</v>
-      </c>
-      <c r="B507" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C507" s="18" t="s">
-        <v>529</v>
-      </c>
-      <c r="D507" s="19">
-        <v>4301135285</v>
-      </c>
-      <c r="E507" s="18">
-        <v>4607111036407</v>
-      </c>
-      <c r="F507" s="20" t="s">
-        <v>186</v>
+        <v>843</v>
+      </c>
+      <c r="B507" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C507" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D507" s="4">
+        <v>4301135549</v>
+      </c>
+      <c r="E507" s="3">
+        <v>4607111039095</v>
+      </c>
+      <c r="F507" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="G507" s="21"/>
       <c r="H507" s="22" t="s">
@@ -18052,22 +18052,22 @@
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="17" t="s">
-        <v>720</v>
-      </c>
-      <c r="B508" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="C508" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="D508" s="4">
-        <v>4301135607</v>
-      </c>
-      <c r="E508" s="3">
-        <v>4607111039613</v>
-      </c>
-      <c r="F508" s="5" t="s">
-        <v>720</v>
+        <v>844</v>
+      </c>
+      <c r="B508" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C508" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="D508" s="19">
+        <v>4301135285</v>
+      </c>
+      <c r="E508" s="18">
+        <v>4607111036407</v>
+      </c>
+      <c r="F508" s="20" t="s">
+        <v>186</v>
       </c>
       <c r="G508" s="21"/>
       <c r="H508" s="22" t="s">
@@ -18076,22 +18076,22 @@
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="17" t="s">
-        <v>845</v>
-      </c>
-      <c r="B509" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C509" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D509" s="19">
-        <v>4301080153</v>
-      </c>
-      <c r="E509" s="18">
-        <v>4607111036827</v>
-      </c>
-      <c r="F509" s="20" t="s">
-        <v>129</v>
+        <v>720</v>
+      </c>
+      <c r="B509" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="C509" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="D509" s="4">
+        <v>4301135607</v>
+      </c>
+      <c r="E509" s="3">
+        <v>4607111039613</v>
+      </c>
+      <c r="F509" s="5" t="s">
+        <v>720</v>
       </c>
       <c r="G509" s="21"/>
       <c r="H509" s="22" t="s">
@@ -18100,22 +18100,22 @@
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="17" t="s">
-        <v>846</v>
-      </c>
-      <c r="B510" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="C510" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="D510" s="4">
-        <v>4301135574</v>
-      </c>
-      <c r="E510" s="3">
-        <v>4607111033659</v>
-      </c>
-      <c r="F510" s="5" t="s">
-        <v>734</v>
+        <v>845</v>
+      </c>
+      <c r="B510" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C510" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D510" s="19">
+        <v>4301080153</v>
+      </c>
+      <c r="E510" s="18">
+        <v>4607111036827</v>
+      </c>
+      <c r="F510" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="G510" s="21"/>
       <c r="H510" s="22" t="s">
@@ -18124,22 +18124,22 @@
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="17" t="s">
-        <v>847</v>
-      </c>
-      <c r="B511" s="18" t="s">
-        <v>673</v>
-      </c>
-      <c r="C511" s="18" t="s">
-        <v>674</v>
-      </c>
-      <c r="D511" s="19">
-        <v>4301071044</v>
-      </c>
-      <c r="E511" s="18">
-        <v>4607111039385</v>
-      </c>
-      <c r="F511" s="20" t="s">
-        <v>675</v>
+        <v>846</v>
+      </c>
+      <c r="B511" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="C511" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="D511" s="4">
+        <v>4301135574</v>
+      </c>
+      <c r="E511" s="3">
+        <v>4607111033659</v>
+      </c>
+      <c r="F511" s="5" t="s">
+        <v>734</v>
       </c>
       <c r="G511" s="21"/>
       <c r="H511" s="22" t="s">
@@ -18148,22 +18148,22 @@
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="17" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B512" s="18" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="C512" s="18" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="D512" s="19">
-        <v>4301071031</v>
+        <v>4301071044</v>
       </c>
       <c r="E512" s="18">
-        <v>4607111038982</v>
+        <v>4607111039385</v>
       </c>
       <c r="F512" s="20" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G512" s="21"/>
       <c r="H512" s="22" t="s">
@@ -18172,22 +18172,22 @@
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B513" s="18" t="s">
-        <v>181</v>
+        <v>690</v>
       </c>
       <c r="C513" s="18" t="s">
-        <v>182</v>
+        <v>691</v>
       </c>
       <c r="D513" s="19">
-        <v>4301070917</v>
+        <v>4301071031</v>
       </c>
       <c r="E513" s="18">
-        <v>4607111035912</v>
+        <v>4607111038982</v>
       </c>
       <c r="F513" s="20" t="s">
-        <v>183</v>
+        <v>692</v>
       </c>
       <c r="G513" s="21"/>
       <c r="H513" s="22" t="s">
@@ -18196,22 +18196,22 @@
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="17" t="s">
-        <v>850</v>
-      </c>
-      <c r="B514" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C514" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="D514" s="4">
-        <v>4301136070</v>
-      </c>
-      <c r="E514" s="3">
-        <v>4607025784012</v>
-      </c>
-      <c r="F514" s="5" t="s">
-        <v>170</v>
+        <v>849</v>
+      </c>
+      <c r="B514" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C514" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D514" s="19">
+        <v>4301070917</v>
+      </c>
+      <c r="E514" s="18">
+        <v>4607111035912</v>
+      </c>
+      <c r="F514" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="G514" s="21"/>
       <c r="H514" s="22" t="s">
@@ -18220,46 +18220,46 @@
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="17" t="s">
-        <v>851</v>
-      </c>
-      <c r="B515" s="18" t="s">
-        <v>613</v>
-      </c>
-      <c r="C515" s="18" t="s">
-        <v>614</v>
-      </c>
-      <c r="D515" s="19">
-        <v>4301071046</v>
-      </c>
-      <c r="E515" s="18">
-        <v>4607111039354</v>
-      </c>
-      <c r="F515" s="20" t="s">
-        <v>615</v>
+        <v>850</v>
+      </c>
+      <c r="B515" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C515" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="D515" s="4">
+        <v>4301136070</v>
+      </c>
+      <c r="E515" s="3">
+        <v>4607025784012</v>
+      </c>
+      <c r="F515" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="G515" s="21"/>
       <c r="H515" s="22" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="516" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="17" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B516" s="18" t="s">
-        <v>867</v>
+        <v>613</v>
       </c>
       <c r="C516" s="18" t="s">
-        <v>868</v>
+        <v>614</v>
       </c>
       <c r="D516" s="19">
-        <v>4301070959</v>
+        <v>4301071046</v>
       </c>
       <c r="E516" s="18">
-        <v>4607111038616</v>
+        <v>4607111039354</v>
       </c>
       <c r="F516" s="20" t="s">
-        <v>869</v>
+        <v>615</v>
       </c>
       <c r="G516" s="21"/>
       <c r="H516" s="22" t="s">
@@ -18268,46 +18268,46 @@
     </row>
     <row r="517" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A517" s="17" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B517" s="18" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C517" s="18" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D517" s="19">
-        <v>4301070962</v>
+        <v>4301070959</v>
       </c>
       <c r="E517" s="18">
-        <v>4607111038609</v>
+        <v>4607111038616</v>
       </c>
       <c r="F517" s="20" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="G517" s="21"/>
       <c r="H517" s="22" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A518" s="17" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B518" s="18" t="s">
-        <v>254</v>
+        <v>870</v>
       </c>
       <c r="C518" s="18" t="s">
-        <v>255</v>
+        <v>871</v>
       </c>
       <c r="D518" s="19">
-        <v>4301070948</v>
+        <v>4301070962</v>
       </c>
       <c r="E518" s="18">
-        <v>4607111037022</v>
+        <v>4607111038609</v>
       </c>
       <c r="F518" s="20" t="s">
-        <v>152</v>
+        <v>872</v>
       </c>
       <c r="G518" s="21"/>
       <c r="H518" s="22" t="s">
@@ -18316,22 +18316,22 @@
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="17" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B519" s="18" t="s">
-        <v>707</v>
+        <v>254</v>
       </c>
       <c r="C519" s="18" t="s">
-        <v>708</v>
+        <v>255</v>
       </c>
       <c r="D519" s="19">
-        <v>4301135570</v>
+        <v>4301070948</v>
       </c>
       <c r="E519" s="18">
-        <v>4607111035806</v>
+        <v>4607111037022</v>
       </c>
       <c r="F519" s="20" t="s">
-        <v>709</v>
+        <v>152</v>
       </c>
       <c r="G519" s="21"/>
       <c r="H519" s="22" t="s">
@@ -18340,22 +18340,22 @@
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="17" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B520" s="18" t="s">
-        <v>736</v>
+        <v>707</v>
       </c>
       <c r="C520" s="18" t="s">
-        <v>737</v>
+        <v>708</v>
       </c>
       <c r="D520" s="19">
-        <v>4301071032</v>
+        <v>4301135570</v>
       </c>
       <c r="E520" s="18">
-        <v>4607111038999</v>
+        <v>4607111035806</v>
       </c>
       <c r="F520" s="20" t="s">
-        <v>738</v>
+        <v>709</v>
       </c>
       <c r="G520" s="21"/>
       <c r="H520" s="22" t="s">
@@ -18364,22 +18364,22 @@
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="17" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B521" s="18" t="s">
-        <v>677</v>
+        <v>736</v>
       </c>
       <c r="C521" s="18" t="s">
-        <v>678</v>
+        <v>737</v>
       </c>
       <c r="D521" s="19">
-        <v>4301071045</v>
+        <v>4301071032</v>
       </c>
       <c r="E521" s="18">
-        <v>4607111039392</v>
+        <v>4607111038999</v>
       </c>
       <c r="F521" s="20" t="s">
-        <v>679</v>
+        <v>738</v>
       </c>
       <c r="G521" s="21"/>
       <c r="H521" s="22" t="s">
@@ -18388,22 +18388,22 @@
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="17" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B522" s="18" t="s">
-        <v>485</v>
+        <v>677</v>
       </c>
       <c r="C522" s="18" t="s">
-        <v>486</v>
+        <v>678</v>
       </c>
       <c r="D522" s="19">
-        <v>4301070963</v>
+        <v>4301071045</v>
       </c>
       <c r="E522" s="18">
-        <v>4607111038630</v>
+        <v>4607111039392</v>
       </c>
       <c r="F522" s="20" t="s">
-        <v>487</v>
+        <v>679</v>
       </c>
       <c r="G522" s="21"/>
       <c r="H522" s="22" t="s">
@@ -18412,22 +18412,22 @@
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="17" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B523" s="18" t="s">
-        <v>595</v>
+        <v>485</v>
       </c>
       <c r="C523" s="18" t="s">
-        <v>596</v>
+        <v>486</v>
       </c>
       <c r="D523" s="19">
-        <v>4301071054</v>
+        <v>4301070963</v>
       </c>
       <c r="E523" s="18">
-        <v>4607111035639</v>
+        <v>4607111038630</v>
       </c>
       <c r="F523" s="20" t="s">
-        <v>597</v>
+        <v>487</v>
       </c>
       <c r="G523" s="21"/>
       <c r="H523" s="22" t="s">
@@ -18436,32 +18436,56 @@
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B524" s="18" t="s">
-        <v>340</v>
+        <v>595</v>
       </c>
       <c r="C524" s="18" t="s">
-        <v>565</v>
+        <v>596</v>
       </c>
       <c r="D524" s="19">
-        <v>4301135540</v>
+        <v>4301071054</v>
       </c>
       <c r="E524" s="18">
-        <v>4607111035646</v>
+        <v>4607111035639</v>
       </c>
       <c r="F524" s="20" t="s">
-        <v>566</v>
+        <v>597</v>
       </c>
       <c r="G524" s="21"/>
       <c r="H524" s="22" t="s">
         <v>861</v>
       </c>
     </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A525" s="17" t="s">
+        <v>860</v>
+      </c>
+      <c r="B525" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="C525" s="18" t="s">
+        <v>565</v>
+      </c>
+      <c r="D525" s="19">
+        <v>4301135540</v>
+      </c>
+      <c r="E525" s="18">
+        <v>4607111035646</v>
+      </c>
+      <c r="F525" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="G525" s="21"/>
+      <c r="H525" s="22" t="s">
+        <v>861</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F524" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F249">
-      <sortCondition ref="A1:A180"/>
+  <autoFilter ref="A1:F525" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F250">
+      <sortCondition ref="A1:A181"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F3844A-4ED8-405F-A613-753665C6061B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D57F9B8-B9FC-48DC-9816-9655148C45C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6211,7 +6211,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="B232" sqref="B232:F232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D57F9B8-B9FC-48DC-9816-9655148C45C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B4503A-BB0D-4FC6-8FD1-E39EB10A0FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,26 +20,20 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$531</definedName>
-    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$470</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$542</definedName>
+    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$481</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2347" uniqueCount="971">
   <si>
     <t>1С</t>
   </si>
@@ -3187,7 +3181,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Лист1"/>
@@ -6207,11 +6201,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H531"/>
+  <dimension ref="A1:H542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B232" sqref="B232:F232"/>
+      <selection pane="bottomLeft" activeCell="H467" sqref="H467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17039,7 +17033,7 @@
       </c>
       <c r="G464" s="1"/>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="10" t="s">
         <v>938</v>
       </c>
@@ -17060,7 +17054,7 @@
       </c>
       <c r="G465" s="1"/>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="10" t="s">
         <v>959</v>
       </c>
@@ -17081,7 +17075,7 @@
       </c>
       <c r="G466" s="1"/>
     </row>
-    <row r="467" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A467" s="10" t="s">
         <v>964</v>
       </c>
@@ -17102,7 +17096,7 @@
       </c>
       <c r="G467" s="1"/>
     </row>
-    <row r="468" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A468" s="10" t="s">
         <v>965</v>
       </c>
@@ -17123,7 +17117,7 @@
       </c>
       <c r="G468" s="1"/>
     </row>
-    <row r="469" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A469" s="10" t="s">
         <v>967</v>
       </c>
@@ -17144,288 +17138,255 @@
       </c>
       <c r="G469" s="1"/>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A470" s="17" t="s">
-        <v>797</v>
-      </c>
-      <c r="B470" s="18" t="s">
-        <v>625</v>
-      </c>
-      <c r="C470" s="18" t="s">
-        <v>626</v>
-      </c>
-      <c r="D470" s="19">
-        <v>4301071038</v>
-      </c>
-      <c r="E470" s="18">
-        <v>4607111039248</v>
-      </c>
-      <c r="F470" s="20" t="s">
-        <v>627</v>
-      </c>
-      <c r="G470" s="21"/>
-      <c r="H470" s="22" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A471" s="17" t="s">
-        <v>798</v>
-      </c>
-      <c r="B471" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C471" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="D471" s="19">
-        <v>4301070981</v>
-      </c>
-      <c r="E471" s="18">
-        <v>4607111036728</v>
-      </c>
-      <c r="F471" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="G471" s="21"/>
-      <c r="H471" s="22" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A472" s="17" t="s">
-        <v>799</v>
-      </c>
-      <c r="B472" s="18" t="s">
-        <v>633</v>
-      </c>
-      <c r="C472" s="18" t="s">
-        <v>634</v>
-      </c>
-      <c r="D472" s="19">
-        <v>4301071039</v>
-      </c>
-      <c r="E472" s="18">
-        <v>4607111039279</v>
-      </c>
-      <c r="F472" s="20" t="s">
-        <v>635</v>
-      </c>
-      <c r="G472" s="21"/>
-      <c r="H472" s="22" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A473" s="17" t="s">
-        <v>800</v>
-      </c>
-      <c r="B473" s="18" t="s">
-        <v>621</v>
-      </c>
-      <c r="C473" s="18" t="s">
-        <v>622</v>
-      </c>
-      <c r="D473" s="19">
-        <v>4301071051</v>
-      </c>
-      <c r="E473" s="18">
-        <v>4607111039262</v>
-      </c>
-      <c r="F473" s="20" t="s">
-        <v>623</v>
-      </c>
-      <c r="G473" s="21"/>
-      <c r="H473" s="22" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A474" s="17" t="s">
-        <v>801</v>
-      </c>
-      <c r="B474" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="C474" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D474" s="19">
-        <v>4301132080</v>
-      </c>
-      <c r="E474" s="18">
-        <v>4640242180397</v>
-      </c>
-      <c r="F474" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="G474" s="21"/>
-      <c r="H474" s="22" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A475" s="17" t="s">
-        <v>802</v>
-      </c>
-      <c r="B475" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C475" s="18" t="s">
-        <v>527</v>
-      </c>
-      <c r="D475" s="19">
-        <v>4301071029</v>
-      </c>
-      <c r="E475" s="18">
-        <v>4607111035899</v>
-      </c>
-      <c r="F475" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="G475" s="21"/>
-      <c r="H475" s="22" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A476" s="17" t="s">
-        <v>803</v>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A470" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="D470" s="4">
+        <v>4301135574</v>
+      </c>
+      <c r="E470" s="3">
+        <v>4607111033659</v>
+      </c>
+      <c r="F470" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="G470" s="1"/>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A471" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="D471" s="4">
+        <v>4301135550</v>
+      </c>
+      <c r="E471" s="3">
+        <v>4607111034199</v>
+      </c>
+      <c r="F471" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="G471" s="1"/>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A472" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="D472" s="4">
+        <v>4301135753</v>
+      </c>
+      <c r="E472" s="3">
+        <v>4620207490914</v>
+      </c>
+      <c r="F472" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="G472" s="1"/>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A473" s="10" t="s">
+        <v>888</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="C473" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="D473" s="4">
+        <v>4301131046</v>
+      </c>
+      <c r="E473" s="3">
+        <v>4607111034137</v>
+      </c>
+      <c r="F473" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="G473" s="1"/>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A474" s="10" t="s">
+        <v>788</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="C474" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="D474" s="4">
+        <v>4301131047</v>
+      </c>
+      <c r="E474" s="3">
+        <v>4607111034120</v>
+      </c>
+      <c r="F474" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="G474" s="1"/>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A475" s="10" t="s">
+        <v>766</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="C475" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="D475" s="4">
+        <v>4301132188</v>
+      </c>
+      <c r="E475" s="3">
+        <v>4607111036605</v>
+      </c>
+      <c r="F475" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="G475" s="1"/>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A476" s="10" t="s">
+        <v>876</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>302</v>
+        <v>874</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>303</v>
+        <v>875</v>
       </c>
       <c r="D476" s="4">
-        <v>4301136053</v>
+        <v>4301132179</v>
       </c>
       <c r="E476" s="3">
-        <v>4640242180236</v>
+        <v>4607111035691</v>
       </c>
       <c r="F476" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G476" s="21"/>
-      <c r="H476" s="22" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A477" s="17" t="s">
-        <v>804</v>
-      </c>
-      <c r="B477" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="C477" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="D477" s="19">
-        <v>4301070977</v>
-      </c>
-      <c r="E477" s="18">
-        <v>4607111037411</v>
-      </c>
-      <c r="F477" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="G477" s="21"/>
-      <c r="H477" s="22" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A478" s="17" t="s">
-        <v>805</v>
-      </c>
-      <c r="B478" s="18" t="s">
-        <v>558</v>
-      </c>
-      <c r="C478" s="18" t="s">
-        <v>559</v>
-      </c>
-      <c r="D478" s="19">
-        <v>4301135375</v>
-      </c>
-      <c r="E478" s="18">
-        <v>4640242181486</v>
-      </c>
-      <c r="F478" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="G478" s="21"/>
-      <c r="H478" s="22" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A479" s="17" t="s">
-        <v>806</v>
+        <v>876</v>
+      </c>
+      <c r="G476" s="1"/>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A477" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D477" s="4">
+        <v>4301135570</v>
+      </c>
+      <c r="E477" s="3">
+        <v>4607111035806</v>
+      </c>
+      <c r="F477" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="G477" s="1"/>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A478" s="10" t="s">
+        <v>928</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="D478" s="4">
+        <v>4301071049</v>
+      </c>
+      <c r="E478" s="3">
+        <v>4607111039293</v>
+      </c>
+      <c r="F478" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="G478" s="1"/>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A479" s="10" t="s">
+        <v>661</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>951</v>
+        <v>659</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>952</v>
+        <v>660</v>
       </c>
       <c r="D479" s="4">
-        <v>4301135760</v>
+        <v>4301135555</v>
       </c>
       <c r="E479" s="3">
-        <v>4620207491010</v>
+        <v>4607111034014</v>
       </c>
       <c r="F479" s="5" t="s">
-        <v>953</v>
-      </c>
-      <c r="G479" s="21"/>
-      <c r="H479" s="16" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A480" s="17" t="s">
-        <v>807</v>
-      </c>
-      <c r="B480" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C480" s="18" t="s">
-        <v>636</v>
-      </c>
-      <c r="D480" s="19">
-        <v>4301071050</v>
-      </c>
-      <c r="E480" s="18">
-        <v>4607111036216</v>
-      </c>
-      <c r="F480" s="20" t="s">
-        <v>637</v>
-      </c>
-      <c r="G480" s="21"/>
-      <c r="H480" s="22" t="s">
-        <v>858</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="G479" s="1"/>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A480" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D480" s="4">
+        <v>4301135532</v>
+      </c>
+      <c r="E480" s="3">
+        <v>4607111033994</v>
+      </c>
+      <c r="F480" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="G480" s="1"/>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="17" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="B481" s="18" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C481" s="18" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D481" s="19">
-        <v>4301071049</v>
+        <v>4301071038</v>
       </c>
       <c r="E481" s="18">
-        <v>4607111039293</v>
+        <v>4607111039248</v>
       </c>
       <c r="F481" s="20" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="G481" s="21"/>
       <c r="H481" s="22" t="s">
@@ -17434,22 +17395,22 @@
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="17" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="B482" s="18" t="s">
-        <v>656</v>
+        <v>106</v>
       </c>
       <c r="C482" s="18" t="s">
-        <v>657</v>
+        <v>261</v>
       </c>
       <c r="D482" s="19">
-        <v>4301135532</v>
+        <v>4301070981</v>
       </c>
       <c r="E482" s="18">
-        <v>4607111033994</v>
+        <v>4607111036728</v>
       </c>
       <c r="F482" s="20" t="s">
-        <v>658</v>
+        <v>262</v>
       </c>
       <c r="G482" s="21"/>
       <c r="H482" s="22" t="s">
@@ -17458,22 +17419,22 @@
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="17" t="s">
-        <v>810</v>
-      </c>
-      <c r="B483" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="C483" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="D483" s="4">
-        <v>4301135555</v>
-      </c>
-      <c r="E483" s="3">
-        <v>4607111034014</v>
-      </c>
-      <c r="F483" s="5" t="s">
-        <v>661</v>
+        <v>799</v>
+      </c>
+      <c r="B483" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="C483" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="D483" s="19">
+        <v>4301071039</v>
+      </c>
+      <c r="E483" s="18">
+        <v>4607111039279</v>
+      </c>
+      <c r="F483" s="20" t="s">
+        <v>635</v>
       </c>
       <c r="G483" s="21"/>
       <c r="H483" s="22" t="s">
@@ -17482,46 +17443,46 @@
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="17" t="s">
-        <v>811</v>
-      </c>
-      <c r="B484" s="3" t="s">
-        <v>944</v>
-      </c>
-      <c r="C484" s="3" t="s">
-        <v>945</v>
-      </c>
-      <c r="D484" s="4">
-        <v>4301135793</v>
-      </c>
-      <c r="E484" s="3">
-        <v>4620207491003</v>
-      </c>
-      <c r="F484" s="5" t="s">
-        <v>946</v>
+        <v>800</v>
+      </c>
+      <c r="B484" s="18" t="s">
+        <v>621</v>
+      </c>
+      <c r="C484" s="18" t="s">
+        <v>622</v>
+      </c>
+      <c r="D484" s="19">
+        <v>4301071051</v>
+      </c>
+      <c r="E484" s="18">
+        <v>4607111039262</v>
+      </c>
+      <c r="F484" s="20" t="s">
+        <v>623</v>
       </c>
       <c r="G484" s="21"/>
-      <c r="H484" s="16" t="s">
-        <v>947</v>
+      <c r="H484" s="22" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="17" t="s">
-        <v>812</v>
-      </c>
-      <c r="B485" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C485" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D485" s="4">
-        <v>4301136052</v>
-      </c>
-      <c r="E485" s="3">
-        <v>4640242180410</v>
-      </c>
-      <c r="F485" s="5" t="s">
-        <v>384</v>
+        <v>801</v>
+      </c>
+      <c r="B485" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="C485" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="D485" s="19">
+        <v>4301132080</v>
+      </c>
+      <c r="E485" s="18">
+        <v>4640242180397</v>
+      </c>
+      <c r="F485" s="20" t="s">
+        <v>295</v>
       </c>
       <c r="G485" s="21"/>
       <c r="H485" s="22" t="s">
@@ -17530,22 +17491,22 @@
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="B486" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="C486" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="D486" s="4">
-        <v>4301135518</v>
-      </c>
-      <c r="E486" s="3">
-        <v>4640242181561</v>
-      </c>
-      <c r="F486" s="5" t="s">
-        <v>554</v>
+        <v>802</v>
+      </c>
+      <c r="B486" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C486" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="D486" s="19">
+        <v>4301071029</v>
+      </c>
+      <c r="E486" s="18">
+        <v>4607111035899</v>
+      </c>
+      <c r="F486" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="G486" s="21"/>
       <c r="H486" s="22" t="s">
@@ -17554,22 +17515,22 @@
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="17" t="s">
-        <v>814</v>
-      </c>
-      <c r="B487" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="C487" s="18" t="s">
-        <v>605</v>
-      </c>
-      <c r="D487" s="19">
-        <v>4301135374</v>
-      </c>
-      <c r="E487" s="18">
-        <v>4640242181424</v>
-      </c>
-      <c r="F487" s="20" t="s">
-        <v>606</v>
+        <v>803</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D487" s="4">
+        <v>4301136053</v>
+      </c>
+      <c r="E487" s="3">
+        <v>4640242180236</v>
+      </c>
+      <c r="F487" s="5" t="s">
+        <v>304</v>
       </c>
       <c r="G487" s="21"/>
       <c r="H487" s="22" t="s">
@@ -17578,22 +17539,22 @@
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="17" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="B488" s="18" t="s">
-        <v>859</v>
+        <v>318</v>
       </c>
       <c r="C488" s="18" t="s">
-        <v>860</v>
+        <v>319</v>
       </c>
       <c r="D488" s="19">
-        <v>4301132079</v>
+        <v>4301070977</v>
       </c>
       <c r="E488" s="18">
-        <v>4607111038487</v>
+        <v>4607111037411</v>
       </c>
       <c r="F488" s="20" t="s">
-        <v>425</v>
+        <v>320</v>
       </c>
       <c r="G488" s="21"/>
       <c r="H488" s="22" t="s">
@@ -17602,22 +17563,22 @@
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="17" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="B489" s="18" t="s">
-        <v>164</v>
+        <v>558</v>
       </c>
       <c r="C489" s="18" t="s">
-        <v>639</v>
+        <v>559</v>
       </c>
       <c r="D489" s="19">
-        <v>4301071056</v>
+        <v>4301135375</v>
       </c>
       <c r="E489" s="18">
-        <v>4640242180250</v>
+        <v>4640242181486</v>
       </c>
       <c r="F489" s="20" t="s">
-        <v>640</v>
+        <v>560</v>
       </c>
       <c r="G489" s="21"/>
       <c r="H489" s="22" t="s">
@@ -17626,46 +17587,46 @@
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="17" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>299</v>
+        <v>951</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>300</v>
+        <v>952</v>
       </c>
       <c r="D490" s="4">
-        <v>4301136051</v>
+        <v>4301135760</v>
       </c>
       <c r="E490" s="3">
-        <v>4640242180304</v>
+        <v>4620207491010</v>
       </c>
       <c r="F490" s="5" t="s">
-        <v>301</v>
+        <v>953</v>
       </c>
       <c r="G490" s="21"/>
-      <c r="H490" s="22" t="s">
-        <v>858</v>
+      <c r="H490" s="16" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="17" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="B491" s="18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C491" s="18" t="s">
-        <v>110</v>
+        <v>636</v>
       </c>
       <c r="D491" s="19">
-        <v>4301070920</v>
+        <v>4301071050</v>
       </c>
       <c r="E491" s="18">
-        <v>4607111035929</v>
+        <v>4607111036216</v>
       </c>
       <c r="F491" s="20" t="s">
-        <v>111</v>
+        <v>637</v>
       </c>
       <c r="G491" s="21"/>
       <c r="H491" s="22" t="s">
@@ -17674,22 +17635,22 @@
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="17" t="s">
-        <v>819</v>
-      </c>
-      <c r="B492" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="C492" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="D492" s="4">
-        <v>4301135550</v>
-      </c>
-      <c r="E492" s="3">
-        <v>4607111034199</v>
-      </c>
-      <c r="F492" s="5" t="s">
-        <v>749</v>
+        <v>808</v>
+      </c>
+      <c r="B492" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="C492" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="D492" s="19">
+        <v>4301071049</v>
+      </c>
+      <c r="E492" s="18">
+        <v>4607111039293</v>
+      </c>
+      <c r="F492" s="20" t="s">
+        <v>631</v>
       </c>
       <c r="G492" s="21"/>
       <c r="H492" s="22" t="s">
@@ -17698,22 +17659,22 @@
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="17" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="B493" s="18" t="s">
-        <v>744</v>
+        <v>656</v>
       </c>
       <c r="C493" s="18" t="s">
-        <v>745</v>
+        <v>657</v>
       </c>
       <c r="D493" s="19">
-        <v>4301132186</v>
+        <v>4301135532</v>
       </c>
       <c r="E493" s="18">
-        <v>4607111036520</v>
+        <v>4607111033994</v>
       </c>
       <c r="F493" s="20" t="s">
-        <v>746</v>
+        <v>658</v>
       </c>
       <c r="G493" s="21"/>
       <c r="H493" s="22" t="s">
@@ -17722,22 +17683,22 @@
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="17" t="s">
-        <v>821</v>
-      </c>
-      <c r="B494" s="18" t="s">
-        <v>617</v>
-      </c>
-      <c r="C494" s="18" t="s">
-        <v>618</v>
-      </c>
-      <c r="D494" s="19">
-        <v>4301071047</v>
-      </c>
-      <c r="E494" s="18">
-        <v>4607111039330</v>
-      </c>
-      <c r="F494" s="20" t="s">
-        <v>619</v>
+        <v>810</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="D494" s="4">
+        <v>4301135555</v>
+      </c>
+      <c r="E494" s="3">
+        <v>4607111034014</v>
+      </c>
+      <c r="F494" s="5" t="s">
+        <v>661</v>
       </c>
       <c r="G494" s="21"/>
       <c r="H494" s="22" t="s">
@@ -17746,70 +17707,70 @@
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="17" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>786</v>
+        <v>944</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>787</v>
+        <v>945</v>
       </c>
       <c r="D495" s="4">
-        <v>4301131047</v>
+        <v>4301135793</v>
       </c>
       <c r="E495" s="3">
-        <v>4607111034120</v>
+        <v>4620207491003</v>
       </c>
       <c r="F495" s="5" t="s">
-        <v>788</v>
+        <v>946</v>
       </c>
       <c r="G495" s="21"/>
-      <c r="H495" s="22" t="s">
-        <v>858</v>
+      <c r="H495" s="16" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="17" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>907</v>
+        <v>382</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>908</v>
+        <v>383</v>
       </c>
       <c r="D496" s="4">
-        <v>4301135763</v>
+        <v>4301136052</v>
       </c>
       <c r="E496" s="3">
-        <v>4620207491027</v>
+        <v>4640242180410</v>
       </c>
       <c r="F496" s="5" t="s">
-        <v>909</v>
+        <v>384</v>
       </c>
       <c r="G496" s="21"/>
       <c r="H496" s="22" t="s">
-        <v>966</v>
+        <v>858</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="17" t="s">
-        <v>824</v>
-      </c>
-      <c r="B497" s="18" t="s">
-        <v>562</v>
-      </c>
-      <c r="C497" s="18" t="s">
-        <v>563</v>
-      </c>
-      <c r="D497" s="19">
-        <v>4301135405</v>
-      </c>
-      <c r="E497" s="18">
-        <v>4640242181523</v>
-      </c>
-      <c r="F497" s="20" t="s">
-        <v>564</v>
+        <v>813</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D497" s="4">
+        <v>4301135518</v>
+      </c>
+      <c r="E497" s="3">
+        <v>4640242181561</v>
+      </c>
+      <c r="F497" s="5" t="s">
+        <v>554</v>
       </c>
       <c r="G497" s="21"/>
       <c r="H497" s="22" t="s">
@@ -17818,22 +17779,22 @@
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="17" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="B498" s="18" t="s">
-        <v>711</v>
+        <v>604</v>
       </c>
       <c r="C498" s="18" t="s">
-        <v>712</v>
+        <v>605</v>
       </c>
       <c r="D498" s="19">
-        <v>4301135402</v>
+        <v>4301135374</v>
       </c>
       <c r="E498" s="18">
-        <v>4640242181493</v>
+        <v>4640242181424</v>
       </c>
       <c r="F498" s="20" t="s">
-        <v>710</v>
+        <v>606</v>
       </c>
       <c r="G498" s="21"/>
       <c r="H498" s="22" t="s">
@@ -17842,22 +17803,22 @@
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="17" t="s">
-        <v>826</v>
-      </c>
-      <c r="B499" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="C499" s="3" t="s">
-        <v>887</v>
-      </c>
-      <c r="D499" s="4">
-        <v>4301131046</v>
-      </c>
-      <c r="E499" s="3">
-        <v>4607111034137</v>
-      </c>
-      <c r="F499" s="5" t="s">
-        <v>888</v>
+        <v>815</v>
+      </c>
+      <c r="B499" s="18" t="s">
+        <v>859</v>
+      </c>
+      <c r="C499" s="18" t="s">
+        <v>860</v>
+      </c>
+      <c r="D499" s="19">
+        <v>4301132079</v>
+      </c>
+      <c r="E499" s="18">
+        <v>4607111038487</v>
+      </c>
+      <c r="F499" s="20" t="s">
+        <v>425</v>
       </c>
       <c r="G499" s="21"/>
       <c r="H499" s="22" t="s">
@@ -17866,22 +17827,22 @@
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="17" t="s">
-        <v>827</v>
-      </c>
-      <c r="B500" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="C500" s="3" t="s">
-        <v>893</v>
-      </c>
-      <c r="D500" s="4">
-        <v>4301136079</v>
-      </c>
-      <c r="E500" s="3">
-        <v>4607025784319</v>
-      </c>
-      <c r="F500" s="5" t="s">
-        <v>894</v>
+        <v>816</v>
+      </c>
+      <c r="B500" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C500" s="18" t="s">
+        <v>639</v>
+      </c>
+      <c r="D500" s="19">
+        <v>4301071056</v>
+      </c>
+      <c r="E500" s="18">
+        <v>4640242180250</v>
+      </c>
+      <c r="F500" s="20" t="s">
+        <v>640</v>
       </c>
       <c r="G500" s="21"/>
       <c r="H500" s="22" t="s">
@@ -17890,22 +17851,22 @@
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="17" t="s">
-        <v>828</v>
-      </c>
-      <c r="B501" s="18" t="s">
-        <v>468</v>
-      </c>
-      <c r="C501" s="18" t="s">
-        <v>525</v>
-      </c>
-      <c r="D501" s="19">
-        <v>4301135275</v>
-      </c>
-      <c r="E501" s="18">
-        <v>4607111034380</v>
-      </c>
-      <c r="F501" s="20" t="s">
-        <v>469</v>
+        <v>817</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D501" s="4">
+        <v>4301136051</v>
+      </c>
+      <c r="E501" s="3">
+        <v>4640242180304</v>
+      </c>
+      <c r="F501" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="G501" s="21"/>
       <c r="H501" s="22" t="s">
@@ -17914,46 +17875,46 @@
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="17" t="s">
-        <v>829</v>
-      </c>
-      <c r="B502" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="C502" s="3" t="s">
-        <v>949</v>
-      </c>
-      <c r="D502" s="4">
-        <v>4301135778</v>
-      </c>
-      <c r="E502" s="3">
-        <v>4620207490853</v>
-      </c>
-      <c r="F502" s="5" t="s">
-        <v>950</v>
+        <v>818</v>
+      </c>
+      <c r="B502" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C502" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D502" s="19">
+        <v>4301070920</v>
+      </c>
+      <c r="E502" s="18">
+        <v>4607111035929</v>
+      </c>
+      <c r="F502" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="G502" s="21"/>
-      <c r="H502" s="16" t="s">
-        <v>954</v>
+      <c r="H502" s="22" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="17" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>874</v>
+        <v>747</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>875</v>
+        <v>748</v>
       </c>
       <c r="D503" s="4">
-        <v>4301132179</v>
+        <v>4301135550</v>
       </c>
       <c r="E503" s="3">
-        <v>4607111035691</v>
+        <v>4607111034199</v>
       </c>
       <c r="F503" s="5" t="s">
-        <v>876</v>
+        <v>749</v>
       </c>
       <c r="G503" s="21"/>
       <c r="H503" s="22" t="s">
@@ -17962,22 +17923,22 @@
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="17" t="s">
-        <v>831</v>
-      </c>
-      <c r="B504" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="C504" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="D504" s="4">
-        <v>4301132190</v>
-      </c>
-      <c r="E504" s="3">
-        <v>4607111036537</v>
-      </c>
-      <c r="F504" s="5" t="s">
-        <v>743</v>
+        <v>820</v>
+      </c>
+      <c r="B504" s="18" t="s">
+        <v>744</v>
+      </c>
+      <c r="C504" s="18" t="s">
+        <v>745</v>
+      </c>
+      <c r="D504" s="19">
+        <v>4301132186</v>
+      </c>
+      <c r="E504" s="18">
+        <v>4607111036520</v>
+      </c>
+      <c r="F504" s="20" t="s">
+        <v>746</v>
       </c>
       <c r="G504" s="21"/>
       <c r="H504" s="22" t="s">
@@ -17986,22 +17947,22 @@
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="17" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="B505" s="18" t="s">
-        <v>375</v>
+        <v>617</v>
       </c>
       <c r="C505" s="18" t="s">
-        <v>376</v>
+        <v>618</v>
       </c>
       <c r="D505" s="19">
-        <v>4301131019</v>
+        <v>4301071047</v>
       </c>
       <c r="E505" s="18">
-        <v>4640242180427</v>
+        <v>4607111039330</v>
       </c>
       <c r="F505" s="20" t="s">
-        <v>377</v>
+        <v>619</v>
       </c>
       <c r="G505" s="21"/>
       <c r="H505" s="22" t="s">
@@ -18010,22 +17971,22 @@
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="17" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>895</v>
+        <v>786</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>896</v>
+        <v>787</v>
       </c>
       <c r="D506" s="4">
-        <v>4301135571</v>
+        <v>4301131047</v>
       </c>
       <c r="E506" s="3">
-        <v>4607111035028</v>
+        <v>4607111034120</v>
       </c>
       <c r="F506" s="5" t="s">
-        <v>897</v>
+        <v>788</v>
       </c>
       <c r="G506" s="21"/>
       <c r="H506" s="22" t="s">
@@ -18034,46 +17995,46 @@
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="17" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>933</v>
+        <v>907</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>934</v>
+        <v>908</v>
       </c>
       <c r="D507" s="4">
-        <v>4301135768</v>
+        <v>4301135763</v>
       </c>
       <c r="E507" s="3">
-        <v>4620207491034</v>
+        <v>4620207491027</v>
       </c>
       <c r="F507" s="5" t="s">
-        <v>932</v>
+        <v>909</v>
       </c>
       <c r="G507" s="21"/>
-      <c r="H507" s="16" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="508" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="H507" s="22" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="17" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="B508" s="18" t="s">
-        <v>489</v>
+        <v>562</v>
       </c>
       <c r="C508" s="18" t="s">
-        <v>490</v>
+        <v>563</v>
       </c>
       <c r="D508" s="19">
-        <v>4301070960</v>
+        <v>4301135405</v>
       </c>
       <c r="E508" s="18">
-        <v>4607111038623</v>
+        <v>4640242181523</v>
       </c>
       <c r="F508" s="20" t="s">
-        <v>491</v>
+        <v>564</v>
       </c>
       <c r="G508" s="21"/>
       <c r="H508" s="22" t="s">
@@ -18082,22 +18043,22 @@
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="17" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="B509" s="18" t="s">
-        <v>368</v>
+        <v>711</v>
       </c>
       <c r="C509" s="18" t="s">
-        <v>369</v>
+        <v>712</v>
       </c>
       <c r="D509" s="19">
-        <v>4301070966</v>
+        <v>4301135402</v>
       </c>
       <c r="E509" s="18">
-        <v>4607111038135</v>
+        <v>4640242181493</v>
       </c>
       <c r="F509" s="20" t="s">
-        <v>367</v>
+        <v>710</v>
       </c>
       <c r="G509" s="21"/>
       <c r="H509" s="22" t="s">
@@ -18105,47 +18066,47 @@
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A510" s="10" t="s">
-        <v>904</v>
+      <c r="A510" s="17" t="s">
+        <v>826</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>861</v>
+        <v>886</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>862</v>
+        <v>887</v>
       </c>
       <c r="D510" s="4">
-        <v>4301070990</v>
+        <v>4301131046</v>
       </c>
       <c r="E510" s="3">
-        <v>4607111038494</v>
+        <v>4607111034137</v>
       </c>
       <c r="F510" s="5" t="s">
-        <v>863</v>
-      </c>
-      <c r="G510" s="1"/>
-      <c r="H510" s="16" t="s">
+        <v>888</v>
+      </c>
+      <c r="G510" s="21"/>
+      <c r="H510" s="22" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="17" t="s">
-        <v>838</v>
-      </c>
-      <c r="B511" s="18" t="s">
-        <v>861</v>
-      </c>
-      <c r="C511" s="18" t="s">
-        <v>862</v>
-      </c>
-      <c r="D511" s="19">
-        <v>4301070990</v>
-      </c>
-      <c r="E511" s="18">
-        <v>4607111038494</v>
-      </c>
-      <c r="F511" s="20" t="s">
-        <v>863</v>
+        <v>827</v>
+      </c>
+      <c r="B511" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="C511" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D511" s="4">
+        <v>4301136079</v>
+      </c>
+      <c r="E511" s="3">
+        <v>4607025784319</v>
+      </c>
+      <c r="F511" s="5" t="s">
+        <v>894</v>
       </c>
       <c r="G511" s="21"/>
       <c r="H511" s="22" t="s">
@@ -18154,22 +18115,22 @@
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="17" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="B512" s="18" t="s">
-        <v>154</v>
+        <v>468</v>
       </c>
       <c r="C512" s="18" t="s">
-        <v>155</v>
+        <v>525</v>
       </c>
       <c r="D512" s="19">
-        <v>4301070921</v>
+        <v>4301135275</v>
       </c>
       <c r="E512" s="18">
-        <v>4607111035905</v>
+        <v>4607111034380</v>
       </c>
       <c r="F512" s="20" t="s">
-        <v>156</v>
+        <v>469</v>
       </c>
       <c r="G512" s="21"/>
       <c r="H512" s="22" t="s">
@@ -18178,46 +18139,46 @@
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="17" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>556</v>
+        <v>948</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>557</v>
+        <v>949</v>
       </c>
       <c r="D513" s="4">
-        <v>4301135549</v>
+        <v>4301135778</v>
       </c>
       <c r="E513" s="3">
-        <v>4607111039095</v>
+        <v>4620207490853</v>
       </c>
       <c r="F513" s="5" t="s">
-        <v>555</v>
+        <v>950</v>
       </c>
       <c r="G513" s="21"/>
-      <c r="H513" s="22" t="s">
-        <v>858</v>
+      <c r="H513" s="16" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="17" t="s">
-        <v>841</v>
-      </c>
-      <c r="B514" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C514" s="18" t="s">
-        <v>529</v>
-      </c>
-      <c r="D514" s="19">
-        <v>4301135285</v>
-      </c>
-      <c r="E514" s="18">
-        <v>4607111036407</v>
-      </c>
-      <c r="F514" s="20" t="s">
-        <v>186</v>
+        <v>830</v>
+      </c>
+      <c r="B514" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="C514" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="D514" s="4">
+        <v>4301132179</v>
+      </c>
+      <c r="E514" s="3">
+        <v>4607111035691</v>
+      </c>
+      <c r="F514" s="5" t="s">
+        <v>876</v>
       </c>
       <c r="G514" s="21"/>
       <c r="H514" s="22" t="s">
@@ -18226,22 +18187,22 @@
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="17" t="s">
-        <v>717</v>
+        <v>831</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>715</v>
+        <v>741</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="D515" s="4">
-        <v>4301135607</v>
+        <v>4301132190</v>
       </c>
       <c r="E515" s="3">
-        <v>4607111039613</v>
+        <v>4607111036537</v>
       </c>
       <c r="F515" s="5" t="s">
-        <v>717</v>
+        <v>743</v>
       </c>
       <c r="G515" s="21"/>
       <c r="H515" s="22" t="s">
@@ -18250,22 +18211,22 @@
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="17" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="B516" s="18" t="s">
-        <v>127</v>
+        <v>375</v>
       </c>
       <c r="C516" s="18" t="s">
-        <v>128</v>
+        <v>376</v>
       </c>
       <c r="D516" s="19">
-        <v>4301080153</v>
+        <v>4301131019</v>
       </c>
       <c r="E516" s="18">
-        <v>4607111036827</v>
+        <v>4640242180427</v>
       </c>
       <c r="F516" s="20" t="s">
-        <v>129</v>
+        <v>377</v>
       </c>
       <c r="G516" s="21"/>
       <c r="H516" s="22" t="s">
@@ -18274,22 +18235,22 @@
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="17" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>729</v>
+        <v>895</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>730</v>
+        <v>896</v>
       </c>
       <c r="D517" s="4">
-        <v>4301135574</v>
+        <v>4301135571</v>
       </c>
       <c r="E517" s="3">
-        <v>4607111033659</v>
+        <v>4607111035028</v>
       </c>
       <c r="F517" s="5" t="s">
-        <v>731</v>
+        <v>897</v>
       </c>
       <c r="G517" s="21"/>
       <c r="H517" s="22" t="s">
@@ -18298,46 +18259,46 @@
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="17" t="s">
-        <v>844</v>
-      </c>
-      <c r="B518" s="18" t="s">
-        <v>673</v>
-      </c>
-      <c r="C518" s="18" t="s">
-        <v>674</v>
-      </c>
-      <c r="D518" s="19">
-        <v>4301071044</v>
-      </c>
-      <c r="E518" s="18">
-        <v>4607111039385</v>
-      </c>
-      <c r="F518" s="20" t="s">
-        <v>675</v>
+        <v>834</v>
+      </c>
+      <c r="B518" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="C518" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="D518" s="4">
+        <v>4301135768</v>
+      </c>
+      <c r="E518" s="3">
+        <v>4620207491034</v>
+      </c>
+      <c r="F518" s="5" t="s">
+        <v>932</v>
       </c>
       <c r="G518" s="21"/>
-      <c r="H518" s="22" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H518" s="16" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A519" s="17" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="B519" s="18" t="s">
-        <v>690</v>
+        <v>489</v>
       </c>
       <c r="C519" s="18" t="s">
-        <v>691</v>
+        <v>490</v>
       </c>
       <c r="D519" s="19">
-        <v>4301071031</v>
+        <v>4301070960</v>
       </c>
       <c r="E519" s="18">
-        <v>4607111038982</v>
+        <v>4607111038623</v>
       </c>
       <c r="F519" s="20" t="s">
-        <v>692</v>
+        <v>491</v>
       </c>
       <c r="G519" s="21"/>
       <c r="H519" s="22" t="s">
@@ -18346,22 +18307,22 @@
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="17" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="B520" s="18" t="s">
-        <v>181</v>
+        <v>368</v>
       </c>
       <c r="C520" s="18" t="s">
-        <v>182</v>
+        <v>369</v>
       </c>
       <c r="D520" s="19">
-        <v>4301070917</v>
+        <v>4301070966</v>
       </c>
       <c r="E520" s="18">
-        <v>4607111035912</v>
+        <v>4607111038135</v>
       </c>
       <c r="F520" s="20" t="s">
-        <v>183</v>
+        <v>367</v>
       </c>
       <c r="G520" s="21"/>
       <c r="H520" s="22" t="s">
@@ -18369,95 +18330,95 @@
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A521" s="17" t="s">
-        <v>847</v>
+      <c r="A521" s="10" t="s">
+        <v>904</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>169</v>
+        <v>861</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>530</v>
+        <v>862</v>
       </c>
       <c r="D521" s="4">
-        <v>4301136070</v>
+        <v>4301070990</v>
       </c>
       <c r="E521" s="3">
-        <v>4607025784012</v>
+        <v>4607111038494</v>
       </c>
       <c r="F521" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="G521" s="21"/>
-      <c r="H521" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="G521" s="1"/>
+      <c r="H521" s="16" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="17" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="B522" s="18" t="s">
-        <v>613</v>
+        <v>861</v>
       </c>
       <c r="C522" s="18" t="s">
-        <v>614</v>
+        <v>862</v>
       </c>
       <c r="D522" s="19">
-        <v>4301071046</v>
+        <v>4301070990</v>
       </c>
       <c r="E522" s="18">
-        <v>4607111039354</v>
+        <v>4607111038494</v>
       </c>
       <c r="F522" s="20" t="s">
-        <v>615</v>
+        <v>863</v>
       </c>
       <c r="G522" s="21"/>
       <c r="H522" s="22" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="523" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="17" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="B523" s="18" t="s">
-        <v>864</v>
+        <v>154</v>
       </c>
       <c r="C523" s="18" t="s">
-        <v>865</v>
+        <v>155</v>
       </c>
       <c r="D523" s="19">
-        <v>4301070959</v>
+        <v>4301070921</v>
       </c>
       <c r="E523" s="18">
-        <v>4607111038616</v>
+        <v>4607111035905</v>
       </c>
       <c r="F523" s="20" t="s">
-        <v>866</v>
+        <v>156</v>
       </c>
       <c r="G523" s="21"/>
       <c r="H523" s="22" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="524" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="17" t="s">
-        <v>850</v>
-      </c>
-      <c r="B524" s="18" t="s">
-        <v>867</v>
-      </c>
-      <c r="C524" s="18" t="s">
-        <v>868</v>
-      </c>
-      <c r="D524" s="19">
-        <v>4301070962</v>
-      </c>
-      <c r="E524" s="18">
-        <v>4607111038609</v>
-      </c>
-      <c r="F524" s="20" t="s">
-        <v>869</v>
+        <v>840</v>
+      </c>
+      <c r="B524" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C524" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D524" s="4">
+        <v>4301135549</v>
+      </c>
+      <c r="E524" s="3">
+        <v>4607111039095</v>
+      </c>
+      <c r="F524" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="G524" s="21"/>
       <c r="H524" s="22" t="s">
@@ -18466,22 +18427,22 @@
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="17" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="B525" s="18" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="C525" s="18" t="s">
-        <v>255</v>
+        <v>529</v>
       </c>
       <c r="D525" s="19">
-        <v>4301070948</v>
+        <v>4301135285</v>
       </c>
       <c r="E525" s="18">
-        <v>4607111037022</v>
+        <v>4607111036407</v>
       </c>
       <c r="F525" s="20" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="G525" s="21"/>
       <c r="H525" s="22" t="s">
@@ -18490,22 +18451,22 @@
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="17" t="s">
-        <v>852</v>
-      </c>
-      <c r="B526" s="18" t="s">
-        <v>704</v>
-      </c>
-      <c r="C526" s="18" t="s">
-        <v>705</v>
-      </c>
-      <c r="D526" s="19">
-        <v>4301135570</v>
-      </c>
-      <c r="E526" s="18">
-        <v>4607111035806</v>
-      </c>
-      <c r="F526" s="20" t="s">
-        <v>706</v>
+        <v>717</v>
+      </c>
+      <c r="B526" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C526" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="D526" s="4">
+        <v>4301135607</v>
+      </c>
+      <c r="E526" s="3">
+        <v>4607111039613</v>
+      </c>
+      <c r="F526" s="5" t="s">
+        <v>717</v>
       </c>
       <c r="G526" s="21"/>
       <c r="H526" s="22" t="s">
@@ -18514,22 +18475,22 @@
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="17" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="B527" s="18" t="s">
-        <v>733</v>
+        <v>127</v>
       </c>
       <c r="C527" s="18" t="s">
-        <v>734</v>
+        <v>128</v>
       </c>
       <c r="D527" s="19">
-        <v>4301071032</v>
+        <v>4301080153</v>
       </c>
       <c r="E527" s="18">
-        <v>4607111038999</v>
+        <v>4607111036827</v>
       </c>
       <c r="F527" s="20" t="s">
-        <v>735</v>
+        <v>129</v>
       </c>
       <c r="G527" s="21"/>
       <c r="H527" s="22" t="s">
@@ -18538,22 +18499,22 @@
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="17" t="s">
-        <v>854</v>
-      </c>
-      <c r="B528" s="18" t="s">
-        <v>677</v>
-      </c>
-      <c r="C528" s="18" t="s">
-        <v>678</v>
-      </c>
-      <c r="D528" s="19">
-        <v>4301071045</v>
-      </c>
-      <c r="E528" s="18">
-        <v>4607111039392</v>
-      </c>
-      <c r="F528" s="20" t="s">
-        <v>679</v>
+        <v>843</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="C528" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="D528" s="4">
+        <v>4301135574</v>
+      </c>
+      <c r="E528" s="3">
+        <v>4607111033659</v>
+      </c>
+      <c r="F528" s="5" t="s">
+        <v>731</v>
       </c>
       <c r="G528" s="21"/>
       <c r="H528" s="22" t="s">
@@ -18562,22 +18523,22 @@
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="17" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="B529" s="18" t="s">
-        <v>485</v>
+        <v>673</v>
       </c>
       <c r="C529" s="18" t="s">
-        <v>486</v>
+        <v>674</v>
       </c>
       <c r="D529" s="19">
-        <v>4301070963</v>
+        <v>4301071044</v>
       </c>
       <c r="E529" s="18">
-        <v>4607111038630</v>
+        <v>4607111039385</v>
       </c>
       <c r="F529" s="20" t="s">
-        <v>487</v>
+        <v>675</v>
       </c>
       <c r="G529" s="21"/>
       <c r="H529" s="22" t="s">
@@ -18586,22 +18547,22 @@
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="17" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="B530" s="18" t="s">
-        <v>595</v>
+        <v>690</v>
       </c>
       <c r="C530" s="18" t="s">
-        <v>596</v>
+        <v>691</v>
       </c>
       <c r="D530" s="19">
-        <v>4301071054</v>
+        <v>4301071031</v>
       </c>
       <c r="E530" s="18">
-        <v>4607111035639</v>
+        <v>4607111038982</v>
       </c>
       <c r="F530" s="20" t="s">
-        <v>597</v>
+        <v>692</v>
       </c>
       <c r="G530" s="21"/>
       <c r="H530" s="22" t="s">
@@ -18610,30 +18571,294 @@
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="17" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="B531" s="18" t="s">
-        <v>340</v>
+        <v>181</v>
       </c>
       <c r="C531" s="18" t="s">
-        <v>565</v>
+        <v>182</v>
       </c>
       <c r="D531" s="19">
-        <v>4301135540</v>
+        <v>4301070917</v>
       </c>
       <c r="E531" s="18">
-        <v>4607111035646</v>
+        <v>4607111035912</v>
       </c>
       <c r="F531" s="20" t="s">
-        <v>566</v>
+        <v>183</v>
       </c>
       <c r="G531" s="21"/>
       <c r="H531" s="22" t="s">
         <v>858</v>
       </c>
     </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A532" s="17" t="s">
+        <v>847</v>
+      </c>
+      <c r="B532" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C532" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="D532" s="4">
+        <v>4301136070</v>
+      </c>
+      <c r="E532" s="3">
+        <v>4607025784012</v>
+      </c>
+      <c r="F532" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G532" s="21"/>
+      <c r="H532" s="22" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A533" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="B533" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="C533" s="18" t="s">
+        <v>614</v>
+      </c>
+      <c r="D533" s="19">
+        <v>4301071046</v>
+      </c>
+      <c r="E533" s="18">
+        <v>4607111039354</v>
+      </c>
+      <c r="F533" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="G533" s="21"/>
+      <c r="H533" s="22" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A534" s="17" t="s">
+        <v>849</v>
+      </c>
+      <c r="B534" s="18" t="s">
+        <v>864</v>
+      </c>
+      <c r="C534" s="18" t="s">
+        <v>865</v>
+      </c>
+      <c r="D534" s="19">
+        <v>4301070959</v>
+      </c>
+      <c r="E534" s="18">
+        <v>4607111038616</v>
+      </c>
+      <c r="F534" s="20" t="s">
+        <v>866</v>
+      </c>
+      <c r="G534" s="21"/>
+      <c r="H534" s="22" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A535" s="17" t="s">
+        <v>850</v>
+      </c>
+      <c r="B535" s="18" t="s">
+        <v>867</v>
+      </c>
+      <c r="C535" s="18" t="s">
+        <v>868</v>
+      </c>
+      <c r="D535" s="19">
+        <v>4301070962</v>
+      </c>
+      <c r="E535" s="18">
+        <v>4607111038609</v>
+      </c>
+      <c r="F535" s="20" t="s">
+        <v>869</v>
+      </c>
+      <c r="G535" s="21"/>
+      <c r="H535" s="22" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A536" s="17" t="s">
+        <v>851</v>
+      </c>
+      <c r="B536" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="C536" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D536" s="19">
+        <v>4301070948</v>
+      </c>
+      <c r="E536" s="18">
+        <v>4607111037022</v>
+      </c>
+      <c r="F536" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G536" s="21"/>
+      <c r="H536" s="22" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A537" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="B537" s="18" t="s">
+        <v>704</v>
+      </c>
+      <c r="C537" s="18" t="s">
+        <v>705</v>
+      </c>
+      <c r="D537" s="19">
+        <v>4301135570</v>
+      </c>
+      <c r="E537" s="18">
+        <v>4607111035806</v>
+      </c>
+      <c r="F537" s="20" t="s">
+        <v>706</v>
+      </c>
+      <c r="G537" s="21"/>
+      <c r="H537" s="22" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A538" s="17" t="s">
+        <v>853</v>
+      </c>
+      <c r="B538" s="18" t="s">
+        <v>733</v>
+      </c>
+      <c r="C538" s="18" t="s">
+        <v>734</v>
+      </c>
+      <c r="D538" s="19">
+        <v>4301071032</v>
+      </c>
+      <c r="E538" s="18">
+        <v>4607111038999</v>
+      </c>
+      <c r="F538" s="20" t="s">
+        <v>735</v>
+      </c>
+      <c r="G538" s="21"/>
+      <c r="H538" s="22" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A539" s="17" t="s">
+        <v>854</v>
+      </c>
+      <c r="B539" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="C539" s="18" t="s">
+        <v>678</v>
+      </c>
+      <c r="D539" s="19">
+        <v>4301071045</v>
+      </c>
+      <c r="E539" s="18">
+        <v>4607111039392</v>
+      </c>
+      <c r="F539" s="20" t="s">
+        <v>679</v>
+      </c>
+      <c r="G539" s="21"/>
+      <c r="H539" s="22" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A540" s="17" t="s">
+        <v>855</v>
+      </c>
+      <c r="B540" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="C540" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="D540" s="19">
+        <v>4301070963</v>
+      </c>
+      <c r="E540" s="18">
+        <v>4607111038630</v>
+      </c>
+      <c r="F540" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="G540" s="21"/>
+      <c r="H540" s="22" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A541" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="B541" s="18" t="s">
+        <v>595</v>
+      </c>
+      <c r="C541" s="18" t="s">
+        <v>596</v>
+      </c>
+      <c r="D541" s="19">
+        <v>4301071054</v>
+      </c>
+      <c r="E541" s="18">
+        <v>4607111035639</v>
+      </c>
+      <c r="F541" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="G541" s="21"/>
+      <c r="H541" s="22" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A542" s="17" t="s">
+        <v>857</v>
+      </c>
+      <c r="B542" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="C542" s="18" t="s">
+        <v>565</v>
+      </c>
+      <c r="D542" s="19">
+        <v>4301135540</v>
+      </c>
+      <c r="E542" s="18">
+        <v>4607111035646</v>
+      </c>
+      <c r="F542" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="G542" s="21"/>
+      <c r="H542" s="22" t="s">
+        <v>858</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F531" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+  <autoFilter ref="A1:F542" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F253">
       <sortCondition ref="A1:A184"/>
     </sortState>

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B4503A-BB0D-4FC6-8FD1-E39EB10A0FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F568EDB0-97F6-46BF-AFB1-F0A310AC8F68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$542</definedName>
     <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$481</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3181,7 +3187,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Лист1"/>
@@ -6205,7 +6211,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H467" sqref="H467"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F568EDB0-97F6-46BF-AFB1-F0A310AC8F68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27887CA9-6D32-42CE-ABBA-B7E7B626E5A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A42D91-0439-4969-B91E-E61CDF699E66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B49F468-A3A1-49BF-B492-756E6DAF02BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,8 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$543</definedName>
-    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$482</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$545</definedName>
+    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$484</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="978">
   <si>
     <t>1С</t>
   </si>
@@ -2949,6 +2949,30 @@
   </si>
   <si>
     <t>Готовые чебупели с мясом ТМ Горячая штучка флоу-пак 0,24 кг.  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Пельмени Бульмени Нейробуст с мясом ТМ Горячая штучка ТС Бульмени ГШ сфера флоу-пак 0,6 кг.  ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU003845</t>
+  </si>
+  <si>
+    <t>P004909</t>
+  </si>
+  <si>
+    <t>Пельмени ПГП «Пельмени Бульмени Нейробуст с мясом» Фикс.вес 0,6 сфера ТМ «Горячая штучка»</t>
+  </si>
+  <si>
+    <t>Пельмени Добросельские со свининой и говядиной ТМ Стародворье флоу-пак клас. форма 0,65 кг.  ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU003841</t>
+  </si>
+  <si>
+    <t>P004905</t>
+  </si>
+  <si>
+    <t>Пельмени «Добросельские со свининой и говядиной» Фикс.вес 0,65 классическая форма ТМ «Стародворье»</t>
   </si>
 </sst>
 </file>
@@ -6204,11 +6228,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H543"/>
+  <dimension ref="A1:H545"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17403,71 +17427,65 @@
       <c r="G481" s="1"/>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A482" s="17" t="s">
-        <v>794</v>
-      </c>
-      <c r="B482" s="18" t="s">
-        <v>622</v>
-      </c>
-      <c r="C482" s="18" t="s">
-        <v>623</v>
-      </c>
-      <c r="D482" s="19">
-        <v>4301071038</v>
-      </c>
-      <c r="E482" s="18">
-        <v>4607111039248</v>
-      </c>
-      <c r="F482" s="20" t="s">
-        <v>624</v>
-      </c>
-      <c r="G482" s="21"/>
-      <c r="H482" s="22" t="s">
-        <v>855</v>
-      </c>
+      <c r="A482" s="10" t="s">
+        <v>970</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="D482" s="4">
+        <v>4301071094</v>
+      </c>
+      <c r="E482" s="3">
+        <v>4620207491140</v>
+      </c>
+      <c r="F482" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="G482" s="1"/>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A483" s="17" t="s">
-        <v>795</v>
-      </c>
-      <c r="B483" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C483" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="D483" s="19">
-        <v>4301070981</v>
-      </c>
-      <c r="E483" s="18">
-        <v>4607111036728</v>
-      </c>
-      <c r="F483" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="G483" s="21"/>
-      <c r="H483" s="22" t="s">
-        <v>855</v>
-      </c>
+      <c r="A483" s="10" t="s">
+        <v>974</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="D483" s="4">
+        <v>4301071093</v>
+      </c>
+      <c r="E483" s="3">
+        <v>4620207490709</v>
+      </c>
+      <c r="F483" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="G483" s="1"/>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="17" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B484" s="18" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="C484" s="18" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="D484" s="19">
-        <v>4301071039</v>
+        <v>4301071038</v>
       </c>
       <c r="E484" s="18">
-        <v>4607111039279</v>
+        <v>4607111039248</v>
       </c>
       <c r="F484" s="20" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="G484" s="21"/>
       <c r="H484" s="22" t="s">
@@ -17476,22 +17494,22 @@
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="17" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B485" s="18" t="s">
-        <v>618</v>
+        <v>106</v>
       </c>
       <c r="C485" s="18" t="s">
-        <v>619</v>
+        <v>261</v>
       </c>
       <c r="D485" s="19">
-        <v>4301071051</v>
+        <v>4301070981</v>
       </c>
       <c r="E485" s="18">
-        <v>4607111039262</v>
+        <v>4607111036728</v>
       </c>
       <c r="F485" s="20" t="s">
-        <v>620</v>
+        <v>262</v>
       </c>
       <c r="G485" s="21"/>
       <c r="H485" s="22" t="s">
@@ -17500,22 +17518,22 @@
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="17" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B486" s="18" t="s">
-        <v>293</v>
+        <v>630</v>
       </c>
       <c r="C486" s="18" t="s">
-        <v>294</v>
+        <v>631</v>
       </c>
       <c r="D486" s="19">
-        <v>4301132080</v>
+        <v>4301071039</v>
       </c>
       <c r="E486" s="18">
-        <v>4640242180397</v>
+        <v>4607111039279</v>
       </c>
       <c r="F486" s="20" t="s">
-        <v>295</v>
+        <v>632</v>
       </c>
       <c r="G486" s="21"/>
       <c r="H486" s="22" t="s">
@@ -17524,22 +17542,22 @@
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="17" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B487" s="18" t="s">
-        <v>113</v>
+        <v>618</v>
       </c>
       <c r="C487" s="18" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
       <c r="D487" s="19">
-        <v>4301071029</v>
+        <v>4301071051</v>
       </c>
       <c r="E487" s="18">
-        <v>4607111035899</v>
+        <v>4607111039262</v>
       </c>
       <c r="F487" s="20" t="s">
-        <v>114</v>
+        <v>620</v>
       </c>
       <c r="G487" s="21"/>
       <c r="H487" s="22" t="s">
@@ -17548,22 +17566,22 @@
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="17" t="s">
-        <v>800</v>
-      </c>
-      <c r="B488" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C488" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D488" s="4">
-        <v>4301136053</v>
-      </c>
-      <c r="E488" s="3">
-        <v>4640242180236</v>
-      </c>
-      <c r="F488" s="5" t="s">
-        <v>304</v>
+        <v>798</v>
+      </c>
+      <c r="B488" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="C488" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="D488" s="19">
+        <v>4301132080</v>
+      </c>
+      <c r="E488" s="18">
+        <v>4640242180397</v>
+      </c>
+      <c r="F488" s="20" t="s">
+        <v>295</v>
       </c>
       <c r="G488" s="21"/>
       <c r="H488" s="22" t="s">
@@ -17572,22 +17590,22 @@
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="17" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B489" s="18" t="s">
-        <v>318</v>
+        <v>113</v>
       </c>
       <c r="C489" s="18" t="s">
-        <v>319</v>
+        <v>524</v>
       </c>
       <c r="D489" s="19">
-        <v>4301070977</v>
+        <v>4301071029</v>
       </c>
       <c r="E489" s="18">
-        <v>4607111037411</v>
+        <v>4607111035899</v>
       </c>
       <c r="F489" s="20" t="s">
-        <v>320</v>
+        <v>114</v>
       </c>
       <c r="G489" s="21"/>
       <c r="H489" s="22" t="s">
@@ -17596,22 +17614,22 @@
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="17" t="s">
-        <v>802</v>
-      </c>
-      <c r="B490" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="C490" s="18" t="s">
-        <v>556</v>
-      </c>
-      <c r="D490" s="19">
-        <v>4301135375</v>
-      </c>
-      <c r="E490" s="18">
-        <v>4640242181486</v>
-      </c>
-      <c r="F490" s="20" t="s">
-        <v>557</v>
+        <v>800</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D490" s="4">
+        <v>4301136053</v>
+      </c>
+      <c r="E490" s="3">
+        <v>4640242180236</v>
+      </c>
+      <c r="F490" s="5" t="s">
+        <v>304</v>
       </c>
       <c r="G490" s="21"/>
       <c r="H490" s="22" t="s">
@@ -17620,46 +17638,46 @@
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="17" t="s">
-        <v>803</v>
-      </c>
-      <c r="B491" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="C491" s="3" t="s">
-        <v>949</v>
-      </c>
-      <c r="D491" s="4">
-        <v>4301135760</v>
-      </c>
-      <c r="E491" s="3">
-        <v>4620207491010</v>
-      </c>
-      <c r="F491" s="5" t="s">
-        <v>950</v>
+        <v>801</v>
+      </c>
+      <c r="B491" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="C491" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="D491" s="19">
+        <v>4301070977</v>
+      </c>
+      <c r="E491" s="18">
+        <v>4607111037411</v>
+      </c>
+      <c r="F491" s="20" t="s">
+        <v>320</v>
       </c>
       <c r="G491" s="21"/>
-      <c r="H491" s="16" t="s">
-        <v>944</v>
+      <c r="H491" s="22" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="17" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B492" s="18" t="s">
-        <v>112</v>
+        <v>555</v>
       </c>
       <c r="C492" s="18" t="s">
-        <v>633</v>
+        <v>556</v>
       </c>
       <c r="D492" s="19">
-        <v>4301071050</v>
+        <v>4301135375</v>
       </c>
       <c r="E492" s="18">
-        <v>4607111036216</v>
+        <v>4640242181486</v>
       </c>
       <c r="F492" s="20" t="s">
-        <v>634</v>
+        <v>557</v>
       </c>
       <c r="G492" s="21"/>
       <c r="H492" s="22" t="s">
@@ -17668,46 +17686,46 @@
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="17" t="s">
-        <v>805</v>
-      </c>
-      <c r="B493" s="18" t="s">
-        <v>626</v>
-      </c>
-      <c r="C493" s="18" t="s">
-        <v>627</v>
-      </c>
-      <c r="D493" s="19">
-        <v>4301071049</v>
-      </c>
-      <c r="E493" s="18">
-        <v>4607111039293</v>
-      </c>
-      <c r="F493" s="20" t="s">
-        <v>628</v>
+        <v>803</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="D493" s="4">
+        <v>4301135760</v>
+      </c>
+      <c r="E493" s="3">
+        <v>4620207491010</v>
+      </c>
+      <c r="F493" s="5" t="s">
+        <v>950</v>
       </c>
       <c r="G493" s="21"/>
-      <c r="H493" s="22" t="s">
-        <v>855</v>
+      <c r="H493" s="16" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="17" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B494" s="18" t="s">
-        <v>653</v>
+        <v>112</v>
       </c>
       <c r="C494" s="18" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
       <c r="D494" s="19">
-        <v>4301135532</v>
+        <v>4301071050</v>
       </c>
       <c r="E494" s="18">
-        <v>4607111033994</v>
+        <v>4607111036216</v>
       </c>
       <c r="F494" s="20" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="G494" s="21"/>
       <c r="H494" s="22" t="s">
@@ -17716,22 +17734,22 @@
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="17" t="s">
-        <v>807</v>
-      </c>
-      <c r="B495" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="C495" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="D495" s="4">
-        <v>4301135555</v>
-      </c>
-      <c r="E495" s="3">
-        <v>4607111034014</v>
-      </c>
-      <c r="F495" s="5" t="s">
-        <v>658</v>
+        <v>805</v>
+      </c>
+      <c r="B495" s="18" t="s">
+        <v>626</v>
+      </c>
+      <c r="C495" s="18" t="s">
+        <v>627</v>
+      </c>
+      <c r="D495" s="19">
+        <v>4301071049</v>
+      </c>
+      <c r="E495" s="18">
+        <v>4607111039293</v>
+      </c>
+      <c r="F495" s="20" t="s">
+        <v>628</v>
       </c>
       <c r="G495" s="21"/>
       <c r="H495" s="22" t="s">
@@ -17740,46 +17758,46 @@
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="17" t="s">
-        <v>808</v>
-      </c>
-      <c r="B496" s="3" t="s">
-        <v>941</v>
-      </c>
-      <c r="C496" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="D496" s="4">
-        <v>4301135793</v>
-      </c>
-      <c r="E496" s="3">
-        <v>4620207491003</v>
-      </c>
-      <c r="F496" s="5" t="s">
-        <v>943</v>
+        <v>806</v>
+      </c>
+      <c r="B496" s="18" t="s">
+        <v>653</v>
+      </c>
+      <c r="C496" s="18" t="s">
+        <v>654</v>
+      </c>
+      <c r="D496" s="19">
+        <v>4301135532</v>
+      </c>
+      <c r="E496" s="18">
+        <v>4607111033994</v>
+      </c>
+      <c r="F496" s="20" t="s">
+        <v>655</v>
       </c>
       <c r="G496" s="21"/>
-      <c r="H496" s="16" t="s">
-        <v>944</v>
+      <c r="H496" s="22" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>382</v>
+        <v>656</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>383</v>
+        <v>657</v>
       </c>
       <c r="D497" s="4">
-        <v>4301136052</v>
+        <v>4301135555</v>
       </c>
       <c r="E497" s="3">
-        <v>4640242180410</v>
+        <v>4607111034014</v>
       </c>
       <c r="F497" s="5" t="s">
-        <v>384</v>
+        <v>658</v>
       </c>
       <c r="G497" s="21"/>
       <c r="H497" s="22" t="s">
@@ -17788,46 +17806,46 @@
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="17" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>549</v>
+        <v>941</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>550</v>
+        <v>942</v>
       </c>
       <c r="D498" s="4">
-        <v>4301135518</v>
+        <v>4301135793</v>
       </c>
       <c r="E498" s="3">
-        <v>4640242181561</v>
+        <v>4620207491003</v>
       </c>
       <c r="F498" s="5" t="s">
-        <v>551</v>
+        <v>943</v>
       </c>
       <c r="G498" s="21"/>
-      <c r="H498" s="22" t="s">
-        <v>855</v>
+      <c r="H498" s="16" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="17" t="s">
-        <v>811</v>
-      </c>
-      <c r="B499" s="18" t="s">
-        <v>601</v>
-      </c>
-      <c r="C499" s="18" t="s">
-        <v>602</v>
-      </c>
-      <c r="D499" s="19">
-        <v>4301135374</v>
-      </c>
-      <c r="E499" s="18">
-        <v>4640242181424</v>
-      </c>
-      <c r="F499" s="20" t="s">
-        <v>603</v>
+        <v>809</v>
+      </c>
+      <c r="B499" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C499" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D499" s="4">
+        <v>4301136052</v>
+      </c>
+      <c r="E499" s="3">
+        <v>4640242180410</v>
+      </c>
+      <c r="F499" s="5" t="s">
+        <v>384</v>
       </c>
       <c r="G499" s="21"/>
       <c r="H499" s="22" t="s">
@@ -17836,22 +17854,22 @@
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="17" t="s">
-        <v>812</v>
-      </c>
-      <c r="B500" s="18" t="s">
-        <v>856</v>
-      </c>
-      <c r="C500" s="18" t="s">
-        <v>857</v>
-      </c>
-      <c r="D500" s="19">
-        <v>4301132079</v>
-      </c>
-      <c r="E500" s="18">
-        <v>4607111038487</v>
-      </c>
-      <c r="F500" s="20" t="s">
-        <v>425</v>
+        <v>810</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D500" s="4">
+        <v>4301135518</v>
+      </c>
+      <c r="E500" s="3">
+        <v>4640242181561</v>
+      </c>
+      <c r="F500" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="G500" s="21"/>
       <c r="H500" s="22" t="s">
@@ -17860,22 +17878,22 @@
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="17" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B501" s="18" t="s">
-        <v>164</v>
+        <v>601</v>
       </c>
       <c r="C501" s="18" t="s">
-        <v>636</v>
+        <v>602</v>
       </c>
       <c r="D501" s="19">
-        <v>4301071056</v>
+        <v>4301135374</v>
       </c>
       <c r="E501" s="18">
-        <v>4640242180250</v>
+        <v>4640242181424</v>
       </c>
       <c r="F501" s="20" t="s">
-        <v>637</v>
+        <v>603</v>
       </c>
       <c r="G501" s="21"/>
       <c r="H501" s="22" t="s">
@@ -17884,22 +17902,22 @@
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="17" t="s">
-        <v>814</v>
-      </c>
-      <c r="B502" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C502" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D502" s="4">
-        <v>4301136051</v>
-      </c>
-      <c r="E502" s="3">
-        <v>4640242180304</v>
-      </c>
-      <c r="F502" s="5" t="s">
-        <v>301</v>
+        <v>812</v>
+      </c>
+      <c r="B502" s="18" t="s">
+        <v>856</v>
+      </c>
+      <c r="C502" s="18" t="s">
+        <v>857</v>
+      </c>
+      <c r="D502" s="19">
+        <v>4301132079</v>
+      </c>
+      <c r="E502" s="18">
+        <v>4607111038487</v>
+      </c>
+      <c r="F502" s="20" t="s">
+        <v>425</v>
       </c>
       <c r="G502" s="21"/>
       <c r="H502" s="22" t="s">
@@ -17908,22 +17926,22 @@
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="17" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B503" s="18" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="C503" s="18" t="s">
-        <v>110</v>
+        <v>636</v>
       </c>
       <c r="D503" s="19">
-        <v>4301070920</v>
+        <v>4301071056</v>
       </c>
       <c r="E503" s="18">
-        <v>4607111035929</v>
+        <v>4640242180250</v>
       </c>
       <c r="F503" s="20" t="s">
-        <v>111</v>
+        <v>637</v>
       </c>
       <c r="G503" s="21"/>
       <c r="H503" s="22" t="s">
@@ -17932,22 +17950,22 @@
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="17" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>744</v>
+        <v>299</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>745</v>
+        <v>300</v>
       </c>
       <c r="D504" s="4">
-        <v>4301135550</v>
+        <v>4301136051</v>
       </c>
       <c r="E504" s="3">
-        <v>4607111034199</v>
+        <v>4640242180304</v>
       </c>
       <c r="F504" s="5" t="s">
-        <v>746</v>
+        <v>301</v>
       </c>
       <c r="G504" s="21"/>
       <c r="H504" s="22" t="s">
@@ -17956,22 +17974,22 @@
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="17" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B505" s="18" t="s">
-        <v>741</v>
+        <v>109</v>
       </c>
       <c r="C505" s="18" t="s">
-        <v>742</v>
+        <v>110</v>
       </c>
       <c r="D505" s="19">
-        <v>4301132186</v>
+        <v>4301070920</v>
       </c>
       <c r="E505" s="18">
-        <v>4607111036520</v>
+        <v>4607111035929</v>
       </c>
       <c r="F505" s="20" t="s">
-        <v>743</v>
+        <v>111</v>
       </c>
       <c r="G505" s="21"/>
       <c r="H505" s="22" t="s">
@@ -17980,22 +17998,22 @@
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="17" t="s">
-        <v>818</v>
-      </c>
-      <c r="B506" s="18" t="s">
-        <v>614</v>
-      </c>
-      <c r="C506" s="18" t="s">
-        <v>615</v>
-      </c>
-      <c r="D506" s="19">
-        <v>4301071047</v>
-      </c>
-      <c r="E506" s="18">
-        <v>4607111039330</v>
-      </c>
-      <c r="F506" s="20" t="s">
-        <v>616</v>
+        <v>816</v>
+      </c>
+      <c r="B506" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C506" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="D506" s="4">
+        <v>4301135550</v>
+      </c>
+      <c r="E506" s="3">
+        <v>4607111034199</v>
+      </c>
+      <c r="F506" s="5" t="s">
+        <v>746</v>
       </c>
       <c r="G506" s="21"/>
       <c r="H506" s="22" t="s">
@@ -18004,22 +18022,22 @@
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="17" t="s">
-        <v>819</v>
-      </c>
-      <c r="B507" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="C507" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="D507" s="4">
-        <v>4301131047</v>
-      </c>
-      <c r="E507" s="3">
-        <v>4607111034120</v>
-      </c>
-      <c r="F507" s="5" t="s">
-        <v>785</v>
+        <v>817</v>
+      </c>
+      <c r="B507" s="18" t="s">
+        <v>741</v>
+      </c>
+      <c r="C507" s="18" t="s">
+        <v>742</v>
+      </c>
+      <c r="D507" s="19">
+        <v>4301132186</v>
+      </c>
+      <c r="E507" s="18">
+        <v>4607111036520</v>
+      </c>
+      <c r="F507" s="20" t="s">
+        <v>743</v>
       </c>
       <c r="G507" s="21"/>
       <c r="H507" s="22" t="s">
@@ -18028,46 +18046,46 @@
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="17" t="s">
-        <v>820</v>
-      </c>
-      <c r="B508" s="3" t="s">
-        <v>904</v>
-      </c>
-      <c r="C508" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="D508" s="4">
-        <v>4301135763</v>
-      </c>
-      <c r="E508" s="3">
-        <v>4620207491027</v>
-      </c>
-      <c r="F508" s="5" t="s">
-        <v>906</v>
+        <v>818</v>
+      </c>
+      <c r="B508" s="18" t="s">
+        <v>614</v>
+      </c>
+      <c r="C508" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="D508" s="19">
+        <v>4301071047</v>
+      </c>
+      <c r="E508" s="18">
+        <v>4607111039330</v>
+      </c>
+      <c r="F508" s="20" t="s">
+        <v>616</v>
       </c>
       <c r="G508" s="21"/>
       <c r="H508" s="22" t="s">
-        <v>963</v>
+        <v>855</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="17" t="s">
-        <v>821</v>
-      </c>
-      <c r="B509" s="18" t="s">
-        <v>559</v>
-      </c>
-      <c r="C509" s="18" t="s">
-        <v>560</v>
-      </c>
-      <c r="D509" s="19">
-        <v>4301135405</v>
-      </c>
-      <c r="E509" s="18">
-        <v>4640242181523</v>
-      </c>
-      <c r="F509" s="20" t="s">
-        <v>561</v>
+        <v>819</v>
+      </c>
+      <c r="B509" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="C509" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="D509" s="4">
+        <v>4301131047</v>
+      </c>
+      <c r="E509" s="3">
+        <v>4607111034120</v>
+      </c>
+      <c r="F509" s="5" t="s">
+        <v>785</v>
       </c>
       <c r="G509" s="21"/>
       <c r="H509" s="22" t="s">
@@ -18076,46 +18094,46 @@
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="17" t="s">
-        <v>822</v>
-      </c>
-      <c r="B510" s="18" t="s">
-        <v>708</v>
-      </c>
-      <c r="C510" s="18" t="s">
-        <v>709</v>
-      </c>
-      <c r="D510" s="19">
-        <v>4301135402</v>
-      </c>
-      <c r="E510" s="18">
-        <v>4640242181493</v>
-      </c>
-      <c r="F510" s="20" t="s">
-        <v>707</v>
+        <v>820</v>
+      </c>
+      <c r="B510" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="C510" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="D510" s="4">
+        <v>4301135763</v>
+      </c>
+      <c r="E510" s="3">
+        <v>4620207491027</v>
+      </c>
+      <c r="F510" s="5" t="s">
+        <v>906</v>
       </c>
       <c r="G510" s="21"/>
       <c r="H510" s="22" t="s">
-        <v>855</v>
+        <v>963</v>
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="17" t="s">
-        <v>823</v>
-      </c>
-      <c r="B511" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="C511" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="D511" s="4">
-        <v>4301131046</v>
-      </c>
-      <c r="E511" s="3">
-        <v>4607111034137</v>
-      </c>
-      <c r="F511" s="5" t="s">
-        <v>885</v>
+        <v>821</v>
+      </c>
+      <c r="B511" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="C511" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="D511" s="19">
+        <v>4301135405</v>
+      </c>
+      <c r="E511" s="18">
+        <v>4640242181523</v>
+      </c>
+      <c r="F511" s="20" t="s">
+        <v>561</v>
       </c>
       <c r="G511" s="21"/>
       <c r="H511" s="22" t="s">
@@ -18124,22 +18142,22 @@
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="17" t="s">
-        <v>824</v>
-      </c>
-      <c r="B512" s="3" t="s">
-        <v>889</v>
-      </c>
-      <c r="C512" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="D512" s="4">
-        <v>4301136079</v>
-      </c>
-      <c r="E512" s="3">
-        <v>4607025784319</v>
-      </c>
-      <c r="F512" s="5" t="s">
-        <v>891</v>
+        <v>822</v>
+      </c>
+      <c r="B512" s="18" t="s">
+        <v>708</v>
+      </c>
+      <c r="C512" s="18" t="s">
+        <v>709</v>
+      </c>
+      <c r="D512" s="19">
+        <v>4301135402</v>
+      </c>
+      <c r="E512" s="18">
+        <v>4640242181493</v>
+      </c>
+      <c r="F512" s="20" t="s">
+        <v>707</v>
       </c>
       <c r="G512" s="21"/>
       <c r="H512" s="22" t="s">
@@ -18148,22 +18166,22 @@
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="17" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>957</v>
+        <v>883</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>958</v>
+        <v>884</v>
       </c>
       <c r="D513" s="4">
-        <v>4301135753</v>
+        <v>4301131046</v>
       </c>
       <c r="E513" s="3">
-        <v>4620207490914</v>
+        <v>4607111034137</v>
       </c>
       <c r="F513" s="5" t="s">
-        <v>959</v>
+        <v>885</v>
       </c>
       <c r="G513" s="21"/>
       <c r="H513" s="22" t="s">
@@ -18172,46 +18190,46 @@
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="17" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>945</v>
+        <v>889</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>946</v>
+        <v>890</v>
       </c>
       <c r="D514" s="4">
-        <v>4301135778</v>
+        <v>4301136079</v>
       </c>
       <c r="E514" s="3">
-        <v>4620207490853</v>
+        <v>4607025784319</v>
       </c>
       <c r="F514" s="5" t="s">
-        <v>947</v>
+        <v>891</v>
       </c>
       <c r="G514" s="21"/>
-      <c r="H514" s="16" t="s">
-        <v>951</v>
+      <c r="H514" s="22" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="17" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>871</v>
+        <v>957</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>872</v>
+        <v>958</v>
       </c>
       <c r="D515" s="4">
-        <v>4301132179</v>
+        <v>4301135753</v>
       </c>
       <c r="E515" s="3">
-        <v>4607111035691</v>
+        <v>4620207490914</v>
       </c>
       <c r="F515" s="5" t="s">
-        <v>873</v>
+        <v>959</v>
       </c>
       <c r="G515" s="21"/>
       <c r="H515" s="22" t="s">
@@ -18220,46 +18238,46 @@
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="17" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>738</v>
+        <v>945</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>739</v>
+        <v>946</v>
       </c>
       <c r="D516" s="4">
-        <v>4301132190</v>
+        <v>4301135778</v>
       </c>
       <c r="E516" s="3">
-        <v>4607111036537</v>
+        <v>4620207490853</v>
       </c>
       <c r="F516" s="5" t="s">
-        <v>740</v>
+        <v>947</v>
       </c>
       <c r="G516" s="21"/>
-      <c r="H516" s="22" t="s">
-        <v>855</v>
+      <c r="H516" s="16" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="17" t="s">
-        <v>829</v>
-      </c>
-      <c r="B517" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="C517" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="D517" s="19">
-        <v>4301131019</v>
-      </c>
-      <c r="E517" s="18">
-        <v>4640242180427</v>
-      </c>
-      <c r="F517" s="20" t="s">
-        <v>377</v>
+        <v>827</v>
+      </c>
+      <c r="B517" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="C517" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="D517" s="4">
+        <v>4301132179</v>
+      </c>
+      <c r="E517" s="3">
+        <v>4607111035691</v>
+      </c>
+      <c r="F517" s="5" t="s">
+        <v>873</v>
       </c>
       <c r="G517" s="21"/>
       <c r="H517" s="22" t="s">
@@ -18268,22 +18286,22 @@
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="17" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>892</v>
+        <v>738</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>893</v>
+        <v>739</v>
       </c>
       <c r="D518" s="4">
-        <v>4301135571</v>
+        <v>4301132190</v>
       </c>
       <c r="E518" s="3">
-        <v>4607111035028</v>
+        <v>4607111036537</v>
       </c>
       <c r="F518" s="5" t="s">
-        <v>894</v>
+        <v>740</v>
       </c>
       <c r="G518" s="21"/>
       <c r="H518" s="22" t="s">
@@ -18292,46 +18310,46 @@
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="17" t="s">
-        <v>831</v>
-      </c>
-      <c r="B519" s="3" t="s">
-        <v>930</v>
-      </c>
-      <c r="C519" s="3" t="s">
-        <v>931</v>
-      </c>
-      <c r="D519" s="4">
-        <v>4301135768</v>
-      </c>
-      <c r="E519" s="3">
-        <v>4620207491034</v>
-      </c>
-      <c r="F519" s="5" t="s">
-        <v>929</v>
+        <v>829</v>
+      </c>
+      <c r="B519" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="C519" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="D519" s="19">
+        <v>4301131019</v>
+      </c>
+      <c r="E519" s="18">
+        <v>4640242180427</v>
+      </c>
+      <c r="F519" s="20" t="s">
+        <v>377</v>
       </c>
       <c r="G519" s="21"/>
-      <c r="H519" s="16" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="520" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="H519" s="22" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="17" t="s">
-        <v>833</v>
-      </c>
-      <c r="B520" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="C520" s="18" t="s">
-        <v>488</v>
-      </c>
-      <c r="D520" s="19">
-        <v>4301070960</v>
-      </c>
-      <c r="E520" s="18">
-        <v>4607111038623</v>
-      </c>
-      <c r="F520" s="20" t="s">
-        <v>489</v>
+        <v>830</v>
+      </c>
+      <c r="B520" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="C520" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D520" s="4">
+        <v>4301135571</v>
+      </c>
+      <c r="E520" s="3">
+        <v>4607111035028</v>
+      </c>
+      <c r="F520" s="5" t="s">
+        <v>894</v>
       </c>
       <c r="G520" s="21"/>
       <c r="H520" s="22" t="s">
@@ -18340,70 +18358,70 @@
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="17" t="s">
-        <v>834</v>
-      </c>
-      <c r="B521" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="C521" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="D521" s="19">
-        <v>4301070966</v>
-      </c>
-      <c r="E521" s="18">
-        <v>4607111038135</v>
-      </c>
-      <c r="F521" s="20" t="s">
-        <v>367</v>
+        <v>831</v>
+      </c>
+      <c r="B521" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="C521" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="D521" s="4">
+        <v>4301135768</v>
+      </c>
+      <c r="E521" s="3">
+        <v>4620207491034</v>
+      </c>
+      <c r="F521" s="5" t="s">
+        <v>929</v>
       </c>
       <c r="G521" s="21"/>
-      <c r="H521" s="22" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A522" s="10" t="s">
-        <v>901</v>
-      </c>
-      <c r="B522" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="C522" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="D522" s="4">
-        <v>4301070990</v>
-      </c>
-      <c r="E522" s="3">
-        <v>4607111038494</v>
-      </c>
-      <c r="F522" s="5" t="s">
-        <v>860</v>
-      </c>
-      <c r="G522" s="1"/>
-      <c r="H522" s="16" t="s">
+      <c r="H521" s="16" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A522" s="17" t="s">
+        <v>833</v>
+      </c>
+      <c r="B522" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="C522" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="D522" s="19">
+        <v>4301070960</v>
+      </c>
+      <c r="E522" s="18">
+        <v>4607111038623</v>
+      </c>
+      <c r="F522" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="G522" s="21"/>
+      <c r="H522" s="22" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="17" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B523" s="18" t="s">
-        <v>858</v>
+        <v>368</v>
       </c>
       <c r="C523" s="18" t="s">
-        <v>859</v>
+        <v>369</v>
       </c>
       <c r="D523" s="19">
-        <v>4301070990</v>
+        <v>4301070966</v>
       </c>
       <c r="E523" s="18">
-        <v>4607111038494</v>
+        <v>4607111038135</v>
       </c>
       <c r="F523" s="20" t="s">
-        <v>860</v>
+        <v>367</v>
       </c>
       <c r="G523" s="21"/>
       <c r="H523" s="22" t="s">
@@ -18411,47 +18429,47 @@
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A524" s="17" t="s">
-        <v>836</v>
-      </c>
-      <c r="B524" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C524" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D524" s="19">
-        <v>4301070921</v>
-      </c>
-      <c r="E524" s="18">
-        <v>4607111035905</v>
-      </c>
-      <c r="F524" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="G524" s="21"/>
-      <c r="H524" s="22" t="s">
+      <c r="A524" s="10" t="s">
+        <v>901</v>
+      </c>
+      <c r="B524" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="C524" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="D524" s="4">
+        <v>4301070990</v>
+      </c>
+      <c r="E524" s="3">
+        <v>4607111038494</v>
+      </c>
+      <c r="F524" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="G524" s="1"/>
+      <c r="H524" s="16" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="17" t="s">
-        <v>837</v>
-      </c>
-      <c r="B525" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="C525" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="D525" s="4">
-        <v>4301135549</v>
-      </c>
-      <c r="E525" s="3">
-        <v>4607111039095</v>
-      </c>
-      <c r="F525" s="5" t="s">
-        <v>552</v>
+        <v>835</v>
+      </c>
+      <c r="B525" s="18" t="s">
+        <v>858</v>
+      </c>
+      <c r="C525" s="18" t="s">
+        <v>859</v>
+      </c>
+      <c r="D525" s="19">
+        <v>4301070990</v>
+      </c>
+      <c r="E525" s="18">
+        <v>4607111038494</v>
+      </c>
+      <c r="F525" s="20" t="s">
+        <v>860</v>
       </c>
       <c r="G525" s="21"/>
       <c r="H525" s="22" t="s">
@@ -18460,22 +18478,22 @@
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="17" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B526" s="18" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="C526" s="18" t="s">
-        <v>526</v>
+        <v>155</v>
       </c>
       <c r="D526" s="19">
-        <v>4301135285</v>
+        <v>4301070921</v>
       </c>
       <c r="E526" s="18">
-        <v>4607111036407</v>
+        <v>4607111035905</v>
       </c>
       <c r="F526" s="20" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="G526" s="21"/>
       <c r="H526" s="22" t="s">
@@ -18484,22 +18502,22 @@
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="17" t="s">
-        <v>714</v>
+        <v>837</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>712</v>
+        <v>553</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>713</v>
+        <v>554</v>
       </c>
       <c r="D527" s="4">
-        <v>4301135607</v>
+        <v>4301135549</v>
       </c>
       <c r="E527" s="3">
-        <v>4607111039613</v>
+        <v>4607111039095</v>
       </c>
       <c r="F527" s="5" t="s">
-        <v>714</v>
+        <v>552</v>
       </c>
       <c r="G527" s="21"/>
       <c r="H527" s="22" t="s">
@@ -18508,22 +18526,22 @@
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B528" s="18" t="s">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="C528" s="18" t="s">
-        <v>128</v>
+        <v>526</v>
       </c>
       <c r="D528" s="19">
-        <v>4301080153</v>
+        <v>4301135285</v>
       </c>
       <c r="E528" s="18">
-        <v>4607111036827</v>
+        <v>4607111036407</v>
       </c>
       <c r="F528" s="20" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="G528" s="21"/>
       <c r="H528" s="22" t="s">
@@ -18532,22 +18550,22 @@
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="17" t="s">
-        <v>840</v>
+        <v>714</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="D529" s="4">
-        <v>4301135574</v>
+        <v>4301135607</v>
       </c>
       <c r="E529" s="3">
-        <v>4607111033659</v>
+        <v>4607111039613</v>
       </c>
       <c r="F529" s="5" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="G529" s="21"/>
       <c r="H529" s="22" t="s">
@@ -18556,22 +18574,22 @@
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="17" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B530" s="18" t="s">
-        <v>670</v>
+        <v>127</v>
       </c>
       <c r="C530" s="18" t="s">
-        <v>671</v>
+        <v>128</v>
       </c>
       <c r="D530" s="19">
-        <v>4301071044</v>
+        <v>4301080153</v>
       </c>
       <c r="E530" s="18">
-        <v>4607111039385</v>
+        <v>4607111036827</v>
       </c>
       <c r="F530" s="20" t="s">
-        <v>672</v>
+        <v>129</v>
       </c>
       <c r="G530" s="21"/>
       <c r="H530" s="22" t="s">
@@ -18580,22 +18598,22 @@
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="17" t="s">
-        <v>842</v>
-      </c>
-      <c r="B531" s="18" t="s">
-        <v>687</v>
-      </c>
-      <c r="C531" s="18" t="s">
-        <v>688</v>
-      </c>
-      <c r="D531" s="19">
-        <v>4301071031</v>
-      </c>
-      <c r="E531" s="18">
-        <v>4607111038982</v>
-      </c>
-      <c r="F531" s="20" t="s">
-        <v>689</v>
+        <v>840</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="C531" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="D531" s="4">
+        <v>4301135574</v>
+      </c>
+      <c r="E531" s="3">
+        <v>4607111033659</v>
+      </c>
+      <c r="F531" s="5" t="s">
+        <v>728</v>
       </c>
       <c r="G531" s="21"/>
       <c r="H531" s="22" t="s">
@@ -18604,22 +18622,22 @@
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="17" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B532" s="18" t="s">
-        <v>181</v>
+        <v>670</v>
       </c>
       <c r="C532" s="18" t="s">
-        <v>182</v>
+        <v>671</v>
       </c>
       <c r="D532" s="19">
-        <v>4301070917</v>
+        <v>4301071044</v>
       </c>
       <c r="E532" s="18">
-        <v>4607111035912</v>
+        <v>4607111039385</v>
       </c>
       <c r="F532" s="20" t="s">
-        <v>183</v>
+        <v>672</v>
       </c>
       <c r="G532" s="21"/>
       <c r="H532" s="22" t="s">
@@ -18628,22 +18646,22 @@
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="17" t="s">
-        <v>844</v>
-      </c>
-      <c r="B533" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C533" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="D533" s="4">
-        <v>4301136070</v>
-      </c>
-      <c r="E533" s="3">
-        <v>4607025784012</v>
-      </c>
-      <c r="F533" s="5" t="s">
-        <v>170</v>
+        <v>842</v>
+      </c>
+      <c r="B533" s="18" t="s">
+        <v>687</v>
+      </c>
+      <c r="C533" s="18" t="s">
+        <v>688</v>
+      </c>
+      <c r="D533" s="19">
+        <v>4301071031</v>
+      </c>
+      <c r="E533" s="18">
+        <v>4607111038982</v>
+      </c>
+      <c r="F533" s="20" t="s">
+        <v>689</v>
       </c>
       <c r="G533" s="21"/>
       <c r="H533" s="22" t="s">
@@ -18652,118 +18670,118 @@
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="17" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B534" s="18" t="s">
-        <v>610</v>
+        <v>181</v>
       </c>
       <c r="C534" s="18" t="s">
-        <v>611</v>
+        <v>182</v>
       </c>
       <c r="D534" s="19">
-        <v>4301071046</v>
+        <v>4301070917</v>
       </c>
       <c r="E534" s="18">
-        <v>4607111039354</v>
+        <v>4607111035912</v>
       </c>
       <c r="F534" s="20" t="s">
-        <v>612</v>
+        <v>183</v>
       </c>
       <c r="G534" s="21"/>
       <c r="H534" s="22" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="535" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="17" t="s">
-        <v>846</v>
-      </c>
-      <c r="B535" s="18" t="s">
-        <v>861</v>
-      </c>
-      <c r="C535" s="18" t="s">
-        <v>862</v>
-      </c>
-      <c r="D535" s="19">
-        <v>4301070959</v>
-      </c>
-      <c r="E535" s="18">
-        <v>4607111038616</v>
-      </c>
-      <c r="F535" s="20" t="s">
-        <v>863</v>
+        <v>844</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C535" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D535" s="4">
+        <v>4301136070</v>
+      </c>
+      <c r="E535" s="3">
+        <v>4607025784012</v>
+      </c>
+      <c r="F535" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="G535" s="21"/>
       <c r="H535" s="22" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="536" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="17" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B536" s="18" t="s">
-        <v>864</v>
+        <v>610</v>
       </c>
       <c r="C536" s="18" t="s">
-        <v>865</v>
+        <v>611</v>
       </c>
       <c r="D536" s="19">
-        <v>4301070962</v>
+        <v>4301071046</v>
       </c>
       <c r="E536" s="18">
-        <v>4607111038609</v>
+        <v>4607111039354</v>
       </c>
       <c r="F536" s="20" t="s">
-        <v>866</v>
+        <v>612</v>
       </c>
       <c r="G536" s="21"/>
       <c r="H536" s="22" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A537" s="17" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B537" s="18" t="s">
-        <v>254</v>
+        <v>861</v>
       </c>
       <c r="C537" s="18" t="s">
-        <v>255</v>
+        <v>862</v>
       </c>
       <c r="D537" s="19">
-        <v>4301070948</v>
+        <v>4301070959</v>
       </c>
       <c r="E537" s="18">
-        <v>4607111037022</v>
+        <v>4607111038616</v>
       </c>
       <c r="F537" s="20" t="s">
-        <v>152</v>
+        <v>863</v>
       </c>
       <c r="G537" s="21"/>
       <c r="H537" s="22" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A538" s="17" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B538" s="18" t="s">
-        <v>701</v>
+        <v>864</v>
       </c>
       <c r="C538" s="18" t="s">
-        <v>702</v>
+        <v>865</v>
       </c>
       <c r="D538" s="19">
-        <v>4301135570</v>
+        <v>4301070962</v>
       </c>
       <c r="E538" s="18">
-        <v>4607111035806</v>
+        <v>4607111038609</v>
       </c>
       <c r="F538" s="20" t="s">
-        <v>703</v>
+        <v>866</v>
       </c>
       <c r="G538" s="21"/>
       <c r="H538" s="22" t="s">
@@ -18772,22 +18790,22 @@
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="17" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B539" s="18" t="s">
-        <v>730</v>
+        <v>254</v>
       </c>
       <c r="C539" s="18" t="s">
-        <v>731</v>
+        <v>255</v>
       </c>
       <c r="D539" s="19">
-        <v>4301071032</v>
+        <v>4301070948</v>
       </c>
       <c r="E539" s="18">
-        <v>4607111038999</v>
+        <v>4607111037022</v>
       </c>
       <c r="F539" s="20" t="s">
-        <v>732</v>
+        <v>152</v>
       </c>
       <c r="G539" s="21"/>
       <c r="H539" s="22" t="s">
@@ -18796,22 +18814,22 @@
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="17" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B540" s="18" t="s">
-        <v>674</v>
+        <v>701</v>
       </c>
       <c r="C540" s="18" t="s">
-        <v>675</v>
+        <v>702</v>
       </c>
       <c r="D540" s="19">
-        <v>4301071045</v>
+        <v>4301135570</v>
       </c>
       <c r="E540" s="18">
-        <v>4607111039392</v>
+        <v>4607111035806</v>
       </c>
       <c r="F540" s="20" t="s">
-        <v>676</v>
+        <v>703</v>
       </c>
       <c r="G540" s="21"/>
       <c r="H540" s="22" t="s">
@@ -18820,22 +18838,22 @@
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="17" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B541" s="18" t="s">
-        <v>483</v>
+        <v>730</v>
       </c>
       <c r="C541" s="18" t="s">
-        <v>484</v>
+        <v>731</v>
       </c>
       <c r="D541" s="19">
-        <v>4301070963</v>
+        <v>4301071032</v>
       </c>
       <c r="E541" s="18">
-        <v>4607111038630</v>
+        <v>4607111038999</v>
       </c>
       <c r="F541" s="20" t="s">
-        <v>485</v>
+        <v>732</v>
       </c>
       <c r="G541" s="21"/>
       <c r="H541" s="22" t="s">
@@ -18844,22 +18862,22 @@
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="17" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B542" s="18" t="s">
-        <v>592</v>
+        <v>674</v>
       </c>
       <c r="C542" s="18" t="s">
-        <v>593</v>
+        <v>675</v>
       </c>
       <c r="D542" s="19">
-        <v>4301071054</v>
+        <v>4301071045</v>
       </c>
       <c r="E542" s="18">
-        <v>4607111035639</v>
+        <v>4607111039392</v>
       </c>
       <c r="F542" s="20" t="s">
-        <v>594</v>
+        <v>676</v>
       </c>
       <c r="G542" s="21"/>
       <c r="H542" s="22" t="s">
@@ -18868,30 +18886,78 @@
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="17" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B543" s="18" t="s">
-        <v>340</v>
+        <v>483</v>
       </c>
       <c r="C543" s="18" t="s">
-        <v>562</v>
+        <v>484</v>
       </c>
       <c r="D543" s="19">
-        <v>4301135540</v>
+        <v>4301070963</v>
       </c>
       <c r="E543" s="18">
-        <v>4607111035646</v>
+        <v>4607111038630</v>
       </c>
       <c r="F543" s="20" t="s">
-        <v>563</v>
+        <v>485</v>
       </c>
       <c r="G543" s="21"/>
       <c r="H543" s="22" t="s">
         <v>855</v>
       </c>
     </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A544" s="17" t="s">
+        <v>853</v>
+      </c>
+      <c r="B544" s="18" t="s">
+        <v>592</v>
+      </c>
+      <c r="C544" s="18" t="s">
+        <v>593</v>
+      </c>
+      <c r="D544" s="19">
+        <v>4301071054</v>
+      </c>
+      <c r="E544" s="18">
+        <v>4607111035639</v>
+      </c>
+      <c r="F544" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="G544" s="21"/>
+      <c r="H544" s="22" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A545" s="17" t="s">
+        <v>854</v>
+      </c>
+      <c r="B545" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="C545" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="D545" s="19">
+        <v>4301135540</v>
+      </c>
+      <c r="E545" s="18">
+        <v>4607111035646</v>
+      </c>
+      <c r="F545" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="G545" s="21"/>
+      <c r="H545" s="22" t="s">
+        <v>855</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F543" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+  <autoFilter ref="A1:F545" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F254">
       <sortCondition ref="A1:A185"/>
     </sortState>

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B49F468-A3A1-49BF-B492-756E6DAF02BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B6DE00-9E68-4883-94EF-680A7335083C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,8 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$545</definedName>
-    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$484</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$546</definedName>
+    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$485</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="979">
   <si>
     <t>1С</t>
   </si>
@@ -2973,6 +2973,9 @@
   </si>
   <si>
     <t>Пельмени «Добросельские со свининой и говядиной» Фикс.вес 0,65 классическая форма ТМ «Стародворье»</t>
+  </si>
+  <si>
+    <t>Пельмени Бульмени с говядиной и свининой СЕВЕРНАЯ КОЛЛЕКЦИЯ 0,7кг ТМ Горячая штучка сфера  ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -6228,11 +6231,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H545"/>
+  <dimension ref="A1:H546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17176,7 +17179,7 @@
     </row>
     <row r="470" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A470" s="10" t="s">
-        <v>964</v>
+        <v>978</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>965</v>
@@ -17195,321 +17198,318 @@
       </c>
       <c r="G470" s="1"/>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A471" s="10" t="s">
-        <v>728</v>
+        <v>964</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>726</v>
+        <v>965</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>727</v>
+        <v>966</v>
       </c>
       <c r="D471" s="4">
-        <v>4301135574</v>
+        <v>4301071075</v>
       </c>
       <c r="E471" s="3">
-        <v>4607111033659</v>
+        <v>4620207491102</v>
       </c>
       <c r="F471" s="5" t="s">
-        <v>728</v>
+        <v>967</v>
       </c>
       <c r="G471" s="1"/>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="10" t="s">
-        <v>746</v>
+        <v>728</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>744</v>
+        <v>726</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>745</v>
+        <v>727</v>
       </c>
       <c r="D472" s="4">
-        <v>4301135550</v>
+        <v>4301135574</v>
       </c>
       <c r="E472" s="3">
-        <v>4607111034199</v>
+        <v>4607111033659</v>
       </c>
       <c r="F472" s="5" t="s">
-        <v>746</v>
+        <v>728</v>
       </c>
       <c r="G472" s="1"/>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="10" t="s">
-        <v>959</v>
+        <v>746</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>957</v>
+        <v>744</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>958</v>
+        <v>745</v>
       </c>
       <c r="D473" s="4">
-        <v>4301135753</v>
+        <v>4301135550</v>
       </c>
       <c r="E473" s="3">
-        <v>4620207490914</v>
+        <v>4607111034199</v>
       </c>
       <c r="F473" s="5" t="s">
-        <v>959</v>
+        <v>746</v>
       </c>
       <c r="G473" s="1"/>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="10" t="s">
-        <v>885</v>
+        <v>959</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>883</v>
+        <v>957</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>884</v>
+        <v>958</v>
       </c>
       <c r="D474" s="4">
-        <v>4301131046</v>
+        <v>4301135753</v>
       </c>
       <c r="E474" s="3">
-        <v>4607111034137</v>
+        <v>4620207490914</v>
       </c>
       <c r="F474" s="5" t="s">
-        <v>885</v>
+        <v>959</v>
       </c>
       <c r="G474" s="1"/>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="10" t="s">
-        <v>785</v>
+        <v>885</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>783</v>
+        <v>883</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>784</v>
+        <v>884</v>
       </c>
       <c r="D475" s="4">
-        <v>4301131047</v>
+        <v>4301131046</v>
       </c>
       <c r="E475" s="3">
-        <v>4607111034120</v>
+        <v>4607111034137</v>
       </c>
       <c r="F475" s="5" t="s">
-        <v>785</v>
+        <v>885</v>
       </c>
       <c r="G475" s="1"/>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="10" t="s">
-        <v>763</v>
+        <v>785</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>761</v>
+        <v>783</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>762</v>
+        <v>784</v>
       </c>
       <c r="D476" s="4">
-        <v>4301132188</v>
+        <v>4301131047</v>
       </c>
       <c r="E476" s="3">
-        <v>4607111036605</v>
+        <v>4607111034120</v>
       </c>
       <c r="F476" s="5" t="s">
-        <v>763</v>
+        <v>785</v>
       </c>
       <c r="G476" s="1"/>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="10" t="s">
-        <v>873</v>
+        <v>763</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>871</v>
+        <v>761</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>872</v>
+        <v>762</v>
       </c>
       <c r="D477" s="4">
-        <v>4301132179</v>
+        <v>4301132188</v>
       </c>
       <c r="E477" s="3">
-        <v>4607111035691</v>
+        <v>4607111036605</v>
       </c>
       <c r="F477" s="5" t="s">
-        <v>873</v>
+        <v>763</v>
       </c>
       <c r="G477" s="1"/>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="10" t="s">
-        <v>703</v>
+        <v>873</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>701</v>
+        <v>871</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>702</v>
+        <v>872</v>
       </c>
       <c r="D478" s="4">
-        <v>4301135570</v>
+        <v>4301132179</v>
       </c>
       <c r="E478" s="3">
-        <v>4607111035806</v>
+        <v>4607111035691</v>
       </c>
       <c r="F478" s="5" t="s">
-        <v>703</v>
+        <v>873</v>
       </c>
       <c r="G478" s="1"/>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="10" t="s">
-        <v>925</v>
+        <v>703</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>626</v>
+        <v>701</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>627</v>
+        <v>702</v>
       </c>
       <c r="D479" s="4">
-        <v>4301071049</v>
+        <v>4301135570</v>
       </c>
       <c r="E479" s="3">
-        <v>4607111039293</v>
+        <v>4607111035806</v>
       </c>
       <c r="F479" s="5" t="s">
-        <v>925</v>
+        <v>703</v>
       </c>
       <c r="G479" s="1"/>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="10" t="s">
-        <v>658</v>
+        <v>925</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>656</v>
+        <v>626</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>657</v>
+        <v>627</v>
       </c>
       <c r="D480" s="4">
-        <v>4301135555</v>
+        <v>4301071049</v>
       </c>
       <c r="E480" s="3">
-        <v>4607111034014</v>
+        <v>4607111039293</v>
       </c>
       <c r="F480" s="5" t="s">
-        <v>658</v>
+        <v>925</v>
       </c>
       <c r="G480" s="1"/>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="10" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="D481" s="4">
-        <v>4301135532</v>
+        <v>4301135555</v>
       </c>
       <c r="E481" s="3">
-        <v>4607111033994</v>
+        <v>4607111034014</v>
       </c>
       <c r="F481" s="5" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="G481" s="1"/>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="10" t="s">
-        <v>970</v>
+        <v>655</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>971</v>
+        <v>653</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>972</v>
+        <v>654</v>
       </c>
       <c r="D482" s="4">
-        <v>4301071094</v>
+        <v>4301135532</v>
       </c>
       <c r="E482" s="3">
-        <v>4620207491140</v>
+        <v>4607111033994</v>
       </c>
       <c r="F482" s="5" t="s">
-        <v>973</v>
+        <v>655</v>
       </c>
       <c r="G482" s="1"/>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="10" t="s">
+        <v>970</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="D483" s="4">
+        <v>4301071094</v>
+      </c>
+      <c r="E483" s="3">
+        <v>4620207491140</v>
+      </c>
+      <c r="F483" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="G483" s="1"/>
+    </row>
+    <row r="484" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A484" s="10" t="s">
         <v>974</v>
       </c>
-      <c r="B483" s="3" t="s">
+      <c r="B484" s="3" t="s">
         <v>975</v>
       </c>
-      <c r="C483" s="3" t="s">
+      <c r="C484" s="3" t="s">
         <v>976</v>
       </c>
-      <c r="D483" s="4">
+      <c r="D484" s="4">
         <v>4301071093</v>
       </c>
-      <c r="E483" s="3">
+      <c r="E484" s="3">
         <v>4620207490709</v>
       </c>
-      <c r="F483" s="5" t="s">
+      <c r="F484" s="5" t="s">
         <v>977</v>
       </c>
-      <c r="G483" s="1"/>
-    </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A484" s="17" t="s">
-        <v>794</v>
-      </c>
-      <c r="B484" s="18" t="s">
-        <v>622</v>
-      </c>
-      <c r="C484" s="18" t="s">
-        <v>623</v>
-      </c>
-      <c r="D484" s="19">
-        <v>4301071038</v>
-      </c>
-      <c r="E484" s="18">
-        <v>4607111039248</v>
-      </c>
-      <c r="F484" s="20" t="s">
-        <v>624</v>
-      </c>
-      <c r="G484" s="21"/>
-      <c r="H484" s="22" t="s">
-        <v>855</v>
-      </c>
+      <c r="G484" s="1"/>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="17" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B485" s="18" t="s">
-        <v>106</v>
+        <v>622</v>
       </c>
       <c r="C485" s="18" t="s">
-        <v>261</v>
+        <v>623</v>
       </c>
       <c r="D485" s="19">
-        <v>4301070981</v>
+        <v>4301071038</v>
       </c>
       <c r="E485" s="18">
-        <v>4607111036728</v>
+        <v>4607111039248</v>
       </c>
       <c r="F485" s="20" t="s">
-        <v>262</v>
+        <v>624</v>
       </c>
       <c r="G485" s="21"/>
       <c r="H485" s="22" t="s">
@@ -17518,22 +17518,22 @@
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="17" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B486" s="18" t="s">
-        <v>630</v>
+        <v>106</v>
       </c>
       <c r="C486" s="18" t="s">
-        <v>631</v>
+        <v>261</v>
       </c>
       <c r="D486" s="19">
-        <v>4301071039</v>
+        <v>4301070981</v>
       </c>
       <c r="E486" s="18">
-        <v>4607111039279</v>
+        <v>4607111036728</v>
       </c>
       <c r="F486" s="20" t="s">
-        <v>632</v>
+        <v>262</v>
       </c>
       <c r="G486" s="21"/>
       <c r="H486" s="22" t="s">
@@ -17542,22 +17542,22 @@
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="17" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B487" s="18" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="C487" s="18" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="D487" s="19">
-        <v>4301071051</v>
+        <v>4301071039</v>
       </c>
       <c r="E487" s="18">
-        <v>4607111039262</v>
+        <v>4607111039279</v>
       </c>
       <c r="F487" s="20" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="G487" s="21"/>
       <c r="H487" s="22" t="s">
@@ -17566,22 +17566,22 @@
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="17" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B488" s="18" t="s">
-        <v>293</v>
+        <v>618</v>
       </c>
       <c r="C488" s="18" t="s">
-        <v>294</v>
+        <v>619</v>
       </c>
       <c r="D488" s="19">
-        <v>4301132080</v>
+        <v>4301071051</v>
       </c>
       <c r="E488" s="18">
-        <v>4640242180397</v>
+        <v>4607111039262</v>
       </c>
       <c r="F488" s="20" t="s">
-        <v>295</v>
+        <v>620</v>
       </c>
       <c r="G488" s="21"/>
       <c r="H488" s="22" t="s">
@@ -17590,22 +17590,22 @@
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="17" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B489" s="18" t="s">
-        <v>113</v>
+        <v>293</v>
       </c>
       <c r="C489" s="18" t="s">
-        <v>524</v>
+        <v>294</v>
       </c>
       <c r="D489" s="19">
-        <v>4301071029</v>
+        <v>4301132080</v>
       </c>
       <c r="E489" s="18">
-        <v>4607111035899</v>
+        <v>4640242180397</v>
       </c>
       <c r="F489" s="20" t="s">
-        <v>114</v>
+        <v>295</v>
       </c>
       <c r="G489" s="21"/>
       <c r="H489" s="22" t="s">
@@ -17614,22 +17614,22 @@
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="17" t="s">
-        <v>800</v>
-      </c>
-      <c r="B490" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C490" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D490" s="4">
-        <v>4301136053</v>
-      </c>
-      <c r="E490" s="3">
-        <v>4640242180236</v>
-      </c>
-      <c r="F490" s="5" t="s">
-        <v>304</v>
+        <v>799</v>
+      </c>
+      <c r="B490" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C490" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="D490" s="19">
+        <v>4301071029</v>
+      </c>
+      <c r="E490" s="18">
+        <v>4607111035899</v>
+      </c>
+      <c r="F490" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="G490" s="21"/>
       <c r="H490" s="22" t="s">
@@ -17638,22 +17638,22 @@
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="17" t="s">
-        <v>801</v>
-      </c>
-      <c r="B491" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="C491" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="D491" s="19">
-        <v>4301070977</v>
-      </c>
-      <c r="E491" s="18">
-        <v>4607111037411</v>
-      </c>
-      <c r="F491" s="20" t="s">
-        <v>320</v>
+        <v>800</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D491" s="4">
+        <v>4301136053</v>
+      </c>
+      <c r="E491" s="3">
+        <v>4640242180236</v>
+      </c>
+      <c r="F491" s="5" t="s">
+        <v>304</v>
       </c>
       <c r="G491" s="21"/>
       <c r="H491" s="22" t="s">
@@ -17662,22 +17662,22 @@
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="17" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B492" s="18" t="s">
-        <v>555</v>
+        <v>318</v>
       </c>
       <c r="C492" s="18" t="s">
-        <v>556</v>
+        <v>319</v>
       </c>
       <c r="D492" s="19">
-        <v>4301135375</v>
+        <v>4301070977</v>
       </c>
       <c r="E492" s="18">
-        <v>4640242181486</v>
+        <v>4607111037411</v>
       </c>
       <c r="F492" s="20" t="s">
-        <v>557</v>
+        <v>320</v>
       </c>
       <c r="G492" s="21"/>
       <c r="H492" s="22" t="s">
@@ -17686,70 +17686,70 @@
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="17" t="s">
-        <v>803</v>
-      </c>
-      <c r="B493" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="C493" s="3" t="s">
-        <v>949</v>
-      </c>
-      <c r="D493" s="4">
-        <v>4301135760</v>
-      </c>
-      <c r="E493" s="3">
-        <v>4620207491010</v>
-      </c>
-      <c r="F493" s="5" t="s">
-        <v>950</v>
+        <v>802</v>
+      </c>
+      <c r="B493" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="C493" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D493" s="19">
+        <v>4301135375</v>
+      </c>
+      <c r="E493" s="18">
+        <v>4640242181486</v>
+      </c>
+      <c r="F493" s="20" t="s">
+        <v>557</v>
       </c>
       <c r="G493" s="21"/>
-      <c r="H493" s="16" t="s">
-        <v>944</v>
+      <c r="H493" s="22" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="17" t="s">
-        <v>804</v>
-      </c>
-      <c r="B494" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C494" s="18" t="s">
-        <v>633</v>
-      </c>
-      <c r="D494" s="19">
-        <v>4301071050</v>
-      </c>
-      <c r="E494" s="18">
-        <v>4607111036216</v>
-      </c>
-      <c r="F494" s="20" t="s">
-        <v>634</v>
+        <v>803</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="D494" s="4">
+        <v>4301135760</v>
+      </c>
+      <c r="E494" s="3">
+        <v>4620207491010</v>
+      </c>
+      <c r="F494" s="5" t="s">
+        <v>950</v>
       </c>
       <c r="G494" s="21"/>
-      <c r="H494" s="22" t="s">
-        <v>855</v>
+      <c r="H494" s="16" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="17" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B495" s="18" t="s">
-        <v>626</v>
+        <v>112</v>
       </c>
       <c r="C495" s="18" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="D495" s="19">
-        <v>4301071049</v>
+        <v>4301071050</v>
       </c>
       <c r="E495" s="18">
-        <v>4607111039293</v>
+        <v>4607111036216</v>
       </c>
       <c r="F495" s="20" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="G495" s="21"/>
       <c r="H495" s="22" t="s">
@@ -17758,22 +17758,22 @@
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B496" s="18" t="s">
-        <v>653</v>
+        <v>626</v>
       </c>
       <c r="C496" s="18" t="s">
-        <v>654</v>
+        <v>627</v>
       </c>
       <c r="D496" s="19">
-        <v>4301135532</v>
+        <v>4301071049</v>
       </c>
       <c r="E496" s="18">
-        <v>4607111033994</v>
+        <v>4607111039293</v>
       </c>
       <c r="F496" s="20" t="s">
-        <v>655</v>
+        <v>628</v>
       </c>
       <c r="G496" s="21"/>
       <c r="H496" s="22" t="s">
@@ -17782,22 +17782,22 @@
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="17" t="s">
-        <v>807</v>
-      </c>
-      <c r="B497" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="C497" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="D497" s="4">
-        <v>4301135555</v>
-      </c>
-      <c r="E497" s="3">
-        <v>4607111034014</v>
-      </c>
-      <c r="F497" s="5" t="s">
-        <v>658</v>
+        <v>806</v>
+      </c>
+      <c r="B497" s="18" t="s">
+        <v>653</v>
+      </c>
+      <c r="C497" s="18" t="s">
+        <v>654</v>
+      </c>
+      <c r="D497" s="19">
+        <v>4301135532</v>
+      </c>
+      <c r="E497" s="18">
+        <v>4607111033994</v>
+      </c>
+      <c r="F497" s="20" t="s">
+        <v>655</v>
       </c>
       <c r="G497" s="21"/>
       <c r="H497" s="22" t="s">
@@ -17806,70 +17806,70 @@
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="17" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>941</v>
+        <v>656</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>942</v>
+        <v>657</v>
       </c>
       <c r="D498" s="4">
-        <v>4301135793</v>
+        <v>4301135555</v>
       </c>
       <c r="E498" s="3">
-        <v>4620207491003</v>
+        <v>4607111034014</v>
       </c>
       <c r="F498" s="5" t="s">
-        <v>943</v>
+        <v>658</v>
       </c>
       <c r="G498" s="21"/>
-      <c r="H498" s="16" t="s">
-        <v>944</v>
+      <c r="H498" s="22" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="17" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>382</v>
+        <v>941</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>383</v>
+        <v>942</v>
       </c>
       <c r="D499" s="4">
-        <v>4301136052</v>
+        <v>4301135793</v>
       </c>
       <c r="E499" s="3">
-        <v>4640242180410</v>
+        <v>4620207491003</v>
       </c>
       <c r="F499" s="5" t="s">
-        <v>384</v>
+        <v>943</v>
       </c>
       <c r="G499" s="21"/>
-      <c r="H499" s="22" t="s">
-        <v>855</v>
+      <c r="H499" s="16" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="17" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>549</v>
+        <v>382</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>550</v>
+        <v>383</v>
       </c>
       <c r="D500" s="4">
-        <v>4301135518</v>
+        <v>4301136052</v>
       </c>
       <c r="E500" s="3">
-        <v>4640242181561</v>
+        <v>4640242180410</v>
       </c>
       <c r="F500" s="5" t="s">
-        <v>551</v>
+        <v>384</v>
       </c>
       <c r="G500" s="21"/>
       <c r="H500" s="22" t="s">
@@ -17878,22 +17878,22 @@
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="17" t="s">
-        <v>811</v>
-      </c>
-      <c r="B501" s="18" t="s">
-        <v>601</v>
-      </c>
-      <c r="C501" s="18" t="s">
-        <v>602</v>
-      </c>
-      <c r="D501" s="19">
-        <v>4301135374</v>
-      </c>
-      <c r="E501" s="18">
-        <v>4640242181424</v>
-      </c>
-      <c r="F501" s="20" t="s">
-        <v>603</v>
+        <v>810</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D501" s="4">
+        <v>4301135518</v>
+      </c>
+      <c r="E501" s="3">
+        <v>4640242181561</v>
+      </c>
+      <c r="F501" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="G501" s="21"/>
       <c r="H501" s="22" t="s">
@@ -17902,22 +17902,22 @@
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B502" s="18" t="s">
-        <v>856</v>
+        <v>601</v>
       </c>
       <c r="C502" s="18" t="s">
-        <v>857</v>
+        <v>602</v>
       </c>
       <c r="D502" s="19">
-        <v>4301132079</v>
+        <v>4301135374</v>
       </c>
       <c r="E502" s="18">
-        <v>4607111038487</v>
+        <v>4640242181424</v>
       </c>
       <c r="F502" s="20" t="s">
-        <v>425</v>
+        <v>603</v>
       </c>
       <c r="G502" s="21"/>
       <c r="H502" s="22" t="s">
@@ -17926,22 +17926,22 @@
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B503" s="18" t="s">
-        <v>164</v>
+        <v>856</v>
       </c>
       <c r="C503" s="18" t="s">
-        <v>636</v>
+        <v>857</v>
       </c>
       <c r="D503" s="19">
-        <v>4301071056</v>
+        <v>4301132079</v>
       </c>
       <c r="E503" s="18">
-        <v>4640242180250</v>
+        <v>4607111038487</v>
       </c>
       <c r="F503" s="20" t="s">
-        <v>637</v>
+        <v>425</v>
       </c>
       <c r="G503" s="21"/>
       <c r="H503" s="22" t="s">
@@ -17950,22 +17950,22 @@
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="17" t="s">
-        <v>814</v>
-      </c>
-      <c r="B504" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C504" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D504" s="4">
-        <v>4301136051</v>
-      </c>
-      <c r="E504" s="3">
-        <v>4640242180304</v>
-      </c>
-      <c r="F504" s="5" t="s">
-        <v>301</v>
+        <v>813</v>
+      </c>
+      <c r="B504" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C504" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="D504" s="19">
+        <v>4301071056</v>
+      </c>
+      <c r="E504" s="18">
+        <v>4640242180250</v>
+      </c>
+      <c r="F504" s="20" t="s">
+        <v>637</v>
       </c>
       <c r="G504" s="21"/>
       <c r="H504" s="22" t="s">
@@ -17974,22 +17974,22 @@
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="17" t="s">
-        <v>815</v>
-      </c>
-      <c r="B505" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C505" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D505" s="19">
-        <v>4301070920</v>
-      </c>
-      <c r="E505" s="18">
-        <v>4607111035929</v>
-      </c>
-      <c r="F505" s="20" t="s">
-        <v>111</v>
+        <v>814</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C505" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D505" s="4">
+        <v>4301136051</v>
+      </c>
+      <c r="E505" s="3">
+        <v>4640242180304</v>
+      </c>
+      <c r="F505" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="G505" s="21"/>
       <c r="H505" s="22" t="s">
@@ -17998,22 +17998,22 @@
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="17" t="s">
-        <v>816</v>
-      </c>
-      <c r="B506" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="C506" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="D506" s="4">
-        <v>4301135550</v>
-      </c>
-      <c r="E506" s="3">
-        <v>4607111034199</v>
-      </c>
-      <c r="F506" s="5" t="s">
-        <v>746</v>
+        <v>815</v>
+      </c>
+      <c r="B506" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C506" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D506" s="19">
+        <v>4301070920</v>
+      </c>
+      <c r="E506" s="18">
+        <v>4607111035929</v>
+      </c>
+      <c r="F506" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="G506" s="21"/>
       <c r="H506" s="22" t="s">
@@ -18022,22 +18022,22 @@
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="17" t="s">
-        <v>817</v>
-      </c>
-      <c r="B507" s="18" t="s">
-        <v>741</v>
-      </c>
-      <c r="C507" s="18" t="s">
-        <v>742</v>
-      </c>
-      <c r="D507" s="19">
-        <v>4301132186</v>
-      </c>
-      <c r="E507" s="18">
-        <v>4607111036520</v>
-      </c>
-      <c r="F507" s="20" t="s">
-        <v>743</v>
+        <v>816</v>
+      </c>
+      <c r="B507" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C507" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="D507" s="4">
+        <v>4301135550</v>
+      </c>
+      <c r="E507" s="3">
+        <v>4607111034199</v>
+      </c>
+      <c r="F507" s="5" t="s">
+        <v>746</v>
       </c>
       <c r="G507" s="21"/>
       <c r="H507" s="22" t="s">
@@ -18046,22 +18046,22 @@
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="17" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B508" s="18" t="s">
-        <v>614</v>
+        <v>741</v>
       </c>
       <c r="C508" s="18" t="s">
-        <v>615</v>
+        <v>742</v>
       </c>
       <c r="D508" s="19">
-        <v>4301071047</v>
+        <v>4301132186</v>
       </c>
       <c r="E508" s="18">
-        <v>4607111039330</v>
+        <v>4607111036520</v>
       </c>
       <c r="F508" s="20" t="s">
-        <v>616</v>
+        <v>743</v>
       </c>
       <c r="G508" s="21"/>
       <c r="H508" s="22" t="s">
@@ -18070,22 +18070,22 @@
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="17" t="s">
-        <v>819</v>
-      </c>
-      <c r="B509" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="C509" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="D509" s="4">
-        <v>4301131047</v>
-      </c>
-      <c r="E509" s="3">
-        <v>4607111034120</v>
-      </c>
-      <c r="F509" s="5" t="s">
-        <v>785</v>
+        <v>818</v>
+      </c>
+      <c r="B509" s="18" t="s">
+        <v>614</v>
+      </c>
+      <c r="C509" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="D509" s="19">
+        <v>4301071047</v>
+      </c>
+      <c r="E509" s="18">
+        <v>4607111039330</v>
+      </c>
+      <c r="F509" s="20" t="s">
+        <v>616</v>
       </c>
       <c r="G509" s="21"/>
       <c r="H509" s="22" t="s">
@@ -18094,70 +18094,70 @@
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="17" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>904</v>
+        <v>783</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>905</v>
+        <v>784</v>
       </c>
       <c r="D510" s="4">
-        <v>4301135763</v>
+        <v>4301131047</v>
       </c>
       <c r="E510" s="3">
-        <v>4620207491027</v>
+        <v>4607111034120</v>
       </c>
       <c r="F510" s="5" t="s">
-        <v>906</v>
+        <v>785</v>
       </c>
       <c r="G510" s="21"/>
       <c r="H510" s="22" t="s">
-        <v>963</v>
+        <v>855</v>
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="17" t="s">
-        <v>821</v>
-      </c>
-      <c r="B511" s="18" t="s">
-        <v>559</v>
-      </c>
-      <c r="C511" s="18" t="s">
-        <v>560</v>
-      </c>
-      <c r="D511" s="19">
-        <v>4301135405</v>
-      </c>
-      <c r="E511" s="18">
-        <v>4640242181523</v>
-      </c>
-      <c r="F511" s="20" t="s">
-        <v>561</v>
+        <v>820</v>
+      </c>
+      <c r="B511" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="C511" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="D511" s="4">
+        <v>4301135763</v>
+      </c>
+      <c r="E511" s="3">
+        <v>4620207491027</v>
+      </c>
+      <c r="F511" s="5" t="s">
+        <v>906</v>
       </c>
       <c r="G511" s="21"/>
       <c r="H511" s="22" t="s">
-        <v>855</v>
+        <v>963</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B512" s="18" t="s">
-        <v>708</v>
+        <v>559</v>
       </c>
       <c r="C512" s="18" t="s">
-        <v>709</v>
+        <v>560</v>
       </c>
       <c r="D512" s="19">
-        <v>4301135402</v>
+        <v>4301135405</v>
       </c>
       <c r="E512" s="18">
-        <v>4640242181493</v>
+        <v>4640242181523</v>
       </c>
       <c r="F512" s="20" t="s">
-        <v>707</v>
+        <v>561</v>
       </c>
       <c r="G512" s="21"/>
       <c r="H512" s="22" t="s">
@@ -18166,22 +18166,22 @@
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="17" t="s">
-        <v>823</v>
-      </c>
-      <c r="B513" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="C513" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="D513" s="4">
-        <v>4301131046</v>
-      </c>
-      <c r="E513" s="3">
-        <v>4607111034137</v>
-      </c>
-      <c r="F513" s="5" t="s">
-        <v>885</v>
+        <v>822</v>
+      </c>
+      <c r="B513" s="18" t="s">
+        <v>708</v>
+      </c>
+      <c r="C513" s="18" t="s">
+        <v>709</v>
+      </c>
+      <c r="D513" s="19">
+        <v>4301135402</v>
+      </c>
+      <c r="E513" s="18">
+        <v>4640242181493</v>
+      </c>
+      <c r="F513" s="20" t="s">
+        <v>707</v>
       </c>
       <c r="G513" s="21"/>
       <c r="H513" s="22" t="s">
@@ -18190,22 +18190,22 @@
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="D514" s="4">
-        <v>4301136079</v>
+        <v>4301131046</v>
       </c>
       <c r="E514" s="3">
-        <v>4607025784319</v>
+        <v>4607111034137</v>
       </c>
       <c r="F514" s="5" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="G514" s="21"/>
       <c r="H514" s="22" t="s">
@@ -18214,22 +18214,22 @@
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="17" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>957</v>
+        <v>889</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>958</v>
+        <v>890</v>
       </c>
       <c r="D515" s="4">
-        <v>4301135753</v>
+        <v>4301136079</v>
       </c>
       <c r="E515" s="3">
-        <v>4620207490914</v>
+        <v>4607025784319</v>
       </c>
       <c r="F515" s="5" t="s">
-        <v>959</v>
+        <v>891</v>
       </c>
       <c r="G515" s="21"/>
       <c r="H515" s="22" t="s">
@@ -18238,70 +18238,70 @@
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="17" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>945</v>
+        <v>957</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>946</v>
+        <v>958</v>
       </c>
       <c r="D516" s="4">
-        <v>4301135778</v>
+        <v>4301135753</v>
       </c>
       <c r="E516" s="3">
-        <v>4620207490853</v>
+        <v>4620207490914</v>
       </c>
       <c r="F516" s="5" t="s">
-        <v>947</v>
+        <v>959</v>
       </c>
       <c r="G516" s="21"/>
-      <c r="H516" s="16" t="s">
-        <v>951</v>
+      <c r="H516" s="22" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="17" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>871</v>
+        <v>945</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>872</v>
+        <v>946</v>
       </c>
       <c r="D517" s="4">
-        <v>4301132179</v>
+        <v>4301135778</v>
       </c>
       <c r="E517" s="3">
-        <v>4607111035691</v>
+        <v>4620207490853</v>
       </c>
       <c r="F517" s="5" t="s">
-        <v>873</v>
+        <v>947</v>
       </c>
       <c r="G517" s="21"/>
-      <c r="H517" s="22" t="s">
-        <v>855</v>
+      <c r="H517" s="16" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="17" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>738</v>
+        <v>871</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>739</v>
+        <v>872</v>
       </c>
       <c r="D518" s="4">
-        <v>4301132190</v>
+        <v>4301132179</v>
       </c>
       <c r="E518" s="3">
-        <v>4607111036537</v>
+        <v>4607111035691</v>
       </c>
       <c r="F518" s="5" t="s">
-        <v>740</v>
+        <v>873</v>
       </c>
       <c r="G518" s="21"/>
       <c r="H518" s="22" t="s">
@@ -18310,22 +18310,22 @@
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="17" t="s">
-        <v>829</v>
-      </c>
-      <c r="B519" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="C519" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="D519" s="19">
-        <v>4301131019</v>
-      </c>
-      <c r="E519" s="18">
-        <v>4640242180427</v>
-      </c>
-      <c r="F519" s="20" t="s">
-        <v>377</v>
+        <v>828</v>
+      </c>
+      <c r="B519" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="C519" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="D519" s="4">
+        <v>4301132190</v>
+      </c>
+      <c r="E519" s="3">
+        <v>4607111036537</v>
+      </c>
+      <c r="F519" s="5" t="s">
+        <v>740</v>
       </c>
       <c r="G519" s="21"/>
       <c r="H519" s="22" t="s">
@@ -18334,22 +18334,22 @@
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="17" t="s">
-        <v>830</v>
-      </c>
-      <c r="B520" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="C520" s="3" t="s">
-        <v>893</v>
-      </c>
-      <c r="D520" s="4">
-        <v>4301135571</v>
-      </c>
-      <c r="E520" s="3">
-        <v>4607111035028</v>
-      </c>
-      <c r="F520" s="5" t="s">
-        <v>894</v>
+        <v>829</v>
+      </c>
+      <c r="B520" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="C520" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="D520" s="19">
+        <v>4301131019</v>
+      </c>
+      <c r="E520" s="18">
+        <v>4640242180427</v>
+      </c>
+      <c r="F520" s="20" t="s">
+        <v>377</v>
       </c>
       <c r="G520" s="21"/>
       <c r="H520" s="22" t="s">
@@ -18358,70 +18358,70 @@
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="17" t="s">
+        <v>830</v>
+      </c>
+      <c r="B521" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="C521" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D521" s="4">
+        <v>4301135571</v>
+      </c>
+      <c r="E521" s="3">
+        <v>4607111035028</v>
+      </c>
+      <c r="F521" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="G521" s="21"/>
+      <c r="H521" s="22" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A522" s="17" t="s">
         <v>831</v>
       </c>
-      <c r="B521" s="3" t="s">
+      <c r="B522" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="C521" s="3" t="s">
+      <c r="C522" s="3" t="s">
         <v>931</v>
       </c>
-      <c r="D521" s="4">
+      <c r="D522" s="4">
         <v>4301135768</v>
       </c>
-      <c r="E521" s="3">
+      <c r="E522" s="3">
         <v>4620207491034</v>
       </c>
-      <c r="F521" s="5" t="s">
+      <c r="F522" s="5" t="s">
         <v>929</v>
       </c>
-      <c r="G521" s="21"/>
-      <c r="H521" s="16" t="s">
+      <c r="G522" s="21"/>
+      <c r="H522" s="16" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="522" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A522" s="17" t="s">
+    <row r="523" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A523" s="17" t="s">
         <v>833</v>
       </c>
-      <c r="B522" s="18" t="s">
+      <c r="B523" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="C522" s="18" t="s">
+      <c r="C523" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="D522" s="19">
+      <c r="D523" s="19">
         <v>4301070960</v>
       </c>
-      <c r="E522" s="18">
+      <c r="E523" s="18">
         <v>4607111038623</v>
       </c>
-      <c r="F522" s="20" t="s">
+      <c r="F523" s="20" t="s">
         <v>489</v>
-      </c>
-      <c r="G522" s="21"/>
-      <c r="H522" s="22" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A523" s="17" t="s">
-        <v>834</v>
-      </c>
-      <c r="B523" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="C523" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="D523" s="19">
-        <v>4301070966</v>
-      </c>
-      <c r="E523" s="18">
-        <v>4607111038135</v>
-      </c>
-      <c r="F523" s="20" t="s">
-        <v>367</v>
       </c>
       <c r="G523" s="21"/>
       <c r="H523" s="22" t="s">
@@ -18429,71 +18429,71 @@
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A524" s="10" t="s">
+      <c r="A524" s="17" t="s">
+        <v>834</v>
+      </c>
+      <c r="B524" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="C524" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="D524" s="19">
+        <v>4301070966</v>
+      </c>
+      <c r="E524" s="18">
+        <v>4607111038135</v>
+      </c>
+      <c r="F524" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="G524" s="21"/>
+      <c r="H524" s="22" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A525" s="10" t="s">
         <v>901</v>
       </c>
-      <c r="B524" s="3" t="s">
+      <c r="B525" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="C524" s="3" t="s">
+      <c r="C525" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="D524" s="4">
+      <c r="D525" s="4">
         <v>4301070990</v>
       </c>
-      <c r="E524" s="3">
+      <c r="E525" s="3">
         <v>4607111038494</v>
       </c>
-      <c r="F524" s="5" t="s">
+      <c r="F525" s="5" t="s">
         <v>860</v>
       </c>
-      <c r="G524" s="1"/>
-      <c r="H524" s="16" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A525" s="17" t="s">
-        <v>835</v>
-      </c>
-      <c r="B525" s="18" t="s">
-        <v>858</v>
-      </c>
-      <c r="C525" s="18" t="s">
-        <v>859</v>
-      </c>
-      <c r="D525" s="19">
-        <v>4301070990</v>
-      </c>
-      <c r="E525" s="18">
-        <v>4607111038494</v>
-      </c>
-      <c r="F525" s="20" t="s">
-        <v>860</v>
-      </c>
-      <c r="G525" s="21"/>
-      <c r="H525" s="22" t="s">
+      <c r="G525" s="1"/>
+      <c r="H525" s="16" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="17" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B526" s="18" t="s">
-        <v>154</v>
+        <v>858</v>
       </c>
       <c r="C526" s="18" t="s">
-        <v>155</v>
+        <v>859</v>
       </c>
       <c r="D526" s="19">
-        <v>4301070921</v>
+        <v>4301070990</v>
       </c>
       <c r="E526" s="18">
-        <v>4607111035905</v>
+        <v>4607111038494</v>
       </c>
       <c r="F526" s="20" t="s">
-        <v>156</v>
+        <v>860</v>
       </c>
       <c r="G526" s="21"/>
       <c r="H526" s="22" t="s">
@@ -18502,22 +18502,22 @@
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="17" t="s">
-        <v>837</v>
-      </c>
-      <c r="B527" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="C527" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="D527" s="4">
-        <v>4301135549</v>
-      </c>
-      <c r="E527" s="3">
-        <v>4607111039095</v>
-      </c>
-      <c r="F527" s="5" t="s">
-        <v>552</v>
+        <v>836</v>
+      </c>
+      <c r="B527" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C527" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D527" s="19">
+        <v>4301070921</v>
+      </c>
+      <c r="E527" s="18">
+        <v>4607111035905</v>
+      </c>
+      <c r="F527" s="20" t="s">
+        <v>156</v>
       </c>
       <c r="G527" s="21"/>
       <c r="H527" s="22" t="s">
@@ -18526,22 +18526,22 @@
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="17" t="s">
-        <v>838</v>
-      </c>
-      <c r="B528" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C528" s="18" t="s">
-        <v>526</v>
-      </c>
-      <c r="D528" s="19">
-        <v>4301135285</v>
-      </c>
-      <c r="E528" s="18">
-        <v>4607111036407</v>
-      </c>
-      <c r="F528" s="20" t="s">
-        <v>186</v>
+        <v>837</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C528" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D528" s="4">
+        <v>4301135549</v>
+      </c>
+      <c r="E528" s="3">
+        <v>4607111039095</v>
+      </c>
+      <c r="F528" s="5" t="s">
+        <v>552</v>
       </c>
       <c r="G528" s="21"/>
       <c r="H528" s="22" t="s">
@@ -18550,22 +18550,22 @@
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="17" t="s">
-        <v>714</v>
-      </c>
-      <c r="B529" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="C529" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="D529" s="4">
-        <v>4301135607</v>
-      </c>
-      <c r="E529" s="3">
-        <v>4607111039613</v>
-      </c>
-      <c r="F529" s="5" t="s">
-        <v>714</v>
+        <v>838</v>
+      </c>
+      <c r="B529" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C529" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="D529" s="19">
+        <v>4301135285</v>
+      </c>
+      <c r="E529" s="18">
+        <v>4607111036407</v>
+      </c>
+      <c r="F529" s="20" t="s">
+        <v>186</v>
       </c>
       <c r="G529" s="21"/>
       <c r="H529" s="22" t="s">
@@ -18574,22 +18574,22 @@
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="17" t="s">
-        <v>839</v>
-      </c>
-      <c r="B530" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C530" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D530" s="19">
-        <v>4301080153</v>
-      </c>
-      <c r="E530" s="18">
-        <v>4607111036827</v>
-      </c>
-      <c r="F530" s="20" t="s">
-        <v>129</v>
+        <v>714</v>
+      </c>
+      <c r="B530" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C530" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D530" s="4">
+        <v>4301135607</v>
+      </c>
+      <c r="E530" s="3">
+        <v>4607111039613</v>
+      </c>
+      <c r="F530" s="5" t="s">
+        <v>714</v>
       </c>
       <c r="G530" s="21"/>
       <c r="H530" s="22" t="s">
@@ -18598,22 +18598,22 @@
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="17" t="s">
-        <v>840</v>
-      </c>
-      <c r="B531" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="C531" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="D531" s="4">
-        <v>4301135574</v>
-      </c>
-      <c r="E531" s="3">
-        <v>4607111033659</v>
-      </c>
-      <c r="F531" s="5" t="s">
-        <v>728</v>
+        <v>839</v>
+      </c>
+      <c r="B531" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C531" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D531" s="19">
+        <v>4301080153</v>
+      </c>
+      <c r="E531" s="18">
+        <v>4607111036827</v>
+      </c>
+      <c r="F531" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="G531" s="21"/>
       <c r="H531" s="22" t="s">
@@ -18622,22 +18622,22 @@
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="17" t="s">
-        <v>841</v>
-      </c>
-      <c r="B532" s="18" t="s">
-        <v>670</v>
-      </c>
-      <c r="C532" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="D532" s="19">
-        <v>4301071044</v>
-      </c>
-      <c r="E532" s="18">
-        <v>4607111039385</v>
-      </c>
-      <c r="F532" s="20" t="s">
-        <v>672</v>
+        <v>840</v>
+      </c>
+      <c r="B532" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="C532" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="D532" s="4">
+        <v>4301135574</v>
+      </c>
+      <c r="E532" s="3">
+        <v>4607111033659</v>
+      </c>
+      <c r="F532" s="5" t="s">
+        <v>728</v>
       </c>
       <c r="G532" s="21"/>
       <c r="H532" s="22" t="s">
@@ -18646,22 +18646,22 @@
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="17" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B533" s="18" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="C533" s="18" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="D533" s="19">
-        <v>4301071031</v>
+        <v>4301071044</v>
       </c>
       <c r="E533" s="18">
-        <v>4607111038982</v>
+        <v>4607111039385</v>
       </c>
       <c r="F533" s="20" t="s">
-        <v>689</v>
+        <v>672</v>
       </c>
       <c r="G533" s="21"/>
       <c r="H533" s="22" t="s">
@@ -18670,22 +18670,22 @@
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="17" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B534" s="18" t="s">
-        <v>181</v>
+        <v>687</v>
       </c>
       <c r="C534" s="18" t="s">
-        <v>182</v>
+        <v>688</v>
       </c>
       <c r="D534" s="19">
-        <v>4301070917</v>
+        <v>4301071031</v>
       </c>
       <c r="E534" s="18">
-        <v>4607111035912</v>
+        <v>4607111038982</v>
       </c>
       <c r="F534" s="20" t="s">
-        <v>183</v>
+        <v>689</v>
       </c>
       <c r="G534" s="21"/>
       <c r="H534" s="22" t="s">
@@ -18694,22 +18694,22 @@
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="17" t="s">
-        <v>844</v>
-      </c>
-      <c r="B535" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C535" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="D535" s="4">
-        <v>4301136070</v>
-      </c>
-      <c r="E535" s="3">
-        <v>4607025784012</v>
-      </c>
-      <c r="F535" s="5" t="s">
-        <v>170</v>
+        <v>843</v>
+      </c>
+      <c r="B535" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C535" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D535" s="19">
+        <v>4301070917</v>
+      </c>
+      <c r="E535" s="18">
+        <v>4607111035912</v>
+      </c>
+      <c r="F535" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="G535" s="21"/>
       <c r="H535" s="22" t="s">
@@ -18718,46 +18718,46 @@
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="17" t="s">
-        <v>845</v>
-      </c>
-      <c r="B536" s="18" t="s">
-        <v>610</v>
-      </c>
-      <c r="C536" s="18" t="s">
-        <v>611</v>
-      </c>
-      <c r="D536" s="19">
-        <v>4301071046</v>
-      </c>
-      <c r="E536" s="18">
-        <v>4607111039354</v>
-      </c>
-      <c r="F536" s="20" t="s">
-        <v>612</v>
+        <v>844</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C536" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D536" s="4">
+        <v>4301136070</v>
+      </c>
+      <c r="E536" s="3">
+        <v>4607025784012</v>
+      </c>
+      <c r="F536" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="G536" s="21"/>
       <c r="H536" s="22" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="537" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="17" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B537" s="18" t="s">
-        <v>861</v>
+        <v>610</v>
       </c>
       <c r="C537" s="18" t="s">
-        <v>862</v>
+        <v>611</v>
       </c>
       <c r="D537" s="19">
-        <v>4301070959</v>
+        <v>4301071046</v>
       </c>
       <c r="E537" s="18">
-        <v>4607111038616</v>
+        <v>4607111039354</v>
       </c>
       <c r="F537" s="20" t="s">
-        <v>863</v>
+        <v>612</v>
       </c>
       <c r="G537" s="21"/>
       <c r="H537" s="22" t="s">
@@ -18766,46 +18766,46 @@
     </row>
     <row r="538" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A538" s="17" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B538" s="18" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C538" s="18" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D538" s="19">
-        <v>4301070962</v>
+        <v>4301070959</v>
       </c>
       <c r="E538" s="18">
-        <v>4607111038609</v>
+        <v>4607111038616</v>
       </c>
       <c r="F538" s="20" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="G538" s="21"/>
       <c r="H538" s="22" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A539" s="17" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B539" s="18" t="s">
-        <v>254</v>
+        <v>864</v>
       </c>
       <c r="C539" s="18" t="s">
-        <v>255</v>
+        <v>865</v>
       </c>
       <c r="D539" s="19">
-        <v>4301070948</v>
+        <v>4301070962</v>
       </c>
       <c r="E539" s="18">
-        <v>4607111037022</v>
+        <v>4607111038609</v>
       </c>
       <c r="F539" s="20" t="s">
-        <v>152</v>
+        <v>866</v>
       </c>
       <c r="G539" s="21"/>
       <c r="H539" s="22" t="s">
@@ -18814,22 +18814,22 @@
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B540" s="18" t="s">
-        <v>701</v>
+        <v>254</v>
       </c>
       <c r="C540" s="18" t="s">
-        <v>702</v>
+        <v>255</v>
       </c>
       <c r="D540" s="19">
-        <v>4301135570</v>
+        <v>4301070948</v>
       </c>
       <c r="E540" s="18">
-        <v>4607111035806</v>
+        <v>4607111037022</v>
       </c>
       <c r="F540" s="20" t="s">
-        <v>703</v>
+        <v>152</v>
       </c>
       <c r="G540" s="21"/>
       <c r="H540" s="22" t="s">
@@ -18838,22 +18838,22 @@
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="17" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B541" s="18" t="s">
-        <v>730</v>
+        <v>701</v>
       </c>
       <c r="C541" s="18" t="s">
-        <v>731</v>
+        <v>702</v>
       </c>
       <c r="D541" s="19">
-        <v>4301071032</v>
+        <v>4301135570</v>
       </c>
       <c r="E541" s="18">
-        <v>4607111038999</v>
+        <v>4607111035806</v>
       </c>
       <c r="F541" s="20" t="s">
-        <v>732</v>
+        <v>703</v>
       </c>
       <c r="G541" s="21"/>
       <c r="H541" s="22" t="s">
@@ -18862,22 +18862,22 @@
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="17" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B542" s="18" t="s">
-        <v>674</v>
+        <v>730</v>
       </c>
       <c r="C542" s="18" t="s">
-        <v>675</v>
+        <v>731</v>
       </c>
       <c r="D542" s="19">
-        <v>4301071045</v>
+        <v>4301071032</v>
       </c>
       <c r="E542" s="18">
-        <v>4607111039392</v>
+        <v>4607111038999</v>
       </c>
       <c r="F542" s="20" t="s">
-        <v>676</v>
+        <v>732</v>
       </c>
       <c r="G542" s="21"/>
       <c r="H542" s="22" t="s">
@@ -18886,22 +18886,22 @@
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="17" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B543" s="18" t="s">
-        <v>483</v>
+        <v>674</v>
       </c>
       <c r="C543" s="18" t="s">
-        <v>484</v>
+        <v>675</v>
       </c>
       <c r="D543" s="19">
-        <v>4301070963</v>
+        <v>4301071045</v>
       </c>
       <c r="E543" s="18">
-        <v>4607111038630</v>
+        <v>4607111039392</v>
       </c>
       <c r="F543" s="20" t="s">
-        <v>485</v>
+        <v>676</v>
       </c>
       <c r="G543" s="21"/>
       <c r="H543" s="22" t="s">
@@ -18910,22 +18910,22 @@
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="17" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B544" s="18" t="s">
-        <v>592</v>
+        <v>483</v>
       </c>
       <c r="C544" s="18" t="s">
-        <v>593</v>
+        <v>484</v>
       </c>
       <c r="D544" s="19">
-        <v>4301071054</v>
+        <v>4301070963</v>
       </c>
       <c r="E544" s="18">
-        <v>4607111035639</v>
+        <v>4607111038630</v>
       </c>
       <c r="F544" s="20" t="s">
-        <v>594</v>
+        <v>485</v>
       </c>
       <c r="G544" s="21"/>
       <c r="H544" s="22" t="s">
@@ -18934,30 +18934,54 @@
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" s="17" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B545" s="18" t="s">
-        <v>340</v>
+        <v>592</v>
       </c>
       <c r="C545" s="18" t="s">
-        <v>562</v>
+        <v>593</v>
       </c>
       <c r="D545" s="19">
-        <v>4301135540</v>
+        <v>4301071054</v>
       </c>
       <c r="E545" s="18">
-        <v>4607111035646</v>
+        <v>4607111035639</v>
       </c>
       <c r="F545" s="20" t="s">
-        <v>563</v>
+        <v>594</v>
       </c>
       <c r="G545" s="21"/>
       <c r="H545" s="22" t="s">
         <v>855</v>
       </c>
     </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A546" s="17" t="s">
+        <v>854</v>
+      </c>
+      <c r="B546" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="C546" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="D546" s="19">
+        <v>4301135540</v>
+      </c>
+      <c r="E546" s="18">
+        <v>4607111035646</v>
+      </c>
+      <c r="F546" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="G546" s="21"/>
+      <c r="H546" s="22" t="s">
+        <v>855</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F545" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+  <autoFilter ref="A1:F546" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F254">
       <sortCondition ref="A1:A185"/>
     </sortState>

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B6DE00-9E68-4883-94EF-680A7335083C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760B335A-5DC2-4395-AC98-991D7B7AF958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,26 +20,20 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$546</definedName>
-    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$485</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$570</definedName>
+    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$509</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="1005">
   <si>
     <t>1С</t>
   </si>
@@ -2976,6 +2970,84 @@
   </si>
   <si>
     <t>Пельмени Бульмени с говядиной и свининой СЕВЕРНАЯ КОЛЛЕКЦИЯ 0,7кг ТМ Горячая штучка сфера  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Наггетсы Нагетосы Сочная курочка ТМ Горячая штучка 0,25 кг тара. Полуфабрикаты из мяса птицы рубленые формованные в панировке замороженные ТУ 10.13.14013147097712018 ЗАО "Мясная галерея"</t>
+  </si>
+  <si>
+    <t>Наггетсы Нагетосы Сочная курочка в хрустящей панировке со сметаной и зеленью ТМ Горячая штучка 0,25 кг НД1. Полуфабрикаты из мяса птицы рубленые формованные в панировке замороженные ТУ 10.13.14013147097712018 ЗАО "Мясная галерея"</t>
+  </si>
+  <si>
+    <t>Пельмени Grandmeni с говядиной ТМ Горячаяштучка флоу-пак сфера 0,7 кг.Мясной полуфабрикат в тесте замороженный ТУ 10.13.14-012-14709771-2018 ЗАО "Мясная галерея"</t>
+  </si>
+  <si>
+    <t>Пельмени Grandmeni со сливочным маслом  ТМ Горячая штучка флоу-пак сфера 0,7 кг.Мясной полуфабрикат в тесте замороженный ТУ 10.13.14-012-14709771-2018</t>
+  </si>
+  <si>
+    <t>Пельмени Бигбули #МЕГАВКУСИЩЕ с сочной грудинкой ТМ Горячая штучка ТС Бигбули ГШ флоу-пак сфера 0,7 кг. Мясной полуфабрикат в тесте замороженный ТУ 10.13.14-012-14709771-2018 ЗАО "Мясная галерея"</t>
+  </si>
+  <si>
+    <t>Готовые бельмеши сочные с мясом ТМ Горячая штучка ТС Базовый ассортимент 0,3 кг. Изделия кулинарные</t>
+  </si>
+  <si>
+    <t>Хрустящие крылышки ТМ Горячая штучка ТС Базовый ассортимент 0,3 кг. Изделия кулинарные кусковые в панировке из мяса птицы куриные жареные первый сорт. Готовые в</t>
+  </si>
+  <si>
+    <t>Хрустящие крылышки острые к пиву ТМ Горячая штучка ТС Базовый ассортимент 0,3 кг. Изделия кулинарные кусковые в панировке из мяса птицы куриные жареные первый с</t>
+  </si>
+  <si>
+    <t>Готовые чебупели с ветчиной и сыром ТМ Горячая штучка ТС Базовый ассортимент 0,3 кг. Изделия кулинарные мясосодержащие рубленные в тесте. Готовые вторые блюда з</t>
+  </si>
+  <si>
+    <t>Готовые чебупели сочные с мясом ТМ Горячая штучка ТС Базовый ассортимент 0,3 кг. Изделия кулинарные мясосодержащие рубленные в тесте. Готовые вторые блюда замор</t>
+  </si>
+  <si>
+    <t>Чебупели Курочка гриль ТМ Горячая штучка флоупак 0,3 кг НД1. Кулинарные изделия рубленые в тесте куриные жареные. Готовые вторые блюда замороженные ТУ 1013.14.015147097712021 ЗАО "Мясная галерея"</t>
+  </si>
+  <si>
+    <t>Готовые чебуреки с мясом ТМ Горячая штучка флоу-пак 0,09 кг. Изделия кулинарные мясосодержащие рубленные в тесте жареные. Готовые вторые блюда заморожен</t>
+  </si>
+  <si>
+    <t>Пельмени Бульмени с говядиной и свининой ТМ Горячая штучка ТС Бульмени ГШ флоу-пак сфера 0,4 кг тара2. Полуфабрикаты в тесте замороженные с мясной начинкой ТУ 9214-007-14709771-08 ЗАО "Мясная галерея"</t>
+  </si>
+  <si>
+    <t>Пельмени Бульмени с говядиной и свининой ТМ Горячая штучка БУЛЬМЕНИ ТС Бульмени ГШ флоу-пак сфера 0,7 кг. Полуфабрикаты в тесте замороженные с мясной начинкой ТУ 9214-007-14709771-08 ЗАО "Мясная галерея"¶</t>
+  </si>
+  <si>
+    <t>Пельмени Бульмени со сливочным маслом ТМ Горячая штучка ТС Бульмени ГШ флоу-пак сфера 0,4 кг. Полуфабрикаты в тесте замороженные с мясной начинкой категории Б ТУ 9214-007-14709771-08 ЗАО "Мясная галерея"</t>
+  </si>
+  <si>
+    <t>Пельмени Бульмени со сливочным маслом ТМ Горячая штучка ТС Бульмени ГШ флоу-пак сфера 0,7 кг. Полуфабрикаты в тесте замороженные с мясной начинкой ТУ 9214-007-14709771-08 ЗАО"Мясная галерея"</t>
+  </si>
+  <si>
+    <t>Чебупицца курочка по-итальянски ТМ Горячая штучка ТС Чебупицца 0,25 кг. Изделия кулинарные рубленные в тесте куриные жареные первый сорт. Готовые вторые блюда з</t>
+  </si>
+  <si>
+    <t>Чебупицца Пепперони ТМ Горячая штучка ТС Чебупицца 0,25 кг. Изделия кулинарные мясосодержащие замороженные ТУ 9214-006-14709771-07 3АО «Мясная галерея»</t>
+  </si>
+  <si>
+    <t>Хотстеры ТМ Горячая штучка ТС Хотстеры 0,25 кг. Изделия кулинарные из мяса птицы замороженные ТУ 9214-006-14709771-07 3АО «Мясная галерея».</t>
+  </si>
+  <si>
+    <t>Круггетсы с сырным соусом ТМ Горячая штучка ТС Круггетсы 0,25 кг. Изделия кулинарные рубленные в тесте из мяса птицы куриные жареные первый сорт. Готовые вторые</t>
+  </si>
+  <si>
+    <t>Пекерсы с индейкой в сливочном соусе ТМ Горячая штучка ТС Пекерсы 0,25 кг. Изделия кулинарные рубленные в тесте из мяса птицы запеченные первый сорт. Готовые вторые блюда замор ТУ</t>
+  </si>
+  <si>
+    <t>Наггетсы из печи ТМ Вязанка ТС Няняггетсы Сливушки 0,25 кг НД2. Полуфабрикаты из мяса птицы рубленые формованные в панировке замороженные ТУ 10.13.14013147097712018 ЗАО "Мясная галерея"</t>
+  </si>
+  <si>
+    <t>Пельмени Сочные ТМ Стародворье ТС Сочные ф/п сфера ф/в 0,43 кг УВС2 НД1 МГ</t>
+  </si>
+  <si>
+    <t>Пельмени Сочные ТМ Стародворье ТС Сочные ф/п сфера ф/в 0,8 кг МГ</t>
+  </si>
+  <si>
+    <t>P004634</t>
+  </si>
+  <si>
+    <t>Пельмени «Сочные» 0,43 ТМ «Стародворье»</t>
   </si>
 </sst>
 </file>
@@ -3211,7 +3283,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Лист1"/>
@@ -6231,11 +6303,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H546"/>
+  <dimension ref="A1:H570"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17408,7 +17480,7 @@
       </c>
       <c r="G480" s="1"/>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="10" t="s">
         <v>658</v>
       </c>
@@ -17429,7 +17501,7 @@
       </c>
       <c r="G481" s="1"/>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="10" t="s">
         <v>655</v>
       </c>
@@ -17450,7 +17522,7 @@
       </c>
       <c r="G482" s="1"/>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="10" t="s">
         <v>970</v>
       </c>
@@ -17471,7 +17543,7 @@
       </c>
       <c r="G483" s="1"/>
     </row>
-    <row r="484" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A484" s="10" t="s">
         <v>974</v>
       </c>
@@ -17492,225 +17564,198 @@
       </c>
       <c r="G484" s="1"/>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A485" s="17" t="s">
-        <v>794</v>
-      </c>
-      <c r="B485" s="18" t="s">
-        <v>622</v>
-      </c>
-      <c r="C485" s="18" t="s">
-        <v>623</v>
-      </c>
-      <c r="D485" s="19">
-        <v>4301071038</v>
-      </c>
-      <c r="E485" s="18">
-        <v>4607111039248</v>
-      </c>
-      <c r="F485" s="20" t="s">
-        <v>624</v>
-      </c>
-      <c r="G485" s="21"/>
-      <c r="H485" s="22" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A486" s="17" t="s">
-        <v>795</v>
-      </c>
-      <c r="B486" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C486" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="D486" s="19">
-        <v>4301070981</v>
-      </c>
-      <c r="E486" s="18">
-        <v>4607111036728</v>
-      </c>
-      <c r="F486" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="G486" s="21"/>
-      <c r="H486" s="22" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A487" s="17" t="s">
-        <v>796</v>
-      </c>
-      <c r="B487" s="18" t="s">
-        <v>630</v>
-      </c>
-      <c r="C487" s="18" t="s">
-        <v>631</v>
-      </c>
-      <c r="D487" s="19">
-        <v>4301071039</v>
-      </c>
-      <c r="E487" s="18">
-        <v>4607111039279</v>
-      </c>
-      <c r="F487" s="20" t="s">
-        <v>632</v>
-      </c>
-      <c r="G487" s="21"/>
-      <c r="H487" s="22" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A488" s="17" t="s">
-        <v>797</v>
-      </c>
-      <c r="B488" s="18" t="s">
-        <v>618</v>
-      </c>
-      <c r="C488" s="18" t="s">
-        <v>619</v>
-      </c>
-      <c r="D488" s="19">
-        <v>4301071051</v>
-      </c>
-      <c r="E488" s="18">
-        <v>4607111039262</v>
-      </c>
-      <c r="F488" s="20" t="s">
-        <v>620</v>
-      </c>
-      <c r="G488" s="21"/>
-      <c r="H488" s="22" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A489" s="17" t="s">
-        <v>798</v>
-      </c>
-      <c r="B489" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="C489" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D489" s="19">
-        <v>4301132080</v>
-      </c>
-      <c r="E489" s="18">
-        <v>4640242180397</v>
-      </c>
-      <c r="F489" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="G489" s="21"/>
-      <c r="H489" s="22" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A490" s="17" t="s">
-        <v>799</v>
-      </c>
-      <c r="B490" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C490" s="18" t="s">
-        <v>524</v>
-      </c>
-      <c r="D490" s="19">
-        <v>4301071029</v>
-      </c>
-      <c r="E490" s="18">
-        <v>4607111035899</v>
-      </c>
-      <c r="F490" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="G490" s="21"/>
-      <c r="H490" s="22" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A491" s="17" t="s">
-        <v>800</v>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A485" s="10" t="s">
+        <v>979</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="D485" s="4">
+        <v>4301132190</v>
+      </c>
+      <c r="E485" s="3">
+        <v>4607111036537</v>
+      </c>
+      <c r="F485" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="G485" s="1"/>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A486" s="10" t="s">
+        <v>980</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C486" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="D486" s="4">
+        <v>4301132188</v>
+      </c>
+      <c r="E486" s="3">
+        <v>4607111036605</v>
+      </c>
+      <c r="F486" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="G486" s="1"/>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A487" s="10" t="s">
+        <v>981</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="D487" s="4">
+        <v>4301071090</v>
+      </c>
+      <c r="E487" s="3">
+        <v>4620207490075</v>
+      </c>
+      <c r="F487" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="G487" s="1"/>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A488" s="10" t="s">
+        <v>982</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="D488" s="4">
+        <v>4301071091</v>
+      </c>
+      <c r="E488" s="3">
+        <v>4620207490044</v>
+      </c>
+      <c r="F488" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="G488" s="1"/>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A489" s="10" t="s">
+        <v>983</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D489" s="4">
+        <v>4301071044</v>
+      </c>
+      <c r="E489" s="3">
+        <v>4607111039385</v>
+      </c>
+      <c r="F489" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="G489" s="1"/>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A490" s="10" t="s">
+        <v>984</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="D490" s="4">
+        <v>4301135574</v>
+      </c>
+      <c r="E490" s="3">
+        <v>4607111033659</v>
+      </c>
+      <c r="F490" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="G490" s="1"/>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A491" s="10" t="s">
+        <v>985</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>302</v>
+        <v>783</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>303</v>
+        <v>784</v>
       </c>
       <c r="D491" s="4">
-        <v>4301136053</v>
+        <v>4301131047</v>
       </c>
       <c r="E491" s="3">
-        <v>4640242180236</v>
+        <v>4607111034120</v>
       </c>
       <c r="F491" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G491" s="21"/>
-      <c r="H491" s="22" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A492" s="17" t="s">
-        <v>801</v>
-      </c>
-      <c r="B492" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="C492" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="D492" s="19">
-        <v>4301070977</v>
-      </c>
-      <c r="E492" s="18">
-        <v>4607111037411</v>
-      </c>
-      <c r="F492" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="G492" s="21"/>
-      <c r="H492" s="22" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A493" s="17" t="s">
-        <v>802</v>
-      </c>
-      <c r="B493" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="C493" s="18" t="s">
-        <v>556</v>
-      </c>
-      <c r="D493" s="19">
-        <v>4301135375</v>
-      </c>
-      <c r="E493" s="18">
-        <v>4640242181486</v>
-      </c>
-      <c r="F493" s="20" t="s">
-        <v>557</v>
-      </c>
-      <c r="G493" s="21"/>
-      <c r="H493" s="22" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A494" s="17" t="s">
-        <v>803</v>
+        <v>785</v>
+      </c>
+      <c r="G491" s="1"/>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A492" s="10" t="s">
+        <v>986</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="D492" s="4">
+        <v>4301131046</v>
+      </c>
+      <c r="E492" s="3">
+        <v>4607111034137</v>
+      </c>
+      <c r="F492" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="G492" s="1"/>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A493" s="10" t="s">
+        <v>987</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="D493" s="4">
+        <v>4301135793</v>
+      </c>
+      <c r="E493" s="3">
+        <v>4620207491003</v>
+      </c>
+      <c r="F493" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="G493" s="1"/>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A494" s="10" t="s">
+        <v>988</v>
       </c>
       <c r="B494" s="3" t="s">
         <v>948</v>
@@ -17727,365 +17772,320 @@
       <c r="F494" s="5" t="s">
         <v>950</v>
       </c>
-      <c r="G494" s="21"/>
-      <c r="H494" s="16" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A495" s="17" t="s">
-        <v>804</v>
-      </c>
-      <c r="B495" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C495" s="18" t="s">
-        <v>633</v>
-      </c>
-      <c r="D495" s="19">
-        <v>4301071050</v>
-      </c>
-      <c r="E495" s="18">
-        <v>4607111036216</v>
-      </c>
-      <c r="F495" s="20" t="s">
-        <v>634</v>
-      </c>
-      <c r="G495" s="21"/>
-      <c r="H495" s="22" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A496" s="17" t="s">
-        <v>805</v>
-      </c>
-      <c r="B496" s="18" t="s">
+      <c r="G494" s="1"/>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A495" s="10" t="s">
+        <v>989</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D495" s="4">
+        <v>4301135285</v>
+      </c>
+      <c r="E495" s="3">
+        <v>4607111036407</v>
+      </c>
+      <c r="F495" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G495" s="1"/>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A496" s="10" t="s">
+        <v>990</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D496" s="4">
+        <v>4301136070</v>
+      </c>
+      <c r="E496" s="3">
+        <v>4607025784012</v>
+      </c>
+      <c r="F496" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G496" s="1"/>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A497" s="10" t="s">
+        <v>991</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="D497" s="4">
+        <v>4301071051</v>
+      </c>
+      <c r="E497" s="3">
+        <v>4607111039262</v>
+      </c>
+      <c r="F497" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="G497" s="1"/>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A498" s="10" t="s">
+        <v>992</v>
+      </c>
+      <c r="B498" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C498" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D498" s="4">
+        <v>4301071038</v>
+      </c>
+      <c r="E498" s="3">
+        <v>4607111039248</v>
+      </c>
+      <c r="F498" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="G498" s="1"/>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A499" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="B499" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C496" s="18" t="s">
+      <c r="C499" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="D496" s="19">
+      <c r="D499" s="4">
         <v>4301071049</v>
       </c>
-      <c r="E496" s="18">
+      <c r="E499" s="3">
         <v>4607111039293</v>
       </c>
-      <c r="F496" s="20" t="s">
-        <v>628</v>
-      </c>
-      <c r="G496" s="21"/>
-      <c r="H496" s="22" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A497" s="17" t="s">
-        <v>806</v>
-      </c>
-      <c r="B497" s="18" t="s">
+      <c r="F499" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="G499" s="1"/>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A500" s="10" t="s">
+        <v>994</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="D500" s="4">
+        <v>4301071039</v>
+      </c>
+      <c r="E500" s="3">
+        <v>4607111039279</v>
+      </c>
+      <c r="F500" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="G500" s="1"/>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A501" s="10" t="s">
+        <v>995</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D501" s="4">
+        <v>4301135555</v>
+      </c>
+      <c r="E501" s="3">
+        <v>4607111034014</v>
+      </c>
+      <c r="F501" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="G501" s="1"/>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A502" s="10" t="s">
+        <v>996</v>
+      </c>
+      <c r="B502" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="C497" s="18" t="s">
+      <c r="C502" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="D497" s="19">
+      <c r="D502" s="4">
         <v>4301135532</v>
       </c>
-      <c r="E497" s="18">
+      <c r="E502" s="3">
         <v>4607111033994</v>
       </c>
-      <c r="F497" s="20" t="s">
+      <c r="F502" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="G497" s="21"/>
-      <c r="H497" s="22" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A498" s="17" t="s">
-        <v>807</v>
-      </c>
-      <c r="B498" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="C498" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="D498" s="4">
-        <v>4301135555</v>
-      </c>
-      <c r="E498" s="3">
-        <v>4607111034014</v>
-      </c>
-      <c r="F498" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="G498" s="21"/>
-      <c r="H498" s="22" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A499" s="17" t="s">
-        <v>808</v>
-      </c>
-      <c r="B499" s="3" t="s">
-        <v>941</v>
-      </c>
-      <c r="C499" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="D499" s="4">
-        <v>4301135793</v>
-      </c>
-      <c r="E499" s="3">
-        <v>4620207491003</v>
-      </c>
-      <c r="F499" s="5" t="s">
-        <v>943</v>
-      </c>
-      <c r="G499" s="21"/>
-      <c r="H499" s="16" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A500" s="17" t="s">
-        <v>809</v>
-      </c>
-      <c r="B500" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C500" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D500" s="4">
-        <v>4301136052</v>
-      </c>
-      <c r="E500" s="3">
-        <v>4640242180410</v>
-      </c>
-      <c r="F500" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="G500" s="21"/>
-      <c r="H500" s="22" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A501" s="17" t="s">
-        <v>810</v>
-      </c>
-      <c r="B501" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="C501" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="D501" s="4">
-        <v>4301135518</v>
-      </c>
-      <c r="E501" s="3">
-        <v>4640242181561</v>
-      </c>
-      <c r="F501" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="G501" s="21"/>
-      <c r="H501" s="22" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A502" s="17" t="s">
-        <v>811</v>
-      </c>
-      <c r="B502" s="18" t="s">
-        <v>601</v>
-      </c>
-      <c r="C502" s="18" t="s">
-        <v>602</v>
-      </c>
-      <c r="D502" s="19">
-        <v>4301135374</v>
-      </c>
-      <c r="E502" s="18">
-        <v>4640242181424</v>
-      </c>
-      <c r="F502" s="20" t="s">
-        <v>603</v>
-      </c>
-      <c r="G502" s="21"/>
-      <c r="H502" s="22" t="s">
-        <v>855</v>
-      </c>
+      <c r="G502" s="1"/>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A503" s="17" t="s">
-        <v>812</v>
-      </c>
-      <c r="B503" s="18" t="s">
-        <v>856</v>
-      </c>
-      <c r="C503" s="18" t="s">
-        <v>857</v>
-      </c>
-      <c r="D503" s="19">
-        <v>4301132079</v>
-      </c>
-      <c r="E503" s="18">
-        <v>4607111038487</v>
-      </c>
-      <c r="F503" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="G503" s="21"/>
-      <c r="H503" s="22" t="s">
-        <v>855</v>
-      </c>
+      <c r="A503" s="10" t="s">
+        <v>997</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="D503" s="4">
+        <v>4301135550</v>
+      </c>
+      <c r="E503" s="3">
+        <v>4607111034199</v>
+      </c>
+      <c r="F503" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="G503" s="1"/>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A504" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="B504" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="C504" s="18" t="s">
-        <v>636</v>
-      </c>
-      <c r="D504" s="19">
-        <v>4301071056</v>
-      </c>
-      <c r="E504" s="18">
-        <v>4640242180250</v>
-      </c>
-      <c r="F504" s="20" t="s">
-        <v>637</v>
-      </c>
-      <c r="G504" s="21"/>
-      <c r="H504" s="22" t="s">
-        <v>855</v>
-      </c>
+      <c r="A504" s="10" t="s">
+        <v>998</v>
+      </c>
+      <c r="B504" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="C504" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="D504" s="4">
+        <v>4301135753</v>
+      </c>
+      <c r="E504" s="3">
+        <v>4620207490914</v>
+      </c>
+      <c r="F504" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="G504" s="1"/>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A505" s="17" t="s">
-        <v>814</v>
+      <c r="A505" s="10" t="s">
+        <v>999</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>299</v>
+        <v>701</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>300</v>
+        <v>702</v>
       </c>
       <c r="D505" s="4">
-        <v>4301136051</v>
+        <v>4301135570</v>
       </c>
       <c r="E505" s="3">
-        <v>4640242180304</v>
+        <v>4607111035806</v>
       </c>
       <c r="F505" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="G505" s="21"/>
-      <c r="H505" s="22" t="s">
-        <v>855</v>
-      </c>
+        <v>703</v>
+      </c>
+      <c r="G505" s="1"/>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A506" s="17" t="s">
-        <v>815</v>
-      </c>
-      <c r="B506" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C506" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D506" s="19">
-        <v>4301070920</v>
-      </c>
-      <c r="E506" s="18">
-        <v>4607111035929</v>
-      </c>
-      <c r="F506" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="G506" s="21"/>
-      <c r="H506" s="22" t="s">
-        <v>855</v>
-      </c>
+      <c r="A506" s="10" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B506" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="C506" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="D506" s="4">
+        <v>4301132179</v>
+      </c>
+      <c r="E506" s="3">
+        <v>4607111035691</v>
+      </c>
+      <c r="F506" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="G506" s="1"/>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A507" s="17" t="s">
-        <v>816</v>
+      <c r="A507" s="10" t="s">
+        <v>1001</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>744</v>
+        <v>239</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>745</v>
+        <v>1003</v>
       </c>
       <c r="D507" s="4">
-        <v>4301135550</v>
+        <v>4301071063</v>
       </c>
       <c r="E507" s="3">
-        <v>4607111034199</v>
+        <v>4607111039019</v>
       </c>
       <c r="F507" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="G507" s="21"/>
-      <c r="H507" s="22" t="s">
-        <v>855</v>
-      </c>
+        <v>1004</v>
+      </c>
+      <c r="G507" s="1"/>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A508" s="17" t="s">
-        <v>817</v>
-      </c>
-      <c r="B508" s="18" t="s">
-        <v>741</v>
-      </c>
-      <c r="C508" s="18" t="s">
-        <v>742</v>
-      </c>
-      <c r="D508" s="19">
-        <v>4301132186</v>
-      </c>
-      <c r="E508" s="18">
-        <v>4607111036520</v>
-      </c>
-      <c r="F508" s="20" t="s">
-        <v>743</v>
-      </c>
-      <c r="G508" s="21"/>
-      <c r="H508" s="22" t="s">
-        <v>855</v>
-      </c>
+      <c r="A508" s="10" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B508" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C508" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D508" s="4">
+        <v>4301071000</v>
+      </c>
+      <c r="E508" s="3">
+        <v>4607111038708</v>
+      </c>
+      <c r="F508" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="G508" s="1"/>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="17" t="s">
-        <v>818</v>
+        <v>794</v>
       </c>
       <c r="B509" s="18" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="C509" s="18" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="D509" s="19">
-        <v>4301071047</v>
+        <v>4301071038</v>
       </c>
       <c r="E509" s="18">
-        <v>4607111039330</v>
+        <v>4607111039248</v>
       </c>
       <c r="F509" s="20" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="G509" s="21"/>
       <c r="H509" s="22" t="s">
@@ -18094,22 +18094,22 @@
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="17" t="s">
-        <v>819</v>
-      </c>
-      <c r="B510" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="C510" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="D510" s="4">
-        <v>4301131047</v>
-      </c>
-      <c r="E510" s="3">
-        <v>4607111034120</v>
-      </c>
-      <c r="F510" s="5" t="s">
-        <v>785</v>
+        <v>795</v>
+      </c>
+      <c r="B510" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C510" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D510" s="19">
+        <v>4301070981</v>
+      </c>
+      <c r="E510" s="18">
+        <v>4607111036728</v>
+      </c>
+      <c r="F510" s="20" t="s">
+        <v>262</v>
       </c>
       <c r="G510" s="21"/>
       <c r="H510" s="22" t="s">
@@ -18118,46 +18118,46 @@
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="17" t="s">
-        <v>820</v>
-      </c>
-      <c r="B511" s="3" t="s">
-        <v>904</v>
-      </c>
-      <c r="C511" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="D511" s="4">
-        <v>4301135763</v>
-      </c>
-      <c r="E511" s="3">
-        <v>4620207491027</v>
-      </c>
-      <c r="F511" s="5" t="s">
-        <v>906</v>
+        <v>796</v>
+      </c>
+      <c r="B511" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="C511" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="D511" s="19">
+        <v>4301071039</v>
+      </c>
+      <c r="E511" s="18">
+        <v>4607111039279</v>
+      </c>
+      <c r="F511" s="20" t="s">
+        <v>632</v>
       </c>
       <c r="G511" s="21"/>
       <c r="H511" s="22" t="s">
-        <v>963</v>
+        <v>855</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="17" t="s">
-        <v>821</v>
+        <v>797</v>
       </c>
       <c r="B512" s="18" t="s">
-        <v>559</v>
+        <v>618</v>
       </c>
       <c r="C512" s="18" t="s">
-        <v>560</v>
+        <v>619</v>
       </c>
       <c r="D512" s="19">
-        <v>4301135405</v>
+        <v>4301071051</v>
       </c>
       <c r="E512" s="18">
-        <v>4640242181523</v>
+        <v>4607111039262</v>
       </c>
       <c r="F512" s="20" t="s">
-        <v>561</v>
+        <v>620</v>
       </c>
       <c r="G512" s="21"/>
       <c r="H512" s="22" t="s">
@@ -18166,22 +18166,22 @@
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="17" t="s">
-        <v>822</v>
+        <v>798</v>
       </c>
       <c r="B513" s="18" t="s">
-        <v>708</v>
+        <v>293</v>
       </c>
       <c r="C513" s="18" t="s">
-        <v>709</v>
+        <v>294</v>
       </c>
       <c r="D513" s="19">
-        <v>4301135402</v>
+        <v>4301132080</v>
       </c>
       <c r="E513" s="18">
-        <v>4640242181493</v>
+        <v>4640242180397</v>
       </c>
       <c r="F513" s="20" t="s">
-        <v>707</v>
+        <v>295</v>
       </c>
       <c r="G513" s="21"/>
       <c r="H513" s="22" t="s">
@@ -18190,22 +18190,22 @@
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="17" t="s">
-        <v>823</v>
-      </c>
-      <c r="B514" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="C514" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="D514" s="4">
-        <v>4301131046</v>
-      </c>
-      <c r="E514" s="3">
-        <v>4607111034137</v>
-      </c>
-      <c r="F514" s="5" t="s">
-        <v>885</v>
+        <v>799</v>
+      </c>
+      <c r="B514" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C514" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="D514" s="19">
+        <v>4301071029</v>
+      </c>
+      <c r="E514" s="18">
+        <v>4607111035899</v>
+      </c>
+      <c r="F514" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="G514" s="21"/>
       <c r="H514" s="22" t="s">
@@ -18214,22 +18214,22 @@
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="17" t="s">
-        <v>824</v>
+        <v>800</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>889</v>
+        <v>302</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>890</v>
+        <v>303</v>
       </c>
       <c r="D515" s="4">
-        <v>4301136079</v>
+        <v>4301136053</v>
       </c>
       <c r="E515" s="3">
-        <v>4607025784319</v>
+        <v>4640242180236</v>
       </c>
       <c r="F515" s="5" t="s">
-        <v>891</v>
+        <v>304</v>
       </c>
       <c r="G515" s="21"/>
       <c r="H515" s="22" t="s">
@@ -18238,22 +18238,22 @@
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="17" t="s">
-        <v>825</v>
-      </c>
-      <c r="B516" s="3" t="s">
-        <v>957</v>
-      </c>
-      <c r="C516" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="D516" s="4">
-        <v>4301135753</v>
-      </c>
-      <c r="E516" s="3">
-        <v>4620207490914</v>
-      </c>
-      <c r="F516" s="5" t="s">
-        <v>959</v>
+        <v>801</v>
+      </c>
+      <c r="B516" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="C516" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="D516" s="19">
+        <v>4301070977</v>
+      </c>
+      <c r="E516" s="18">
+        <v>4607111037411</v>
+      </c>
+      <c r="F516" s="20" t="s">
+        <v>320</v>
       </c>
       <c r="G516" s="21"/>
       <c r="H516" s="22" t="s">
@@ -18262,70 +18262,70 @@
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="17" t="s">
-        <v>826</v>
-      </c>
-      <c r="B517" s="3" t="s">
-        <v>945</v>
-      </c>
-      <c r="C517" s="3" t="s">
-        <v>946</v>
-      </c>
-      <c r="D517" s="4">
-        <v>4301135778</v>
-      </c>
-      <c r="E517" s="3">
-        <v>4620207490853</v>
-      </c>
-      <c r="F517" s="5" t="s">
-        <v>947</v>
+        <v>802</v>
+      </c>
+      <c r="B517" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="C517" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D517" s="19">
+        <v>4301135375</v>
+      </c>
+      <c r="E517" s="18">
+        <v>4640242181486</v>
+      </c>
+      <c r="F517" s="20" t="s">
+        <v>557</v>
       </c>
       <c r="G517" s="21"/>
-      <c r="H517" s="16" t="s">
-        <v>951</v>
+      <c r="H517" s="22" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="17" t="s">
-        <v>827</v>
+        <v>803</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>871</v>
+        <v>948</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>872</v>
+        <v>949</v>
       </c>
       <c r="D518" s="4">
-        <v>4301132179</v>
+        <v>4301135760</v>
       </c>
       <c r="E518" s="3">
-        <v>4607111035691</v>
+        <v>4620207491010</v>
       </c>
       <c r="F518" s="5" t="s">
-        <v>873</v>
+        <v>950</v>
       </c>
       <c r="G518" s="21"/>
-      <c r="H518" s="22" t="s">
-        <v>855</v>
+      <c r="H518" s="16" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="17" t="s">
-        <v>828</v>
-      </c>
-      <c r="B519" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="C519" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="D519" s="4">
-        <v>4301132190</v>
-      </c>
-      <c r="E519" s="3">
-        <v>4607111036537</v>
-      </c>
-      <c r="F519" s="5" t="s">
-        <v>740</v>
+        <v>804</v>
+      </c>
+      <c r="B519" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C519" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="D519" s="19">
+        <v>4301071050</v>
+      </c>
+      <c r="E519" s="18">
+        <v>4607111036216</v>
+      </c>
+      <c r="F519" s="20" t="s">
+        <v>634</v>
       </c>
       <c r="G519" s="21"/>
       <c r="H519" s="22" t="s">
@@ -18334,22 +18334,22 @@
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="17" t="s">
-        <v>829</v>
+        <v>805</v>
       </c>
       <c r="B520" s="18" t="s">
-        <v>375</v>
+        <v>626</v>
       </c>
       <c r="C520" s="18" t="s">
-        <v>376</v>
+        <v>627</v>
       </c>
       <c r="D520" s="19">
-        <v>4301131019</v>
+        <v>4301071049</v>
       </c>
       <c r="E520" s="18">
-        <v>4640242180427</v>
+        <v>4607111039293</v>
       </c>
       <c r="F520" s="20" t="s">
-        <v>377</v>
+        <v>628</v>
       </c>
       <c r="G520" s="21"/>
       <c r="H520" s="22" t="s">
@@ -18358,22 +18358,22 @@
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="17" t="s">
-        <v>830</v>
-      </c>
-      <c r="B521" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="C521" s="3" t="s">
-        <v>893</v>
-      </c>
-      <c r="D521" s="4">
-        <v>4301135571</v>
-      </c>
-      <c r="E521" s="3">
-        <v>4607111035028</v>
-      </c>
-      <c r="F521" s="5" t="s">
-        <v>894</v>
+        <v>806</v>
+      </c>
+      <c r="B521" s="18" t="s">
+        <v>653</v>
+      </c>
+      <c r="C521" s="18" t="s">
+        <v>654</v>
+      </c>
+      <c r="D521" s="19">
+        <v>4301135532</v>
+      </c>
+      <c r="E521" s="18">
+        <v>4607111033994</v>
+      </c>
+      <c r="F521" s="20" t="s">
+        <v>655</v>
       </c>
       <c r="G521" s="21"/>
       <c r="H521" s="22" t="s">
@@ -18382,70 +18382,70 @@
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="17" t="s">
-        <v>831</v>
+        <v>807</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>930</v>
+        <v>656</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>931</v>
+        <v>657</v>
       </c>
       <c r="D522" s="4">
-        <v>4301135768</v>
+        <v>4301135555</v>
       </c>
       <c r="E522" s="3">
-        <v>4620207491034</v>
+        <v>4607111034014</v>
       </c>
       <c r="F522" s="5" t="s">
-        <v>929</v>
+        <v>658</v>
       </c>
       <c r="G522" s="21"/>
-      <c r="H522" s="16" t="s">
+      <c r="H522" s="22" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A523" s="17" t="s">
+        <v>808</v>
+      </c>
+      <c r="B523" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="C523" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="D523" s="4">
+        <v>4301135793</v>
+      </c>
+      <c r="E523" s="3">
+        <v>4620207491003</v>
+      </c>
+      <c r="F523" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="G523" s="21"/>
+      <c r="H523" s="16" t="s">
         <v>944</v>
-      </c>
-    </row>
-    <row r="523" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A523" s="17" t="s">
-        <v>833</v>
-      </c>
-      <c r="B523" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="C523" s="18" t="s">
-        <v>488</v>
-      </c>
-      <c r="D523" s="19">
-        <v>4301070960</v>
-      </c>
-      <c r="E523" s="18">
-        <v>4607111038623</v>
-      </c>
-      <c r="F523" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="G523" s="21"/>
-      <c r="H523" s="22" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="17" t="s">
-        <v>834</v>
-      </c>
-      <c r="B524" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="C524" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="D524" s="19">
-        <v>4301070966</v>
-      </c>
-      <c r="E524" s="18">
-        <v>4607111038135</v>
-      </c>
-      <c r="F524" s="20" t="s">
-        <v>367</v>
+        <v>809</v>
+      </c>
+      <c r="B524" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C524" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D524" s="4">
+        <v>4301136052</v>
+      </c>
+      <c r="E524" s="3">
+        <v>4640242180410</v>
+      </c>
+      <c r="F524" s="5" t="s">
+        <v>384</v>
       </c>
       <c r="G524" s="21"/>
       <c r="H524" s="22" t="s">
@@ -18453,47 +18453,47 @@
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A525" s="10" t="s">
-        <v>901</v>
+      <c r="A525" s="17" t="s">
+        <v>810</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>858</v>
+        <v>549</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>859</v>
+        <v>550</v>
       </c>
       <c r="D525" s="4">
-        <v>4301070990</v>
+        <v>4301135518</v>
       </c>
       <c r="E525" s="3">
-        <v>4607111038494</v>
+        <v>4640242181561</v>
       </c>
       <c r="F525" s="5" t="s">
-        <v>860</v>
-      </c>
-      <c r="G525" s="1"/>
-      <c r="H525" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="G525" s="21"/>
+      <c r="H525" s="22" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="17" t="s">
-        <v>835</v>
+        <v>811</v>
       </c>
       <c r="B526" s="18" t="s">
-        <v>858</v>
+        <v>601</v>
       </c>
       <c r="C526" s="18" t="s">
-        <v>859</v>
+        <v>602</v>
       </c>
       <c r="D526" s="19">
-        <v>4301070990</v>
+        <v>4301135374</v>
       </c>
       <c r="E526" s="18">
-        <v>4607111038494</v>
+        <v>4640242181424</v>
       </c>
       <c r="F526" s="20" t="s">
-        <v>860</v>
+        <v>603</v>
       </c>
       <c r="G526" s="21"/>
       <c r="H526" s="22" t="s">
@@ -18502,22 +18502,22 @@
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="17" t="s">
-        <v>836</v>
+        <v>812</v>
       </c>
       <c r="B527" s="18" t="s">
-        <v>154</v>
+        <v>856</v>
       </c>
       <c r="C527" s="18" t="s">
-        <v>155</v>
+        <v>857</v>
       </c>
       <c r="D527" s="19">
-        <v>4301070921</v>
+        <v>4301132079</v>
       </c>
       <c r="E527" s="18">
-        <v>4607111035905</v>
+        <v>4607111038487</v>
       </c>
       <c r="F527" s="20" t="s">
-        <v>156</v>
+        <v>425</v>
       </c>
       <c r="G527" s="21"/>
       <c r="H527" s="22" t="s">
@@ -18526,22 +18526,22 @@
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="17" t="s">
-        <v>837</v>
-      </c>
-      <c r="B528" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="C528" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="D528" s="4">
-        <v>4301135549</v>
-      </c>
-      <c r="E528" s="3">
-        <v>4607111039095</v>
-      </c>
-      <c r="F528" s="5" t="s">
-        <v>552</v>
+        <v>813</v>
+      </c>
+      <c r="B528" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C528" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="D528" s="19">
+        <v>4301071056</v>
+      </c>
+      <c r="E528" s="18">
+        <v>4640242180250</v>
+      </c>
+      <c r="F528" s="20" t="s">
+        <v>637</v>
       </c>
       <c r="G528" s="21"/>
       <c r="H528" s="22" t="s">
@@ -18550,22 +18550,22 @@
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="17" t="s">
-        <v>838</v>
-      </c>
-      <c r="B529" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C529" s="18" t="s">
-        <v>526</v>
-      </c>
-      <c r="D529" s="19">
-        <v>4301135285</v>
-      </c>
-      <c r="E529" s="18">
-        <v>4607111036407</v>
-      </c>
-      <c r="F529" s="20" t="s">
-        <v>186</v>
+        <v>814</v>
+      </c>
+      <c r="B529" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C529" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D529" s="4">
+        <v>4301136051</v>
+      </c>
+      <c r="E529" s="3">
+        <v>4640242180304</v>
+      </c>
+      <c r="F529" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="G529" s="21"/>
       <c r="H529" s="22" t="s">
@@ -18574,22 +18574,22 @@
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="17" t="s">
-        <v>714</v>
-      </c>
-      <c r="B530" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="C530" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="D530" s="4">
-        <v>4301135607</v>
-      </c>
-      <c r="E530" s="3">
-        <v>4607111039613</v>
-      </c>
-      <c r="F530" s="5" t="s">
-        <v>714</v>
+        <v>815</v>
+      </c>
+      <c r="B530" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C530" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D530" s="19">
+        <v>4301070920</v>
+      </c>
+      <c r="E530" s="18">
+        <v>4607111035929</v>
+      </c>
+      <c r="F530" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="G530" s="21"/>
       <c r="H530" s="22" t="s">
@@ -18598,22 +18598,22 @@
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="17" t="s">
-        <v>839</v>
-      </c>
-      <c r="B531" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C531" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D531" s="19">
-        <v>4301080153</v>
-      </c>
-      <c r="E531" s="18">
-        <v>4607111036827</v>
-      </c>
-      <c r="F531" s="20" t="s">
-        <v>129</v>
+        <v>816</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C531" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="D531" s="4">
+        <v>4301135550</v>
+      </c>
+      <c r="E531" s="3">
+        <v>4607111034199</v>
+      </c>
+      <c r="F531" s="5" t="s">
+        <v>746</v>
       </c>
       <c r="G531" s="21"/>
       <c r="H531" s="22" t="s">
@@ -18622,22 +18622,22 @@
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="17" t="s">
-        <v>840</v>
-      </c>
-      <c r="B532" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="C532" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="D532" s="4">
-        <v>4301135574</v>
-      </c>
-      <c r="E532" s="3">
-        <v>4607111033659</v>
-      </c>
-      <c r="F532" s="5" t="s">
-        <v>728</v>
+        <v>817</v>
+      </c>
+      <c r="B532" s="18" t="s">
+        <v>741</v>
+      </c>
+      <c r="C532" s="18" t="s">
+        <v>742</v>
+      </c>
+      <c r="D532" s="19">
+        <v>4301132186</v>
+      </c>
+      <c r="E532" s="18">
+        <v>4607111036520</v>
+      </c>
+      <c r="F532" s="20" t="s">
+        <v>743</v>
       </c>
       <c r="G532" s="21"/>
       <c r="H532" s="22" t="s">
@@ -18646,22 +18646,22 @@
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="17" t="s">
-        <v>841</v>
+        <v>818</v>
       </c>
       <c r="B533" s="18" t="s">
-        <v>670</v>
+        <v>614</v>
       </c>
       <c r="C533" s="18" t="s">
-        <v>671</v>
+        <v>615</v>
       </c>
       <c r="D533" s="19">
-        <v>4301071044</v>
+        <v>4301071047</v>
       </c>
       <c r="E533" s="18">
-        <v>4607111039385</v>
+        <v>4607111039330</v>
       </c>
       <c r="F533" s="20" t="s">
-        <v>672</v>
+        <v>616</v>
       </c>
       <c r="G533" s="21"/>
       <c r="H533" s="22" t="s">
@@ -18670,22 +18670,22 @@
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="17" t="s">
-        <v>842</v>
-      </c>
-      <c r="B534" s="18" t="s">
-        <v>687</v>
-      </c>
-      <c r="C534" s="18" t="s">
-        <v>688</v>
-      </c>
-      <c r="D534" s="19">
-        <v>4301071031</v>
-      </c>
-      <c r="E534" s="18">
-        <v>4607111038982</v>
-      </c>
-      <c r="F534" s="20" t="s">
-        <v>689</v>
+        <v>819</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="C534" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="D534" s="4">
+        <v>4301131047</v>
+      </c>
+      <c r="E534" s="3">
+        <v>4607111034120</v>
+      </c>
+      <c r="F534" s="5" t="s">
+        <v>785</v>
       </c>
       <c r="G534" s="21"/>
       <c r="H534" s="22" t="s">
@@ -18694,46 +18694,46 @@
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="17" t="s">
-        <v>843</v>
-      </c>
-      <c r="B535" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="C535" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="D535" s="19">
-        <v>4301070917</v>
-      </c>
-      <c r="E535" s="18">
-        <v>4607111035912</v>
-      </c>
-      <c r="F535" s="20" t="s">
-        <v>183</v>
+        <v>820</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="C535" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="D535" s="4">
+        <v>4301135763</v>
+      </c>
+      <c r="E535" s="3">
+        <v>4620207491027</v>
+      </c>
+      <c r="F535" s="5" t="s">
+        <v>906</v>
       </c>
       <c r="G535" s="21"/>
       <c r="H535" s="22" t="s">
-        <v>855</v>
+        <v>963</v>
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="17" t="s">
-        <v>844</v>
-      </c>
-      <c r="B536" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C536" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="D536" s="4">
-        <v>4301136070</v>
-      </c>
-      <c r="E536" s="3">
-        <v>4607025784012</v>
-      </c>
-      <c r="F536" s="5" t="s">
-        <v>170</v>
+        <v>821</v>
+      </c>
+      <c r="B536" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="C536" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="D536" s="19">
+        <v>4301135405</v>
+      </c>
+      <c r="E536" s="18">
+        <v>4640242181523</v>
+      </c>
+      <c r="F536" s="20" t="s">
+        <v>561</v>
       </c>
       <c r="G536" s="21"/>
       <c r="H536" s="22" t="s">
@@ -18742,70 +18742,70 @@
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="17" t="s">
-        <v>845</v>
+        <v>822</v>
       </c>
       <c r="B537" s="18" t="s">
-        <v>610</v>
+        <v>708</v>
       </c>
       <c r="C537" s="18" t="s">
-        <v>611</v>
+        <v>709</v>
       </c>
       <c r="D537" s="19">
-        <v>4301071046</v>
+        <v>4301135402</v>
       </c>
       <c r="E537" s="18">
-        <v>4607111039354</v>
+        <v>4640242181493</v>
       </c>
       <c r="F537" s="20" t="s">
-        <v>612</v>
+        <v>707</v>
       </c>
       <c r="G537" s="21"/>
       <c r="H537" s="22" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="538" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="17" t="s">
-        <v>846</v>
-      </c>
-      <c r="B538" s="18" t="s">
-        <v>861</v>
-      </c>
-      <c r="C538" s="18" t="s">
-        <v>862</v>
-      </c>
-      <c r="D538" s="19">
-        <v>4301070959</v>
-      </c>
-      <c r="E538" s="18">
-        <v>4607111038616</v>
-      </c>
-      <c r="F538" s="20" t="s">
-        <v>863</v>
+        <v>823</v>
+      </c>
+      <c r="B538" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="C538" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="D538" s="4">
+        <v>4301131046</v>
+      </c>
+      <c r="E538" s="3">
+        <v>4607111034137</v>
+      </c>
+      <c r="F538" s="5" t="s">
+        <v>885</v>
       </c>
       <c r="G538" s="21"/>
       <c r="H538" s="22" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="539" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="17" t="s">
-        <v>847</v>
-      </c>
-      <c r="B539" s="18" t="s">
-        <v>864</v>
-      </c>
-      <c r="C539" s="18" t="s">
-        <v>865</v>
-      </c>
-      <c r="D539" s="19">
-        <v>4301070962</v>
-      </c>
-      <c r="E539" s="18">
-        <v>4607111038609</v>
-      </c>
-      <c r="F539" s="20" t="s">
-        <v>866</v>
+        <v>824</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="C539" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="D539" s="4">
+        <v>4301136079</v>
+      </c>
+      <c r="E539" s="3">
+        <v>4607025784319</v>
+      </c>
+      <c r="F539" s="5" t="s">
+        <v>891</v>
       </c>
       <c r="G539" s="21"/>
       <c r="H539" s="22" t="s">
@@ -18814,22 +18814,22 @@
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="17" t="s">
-        <v>848</v>
-      </c>
-      <c r="B540" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="C540" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="D540" s="19">
-        <v>4301070948</v>
-      </c>
-      <c r="E540" s="18">
-        <v>4607111037022</v>
-      </c>
-      <c r="F540" s="20" t="s">
-        <v>152</v>
+        <v>825</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="C540" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="D540" s="4">
+        <v>4301135753</v>
+      </c>
+      <c r="E540" s="3">
+        <v>4620207490914</v>
+      </c>
+      <c r="F540" s="5" t="s">
+        <v>959</v>
       </c>
       <c r="G540" s="21"/>
       <c r="H540" s="22" t="s">
@@ -18838,46 +18838,46 @@
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="17" t="s">
-        <v>849</v>
-      </c>
-      <c r="B541" s="18" t="s">
-        <v>701</v>
-      </c>
-      <c r="C541" s="18" t="s">
-        <v>702</v>
-      </c>
-      <c r="D541" s="19">
-        <v>4301135570</v>
-      </c>
-      <c r="E541" s="18">
-        <v>4607111035806</v>
-      </c>
-      <c r="F541" s="20" t="s">
-        <v>703</v>
+        <v>826</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="C541" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="D541" s="4">
+        <v>4301135778</v>
+      </c>
+      <c r="E541" s="3">
+        <v>4620207490853</v>
+      </c>
+      <c r="F541" s="5" t="s">
+        <v>947</v>
       </c>
       <c r="G541" s="21"/>
-      <c r="H541" s="22" t="s">
-        <v>855</v>
+      <c r="H541" s="16" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="17" t="s">
-        <v>850</v>
-      </c>
-      <c r="B542" s="18" t="s">
-        <v>730</v>
-      </c>
-      <c r="C542" s="18" t="s">
-        <v>731</v>
-      </c>
-      <c r="D542" s="19">
-        <v>4301071032</v>
-      </c>
-      <c r="E542" s="18">
-        <v>4607111038999</v>
-      </c>
-      <c r="F542" s="20" t="s">
-        <v>732</v>
+        <v>827</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="C542" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="D542" s="4">
+        <v>4301132179</v>
+      </c>
+      <c r="E542" s="3">
+        <v>4607111035691</v>
+      </c>
+      <c r="F542" s="5" t="s">
+        <v>873</v>
       </c>
       <c r="G542" s="21"/>
       <c r="H542" s="22" t="s">
@@ -18886,22 +18886,22 @@
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="17" t="s">
-        <v>851</v>
-      </c>
-      <c r="B543" s="18" t="s">
-        <v>674</v>
-      </c>
-      <c r="C543" s="18" t="s">
-        <v>675</v>
-      </c>
-      <c r="D543" s="19">
-        <v>4301071045</v>
-      </c>
-      <c r="E543" s="18">
-        <v>4607111039392</v>
-      </c>
-      <c r="F543" s="20" t="s">
-        <v>676</v>
+        <v>828</v>
+      </c>
+      <c r="B543" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="C543" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="D543" s="4">
+        <v>4301132190</v>
+      </c>
+      <c r="E543" s="3">
+        <v>4607111036537</v>
+      </c>
+      <c r="F543" s="5" t="s">
+        <v>740</v>
       </c>
       <c r="G543" s="21"/>
       <c r="H543" s="22" t="s">
@@ -18910,22 +18910,22 @@
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="17" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="B544" s="18" t="s">
-        <v>483</v>
+        <v>375</v>
       </c>
       <c r="C544" s="18" t="s">
-        <v>484</v>
+        <v>376</v>
       </c>
       <c r="D544" s="19">
-        <v>4301070963</v>
+        <v>4301131019</v>
       </c>
       <c r="E544" s="18">
-        <v>4607111038630</v>
+        <v>4640242180427</v>
       </c>
       <c r="F544" s="20" t="s">
-        <v>485</v>
+        <v>377</v>
       </c>
       <c r="G544" s="21"/>
       <c r="H544" s="22" t="s">
@@ -18934,22 +18934,22 @@
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" s="17" t="s">
-        <v>853</v>
-      </c>
-      <c r="B545" s="18" t="s">
-        <v>592</v>
-      </c>
-      <c r="C545" s="18" t="s">
-        <v>593</v>
-      </c>
-      <c r="D545" s="19">
-        <v>4301071054</v>
-      </c>
-      <c r="E545" s="18">
-        <v>4607111035639</v>
-      </c>
-      <c r="F545" s="20" t="s">
-        <v>594</v>
+        <v>830</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="C545" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D545" s="4">
+        <v>4301135571</v>
+      </c>
+      <c r="E545" s="3">
+        <v>4607111035028</v>
+      </c>
+      <c r="F545" s="5" t="s">
+        <v>894</v>
       </c>
       <c r="G545" s="21"/>
       <c r="H545" s="22" t="s">
@@ -18958,30 +18958,606 @@
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="17" t="s">
+        <v>831</v>
+      </c>
+      <c r="B546" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="C546" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="D546" s="4">
+        <v>4301135768</v>
+      </c>
+      <c r="E546" s="3">
+        <v>4620207491034</v>
+      </c>
+      <c r="F546" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="G546" s="21"/>
+      <c r="H546" s="16" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A547" s="17" t="s">
+        <v>833</v>
+      </c>
+      <c r="B547" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="C547" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="D547" s="19">
+        <v>4301070960</v>
+      </c>
+      <c r="E547" s="18">
+        <v>4607111038623</v>
+      </c>
+      <c r="F547" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="G547" s="21"/>
+      <c r="H547" s="22" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A548" s="17" t="s">
+        <v>834</v>
+      </c>
+      <c r="B548" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="C548" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="D548" s="19">
+        <v>4301070966</v>
+      </c>
+      <c r="E548" s="18">
+        <v>4607111038135</v>
+      </c>
+      <c r="F548" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="G548" s="21"/>
+      <c r="H548" s="22" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A549" s="10" t="s">
+        <v>901</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="C549" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="D549" s="4">
+        <v>4301070990</v>
+      </c>
+      <c r="E549" s="3">
+        <v>4607111038494</v>
+      </c>
+      <c r="F549" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="G549" s="1"/>
+      <c r="H549" s="16" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A550" s="17" t="s">
+        <v>835</v>
+      </c>
+      <c r="B550" s="18" t="s">
+        <v>858</v>
+      </c>
+      <c r="C550" s="18" t="s">
+        <v>859</v>
+      </c>
+      <c r="D550" s="19">
+        <v>4301070990</v>
+      </c>
+      <c r="E550" s="18">
+        <v>4607111038494</v>
+      </c>
+      <c r="F550" s="20" t="s">
+        <v>860</v>
+      </c>
+      <c r="G550" s="21"/>
+      <c r="H550" s="22" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A551" s="17" t="s">
+        <v>836</v>
+      </c>
+      <c r="B551" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C551" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D551" s="19">
+        <v>4301070921</v>
+      </c>
+      <c r="E551" s="18">
+        <v>4607111035905</v>
+      </c>
+      <c r="F551" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G551" s="21"/>
+      <c r="H551" s="22" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A552" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C552" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D552" s="4">
+        <v>4301135549</v>
+      </c>
+      <c r="E552" s="3">
+        <v>4607111039095</v>
+      </c>
+      <c r="F552" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="G552" s="21"/>
+      <c r="H552" s="22" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A553" s="17" t="s">
+        <v>838</v>
+      </c>
+      <c r="B553" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C553" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="D553" s="19">
+        <v>4301135285</v>
+      </c>
+      <c r="E553" s="18">
+        <v>4607111036407</v>
+      </c>
+      <c r="F553" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="G553" s="21"/>
+      <c r="H553" s="22" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A554" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="B554" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C554" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D554" s="4">
+        <v>4301135607</v>
+      </c>
+      <c r="E554" s="3">
+        <v>4607111039613</v>
+      </c>
+      <c r="F554" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="G554" s="21"/>
+      <c r="H554" s="22" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A555" s="17" t="s">
+        <v>839</v>
+      </c>
+      <c r="B555" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C555" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D555" s="19">
+        <v>4301080153</v>
+      </c>
+      <c r="E555" s="18">
+        <v>4607111036827</v>
+      </c>
+      <c r="F555" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G555" s="21"/>
+      <c r="H555" s="22" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A556" s="17" t="s">
+        <v>840</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="C556" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="D556" s="4">
+        <v>4301135574</v>
+      </c>
+      <c r="E556" s="3">
+        <v>4607111033659</v>
+      </c>
+      <c r="F556" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="G556" s="21"/>
+      <c r="H556" s="22" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A557" s="17" t="s">
+        <v>841</v>
+      </c>
+      <c r="B557" s="18" t="s">
+        <v>670</v>
+      </c>
+      <c r="C557" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="D557" s="19">
+        <v>4301071044</v>
+      </c>
+      <c r="E557" s="18">
+        <v>4607111039385</v>
+      </c>
+      <c r="F557" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="G557" s="21"/>
+      <c r="H557" s="22" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A558" s="17" t="s">
+        <v>842</v>
+      </c>
+      <c r="B558" s="18" t="s">
+        <v>687</v>
+      </c>
+      <c r="C558" s="18" t="s">
+        <v>688</v>
+      </c>
+      <c r="D558" s="19">
+        <v>4301071031</v>
+      </c>
+      <c r="E558" s="18">
+        <v>4607111038982</v>
+      </c>
+      <c r="F558" s="20" t="s">
+        <v>689</v>
+      </c>
+      <c r="G558" s="21"/>
+      <c r="H558" s="22" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A559" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="B559" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C559" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D559" s="19">
+        <v>4301070917</v>
+      </c>
+      <c r="E559" s="18">
+        <v>4607111035912</v>
+      </c>
+      <c r="F559" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G559" s="21"/>
+      <c r="H559" s="22" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A560" s="17" t="s">
+        <v>844</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C560" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D560" s="4">
+        <v>4301136070</v>
+      </c>
+      <c r="E560" s="3">
+        <v>4607025784012</v>
+      </c>
+      <c r="F560" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G560" s="21"/>
+      <c r="H560" s="22" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A561" s="17" t="s">
+        <v>845</v>
+      </c>
+      <c r="B561" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="C561" s="18" t="s">
+        <v>611</v>
+      </c>
+      <c r="D561" s="19">
+        <v>4301071046</v>
+      </c>
+      <c r="E561" s="18">
+        <v>4607111039354</v>
+      </c>
+      <c r="F561" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="G561" s="21"/>
+      <c r="H561" s="22" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A562" s="17" t="s">
+        <v>846</v>
+      </c>
+      <c r="B562" s="18" t="s">
+        <v>861</v>
+      </c>
+      <c r="C562" s="18" t="s">
+        <v>862</v>
+      </c>
+      <c r="D562" s="19">
+        <v>4301070959</v>
+      </c>
+      <c r="E562" s="18">
+        <v>4607111038616</v>
+      </c>
+      <c r="F562" s="20" t="s">
+        <v>863</v>
+      </c>
+      <c r="G562" s="21"/>
+      <c r="H562" s="22" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A563" s="17" t="s">
+        <v>847</v>
+      </c>
+      <c r="B563" s="18" t="s">
+        <v>864</v>
+      </c>
+      <c r="C563" s="18" t="s">
+        <v>865</v>
+      </c>
+      <c r="D563" s="19">
+        <v>4301070962</v>
+      </c>
+      <c r="E563" s="18">
+        <v>4607111038609</v>
+      </c>
+      <c r="F563" s="20" t="s">
+        <v>866</v>
+      </c>
+      <c r="G563" s="21"/>
+      <c r="H563" s="22" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A564" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="B564" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="C564" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D564" s="19">
+        <v>4301070948</v>
+      </c>
+      <c r="E564" s="18">
+        <v>4607111037022</v>
+      </c>
+      <c r="F564" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G564" s="21"/>
+      <c r="H564" s="22" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A565" s="17" t="s">
+        <v>849</v>
+      </c>
+      <c r="B565" s="18" t="s">
+        <v>701</v>
+      </c>
+      <c r="C565" s="18" t="s">
+        <v>702</v>
+      </c>
+      <c r="D565" s="19">
+        <v>4301135570</v>
+      </c>
+      <c r="E565" s="18">
+        <v>4607111035806</v>
+      </c>
+      <c r="F565" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="G565" s="21"/>
+      <c r="H565" s="22" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A566" s="17" t="s">
+        <v>850</v>
+      </c>
+      <c r="B566" s="18" t="s">
+        <v>730</v>
+      </c>
+      <c r="C566" s="18" t="s">
+        <v>731</v>
+      </c>
+      <c r="D566" s="19">
+        <v>4301071032</v>
+      </c>
+      <c r="E566" s="18">
+        <v>4607111038999</v>
+      </c>
+      <c r="F566" s="20" t="s">
+        <v>732</v>
+      </c>
+      <c r="G566" s="21"/>
+      <c r="H566" s="22" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A567" s="17" t="s">
+        <v>851</v>
+      </c>
+      <c r="B567" s="18" t="s">
+        <v>674</v>
+      </c>
+      <c r="C567" s="18" t="s">
+        <v>675</v>
+      </c>
+      <c r="D567" s="19">
+        <v>4301071045</v>
+      </c>
+      <c r="E567" s="18">
+        <v>4607111039392</v>
+      </c>
+      <c r="F567" s="20" t="s">
+        <v>676</v>
+      </c>
+      <c r="G567" s="21"/>
+      <c r="H567" s="22" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A568" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="B568" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="C568" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="D568" s="19">
+        <v>4301070963</v>
+      </c>
+      <c r="E568" s="18">
+        <v>4607111038630</v>
+      </c>
+      <c r="F568" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="G568" s="21"/>
+      <c r="H568" s="22" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A569" s="17" t="s">
+        <v>853</v>
+      </c>
+      <c r="B569" s="18" t="s">
+        <v>592</v>
+      </c>
+      <c r="C569" s="18" t="s">
+        <v>593</v>
+      </c>
+      <c r="D569" s="19">
+        <v>4301071054</v>
+      </c>
+      <c r="E569" s="18">
+        <v>4607111035639</v>
+      </c>
+      <c r="F569" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="G569" s="21"/>
+      <c r="H569" s="22" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A570" s="17" t="s">
         <v>854</v>
       </c>
-      <c r="B546" s="18" t="s">
+      <c r="B570" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="C546" s="18" t="s">
+      <c r="C570" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="D546" s="19">
+      <c r="D570" s="19">
         <v>4301135540</v>
       </c>
-      <c r="E546" s="18">
+      <c r="E570" s="18">
         <v>4607111035646</v>
       </c>
-      <c r="F546" s="20" t="s">
+      <c r="F570" s="20" t="s">
         <v>563</v>
       </c>
-      <c r="G546" s="21"/>
-      <c r="H546" s="22" t="s">
+      <c r="G570" s="21"/>
+      <c r="H570" s="22" t="s">
         <v>855</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F546" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+  <autoFilter ref="A1:F570" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F254">
       <sortCondition ref="A1:A185"/>
     </sortState>

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36CCAC4-AFC3-46DD-9132-FC04BA6CAC7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E516E6FE-3AC8-483B-8A80-71B39BF7EF9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,8 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$571</definedName>
-    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$510</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$572</definedName>
+    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$511</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="1009">
   <si>
     <t>1С</t>
   </si>
@@ -3063,6 +3063,9 @@
   </si>
   <si>
     <t>P004205</t>
+  </si>
+  <si>
+    <t>Жареные вареники с картофелем и беконом Добросельские 0,2 кг. ТМ Стародворье  ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -6318,7 +6321,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H571"/>
+  <dimension ref="A1:H572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18085,7 +18088,7 @@
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="10" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="B509" s="3" t="s">
         <v>1004</v>
@@ -18105,47 +18108,44 @@
       <c r="G509" s="1"/>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A510" s="17" t="s">
-        <v>792</v>
-      </c>
-      <c r="B510" s="18" t="s">
-        <v>620</v>
-      </c>
-      <c r="C510" s="18" t="s">
-        <v>621</v>
-      </c>
-      <c r="D510" s="19">
-        <v>4301071038</v>
-      </c>
-      <c r="E510" s="18">
-        <v>4607111039248</v>
-      </c>
-      <c r="F510" s="20" t="s">
-        <v>622</v>
-      </c>
-      <c r="G510" s="21"/>
-      <c r="H510" s="22" t="s">
-        <v>853</v>
-      </c>
+      <c r="A510" s="10" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B510" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C510" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D510" s="4">
+        <v>4301135692</v>
+      </c>
+      <c r="E510" s="3">
+        <v>4620207490570</v>
+      </c>
+      <c r="F510" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G510" s="1"/>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="17" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B511" s="18" t="s">
-        <v>106</v>
+        <v>620</v>
       </c>
       <c r="C511" s="18" t="s">
-        <v>261</v>
+        <v>621</v>
       </c>
       <c r="D511" s="19">
-        <v>4301070981</v>
+        <v>4301071038</v>
       </c>
       <c r="E511" s="18">
-        <v>4607111036728</v>
+        <v>4607111039248</v>
       </c>
       <c r="F511" s="20" t="s">
-        <v>262</v>
+        <v>622</v>
       </c>
       <c r="G511" s="21"/>
       <c r="H511" s="22" t="s">
@@ -18154,22 +18154,22 @@
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="17" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B512" s="18" t="s">
-        <v>628</v>
+        <v>106</v>
       </c>
       <c r="C512" s="18" t="s">
-        <v>629</v>
+        <v>261</v>
       </c>
       <c r="D512" s="19">
-        <v>4301071039</v>
+        <v>4301070981</v>
       </c>
       <c r="E512" s="18">
-        <v>4607111039279</v>
+        <v>4607111036728</v>
       </c>
       <c r="F512" s="20" t="s">
-        <v>630</v>
+        <v>262</v>
       </c>
       <c r="G512" s="21"/>
       <c r="H512" s="22" t="s">
@@ -18178,22 +18178,22 @@
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="17" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B513" s="18" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="C513" s="18" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="D513" s="19">
-        <v>4301071051</v>
+        <v>4301071039</v>
       </c>
       <c r="E513" s="18">
-        <v>4607111039262</v>
+        <v>4607111039279</v>
       </c>
       <c r="F513" s="20" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="G513" s="21"/>
       <c r="H513" s="22" t="s">
@@ -18202,22 +18202,22 @@
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="17" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B514" s="18" t="s">
-        <v>293</v>
+        <v>616</v>
       </c>
       <c r="C514" s="18" t="s">
-        <v>294</v>
+        <v>617</v>
       </c>
       <c r="D514" s="19">
-        <v>4301132080</v>
+        <v>4301071051</v>
       </c>
       <c r="E514" s="18">
-        <v>4640242180397</v>
+        <v>4607111039262</v>
       </c>
       <c r="F514" s="20" t="s">
-        <v>295</v>
+        <v>618</v>
       </c>
       <c r="G514" s="21"/>
       <c r="H514" s="22" t="s">
@@ -18226,22 +18226,22 @@
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="17" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B515" s="18" t="s">
-        <v>113</v>
+        <v>293</v>
       </c>
       <c r="C515" s="18" t="s">
-        <v>524</v>
+        <v>294</v>
       </c>
       <c r="D515" s="19">
-        <v>4301071029</v>
+        <v>4301132080</v>
       </c>
       <c r="E515" s="18">
-        <v>4607111035899</v>
+        <v>4640242180397</v>
       </c>
       <c r="F515" s="20" t="s">
-        <v>114</v>
+        <v>295</v>
       </c>
       <c r="G515" s="21"/>
       <c r="H515" s="22" t="s">
@@ -18250,22 +18250,22 @@
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="17" t="s">
-        <v>798</v>
-      </c>
-      <c r="B516" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C516" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D516" s="4">
-        <v>4301136053</v>
-      </c>
-      <c r="E516" s="3">
-        <v>4640242180236</v>
-      </c>
-      <c r="F516" s="5" t="s">
-        <v>304</v>
+        <v>797</v>
+      </c>
+      <c r="B516" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C516" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="D516" s="19">
+        <v>4301071029</v>
+      </c>
+      <c r="E516" s="18">
+        <v>4607111035899</v>
+      </c>
+      <c r="F516" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="G516" s="21"/>
       <c r="H516" s="22" t="s">
@@ -18274,22 +18274,22 @@
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="17" t="s">
-        <v>799</v>
-      </c>
-      <c r="B517" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="C517" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="D517" s="19">
-        <v>4301070977</v>
-      </c>
-      <c r="E517" s="18">
-        <v>4607111037411</v>
-      </c>
-      <c r="F517" s="20" t="s">
-        <v>320</v>
+        <v>798</v>
+      </c>
+      <c r="B517" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C517" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D517" s="4">
+        <v>4301136053</v>
+      </c>
+      <c r="E517" s="3">
+        <v>4640242180236</v>
+      </c>
+      <c r="F517" s="5" t="s">
+        <v>304</v>
       </c>
       <c r="G517" s="21"/>
       <c r="H517" s="22" t="s">
@@ -18298,22 +18298,22 @@
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="17" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B518" s="18" t="s">
-        <v>553</v>
+        <v>318</v>
       </c>
       <c r="C518" s="18" t="s">
-        <v>554</v>
+        <v>319</v>
       </c>
       <c r="D518" s="19">
-        <v>4301135375</v>
+        <v>4301070977</v>
       </c>
       <c r="E518" s="18">
-        <v>4640242181486</v>
+        <v>4607111037411</v>
       </c>
       <c r="F518" s="20" t="s">
-        <v>555</v>
+        <v>320</v>
       </c>
       <c r="G518" s="21"/>
       <c r="H518" s="22" t="s">
@@ -18322,70 +18322,70 @@
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="17" t="s">
-        <v>801</v>
-      </c>
-      <c r="B519" s="3" t="s">
-        <v>946</v>
-      </c>
-      <c r="C519" s="3" t="s">
-        <v>947</v>
-      </c>
-      <c r="D519" s="4">
-        <v>4301135760</v>
-      </c>
-      <c r="E519" s="3">
-        <v>4620207491010</v>
-      </c>
-      <c r="F519" s="5" t="s">
-        <v>948</v>
+        <v>800</v>
+      </c>
+      <c r="B519" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="C519" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="D519" s="19">
+        <v>4301135375</v>
+      </c>
+      <c r="E519" s="18">
+        <v>4640242181486</v>
+      </c>
+      <c r="F519" s="20" t="s">
+        <v>555</v>
       </c>
       <c r="G519" s="21"/>
-      <c r="H519" s="16" t="s">
-        <v>942</v>
+      <c r="H519" s="22" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="17" t="s">
-        <v>802</v>
-      </c>
-      <c r="B520" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C520" s="18" t="s">
-        <v>631</v>
-      </c>
-      <c r="D520" s="19">
-        <v>4301071050</v>
-      </c>
-      <c r="E520" s="18">
-        <v>4607111036216</v>
-      </c>
-      <c r="F520" s="20" t="s">
-        <v>632</v>
+        <v>801</v>
+      </c>
+      <c r="B520" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="C520" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="D520" s="4">
+        <v>4301135760</v>
+      </c>
+      <c r="E520" s="3">
+        <v>4620207491010</v>
+      </c>
+      <c r="F520" s="5" t="s">
+        <v>948</v>
       </c>
       <c r="G520" s="21"/>
-      <c r="H520" s="22" t="s">
-        <v>853</v>
+      <c r="H520" s="16" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="17" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B521" s="18" t="s">
-        <v>624</v>
+        <v>112</v>
       </c>
       <c r="C521" s="18" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="D521" s="19">
-        <v>4301071049</v>
+        <v>4301071050</v>
       </c>
       <c r="E521" s="18">
-        <v>4607111039293</v>
+        <v>4607111036216</v>
       </c>
       <c r="F521" s="20" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="G521" s="21"/>
       <c r="H521" s="22" t="s">
@@ -18394,22 +18394,22 @@
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="17" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B522" s="18" t="s">
-        <v>651</v>
+        <v>624</v>
       </c>
       <c r="C522" s="18" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="D522" s="19">
-        <v>4301135532</v>
+        <v>4301071049</v>
       </c>
       <c r="E522" s="18">
-        <v>4607111033994</v>
+        <v>4607111039293</v>
       </c>
       <c r="F522" s="20" t="s">
-        <v>653</v>
+        <v>626</v>
       </c>
       <c r="G522" s="21"/>
       <c r="H522" s="22" t="s">
@@ -18418,22 +18418,22 @@
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="17" t="s">
-        <v>805</v>
-      </c>
-      <c r="B523" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="C523" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="D523" s="4">
-        <v>4301135555</v>
-      </c>
-      <c r="E523" s="3">
-        <v>4607111034014</v>
-      </c>
-      <c r="F523" s="5" t="s">
-        <v>656</v>
+        <v>804</v>
+      </c>
+      <c r="B523" s="18" t="s">
+        <v>651</v>
+      </c>
+      <c r="C523" s="18" t="s">
+        <v>652</v>
+      </c>
+      <c r="D523" s="19">
+        <v>4301135532</v>
+      </c>
+      <c r="E523" s="18">
+        <v>4607111033994</v>
+      </c>
+      <c r="F523" s="20" t="s">
+        <v>653</v>
       </c>
       <c r="G523" s="21"/>
       <c r="H523" s="22" t="s">
@@ -18442,70 +18442,70 @@
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>939</v>
+        <v>654</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>940</v>
+        <v>655</v>
       </c>
       <c r="D524" s="4">
-        <v>4301135793</v>
+        <v>4301135555</v>
       </c>
       <c r="E524" s="3">
-        <v>4620207491003</v>
+        <v>4607111034014</v>
       </c>
       <c r="F524" s="5" t="s">
-        <v>941</v>
+        <v>656</v>
       </c>
       <c r="G524" s="21"/>
-      <c r="H524" s="16" t="s">
-        <v>942</v>
+      <c r="H524" s="22" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="17" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>382</v>
+        <v>939</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>383</v>
+        <v>940</v>
       </c>
       <c r="D525" s="4">
-        <v>4301136052</v>
+        <v>4301135793</v>
       </c>
       <c r="E525" s="3">
-        <v>4640242180410</v>
+        <v>4620207491003</v>
       </c>
       <c r="F525" s="5" t="s">
-        <v>384</v>
+        <v>941</v>
       </c>
       <c r="G525" s="21"/>
-      <c r="H525" s="22" t="s">
-        <v>853</v>
+      <c r="H525" s="16" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="17" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>549</v>
+        <v>382</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>550</v>
+        <v>383</v>
       </c>
       <c r="D526" s="4">
-        <v>4301135518</v>
+        <v>4301136052</v>
       </c>
       <c r="E526" s="3">
-        <v>4640242181561</v>
+        <v>4640242180410</v>
       </c>
       <c r="F526" s="5" t="s">
-        <v>551</v>
+        <v>384</v>
       </c>
       <c r="G526" s="21"/>
       <c r="H526" s="22" t="s">
@@ -18514,22 +18514,22 @@
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="17" t="s">
-        <v>809</v>
-      </c>
-      <c r="B527" s="18" t="s">
-        <v>599</v>
-      </c>
-      <c r="C527" s="18" t="s">
-        <v>600</v>
-      </c>
-      <c r="D527" s="19">
-        <v>4301135374</v>
-      </c>
-      <c r="E527" s="18">
-        <v>4640242181424</v>
-      </c>
-      <c r="F527" s="20" t="s">
-        <v>601</v>
+        <v>808</v>
+      </c>
+      <c r="B527" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C527" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D527" s="4">
+        <v>4301135518</v>
+      </c>
+      <c r="E527" s="3">
+        <v>4640242181561</v>
+      </c>
+      <c r="F527" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="G527" s="21"/>
       <c r="H527" s="22" t="s">
@@ -18538,22 +18538,22 @@
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="17" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B528" s="18" t="s">
-        <v>854</v>
+        <v>599</v>
       </c>
       <c r="C528" s="18" t="s">
-        <v>855</v>
+        <v>600</v>
       </c>
       <c r="D528" s="19">
-        <v>4301132079</v>
+        <v>4301135374</v>
       </c>
       <c r="E528" s="18">
-        <v>4607111038487</v>
+        <v>4640242181424</v>
       </c>
       <c r="F528" s="20" t="s">
-        <v>425</v>
+        <v>601</v>
       </c>
       <c r="G528" s="21"/>
       <c r="H528" s="22" t="s">
@@ -18562,22 +18562,22 @@
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="17" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B529" s="18" t="s">
-        <v>164</v>
+        <v>854</v>
       </c>
       <c r="C529" s="18" t="s">
-        <v>634</v>
+        <v>855</v>
       </c>
       <c r="D529" s="19">
-        <v>4301071056</v>
+        <v>4301132079</v>
       </c>
       <c r="E529" s="18">
-        <v>4640242180250</v>
+        <v>4607111038487</v>
       </c>
       <c r="F529" s="20" t="s">
-        <v>635</v>
+        <v>425</v>
       </c>
       <c r="G529" s="21"/>
       <c r="H529" s="22" t="s">
@@ -18586,22 +18586,22 @@
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="17" t="s">
-        <v>812</v>
-      </c>
-      <c r="B530" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C530" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D530" s="4">
-        <v>4301136051</v>
-      </c>
-      <c r="E530" s="3">
-        <v>4640242180304</v>
-      </c>
-      <c r="F530" s="5" t="s">
-        <v>301</v>
+        <v>811</v>
+      </c>
+      <c r="B530" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C530" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="D530" s="19">
+        <v>4301071056</v>
+      </c>
+      <c r="E530" s="18">
+        <v>4640242180250</v>
+      </c>
+      <c r="F530" s="20" t="s">
+        <v>635</v>
       </c>
       <c r="G530" s="21"/>
       <c r="H530" s="22" t="s">
@@ -18610,22 +18610,22 @@
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="B531" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C531" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D531" s="19">
-        <v>4301070920</v>
-      </c>
-      <c r="E531" s="18">
-        <v>4607111035929</v>
-      </c>
-      <c r="F531" s="20" t="s">
-        <v>111</v>
+        <v>812</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C531" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D531" s="4">
+        <v>4301136051</v>
+      </c>
+      <c r="E531" s="3">
+        <v>4640242180304</v>
+      </c>
+      <c r="F531" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="G531" s="21"/>
       <c r="H531" s="22" t="s">
@@ -18634,22 +18634,22 @@
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="17" t="s">
-        <v>814</v>
-      </c>
-      <c r="B532" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="C532" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="D532" s="4">
-        <v>4301135550</v>
-      </c>
-      <c r="E532" s="3">
-        <v>4607111034199</v>
-      </c>
-      <c r="F532" s="5" t="s">
-        <v>744</v>
+        <v>813</v>
+      </c>
+      <c r="B532" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C532" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D532" s="19">
+        <v>4301070920</v>
+      </c>
+      <c r="E532" s="18">
+        <v>4607111035929</v>
+      </c>
+      <c r="F532" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="G532" s="21"/>
       <c r="H532" s="22" t="s">
@@ -18658,22 +18658,22 @@
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="17" t="s">
-        <v>815</v>
-      </c>
-      <c r="B533" s="18" t="s">
-        <v>739</v>
-      </c>
-      <c r="C533" s="18" t="s">
-        <v>740</v>
-      </c>
-      <c r="D533" s="19">
-        <v>4301132186</v>
-      </c>
-      <c r="E533" s="18">
-        <v>4607111036520</v>
-      </c>
-      <c r="F533" s="20" t="s">
-        <v>741</v>
+        <v>814</v>
+      </c>
+      <c r="B533" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="C533" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="D533" s="4">
+        <v>4301135550</v>
+      </c>
+      <c r="E533" s="3">
+        <v>4607111034199</v>
+      </c>
+      <c r="F533" s="5" t="s">
+        <v>744</v>
       </c>
       <c r="G533" s="21"/>
       <c r="H533" s="22" t="s">
@@ -18682,22 +18682,22 @@
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="17" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B534" s="18" t="s">
-        <v>612</v>
+        <v>739</v>
       </c>
       <c r="C534" s="18" t="s">
-        <v>613</v>
+        <v>740</v>
       </c>
       <c r="D534" s="19">
-        <v>4301071047</v>
+        <v>4301132186</v>
       </c>
       <c r="E534" s="18">
-        <v>4607111039330</v>
+        <v>4607111036520</v>
       </c>
       <c r="F534" s="20" t="s">
-        <v>614</v>
+        <v>741</v>
       </c>
       <c r="G534" s="21"/>
       <c r="H534" s="22" t="s">
@@ -18706,22 +18706,22 @@
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="17" t="s">
-        <v>817</v>
-      </c>
-      <c r="B535" s="3" t="s">
-        <v>781</v>
-      </c>
-      <c r="C535" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="D535" s="4">
-        <v>4301131047</v>
-      </c>
-      <c r="E535" s="3">
-        <v>4607111034120</v>
-      </c>
-      <c r="F535" s="5" t="s">
-        <v>783</v>
+        <v>816</v>
+      </c>
+      <c r="B535" s="18" t="s">
+        <v>612</v>
+      </c>
+      <c r="C535" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="D535" s="19">
+        <v>4301071047</v>
+      </c>
+      <c r="E535" s="18">
+        <v>4607111039330</v>
+      </c>
+      <c r="F535" s="20" t="s">
+        <v>614</v>
       </c>
       <c r="G535" s="21"/>
       <c r="H535" s="22" t="s">
@@ -18730,70 +18730,70 @@
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="17" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>902</v>
+        <v>781</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>903</v>
+        <v>782</v>
       </c>
       <c r="D536" s="4">
-        <v>4301135763</v>
+        <v>4301131047</v>
       </c>
       <c r="E536" s="3">
-        <v>4620207491027</v>
+        <v>4607111034120</v>
       </c>
       <c r="F536" s="5" t="s">
-        <v>904</v>
+        <v>783</v>
       </c>
       <c r="G536" s="21"/>
       <c r="H536" s="22" t="s">
-        <v>961</v>
+        <v>853</v>
       </c>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="17" t="s">
-        <v>819</v>
-      </c>
-      <c r="B537" s="18" t="s">
-        <v>557</v>
-      </c>
-      <c r="C537" s="18" t="s">
-        <v>558</v>
-      </c>
-      <c r="D537" s="19">
-        <v>4301135405</v>
-      </c>
-      <c r="E537" s="18">
-        <v>4640242181523</v>
-      </c>
-      <c r="F537" s="20" t="s">
-        <v>559</v>
+        <v>818</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="C537" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="D537" s="4">
+        <v>4301135763</v>
+      </c>
+      <c r="E537" s="3">
+        <v>4620207491027</v>
+      </c>
+      <c r="F537" s="5" t="s">
+        <v>904</v>
       </c>
       <c r="G537" s="21"/>
       <c r="H537" s="22" t="s">
-        <v>853</v>
+        <v>961</v>
       </c>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="17" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B538" s="18" t="s">
-        <v>706</v>
+        <v>557</v>
       </c>
       <c r="C538" s="18" t="s">
-        <v>707</v>
+        <v>558</v>
       </c>
       <c r="D538" s="19">
-        <v>4301135402</v>
+        <v>4301135405</v>
       </c>
       <c r="E538" s="18">
-        <v>4640242181493</v>
+        <v>4640242181523</v>
       </c>
       <c r="F538" s="20" t="s">
-        <v>705</v>
+        <v>559</v>
       </c>
       <c r="G538" s="21"/>
       <c r="H538" s="22" t="s">
@@ -18802,22 +18802,22 @@
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="17" t="s">
-        <v>821</v>
-      </c>
-      <c r="B539" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="C539" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="D539" s="4">
-        <v>4301131046</v>
-      </c>
-      <c r="E539" s="3">
-        <v>4607111034137</v>
-      </c>
-      <c r="F539" s="5" t="s">
-        <v>883</v>
+        <v>820</v>
+      </c>
+      <c r="B539" s="18" t="s">
+        <v>706</v>
+      </c>
+      <c r="C539" s="18" t="s">
+        <v>707</v>
+      </c>
+      <c r="D539" s="19">
+        <v>4301135402</v>
+      </c>
+      <c r="E539" s="18">
+        <v>4640242181493</v>
+      </c>
+      <c r="F539" s="20" t="s">
+        <v>705</v>
       </c>
       <c r="G539" s="21"/>
       <c r="H539" s="22" t="s">
@@ -18826,22 +18826,22 @@
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="D540" s="4">
-        <v>4301136079</v>
+        <v>4301131046</v>
       </c>
       <c r="E540" s="3">
-        <v>4607025784319</v>
+        <v>4607111034137</v>
       </c>
       <c r="F540" s="5" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="G540" s="21"/>
       <c r="H540" s="22" t="s">
@@ -18850,22 +18850,22 @@
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>955</v>
+        <v>887</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>956</v>
+        <v>888</v>
       </c>
       <c r="D541" s="4">
-        <v>4301135753</v>
+        <v>4301136079</v>
       </c>
       <c r="E541" s="3">
-        <v>4620207490914</v>
+        <v>4607025784319</v>
       </c>
       <c r="F541" s="5" t="s">
-        <v>957</v>
+        <v>889</v>
       </c>
       <c r="G541" s="21"/>
       <c r="H541" s="22" t="s">
@@ -18874,70 +18874,70 @@
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>943</v>
+        <v>955</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>944</v>
+        <v>956</v>
       </c>
       <c r="D542" s="4">
-        <v>4301135778</v>
+        <v>4301135753</v>
       </c>
       <c r="E542" s="3">
-        <v>4620207490853</v>
+        <v>4620207490914</v>
       </c>
       <c r="F542" s="5" t="s">
-        <v>945</v>
+        <v>957</v>
       </c>
       <c r="G542" s="21"/>
-      <c r="H542" s="16" t="s">
-        <v>949</v>
+      <c r="H542" s="22" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="17" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>869</v>
+        <v>943</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>870</v>
+        <v>944</v>
       </c>
       <c r="D543" s="4">
-        <v>4301132179</v>
+        <v>4301135778</v>
       </c>
       <c r="E543" s="3">
-        <v>4607111035691</v>
+        <v>4620207490853</v>
       </c>
       <c r="F543" s="5" t="s">
-        <v>871</v>
+        <v>945</v>
       </c>
       <c r="G543" s="21"/>
-      <c r="H543" s="22" t="s">
-        <v>853</v>
+      <c r="H543" s="16" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="17" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>736</v>
+        <v>869</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>737</v>
+        <v>870</v>
       </c>
       <c r="D544" s="4">
-        <v>4301132190</v>
+        <v>4301132179</v>
       </c>
       <c r="E544" s="3">
-        <v>4607111036537</v>
+        <v>4607111035691</v>
       </c>
       <c r="F544" s="5" t="s">
-        <v>738</v>
+        <v>871</v>
       </c>
       <c r="G544" s="21"/>
       <c r="H544" s="22" t="s">
@@ -18946,22 +18946,22 @@
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" s="17" t="s">
-        <v>827</v>
-      </c>
-      <c r="B545" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="C545" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="D545" s="19">
-        <v>4301131019</v>
-      </c>
-      <c r="E545" s="18">
-        <v>4640242180427</v>
-      </c>
-      <c r="F545" s="20" t="s">
-        <v>377</v>
+        <v>826</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="C545" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="D545" s="4">
+        <v>4301132190</v>
+      </c>
+      <c r="E545" s="3">
+        <v>4607111036537</v>
+      </c>
+      <c r="F545" s="5" t="s">
+        <v>738</v>
       </c>
       <c r="G545" s="21"/>
       <c r="H545" s="22" t="s">
@@ -18970,22 +18970,22 @@
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="17" t="s">
-        <v>828</v>
-      </c>
-      <c r="B546" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="C546" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="D546" s="4">
-        <v>4301135571</v>
-      </c>
-      <c r="E546" s="3">
-        <v>4607111035028</v>
-      </c>
-      <c r="F546" s="5" t="s">
-        <v>892</v>
+        <v>827</v>
+      </c>
+      <c r="B546" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="C546" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="D546" s="19">
+        <v>4301131019</v>
+      </c>
+      <c r="E546" s="18">
+        <v>4640242180427</v>
+      </c>
+      <c r="F546" s="20" t="s">
+        <v>377</v>
       </c>
       <c r="G546" s="21"/>
       <c r="H546" s="22" t="s">
@@ -18994,70 +18994,70 @@
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="C547" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="D547" s="4">
+        <v>4301135571</v>
+      </c>
+      <c r="E547" s="3">
+        <v>4607111035028</v>
+      </c>
+      <c r="F547" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="G547" s="21"/>
+      <c r="H547" s="22" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A548" s="17" t="s">
         <v>829</v>
       </c>
-      <c r="B547" s="3" t="s">
+      <c r="B548" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="C547" s="3" t="s">
+      <c r="C548" s="3" t="s">
         <v>929</v>
       </c>
-      <c r="D547" s="4">
+      <c r="D548" s="4">
         <v>4301135768</v>
       </c>
-      <c r="E547" s="3">
+      <c r="E548" s="3">
         <v>4620207491034</v>
       </c>
-      <c r="F547" s="5" t="s">
+      <c r="F548" s="5" t="s">
         <v>927</v>
       </c>
-      <c r="G547" s="21"/>
-      <c r="H547" s="16" t="s">
+      <c r="G548" s="21"/>
+      <c r="H548" s="16" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="548" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A548" s="17" t="s">
+    <row r="549" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A549" s="17" t="s">
         <v>831</v>
       </c>
-      <c r="B548" s="18" t="s">
+      <c r="B549" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="C548" s="18" t="s">
+      <c r="C549" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="D548" s="19">
+      <c r="D549" s="19">
         <v>4301070960</v>
       </c>
-      <c r="E548" s="18">
+      <c r="E549" s="18">
         <v>4607111038623</v>
       </c>
-      <c r="F548" s="20" t="s">
+      <c r="F549" s="20" t="s">
         <v>489</v>
-      </c>
-      <c r="G548" s="21"/>
-      <c r="H548" s="22" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A549" s="17" t="s">
-        <v>832</v>
-      </c>
-      <c r="B549" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="C549" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="D549" s="19">
-        <v>4301070966</v>
-      </c>
-      <c r="E549" s="18">
-        <v>4607111038135</v>
-      </c>
-      <c r="F549" s="20" t="s">
-        <v>367</v>
       </c>
       <c r="G549" s="21"/>
       <c r="H549" s="22" t="s">
@@ -19065,71 +19065,71 @@
       </c>
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A550" s="10" t="s">
+      <c r="A550" s="17" t="s">
+        <v>832</v>
+      </c>
+      <c r="B550" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="C550" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="D550" s="19">
+        <v>4301070966</v>
+      </c>
+      <c r="E550" s="18">
+        <v>4607111038135</v>
+      </c>
+      <c r="F550" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="G550" s="21"/>
+      <c r="H550" s="22" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A551" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="B550" s="3" t="s">
+      <c r="B551" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="C550" s="3" t="s">
+      <c r="C551" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="D550" s="4">
+      <c r="D551" s="4">
         <v>4301070990</v>
       </c>
-      <c r="E550" s="3">
+      <c r="E551" s="3">
         <v>4607111038494</v>
       </c>
-      <c r="F550" s="5" t="s">
+      <c r="F551" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="G550" s="1"/>
-      <c r="H550" s="16" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A551" s="17" t="s">
-        <v>833</v>
-      </c>
-      <c r="B551" s="18" t="s">
-        <v>856</v>
-      </c>
-      <c r="C551" s="18" t="s">
-        <v>857</v>
-      </c>
-      <c r="D551" s="19">
-        <v>4301070990</v>
-      </c>
-      <c r="E551" s="18">
-        <v>4607111038494</v>
-      </c>
-      <c r="F551" s="20" t="s">
-        <v>858</v>
-      </c>
-      <c r="G551" s="21"/>
-      <c r="H551" s="22" t="s">
+      <c r="G551" s="1"/>
+      <c r="H551" s="16" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" s="17" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B552" s="18" t="s">
-        <v>154</v>
+        <v>856</v>
       </c>
       <c r="C552" s="18" t="s">
-        <v>155</v>
+        <v>857</v>
       </c>
       <c r="D552" s="19">
-        <v>4301070921</v>
+        <v>4301070990</v>
       </c>
       <c r="E552" s="18">
-        <v>4607111035905</v>
+        <v>4607111038494</v>
       </c>
       <c r="F552" s="20" t="s">
-        <v>156</v>
+        <v>858</v>
       </c>
       <c r="G552" s="21"/>
       <c r="H552" s="22" t="s">
@@ -19138,22 +19138,22 @@
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" s="17" t="s">
-        <v>835</v>
-      </c>
-      <c r="B553" s="3" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C553" s="3" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D553" s="4">
-        <v>4301135549</v>
-      </c>
-      <c r="E553" s="3">
-        <v>4607111039095</v>
-      </c>
-      <c r="F553" s="5" t="s">
-        <v>552</v>
+        <v>834</v>
+      </c>
+      <c r="B553" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C553" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D553" s="19">
+        <v>4301070921</v>
+      </c>
+      <c r="E553" s="18">
+        <v>4607111035905</v>
+      </c>
+      <c r="F553" s="20" t="s">
+        <v>156</v>
       </c>
       <c r="G553" s="21"/>
       <c r="H553" s="22" t="s">
@@ -19162,22 +19162,22 @@
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" s="17" t="s">
-        <v>836</v>
-      </c>
-      <c r="B554" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C554" s="18" t="s">
-        <v>526</v>
-      </c>
-      <c r="D554" s="19">
-        <v>4301135285</v>
-      </c>
-      <c r="E554" s="18">
-        <v>4607111036407</v>
-      </c>
-      <c r="F554" s="20" t="s">
-        <v>186</v>
+        <v>835</v>
+      </c>
+      <c r="B554" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C554" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D554" s="4">
+        <v>4301135549</v>
+      </c>
+      <c r="E554" s="3">
+        <v>4607111039095</v>
+      </c>
+      <c r="F554" s="5" t="s">
+        <v>552</v>
       </c>
       <c r="G554" s="21"/>
       <c r="H554" s="22" t="s">
@@ -19186,22 +19186,22 @@
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" s="17" t="s">
-        <v>712</v>
-      </c>
-      <c r="B555" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="C555" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="D555" s="4">
-        <v>4301135607</v>
-      </c>
-      <c r="E555" s="3">
-        <v>4607111039613</v>
-      </c>
-      <c r="F555" s="5" t="s">
-        <v>712</v>
+        <v>836</v>
+      </c>
+      <c r="B555" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C555" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="D555" s="19">
+        <v>4301135285</v>
+      </c>
+      <c r="E555" s="18">
+        <v>4607111036407</v>
+      </c>
+      <c r="F555" s="20" t="s">
+        <v>186</v>
       </c>
       <c r="G555" s="21"/>
       <c r="H555" s="22" t="s">
@@ -19210,22 +19210,22 @@
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" s="17" t="s">
-        <v>837</v>
-      </c>
-      <c r="B556" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C556" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D556" s="19">
-        <v>4301080153</v>
-      </c>
-      <c r="E556" s="18">
-        <v>4607111036827</v>
-      </c>
-      <c r="F556" s="20" t="s">
-        <v>129</v>
+        <v>712</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C556" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="D556" s="4">
+        <v>4301135607</v>
+      </c>
+      <c r="E556" s="3">
+        <v>4607111039613</v>
+      </c>
+      <c r="F556" s="5" t="s">
+        <v>712</v>
       </c>
       <c r="G556" s="21"/>
       <c r="H556" s="22" t="s">
@@ -19234,22 +19234,22 @@
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" s="17" t="s">
-        <v>838</v>
-      </c>
-      <c r="B557" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="C557" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="D557" s="4">
-        <v>4301135574</v>
-      </c>
-      <c r="E557" s="3">
-        <v>4607111033659</v>
-      </c>
-      <c r="F557" s="5" t="s">
-        <v>726</v>
+        <v>837</v>
+      </c>
+      <c r="B557" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C557" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D557" s="19">
+        <v>4301080153</v>
+      </c>
+      <c r="E557" s="18">
+        <v>4607111036827</v>
+      </c>
+      <c r="F557" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="G557" s="21"/>
       <c r="H557" s="22" t="s">
@@ -19258,22 +19258,22 @@
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" s="17" t="s">
-        <v>839</v>
-      </c>
-      <c r="B558" s="18" t="s">
-        <v>668</v>
-      </c>
-      <c r="C558" s="18" t="s">
-        <v>669</v>
-      </c>
-      <c r="D558" s="19">
-        <v>4301071044</v>
-      </c>
-      <c r="E558" s="18">
-        <v>4607111039385</v>
-      </c>
-      <c r="F558" s="20" t="s">
-        <v>670</v>
+        <v>838</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="C558" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="D558" s="4">
+        <v>4301135574</v>
+      </c>
+      <c r="E558" s="3">
+        <v>4607111033659</v>
+      </c>
+      <c r="F558" s="5" t="s">
+        <v>726</v>
       </c>
       <c r="G558" s="21"/>
       <c r="H558" s="22" t="s">
@@ -19282,22 +19282,22 @@
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" s="17" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B559" s="18" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C559" s="18" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D559" s="19">
-        <v>4301071031</v>
+        <v>4301071044</v>
       </c>
       <c r="E559" s="18">
-        <v>4607111038982</v>
+        <v>4607111039385</v>
       </c>
       <c r="F559" s="20" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="G559" s="21"/>
       <c r="H559" s="22" t="s">
@@ -19306,22 +19306,22 @@
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" s="17" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B560" s="18" t="s">
-        <v>181</v>
+        <v>685</v>
       </c>
       <c r="C560" s="18" t="s">
-        <v>182</v>
+        <v>686</v>
       </c>
       <c r="D560" s="19">
-        <v>4301070917</v>
+        <v>4301071031</v>
       </c>
       <c r="E560" s="18">
-        <v>4607111035912</v>
+        <v>4607111038982</v>
       </c>
       <c r="F560" s="20" t="s">
-        <v>183</v>
+        <v>687</v>
       </c>
       <c r="G560" s="21"/>
       <c r="H560" s="22" t="s">
@@ -19330,22 +19330,22 @@
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" s="17" t="s">
-        <v>842</v>
-      </c>
-      <c r="B561" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C561" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="D561" s="4">
-        <v>4301136070</v>
-      </c>
-      <c r="E561" s="3">
-        <v>4607025784012</v>
-      </c>
-      <c r="F561" s="5" t="s">
-        <v>170</v>
+        <v>841</v>
+      </c>
+      <c r="B561" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C561" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D561" s="19">
+        <v>4301070917</v>
+      </c>
+      <c r="E561" s="18">
+        <v>4607111035912</v>
+      </c>
+      <c r="F561" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="G561" s="21"/>
       <c r="H561" s="22" t="s">
@@ -19354,46 +19354,46 @@
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" s="17" t="s">
-        <v>843</v>
-      </c>
-      <c r="B562" s="18" t="s">
-        <v>608</v>
-      </c>
-      <c r="C562" s="18" t="s">
-        <v>609</v>
-      </c>
-      <c r="D562" s="19">
-        <v>4301071046</v>
-      </c>
-      <c r="E562" s="18">
-        <v>4607111039354</v>
-      </c>
-      <c r="F562" s="20" t="s">
-        <v>610</v>
+        <v>842</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C562" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D562" s="4">
+        <v>4301136070</v>
+      </c>
+      <c r="E562" s="3">
+        <v>4607025784012</v>
+      </c>
+      <c r="F562" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="G562" s="21"/>
       <c r="H562" s="22" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="563" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" s="17" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B563" s="18" t="s">
-        <v>859</v>
+        <v>608</v>
       </c>
       <c r="C563" s="18" t="s">
-        <v>860</v>
+        <v>609</v>
       </c>
       <c r="D563" s="19">
-        <v>4301070959</v>
+        <v>4301071046</v>
       </c>
       <c r="E563" s="18">
-        <v>4607111038616</v>
+        <v>4607111039354</v>
       </c>
       <c r="F563" s="20" t="s">
-        <v>861</v>
+        <v>610</v>
       </c>
       <c r="G563" s="21"/>
       <c r="H563" s="22" t="s">
@@ -19402,46 +19402,46 @@
     </row>
     <row r="564" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A564" s="17" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B564" s="18" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C564" s="18" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D564" s="19">
-        <v>4301070962</v>
+        <v>4301070959</v>
       </c>
       <c r="E564" s="18">
-        <v>4607111038609</v>
+        <v>4607111038616</v>
       </c>
       <c r="F564" s="20" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="G564" s="21"/>
       <c r="H564" s="22" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A565" s="17" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B565" s="18" t="s">
-        <v>254</v>
+        <v>862</v>
       </c>
       <c r="C565" s="18" t="s">
-        <v>255</v>
+        <v>863</v>
       </c>
       <c r="D565" s="19">
-        <v>4301070948</v>
+        <v>4301070962</v>
       </c>
       <c r="E565" s="18">
-        <v>4607111037022</v>
+        <v>4607111038609</v>
       </c>
       <c r="F565" s="20" t="s">
-        <v>152</v>
+        <v>864</v>
       </c>
       <c r="G565" s="21"/>
       <c r="H565" s="22" t="s">
@@ -19450,22 +19450,22 @@
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" s="17" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B566" s="18" t="s">
-        <v>699</v>
+        <v>254</v>
       </c>
       <c r="C566" s="18" t="s">
-        <v>700</v>
+        <v>255</v>
       </c>
       <c r="D566" s="19">
-        <v>4301135570</v>
+        <v>4301070948</v>
       </c>
       <c r="E566" s="18">
-        <v>4607111035806</v>
+        <v>4607111037022</v>
       </c>
       <c r="F566" s="20" t="s">
-        <v>701</v>
+        <v>152</v>
       </c>
       <c r="G566" s="21"/>
       <c r="H566" s="22" t="s">
@@ -19474,22 +19474,22 @@
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567" s="17" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B567" s="18" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
       <c r="C567" s="18" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="D567" s="19">
-        <v>4301071032</v>
+        <v>4301135570</v>
       </c>
       <c r="E567" s="18">
-        <v>4607111038999</v>
+        <v>4607111035806</v>
       </c>
       <c r="F567" s="20" t="s">
-        <v>730</v>
+        <v>701</v>
       </c>
       <c r="G567" s="21"/>
       <c r="H567" s="22" t="s">
@@ -19498,22 +19498,22 @@
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" s="17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B568" s="18" t="s">
-        <v>672</v>
+        <v>728</v>
       </c>
       <c r="C568" s="18" t="s">
-        <v>673</v>
+        <v>729</v>
       </c>
       <c r="D568" s="19">
-        <v>4301071045</v>
+        <v>4301071032</v>
       </c>
       <c r="E568" s="18">
-        <v>4607111039392</v>
+        <v>4607111038999</v>
       </c>
       <c r="F568" s="20" t="s">
-        <v>674</v>
+        <v>730</v>
       </c>
       <c r="G568" s="21"/>
       <c r="H568" s="22" t="s">
@@ -19522,22 +19522,22 @@
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" s="17" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B569" s="18" t="s">
-        <v>483</v>
+        <v>672</v>
       </c>
       <c r="C569" s="18" t="s">
-        <v>484</v>
+        <v>673</v>
       </c>
       <c r="D569" s="19">
-        <v>4301070963</v>
+        <v>4301071045</v>
       </c>
       <c r="E569" s="18">
-        <v>4607111038630</v>
+        <v>4607111039392</v>
       </c>
       <c r="F569" s="20" t="s">
-        <v>485</v>
+        <v>674</v>
       </c>
       <c r="G569" s="21"/>
       <c r="H569" s="22" t="s">
@@ -19546,22 +19546,22 @@
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" s="17" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B570" s="18" t="s">
-        <v>590</v>
+        <v>483</v>
       </c>
       <c r="C570" s="18" t="s">
-        <v>591</v>
+        <v>484</v>
       </c>
       <c r="D570" s="19">
-        <v>4301071054</v>
+        <v>4301070963</v>
       </c>
       <c r="E570" s="18">
-        <v>4607111035639</v>
+        <v>4607111038630</v>
       </c>
       <c r="F570" s="20" t="s">
-        <v>592</v>
+        <v>485</v>
       </c>
       <c r="G570" s="21"/>
       <c r="H570" s="22" t="s">
@@ -19570,30 +19570,54 @@
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" s="17" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B571" s="18" t="s">
-        <v>340</v>
+        <v>590</v>
       </c>
       <c r="C571" s="18" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="D571" s="19">
-        <v>4301135540</v>
+        <v>4301071054</v>
       </c>
       <c r="E571" s="18">
-        <v>4607111035646</v>
+        <v>4607111035639</v>
       </c>
       <c r="F571" s="20" t="s">
-        <v>561</v>
+        <v>592</v>
       </c>
       <c r="G571" s="21"/>
       <c r="H571" s="22" t="s">
         <v>853</v>
       </c>
     </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A572" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="B572" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="C572" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="D572" s="19">
+        <v>4301135540</v>
+      </c>
+      <c r="E572" s="18">
+        <v>4607111035646</v>
+      </c>
+      <c r="F572" s="20" t="s">
+        <v>561</v>
+      </c>
+      <c r="G572" s="21"/>
+      <c r="H572" s="22" t="s">
+        <v>853</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F571" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+  <autoFilter ref="A1:F572" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F254">
       <sortCondition ref="A1:A185"/>
     </sortState>
